--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D06D7A-5C5C-4316-B2BD-43EF7BE70AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC5E39-E01B-42D7-A9EF-B18AF995FCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="4788" yWindow="480" windowWidth="16092" windowHeight="10536" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1001,15 +1001,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,6 +1019,15 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1347,23 +1347,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J120" sqref="J120"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="10"/>
-    <col min="2" max="2" width="9.09765625" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.8984375" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86.8984375" style="70" customWidth="1"/>
     <col min="11" max="16384" width="11.19921875" style="10"/>
   </cols>
   <sheetData>
@@ -1371,31 +1371,31 @@
       <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="73" t="str">
+      <c r="J1" s="70" t="str">
         <f t="shared" ref="J1:J64" si="0">TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1</f>
         <v>Date,Cas confirmés,Hospitalisations,Guérisons,En réanimation,Décès en hopital,Cas totaux EHPAD et EMS,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
       </c>
@@ -1404,17 +1404,17 @@
       <c r="A2" s="12">
         <v>43854</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="61">
         <v>3</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="73" t="str">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="70" t="str">
         <f t="shared" si="0"/>
         <v>24/01/2020,3,,,,,,,</v>
       </c>
@@ -1423,15 +1423,15 @@
       <c r="A3" s="12">
         <v>43855</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="73" t="str">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="70" t="str">
         <f t="shared" si="0"/>
         <v>25/01/2020,,,,,,,,</v>
       </c>
@@ -1440,15 +1440,15 @@
       <c r="A4" s="12">
         <v>43856</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="73" t="str">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="70" t="str">
         <f t="shared" si="0"/>
         <v>26/01/2020,,,,,,,,</v>
       </c>
@@ -1457,15 +1457,15 @@
       <c r="A5" s="12">
         <v>43857</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="73" t="str">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="70" t="str">
         <f t="shared" si="0"/>
         <v>27/01/2020,,,,,,,,</v>
       </c>
@@ -1474,19 +1474,19 @@
       <c r="A6" s="12">
         <v>43858</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="61">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63">
         <v>1</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="73" t="str">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="70" t="str">
         <f t="shared" si="0"/>
         <v>28/01/2020,4,,,1,,,,</v>
       </c>
@@ -1495,19 +1495,19 @@
       <c r="A7" s="12">
         <v>43859</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="61">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63">
         <v>2</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="73" t="str">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="70" t="str">
         <f t="shared" si="0"/>
         <v>29/01/2020,5,,,2,,,,</v>
       </c>
@@ -1516,17 +1516,17 @@
       <c r="A8" s="12">
         <v>43860</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="61">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="73" t="str">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="70" t="str">
         <f t="shared" si="0"/>
         <v>30/01/2020,6,,,,,,,</v>
       </c>
@@ -1535,15 +1535,15 @@
       <c r="A9" s="12">
         <v>43861</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="73" t="str">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="70" t="str">
         <f t="shared" si="0"/>
         <v>31/01/2020,,,,,,,,</v>
       </c>
@@ -1552,15 +1552,15 @@
       <c r="A10" s="12">
         <v>43862</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="73" t="str">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="70" t="str">
         <f t="shared" si="0"/>
         <v>01/02/2020,,,,,,,,</v>
       </c>
@@ -1569,17 +1569,17 @@
       <c r="A11" s="12">
         <v>43863</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63">
         <v>1</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="73" t="str">
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="70" t="str">
         <f t="shared" si="0"/>
         <v>02/02/2020,,,,1,,,,</v>
       </c>
@@ -1588,15 +1588,15 @@
       <c r="A12" s="12">
         <v>43864</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="73" t="str">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="70" t="str">
         <f t="shared" si="0"/>
         <v>03/02/2020,,,,,,,,</v>
       </c>
@@ -1605,15 +1605,15 @@
       <c r="A13" s="12">
         <v>43865</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="73" t="str">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="70" t="str">
         <f t="shared" si="0"/>
         <v>04/02/2020,,,,,,,,</v>
       </c>
@@ -1622,15 +1622,15 @@
       <c r="A14" s="12">
         <v>43866</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="73" t="str">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="70" t="str">
         <f t="shared" si="0"/>
         <v>05/02/2020,,,,,,,,</v>
       </c>
@@ -1639,15 +1639,15 @@
       <c r="A15" s="12">
         <v>43867</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="73" t="str">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="70" t="str">
         <f t="shared" si="0"/>
         <v>06/02/2020,,,,,,,,</v>
       </c>
@@ -1656,17 +1656,17 @@
       <c r="A16" s="12">
         <v>43868</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="63">
         <v>11</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="73" t="str">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="70" t="str">
         <f t="shared" si="0"/>
         <v>07/02/2020,11,,,,,,,</v>
       </c>
@@ -1675,15 +1675,15 @@
       <c r="A17" s="12">
         <v>43869</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="73" t="str">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="70" t="str">
         <f t="shared" si="0"/>
         <v>08/02/2020,,,,,,,,</v>
       </c>
@@ -1692,15 +1692,15 @@
       <c r="A18" s="12">
         <v>43870</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="73" t="str">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="70" t="str">
         <f t="shared" si="0"/>
         <v>09/02/2020,,,,,,,,</v>
       </c>
@@ -1709,15 +1709,15 @@
       <c r="A19" s="12">
         <v>43871</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="73" t="str">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="70" t="str">
         <f t="shared" si="0"/>
         <v>10/02/2020,,,,,,,,</v>
       </c>
@@ -1726,15 +1726,15 @@
       <c r="A20" s="12">
         <v>43872</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="73" t="str">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="70" t="str">
         <f t="shared" si="0"/>
         <v>11/02/2020,,,,,,,,</v>
       </c>
@@ -1743,17 +1743,17 @@
       <c r="A21" s="12">
         <v>43873</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="64">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61">
         <v>2</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="73" t="str">
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="70" t="str">
         <f t="shared" si="0"/>
         <v>12/02/2020,,,2,,,,,</v>
       </c>
@@ -1762,17 +1762,17 @@
       <c r="A22" s="12">
         <v>43874</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="64">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="61">
         <v>3</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="73" t="str">
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="70" t="str">
         <f t="shared" si="0"/>
         <v>13/02/2020,,,3,,,,,</v>
       </c>
@@ -1781,19 +1781,19 @@
       <c r="A23" s="12">
         <v>43875</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="64">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="61">
         <v>1</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="61">
         <v>1</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="73" t="str">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="70" t="str">
         <f t="shared" si="0"/>
         <v>14/02/2020,,,,1,1,,,</v>
       </c>
@@ -1802,23 +1802,23 @@
       <c r="A24" s="12">
         <v>43876</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="61">
         <v>12</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="63">
         <v>7</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="61">
         <v>4</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64">
+      <c r="E24" s="62"/>
+      <c r="F24" s="61">
         <v>1</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="73" t="str">
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="70" t="str">
         <f t="shared" si="0"/>
         <v>15/02/2020,12,7,4,,1,,,</v>
       </c>
@@ -1827,17 +1827,17 @@
       <c r="A25" s="12">
         <v>43877</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="64">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="61">
         <v>1</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="73" t="str">
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="70" t="str">
         <f t="shared" si="0"/>
         <v>16/02/2020,,,,,1,,,</v>
       </c>
@@ -1846,17 +1846,17 @@
       <c r="A26" s="12">
         <v>43878</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="64">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="61">
         <v>1</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="73" t="str">
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="70" t="str">
         <f t="shared" si="0"/>
         <v>17/02/2020,,,,,1,,,</v>
       </c>
@@ -1865,17 +1865,17 @@
       <c r="A27" s="12">
         <v>43879</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="64">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="61">
         <v>1</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="73" t="str">
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="70" t="str">
         <f t="shared" si="0"/>
         <v>18/02/2020,,,,,1,,,</v>
       </c>
@@ -1884,21 +1884,21 @@
       <c r="A28" s="12">
         <v>43880</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63">
         <v>4</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="61">
         <v>7</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="64">
+      <c r="E28" s="62"/>
+      <c r="F28" s="61">
         <v>1</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="73" t="str">
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="70" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2020,,4,7,,1,,,</v>
       </c>
@@ -1907,19 +1907,19 @@
       <c r="A29" s="12">
         <v>43881</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66">
+      <c r="B29" s="62"/>
+      <c r="C29" s="63">
         <v>11</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="64">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="61">
         <v>1</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="73" t="str">
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="70" t="str">
         <f t="shared" si="0"/>
         <v>20/02/2020,,11,,,1,,,</v>
       </c>
@@ -1928,21 +1928,21 @@
       <c r="A30" s="12">
         <v>43882</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63">
         <v>1</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="64">
         <v>10</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="64">
+      <c r="E30" s="62"/>
+      <c r="F30" s="61">
         <v>1</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="73" t="str">
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="70" t="str">
         <f t="shared" si="0"/>
         <v>21/02/2020,,1,10,,1,,,</v>
       </c>
@@ -1951,17 +1951,17 @@
       <c r="A31" s="12">
         <v>43883</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="64">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="61">
         <v>1</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="73" t="str">
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="70" t="str">
         <f t="shared" si="0"/>
         <v>22/02/2020,,,,,1,,,</v>
       </c>
@@ -1970,19 +1970,19 @@
       <c r="A32" s="12">
         <v>43884</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63">
         <v>1</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="64">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="61">
         <v>1</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="73" t="str">
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="70" t="str">
         <f t="shared" si="0"/>
         <v>23/02/2020,,1,,,1,,,</v>
       </c>
@@ -1991,17 +1991,17 @@
       <c r="A33" s="12">
         <v>43885</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="64">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="61">
         <v>1</v>
       </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="73" t="str">
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="70" t="str">
         <f t="shared" si="0"/>
         <v>24/02/2020,,,,,1,,,</v>
       </c>
@@ -2010,23 +2010,23 @@
       <c r="A34" s="12">
         <v>43886</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="61">
         <v>14</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="63">
         <v>2</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="64">
+      <c r="D34" s="62"/>
+      <c r="E34" s="61">
         <v>2</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="61">
         <v>1</v>
       </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="73" t="str">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="70" t="str">
         <f t="shared" si="0"/>
         <v>25/02/2020,14,2,,2,1,,,</v>
       </c>
@@ -2035,23 +2035,23 @@
       <c r="A35" s="12">
         <v>43887</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="61">
         <v>18</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="63">
         <v>4</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="61">
         <v>12</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64">
+      <c r="E35" s="62"/>
+      <c r="F35" s="61">
         <v>2</v>
       </c>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="73" t="str">
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="70" t="str">
         <f t="shared" si="0"/>
         <v>26/02/2020,18,4,12,,2,,,</v>
       </c>
@@ -2060,21 +2060,21 @@
       <c r="A36" s="12">
         <v>43888</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="61">
         <v>38</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="63">
         <v>24</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="64">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="61">
         <v>2</v>
       </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="73" t="str">
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="70" t="str">
         <f t="shared" si="0"/>
         <v>27/02/2020,38,24,,,2,,,</v>
       </c>
@@ -2083,19 +2083,19 @@
       <c r="A37" s="12">
         <v>43889</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="61">
         <v>57</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64">
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="61">
         <v>2</v>
       </c>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="73" t="str">
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="70" t="str">
         <f t="shared" si="0"/>
         <v>28/02/2020,57,,,,2,,,</v>
       </c>
@@ -2104,23 +2104,23 @@
       <c r="A38" s="12">
         <v>43890</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="61">
         <v>100</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="63">
         <v>86</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="64">
+      <c r="D38" s="62"/>
+      <c r="E38" s="61">
         <v>9</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="61">
         <v>2</v>
       </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="73" t="str">
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="70" t="str">
         <f t="shared" si="0"/>
         <v>29/02/2020,100,86,,9,2,,,</v>
       </c>
@@ -2129,21 +2129,21 @@
       <c r="A39" s="12">
         <v>43891</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="61">
         <v>130</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="63">
         <v>116</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="64">
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="61">
         <v>2</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="73" t="str">
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="70" t="str">
         <f t="shared" si="0"/>
         <v>01/03/2020,130,116,,,2,,,</v>
       </c>
@@ -2152,19 +2152,19 @@
       <c r="A40" s="12">
         <v>43892</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="61">
         <v>191</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66">
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63">
         <v>3</v>
       </c>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="73" t="str">
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="70" t="str">
         <f t="shared" si="0"/>
         <v>02/03/2020,191,,,,3,,,</v>
       </c>
@@ -2173,21 +2173,21 @@
       <c r="A41" s="12">
         <v>43893</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41" s="61">
         <v>212</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64">
+      <c r="C41" s="62"/>
+      <c r="D41" s="61">
         <v>12</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="64">
+      <c r="E41" s="62"/>
+      <c r="F41" s="61">
         <v>4</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="73" t="str">
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="70" t="str">
         <f t="shared" si="0"/>
         <v>03/03/2020,212,,12,,4,,,</v>
       </c>
@@ -2196,21 +2196,21 @@
       <c r="A42" s="12">
         <v>43894</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="61">
         <v>285</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="64">
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="61">
         <v>15</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="63">
         <v>4</v>
       </c>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="73" t="str">
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="70" t="str">
         <f t="shared" si="0"/>
         <v>04/03/2020,285,,,15,4,,,</v>
       </c>
@@ -2219,21 +2219,21 @@
       <c r="A43" s="12">
         <v>43895</v>
       </c>
-      <c r="B43" s="64">
+      <c r="B43" s="61">
         <v>423</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="64">
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="61">
         <v>23</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="61">
         <v>7</v>
       </c>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="73" t="str">
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="70" t="str">
         <f t="shared" si="0"/>
         <v>05/03/2020,423,,,23,7,,,</v>
       </c>
@@ -2242,21 +2242,21 @@
       <c r="A44" s="12">
         <v>43896</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44" s="61">
         <v>613</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="64">
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="61">
         <v>39</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="61">
         <v>9</v>
       </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="73" t="str">
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="70" t="str">
         <f t="shared" si="0"/>
         <v>06/03/2020,613,,,39,9,,,</v>
       </c>
@@ -2265,21 +2265,21 @@
       <c r="A45" s="12">
         <v>43897</v>
       </c>
-      <c r="B45" s="64">
+      <c r="B45" s="61">
         <v>949</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="64">
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="61">
         <v>45</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="61">
         <v>16</v>
       </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="73" t="str">
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="70" t="str">
         <f t="shared" si="0"/>
         <v>07/03/2020,949,,,45,16,,,</v>
       </c>
@@ -2288,19 +2288,19 @@
       <c r="A46" s="12">
         <v>43898</v>
       </c>
-      <c r="B46" s="64">
+      <c r="B46" s="61">
         <v>1126</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="64">
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="61">
         <v>19</v>
       </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="73" t="str">
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="70" t="str">
         <f t="shared" si="0"/>
         <v>08/03/2020,1126,,,,19,,,</v>
       </c>
@@ -2309,21 +2309,21 @@
       <c r="A47" s="12">
         <v>43899</v>
       </c>
-      <c r="B47" s="64">
+      <c r="B47" s="61">
         <v>1412</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="64">
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="61">
         <v>66</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="61">
         <v>25</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="73" t="str">
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="70" t="str">
         <f t="shared" si="0"/>
         <v>09/03/2020,1412,,,66,25,,,</v>
       </c>
@@ -2332,21 +2332,21 @@
       <c r="A48" s="12">
         <v>43900</v>
       </c>
-      <c r="B48" s="64">
+      <c r="B48" s="61">
         <v>1784</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="64">
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="61">
         <v>86</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="61">
         <v>33</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="73" t="str">
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="70" t="str">
         <f t="shared" si="0"/>
         <v>10/03/2020,1784,,,86,33,,,</v>
       </c>
@@ -2355,21 +2355,21 @@
       <c r="A49" s="12">
         <v>43901</v>
       </c>
-      <c r="B49" s="64">
+      <c r="B49" s="61">
         <v>2281</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="64">
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="61">
         <v>105</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="61">
         <v>48</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="73" t="str">
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="70" t="str">
         <f t="shared" si="0"/>
         <v>11/03/2020,2281,,,105,48,,,</v>
       </c>
@@ -2378,21 +2378,21 @@
       <c r="A50" s="12">
         <v>43902</v>
       </c>
-      <c r="B50" s="64">
+      <c r="B50" s="61">
         <v>2876</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="64">
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="61">
         <v>129</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="61">
         <v>61</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="73" t="str">
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="70" t="str">
         <f t="shared" si="0"/>
         <v>12/03/2020,2876,,,129,61,,,</v>
       </c>
@@ -2401,21 +2401,21 @@
       <c r="A51" s="12">
         <v>43903</v>
       </c>
-      <c r="B51" s="64">
+      <c r="B51" s="61">
         <v>3661</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="64">
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="61">
         <v>154</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="61">
         <v>79</v>
       </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="73" t="str">
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="70" t="str">
         <f t="shared" si="0"/>
         <v>13/03/2020,3661,,,154,79,,,</v>
       </c>
@@ -2424,21 +2424,21 @@
       <c r="A52" s="12">
         <v>43904</v>
       </c>
-      <c r="B52" s="64">
+      <c r="B52" s="61">
         <v>4500</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="64">
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="61">
         <v>300</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="61">
         <v>91</v>
       </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="73" t="str">
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="70" t="str">
         <f t="shared" si="0"/>
         <v>14/03/2020,4500,,,300,91,,,</v>
       </c>
@@ -2447,21 +2447,21 @@
       <c r="A53" s="12">
         <v>43905</v>
       </c>
-      <c r="B53" s="64">
+      <c r="B53" s="61">
         <v>6378</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="61">
         <v>285</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="64">
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="61">
         <v>161</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="73" t="str">
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="70" t="str">
         <f t="shared" si="0"/>
         <v>15/03/2020,6378,285,,,161,,,</v>
       </c>
@@ -2470,19 +2470,19 @@
       <c r="A54" s="12">
         <v>43906</v>
       </c>
-      <c r="B54" s="64">
+      <c r="B54" s="61">
         <v>6633</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="64">
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="61">
         <v>148</v>
       </c>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="73" t="str">
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="70" t="str">
         <f t="shared" si="0"/>
         <v>16/03/2020,6633,,,,148,,,</v>
       </c>
@@ -2491,25 +2491,25 @@
       <c r="A55" s="12">
         <v>43907</v>
       </c>
-      <c r="B55" s="64">
+      <c r="B55" s="61">
         <v>7730</v>
       </c>
-      <c r="C55" s="64">
+      <c r="C55" s="61">
         <v>2579</v>
       </c>
-      <c r="D55" s="64">
+      <c r="D55" s="61">
         <v>602</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="61">
         <v>699</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="61">
         <v>175</v>
       </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="73" t="str">
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="70" t="str">
         <f t="shared" si="0"/>
         <v>17/03/2020,7730,2579,602,699,175,,,</v>
       </c>
@@ -2518,25 +2518,25 @@
       <c r="A56" s="12">
         <v>43908</v>
       </c>
-      <c r="B56" s="64">
+      <c r="B56" s="61">
         <v>9134</v>
       </c>
-      <c r="C56" s="64">
+      <c r="C56" s="61">
         <v>3626</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="61">
         <v>1000</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="61">
         <v>931</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="61">
         <v>264</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="73" t="str">
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="70" t="str">
         <f t="shared" si="0"/>
         <v>18/03/2020,9134,3626,1000,931,264,,,</v>
       </c>
@@ -2545,25 +2545,25 @@
       <c r="A57" s="12">
         <v>43909</v>
       </c>
-      <c r="B57" s="64">
+      <c r="B57" s="61">
         <v>10995</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="61">
         <v>4461</v>
       </c>
-      <c r="D57" s="64">
+      <c r="D57" s="61">
         <v>1300</v>
       </c>
-      <c r="E57" s="64">
+      <c r="E57" s="61">
         <v>1122</v>
       </c>
-      <c r="F57" s="64">
+      <c r="F57" s="61">
         <v>372</v>
       </c>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="73" t="str">
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="70" t="str">
         <f t="shared" si="0"/>
         <v>19/03/2020,10995,4461,1300,1122,372,,,</v>
       </c>
@@ -2572,25 +2572,25 @@
       <c r="A58" s="12">
         <v>43910</v>
       </c>
-      <c r="B58" s="64">
+      <c r="B58" s="61">
         <v>12612</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="61">
         <v>5226</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="61">
         <v>1587</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="61">
         <v>1297</v>
       </c>
-      <c r="F58" s="64">
+      <c r="F58" s="61">
         <v>450</v>
       </c>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="73" t="str">
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="70" t="str">
         <f t="shared" si="0"/>
         <v>20/03/2020,12612,5226,1587,1297,450,,,</v>
       </c>
@@ -2599,25 +2599,25 @@
       <c r="A59" s="12">
         <v>43911</v>
       </c>
-      <c r="B59" s="64">
+      <c r="B59" s="61">
         <v>14459</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="61">
         <v>6172</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="61">
         <v>1811</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="61">
         <v>1525</v>
       </c>
-      <c r="F59" s="64">
+      <c r="F59" s="61">
         <v>562</v>
       </c>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="73" t="str">
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="70" t="str">
         <f t="shared" si="0"/>
         <v>21/03/2020,14459,6172,1811,1525,562,,,</v>
       </c>
@@ -2626,25 +2626,25 @@
       <c r="A60" s="12">
         <v>43912</v>
       </c>
-      <c r="B60" s="64">
+      <c r="B60" s="61">
         <v>16689</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="61">
         <v>7240</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="61">
         <v>2200</v>
       </c>
-      <c r="E60" s="64">
+      <c r="E60" s="61">
         <v>1746</v>
       </c>
-      <c r="F60" s="64">
+      <c r="F60" s="61">
         <v>674</v>
       </c>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="73" t="str">
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="70" t="str">
         <f t="shared" si="0"/>
         <v>22/03/2020,16689,7240,2200,1746,674,,,</v>
       </c>
@@ -2653,25 +2653,25 @@
       <c r="A61" s="12">
         <v>43913</v>
       </c>
-      <c r="B61" s="68">
+      <c r="B61" s="65">
         <v>19856</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="61">
         <v>8675</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="61">
         <v>2567</v>
       </c>
-      <c r="E61" s="64">
+      <c r="E61" s="61">
         <v>2082</v>
       </c>
-      <c r="F61" s="64">
+      <c r="F61" s="61">
         <v>860</v>
       </c>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="73" t="str">
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="70" t="str">
         <f t="shared" si="0"/>
         <v>23/03/2020,19856,8675,2567,2082,860,,,</v>
       </c>
@@ -2680,25 +2680,25 @@
       <c r="A62" s="12">
         <v>43914</v>
       </c>
-      <c r="B62" s="64">
+      <c r="B62" s="61">
         <v>22302</v>
       </c>
-      <c r="C62" s="64">
+      <c r="C62" s="61">
         <v>10176</v>
       </c>
-      <c r="D62" s="64">
+      <c r="D62" s="61">
         <v>3281</v>
       </c>
-      <c r="E62" s="69">
+      <c r="E62" s="66">
         <v>2516</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="61">
         <v>1100</v>
       </c>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="73" t="str">
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="70" t="str">
         <f t="shared" si="0"/>
         <v>24/03/2020,22302,10176,3281,2516,1100,,,</v>
       </c>
@@ -2707,25 +2707,25 @@
       <c r="A63" s="12">
         <v>43915</v>
       </c>
-      <c r="B63" s="64">
+      <c r="B63" s="61">
         <v>25233</v>
       </c>
-      <c r="C63" s="64">
+      <c r="C63" s="61">
         <v>11539</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="61">
         <v>3900</v>
       </c>
-      <c r="E63" s="64">
+      <c r="E63" s="61">
         <v>2827</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="61">
         <v>1331</v>
       </c>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="73" t="str">
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="70" t="str">
         <f t="shared" si="0"/>
         <v>25/03/2020,25233,11539,3900,2827,1331,,,</v>
       </c>
@@ -2734,25 +2734,25 @@
       <c r="A64" s="12">
         <v>43916</v>
       </c>
-      <c r="B64" s="70">
+      <c r="B64" s="67">
         <v>29155</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="67">
         <v>13904</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="64">
         <v>4948</v>
       </c>
-      <c r="E64" s="70">
+      <c r="E64" s="67">
         <v>3375</v>
       </c>
-      <c r="F64" s="70">
+      <c r="F64" s="67">
         <v>1696</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="73" t="str">
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="70" t="str">
         <f t="shared" si="0"/>
         <v>26/03/2020,29155,13904,4948,3375,1696,,,</v>
       </c>
@@ -2761,25 +2761,25 @@
       <c r="A65" s="12">
         <v>43917</v>
       </c>
-      <c r="B65" s="64">
+      <c r="B65" s="61">
         <v>32964</v>
       </c>
-      <c r="C65" s="64">
+      <c r="C65" s="61">
         <v>15732</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="61">
         <v>5698</v>
       </c>
-      <c r="E65" s="64">
+      <c r="E65" s="61">
         <v>3787</v>
       </c>
-      <c r="F65" s="64">
+      <c r="F65" s="61">
         <v>1995</v>
       </c>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="73" t="str">
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="70" t="str">
         <f t="shared" ref="J65:J115" si="1">TEXT(A65,"jj/mm/aaaa")&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65&amp;","&amp;I65</f>
         <v>27/03/2020,32964,15732,5698,3787,1995,,,</v>
       </c>
@@ -2788,25 +2788,25 @@
       <c r="A66" s="12">
         <v>43918</v>
       </c>
-      <c r="B66" s="64">
+      <c r="B66" s="61">
         <v>37575</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="61">
         <v>17620</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="61">
         <v>6624</v>
       </c>
-      <c r="E66" s="64">
+      <c r="E66" s="61">
         <v>4273</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="61">
         <v>2314</v>
       </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="73" t="str">
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="70" t="str">
         <f t="shared" si="1"/>
         <v>28/03/2020,37575,17620,6624,4273,2314,,,</v>
       </c>
@@ -2815,25 +2815,25 @@
       <c r="A67" s="12">
         <v>43919</v>
       </c>
-      <c r="B67" s="64">
+      <c r="B67" s="61">
         <v>40174</v>
       </c>
-      <c r="C67" s="64">
+      <c r="C67" s="61">
         <v>19354</v>
       </c>
-      <c r="D67" s="64">
+      <c r="D67" s="61">
         <v>7131</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="61">
         <v>4632</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="61">
         <v>2606</v>
       </c>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="73" t="str">
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="70" t="str">
         <f t="shared" si="1"/>
         <v>29/03/2020,40174,19354,7131,4632,2606,,,</v>
       </c>
@@ -2842,25 +2842,25 @@
       <c r="A68" s="12">
         <v>43920</v>
       </c>
-      <c r="B68" s="64">
+      <c r="B68" s="61">
         <v>44550</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="61">
         <v>21008</v>
       </c>
-      <c r="D68" s="64">
+      <c r="D68" s="61">
         <v>7924</v>
       </c>
-      <c r="E68" s="64">
+      <c r="E68" s="61">
         <v>5107</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="61">
         <v>3024</v>
       </c>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="73" t="str">
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="70" t="str">
         <f t="shared" si="1"/>
         <v>30/03/2020,44550,21008,7924,5107,3024,,,</v>
       </c>
@@ -2869,25 +2869,25 @@
       <c r="A69" s="12">
         <v>43921</v>
       </c>
-      <c r="B69" s="64">
+      <c r="B69" s="61">
         <v>52128</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C69" s="61">
         <v>22757</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="61">
         <v>9444</v>
       </c>
-      <c r="E69" s="64">
+      <c r="E69" s="61">
         <v>5565</v>
       </c>
-      <c r="F69" s="64">
+      <c r="F69" s="61">
         <v>3523</v>
       </c>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="73" t="str">
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="70" t="str">
         <f t="shared" si="1"/>
         <v>31/03/2020,52128,22757,9444,5565,3523,,,</v>
       </c>
@@ -2896,27 +2896,27 @@
       <c r="A70" s="12">
         <v>43922</v>
       </c>
-      <c r="B70" s="64">
+      <c r="B70" s="61">
         <v>56989</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C70" s="61">
         <v>24639</v>
       </c>
-      <c r="D70" s="64">
+      <c r="D70" s="61">
         <v>10935</v>
       </c>
-      <c r="E70" s="64">
+      <c r="E70" s="61">
         <v>6017</v>
       </c>
-      <c r="F70" s="64">
+      <c r="F70" s="61">
         <v>4032</v>
       </c>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="64">
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="61">
         <v>371</v>
       </c>
-      <c r="J70" s="73" t="str">
+      <c r="J70" s="70" t="str">
         <f t="shared" si="1"/>
         <v>01/04/2020,56989,24639,10935,6017,4032,,,371</v>
       </c>
@@ -2925,27 +2925,27 @@
       <c r="A71" s="12">
         <v>43923</v>
       </c>
-      <c r="B71" s="64">
+      <c r="B71" s="61">
         <v>59105</v>
       </c>
-      <c r="C71" s="64">
+      <c r="C71" s="61">
         <v>26246</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D71" s="61">
         <v>12428</v>
       </c>
-      <c r="E71" s="64">
+      <c r="E71" s="61">
         <v>6399</v>
       </c>
-      <c r="F71" s="64">
+      <c r="F71" s="61">
         <v>4503</v>
       </c>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="64">
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="61">
         <v>884</v>
       </c>
-      <c r="J71" s="73" t="str">
+      <c r="J71" s="70" t="str">
         <f t="shared" si="1"/>
         <v>02/04/2020,59105,26246,12428,6399,4503,,,884</v>
       </c>
@@ -2954,27 +2954,27 @@
       <c r="A72" s="12">
         <v>43924</v>
       </c>
-      <c r="B72" s="64">
+      <c r="B72" s="61">
         <v>64338</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="61">
         <v>27432</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="61">
         <v>14008</v>
       </c>
-      <c r="E72" s="64">
+      <c r="E72" s="61">
         <v>6662</v>
       </c>
-      <c r="F72" s="64">
+      <c r="F72" s="61">
         <v>5091</v>
       </c>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="64">
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="61">
         <v>1416</v>
       </c>
-      <c r="J72" s="73" t="str">
+      <c r="J72" s="70" t="str">
         <f t="shared" si="1"/>
         <v>03/04/2020,64338,27432,14008,6662,5091,,,1416</v>
       </c>
@@ -2983,27 +2983,27 @@
       <c r="A73" s="12">
         <v>43925</v>
       </c>
-      <c r="B73" s="64">
+      <c r="B73" s="61">
         <v>68605</v>
       </c>
-      <c r="C73" s="64">
+      <c r="C73" s="61">
         <v>28143</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="61">
         <v>15438</v>
       </c>
-      <c r="E73" s="64">
+      <c r="E73" s="61">
         <v>6838</v>
       </c>
-      <c r="F73" s="64">
+      <c r="F73" s="61">
         <v>5532</v>
       </c>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="64">
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="61">
         <v>2028</v>
       </c>
-      <c r="J73" s="73" t="str">
+      <c r="J73" s="70" t="str">
         <f t="shared" si="1"/>
         <v>04/04/2020,68605,28143,15438,6838,5532,,,2028</v>
       </c>
@@ -3012,27 +3012,27 @@
       <c r="A74" s="12">
         <v>43926</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="61">
         <v>70478</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="61">
         <v>28891</v>
       </c>
-      <c r="D74" s="64">
+      <c r="D74" s="61">
         <v>16183</v>
       </c>
-      <c r="E74" s="64">
+      <c r="E74" s="61">
         <v>6978</v>
       </c>
-      <c r="F74" s="64">
+      <c r="F74" s="61">
         <v>5889</v>
       </c>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="64">
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="61">
         <v>2189</v>
       </c>
-      <c r="J74" s="73" t="str">
+      <c r="J74" s="70" t="str">
         <f t="shared" si="1"/>
         <v>05/04/2020,70478,28891,16183,6978,5889,,,2189</v>
       </c>
@@ -3041,27 +3041,27 @@
       <c r="A75" s="12">
         <v>43927</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="61">
         <v>74390</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="61">
         <v>29722</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="61">
         <v>17250</v>
       </c>
-      <c r="E75" s="64">
+      <c r="E75" s="61">
         <v>7072</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="61">
         <v>6494</v>
       </c>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="64">
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="61">
         <v>2417</v>
       </c>
-      <c r="J75" s="73" t="str">
+      <c r="J75" s="70" t="str">
         <f t="shared" si="1"/>
         <v>06/04/2020,74390,29722,17250,7072,6494,,,2417</v>
       </c>
@@ -3070,27 +3070,27 @@
       <c r="A76" s="12">
         <v>43928</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="61">
         <v>78167</v>
       </c>
-      <c r="C76" s="64">
+      <c r="C76" s="61">
         <v>30027</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="61">
         <v>19337</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="61">
         <v>7131</v>
       </c>
-      <c r="F76" s="64">
+      <c r="F76" s="61">
         <v>7091</v>
       </c>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="64">
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="61">
         <v>3237</v>
       </c>
-      <c r="J76" s="73" t="str">
+      <c r="J76" s="70" t="str">
         <f t="shared" si="1"/>
         <v>07/04/2020,78167,30027,19337,7131,7091,,,3237</v>
       </c>
@@ -3099,27 +3099,27 @@
       <c r="A77" s="12">
         <v>43929</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="61">
         <v>82048</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="61">
         <v>30375</v>
       </c>
-      <c r="D77" s="64">
+      <c r="D77" s="61">
         <v>21254</v>
       </c>
-      <c r="E77" s="64">
+      <c r="E77" s="61">
         <v>7148</v>
       </c>
-      <c r="F77" s="64">
+      <c r="F77" s="61">
         <v>7632</v>
       </c>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="64">
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="61">
         <v>3237</v>
       </c>
-      <c r="J77" s="73" t="str">
+      <c r="J77" s="70" t="str">
         <f t="shared" si="1"/>
         <v>08/04/2020,82048,30375,21254,7148,7632,,,3237</v>
       </c>
@@ -3128,27 +3128,27 @@
       <c r="A78" s="12">
         <v>43930</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="61">
         <v>86334</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="61">
         <v>30767</v>
       </c>
-      <c r="D78" s="64">
+      <c r="D78" s="61">
         <v>23206</v>
       </c>
-      <c r="E78" s="64">
+      <c r="E78" s="61">
         <v>7066</v>
       </c>
-      <c r="F78" s="64">
+      <c r="F78" s="61">
         <v>8044</v>
       </c>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="64">
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="61">
         <v>4166</v>
       </c>
-      <c r="J78" s="73" t="str">
+      <c r="J78" s="70" t="str">
         <f t="shared" si="1"/>
         <v>09/04/2020,86334,30767,23206,7066,8044,,,4166</v>
       </c>
@@ -3157,27 +3157,27 @@
       <c r="A79" s="12">
         <v>43931</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79" s="61">
         <v>90676</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="61">
         <v>31267</v>
       </c>
-      <c r="D79" s="64">
+      <c r="D79" s="61">
         <v>24932</v>
       </c>
-      <c r="E79" s="64">
+      <c r="E79" s="61">
         <v>7004</v>
       </c>
-      <c r="F79" s="64">
+      <c r="F79" s="61">
         <v>8598</v>
       </c>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="64">
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="61">
         <v>4599</v>
       </c>
-      <c r="J79" s="73" t="str">
+      <c r="J79" s="70" t="str">
         <f t="shared" si="1"/>
         <v>10/04/2020,90676,31267,24932,7004,8598,,,4599</v>
       </c>
@@ -3186,27 +3186,27 @@
       <c r="A80" s="12">
         <v>43932</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="61">
         <v>93790</v>
       </c>
-      <c r="C80" s="64">
+      <c r="C80" s="61">
         <v>31320</v>
       </c>
-      <c r="D80" s="64">
+      <c r="D80" s="61">
         <v>26931</v>
       </c>
-      <c r="E80" s="64">
+      <c r="E80" s="61">
         <v>6883</v>
       </c>
-      <c r="F80" s="64">
+      <c r="F80" s="61">
         <v>8943</v>
       </c>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="64">
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="61">
         <v>4889</v>
       </c>
-      <c r="J80" s="73" t="str">
+      <c r="J80" s="70" t="str">
         <f t="shared" si="1"/>
         <v>11/04/2020,93790,31320,26931,6883,8943,,,4889</v>
       </c>
@@ -3215,31 +3215,31 @@
       <c r="A81" s="12">
         <v>43933</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81" s="61">
         <v>95403</v>
       </c>
-      <c r="C81" s="64">
+      <c r="C81" s="61">
         <v>31826</v>
       </c>
-      <c r="D81" s="64">
+      <c r="D81" s="61">
         <v>27186</v>
       </c>
-      <c r="E81" s="64">
+      <c r="E81" s="61">
         <v>6845</v>
       </c>
-      <c r="F81" s="64">
+      <c r="F81" s="61">
         <v>9253</v>
       </c>
-      <c r="G81" s="64">
+      <c r="G81" s="61">
         <v>37188</v>
       </c>
-      <c r="H81" s="64">
+      <c r="H81" s="61">
         <v>11958</v>
       </c>
-      <c r="I81" s="64">
+      <c r="I81" s="61">
         <v>5140</v>
       </c>
-      <c r="J81" s="73" t="str">
+      <c r="J81" s="70" t="str">
         <f t="shared" si="1"/>
         <v>12/04/2020,95403,31826,27186,6845,9253,37188,11958,5140</v>
       </c>
@@ -3248,31 +3248,31 @@
       <c r="A82" s="12">
         <v>43934</v>
       </c>
-      <c r="B82" s="64">
+      <c r="B82" s="61">
         <v>98076</v>
       </c>
-      <c r="C82" s="64">
+      <c r="C82" s="61">
         <v>32113</v>
       </c>
-      <c r="D82" s="64">
+      <c r="D82" s="61">
         <v>27718</v>
       </c>
-      <c r="E82" s="64">
+      <c r="E82" s="61">
         <v>6821</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="61">
         <v>9588</v>
       </c>
-      <c r="G82" s="64">
+      <c r="G82" s="61">
         <v>38703</v>
       </c>
-      <c r="H82" s="64">
+      <c r="H82" s="61">
         <v>12481</v>
       </c>
-      <c r="I82" s="64">
+      <c r="I82" s="61">
         <v>5379</v>
       </c>
-      <c r="J82" s="73" t="str">
+      <c r="J82" s="70" t="str">
         <f t="shared" si="1"/>
         <v>13/04/2020,98076,32113,27718,6821,9588,38703,12481,5379</v>
       </c>
@@ -3281,31 +3281,31 @@
       <c r="A83" s="12">
         <v>43935</v>
       </c>
-      <c r="B83" s="64">
+      <c r="B83" s="61">
         <v>103573</v>
       </c>
-      <c r="C83" s="64">
+      <c r="C83" s="61">
         <v>32292</v>
       </c>
-      <c r="D83" s="64">
+      <c r="D83" s="61">
         <v>28805</v>
       </c>
-      <c r="E83" s="64">
+      <c r="E83" s="61">
         <v>6730</v>
       </c>
-      <c r="F83" s="64">
+      <c r="F83" s="61">
         <v>10129</v>
       </c>
-      <c r="G83" s="64">
+      <c r="G83" s="61">
         <v>39730</v>
       </c>
-      <c r="H83" s="64">
+      <c r="H83" s="61">
         <v>13050</v>
       </c>
-      <c r="I83" s="64">
+      <c r="I83" s="61">
         <v>5600</v>
       </c>
-      <c r="J83" s="73" t="str">
+      <c r="J83" s="70" t="str">
         <f t="shared" si="1"/>
         <v>14/04/2020,103573,32292,28805,6730,10129,39730,13050,5600</v>
       </c>
@@ -3314,31 +3314,31 @@
       <c r="A84" s="12">
         <v>43936</v>
       </c>
-      <c r="B84" s="64">
+      <c r="B84" s="61">
         <v>106206</v>
       </c>
-      <c r="C84" s="64">
+      <c r="C84" s="61">
         <v>31779</v>
       </c>
-      <c r="D84" s="64">
+      <c r="D84" s="61">
         <v>30995</v>
       </c>
-      <c r="E84" s="64">
+      <c r="E84" s="61">
         <v>6457</v>
       </c>
-      <c r="F84" s="64">
+      <c r="F84" s="61">
         <v>10643</v>
       </c>
-      <c r="G84" s="64">
+      <c r="G84" s="61">
         <v>41657</v>
       </c>
-      <c r="H84" s="64">
+      <c r="H84" s="61">
         <v>14393</v>
       </c>
-      <c r="I84" s="64">
+      <c r="I84" s="61">
         <v>6524</v>
       </c>
-      <c r="J84" s="73" t="str">
+      <c r="J84" s="70" t="str">
         <f t="shared" si="1"/>
         <v>15/04/2020,106206,31779,30995,6457,10643,41657,14393,6524</v>
       </c>
@@ -3347,31 +3347,31 @@
       <c r="A85" s="12">
         <v>43937</v>
       </c>
-      <c r="B85" s="64">
+      <c r="B85" s="61">
         <v>108847</v>
       </c>
-      <c r="C85" s="64">
+      <c r="C85" s="61">
         <v>31305</v>
       </c>
-      <c r="D85" s="64">
+      <c r="D85" s="61">
         <v>32812</v>
       </c>
-      <c r="E85" s="64">
+      <c r="E85" s="61">
         <v>6248</v>
       </c>
-      <c r="F85" s="64">
+      <c r="F85" s="61">
         <v>11060</v>
       </c>
-      <c r="G85" s="64">
+      <c r="G85" s="61">
         <v>56180</v>
       </c>
-      <c r="H85" s="64">
+      <c r="H85" s="61">
         <v>18967</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="61">
         <v>6860</v>
       </c>
-      <c r="J85" s="73" t="str">
+      <c r="J85" s="70" t="str">
         <f t="shared" si="1"/>
         <v>16/04/2020,108847,31305,32812,6248,11060,56180,18967,6860</v>
       </c>
@@ -3380,31 +3380,31 @@
       <c r="A86" s="12">
         <v>43938</v>
       </c>
-      <c r="B86" s="64">
+      <c r="B86" s="61">
         <v>109252</v>
       </c>
-      <c r="C86" s="64">
+      <c r="C86" s="61">
         <v>31190</v>
       </c>
-      <c r="D86" s="64">
+      <c r="D86" s="61">
         <v>34420</v>
       </c>
-      <c r="E86" s="64">
+      <c r="E86" s="61">
         <v>6027</v>
       </c>
-      <c r="F86" s="64">
+      <c r="F86" s="61">
         <v>11478</v>
       </c>
-      <c r="G86" s="64">
+      <c r="G86" s="61">
         <v>58989</v>
       </c>
-      <c r="H86" s="64">
+      <c r="H86" s="61">
         <v>20272</v>
       </c>
-      <c r="I86" s="64">
+      <c r="I86" s="61">
         <v>7203</v>
       </c>
-      <c r="J86" s="73" t="str">
+      <c r="J86" s="70" t="str">
         <f t="shared" si="1"/>
         <v>17/04/2020,109252,31190,34420,6027,11478,58989,20272,7203</v>
       </c>
@@ -3413,31 +3413,31 @@
       <c r="A87" s="12">
         <v>43939</v>
       </c>
-      <c r="B87" s="64">
+      <c r="B87" s="61">
         <v>111821</v>
       </c>
-      <c r="C87" s="64">
+      <c r="C87" s="61">
         <v>30639</v>
       </c>
-      <c r="D87" s="64">
+      <c r="D87" s="61">
         <v>35983</v>
       </c>
-      <c r="E87" s="64">
+      <c r="E87" s="61">
         <v>5833</v>
       </c>
-      <c r="F87" s="64">
+      <c r="F87" s="61">
         <v>11842</v>
       </c>
-      <c r="G87" s="64">
+      <c r="G87" s="61">
         <v>62135</v>
       </c>
-      <c r="H87" s="64">
+      <c r="H87" s="61">
         <v>22163</v>
       </c>
-      <c r="I87" s="64">
+      <c r="I87" s="61">
         <v>7481</v>
       </c>
-      <c r="J87" s="73" t="str">
+      <c r="J87" s="70" t="str">
         <f t="shared" si="1"/>
         <v>18/04/2020,111821,30639,35983,5833,11842,62135,22163,7481</v>
       </c>
@@ -3446,31 +3446,31 @@
       <c r="A88" s="12">
         <v>43940</v>
       </c>
-      <c r="B88" s="64">
+      <c r="B88" s="61">
         <v>112606</v>
       </c>
-      <c r="C88" s="64">
+      <c r="C88" s="61">
         <v>30610</v>
       </c>
-      <c r="D88" s="64">
+      <c r="D88" s="61">
         <v>36578</v>
       </c>
-      <c r="E88" s="64">
+      <c r="E88" s="61">
         <v>5744</v>
       </c>
-      <c r="F88" s="64">
+      <c r="F88" s="61">
         <v>12069</v>
       </c>
-      <c r="G88" s="64">
+      <c r="G88" s="61">
         <v>63336</v>
       </c>
-      <c r="H88" s="64">
+      <c r="H88" s="61">
         <v>23048</v>
       </c>
-      <c r="I88" s="64">
+      <c r="I88" s="61">
         <v>7649</v>
       </c>
-      <c r="J88" s="73" t="str">
+      <c r="J88" s="70" t="str">
         <f t="shared" si="1"/>
         <v>19/04/2020,112606,30610,36578,5744,12069,63336,23048,7649</v>
       </c>
@@ -3479,31 +3479,31 @@
       <c r="A89" s="12">
         <v>43941</v>
       </c>
-      <c r="B89" s="64">
+      <c r="B89" s="61">
         <v>114657</v>
       </c>
-      <c r="C89" s="64">
+      <c r="C89" s="61">
         <v>30584</v>
       </c>
-      <c r="D89" s="64">
+      <c r="D89" s="61">
         <v>37409</v>
       </c>
-      <c r="E89" s="64">
+      <c r="E89" s="61">
         <v>5683</v>
       </c>
-      <c r="F89" s="64">
+      <c r="F89" s="61">
         <v>12513</v>
       </c>
-      <c r="G89" s="64">
+      <c r="G89" s="61">
         <v>64117</v>
       </c>
-      <c r="H89" s="64">
+      <c r="H89" s="61">
         <v>23668</v>
       </c>
-      <c r="I89" s="64">
+      <c r="I89" s="61">
         <v>7752</v>
       </c>
-      <c r="J89" s="73" t="str">
+      <c r="J89" s="70" t="str">
         <f t="shared" si="1"/>
         <v>20/04/2020,114657,30584,37409,5683,12513,64117,23668,7752</v>
       </c>
@@ -3512,27 +3512,27 @@
       <c r="A90" s="12">
         <v>43942</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90" s="61">
         <v>117324</v>
       </c>
-      <c r="C90" s="64">
+      <c r="C90" s="61">
         <v>30106</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="61">
         <v>39181</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="61">
         <v>5433</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="61">
         <v>12900</v>
       </c>
-      <c r="G90" s="72"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="64">
+      <c r="G90" s="69"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="61">
         <v>7896</v>
       </c>
-      <c r="J90" s="73" t="str">
+      <c r="J90" s="70" t="str">
         <f t="shared" si="1"/>
         <v>21/04/2020,117324,30106,39181,5433,12900,,,7896</v>
       </c>
@@ -3541,29 +3541,29 @@
       <c r="A91" s="12">
         <v>43943</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="61">
         <v>119151</v>
       </c>
-      <c r="C91" s="64">
+      <c r="C91" s="61">
         <v>29741</v>
       </c>
-      <c r="D91" s="64">
+      <c r="D91" s="61">
         <v>40657</v>
       </c>
-      <c r="E91" s="64">
+      <c r="E91" s="61">
         <v>5218</v>
       </c>
-      <c r="F91" s="64">
+      <c r="F91" s="61">
         <v>13236</v>
       </c>
-      <c r="G91" s="65"/>
-      <c r="H91" s="64">
+      <c r="G91" s="62"/>
+      <c r="H91" s="61">
         <v>25513</v>
       </c>
-      <c r="I91" s="64">
+      <c r="I91" s="61">
         <v>8104</v>
       </c>
-      <c r="J91" s="73" t="str">
+      <c r="J91" s="70" t="str">
         <f t="shared" si="1"/>
         <v>22/04/2020,119151,29741,40657,5218,13236,,25513,8104</v>
       </c>
@@ -3572,31 +3572,31 @@
       <c r="A92" s="12">
         <v>43944</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="61">
         <v>120804</v>
       </c>
-      <c r="C92" s="64">
+      <c r="C92" s="61">
         <v>29219</v>
       </c>
-      <c r="D92" s="64">
+      <c r="D92" s="61">
         <v>42088</v>
       </c>
-      <c r="E92" s="64">
+      <c r="E92" s="61">
         <v>5053</v>
       </c>
-      <c r="F92" s="64">
+      <c r="F92" s="61">
         <v>13547</v>
       </c>
-      <c r="G92" s="64">
+      <c r="G92" s="61">
         <v>64219</v>
       </c>
-      <c r="H92" s="64">
+      <c r="H92" s="61">
         <v>26840</v>
       </c>
-      <c r="I92" s="64">
+      <c r="I92" s="61">
         <v>8309</v>
       </c>
-      <c r="J92" s="73" t="str">
+      <c r="J92" s="70" t="str">
         <f t="shared" si="1"/>
         <v>23/04/2020,120804,29219,42088,5053,13547,64219,26840,8309</v>
       </c>
@@ -3605,31 +3605,31 @@
       <c r="A93" s="12">
         <v>43945</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93" s="61">
         <v>122577</v>
       </c>
-      <c r="C93" s="64">
+      <c r="C93" s="61">
         <v>28658</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="61">
         <v>43493</v>
       </c>
-      <c r="E93" s="64">
+      <c r="E93" s="61">
         <v>4870</v>
       </c>
-      <c r="F93" s="64">
+      <c r="F93" s="61">
         <v>13852</v>
       </c>
-      <c r="G93" s="64">
+      <c r="G93" s="61">
         <v>65131</v>
       </c>
-      <c r="H93" s="64">
+      <c r="H93" s="61">
         <v>27880</v>
       </c>
-      <c r="I93" s="64">
+      <c r="I93" s="61">
         <v>8393</v>
       </c>
-      <c r="J93" s="73" t="str">
+      <c r="J93" s="70" t="str">
         <f t="shared" si="1"/>
         <v>24/04/2020,122577,28658,43493,4870,13852,65131,27880,8393</v>
       </c>
@@ -3638,31 +3638,31 @@
       <c r="A94" s="12">
         <v>43946</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94" s="61">
         <v>124114</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="61">
         <v>28222</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="61">
         <v>44594</v>
       </c>
-      <c r="E94" s="64">
+      <c r="E94" s="61">
         <v>4725</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="61">
         <v>14050</v>
       </c>
-      <c r="G94" s="64">
+      <c r="G94" s="61">
         <v>66500</v>
       </c>
-      <c r="H94" s="64">
+      <c r="H94" s="61">
         <v>29126</v>
       </c>
-      <c r="I94" s="64">
+      <c r="I94" s="61">
         <v>8564</v>
       </c>
-      <c r="J94" s="73" t="str">
+      <c r="J94" s="70" t="str">
         <f t="shared" si="1"/>
         <v>25/04/2020,124114,28222,44594,4725,14050,66500,29126,8564</v>
       </c>
@@ -3671,31 +3671,31 @@
       <c r="A95" s="12">
         <v>43947</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95" s="61">
         <v>124575</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="61">
         <v>28217</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="61">
         <v>44903</v>
       </c>
-      <c r="E95" s="64">
+      <c r="E95" s="61">
         <v>4682</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="61">
         <v>14202</v>
       </c>
-      <c r="G95" s="64">
+      <c r="G95" s="61">
         <v>67168</v>
       </c>
-      <c r="H95" s="64">
+      <c r="H95" s="61">
         <v>29643</v>
       </c>
-      <c r="I95" s="64">
+      <c r="I95" s="61">
         <v>8654</v>
       </c>
-      <c r="J95" s="73" t="str">
+      <c r="J95" s="70" t="str">
         <f t="shared" si="1"/>
         <v>26/04/2020,124575,28217,44903,4682,14202,67168,29643,8654</v>
       </c>
@@ -3704,31 +3704,31 @@
       <c r="A96" s="12">
         <v>43948</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96" s="61">
         <v>128339</v>
       </c>
-      <c r="C96" s="64">
+      <c r="C96" s="61">
         <v>28055</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="61">
         <v>45513</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="61">
         <v>4608</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="61">
         <v>14497</v>
       </c>
-      <c r="G96" s="64">
+      <c r="G96" s="61">
         <v>67730</v>
       </c>
-      <c r="H96" s="64">
+      <c r="H96" s="61">
         <v>30227</v>
       </c>
-      <c r="I96" s="64">
+      <c r="I96" s="61">
         <v>8796</v>
       </c>
-      <c r="J96" s="73" t="str">
+      <c r="J96" s="70" t="str">
         <f t="shared" si="1"/>
         <v>27/04/2020,128339,28055,45513,4608,14497,67730,30227,8796</v>
       </c>
@@ -3737,31 +3737,31 @@
       <c r="A97" s="12">
         <v>43949</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="61">
         <v>129859</v>
       </c>
-      <c r="C97" s="64">
+      <c r="C97" s="61">
         <v>27484</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="61">
         <v>46886</v>
       </c>
-      <c r="E97" s="64">
+      <c r="E97" s="61">
         <v>4387</v>
       </c>
-      <c r="F97" s="64">
+      <c r="F97" s="61">
         <v>14810</v>
       </c>
-      <c r="G97" s="64">
+      <c r="G97" s="61">
         <v>69893</v>
       </c>
-      <c r="H97" s="64">
+      <c r="H97" s="61">
         <v>30817</v>
       </c>
-      <c r="I97" s="64">
+      <c r="I97" s="61">
         <v>8850</v>
       </c>
-      <c r="J97" s="73" t="str">
+      <c r="J97" s="70" t="str">
         <f t="shared" si="1"/>
         <v>28/04/2020,129859,27484,46886,4387,14810,69893,30817,8850</v>
       </c>
@@ -3770,31 +3770,31 @@
       <c r="A98" s="12">
         <v>43950</v>
       </c>
-      <c r="B98" s="64">
+      <c r="B98" s="61">
         <v>128442</v>
       </c>
-      <c r="C98" s="64">
+      <c r="C98" s="61">
         <v>26834</v>
       </c>
-      <c r="D98" s="64">
+      <c r="D98" s="61">
         <v>48228</v>
       </c>
-      <c r="E98" s="64">
+      <c r="E98" s="61">
         <v>4207</v>
       </c>
-      <c r="F98" s="64">
+      <c r="F98" s="61">
         <v>15053</v>
       </c>
-      <c r="G98" s="64">
+      <c r="G98" s="61">
         <v>69773</v>
       </c>
-      <c r="H98" s="64">
+      <c r="H98" s="61">
         <v>31795</v>
       </c>
-      <c r="I98" s="64">
+      <c r="I98" s="61">
         <v>9034</v>
       </c>
-      <c r="J98" s="73" t="str">
+      <c r="J98" s="70" t="str">
         <f t="shared" si="1"/>
         <v>29/04/2020,128442,26834,48228,4207,15053,69773,31795,9034</v>
       </c>
@@ -3803,31 +3803,31 @@
       <c r="A99" s="12">
         <v>43951</v>
       </c>
-      <c r="B99" s="64">
+      <c r="B99" s="61">
         <v>129581</v>
       </c>
-      <c r="C99" s="64">
+      <c r="C99" s="61">
         <v>26283</v>
       </c>
-      <c r="D99" s="64">
+      <c r="D99" s="61">
         <v>49476</v>
       </c>
-      <c r="E99" s="64">
+      <c r="E99" s="61">
         <v>4019</v>
       </c>
-      <c r="F99" s="64">
+      <c r="F99" s="61">
         <v>15244</v>
       </c>
-      <c r="G99" s="64">
+      <c r="G99" s="61">
         <v>69952</v>
       </c>
-      <c r="H99" s="64">
+      <c r="H99" s="61">
         <v>32355</v>
       </c>
-      <c r="I99" s="64">
+      <c r="I99" s="61">
         <v>9132</v>
       </c>
-      <c r="J99" s="73" t="str">
+      <c r="J99" s="70" t="str">
         <f t="shared" si="1"/>
         <v>30/04/2020,129581,26283,49476,4019,15244,69952,32355,9132</v>
       </c>
@@ -3836,31 +3836,31 @@
       <c r="A100" s="12">
         <v>43952</v>
       </c>
-      <c r="B100" s="64">
+      <c r="B100" s="61">
         <v>130185</v>
       </c>
-      <c r="C100" s="64">
+      <c r="C100" s="61">
         <v>25887</v>
       </c>
-      <c r="D100" s="64">
+      <c r="D100" s="61">
         <v>50212</v>
       </c>
-      <c r="E100" s="64">
+      <c r="E100" s="61">
         <v>3878</v>
       </c>
-      <c r="F100" s="64">
+      <c r="F100" s="61">
         <v>15369</v>
       </c>
-      <c r="G100" s="64">
+      <c r="G100" s="61">
         <v>69952</v>
       </c>
-      <c r="H100" s="64">
+      <c r="H100" s="61">
         <v>32791</v>
       </c>
-      <c r="I100" s="64">
+      <c r="I100" s="61">
         <v>9225</v>
       </c>
-      <c r="J100" s="73" t="str">
+      <c r="J100" s="70" t="str">
         <f t="shared" si="1"/>
         <v>01/05/2020,130185,25887,50212,3878,15369,69952,32791,9225</v>
       </c>
@@ -3869,31 +3869,31 @@
       <c r="A101" s="12">
         <v>43953</v>
       </c>
-      <c r="B101" s="64">
+      <c r="B101" s="61">
         <v>130979</v>
       </c>
-      <c r="C101" s="64">
+      <c r="C101" s="61">
         <v>25827</v>
       </c>
-      <c r="D101" s="64">
+      <c r="D101" s="61">
         <v>50562</v>
       </c>
-      <c r="E101" s="64">
+      <c r="E101" s="61">
         <v>3827</v>
       </c>
-      <c r="F101" s="64">
+      <c r="F101" s="61">
         <v>15487</v>
       </c>
-      <c r="G101" s="64">
+      <c r="G101" s="61">
         <v>70688</v>
       </c>
-      <c r="H101" s="64">
+      <c r="H101" s="61">
         <v>33271</v>
       </c>
-      <c r="I101" s="64">
+      <c r="I101" s="61">
         <v>9273</v>
       </c>
-      <c r="J101" s="73" t="str">
+      <c r="J101" s="70" t="str">
         <f t="shared" si="1"/>
         <v>02/05/2020,130979,25827,50562,3827,15487,70688,33271,9273</v>
       </c>
@@ -3902,31 +3902,31 @@
       <c r="A102" s="12">
         <v>43954</v>
       </c>
-      <c r="B102" s="64">
+      <c r="B102" s="61">
         <v>131287</v>
       </c>
-      <c r="C102" s="64">
+      <c r="C102" s="61">
         <v>25815</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="61">
         <v>50784</v>
       </c>
-      <c r="E102" s="64">
+      <c r="E102" s="61">
         <v>3819</v>
       </c>
-      <c r="F102" s="64">
+      <c r="F102" s="61">
         <v>15583</v>
       </c>
-      <c r="G102" s="64">
+      <c r="G102" s="61">
         <v>70767</v>
       </c>
-      <c r="H102" s="64">
+      <c r="H102" s="61">
         <v>33361</v>
       </c>
-      <c r="I102" s="64">
+      <c r="I102" s="61">
         <v>9312</v>
       </c>
-      <c r="J102" s="73" t="str">
+      <c r="J102" s="70" t="str">
         <f t="shared" si="1"/>
         <v>03/05/2020,131287,25815,50784,3819,15583,70767,33361,9312</v>
       </c>
@@ -3935,31 +3935,31 @@
       <c r="A103" s="12">
         <v>43955</v>
       </c>
-      <c r="B103" s="64">
+      <c r="B103" s="61">
         <v>131863</v>
       </c>
-      <c r="C103" s="64">
+      <c r="C103" s="61">
         <v>25548</v>
       </c>
-      <c r="D103" s="64">
+      <c r="D103" s="61">
         <v>51371</v>
       </c>
-      <c r="E103" s="64">
+      <c r="E103" s="61">
         <v>3696</v>
       </c>
-      <c r="F103" s="64">
+      <c r="F103" s="61">
         <v>15826</v>
       </c>
-      <c r="G103" s="64">
+      <c r="G103" s="61">
         <v>71390</v>
       </c>
-      <c r="H103" s="64">
+      <c r="H103" s="61">
         <v>33791</v>
       </c>
-      <c r="I103" s="64">
+      <c r="I103" s="61">
         <v>9375</v>
       </c>
-      <c r="J103" s="73" t="str">
+      <c r="J103" s="70" t="str">
         <f t="shared" si="1"/>
         <v>04/05/2020,131863,25548,51371,3696,15826,71390,33791,9375</v>
       </c>
@@ -3968,31 +3968,31 @@
       <c r="A104" s="12">
         <v>43956</v>
       </c>
-      <c r="B104" s="64">
+      <c r="B104" s="61">
         <v>132967</v>
       </c>
-      <c r="C104" s="64">
+      <c r="C104" s="61">
         <v>24775</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="61">
         <v>52736</v>
       </c>
-      <c r="E104" s="64">
+      <c r="E104" s="61">
         <v>3430</v>
       </c>
-      <c r="F104" s="64">
+      <c r="F104" s="61">
         <v>16060</v>
       </c>
-      <c r="G104" s="64">
+      <c r="G104" s="61">
         <v>71692</v>
       </c>
-      <c r="H104" s="64">
+      <c r="H104" s="61">
         <v>34108</v>
       </c>
-      <c r="I104" s="64">
+      <c r="I104" s="61">
         <v>9471</v>
       </c>
-      <c r="J104" s="73" t="str">
+      <c r="J104" s="70" t="str">
         <f t="shared" si="1"/>
         <v>05/05/2020,132967,24775,52736,3430,16060,71692,34108,9471</v>
       </c>
@@ -4001,31 +4001,31 @@
       <c r="A105" s="12">
         <v>43957</v>
       </c>
-      <c r="B105" s="64">
+      <c r="B105" s="61">
         <v>137150</v>
       </c>
-      <c r="C105" s="64">
+      <c r="C105" s="61">
         <v>23983</v>
       </c>
-      <c r="D105" s="64">
+      <c r="D105" s="61">
         <v>53972</v>
       </c>
-      <c r="E105" s="64">
+      <c r="E105" s="61">
         <v>3147</v>
       </c>
-      <c r="F105" s="64">
+      <c r="F105" s="61">
         <v>16237</v>
       </c>
-      <c r="G105" s="64">
+      <c r="G105" s="61">
         <v>71548</v>
       </c>
-      <c r="H105" s="64">
+      <c r="H105" s="61">
         <v>34507</v>
       </c>
-      <c r="I105" s="64">
+      <c r="I105" s="61">
         <v>9572</v>
       </c>
-      <c r="J105" s="73" t="str">
+      <c r="J105" s="70" t="str">
         <f t="shared" si="1"/>
         <v>06/05/2020,137150,23983,53972,3147,16237,71548,34507,9572</v>
       </c>
@@ -4034,31 +4034,31 @@
       <c r="A106" s="12">
         <v>43958</v>
       </c>
-      <c r="B106" s="64">
+      <c r="B106" s="61">
         <v>137779</v>
       </c>
-      <c r="C106" s="64">
+      <c r="C106" s="61">
         <v>23208</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="61">
         <v>55027</v>
       </c>
-      <c r="E106" s="64">
+      <c r="E106" s="61">
         <v>2961</v>
       </c>
-      <c r="F106" s="64">
+      <c r="F106" s="61">
         <v>16386</v>
       </c>
-      <c r="G106" s="64">
+      <c r="G106" s="61">
         <v>71665</v>
       </c>
-      <c r="H106" s="64">
+      <c r="H106" s="61">
         <v>34653</v>
       </c>
-      <c r="I106" s="64">
+      <c r="I106" s="61">
         <v>9601</v>
       </c>
-      <c r="J106" s="73" t="str">
+      <c r="J106" s="70" t="str">
         <f t="shared" si="1"/>
         <v>07/05/2020,137779,23208,55027,2961,16386,71665,34653,9601</v>
       </c>
@@ -4067,31 +4067,31 @@
       <c r="A107" s="12">
         <v>43959</v>
       </c>
-      <c r="B107" s="64">
+      <c r="B107" s="61">
         <v>138421</v>
       </c>
-      <c r="C107" s="64">
+      <c r="C107" s="61">
         <v>22724</v>
       </c>
-      <c r="D107" s="64">
+      <c r="D107" s="61">
         <v>55782</v>
       </c>
-      <c r="E107" s="64">
+      <c r="E107" s="61">
         <v>2868</v>
       </c>
-      <c r="F107" s="64">
+      <c r="F107" s="61">
         <v>16497</v>
       </c>
-      <c r="G107" s="64">
+      <c r="G107" s="61">
         <v>72548</v>
       </c>
-      <c r="H107" s="64">
+      <c r="H107" s="61">
         <v>34890</v>
       </c>
-      <c r="I107" s="64">
+      <c r="I107" s="61">
         <v>9733</v>
       </c>
-      <c r="J107" s="73" t="str">
+      <c r="J107" s="70" t="str">
         <f t="shared" si="1"/>
         <v>08/05/2020,138421,22724,55782,2868,16497,72548,34890,9733</v>
       </c>
@@ -4100,31 +4100,31 @@
       <c r="A108" s="12">
         <v>43960</v>
       </c>
-      <c r="B108" s="64">
+      <c r="B108" s="61">
         <v>138854</v>
       </c>
-      <c r="C108" s="64">
+      <c r="C108" s="61">
         <v>22614</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="61">
         <v>56038</v>
       </c>
-      <c r="E108" s="64">
+      <c r="E108" s="61">
         <v>2812</v>
       </c>
-      <c r="F108" s="64">
+      <c r="F108" s="61">
         <v>16573</v>
       </c>
-      <c r="G108" s="64">
+      <c r="G108" s="61">
         <v>72850</v>
       </c>
-      <c r="H108" s="64">
+      <c r="H108" s="61">
         <v>35046</v>
       </c>
-      <c r="I108" s="64">
+      <c r="I108" s="61">
         <v>9737</v>
       </c>
-      <c r="J108" s="73" t="str">
+      <c r="J108" s="70" t="str">
         <f t="shared" si="1"/>
         <v>09/05/2020,138854,22614,56038,2812,16573,72850,35046,9737</v>
       </c>
@@ -4133,31 +4133,31 @@
       <c r="A109" s="12">
         <v>43961</v>
       </c>
-      <c r="B109" s="64">
+      <c r="B109" s="61">
         <v>139063</v>
       </c>
-      <c r="C109" s="64">
+      <c r="C109" s="61">
         <v>22569</v>
       </c>
-      <c r="D109" s="64">
+      <c r="D109" s="61">
         <v>56217</v>
       </c>
-      <c r="E109" s="64">
+      <c r="E109" s="61">
         <v>2776</v>
       </c>
-      <c r="F109" s="64">
+      <c r="F109" s="61">
         <v>16642</v>
       </c>
-      <c r="G109" s="64">
+      <c r="G109" s="61">
         <v>73143</v>
       </c>
-      <c r="H109" s="64">
+      <c r="H109" s="61">
         <v>35236</v>
       </c>
-      <c r="I109" s="64">
+      <c r="I109" s="61">
         <v>9738</v>
       </c>
-      <c r="J109" s="73" t="str">
+      <c r="J109" s="70" t="str">
         <f t="shared" si="1"/>
         <v>10/05/2020,139063,22569,56217,2776,16642,73143,35236,9738</v>
       </c>
@@ -4166,31 +4166,31 @@
       <c r="A110" s="12">
         <v>43962</v>
       </c>
-      <c r="B110" s="64">
+      <c r="B110" s="61">
         <v>139519</v>
       </c>
-      <c r="C110" s="64">
+      <c r="C110" s="61">
         <v>22284</v>
       </c>
-      <c r="D110" s="64">
+      <c r="D110" s="61">
         <v>56724</v>
       </c>
-      <c r="E110" s="64">
+      <c r="E110" s="61">
         <v>2712</v>
       </c>
-      <c r="F110" s="64">
+      <c r="F110" s="61">
         <v>16820</v>
       </c>
-      <c r="G110" s="64">
+      <c r="G110" s="61">
         <v>73099</v>
       </c>
-      <c r="H110" s="64">
+      <c r="H110" s="61">
         <v>35195</v>
       </c>
-      <c r="I110" s="64">
+      <c r="I110" s="61">
         <v>9823</v>
       </c>
-      <c r="J110" s="73" t="str">
+      <c r="J110" s="70" t="str">
         <f t="shared" si="1"/>
         <v>11/05/2020,139519,22284,56724,2712,16820,73099,35195,9823</v>
       </c>
@@ -4199,31 +4199,31 @@
       <c r="A111" s="12">
         <v>43963</v>
       </c>
-      <c r="B111" s="64">
+      <c r="B111" s="61">
         <v>140227</v>
       </c>
-      <c r="C111" s="64">
+      <c r="C111" s="61">
         <v>21595</v>
       </c>
-      <c r="D111" s="64">
+      <c r="D111" s="61">
         <v>57785</v>
       </c>
-      <c r="E111" s="64">
+      <c r="E111" s="61">
         <v>2542</v>
       </c>
-      <c r="F111" s="64">
+      <c r="F111" s="61">
         <v>17003</v>
       </c>
-      <c r="G111" s="64">
+      <c r="G111" s="61">
         <v>73435</v>
       </c>
-      <c r="H111" s="64">
+      <c r="H111" s="61">
         <v>35437</v>
       </c>
-      <c r="I111" s="64">
+      <c r="I111" s="61">
         <v>9988</v>
       </c>
-      <c r="J111" s="73" t="str">
+      <c r="J111" s="70" t="str">
         <f t="shared" si="1"/>
         <v>12/05/2020,140227,21595,57785,2542,17003,73435,35437,9988</v>
       </c>
@@ -4232,31 +4232,31 @@
       <c r="A112" s="12">
         <v>43964</v>
       </c>
-      <c r="B112" s="64">
+      <c r="B112" s="61">
         <v>140734</v>
       </c>
-      <c r="C112" s="64">
+      <c r="C112" s="61">
         <v>21071</v>
       </c>
-      <c r="D112" s="64">
+      <c r="D112" s="61">
         <v>58673</v>
       </c>
-      <c r="E112" s="64">
+      <c r="E112" s="61">
         <v>2428</v>
       </c>
-      <c r="F112" s="64">
+      <c r="F112" s="61">
         <v>17101</v>
       </c>
-      <c r="G112" s="64">
+      <c r="G112" s="61">
         <v>72930</v>
       </c>
-      <c r="H112" s="64">
+      <c r="H112" s="61">
         <v>35604</v>
       </c>
-      <c r="I112" s="64">
+      <c r="I112" s="61">
         <v>9973</v>
       </c>
-      <c r="J112" s="73" t="str">
+      <c r="J112" s="70" t="str">
         <f t="shared" si="1"/>
         <v>13/05/2020,140734,21071,58673,2428,17101,72930,35604,9973</v>
       </c>
@@ -4265,31 +4265,31 @@
       <c r="A113" s="12">
         <v>43965</v>
       </c>
-      <c r="B113" s="64">
+      <c r="B113" s="61">
         <v>141356</v>
       </c>
-      <c r="C113" s="64">
+      <c r="C113" s="61">
         <v>20463</v>
       </c>
-      <c r="D113" s="64">
+      <c r="D113" s="61">
         <v>59605</v>
       </c>
-      <c r="E113" s="64">
+      <c r="E113" s="61">
         <v>2299</v>
       </c>
-      <c r="F113" s="64">
+      <c r="F113" s="61">
         <v>17224</v>
       </c>
-      <c r="G113" s="64">
+      <c r="G113" s="61">
         <v>73334</v>
       </c>
-      <c r="H113" s="64">
+      <c r="H113" s="61">
         <v>35820</v>
       </c>
-      <c r="I113" s="64">
+      <c r="I113" s="61">
         <v>10201</v>
       </c>
-      <c r="J113" s="73" t="str">
+      <c r="J113" s="70" t="str">
         <f t="shared" si="1"/>
         <v>14/05/2020,141356,20463,59605,2299,17224,73334,35820,10201</v>
       </c>
@@ -4298,31 +4298,31 @@
       <c r="A114" s="12">
         <v>43966</v>
       </c>
-      <c r="B114" s="64">
+      <c r="B114" s="61">
         <v>141919</v>
       </c>
-      <c r="C114" s="64">
+      <c r="C114" s="61">
         <v>19861</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="61">
         <v>60448</v>
       </c>
-      <c r="E114" s="64">
+      <c r="E114" s="61">
         <v>2203</v>
       </c>
-      <c r="F114" s="64">
+      <c r="F114" s="61">
         <v>17342</v>
       </c>
-      <c r="G114" s="64">
+      <c r="G114" s="61">
         <v>73713</v>
       </c>
-      <c r="H114" s="64">
+      <c r="H114" s="61">
         <v>36126</v>
       </c>
-      <c r="I114" s="64">
+      <c r="I114" s="61">
         <v>10187</v>
       </c>
-      <c r="J114" s="73" t="str">
+      <c r="J114" s="70" t="str">
         <f t="shared" si="1"/>
         <v>15/05/2020,141919,19861,60448,2203,17342,73713,36126,10187</v>
       </c>
@@ -4331,31 +4331,31 @@
       <c r="A115" s="12">
         <v>43967</v>
       </c>
-      <c r="B115" s="64">
+      <c r="B115" s="61">
         <v>142291</v>
       </c>
-      <c r="C115" s="64">
+      <c r="C115" s="61">
         <v>19432</v>
       </c>
-      <c r="D115" s="64">
+      <c r="D115" s="61">
         <v>61066</v>
       </c>
-      <c r="E115" s="64">
+      <c r="E115" s="61">
         <v>2132</v>
       </c>
-      <c r="F115" s="64">
+      <c r="F115" s="61">
         <v>17412</v>
       </c>
-      <c r="G115" s="64">
+      <c r="G115" s="61">
         <v>73249</v>
       </c>
-      <c r="H115" s="64">
+      <c r="H115" s="61">
         <v>36175</v>
       </c>
-      <c r="I115" s="64">
+      <c r="I115" s="61">
         <v>10213</v>
       </c>
-      <c r="J115" s="73" t="str">
+      <c r="J115" s="70" t="str">
         <f t="shared" si="1"/>
         <v>16/05/2020,142291,19432,61066,2132,17412,73249,36175,10213</v>
       </c>
@@ -4364,31 +4364,31 @@
       <c r="A116" s="12">
         <v>43968</v>
       </c>
-      <c r="B116" s="64">
+      <c r="B116" s="61">
         <v>142411</v>
       </c>
-      <c r="C116" s="64">
+      <c r="C116" s="61">
         <v>19361</v>
       </c>
-      <c r="D116" s="64">
+      <c r="D116" s="61">
         <v>61213</v>
       </c>
-      <c r="E116" s="64">
+      <c r="E116" s="61">
         <v>2087</v>
       </c>
-      <c r="F116" s="64">
+      <c r="F116" s="61">
         <v>17466</v>
       </c>
-      <c r="G116" s="64">
+      <c r="G116" s="61">
         <v>73619</v>
       </c>
-      <c r="H116" s="64">
+      <c r="H116" s="61">
         <v>36461</v>
       </c>
-      <c r="I116" s="64">
+      <c r="I116" s="61">
         <v>10642</v>
       </c>
-      <c r="J116" s="73" t="str">
+      <c r="J116" s="70" t="str">
         <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
         <v>17/05/2020,142411,19361,61213,2087,17466,73619,36461,10642</v>
       </c>
@@ -4397,196 +4397,216 @@
       <c r="A117" s="12">
         <v>43969</v>
       </c>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
+      <c r="B117" s="61">
+        <v>142903</v>
+      </c>
+      <c r="C117" s="61">
+        <v>19015</v>
+      </c>
+      <c r="D117" s="61">
+        <v>61728</v>
+      </c>
+      <c r="E117" s="61">
+        <v>1998</v>
+      </c>
+      <c r="F117" s="61">
+        <v>17589</v>
+      </c>
+      <c r="G117" s="61">
+        <v>73623</v>
+      </c>
+      <c r="H117" s="61">
+        <v>36599</v>
+      </c>
+      <c r="I117" s="61">
+        <v>10650</v>
+      </c>
+      <c r="J117" s="70" t="str">
+        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;G117&amp;","&amp;H117&amp;","&amp;I117</f>
+        <v>18/05/2020,142903,19015,61728,1998,17589,73623,36599,10650</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>43970</v>
       </c>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>43971</v>
       </c>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
-      <c r="H119" s="64"/>
-      <c r="I119" s="64"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
+      <c r="I119" s="61"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>43972</v>
       </c>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="64"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>43973</v>
       </c>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>43974</v>
       </c>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>43975</v>
       </c>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="64"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>43976</v>
       </c>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>43977</v>
       </c>
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>43978</v>
       </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>43979</v>
       </c>
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>43980</v>
       </c>
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>43981</v>
       </c>
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="61"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="61"/>
+      <c r="H129" s="61"/>
+      <c r="I129" s="61"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>43982</v>
       </c>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="64"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>43983</v>
       </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J116" sqref="J1:J116"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4620,28 +4640,28 @@
       <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="59" t="s">
         <v>113</v>
       </c>
       <c r="J1" s="10" t="str">
@@ -9462,37 +9482,41 @@
         <f>'Totaux nationaux bruts'!A117</f>
         <v>43969</v>
       </c>
-      <c r="B117" s="54" t="str">
+      <c r="B117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B117),"",IF(ISBLANK('Totaux nationaux bruts'!B116),"",'Totaux nationaux bruts'!B117-'Totaux nationaux bruts'!B116))</f>
-        <v/>
-      </c>
-      <c r="C117" s="54" t="str">
+        <v>492</v>
+      </c>
+      <c r="C117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C117),"",IF(ISBLANK('Totaux nationaux bruts'!C116),"",'Totaux nationaux bruts'!C117-'Totaux nationaux bruts'!C116))</f>
-        <v/>
-      </c>
-      <c r="D117" s="54" t="str">
+        <v>-346</v>
+      </c>
+      <c r="D117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D117),"",IF(ISBLANK('Totaux nationaux bruts'!D116),"",'Totaux nationaux bruts'!D117-'Totaux nationaux bruts'!D116))</f>
-        <v/>
-      </c>
-      <c r="E117" s="54" t="str">
+        <v>515</v>
+      </c>
+      <c r="E117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E117),"",IF(ISBLANK('Totaux nationaux bruts'!E116),"",'Totaux nationaux bruts'!E117-'Totaux nationaux bruts'!E116))</f>
-        <v/>
-      </c>
-      <c r="F117" s="54" t="str">
+        <v>-89</v>
+      </c>
+      <c r="F117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F117),"",IF(ISBLANK('Totaux nationaux bruts'!F116),"",'Totaux nationaux bruts'!F117-'Totaux nationaux bruts'!F116))</f>
-        <v/>
-      </c>
-      <c r="G117" s="54" t="str">
+        <v>123</v>
+      </c>
+      <c r="G117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G117),"",IF(ISBLANK('Totaux nationaux bruts'!G116),"",'Totaux nationaux bruts'!G117-'Totaux nationaux bruts'!G116))</f>
-        <v/>
-      </c>
-      <c r="H117" s="54" t="str">
+        <v>4</v>
+      </c>
+      <c r="H117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H117),"",IF(ISBLANK('Totaux nationaux bruts'!H116),"",'Totaux nationaux bruts'!H117-'Totaux nationaux bruts'!H116))</f>
-        <v/>
-      </c>
-      <c r="I117" s="54" t="str">
+        <v>138</v>
+      </c>
+      <c r="I117" s="54">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I117),"",IF(ISBLANK('Totaux nationaux bruts'!I116),"",'Totaux nationaux bruts'!I117-'Totaux nationaux bruts'!I116))</f>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="J117" s="10" t="str">
+        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;G117&amp;","&amp;H117&amp;","&amp;I117</f>
+        <v>18/05/2020,492,-346,515,-89,123,4,138,8</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -12138,30 +12162,30 @@
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0088BDF-C03F-41DF-876E-F1753CB125DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCD2F7-7BD5-4863-B650-85D1C2100748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="1680" windowWidth="19464" windowHeight="10068" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="14280" yWindow="1476" windowWidth="17796" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1817,6 +1817,15 @@
                 <c:pt idx="116">
                   <c:v>143427</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>143845</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>144163</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>144556</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2865,13 +2874,13 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -3968,13 +3977,13 @@
                   <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -4923,6 +4932,15 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>18468</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17941</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17583</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,13 +5990,13 @@
                   <c:v>-547</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>-527</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>-358</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -6915,6 +6933,15 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>62563</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>63354</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>63858</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>64209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7964,13 +7991,13 @@
                   <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -8934,6 +8961,15 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,13 +10019,13 @@
                   <c:v>-104</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
@@ -11001,6 +11037,15 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>17714</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17812</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17870</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17386,9 +17431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20502,40 +20547,94 @@
       <c r="A119" s="12">
         <v>43971</v>
       </c>
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="57"/>
+      <c r="B119" s="57">
+        <v>143845</v>
+      </c>
+      <c r="C119" s="57">
+        <v>17941</v>
+      </c>
+      <c r="D119" s="57">
+        <v>63354</v>
+      </c>
+      <c r="E119" s="57">
+        <v>1794</v>
+      </c>
+      <c r="F119" s="57">
+        <v>17812</v>
+      </c>
+      <c r="G119" s="57">
+        <v>74481</v>
+      </c>
+      <c r="H119" s="57">
+        <v>36751</v>
+      </c>
+      <c r="I119" s="57">
+        <v>10320</v>
+      </c>
+      <c r="J119" s="66" t="str">
+        <f>TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119</f>
+        <v>20/05/2020,143845,17941,63354,1794,17812,74481,36751,10320</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>43972</v>
       </c>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="57"/>
+      <c r="B120" s="57">
+        <v>144163</v>
+      </c>
+      <c r="C120" s="57">
+        <v>17583</v>
+      </c>
+      <c r="D120" s="57">
+        <v>63858</v>
+      </c>
+      <c r="E120" s="57">
+        <v>1745</v>
+      </c>
+      <c r="F120" s="57">
+        <v>17870</v>
+      </c>
+      <c r="G120" s="57">
+        <v>74516</v>
+      </c>
+      <c r="H120" s="57">
+        <v>36853</v>
+      </c>
+      <c r="I120" s="57">
+        <v>10345</v>
+      </c>
+      <c r="J120" s="66" t="str">
+        <f>TEXT(A120,"jj/mm/aaaa")&amp;","&amp;B120&amp;","&amp;C120&amp;","&amp;D120&amp;","&amp;E120&amp;","&amp;F120&amp;","&amp;G120&amp;","&amp;H120&amp;","&amp;I120</f>
+        <v>21/05/2020,144163,17583,63858,1745,17870,74516,36853,10345</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>43973</v>
       </c>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
+      <c r="B121" s="57">
+        <v>144556</v>
+      </c>
+      <c r="C121" s="57">
+        <v>17383</v>
+      </c>
+      <c r="D121" s="57">
+        <v>64209</v>
+      </c>
+      <c r="E121" s="57">
+        <v>1701</v>
+      </c>
+      <c r="F121" s="57">
+        <v>17944</v>
+      </c>
       <c r="G121" s="57"/>
       <c r="H121" s="57"/>
       <c r="I121" s="57"/>
+      <c r="J121" s="66" t="str">
+        <f>TEXT(A121,"jj/mm/aaaa")&amp;","&amp;B121&amp;","&amp;C121&amp;","&amp;D121&amp;","&amp;E121&amp;","&amp;F121&amp;","&amp;G121&amp;","&amp;H121&amp;","&amp;I121</f>
+        <v>22/05/2020,144556,17383,64209,1701,17944,,,</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
@@ -20549,6 +20648,10 @@
       <c r="G122" s="57"/>
       <c r="H122" s="57"/>
       <c r="I122" s="57"/>
+      <c r="J122" s="66" t="str">
+        <f t="shared" ref="J122:J131" si="2">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
+        <v>23/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
@@ -20562,6 +20665,10 @@
       <c r="G123" s="57"/>
       <c r="H123" s="57"/>
       <c r="I123" s="57"/>
+      <c r="J123" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>24/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
@@ -20575,6 +20682,10 @@
       <c r="G124" s="57"/>
       <c r="H124" s="57"/>
       <c r="I124" s="57"/>
+      <c r="J124" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>25/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
@@ -20588,6 +20699,10 @@
       <c r="G125" s="57"/>
       <c r="H125" s="57"/>
       <c r="I125" s="57"/>
+      <c r="J125" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>26/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
@@ -20601,6 +20716,10 @@
       <c r="G126" s="57"/>
       <c r="H126" s="57"/>
       <c r="I126" s="57"/>
+      <c r="J126" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>27/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
@@ -20614,6 +20733,10 @@
       <c r="G127" s="57"/>
       <c r="H127" s="57"/>
       <c r="I127" s="57"/>
+      <c r="J127" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>28/05/2020,,,,,,,,</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
@@ -20627,8 +20750,12 @@
       <c r="G128" s="57"/>
       <c r="H128" s="57"/>
       <c r="I128" s="57"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>29/05/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>43981</v>
       </c>
@@ -20640,8 +20767,12 @@
       <c r="G129" s="57"/>
       <c r="H129" s="57"/>
       <c r="I129" s="57"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>30/05/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>43982</v>
       </c>
@@ -20653,8 +20784,12 @@
       <c r="G130" s="57"/>
       <c r="H130" s="57"/>
       <c r="I130" s="57"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>31/05/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>43983</v>
       </c>
@@ -20666,6 +20801,10 @@
       <c r="G131" s="57"/>
       <c r="H131" s="57"/>
       <c r="I131" s="57"/>
+      <c r="J131" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>01/06/2020,,,,,,,,</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20677,8 +20816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25625,37 +25764,41 @@
         <f>'Totaux nationaux bruts'!A119</f>
         <v>43971</v>
       </c>
-      <c r="B119" s="52" t="str">
+      <c r="B119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B119),"",IF(ISBLANK('Totaux nationaux bruts'!B118),"",'Totaux nationaux bruts'!B119-'Totaux nationaux bruts'!B118))</f>
-        <v/>
-      </c>
-      <c r="C119" s="52" t="str">
+        <v>418</v>
+      </c>
+      <c r="C119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C119),"",IF(ISBLANK('Totaux nationaux bruts'!C118),"",'Totaux nationaux bruts'!C119-'Totaux nationaux bruts'!C118))</f>
-        <v/>
-      </c>
-      <c r="D119" s="52" t="str">
+        <v>-527</v>
+      </c>
+      <c r="D119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D119),"",IF(ISBLANK('Totaux nationaux bruts'!D118),"",'Totaux nationaux bruts'!D119-'Totaux nationaux bruts'!D118))</f>
-        <v/>
-      </c>
-      <c r="E119" s="52" t="str">
+        <v>791</v>
+      </c>
+      <c r="E119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E119),"",IF(ISBLANK('Totaux nationaux bruts'!E118),"",'Totaux nationaux bruts'!E119-'Totaux nationaux bruts'!E118))</f>
-        <v/>
-      </c>
-      <c r="F119" s="52" t="str">
+        <v>-100</v>
+      </c>
+      <c r="F119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F119),"",IF(ISBLANK('Totaux nationaux bruts'!F118),"",'Totaux nationaux bruts'!F119-'Totaux nationaux bruts'!F118))</f>
-        <v/>
-      </c>
-      <c r="G119" s="52" t="str">
+        <v>98</v>
+      </c>
+      <c r="G119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G119),"",IF(ISBLANK('Totaux nationaux bruts'!G118),"",'Totaux nationaux bruts'!G119-'Totaux nationaux bruts'!G118))</f>
-        <v/>
-      </c>
-      <c r="H119" s="52" t="str">
+        <v>569</v>
+      </c>
+      <c r="H119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H119),"",IF(ISBLANK('Totaux nationaux bruts'!H118),"",'Totaux nationaux bruts'!H119-'Totaux nationaux bruts'!H118))</f>
-        <v/>
-      </c>
-      <c r="I119" s="52" t="str">
+        <v>221</v>
+      </c>
+      <c r="I119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I119),"",IF(ISBLANK('Totaux nationaux bruts'!I118),"",'Totaux nationaux bruts'!I119-'Totaux nationaux bruts'!I118))</f>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="J119" s="10" t="str">
+        <f t="shared" ref="J119:J121" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119</f>
+        <v>20/05/2020,418,-527,791,-100,98,569,221,12</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -25663,37 +25806,41 @@
         <f>'Totaux nationaux bruts'!A120</f>
         <v>43972</v>
       </c>
-      <c r="B120" s="52" t="str">
+      <c r="B120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B120),"",IF(ISBLANK('Totaux nationaux bruts'!B119),"",'Totaux nationaux bruts'!B120-'Totaux nationaux bruts'!B119))</f>
-        <v/>
-      </c>
-      <c r="C120" s="52" t="str">
+        <v>318</v>
+      </c>
+      <c r="C120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C120),"",IF(ISBLANK('Totaux nationaux bruts'!C119),"",'Totaux nationaux bruts'!C120-'Totaux nationaux bruts'!C119))</f>
-        <v/>
-      </c>
-      <c r="D120" s="52" t="str">
+        <v>-358</v>
+      </c>
+      <c r="D120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D120),"",IF(ISBLANK('Totaux nationaux bruts'!D119),"",'Totaux nationaux bruts'!D120-'Totaux nationaux bruts'!D119))</f>
-        <v/>
-      </c>
-      <c r="E120" s="52" t="str">
+        <v>504</v>
+      </c>
+      <c r="E120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E120),"",IF(ISBLANK('Totaux nationaux bruts'!E119),"",'Totaux nationaux bruts'!E120-'Totaux nationaux bruts'!E119))</f>
-        <v/>
-      </c>
-      <c r="F120" s="52" t="str">
+        <v>-49</v>
+      </c>
+      <c r="F120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F120),"",IF(ISBLANK('Totaux nationaux bruts'!F119),"",'Totaux nationaux bruts'!F120-'Totaux nationaux bruts'!F119))</f>
-        <v/>
-      </c>
-      <c r="G120" s="52" t="str">
+        <v>58</v>
+      </c>
+      <c r="G120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G120),"",IF(ISBLANK('Totaux nationaux bruts'!G119),"",'Totaux nationaux bruts'!G120-'Totaux nationaux bruts'!G119))</f>
-        <v/>
-      </c>
-      <c r="H120" s="52" t="str">
+        <v>35</v>
+      </c>
+      <c r="H120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H120),"",IF(ISBLANK('Totaux nationaux bruts'!H119),"",'Totaux nationaux bruts'!H120-'Totaux nationaux bruts'!H119))</f>
-        <v/>
-      </c>
-      <c r="I120" s="52" t="str">
+        <v>102</v>
+      </c>
+      <c r="I120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I120),"",IF(ISBLANK('Totaux nationaux bruts'!I119),"",'Totaux nationaux bruts'!I120-'Totaux nationaux bruts'!I119))</f>
-        <v/>
+        <v>25</v>
+      </c>
+      <c r="J120" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>21/05/2020,318,-358,504,-49,58,35,102,25</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -25701,25 +25848,25 @@
         <f>'Totaux nationaux bruts'!A121</f>
         <v>43973</v>
       </c>
-      <c r="B121" s="52" t="str">
+      <c r="B121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B121),"",IF(ISBLANK('Totaux nationaux bruts'!B120),"",'Totaux nationaux bruts'!B121-'Totaux nationaux bruts'!B120))</f>
-        <v/>
-      </c>
-      <c r="C121" s="52" t="str">
+        <v>393</v>
+      </c>
+      <c r="C121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C121),"",IF(ISBLANK('Totaux nationaux bruts'!C120),"",'Totaux nationaux bruts'!C121-'Totaux nationaux bruts'!C120))</f>
-        <v/>
-      </c>
-      <c r="D121" s="52" t="str">
+        <v>-200</v>
+      </c>
+      <c r="D121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D121),"",IF(ISBLANK('Totaux nationaux bruts'!D120),"",'Totaux nationaux bruts'!D121-'Totaux nationaux bruts'!D120))</f>
-        <v/>
-      </c>
-      <c r="E121" s="52" t="str">
+        <v>351</v>
+      </c>
+      <c r="E121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E121),"",IF(ISBLANK('Totaux nationaux bruts'!E120),"",'Totaux nationaux bruts'!E121-'Totaux nationaux bruts'!E120))</f>
-        <v/>
-      </c>
-      <c r="F121" s="52" t="str">
+        <v>-44</v>
+      </c>
+      <c r="F121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F121),"",IF(ISBLANK('Totaux nationaux bruts'!F120),"",'Totaux nationaux bruts'!F121-'Totaux nationaux bruts'!F120))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="G121" s="52" t="str">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G121),"",IF(ISBLANK('Totaux nationaux bruts'!G120),"",'Totaux nationaux bruts'!G121-'Totaux nationaux bruts'!G120))</f>
@@ -25732,6 +25879,10 @@
       <c r="I121" s="52" t="str">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I121),"",IF(ISBLANK('Totaux nationaux bruts'!I120),"",'Totaux nationaux bruts'!I121-'Totaux nationaux bruts'!I120))</f>
         <v/>
+      </c>
+      <c r="J121" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>22/05/2020,393,-200,351,-44,74,,,</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -26123,8 +26274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCD2F7-7BD5-4863-B650-85D1C2100748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0FBEA7-ED30-467F-A83C-54B21E5E4E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="1476" windowWidth="17796" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="4536" yWindow="960" windowWidth="19116" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1826,6 +1826,15 @@
                 <c:pt idx="119">
                   <c:v>144556</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>144806</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>144921</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>145279</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2883,13 +2892,13 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
@@ -3986,13 +3995,13 @@
                   <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
@@ -4941,6 +4950,15 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>17383</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17178</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17185</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5999,13 +6017,13 @@
                   <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>-205</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>-387</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
@@ -6942,6 +6960,15 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>64209</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>64547</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>64617</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8000,13 +8027,13 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
@@ -8970,6 +8997,15 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10028,13 +10064,13 @@
                   <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0</c:v>
@@ -11046,6 +11082,15 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>17944</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17987</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18022</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17433,7 +17478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20473,7 +20518,7 @@
         <v>10642</v>
       </c>
       <c r="J116" s="66" t="str">
-        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
+        <f t="shared" ref="J116:J121" si="2">TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
         <v>17/05/2020,142411,19361,61213,2087,17466,73619,36461,10642</v>
       </c>
     </row>
@@ -20506,7 +20551,7 @@
         <v>10650</v>
       </c>
       <c r="J117" s="66" t="str">
-        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;G117&amp;","&amp;H117&amp;","&amp;I117</f>
+        <f t="shared" si="2"/>
         <v>18/05/2020,142903,19015,61728,1998,17589,73623,36599,10650</v>
       </c>
     </row>
@@ -20539,7 +20584,7 @@
         <v>10308</v>
       </c>
       <c r="J118" s="66" t="str">
-        <f>TEXT(A118,"jj/mm/aaaa")&amp;","&amp;B118&amp;","&amp;C118&amp;","&amp;D118&amp;","&amp;E118&amp;","&amp;F118&amp;","&amp;G118&amp;","&amp;H118&amp;","&amp;I118</f>
+        <f t="shared" si="2"/>
         <v>19/05/2020,143427,18468,62563,1894,17714,73912,36530,10308</v>
       </c>
     </row>
@@ -20572,7 +20617,7 @@
         <v>10320</v>
       </c>
       <c r="J119" s="66" t="str">
-        <f>TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119</f>
+        <f t="shared" si="2"/>
         <v>20/05/2020,143845,17941,63354,1794,17812,74481,36751,10320</v>
       </c>
     </row>
@@ -20605,7 +20650,7 @@
         <v>10345</v>
       </c>
       <c r="J120" s="66" t="str">
-        <f>TEXT(A120,"jj/mm/aaaa")&amp;","&amp;B120&amp;","&amp;C120&amp;","&amp;D120&amp;","&amp;E120&amp;","&amp;F120&amp;","&amp;G120&amp;","&amp;H120&amp;","&amp;I120</f>
+        <f t="shared" si="2"/>
         <v>21/05/2020,144163,17583,63858,1745,17870,74516,36853,10345</v>
       </c>
     </row>
@@ -20628,63 +20673,117 @@
       <c r="F121" s="57">
         <v>17944</v>
       </c>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
+      <c r="G121" s="57">
+        <v>74516</v>
+      </c>
+      <c r="H121" s="57">
+        <v>36853</v>
+      </c>
+      <c r="I121" s="57">
+        <v>10345</v>
+      </c>
       <c r="J121" s="66" t="str">
-        <f>TEXT(A121,"jj/mm/aaaa")&amp;","&amp;B121&amp;","&amp;C121&amp;","&amp;D121&amp;","&amp;E121&amp;","&amp;F121&amp;","&amp;G121&amp;","&amp;H121&amp;","&amp;I121</f>
-        <v>22/05/2020,144556,17383,64209,1701,17944,,,</v>
+        <f t="shared" si="2"/>
+        <v>22/05/2020,144556,17383,64209,1701,17944,74516,36853,10345</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>43974</v>
       </c>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
+      <c r="B122" s="57">
+        <v>144806</v>
+      </c>
+      <c r="C122" s="57">
+        <v>17178</v>
+      </c>
+      <c r="D122" s="57">
+        <v>64547</v>
+      </c>
+      <c r="E122" s="57">
+        <v>1665</v>
+      </c>
+      <c r="F122" s="57">
+        <v>17987</v>
+      </c>
+      <c r="G122" s="57">
+        <v>74516</v>
+      </c>
+      <c r="H122" s="57">
+        <v>36853</v>
+      </c>
+      <c r="I122" s="57">
+        <v>10345</v>
+      </c>
       <c r="J122" s="66" t="str">
-        <f t="shared" ref="J122:J131" si="2">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
-        <v>23/05/2020,,,,,,,,</v>
+        <f t="shared" ref="J122:J131" si="3">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
+        <v>23/05/2020,144806,17178,64547,1665,17987,74516,36853,10345</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>43975</v>
       </c>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="57"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
+      <c r="B123" s="57">
+        <v>144921</v>
+      </c>
+      <c r="C123" s="57">
+        <v>17185</v>
+      </c>
+      <c r="D123" s="57">
+        <v>64617</v>
+      </c>
+      <c r="E123" s="57">
+        <v>1655</v>
+      </c>
+      <c r="F123" s="57">
+        <v>18022</v>
+      </c>
+      <c r="G123" s="57">
+        <v>74516</v>
+      </c>
+      <c r="H123" s="57">
+        <v>36853</v>
+      </c>
+      <c r="I123" s="57">
+        <v>10345</v>
+      </c>
       <c r="J123" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>24/05/2020,,,,,,,,</v>
+        <f t="shared" si="3"/>
+        <v>24/05/2020,144921,17185,64617,1655,18022,74516,36853,10345</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>43976</v>
       </c>
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
+      <c r="B124" s="57">
+        <v>145279</v>
+      </c>
+      <c r="C124" s="57">
+        <v>16798</v>
+      </c>
+      <c r="D124" s="57">
+        <v>65199</v>
+      </c>
+      <c r="E124" s="57">
+        <v>1609</v>
+      </c>
+      <c r="F124" s="57">
+        <v>18112</v>
+      </c>
+      <c r="G124" s="57">
+        <v>74516</v>
+      </c>
+      <c r="H124" s="57">
+        <v>36853</v>
+      </c>
+      <c r="I124" s="57">
+        <v>10345</v>
+      </c>
       <c r="J124" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>25/05/2020,,,,,,,,</v>
+        <f t="shared" si="3"/>
+        <v>25/05/2020,145279,16798,65199,1609,18112,74516,36853,10345</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -20700,7 +20799,7 @@
       <c r="H125" s="57"/>
       <c r="I125" s="57"/>
       <c r="J125" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20717,7 +20816,7 @@
       <c r="H126" s="57"/>
       <c r="I126" s="57"/>
       <c r="J126" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20734,7 +20833,7 @@
       <c r="H127" s="57"/>
       <c r="I127" s="57"/>
       <c r="J127" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20751,7 +20850,7 @@
       <c r="H128" s="57"/>
       <c r="I128" s="57"/>
       <c r="J128" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20768,7 +20867,7 @@
       <c r="H129" s="57"/>
       <c r="I129" s="57"/>
       <c r="J129" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20785,7 +20884,7 @@
       <c r="H130" s="57"/>
       <c r="I130" s="57"/>
       <c r="J130" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31/05/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20802,7 +20901,7 @@
       <c r="H131" s="57"/>
       <c r="I131" s="57"/>
       <c r="J131" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01/06/2020,,,,,,,,</v>
       </c>
     </row>
@@ -20817,7 +20916,7 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+      <selection activeCell="J119" sqref="J119:J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25797,7 +25896,7 @@
         <v>12</v>
       </c>
       <c r="J119" s="10" t="str">
-        <f t="shared" ref="J119:J121" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119</f>
+        <f t="shared" ref="J119:J124" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119</f>
         <v>20/05/2020,418,-527,791,-100,98,569,221,12</v>
       </c>
     </row>
@@ -25868,21 +25967,21 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!F121),"",IF(ISBLANK('Totaux nationaux bruts'!F120),"",'Totaux nationaux bruts'!F121-'Totaux nationaux bruts'!F120))</f>
         <v>74</v>
       </c>
-      <c r="G121" s="52" t="str">
+      <c r="G121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G121),"",IF(ISBLANK('Totaux nationaux bruts'!G120),"",'Totaux nationaux bruts'!G121-'Totaux nationaux bruts'!G120))</f>
-        <v/>
-      </c>
-      <c r="H121" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="H121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H121),"",IF(ISBLANK('Totaux nationaux bruts'!H120),"",'Totaux nationaux bruts'!H121-'Totaux nationaux bruts'!H120))</f>
-        <v/>
-      </c>
-      <c r="I121" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="I121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I121),"",IF(ISBLANK('Totaux nationaux bruts'!I120),"",'Totaux nationaux bruts'!I121-'Totaux nationaux bruts'!I120))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J121" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>22/05/2020,393,-200,351,-44,74,,,</v>
+        <v>22/05/2020,393,-200,351,-44,74,0,0,0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -25890,37 +25989,41 @@
         <f>'Totaux nationaux bruts'!A122</f>
         <v>43974</v>
       </c>
-      <c r="B122" s="52" t="str">
+      <c r="B122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B122),"",IF(ISBLANK('Totaux nationaux bruts'!B121),"",'Totaux nationaux bruts'!B122-'Totaux nationaux bruts'!B121))</f>
-        <v/>
-      </c>
-      <c r="C122" s="52" t="str">
+        <v>250</v>
+      </c>
+      <c r="C122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C122),"",IF(ISBLANK('Totaux nationaux bruts'!C121),"",'Totaux nationaux bruts'!C122-'Totaux nationaux bruts'!C121))</f>
-        <v/>
-      </c>
-      <c r="D122" s="52" t="str">
+        <v>-205</v>
+      </c>
+      <c r="D122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D122),"",IF(ISBLANK('Totaux nationaux bruts'!D121),"",'Totaux nationaux bruts'!D122-'Totaux nationaux bruts'!D121))</f>
-        <v/>
-      </c>
-      <c r="E122" s="52" t="str">
+        <v>338</v>
+      </c>
+      <c r="E122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E122),"",IF(ISBLANK('Totaux nationaux bruts'!E121),"",'Totaux nationaux bruts'!E122-'Totaux nationaux bruts'!E121))</f>
-        <v/>
-      </c>
-      <c r="F122" s="52" t="str">
+        <v>-36</v>
+      </c>
+      <c r="F122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F122),"",IF(ISBLANK('Totaux nationaux bruts'!F121),"",'Totaux nationaux bruts'!F122-'Totaux nationaux bruts'!F121))</f>
-        <v/>
-      </c>
-      <c r="G122" s="52" t="str">
+        <v>43</v>
+      </c>
+      <c r="G122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G122),"",IF(ISBLANK('Totaux nationaux bruts'!G121),"",'Totaux nationaux bruts'!G122-'Totaux nationaux bruts'!G121))</f>
-        <v/>
-      </c>
-      <c r="H122" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="H122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H122),"",IF(ISBLANK('Totaux nationaux bruts'!H121),"",'Totaux nationaux bruts'!H122-'Totaux nationaux bruts'!H121))</f>
-        <v/>
-      </c>
-      <c r="I122" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="I122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I122),"",IF(ISBLANK('Totaux nationaux bruts'!I121),"",'Totaux nationaux bruts'!I122-'Totaux nationaux bruts'!I121))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>23/05/2020,250,-205,338,-36,43,0,0,0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -25928,37 +26031,41 @@
         <f>'Totaux nationaux bruts'!A123</f>
         <v>43975</v>
       </c>
-      <c r="B123" s="52" t="str">
+      <c r="B123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B123),"",IF(ISBLANK('Totaux nationaux bruts'!B122),"",'Totaux nationaux bruts'!B123-'Totaux nationaux bruts'!B122))</f>
-        <v/>
-      </c>
-      <c r="C123" s="52" t="str">
+        <v>115</v>
+      </c>
+      <c r="C123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C123),"",IF(ISBLANK('Totaux nationaux bruts'!C122),"",'Totaux nationaux bruts'!C123-'Totaux nationaux bruts'!C122))</f>
-        <v/>
-      </c>
-      <c r="D123" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="D123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D123),"",IF(ISBLANK('Totaux nationaux bruts'!D122),"",'Totaux nationaux bruts'!D123-'Totaux nationaux bruts'!D122))</f>
-        <v/>
-      </c>
-      <c r="E123" s="52" t="str">
+        <v>70</v>
+      </c>
+      <c r="E123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E123),"",IF(ISBLANK('Totaux nationaux bruts'!E122),"",'Totaux nationaux bruts'!E123-'Totaux nationaux bruts'!E122))</f>
-        <v/>
-      </c>
-      <c r="F123" s="52" t="str">
+        <v>-10</v>
+      </c>
+      <c r="F123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F123),"",IF(ISBLANK('Totaux nationaux bruts'!F122),"",'Totaux nationaux bruts'!F123-'Totaux nationaux bruts'!F122))</f>
-        <v/>
-      </c>
-      <c r="G123" s="52" t="str">
+        <v>35</v>
+      </c>
+      <c r="G123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G123),"",IF(ISBLANK('Totaux nationaux bruts'!G122),"",'Totaux nationaux bruts'!G123-'Totaux nationaux bruts'!G122))</f>
-        <v/>
-      </c>
-      <c r="H123" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="H123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H123),"",IF(ISBLANK('Totaux nationaux bruts'!H122),"",'Totaux nationaux bruts'!H123-'Totaux nationaux bruts'!H122))</f>
-        <v/>
-      </c>
-      <c r="I123" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="I123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I123),"",IF(ISBLANK('Totaux nationaux bruts'!I122),"",'Totaux nationaux bruts'!I123-'Totaux nationaux bruts'!I122))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>24/05/2020,115,7,70,-10,35,0,0,0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -25966,37 +26073,41 @@
         <f>'Totaux nationaux bruts'!A124</f>
         <v>43976</v>
       </c>
-      <c r="B124" s="52" t="str">
+      <c r="B124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B124),"",IF(ISBLANK('Totaux nationaux bruts'!B123),"",'Totaux nationaux bruts'!B124-'Totaux nationaux bruts'!B123))</f>
-        <v/>
-      </c>
-      <c r="C124" s="52" t="str">
+        <v>358</v>
+      </c>
+      <c r="C124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C124),"",IF(ISBLANK('Totaux nationaux bruts'!C123),"",'Totaux nationaux bruts'!C124-'Totaux nationaux bruts'!C123))</f>
-        <v/>
-      </c>
-      <c r="D124" s="52" t="str">
+        <v>-387</v>
+      </c>
+      <c r="D124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D124),"",IF(ISBLANK('Totaux nationaux bruts'!D123),"",'Totaux nationaux bruts'!D124-'Totaux nationaux bruts'!D123))</f>
-        <v/>
-      </c>
-      <c r="E124" s="52" t="str">
+        <v>582</v>
+      </c>
+      <c r="E124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E124),"",IF(ISBLANK('Totaux nationaux bruts'!E123),"",'Totaux nationaux bruts'!E124-'Totaux nationaux bruts'!E123))</f>
-        <v/>
-      </c>
-      <c r="F124" s="52" t="str">
+        <v>-46</v>
+      </c>
+      <c r="F124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F124),"",IF(ISBLANK('Totaux nationaux bruts'!F123),"",'Totaux nationaux bruts'!F124-'Totaux nationaux bruts'!F123))</f>
-        <v/>
-      </c>
-      <c r="G124" s="52" t="str">
+        <v>90</v>
+      </c>
+      <c r="G124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G124),"",IF(ISBLANK('Totaux nationaux bruts'!G123),"",'Totaux nationaux bruts'!G124-'Totaux nationaux bruts'!G123))</f>
-        <v/>
-      </c>
-      <c r="H124" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="H124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H124),"",IF(ISBLANK('Totaux nationaux bruts'!H123),"",'Totaux nationaux bruts'!H124-'Totaux nationaux bruts'!H123))</f>
-        <v/>
-      </c>
-      <c r="I124" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="I124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I124),"",IF(ISBLANK('Totaux nationaux bruts'!I123),"",'Totaux nationaux bruts'!I124-'Totaux nationaux bruts'!I123))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>25/05/2020,358,-387,582,-46,90,0,0,0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -26274,7 +26385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA8A738-5483-4FF6-896C-9115C3F420D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4E596-F34E-42C7-A3A7-411AADD27C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="8676" yWindow="648" windowWidth="14136" windowHeight="10068" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1856,6 +1856,9 @@
                 <c:pt idx="127">
                   <c:v>151496</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>151753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2937,7 +2940,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -3843,6 +3846,9 @@
                 <c:pt idx="127">
                   <c:v>227</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>72</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4743,6 +4749,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,6 +5672,9 @@
                 <c:pt idx="127">
                   <c:v>29</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6486,7 +6498,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -7432,6 +7444,9 @@
                 <c:pt idx="127">
                   <c:v>227</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>72</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8091,6 +8106,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9212,7 +9230,7 @@
                   <c:v>1828</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -10167,6 +10185,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>14380</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11249,7 +11270,7 @@
                   <c:v>-315</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>-58</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -12192,6 +12213,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>68268</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>68355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13274,7 +13298,7 @@
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -14244,6 +14268,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15326,7 +15353,7 @@
                   <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>0</c:v>
@@ -16344,6 +16371,9 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>18444</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25065,9 +25095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28544,17 +28574,33 @@
       <c r="A130" s="12">
         <v>43982</v>
       </c>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="57"/>
+      <c r="B130" s="57">
+        <v>151753</v>
+      </c>
+      <c r="C130" s="57">
+        <v>14322</v>
+      </c>
+      <c r="D130" s="57">
+        <v>68355</v>
+      </c>
+      <c r="E130" s="57">
+        <v>1319</v>
+      </c>
+      <c r="F130" s="57">
+        <v>18475</v>
+      </c>
+      <c r="G130" s="57">
+        <v>74402</v>
+      </c>
+      <c r="H130" s="57">
+        <v>37273</v>
+      </c>
+      <c r="I130" s="57">
+        <v>10327</v>
+      </c>
       <c r="J130" s="66" t="str">
         <f t="shared" si="3"/>
-        <v>31/05/2020,,,,,,,,</v>
+        <v>31/05/2020,151753,14322,68355,1319,18475,74402,37273,10327</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -28584,8 +28630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="A1:A1048576 G1:G1048576 H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28661,7 +28707,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="10" t="str">
-        <f t="shared" ref="L1:L64" si="0">TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2</f>
+        <f t="shared" ref="L2:L64" si="0">TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2</f>
         <v>24/01/2020,3,,,,,,,</v>
       </c>
     </row>
@@ -34061,7 +34107,7 @@
         <v>12</v>
       </c>
       <c r="L119" s="10" t="str">
-        <f t="shared" ref="L119:L129" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119</f>
+        <f t="shared" ref="L119:L130" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119</f>
         <v>20/05/2020,418,-527,791,-100,98,569,221,12</v>
       </c>
     </row>
@@ -34550,39 +34596,47 @@
         <f>'Totaux nationaux bruts'!A130</f>
         <v>43982</v>
       </c>
-      <c r="B130" s="52" t="str">
+      <c r="B130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B130),"",IF(ISBLANK('Totaux nationaux bruts'!B129),"",'Totaux nationaux bruts'!B130-'Totaux nationaux bruts'!B129))</f>
-        <v/>
-      </c>
-      <c r="C130" s="52" t="str">
+        <v>257</v>
+      </c>
+      <c r="C130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C130),"",IF(ISBLANK('Totaux nationaux bruts'!C129),"",'Totaux nationaux bruts'!C130-'Totaux nationaux bruts'!C129))</f>
-        <v/>
-      </c>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52" t="str">
+        <v>-58</v>
+      </c>
+      <c r="D130" s="52">
+        <v>72</v>
+      </c>
+      <c r="E130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D130),"",IF(ISBLANK('Totaux nationaux bruts'!D129),"",'Totaux nationaux bruts'!D130-'Totaux nationaux bruts'!D129))</f>
-        <v/>
-      </c>
-      <c r="F130" s="52" t="str">
+        <v>87</v>
+      </c>
+      <c r="F130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E130),"",IF(ISBLANK('Totaux nationaux bruts'!E129),"",'Totaux nationaux bruts'!E130-'Totaux nationaux bruts'!E129))</f>
-        <v/>
-      </c>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52" t="str">
+        <v>-6</v>
+      </c>
+      <c r="G130" s="52">
+        <v>18</v>
+      </c>
+      <c r="H130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F130),"",IF(ISBLANK('Totaux nationaux bruts'!F129),"",'Totaux nationaux bruts'!F130-'Totaux nationaux bruts'!F129))</f>
-        <v/>
-      </c>
-      <c r="I130" s="52" t="str">
+        <v>31</v>
+      </c>
+      <c r="I130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G130),"",IF(ISBLANK('Totaux nationaux bruts'!G129),"",'Totaux nationaux bruts'!G130-'Totaux nationaux bruts'!G129))</f>
-        <v/>
-      </c>
-      <c r="J130" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H130),"",IF(ISBLANK('Totaux nationaux bruts'!H129),"",'Totaux nationaux bruts'!H130-'Totaux nationaux bruts'!H129))</f>
-        <v/>
-      </c>
-      <c r="K130" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="K130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I130),"",IF(ISBLANK('Totaux nationaux bruts'!I129),"",'Totaux nationaux bruts'!I130-'Totaux nationaux bruts'!I129))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="L130" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>31/05/2020,257,-58,87,-6,31,0,0,0</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -34634,7 +34688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4E596-F34E-42C7-A3A7-411AADD27C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17959C1D-1F94-4165-A6C9-DE5B219ED963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="648" windowWidth="14136" windowHeight="10068" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" activeTab="2" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1026,6 +1026,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1858,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>151753</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>152091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2943,7 +2947,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,6 +3853,9 @@
                 <c:pt idx="128">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4752,6 +4759,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5675,6 +5685,9 @@
                 <c:pt idx="128">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6501,7 +6514,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7447,6 +7460,9 @@
                 <c:pt idx="128">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8109,6 +8125,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9233,7 +9252,7 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10188,6 +10207,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>14322</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11273,7 +11295,7 @@
                   <c:v>-58</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12216,6 +12238,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>68355</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>68440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13301,7 +13326,7 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14271,6 +14296,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15356,7 +15384,7 @@
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16374,6 +16402,9 @@
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>18475</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>18506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25093,11 +25124,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28335,7 +28366,7 @@
         <v>10345</v>
       </c>
       <c r="J122" s="66" t="str">
-        <f t="shared" ref="J122:J131" si="3">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
+        <f t="shared" ref="J122:J160" si="3">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
         <v>23/05/2020,144806,17178,64547,1665,17987,74516,36853,10345</v>
       </c>
     </row>
@@ -28607,17 +28638,526 @@
       <c r="A131" s="12">
         <v>43983</v>
       </c>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="57"/>
+      <c r="B131" s="57">
+        <v>152091</v>
+      </c>
+      <c r="C131" s="57">
+        <v>14288</v>
+      </c>
+      <c r="D131" s="57">
+        <v>68440</v>
+      </c>
+      <c r="E131" s="57">
+        <v>1302</v>
+      </c>
+      <c r="F131" s="57">
+        <v>18506</v>
+      </c>
+      <c r="G131" s="57">
+        <v>74402</v>
+      </c>
+      <c r="H131" s="57">
+        <v>37273</v>
+      </c>
+      <c r="I131" s="57">
+        <v>10327</v>
+      </c>
       <c r="J131" s="66" t="str">
         <f t="shared" si="3"/>
-        <v>01/06/2020,,,,,,,,</v>
+        <v>01/06/2020,152091,14288,68440,1302,18506,74402,37273,10327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="12">
+        <v>43984</v>
+      </c>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>02/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="12">
+        <v>43985</v>
+      </c>
+      <c r="B133" s="57"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>03/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="12">
+        <v>43986</v>
+      </c>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>04/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="12">
+        <v>43987</v>
+      </c>
+      <c r="B135" s="57"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>05/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="12">
+        <v>43988</v>
+      </c>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>06/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="12">
+        <v>43989</v>
+      </c>
+      <c r="B137" s="57"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>07/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="12">
+        <v>43990</v>
+      </c>
+      <c r="B138" s="57"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>08/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
+        <v>43991</v>
+      </c>
+      <c r="B139" s="57"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>09/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="12">
+        <v>43992</v>
+      </c>
+      <c r="B140" s="57"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>10/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="12">
+        <v>43993</v>
+      </c>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>11/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="12">
+        <v>43994</v>
+      </c>
+      <c r="B142" s="57"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>12/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
+        <v>43995</v>
+      </c>
+      <c r="B143" s="57"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>13/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
+        <v>43996</v>
+      </c>
+      <c r="B144" s="57"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>14/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
+        <v>43997</v>
+      </c>
+      <c r="B145" s="57"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>15/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="12">
+        <v>43998</v>
+      </c>
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>16/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="12">
+        <v>43999</v>
+      </c>
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>17/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="12">
+        <v>44000</v>
+      </c>
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>18/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
+        <v>44001</v>
+      </c>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>19/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="12">
+        <v>44002</v>
+      </c>
+      <c r="B150" s="57"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>20/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="12">
+        <v>44003</v>
+      </c>
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>21/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="12">
+        <v>44004</v>
+      </c>
+      <c r="B152" s="57"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>22/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="12">
+        <v>44005</v>
+      </c>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>23/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>44006</v>
+      </c>
+      <c r="B154" s="57"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>24/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="12">
+        <v>44007</v>
+      </c>
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>25/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="12">
+        <v>44008</v>
+      </c>
+      <c r="B156" s="57"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>26/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="12">
+        <v>44009</v>
+      </c>
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>27/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="12">
+        <v>44010</v>
+      </c>
+      <c r="B158" s="57"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>28/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="12">
+        <v>44011</v>
+      </c>
+      <c r="B159" s="57"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>29/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="12">
+        <v>44012</v>
+      </c>
+      <c r="B160" s="57"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="66" t="str">
+        <f t="shared" si="3"/>
+        <v>30/06/2020,,,,,,,,</v>
       </c>
     </row>
   </sheetData>
@@ -28628,10 +29168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -28691,7 +29231,6 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
-        <f>'Totaux nationaux bruts'!A2</f>
         <v>43854</v>
       </c>
       <c r="B2" s="52">
@@ -28713,7 +29252,6 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
-        <f>'Totaux nationaux bruts'!A3</f>
         <v>43855</v>
       </c>
       <c r="B3" s="52" t="str">
@@ -28757,7 +29295,6 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <f>'Totaux nationaux bruts'!A4</f>
         <v>43856</v>
       </c>
       <c r="B4" s="52" t="str">
@@ -28801,7 +29338,6 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
-        <f>'Totaux nationaux bruts'!A5</f>
         <v>43857</v>
       </c>
       <c r="B5" s="52" t="str">
@@ -28845,7 +29381,6 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <f>'Totaux nationaux bruts'!A6</f>
         <v>43858</v>
       </c>
       <c r="B6" s="52" t="str">
@@ -28889,7 +29424,6 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <f>'Totaux nationaux bruts'!A7</f>
         <v>43859</v>
       </c>
       <c r="B7" s="52">
@@ -28933,7 +29467,6 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <f>'Totaux nationaux bruts'!A8</f>
         <v>43860</v>
       </c>
       <c r="B8" s="52">
@@ -28977,7 +29510,6 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <f>'Totaux nationaux bruts'!A9</f>
         <v>43861</v>
       </c>
       <c r="B9" s="52" t="str">
@@ -29021,7 +29553,6 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <f>'Totaux nationaux bruts'!A10</f>
         <v>43862</v>
       </c>
       <c r="B10" s="52" t="str">
@@ -29065,7 +29596,6 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <f>'Totaux nationaux bruts'!A11</f>
         <v>43863</v>
       </c>
       <c r="B11" s="52" t="str">
@@ -29109,7 +29639,6 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <f>'Totaux nationaux bruts'!A12</f>
         <v>43864</v>
       </c>
       <c r="B12" s="52" t="str">
@@ -29153,7 +29682,6 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <f>'Totaux nationaux bruts'!A13</f>
         <v>43865</v>
       </c>
       <c r="B13" s="52" t="str">
@@ -29197,7 +29725,6 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <f>'Totaux nationaux bruts'!A14</f>
         <v>43866</v>
       </c>
       <c r="B14" s="52" t="str">
@@ -29241,7 +29768,6 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <f>'Totaux nationaux bruts'!A15</f>
         <v>43867</v>
       </c>
       <c r="B15" s="52" t="str">
@@ -29285,7 +29811,6 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <f>'Totaux nationaux bruts'!A16</f>
         <v>43868</v>
       </c>
       <c r="B16" s="52" t="str">
@@ -29329,7 +29854,6 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <f>'Totaux nationaux bruts'!A17</f>
         <v>43869</v>
       </c>
       <c r="B17" s="52" t="str">
@@ -29373,7 +29897,6 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <f>'Totaux nationaux bruts'!A18</f>
         <v>43870</v>
       </c>
       <c r="B18" s="52" t="str">
@@ -29417,7 +29940,6 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <f>'Totaux nationaux bruts'!A19</f>
         <v>43871</v>
       </c>
       <c r="B19" s="52" t="str">
@@ -29461,7 +29983,6 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <f>'Totaux nationaux bruts'!A20</f>
         <v>43872</v>
       </c>
       <c r="B20" s="52" t="str">
@@ -29505,7 +30026,6 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <f>'Totaux nationaux bruts'!A21</f>
         <v>43873</v>
       </c>
       <c r="B21" s="52" t="str">
@@ -29549,7 +30069,6 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <f>'Totaux nationaux bruts'!A22</f>
         <v>43874</v>
       </c>
       <c r="B22" s="52" t="str">
@@ -29593,7 +30112,6 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <f>'Totaux nationaux bruts'!A23</f>
         <v>43875</v>
       </c>
       <c r="B23" s="52" t="str">
@@ -29637,7 +30155,6 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <f>'Totaux nationaux bruts'!A24</f>
         <v>43876</v>
       </c>
       <c r="B24" s="52" t="str">
@@ -29681,7 +30198,6 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <f>'Totaux nationaux bruts'!A25</f>
         <v>43877</v>
       </c>
       <c r="B25" s="52" t="str">
@@ -29725,7 +30241,6 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <f>'Totaux nationaux bruts'!A26</f>
         <v>43878</v>
       </c>
       <c r="B26" s="52" t="str">
@@ -29769,7 +30284,6 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <f>'Totaux nationaux bruts'!A27</f>
         <v>43879</v>
       </c>
       <c r="B27" s="52" t="str">
@@ -29813,7 +30327,6 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <f>'Totaux nationaux bruts'!A28</f>
         <v>43880</v>
       </c>
       <c r="B28" s="52" t="str">
@@ -29857,7 +30370,6 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <f>'Totaux nationaux bruts'!A29</f>
         <v>43881</v>
       </c>
       <c r="B29" s="52" t="str">
@@ -29901,7 +30413,6 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <f>'Totaux nationaux bruts'!A30</f>
         <v>43882</v>
       </c>
       <c r="B30" s="52" t="str">
@@ -29945,7 +30456,6 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <f>'Totaux nationaux bruts'!A31</f>
         <v>43883</v>
       </c>
       <c r="B31" s="52" t="str">
@@ -29989,7 +30499,6 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <f>'Totaux nationaux bruts'!A32</f>
         <v>43884</v>
       </c>
       <c r="B32" s="52" t="str">
@@ -30033,7 +30542,6 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <f>'Totaux nationaux bruts'!A33</f>
         <v>43885</v>
       </c>
       <c r="B33" s="52" t="str">
@@ -30077,7 +30585,6 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <f>'Totaux nationaux bruts'!A34</f>
         <v>43886</v>
       </c>
       <c r="B34" s="52" t="str">
@@ -30121,7 +30628,6 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <f>'Totaux nationaux bruts'!A35</f>
         <v>43887</v>
       </c>
       <c r="B35" s="52">
@@ -30165,7 +30671,6 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <f>'Totaux nationaux bruts'!A36</f>
         <v>43888</v>
       </c>
       <c r="B36" s="52">
@@ -30209,7 +30714,6 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <f>'Totaux nationaux bruts'!A37</f>
         <v>43889</v>
       </c>
       <c r="B37" s="52">
@@ -30253,7 +30757,6 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <f>'Totaux nationaux bruts'!A38</f>
         <v>43890</v>
       </c>
       <c r="B38" s="52">
@@ -30297,7 +30800,6 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <f>'Totaux nationaux bruts'!A39</f>
         <v>43891</v>
       </c>
       <c r="B39" s="52">
@@ -30341,7 +30843,6 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <f>'Totaux nationaux bruts'!A40</f>
         <v>43892</v>
       </c>
       <c r="B40" s="52">
@@ -30385,7 +30886,6 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <f>'Totaux nationaux bruts'!A41</f>
         <v>43893</v>
       </c>
       <c r="B41" s="52">
@@ -30429,7 +30929,6 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <f>'Totaux nationaux bruts'!A42</f>
         <v>43894</v>
       </c>
       <c r="B42" s="52">
@@ -30473,7 +30972,6 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <f>'Totaux nationaux bruts'!A43</f>
         <v>43895</v>
       </c>
       <c r="B43" s="52">
@@ -30517,7 +31015,6 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <f>'Totaux nationaux bruts'!A44</f>
         <v>43896</v>
       </c>
       <c r="B44" s="52">
@@ -30561,7 +31058,6 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <f>'Totaux nationaux bruts'!A45</f>
         <v>43897</v>
       </c>
       <c r="B45" s="52">
@@ -30605,7 +31101,6 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <f>'Totaux nationaux bruts'!A46</f>
         <v>43898</v>
       </c>
       <c r="B46" s="52">
@@ -30649,7 +31144,6 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <f>'Totaux nationaux bruts'!A47</f>
         <v>43899</v>
       </c>
       <c r="B47" s="52">
@@ -30693,7 +31187,6 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <f>'Totaux nationaux bruts'!A48</f>
         <v>43900</v>
       </c>
       <c r="B48" s="52">
@@ -30737,7 +31230,6 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
-        <f>'Totaux nationaux bruts'!A49</f>
         <v>43901</v>
       </c>
       <c r="B49" s="52">
@@ -30781,7 +31273,6 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
-        <f>'Totaux nationaux bruts'!A50</f>
         <v>43902</v>
       </c>
       <c r="B50" s="52">
@@ -30825,7 +31316,6 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
-        <f>'Totaux nationaux bruts'!A51</f>
         <v>43903</v>
       </c>
       <c r="B51" s="52">
@@ -30869,7 +31359,6 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <f>'Totaux nationaux bruts'!A52</f>
         <v>43904</v>
       </c>
       <c r="B52" s="52">
@@ -30913,7 +31402,6 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
-        <f>'Totaux nationaux bruts'!A53</f>
         <v>43905</v>
       </c>
       <c r="B53" s="52">
@@ -30957,7 +31445,6 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <f>'Totaux nationaux bruts'!A54</f>
         <v>43906</v>
       </c>
       <c r="B54" s="52">
@@ -31001,7 +31488,6 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
-        <f>'Totaux nationaux bruts'!A55</f>
         <v>43907</v>
       </c>
       <c r="B55" s="52">
@@ -31045,7 +31531,6 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
-        <f>'Totaux nationaux bruts'!A56</f>
         <v>43908</v>
       </c>
       <c r="B56" s="52">
@@ -31089,7 +31574,6 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
-        <f>'Totaux nationaux bruts'!A57</f>
         <v>43909</v>
       </c>
       <c r="B57" s="52">
@@ -31137,7 +31621,6 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <f>'Totaux nationaux bruts'!A58</f>
         <v>43910</v>
       </c>
       <c r="B58" s="52">
@@ -31185,7 +31668,6 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
-        <f>'Totaux nationaux bruts'!A59</f>
         <v>43911</v>
       </c>
       <c r="B59" s="52">
@@ -31233,7 +31715,6 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <f>'Totaux nationaux bruts'!A60</f>
         <v>43912</v>
       </c>
       <c r="B60" s="52">
@@ -31281,7 +31762,6 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
-        <f>'Totaux nationaux bruts'!A61</f>
         <v>43913</v>
       </c>
       <c r="B61" s="52">
@@ -31329,7 +31809,6 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
-        <f>'Totaux nationaux bruts'!A62</f>
         <v>43914</v>
       </c>
       <c r="B62" s="52">
@@ -31377,7 +31856,6 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
-        <f>'Totaux nationaux bruts'!A63</f>
         <v>43915</v>
       </c>
       <c r="B63" s="52">
@@ -31425,7 +31903,6 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
-        <f>'Totaux nationaux bruts'!A64</f>
         <v>43916</v>
       </c>
       <c r="B64" s="52">
@@ -31473,7 +31950,6 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
-        <f>'Totaux nationaux bruts'!A65</f>
         <v>43917</v>
       </c>
       <c r="B65" s="52">
@@ -31521,7 +31997,6 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
-        <f>'Totaux nationaux bruts'!A66</f>
         <v>43918</v>
       </c>
       <c r="B66" s="52">
@@ -31569,7 +32044,6 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
-        <f>'Totaux nationaux bruts'!A67</f>
         <v>43919</v>
       </c>
       <c r="B67" s="52">
@@ -31617,7 +32091,6 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
-        <f>'Totaux nationaux bruts'!A68</f>
         <v>43920</v>
       </c>
       <c r="B68" s="52">
@@ -31665,7 +32138,6 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
-        <f>'Totaux nationaux bruts'!A69</f>
         <v>43921</v>
       </c>
       <c r="B69" s="52">
@@ -31713,7 +32185,6 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
-        <f>'Totaux nationaux bruts'!A70</f>
         <v>43922</v>
       </c>
       <c r="B70" s="52">
@@ -31761,7 +32232,6 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
-        <f>'Totaux nationaux bruts'!A71</f>
         <v>43923</v>
       </c>
       <c r="B71" s="52">
@@ -31809,7 +32279,6 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
-        <f>'Totaux nationaux bruts'!A72</f>
         <v>43924</v>
       </c>
       <c r="B72" s="52">
@@ -31857,7 +32326,6 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
-        <f>'Totaux nationaux bruts'!A73</f>
         <v>43925</v>
       </c>
       <c r="B73" s="52">
@@ -31905,7 +32373,6 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
-        <f>'Totaux nationaux bruts'!A74</f>
         <v>43926</v>
       </c>
       <c r="B74" s="52">
@@ -31953,7 +32420,6 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
-        <f>'Totaux nationaux bruts'!A75</f>
         <v>43927</v>
       </c>
       <c r="B75" s="52">
@@ -32001,7 +32467,6 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
-        <f>'Totaux nationaux bruts'!A76</f>
         <v>43928</v>
       </c>
       <c r="B76" s="52">
@@ -32049,7 +32514,6 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
-        <f>'Totaux nationaux bruts'!A77</f>
         <v>43929</v>
       </c>
       <c r="B77" s="52">
@@ -32097,7 +32561,6 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
-        <f>'Totaux nationaux bruts'!A78</f>
         <v>43930</v>
       </c>
       <c r="B78" s="52">
@@ -32145,7 +32608,6 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
-        <f>'Totaux nationaux bruts'!A79</f>
         <v>43931</v>
       </c>
       <c r="B79" s="52">
@@ -32193,7 +32655,6 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
-        <f>'Totaux nationaux bruts'!A80</f>
         <v>43932</v>
       </c>
       <c r="B80" s="52">
@@ -32241,7 +32702,6 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
-        <f>'Totaux nationaux bruts'!A81</f>
         <v>43933</v>
       </c>
       <c r="B81" s="52">
@@ -32289,7 +32749,6 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
-        <f>'Totaux nationaux bruts'!A82</f>
         <v>43934</v>
       </c>
       <c r="B82" s="52">
@@ -32337,7 +32796,6 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
-        <f>'Totaux nationaux bruts'!A83</f>
         <v>43935</v>
       </c>
       <c r="B83" s="52">
@@ -32385,7 +32843,6 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
-        <f>'Totaux nationaux bruts'!A84</f>
         <v>43936</v>
       </c>
       <c r="B84" s="52">
@@ -32433,7 +32890,6 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
-        <f>'Totaux nationaux bruts'!A85</f>
         <v>43937</v>
       </c>
       <c r="B85" s="52">
@@ -32481,7 +32937,6 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
-        <f>'Totaux nationaux bruts'!A86</f>
         <v>43938</v>
       </c>
       <c r="B86" s="52">
@@ -32529,7 +32984,6 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
-        <f>'Totaux nationaux bruts'!A87</f>
         <v>43939</v>
       </c>
       <c r="B87" s="52">
@@ -32577,7 +33031,6 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
-        <f>'Totaux nationaux bruts'!A88</f>
         <v>43940</v>
       </c>
       <c r="B88" s="52">
@@ -32625,7 +33078,6 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
-        <f>'Totaux nationaux bruts'!A89</f>
         <v>43941</v>
       </c>
       <c r="B89" s="52">
@@ -32673,7 +33125,6 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
-        <f>'Totaux nationaux bruts'!A90</f>
         <v>43942</v>
       </c>
       <c r="B90" s="52">
@@ -32721,7 +33172,6 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
-        <f>'Totaux nationaux bruts'!A91</f>
         <v>43943</v>
       </c>
       <c r="B91" s="52">
@@ -32769,7 +33219,6 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
-        <f>'Totaux nationaux bruts'!A92</f>
         <v>43944</v>
       </c>
       <c r="B92" s="52">
@@ -32817,7 +33266,6 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
-        <f>'Totaux nationaux bruts'!A93</f>
         <v>43945</v>
       </c>
       <c r="B93" s="52">
@@ -32865,7 +33313,6 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
-        <f>'Totaux nationaux bruts'!A94</f>
         <v>43946</v>
       </c>
       <c r="B94" s="52">
@@ -32913,7 +33360,6 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
-        <f>'Totaux nationaux bruts'!A95</f>
         <v>43947</v>
       </c>
       <c r="B95" s="52">
@@ -32961,7 +33407,6 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
-        <f>'Totaux nationaux bruts'!A96</f>
         <v>43948</v>
       </c>
       <c r="B96" s="52">
@@ -33009,7 +33454,6 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
-        <f>'Totaux nationaux bruts'!A97</f>
         <v>43949</v>
       </c>
       <c r="B97" s="52">
@@ -33057,7 +33501,6 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
-        <f>'Totaux nationaux bruts'!A98</f>
         <v>43950</v>
       </c>
       <c r="B98" s="52">
@@ -33105,7 +33548,6 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
-        <f>'Totaux nationaux bruts'!A99</f>
         <v>43951</v>
       </c>
       <c r="B99" s="52">
@@ -33153,7 +33595,6 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
-        <f>'Totaux nationaux bruts'!A100</f>
         <v>43952</v>
       </c>
       <c r="B100" s="52">
@@ -33201,7 +33642,6 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
-        <f>'Totaux nationaux bruts'!A101</f>
         <v>43953</v>
       </c>
       <c r="B101" s="52">
@@ -33249,7 +33689,6 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
-        <f>'Totaux nationaux bruts'!A102</f>
         <v>43954</v>
       </c>
       <c r="B102" s="52">
@@ -33297,7 +33736,6 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
-        <f>'Totaux nationaux bruts'!A103</f>
         <v>43955</v>
       </c>
       <c r="B103" s="52">
@@ -33345,7 +33783,6 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
-        <f>'Totaux nationaux bruts'!A104</f>
         <v>43956</v>
       </c>
       <c r="B104" s="52">
@@ -33393,7 +33830,6 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
-        <f>'Totaux nationaux bruts'!A105</f>
         <v>43957</v>
       </c>
       <c r="B105" s="52">
@@ -33441,7 +33877,6 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
-        <f>'Totaux nationaux bruts'!A106</f>
         <v>43958</v>
       </c>
       <c r="B106" s="52">
@@ -33489,7 +33924,6 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
-        <f>'Totaux nationaux bruts'!A107</f>
         <v>43959</v>
       </c>
       <c r="B107" s="52">
@@ -33537,7 +33971,6 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
-        <f>'Totaux nationaux bruts'!A108</f>
         <v>43960</v>
       </c>
       <c r="B108" s="52">
@@ -33585,7 +34018,6 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
-        <f>'Totaux nationaux bruts'!A109</f>
         <v>43961</v>
       </c>
       <c r="B109" s="52">
@@ -33633,7 +34065,6 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
-        <f>'Totaux nationaux bruts'!A110</f>
         <v>43962</v>
       </c>
       <c r="B110" s="52">
@@ -33681,7 +34112,6 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
-        <f>'Totaux nationaux bruts'!A111</f>
         <v>43963</v>
       </c>
       <c r="B111" s="52">
@@ -33729,7 +34159,6 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
-        <f>'Totaux nationaux bruts'!A112</f>
         <v>43964</v>
       </c>
       <c r="B112" s="52">
@@ -33777,7 +34206,6 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
-        <f>'Totaux nationaux bruts'!A113</f>
         <v>43965</v>
       </c>
       <c r="B113" s="52">
@@ -33825,7 +34253,6 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
-        <f>'Totaux nationaux bruts'!A114</f>
         <v>43966</v>
       </c>
       <c r="B114" s="52">
@@ -33873,7 +34300,6 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
-        <f>'Totaux nationaux bruts'!A115</f>
         <v>43967</v>
       </c>
       <c r="B115" s="52">
@@ -33921,7 +34347,6 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
-        <f>'Totaux nationaux bruts'!A116</f>
         <v>43968</v>
       </c>
       <c r="B116" s="52">
@@ -33969,7 +34394,6 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
-        <f>'Totaux nationaux bruts'!A117</f>
         <v>43969</v>
       </c>
       <c r="B117" s="52">
@@ -34017,7 +34441,6 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
-        <f>'Totaux nationaux bruts'!A118</f>
         <v>43970</v>
       </c>
       <c r="B118" s="52">
@@ -34065,7 +34488,6 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
-        <f>'Totaux nationaux bruts'!A119</f>
         <v>43971</v>
       </c>
       <c r="B119" s="52">
@@ -34107,13 +34529,12 @@
         <v>12</v>
       </c>
       <c r="L119" s="10" t="str">
-        <f t="shared" ref="L119:L130" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119</f>
+        <f t="shared" ref="L119:L160" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119</f>
         <v>20/05/2020,418,-527,791,-100,98,569,221,12</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
-        <f>'Totaux nationaux bruts'!A120</f>
         <v>43972</v>
       </c>
       <c r="B120" s="52">
@@ -34161,7 +34582,6 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
-        <f>'Totaux nationaux bruts'!A121</f>
         <v>43973</v>
       </c>
       <c r="B121" s="52">
@@ -34209,7 +34629,6 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
-        <f>'Totaux nationaux bruts'!A122</f>
         <v>43974</v>
       </c>
       <c r="B122" s="52">
@@ -34257,7 +34676,6 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
-        <f>'Totaux nationaux bruts'!A123</f>
         <v>43975</v>
       </c>
       <c r="B123" s="52">
@@ -34305,7 +34723,6 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
-        <f>'Totaux nationaux bruts'!A124</f>
         <v>43976</v>
       </c>
       <c r="B124" s="52">
@@ -34353,7 +34770,6 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
-        <f>'Totaux nationaux bruts'!A125</f>
         <v>43977</v>
       </c>
       <c r="B125" s="52">
@@ -34401,7 +34817,6 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
-        <f>'Totaux nationaux bruts'!A126</f>
         <v>43978</v>
       </c>
       <c r="B126" s="52">
@@ -34449,7 +34864,6 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
-        <f>'Totaux nationaux bruts'!A127</f>
         <v>43979</v>
       </c>
       <c r="B127" s="52">
@@ -34497,7 +34911,6 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
-        <f>'Totaux nationaux bruts'!A128</f>
         <v>43980</v>
       </c>
       <c r="B128" s="52">
@@ -34545,7 +34958,6 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
-        <f>'Totaux nationaux bruts'!A129</f>
         <v>43981</v>
       </c>
       <c r="B129" s="52">
@@ -34593,7 +35005,6 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
-        <f>'Totaux nationaux bruts'!A130</f>
         <v>43982</v>
       </c>
       <c r="B130" s="52">
@@ -34641,46 +35052,605 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
-        <f>'Totaux nationaux bruts'!A131</f>
         <v>43983</v>
       </c>
-      <c r="B131" s="52" t="str">
+      <c r="B131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B131),"",IF(ISBLANK('Totaux nationaux bruts'!B130),"",'Totaux nationaux bruts'!B131-'Totaux nationaux bruts'!B130))</f>
-        <v/>
-      </c>
-      <c r="C131" s="52" t="str">
+        <v>338</v>
+      </c>
+      <c r="C131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C131),"",IF(ISBLANK('Totaux nationaux bruts'!C130),"",'Totaux nationaux bruts'!C131-'Totaux nationaux bruts'!C130))</f>
-        <v/>
-      </c>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52" t="str">
+        <v>-34</v>
+      </c>
+      <c r="D131" s="52">
+        <v>89</v>
+      </c>
+      <c r="E131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D131),"",IF(ISBLANK('Totaux nationaux bruts'!D130),"",'Totaux nationaux bruts'!D131-'Totaux nationaux bruts'!D130))</f>
-        <v/>
-      </c>
-      <c r="F131" s="52" t="str">
+        <v>85</v>
+      </c>
+      <c r="F131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E131),"",IF(ISBLANK('Totaux nationaux bruts'!E130),"",'Totaux nationaux bruts'!E131-'Totaux nationaux bruts'!E130))</f>
-        <v/>
-      </c>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52" t="str">
+        <v>-17</v>
+      </c>
+      <c r="G131" s="52">
+        <v>9</v>
+      </c>
+      <c r="H131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F131),"",IF(ISBLANK('Totaux nationaux bruts'!F130),"",'Totaux nationaux bruts'!F131-'Totaux nationaux bruts'!F130))</f>
-        <v/>
-      </c>
-      <c r="I131" s="52" t="str">
+        <v>31</v>
+      </c>
+      <c r="I131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G131),"",IF(ISBLANK('Totaux nationaux bruts'!G130),"",'Totaux nationaux bruts'!G131-'Totaux nationaux bruts'!G130))</f>
-        <v/>
-      </c>
-      <c r="J131" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H131),"",IF(ISBLANK('Totaux nationaux bruts'!H130),"",'Totaux nationaux bruts'!H131-'Totaux nationaux bruts'!H130))</f>
-        <v/>
-      </c>
-      <c r="K131" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="K131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!I131),"",IF(ISBLANK('Totaux nationaux bruts'!I130),"",'Totaux nationaux bruts'!I131-'Totaux nationaux bruts'!I130))</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>01/06/2020,338,-34,85,-17,31,0,0,0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="12">
+        <v>43984</v>
+      </c>
+      <c r="B132" s="70"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="70"/>
+      <c r="K132" s="70"/>
+      <c r="L132" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>02/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="12">
+        <v>43985</v>
+      </c>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="70"/>
+      <c r="J133" s="70"/>
+      <c r="K133" s="70"/>
+      <c r="L133" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>03/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="12">
+        <v>43986</v>
+      </c>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>04/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="12">
+        <v>43987</v>
+      </c>
+      <c r="B135" s="70"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="70"/>
+      <c r="L135" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>05/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="12">
+        <v>43988</v>
+      </c>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="70"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="70"/>
+      <c r="J136" s="70"/>
+      <c r="K136" s="70"/>
+      <c r="L136" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>06/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="12">
+        <v>43989</v>
+      </c>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
+      <c r="H137" s="70"/>
+      <c r="I137" s="70"/>
+      <c r="J137" s="70"/>
+      <c r="K137" s="70"/>
+      <c r="L137" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>07/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="12">
+        <v>43990</v>
+      </c>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="70"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="70"/>
+      <c r="J138" s="70"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>08/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
+        <v>43991</v>
+      </c>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
+      <c r="H139" s="70"/>
+      <c r="I139" s="70"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="70"/>
+      <c r="L139" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>09/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="12">
+        <v>43992</v>
+      </c>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="70"/>
+      <c r="G140" s="70"/>
+      <c r="H140" s="70"/>
+      <c r="I140" s="70"/>
+      <c r="J140" s="70"/>
+      <c r="K140" s="70"/>
+      <c r="L140" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>10/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="12">
+        <v>43993</v>
+      </c>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="70"/>
+      <c r="L141" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>11/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="12">
+        <v>43994</v>
+      </c>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="70"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="70"/>
+      <c r="I142" s="70"/>
+      <c r="J142" s="70"/>
+      <c r="K142" s="70"/>
+      <c r="L142" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>12/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
+        <v>43995</v>
+      </c>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="70"/>
+      <c r="I143" s="70"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="70"/>
+      <c r="L143" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>13/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
+        <v>43996</v>
+      </c>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>14/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
+        <v>43997</v>
+      </c>
+      <c r="B145" s="70"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="70"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="70"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="70"/>
+      <c r="L145" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>15/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="12">
+        <v>43998</v>
+      </c>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="70"/>
+      <c r="F146" s="70"/>
+      <c r="G146" s="70"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="70"/>
+      <c r="J146" s="70"/>
+      <c r="K146" s="70"/>
+      <c r="L146" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>16/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="12">
+        <v>43999</v>
+      </c>
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>17/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="12">
+        <v>44000</v>
+      </c>
+      <c r="B148" s="70"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="70"/>
+      <c r="J148" s="70"/>
+      <c r="K148" s="70"/>
+      <c r="L148" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>18/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
+        <v>44001</v>
+      </c>
+      <c r="B149" s="70"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="70"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="70"/>
+      <c r="J149" s="70"/>
+      <c r="K149" s="70"/>
+      <c r="L149" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>19/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="12">
+        <v>44002</v>
+      </c>
+      <c r="B150" s="70"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="70"/>
+      <c r="F150" s="70"/>
+      <c r="G150" s="70"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="70"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>20/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="12">
+        <v>44003</v>
+      </c>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="70"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="70"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="70"/>
+      <c r="L151" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>21/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="12">
+        <v>44004</v>
+      </c>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="70"/>
+      <c r="F152" s="70"/>
+      <c r="G152" s="70"/>
+      <c r="H152" s="70"/>
+      <c r="I152" s="70"/>
+      <c r="J152" s="70"/>
+      <c r="K152" s="70"/>
+      <c r="L152" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>22/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="12">
+        <v>44005</v>
+      </c>
+      <c r="B153" s="70"/>
+      <c r="C153" s="70"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="70"/>
+      <c r="F153" s="70"/>
+      <c r="G153" s="70"/>
+      <c r="H153" s="70"/>
+      <c r="I153" s="70"/>
+      <c r="J153" s="70"/>
+      <c r="K153" s="70"/>
+      <c r="L153" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>23/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>44006</v>
+      </c>
+      <c r="B154" s="70"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
+      <c r="F154" s="70"/>
+      <c r="G154" s="70"/>
+      <c r="H154" s="70"/>
+      <c r="I154" s="70"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>24/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="12">
+        <v>44007</v>
+      </c>
+      <c r="B155" s="70"/>
+      <c r="C155" s="70"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="70"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>25/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="12">
+        <v>44008</v>
+      </c>
+      <c r="B156" s="70"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="70"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>26/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="12">
+        <v>44009</v>
+      </c>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>27/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="12">
+        <v>44010</v>
+      </c>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
+      <c r="F158" s="70"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="70"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>28/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="12">
+        <v>44011</v>
+      </c>
+      <c r="B159" s="70"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="70"/>
+      <c r="G159" s="70"/>
+      <c r="H159" s="70"/>
+      <c r="I159" s="70"/>
+      <c r="J159" s="70"/>
+      <c r="K159" s="70"/>
+      <c r="L159" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>29/06/2020,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="12">
+        <v>44012</v>
+      </c>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="70"/>
+      <c r="J160" s="70"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>30/06/2020,,,,,,,,</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34688,7 +35658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17959C1D-1F94-4165-A6C9-DE5B219ED963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B5EE7-2586-4BD5-8ED3-E923C7D823BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" activeTab="2" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>Cas confirmés</t>
-  </si>
-  <si>
-    <t>Cas totaux EHPAD et EMS</t>
   </si>
   <si>
     <t>Cas confirmés EHPAD et EMS</t>
@@ -917,7 +914,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1015,7 +1012,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,7 +1022,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -25124,11 +25119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I133" sqref="I1:I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25139,14 +25134,13 @@
     <col min="4" max="4" width="9.296875" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.8984375" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="11.19921875" style="10"/>
+    <col min="7" max="7" width="9.09765625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.8984375" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="54" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
@@ -25154,32 +25148,29 @@
         <v>108</v>
       </c>
       <c r="C1" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>112</v>
-      </c>
       <c r="F1" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="66" t="str">
-        <f t="shared" ref="J1:J64" si="0">TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1</f>
-        <v>Date,Cas confirmés,Hospitalisations,Guérisons,En réanimation,Décès en hopital,Cas totaux EHPAD et EMS,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="I1" s="65" t="str">
+        <f>TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1</f>
+        <v>Date,Cas confirmés,Hospitalisations,Guérisons,En réanimation,Décès en hopital,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43854</v>
       </c>
@@ -25192,13 +25183,12 @@
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="66" t="str">
-        <f t="shared" si="0"/>
-        <v>24/01/2020,3,,,,,,,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="65" t="str">
+        <f t="shared" ref="I2:I65" si="0">TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</f>
+        <v>24/01/2020,3,,,,,,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43855</v>
       </c>
@@ -25209,13 +25199,12 @@
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="66" t="str">
+      <c r="I3" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>25/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25/01/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43856</v>
       </c>
@@ -25226,13 +25215,12 @@
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="66" t="str">
+      <c r="I4" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>26/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26/01/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43857</v>
       </c>
@@ -25243,13 +25231,12 @@
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="66" t="str">
+      <c r="I5" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>27/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27/01/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43858</v>
       </c>
@@ -25264,13 +25251,12 @@
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="66" t="str">
+      <c r="I6" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>28/01/2020,4,,,1,,,,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28/01/2020,4,,,1,,,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43859</v>
       </c>
@@ -25285,13 +25271,12 @@
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="66" t="str">
+      <c r="I7" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>29/01/2020,5,,,2,,,,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29/01/2020,5,,,2,,,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43860</v>
       </c>
@@ -25304,13 +25289,12 @@
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="66" t="str">
+      <c r="I8" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>30/01/2020,6,,,,,,,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30/01/2020,6,,,,,,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43861</v>
       </c>
@@ -25321,13 +25305,12 @@
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="66" t="str">
+      <c r="I9" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>31/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31/01/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43862</v>
       </c>
@@ -25338,13 +25321,12 @@
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="66" t="str">
+      <c r="I10" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>01/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>01/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43863</v>
       </c>
@@ -25357,13 +25339,12 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="66" t="str">
+      <c r="I11" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>02/02/2020,,,,1,,,,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>02/02/2020,,,,1,,,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43864</v>
       </c>
@@ -25374,13 +25355,12 @@
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="66" t="str">
+      <c r="I12" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>03/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>03/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43865</v>
       </c>
@@ -25391,13 +25371,12 @@
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="66" t="str">
+      <c r="I13" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>04/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>04/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43866</v>
       </c>
@@ -25408,13 +25387,12 @@
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="66" t="str">
+      <c r="I14" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>05/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>05/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43867</v>
       </c>
@@ -25425,13 +25403,12 @@
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="66" t="str">
+      <c r="I15" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>06/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>06/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43868</v>
       </c>
@@ -25444,13 +25421,12 @@
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="66" t="str">
+      <c r="I16" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>07/02/2020,11,,,,,,,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>07/02/2020,11,,,,,,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43869</v>
       </c>
@@ -25461,13 +25437,12 @@
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="66" t="str">
+      <c r="I17" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>08/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>08/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43870</v>
       </c>
@@ -25478,13 +25453,12 @@
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="66" t="str">
+      <c r="I18" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>09/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>09/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43871</v>
       </c>
@@ -25495,13 +25469,12 @@
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="66" t="str">
+      <c r="I19" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>10/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43872</v>
       </c>
@@ -25512,13 +25485,12 @@
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="66" t="str">
+      <c r="I20" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>11/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11/02/2020,,,,,,,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43873</v>
       </c>
@@ -25531,13 +25503,12 @@
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="66" t="str">
+      <c r="I21" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>12/02/2020,,,2,,,,,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12/02/2020,,,2,,,,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43874</v>
       </c>
@@ -25550,13 +25521,12 @@
       <c r="F22" s="58"/>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="66" t="str">
+      <c r="I22" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>13/02/2020,,,3,,,,,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13/02/2020,,,3,,,,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43875</v>
       </c>
@@ -25571,13 +25541,12 @@
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="66" t="str">
+      <c r="I23" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>14/02/2020,,,,1,1,,,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14/02/2020,,,,1,1,,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43876</v>
       </c>
@@ -25596,13 +25565,12 @@
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="66" t="str">
+      <c r="I24" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>15/02/2020,12,7,4,,1,,,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15/02/2020,12,7,4,,1,,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43877</v>
       </c>
@@ -25615,13 +25583,12 @@
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="66" t="str">
+      <c r="I25" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>16/02/2020,,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16/02/2020,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43878</v>
       </c>
@@ -25634,13 +25601,12 @@
       </c>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="66" t="str">
+      <c r="I26" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>17/02/2020,,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17/02/2020,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43879</v>
       </c>
@@ -25653,13 +25619,12 @@
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="66" t="str">
+      <c r="I27" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>18/02/2020,,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18/02/2020,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43880</v>
       </c>
@@ -25676,13 +25641,12 @@
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="66" t="str">
+      <c r="I28" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>19/02/2020,,4,7,,1,,,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19/02/2020,,4,7,,1,,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43881</v>
       </c>
@@ -25697,13 +25661,12 @@
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="66" t="str">
+      <c r="I29" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>20/02/2020,,11,,,1,,,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20/02/2020,,11,,,1,,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43882</v>
       </c>
@@ -25720,13 +25683,12 @@
       </c>
       <c r="G30" s="58"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="66" t="str">
+      <c r="I30" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>21/02/2020,,1,10,,1,,,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21/02/2020,,1,10,,1,,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43883</v>
       </c>
@@ -25739,13 +25701,12 @@
       </c>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="66" t="str">
+      <c r="I31" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>22/02/2020,,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22/02/2020,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43884</v>
       </c>
@@ -25760,13 +25721,12 @@
       </c>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="66" t="str">
+      <c r="I32" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>23/02/2020,,1,,,1,,,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23/02/2020,,1,,,1,,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43885</v>
       </c>
@@ -25779,13 +25739,12 @@
       </c>
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="66" t="str">
+      <c r="I33" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>24/02/2020,,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24/02/2020,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43886</v>
       </c>
@@ -25804,13 +25763,12 @@
       </c>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="66" t="str">
+      <c r="I34" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>25/02/2020,14,2,,2,1,,,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25/02/2020,14,2,,2,1,,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43887</v>
       </c>
@@ -25829,13 +25787,12 @@
       </c>
       <c r="G35" s="58"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="66" t="str">
+      <c r="I35" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>26/02/2020,18,4,12,,2,,,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26/02/2020,18,4,12,,2,,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>43888</v>
       </c>
@@ -25852,13 +25809,12 @@
       </c>
       <c r="G36" s="58"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="66" t="str">
+      <c r="I36" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>27/02/2020,38,24,,,2,,,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27/02/2020,38,24,,,2,,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>43889</v>
       </c>
@@ -25873,13 +25829,12 @@
       </c>
       <c r="G37" s="58"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="66" t="str">
+      <c r="I37" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>28/02/2020,57,,,,2,,,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28/02/2020,57,,,,2,,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>43890</v>
       </c>
@@ -25898,13 +25853,12 @@
       </c>
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="66" t="str">
+      <c r="I38" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>29/02/2020,100,86,,9,2,,,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29/02/2020,100,86,,9,2,,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>43891</v>
       </c>
@@ -25921,13 +25875,12 @@
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="66" t="str">
+      <c r="I39" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>01/03/2020,130,116,,,2,,,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>01/03/2020,130,116,,,2,,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>43892</v>
       </c>
@@ -25942,13 +25895,12 @@
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="66" t="str">
+      <c r="I40" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>02/03/2020,191,,,,3,,,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>02/03/2020,191,,,,3,,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>43893</v>
       </c>
@@ -25965,13 +25917,12 @@
       </c>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="66" t="str">
+      <c r="I41" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>03/03/2020,212,,12,,4,,,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>03/03/2020,212,,12,,4,,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>43894</v>
       </c>
@@ -25988,13 +25939,12 @@
       </c>
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="66" t="str">
+      <c r="I42" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>04/03/2020,285,,,15,4,,,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>04/03/2020,285,,,15,4,,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>43895</v>
       </c>
@@ -26011,13 +25961,12 @@
       </c>
       <c r="G43" s="58"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="66" t="str">
+      <c r="I43" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>05/03/2020,423,,,23,7,,,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>05/03/2020,423,,,23,7,,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>43896</v>
       </c>
@@ -26034,13 +25983,12 @@
       </c>
       <c r="G44" s="58"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="66" t="str">
+      <c r="I44" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>06/03/2020,613,,,39,9,,,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>06/03/2020,613,,,39,9,,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>43897</v>
       </c>
@@ -26057,13 +26005,12 @@
       </c>
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="66" t="str">
+      <c r="I45" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>07/03/2020,949,,,45,16,,,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>07/03/2020,949,,,45,16,,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>43898</v>
       </c>
@@ -26078,13 +26025,12 @@
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="66" t="str">
+      <c r="I46" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>08/03/2020,1126,,,,19,,,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>08/03/2020,1126,,,,19,,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>43899</v>
       </c>
@@ -26101,13 +26047,12 @@
       </c>
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="66" t="str">
+      <c r="I47" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>09/03/2020,1412,,,66,25,,,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>09/03/2020,1412,,,66,25,,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>43900</v>
       </c>
@@ -26124,13 +26069,12 @@
       </c>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="66" t="str">
+      <c r="I48" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>10/03/2020,1784,,,86,33,,,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10/03/2020,1784,,,86,33,,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>43901</v>
       </c>
@@ -26147,13 +26091,12 @@
       </c>
       <c r="G49" s="58"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="66" t="str">
+      <c r="I49" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>11/03/2020,2281,,,105,48,,,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11/03/2020,2281,,,105,48,,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>43902</v>
       </c>
@@ -26170,13 +26113,12 @@
       </c>
       <c r="G50" s="58"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="66" t="str">
+      <c r="I50" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>12/03/2020,2876,,,129,61,,,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12/03/2020,2876,,,129,61,,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>43903</v>
       </c>
@@ -26193,13 +26135,12 @@
       </c>
       <c r="G51" s="58"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="66" t="str">
+      <c r="I51" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>13/03/2020,3661,,,154,79,,,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13/03/2020,3661,,,154,79,,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>43904</v>
       </c>
@@ -26216,13 +26157,12 @@
       </c>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="66" t="str">
+      <c r="I52" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>14/03/2020,4500,,,300,91,,,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14/03/2020,4500,,,300,91,,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>43905</v>
       </c>
@@ -26239,13 +26179,12 @@
       </c>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="66" t="str">
+      <c r="I53" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>15/03/2020,6378,285,,,161,,,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15/03/2020,6378,285,,,161,,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>43906</v>
       </c>
@@ -26260,13 +26199,12 @@
       </c>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="66" t="str">
+      <c r="I54" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>16/03/2020,6633,,,,148,,,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16/03/2020,6633,,,,148,,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>43907</v>
       </c>
@@ -26287,13 +26225,12 @@
       </c>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="66" t="str">
+      <c r="I55" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>17/03/2020,7730,2579,602,699,175,,,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17/03/2020,7730,2579,602,699,175,,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>43908</v>
       </c>
@@ -26314,13 +26251,12 @@
       </c>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="66" t="str">
+      <c r="I56" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>18/03/2020,9134,3626,1000,931,264,,,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18/03/2020,9134,3626,1000,931,264,,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>43909</v>
       </c>
@@ -26341,13 +26277,12 @@
       </c>
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="66" t="str">
+      <c r="I57" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>19/03/2020,10995,4461,1300,1122,372,,,</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19/03/2020,10995,4461,1300,1122,372,,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>43910</v>
       </c>
@@ -26368,13 +26303,12 @@
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="66" t="str">
+      <c r="I58" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>20/03/2020,12612,5226,1587,1297,450,,,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20/03/2020,12612,5226,1587,1297,450,,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>43911</v>
       </c>
@@ -26395,13 +26329,12 @@
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="66" t="str">
+      <c r="I59" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>21/03/2020,14459,6172,1811,1525,562,,,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21/03/2020,14459,6172,1811,1525,562,,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>43912</v>
       </c>
@@ -26422,13 +26355,12 @@
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="66" t="str">
+      <c r="I60" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>22/03/2020,16689,7240,2200,1746,674,,,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22/03/2020,16689,7240,2200,1746,674,,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>43913</v>
       </c>
@@ -26449,13 +26381,12 @@
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="66" t="str">
+      <c r="I61" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>23/03/2020,19856,8675,2567,2082,860,,,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23/03/2020,19856,8675,2567,2082,860,,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>43914</v>
       </c>
@@ -26476,13 +26407,12 @@
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="66" t="str">
+      <c r="I62" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>24/03/2020,22302,10176,3281,2516,1100,,,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24/03/2020,22302,10176,3281,2516,1100,,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>43915</v>
       </c>
@@ -26503,13 +26433,12 @@
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="66" t="str">
+      <c r="I63" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>25/03/2020,25233,11539,3900,2827,1331,,,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25/03/2020,25233,11539,3900,2827,1331,,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>43916</v>
       </c>
@@ -26530,13 +26459,12 @@
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="66" t="str">
+      <c r="I64" s="65" t="str">
         <f t="shared" si="0"/>
-        <v>26/03/2020,29155,13904,4948,3375,1696,,,</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26/03/2020,29155,13904,4948,3375,1696,,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>43917</v>
       </c>
@@ -26557,13 +26485,12 @@
       </c>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="66" t="str">
-        <f t="shared" ref="J65:J115" si="1">TEXT(A65,"jj/mm/aaaa")&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65&amp;","&amp;I65</f>
-        <v>27/03/2020,32964,15732,5698,3787,1995,,,</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>27/03/2020,32964,15732,5698,3787,1995,,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>43918</v>
       </c>
@@ -26584,13 +26511,12 @@
       </c>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="66" t="str">
-        <f t="shared" si="1"/>
-        <v>28/03/2020,37575,17620,6624,4273,2314,,,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I66" s="65" t="str">
+        <f t="shared" ref="I66:I129" si="1">TEXT(A66,"jj/mm/aaaa")&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66&amp;","&amp;F66&amp;","&amp;G66&amp;","&amp;H66</f>
+        <v>28/03/2020,37575,17620,6624,4273,2314,,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>43919</v>
       </c>
@@ -26611,13 +26537,12 @@
       </c>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="66" t="str">
+      <c r="I67" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>29/03/2020,40174,19354,7131,4632,2606,,,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29/03/2020,40174,19354,7131,4632,2606,,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>43920</v>
       </c>
@@ -26638,13 +26563,12 @@
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="66" t="str">
+      <c r="I68" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>30/03/2020,44550,21008,7924,5107,3024,,,</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30/03/2020,44550,21008,7924,5107,3024,,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>43921</v>
       </c>
@@ -26665,13 +26589,12 @@
       </c>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="66" t="str">
+      <c r="I69" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>31/03/2020,52128,22757,9444,5565,3523,,,</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31/03/2020,52128,22757,9444,5565,3523,,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>43922</v>
       </c>
@@ -26691,16 +26614,15 @@
         <v>4032</v>
       </c>
       <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="57">
+      <c r="H70" s="57">
         <v>371</v>
       </c>
-      <c r="J70" s="66" t="str">
+      <c r="I70" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>01/04/2020,56989,24639,10935,6017,4032,,,371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>01/04/2020,56989,24639,10935,6017,4032,,371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>43923</v>
       </c>
@@ -26720,16 +26642,15 @@
         <v>4503</v>
       </c>
       <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="57">
+      <c r="H71" s="57">
         <v>884</v>
       </c>
-      <c r="J71" s="66" t="str">
+      <c r="I71" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>02/04/2020,59105,26246,12428,6399,4503,,,884</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>02/04/2020,59105,26246,12428,6399,4503,,884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>43924</v>
       </c>
@@ -26749,16 +26670,15 @@
         <v>5091</v>
       </c>
       <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="57">
+      <c r="H72" s="57">
         <v>1416</v>
       </c>
-      <c r="J72" s="66" t="str">
+      <c r="I72" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>03/04/2020,64338,27432,14008,6662,5091,,,1416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>03/04/2020,64338,27432,14008,6662,5091,,1416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>43925</v>
       </c>
@@ -26778,16 +26698,15 @@
         <v>5532</v>
       </c>
       <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="57">
+      <c r="H73" s="57">
         <v>2028</v>
       </c>
-      <c r="J73" s="66" t="str">
+      <c r="I73" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>04/04/2020,68605,28143,15438,6838,5532,,,2028</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>04/04/2020,68605,28143,15438,6838,5532,,2028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>43926</v>
       </c>
@@ -26807,16 +26726,15 @@
         <v>5889</v>
       </c>
       <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="57">
+      <c r="H74" s="57">
         <v>2189</v>
       </c>
-      <c r="J74" s="66" t="str">
+      <c r="I74" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>05/04/2020,70478,28891,16183,6978,5889,,,2189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>05/04/2020,70478,28891,16183,6978,5889,,2189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>43927</v>
       </c>
@@ -26836,16 +26754,15 @@
         <v>6494</v>
       </c>
       <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="57">
+      <c r="H75" s="57">
         <v>2417</v>
       </c>
-      <c r="J75" s="66" t="str">
+      <c r="I75" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>06/04/2020,74390,29722,17250,7072,6494,,,2417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>06/04/2020,74390,29722,17250,7072,6494,,2417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>43928</v>
       </c>
@@ -26865,16 +26782,15 @@
         <v>7091</v>
       </c>
       <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="57">
+      <c r="H76" s="57">
         <v>3237</v>
       </c>
-      <c r="J76" s="66" t="str">
+      <c r="I76" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>07/04/2020,78167,30027,19337,7131,7091,,,3237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>07/04/2020,78167,30027,19337,7131,7091,,3237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>43929</v>
       </c>
@@ -26894,16 +26810,15 @@
         <v>7632</v>
       </c>
       <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="57">
+      <c r="H77" s="57">
         <v>3237</v>
       </c>
-      <c r="J77" s="66" t="str">
+      <c r="I77" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>08/04/2020,82048,30375,21254,7148,7632,,,3237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>08/04/2020,82048,30375,21254,7148,7632,,3237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>43930</v>
       </c>
@@ -26923,16 +26838,15 @@
         <v>8044</v>
       </c>
       <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="57">
+      <c r="H78" s="57">
         <v>4166</v>
       </c>
-      <c r="J78" s="66" t="str">
+      <c r="I78" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>09/04/2020,86334,30767,23206,7066,8044,,,4166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>09/04/2020,86334,30767,23206,7066,8044,,4166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>43931</v>
       </c>
@@ -26952,16 +26866,15 @@
         <v>8598</v>
       </c>
       <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="57">
+      <c r="H79" s="57">
         <v>4599</v>
       </c>
-      <c r="J79" s="66" t="str">
+      <c r="I79" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>10/04/2020,90676,31267,24932,7004,8598,,,4599</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10/04/2020,90676,31267,24932,7004,8598,,4599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>43932</v>
       </c>
@@ -26981,16 +26894,15 @@
         <v>8943</v>
       </c>
       <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="57">
+      <c r="H80" s="57">
         <v>4889</v>
       </c>
-      <c r="J80" s="66" t="str">
+      <c r="I80" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>11/04/2020,93790,31320,26931,6883,8943,,,4889</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11/04/2020,93790,31320,26931,6883,8943,,4889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>43933</v>
       </c>
@@ -27010,20 +26922,17 @@
         <v>9253</v>
       </c>
       <c r="G81" s="57">
-        <v>37188</v>
+        <v>11958</v>
       </c>
       <c r="H81" s="57">
-        <v>11958</v>
-      </c>
-      <c r="I81" s="57">
         <v>5140</v>
       </c>
-      <c r="J81" s="66" t="str">
+      <c r="I81" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>12/04/2020,95403,31826,27186,6845,9253,37188,11958,5140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12/04/2020,95403,31826,27186,6845,9253,11958,5140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>43934</v>
       </c>
@@ -27043,20 +26952,17 @@
         <v>9588</v>
       </c>
       <c r="G82" s="57">
-        <v>38703</v>
+        <v>12481</v>
       </c>
       <c r="H82" s="57">
-        <v>12481</v>
-      </c>
-      <c r="I82" s="57">
         <v>5379</v>
       </c>
-      <c r="J82" s="66" t="str">
+      <c r="I82" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>13/04/2020,98076,32113,27718,6821,9588,38703,12481,5379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13/04/2020,98076,32113,27718,6821,9588,12481,5379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>43935</v>
       </c>
@@ -27076,20 +26982,17 @@
         <v>10129</v>
       </c>
       <c r="G83" s="57">
-        <v>39730</v>
+        <v>13050</v>
       </c>
       <c r="H83" s="57">
-        <v>13050</v>
-      </c>
-      <c r="I83" s="57">
         <v>5600</v>
       </c>
-      <c r="J83" s="66" t="str">
+      <c r="I83" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>14/04/2020,103573,32292,28805,6730,10129,39730,13050,5600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14/04/2020,103573,32292,28805,6730,10129,13050,5600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>43936</v>
       </c>
@@ -27109,20 +27012,17 @@
         <v>10643</v>
       </c>
       <c r="G84" s="57">
-        <v>41657</v>
+        <v>14393</v>
       </c>
       <c r="H84" s="57">
-        <v>14393</v>
-      </c>
-      <c r="I84" s="57">
         <v>6524</v>
       </c>
-      <c r="J84" s="66" t="str">
+      <c r="I84" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>15/04/2020,106206,31779,30995,6457,10643,41657,14393,6524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15/04/2020,106206,31779,30995,6457,10643,14393,6524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>43937</v>
       </c>
@@ -27142,20 +27042,17 @@
         <v>11060</v>
       </c>
       <c r="G85" s="57">
-        <v>56180</v>
+        <v>18967</v>
       </c>
       <c r="H85" s="57">
-        <v>18967</v>
-      </c>
-      <c r="I85" s="57">
         <v>6860</v>
       </c>
-      <c r="J85" s="66" t="str">
+      <c r="I85" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>16/04/2020,108847,31305,32812,6248,11060,56180,18967,6860</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16/04/2020,108847,31305,32812,6248,11060,18967,6860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>43938</v>
       </c>
@@ -27175,20 +27072,17 @@
         <v>11478</v>
       </c>
       <c r="G86" s="57">
-        <v>58989</v>
+        <v>20272</v>
       </c>
       <c r="H86" s="57">
-        <v>20272</v>
-      </c>
-      <c r="I86" s="57">
         <v>7203</v>
       </c>
-      <c r="J86" s="66" t="str">
+      <c r="I86" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>17/04/2020,109252,31190,34420,6027,11478,58989,20272,7203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17/04/2020,109252,31190,34420,6027,11478,20272,7203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>43939</v>
       </c>
@@ -27208,20 +27102,17 @@
         <v>11842</v>
       </c>
       <c r="G87" s="57">
-        <v>62135</v>
+        <v>22163</v>
       </c>
       <c r="H87" s="57">
-        <v>22163</v>
-      </c>
-      <c r="I87" s="57">
         <v>7481</v>
       </c>
-      <c r="J87" s="66" t="str">
+      <c r="I87" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>18/04/2020,111821,30639,35983,5833,11842,62135,22163,7481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18/04/2020,111821,30639,35983,5833,11842,22163,7481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>43940</v>
       </c>
@@ -27241,20 +27132,17 @@
         <v>12069</v>
       </c>
       <c r="G88" s="57">
-        <v>63336</v>
+        <v>23048</v>
       </c>
       <c r="H88" s="57">
-        <v>23048</v>
-      </c>
-      <c r="I88" s="57">
         <v>7649</v>
       </c>
-      <c r="J88" s="66" t="str">
+      <c r="I88" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>19/04/2020,112606,30610,36578,5744,12069,63336,23048,7649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19/04/2020,112606,30610,36578,5744,12069,23048,7649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>43941</v>
       </c>
@@ -27274,20 +27162,17 @@
         <v>12513</v>
       </c>
       <c r="G89" s="57">
-        <v>64117</v>
+        <v>23668</v>
       </c>
       <c r="H89" s="57">
-        <v>23668</v>
-      </c>
-      <c r="I89" s="57">
         <v>7752</v>
       </c>
-      <c r="J89" s="66" t="str">
+      <c r="I89" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>20/04/2020,114657,30584,37409,5683,12513,64117,23668,7752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20/04/2020,114657,30584,37409,5683,12513,23668,7752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>43942</v>
       </c>
@@ -27306,17 +27191,16 @@
       <c r="F90" s="57">
         <v>12900</v>
       </c>
-      <c r="G90" s="65"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="57">
+      <c r="G90" s="58"/>
+      <c r="H90" s="57">
         <v>7896</v>
       </c>
-      <c r="J90" s="66" t="str">
+      <c r="I90" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>21/04/2020,117324,30106,39181,5433,12900,,,7896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21/04/2020,117324,30106,39181,5433,12900,,7896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>43943</v>
       </c>
@@ -27335,19 +27219,18 @@
       <c r="F91" s="57">
         <v>13236</v>
       </c>
-      <c r="G91" s="58"/>
+      <c r="G91" s="57">
+        <v>25513</v>
+      </c>
       <c r="H91" s="57">
-        <v>25513</v>
-      </c>
-      <c r="I91" s="57">
         <v>8104</v>
       </c>
-      <c r="J91" s="66" t="str">
+      <c r="I91" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>22/04/2020,119151,29741,40657,5218,13236,,25513,8104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22/04/2020,119151,29741,40657,5218,13236,25513,8104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>43944</v>
       </c>
@@ -27367,20 +27250,17 @@
         <v>13547</v>
       </c>
       <c r="G92" s="57">
-        <v>64219</v>
+        <v>26840</v>
       </c>
       <c r="H92" s="57">
-        <v>26840</v>
-      </c>
-      <c r="I92" s="57">
         <v>8309</v>
       </c>
-      <c r="J92" s="66" t="str">
+      <c r="I92" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>23/04/2020,120804,29219,42088,5053,13547,64219,26840,8309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23/04/2020,120804,29219,42088,5053,13547,26840,8309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>43945</v>
       </c>
@@ -27400,20 +27280,17 @@
         <v>13852</v>
       </c>
       <c r="G93" s="57">
-        <v>65131</v>
+        <v>27880</v>
       </c>
       <c r="H93" s="57">
-        <v>27880</v>
-      </c>
-      <c r="I93" s="57">
         <v>8393</v>
       </c>
-      <c r="J93" s="66" t="str">
+      <c r="I93" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>24/04/2020,122577,28658,43493,4870,13852,65131,27880,8393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24/04/2020,122577,28658,43493,4870,13852,27880,8393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>43946</v>
       </c>
@@ -27433,20 +27310,17 @@
         <v>14050</v>
       </c>
       <c r="G94" s="57">
-        <v>66500</v>
+        <v>29126</v>
       </c>
       <c r="H94" s="57">
-        <v>29126</v>
-      </c>
-      <c r="I94" s="57">
         <v>8564</v>
       </c>
-      <c r="J94" s="66" t="str">
+      <c r="I94" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>25/04/2020,124114,28222,44594,4725,14050,66500,29126,8564</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25/04/2020,124114,28222,44594,4725,14050,29126,8564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>43947</v>
       </c>
@@ -27466,20 +27340,17 @@
         <v>14202</v>
       </c>
       <c r="G95" s="57">
-        <v>67168</v>
+        <v>29643</v>
       </c>
       <c r="H95" s="57">
-        <v>29643</v>
-      </c>
-      <c r="I95" s="57">
         <v>8654</v>
       </c>
-      <c r="J95" s="66" t="str">
+      <c r="I95" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>26/04/2020,124575,28217,44903,4682,14202,67168,29643,8654</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26/04/2020,124575,28217,44903,4682,14202,29643,8654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>43948</v>
       </c>
@@ -27499,20 +27370,17 @@
         <v>14497</v>
       </c>
       <c r="G96" s="57">
-        <v>67730</v>
+        <v>30227</v>
       </c>
       <c r="H96" s="57">
-        <v>30227</v>
-      </c>
-      <c r="I96" s="57">
         <v>8796</v>
       </c>
-      <c r="J96" s="66" t="str">
+      <c r="I96" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>27/04/2020,128339,28055,45513,4608,14497,67730,30227,8796</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27/04/2020,128339,28055,45513,4608,14497,30227,8796</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>43949</v>
       </c>
@@ -27532,20 +27400,17 @@
         <v>14810</v>
       </c>
       <c r="G97" s="57">
-        <v>69893</v>
+        <v>30817</v>
       </c>
       <c r="H97" s="57">
-        <v>30817</v>
-      </c>
-      <c r="I97" s="57">
         <v>8850</v>
       </c>
-      <c r="J97" s="66" t="str">
+      <c r="I97" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>28/04/2020,129859,27484,46886,4387,14810,69893,30817,8850</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28/04/2020,129859,27484,46886,4387,14810,30817,8850</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>43950</v>
       </c>
@@ -27565,20 +27430,17 @@
         <v>15053</v>
       </c>
       <c r="G98" s="57">
-        <v>69773</v>
+        <v>31795</v>
       </c>
       <c r="H98" s="57">
-        <v>31795</v>
-      </c>
-      <c r="I98" s="57">
         <v>9034</v>
       </c>
-      <c r="J98" s="66" t="str">
+      <c r="I98" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>29/04/2020,128442,26834,48228,4207,15053,69773,31795,9034</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29/04/2020,128442,26834,48228,4207,15053,31795,9034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>43951</v>
       </c>
@@ -27598,20 +27460,17 @@
         <v>15244</v>
       </c>
       <c r="G99" s="57">
-        <v>69952</v>
+        <v>32355</v>
       </c>
       <c r="H99" s="57">
-        <v>32355</v>
-      </c>
-      <c r="I99" s="57">
         <v>9132</v>
       </c>
-      <c r="J99" s="66" t="str">
+      <c r="I99" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>30/04/2020,129581,26283,49476,4019,15244,69952,32355,9132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30/04/2020,129581,26283,49476,4019,15244,32355,9132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>43952</v>
       </c>
@@ -27631,20 +27490,17 @@
         <v>15369</v>
       </c>
       <c r="G100" s="57">
-        <v>69952</v>
+        <v>32791</v>
       </c>
       <c r="H100" s="57">
-        <v>32791</v>
-      </c>
-      <c r="I100" s="57">
         <v>9225</v>
       </c>
-      <c r="J100" s="66" t="str">
+      <c r="I100" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>01/05/2020,130185,25887,50212,3878,15369,69952,32791,9225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>01/05/2020,130185,25887,50212,3878,15369,32791,9225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>43953</v>
       </c>
@@ -27664,20 +27520,17 @@
         <v>15487</v>
       </c>
       <c r="G101" s="57">
-        <v>70688</v>
+        <v>33271</v>
       </c>
       <c r="H101" s="57">
-        <v>33271</v>
-      </c>
-      <c r="I101" s="57">
         <v>9273</v>
       </c>
-      <c r="J101" s="66" t="str">
+      <c r="I101" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>02/05/2020,130979,25827,50562,3827,15487,70688,33271,9273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>02/05/2020,130979,25827,50562,3827,15487,33271,9273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>43954</v>
       </c>
@@ -27697,20 +27550,17 @@
         <v>15583</v>
       </c>
       <c r="G102" s="57">
-        <v>70767</v>
+        <v>33361</v>
       </c>
       <c r="H102" s="57">
-        <v>33361</v>
-      </c>
-      <c r="I102" s="57">
         <v>9312</v>
       </c>
-      <c r="J102" s="66" t="str">
+      <c r="I102" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>03/05/2020,131287,25815,50784,3819,15583,70767,33361,9312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+        <v>03/05/2020,131287,25815,50784,3819,15583,33361,9312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>43955</v>
       </c>
@@ -27730,20 +27580,17 @@
         <v>15826</v>
       </c>
       <c r="G103" s="57">
-        <v>71390</v>
+        <v>33791</v>
       </c>
       <c r="H103" s="57">
-        <v>33791</v>
-      </c>
-      <c r="I103" s="57">
         <v>9375</v>
       </c>
-      <c r="J103" s="66" t="str">
+      <c r="I103" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>04/05/2020,131863,25548,51371,3696,15826,71390,33791,9375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>04/05/2020,131863,25548,51371,3696,15826,33791,9375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>43956</v>
       </c>
@@ -27763,20 +27610,17 @@
         <v>16060</v>
       </c>
       <c r="G104" s="57">
-        <v>71692</v>
+        <v>34108</v>
       </c>
       <c r="H104" s="57">
-        <v>34108</v>
-      </c>
-      <c r="I104" s="57">
         <v>9471</v>
       </c>
-      <c r="J104" s="66" t="str">
+      <c r="I104" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>05/05/2020,132967,24775,52736,3430,16060,71692,34108,9471</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>05/05/2020,132967,24775,52736,3430,16060,34108,9471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>43957</v>
       </c>
@@ -27796,20 +27640,17 @@
         <v>16237</v>
       </c>
       <c r="G105" s="57">
-        <v>71548</v>
+        <v>34507</v>
       </c>
       <c r="H105" s="57">
-        <v>34507</v>
-      </c>
-      <c r="I105" s="57">
         <v>9572</v>
       </c>
-      <c r="J105" s="66" t="str">
+      <c r="I105" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>06/05/2020,137150,23983,53972,3147,16237,71548,34507,9572</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+        <v>06/05/2020,137150,23983,53972,3147,16237,34507,9572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>43958</v>
       </c>
@@ -27829,20 +27670,17 @@
         <v>16386</v>
       </c>
       <c r="G106" s="57">
-        <v>71665</v>
+        <v>34653</v>
       </c>
       <c r="H106" s="57">
-        <v>34653</v>
-      </c>
-      <c r="I106" s="57">
         <v>9601</v>
       </c>
-      <c r="J106" s="66" t="str">
+      <c r="I106" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>07/05/2020,137779,23208,55027,2961,16386,71665,34653,9601</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+        <v>07/05/2020,137779,23208,55027,2961,16386,34653,9601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>43959</v>
       </c>
@@ -27862,20 +27700,17 @@
         <v>16497</v>
       </c>
       <c r="G107" s="57">
-        <v>72548</v>
+        <v>34890</v>
       </c>
       <c r="H107" s="57">
-        <v>34890</v>
-      </c>
-      <c r="I107" s="57">
         <v>9733</v>
       </c>
-      <c r="J107" s="66" t="str">
+      <c r="I107" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>08/05/2020,138421,22724,55782,2868,16497,72548,34890,9733</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+        <v>08/05/2020,138421,22724,55782,2868,16497,34890,9733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>43960</v>
       </c>
@@ -27895,20 +27730,17 @@
         <v>16573</v>
       </c>
       <c r="G108" s="57">
-        <v>72850</v>
+        <v>35046</v>
       </c>
       <c r="H108" s="57">
-        <v>35046</v>
-      </c>
-      <c r="I108" s="57">
         <v>9737</v>
       </c>
-      <c r="J108" s="66" t="str">
+      <c r="I108" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>09/05/2020,138854,22614,56038,2812,16573,72850,35046,9737</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>09/05/2020,138854,22614,56038,2812,16573,35046,9737</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>43961</v>
       </c>
@@ -27928,20 +27760,17 @@
         <v>16642</v>
       </c>
       <c r="G109" s="57">
-        <v>73143</v>
+        <v>35236</v>
       </c>
       <c r="H109" s="57">
-        <v>35236</v>
-      </c>
-      <c r="I109" s="57">
         <v>9738</v>
       </c>
-      <c r="J109" s="66" t="str">
+      <c r="I109" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>10/05/2020,139063,22569,56217,2776,16642,73143,35236,9738</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10/05/2020,139063,22569,56217,2776,16642,35236,9738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>43962</v>
       </c>
@@ -27961,20 +27790,17 @@
         <v>16820</v>
       </c>
       <c r="G110" s="57">
-        <v>73099</v>
+        <v>35195</v>
       </c>
       <c r="H110" s="57">
-        <v>35195</v>
-      </c>
-      <c r="I110" s="57">
         <v>9823</v>
       </c>
-      <c r="J110" s="66" t="str">
+      <c r="I110" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>11/05/2020,139519,22284,56724,2712,16820,73099,35195,9823</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11/05/2020,139519,22284,56724,2712,16820,35195,9823</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>43963</v>
       </c>
@@ -27994,20 +27820,17 @@
         <v>17003</v>
       </c>
       <c r="G111" s="57">
-        <v>73435</v>
+        <v>35437</v>
       </c>
       <c r="H111" s="57">
-        <v>35437</v>
-      </c>
-      <c r="I111" s="57">
         <v>9988</v>
       </c>
-      <c r="J111" s="66" t="str">
+      <c r="I111" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>12/05/2020,140227,21595,57785,2542,17003,73435,35437,9988</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12/05/2020,140227,21595,57785,2542,17003,35437,9988</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>43964</v>
       </c>
@@ -28027,20 +27850,17 @@
         <v>17101</v>
       </c>
       <c r="G112" s="57">
-        <v>72930</v>
+        <v>35604</v>
       </c>
       <c r="H112" s="57">
-        <v>35604</v>
-      </c>
-      <c r="I112" s="57">
         <v>9973</v>
       </c>
-      <c r="J112" s="66" t="str">
+      <c r="I112" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>13/05/2020,140734,21071,58673,2428,17101,72930,35604,9973</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13/05/2020,140734,21071,58673,2428,17101,35604,9973</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>43965</v>
       </c>
@@ -28060,20 +27880,17 @@
         <v>17224</v>
       </c>
       <c r="G113" s="57">
-        <v>73334</v>
+        <v>35820</v>
       </c>
       <c r="H113" s="57">
-        <v>35820</v>
-      </c>
-      <c r="I113" s="57">
         <v>10201</v>
       </c>
-      <c r="J113" s="66" t="str">
+      <c r="I113" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>14/05/2020,141356,20463,59605,2299,17224,73334,35820,10201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14/05/2020,141356,20463,59605,2299,17224,35820,10201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>43966</v>
       </c>
@@ -28093,20 +27910,17 @@
         <v>17342</v>
       </c>
       <c r="G114" s="57">
-        <v>73713</v>
+        <v>36126</v>
       </c>
       <c r="H114" s="57">
-        <v>36126</v>
-      </c>
-      <c r="I114" s="57">
         <v>10187</v>
       </c>
-      <c r="J114" s="66" t="str">
+      <c r="I114" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>15/05/2020,141919,19861,60448,2203,17342,73713,36126,10187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15/05/2020,141919,19861,60448,2203,17342,36126,10187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>43967</v>
       </c>
@@ -28126,20 +27940,17 @@
         <v>17412</v>
       </c>
       <c r="G115" s="57">
-        <v>73249</v>
+        <v>36175</v>
       </c>
       <c r="H115" s="57">
-        <v>36175</v>
-      </c>
-      <c r="I115" s="57">
         <v>10213</v>
       </c>
-      <c r="J115" s="66" t="str">
+      <c r="I115" s="65" t="str">
         <f t="shared" si="1"/>
-        <v>16/05/2020,142291,19432,61066,2132,17412,73249,36175,10213</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16/05/2020,142291,19432,61066,2132,17412,36175,10213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>43968</v>
       </c>
@@ -28159,20 +27970,17 @@
         <v>17466</v>
       </c>
       <c r="G116" s="57">
-        <v>73619</v>
+        <v>36461</v>
       </c>
       <c r="H116" s="57">
-        <v>36461</v>
-      </c>
-      <c r="I116" s="57">
         <v>10642</v>
       </c>
-      <c r="J116" s="66" t="str">
-        <f t="shared" ref="J116:J121" si="2">TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116</f>
-        <v>17/05/2020,142411,19361,61213,2087,17466,73619,36461,10642</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I116" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>17/05/2020,142411,19361,61213,2087,17466,36461,10642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>43969</v>
       </c>
@@ -28192,20 +28000,17 @@
         <v>17589</v>
       </c>
       <c r="G117" s="57">
-        <v>73623</v>
+        <v>36599</v>
       </c>
       <c r="H117" s="57">
-        <v>36599</v>
-      </c>
-      <c r="I117" s="57">
         <v>10650</v>
       </c>
-      <c r="J117" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>18/05/2020,142903,19015,61728,1998,17589,73623,36599,10650</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>18/05/2020,142903,19015,61728,1998,17589,36599,10650</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>43970</v>
       </c>
@@ -28225,20 +28030,17 @@
         <v>17714</v>
       </c>
       <c r="G118" s="57">
-        <v>73912</v>
+        <v>36530</v>
       </c>
       <c r="H118" s="57">
-        <v>36530</v>
-      </c>
-      <c r="I118" s="57">
         <v>10308</v>
       </c>
-      <c r="J118" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>19/05/2020,143427,18468,62563,1894,17714,73912,36530,10308</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>19/05/2020,143427,18468,62563,1894,17714,36530,10308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>43971</v>
       </c>
@@ -28258,20 +28060,17 @@
         <v>17812</v>
       </c>
       <c r="G119" s="57">
-        <v>74481</v>
+        <v>36751</v>
       </c>
       <c r="H119" s="57">
-        <v>36751</v>
-      </c>
-      <c r="I119" s="57">
         <v>10320</v>
       </c>
-      <c r="J119" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>20/05/2020,143845,17941,63354,1794,17812,74481,36751,10320</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>20/05/2020,143845,17941,63354,1794,17812,36751,10320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>43972</v>
       </c>
@@ -28291,20 +28090,17 @@
         <v>17870</v>
       </c>
       <c r="G120" s="57">
-        <v>74516</v>
+        <v>36853</v>
       </c>
       <c r="H120" s="57">
-        <v>36853</v>
-      </c>
-      <c r="I120" s="57">
         <v>10345</v>
       </c>
-      <c r="J120" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>21/05/2020,144163,17583,63858,1745,17870,74516,36853,10345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I120" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>21/05/2020,144163,17583,63858,1745,17870,36853,10345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>43973</v>
       </c>
@@ -28324,20 +28120,17 @@
         <v>17944</v>
       </c>
       <c r="G121" s="57">
-        <v>74516</v>
+        <v>36853</v>
       </c>
       <c r="H121" s="57">
-        <v>36853</v>
-      </c>
-      <c r="I121" s="57">
         <v>10345</v>
       </c>
-      <c r="J121" s="66" t="str">
-        <f t="shared" si="2"/>
-        <v>22/05/2020,144556,17383,64209,1701,17944,74516,36853,10345</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>22/05/2020,144556,17383,64209,1701,17944,36853,10345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>43974</v>
       </c>
@@ -28357,20 +28150,17 @@
         <v>17987</v>
       </c>
       <c r="G122" s="57">
-        <v>74516</v>
+        <v>36853</v>
       </c>
       <c r="H122" s="57">
-        <v>36853</v>
-      </c>
-      <c r="I122" s="57">
         <v>10345</v>
       </c>
-      <c r="J122" s="66" t="str">
-        <f t="shared" ref="J122:J160" si="3">TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122</f>
-        <v>23/05/2020,144806,17178,64547,1665,17987,74516,36853,10345</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I122" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>23/05/2020,144806,17178,64547,1665,17987,36853,10345</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>43975</v>
       </c>
@@ -28390,20 +28180,17 @@
         <v>18022</v>
       </c>
       <c r="G123" s="57">
-        <v>74516</v>
+        <v>36853</v>
       </c>
       <c r="H123" s="57">
-        <v>36853</v>
-      </c>
-      <c r="I123" s="57">
         <v>10345</v>
       </c>
-      <c r="J123" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>24/05/2020,144921,17185,64617,1655,18022,74516,36853,10345</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>24/05/2020,144921,17185,64617,1655,18022,36853,10345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>43976</v>
       </c>
@@ -28423,20 +28210,17 @@
         <v>18112</v>
       </c>
       <c r="G124" s="57">
-        <v>74516</v>
+        <v>36853</v>
       </c>
       <c r="H124" s="57">
-        <v>36853</v>
-      </c>
-      <c r="I124" s="57">
         <v>10345</v>
       </c>
-      <c r="J124" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>25/05/2020,145279,16798,65199,1609,18112,74516,36853,10345</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>25/05/2020,145279,16798,65199,1609,18112,36853,10345</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>43977</v>
       </c>
@@ -28456,20 +28240,17 @@
         <v>18195</v>
       </c>
       <c r="G125" s="57">
-        <v>74402</v>
+        <v>37235</v>
       </c>
       <c r="H125" s="57">
-        <v>37235</v>
-      </c>
-      <c r="I125" s="57">
         <v>10335</v>
       </c>
-      <c r="J125" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>26/05/2020,145555,16264,65879,1555,18195,74402,37235,10335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I125" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>26/05/2020,145555,16264,65879,1555,18195,37235,10335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>43978</v>
       </c>
@@ -28489,20 +28270,17 @@
         <v>18260</v>
       </c>
       <c r="G126" s="57">
-        <v>74402</v>
+        <v>37235</v>
       </c>
       <c r="H126" s="57">
-        <v>37235</v>
-      </c>
-      <c r="I126" s="57">
         <v>10336</v>
       </c>
-      <c r="J126" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>27/05/2020,145746,15680,66584,1501,18260,74402,37235,10336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>27/05/2020,145746,15680,66584,1501,18260,37235,10336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>43979</v>
       </c>
@@ -28522,20 +28300,17 @@
         <v>18326</v>
       </c>
       <c r="G127" s="57">
-        <v>74402</v>
+        <v>37235</v>
       </c>
       <c r="H127" s="57">
-        <v>37235</v>
-      </c>
-      <c r="I127" s="57">
         <v>10336</v>
       </c>
-      <c r="J127" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>28/05/2020,149071,15308,67191,1429,18326,74402,37235,10336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I127" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>28/05/2020,149071,15308,67191,1429,18326,37235,10336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>43980</v>
       </c>
@@ -28555,20 +28330,17 @@
         <v>18387</v>
       </c>
       <c r="G128" s="57">
-        <v>74402</v>
+        <v>37273</v>
       </c>
       <c r="H128" s="57">
-        <v>37273</v>
-      </c>
-      <c r="I128" s="57">
         <v>10327</v>
       </c>
-      <c r="J128" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>29/05/2020,149668,14695,67803,1361,18387,74402,37273,10327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I128" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>29/05/2020,149668,14695,67803,1361,18387,37273,10327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>43981</v>
       </c>
@@ -28588,20 +28360,17 @@
         <v>18444</v>
       </c>
       <c r="G129" s="57">
-        <v>74402</v>
+        <v>37273</v>
       </c>
       <c r="H129" s="57">
-        <v>37273</v>
-      </c>
-      <c r="I129" s="57">
         <v>10327</v>
       </c>
-      <c r="J129" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>30/05/2020,151496,14380,68268,1325,18444,74402,37273,10327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I129" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v>30/05/2020,151496,14380,68268,1325,18444,37273,10327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>43982</v>
       </c>
@@ -28621,20 +28390,17 @@
         <v>18475</v>
       </c>
       <c r="G130" s="57">
-        <v>74402</v>
+        <v>37273</v>
       </c>
       <c r="H130" s="57">
-        <v>37273</v>
-      </c>
-      <c r="I130" s="57">
         <v>10327</v>
       </c>
-      <c r="J130" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>31/05/2020,151753,14322,68355,1319,18475,74402,37273,10327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I130" s="65" t="str">
+        <f t="shared" ref="I130:I133" si="2">TEXT(A130,"jj/mm/aaaa")&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130&amp;","&amp;F130&amp;","&amp;G130&amp;","&amp;H130</f>
+        <v>31/05/2020,151753,14322,68355,1319,18475,37273,10327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>43983</v>
       </c>
@@ -28654,54 +28420,77 @@
         <v>18506</v>
       </c>
       <c r="G131" s="57">
-        <v>74402</v>
+        <v>37273</v>
       </c>
       <c r="H131" s="57">
-        <v>37273</v>
-      </c>
-      <c r="I131" s="57">
         <v>10327</v>
       </c>
-      <c r="J131" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>01/06/2020,152091,14288,68440,1302,18506,74402,37273,10327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I131" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>01/06/2020,152091,14288,68440,1302,18506,37273,10327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>43984</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>02/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="57">
+        <v>151325</v>
+      </c>
+      <c r="C132" s="57">
+        <v>14028</v>
+      </c>
+      <c r="D132" s="57">
+        <v>68812</v>
+      </c>
+      <c r="E132" s="57">
+        <v>1253</v>
+      </c>
+      <c r="F132" s="57">
+        <v>18590</v>
+      </c>
+      <c r="G132" s="57">
+        <v>37405</v>
+      </c>
+      <c r="H132" s="57">
+        <v>10350</v>
+      </c>
+      <c r="I132" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>02/06/2020,151325,14028,68812,1253,18590,37405,10350</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>43985</v>
       </c>
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="57"/>
-      <c r="J133" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>03/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="57">
+        <v>151677</v>
+      </c>
+      <c r="C133" s="57">
+        <v>13514</v>
+      </c>
+      <c r="D133" s="57">
+        <v>69455</v>
+      </c>
+      <c r="E133" s="57">
+        <v>1210</v>
+      </c>
+      <c r="F133" s="57">
+        <v>18671</v>
+      </c>
+      <c r="G133" s="57">
+        <v>37405</v>
+      </c>
+      <c r="H133" s="57">
+        <v>10350</v>
+      </c>
+      <c r="I133" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>03/06/2020,151677,13514,69455,1210,18671,37405,10350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>43986</v>
       </c>
@@ -28712,13 +28501,12 @@
       <c r="F134" s="57"/>
       <c r="G134" s="57"/>
       <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>04/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I134" s="65" t="e">
+        <f>TEXT(A134,"jj/mm/aaaa")&amp;","&amp;B134&amp;","&amp;C134&amp;","&amp;D134&amp;","&amp;E134&amp;","&amp;F134&amp;","&amp;#REF!&amp;","&amp;G134&amp;","&amp;H134</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>43987</v>
       </c>
@@ -28729,13 +28517,12 @@
       <c r="F135" s="57"/>
       <c r="G135" s="57"/>
       <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>05/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I135" s="65" t="e">
+        <f>TEXT(A135,"jj/mm/aaaa")&amp;","&amp;B135&amp;","&amp;C135&amp;","&amp;D135&amp;","&amp;E135&amp;","&amp;F135&amp;","&amp;#REF!&amp;","&amp;G135&amp;","&amp;H135</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>43988</v>
       </c>
@@ -28746,13 +28533,12 @@
       <c r="F136" s="57"/>
       <c r="G136" s="57"/>
       <c r="H136" s="57"/>
-      <c r="I136" s="57"/>
-      <c r="J136" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>06/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="65" t="e">
+        <f>TEXT(A136,"jj/mm/aaaa")&amp;","&amp;B136&amp;","&amp;C136&amp;","&amp;D136&amp;","&amp;E136&amp;","&amp;F136&amp;","&amp;#REF!&amp;","&amp;G136&amp;","&amp;H136</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>43989</v>
       </c>
@@ -28763,13 +28549,12 @@
       <c r="F137" s="57"/>
       <c r="G137" s="57"/>
       <c r="H137" s="57"/>
-      <c r="I137" s="57"/>
-      <c r="J137" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>07/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I137" s="65" t="e">
+        <f>TEXT(A137,"jj/mm/aaaa")&amp;","&amp;B137&amp;","&amp;C137&amp;","&amp;D137&amp;","&amp;E137&amp;","&amp;F137&amp;","&amp;#REF!&amp;","&amp;G137&amp;","&amp;H137</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>43990</v>
       </c>
@@ -28780,13 +28565,12 @@
       <c r="F138" s="57"/>
       <c r="G138" s="57"/>
       <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
-      <c r="J138" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>08/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I138" s="65" t="e">
+        <f>TEXT(A138,"jj/mm/aaaa")&amp;","&amp;B138&amp;","&amp;C138&amp;","&amp;D138&amp;","&amp;E138&amp;","&amp;F138&amp;","&amp;#REF!&amp;","&amp;G138&amp;","&amp;H138</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>43991</v>
       </c>
@@ -28797,13 +28581,12 @@
       <c r="F139" s="57"/>
       <c r="G139" s="57"/>
       <c r="H139" s="57"/>
-      <c r="I139" s="57"/>
-      <c r="J139" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>09/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I139" s="65" t="e">
+        <f>TEXT(A139,"jj/mm/aaaa")&amp;","&amp;B139&amp;","&amp;C139&amp;","&amp;D139&amp;","&amp;E139&amp;","&amp;F139&amp;","&amp;#REF!&amp;","&amp;G139&amp;","&amp;H139</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>43992</v>
       </c>
@@ -28814,13 +28597,12 @@
       <c r="F140" s="57"/>
       <c r="G140" s="57"/>
       <c r="H140" s="57"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>10/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I140" s="65" t="e">
+        <f>TEXT(A140,"jj/mm/aaaa")&amp;","&amp;B140&amp;","&amp;C140&amp;","&amp;D140&amp;","&amp;E140&amp;","&amp;F140&amp;","&amp;#REF!&amp;","&amp;G140&amp;","&amp;H140</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>43993</v>
       </c>
@@ -28831,13 +28613,12 @@
       <c r="F141" s="57"/>
       <c r="G141" s="57"/>
       <c r="H141" s="57"/>
-      <c r="I141" s="57"/>
-      <c r="J141" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>11/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I141" s="65" t="e">
+        <f>TEXT(A141,"jj/mm/aaaa")&amp;","&amp;B141&amp;","&amp;C141&amp;","&amp;D141&amp;","&amp;E141&amp;","&amp;F141&amp;","&amp;#REF!&amp;","&amp;G141&amp;","&amp;H141</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>43994</v>
       </c>
@@ -28848,13 +28629,12 @@
       <c r="F142" s="57"/>
       <c r="G142" s="57"/>
       <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
-      <c r="J142" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>12/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I142" s="65" t="e">
+        <f>TEXT(A142,"jj/mm/aaaa")&amp;","&amp;B142&amp;","&amp;C142&amp;","&amp;D142&amp;","&amp;E142&amp;","&amp;F142&amp;","&amp;#REF!&amp;","&amp;G142&amp;","&amp;H142</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>43995</v>
       </c>
@@ -28865,13 +28645,12 @@
       <c r="F143" s="57"/>
       <c r="G143" s="57"/>
       <c r="H143" s="57"/>
-      <c r="I143" s="57"/>
-      <c r="J143" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>13/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I143" s="65" t="e">
+        <f>TEXT(A143,"jj/mm/aaaa")&amp;","&amp;B143&amp;","&amp;C143&amp;","&amp;D143&amp;","&amp;E143&amp;","&amp;F143&amp;","&amp;#REF!&amp;","&amp;G143&amp;","&amp;H143</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>43996</v>
       </c>
@@ -28882,13 +28661,12 @@
       <c r="F144" s="57"/>
       <c r="G144" s="57"/>
       <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>14/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I144" s="65" t="e">
+        <f>TEXT(A144,"jj/mm/aaaa")&amp;","&amp;B144&amp;","&amp;C144&amp;","&amp;D144&amp;","&amp;E144&amp;","&amp;F144&amp;","&amp;#REF!&amp;","&amp;G144&amp;","&amp;H144</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>43997</v>
       </c>
@@ -28899,13 +28677,12 @@
       <c r="F145" s="57"/>
       <c r="G145" s="57"/>
       <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>15/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I145" s="65" t="e">
+        <f>TEXT(A145,"jj/mm/aaaa")&amp;","&amp;B145&amp;","&amp;C145&amp;","&amp;D145&amp;","&amp;E145&amp;","&amp;F145&amp;","&amp;#REF!&amp;","&amp;G145&amp;","&amp;H145</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>43998</v>
       </c>
@@ -28916,13 +28693,12 @@
       <c r="F146" s="57"/>
       <c r="G146" s="57"/>
       <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>16/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I146" s="65" t="e">
+        <f>TEXT(A146,"jj/mm/aaaa")&amp;","&amp;B146&amp;","&amp;C146&amp;","&amp;D146&amp;","&amp;E146&amp;","&amp;F146&amp;","&amp;#REF!&amp;","&amp;G146&amp;","&amp;H146</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>43999</v>
       </c>
@@ -28933,13 +28709,12 @@
       <c r="F147" s="57"/>
       <c r="G147" s="57"/>
       <c r="H147" s="57"/>
-      <c r="I147" s="57"/>
-      <c r="J147" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>17/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I147" s="65" t="e">
+        <f>TEXT(A147,"jj/mm/aaaa")&amp;","&amp;B147&amp;","&amp;C147&amp;","&amp;D147&amp;","&amp;E147&amp;","&amp;F147&amp;","&amp;#REF!&amp;","&amp;G147&amp;","&amp;H147</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>44000</v>
       </c>
@@ -28950,13 +28725,12 @@
       <c r="F148" s="57"/>
       <c r="G148" s="57"/>
       <c r="H148" s="57"/>
-      <c r="I148" s="57"/>
-      <c r="J148" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>18/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I148" s="65" t="e">
+        <f>TEXT(A148,"jj/mm/aaaa")&amp;","&amp;B148&amp;","&amp;C148&amp;","&amp;D148&amp;","&amp;E148&amp;","&amp;F148&amp;","&amp;#REF!&amp;","&amp;G148&amp;","&amp;H148</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>44001</v>
       </c>
@@ -28967,13 +28741,12 @@
       <c r="F149" s="57"/>
       <c r="G149" s="57"/>
       <c r="H149" s="57"/>
-      <c r="I149" s="57"/>
-      <c r="J149" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>19/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I149" s="65" t="e">
+        <f>TEXT(A149,"jj/mm/aaaa")&amp;","&amp;B149&amp;","&amp;C149&amp;","&amp;D149&amp;","&amp;E149&amp;","&amp;F149&amp;","&amp;#REF!&amp;","&amp;G149&amp;","&amp;H149</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>44002</v>
       </c>
@@ -28984,13 +28757,12 @@
       <c r="F150" s="57"/>
       <c r="G150" s="57"/>
       <c r="H150" s="57"/>
-      <c r="I150" s="57"/>
-      <c r="J150" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>20/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I150" s="65" t="e">
+        <f>TEXT(A150,"jj/mm/aaaa")&amp;","&amp;B150&amp;","&amp;C150&amp;","&amp;D150&amp;","&amp;E150&amp;","&amp;F150&amp;","&amp;#REF!&amp;","&amp;G150&amp;","&amp;H150</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>44003</v>
       </c>
@@ -29001,13 +28773,12 @@
       <c r="F151" s="57"/>
       <c r="G151" s="57"/>
       <c r="H151" s="57"/>
-      <c r="I151" s="57"/>
-      <c r="J151" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>21/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I151" s="65" t="e">
+        <f>TEXT(A151,"jj/mm/aaaa")&amp;","&amp;B151&amp;","&amp;C151&amp;","&amp;D151&amp;","&amp;E151&amp;","&amp;F151&amp;","&amp;#REF!&amp;","&amp;G151&amp;","&amp;H151</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>44004</v>
       </c>
@@ -29018,13 +28789,12 @@
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
       <c r="H152" s="57"/>
-      <c r="I152" s="57"/>
-      <c r="J152" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>22/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I152" s="65" t="e">
+        <f>TEXT(A152,"jj/mm/aaaa")&amp;","&amp;B152&amp;","&amp;C152&amp;","&amp;D152&amp;","&amp;E152&amp;","&amp;F152&amp;","&amp;#REF!&amp;","&amp;G152&amp;","&amp;H152</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>44005</v>
       </c>
@@ -29035,13 +28805,12 @@
       <c r="F153" s="57"/>
       <c r="G153" s="57"/>
       <c r="H153" s="57"/>
-      <c r="I153" s="57"/>
-      <c r="J153" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>23/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I153" s="65" t="e">
+        <f>TEXT(A153,"jj/mm/aaaa")&amp;","&amp;B153&amp;","&amp;C153&amp;","&amp;D153&amp;","&amp;E153&amp;","&amp;F153&amp;","&amp;#REF!&amp;","&amp;G153&amp;","&amp;H153</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>44006</v>
       </c>
@@ -29052,13 +28821,12 @@
       <c r="F154" s="57"/>
       <c r="G154" s="57"/>
       <c r="H154" s="57"/>
-      <c r="I154" s="57"/>
-      <c r="J154" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>24/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I154" s="65" t="e">
+        <f>TEXT(A154,"jj/mm/aaaa")&amp;","&amp;B154&amp;","&amp;C154&amp;","&amp;D154&amp;","&amp;E154&amp;","&amp;F154&amp;","&amp;#REF!&amp;","&amp;G154&amp;","&amp;H154</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>44007</v>
       </c>
@@ -29069,13 +28837,12 @@
       <c r="F155" s="57"/>
       <c r="G155" s="57"/>
       <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>25/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I155" s="65" t="e">
+        <f>TEXT(A155,"jj/mm/aaaa")&amp;","&amp;B155&amp;","&amp;C155&amp;","&amp;D155&amp;","&amp;E155&amp;","&amp;F155&amp;","&amp;#REF!&amp;","&amp;G155&amp;","&amp;H155</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>44008</v>
       </c>
@@ -29086,13 +28853,12 @@
       <c r="F156" s="57"/>
       <c r="G156" s="57"/>
       <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>26/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I156" s="65" t="e">
+        <f>TEXT(A156,"jj/mm/aaaa")&amp;","&amp;B156&amp;","&amp;C156&amp;","&amp;D156&amp;","&amp;E156&amp;","&amp;F156&amp;","&amp;#REF!&amp;","&amp;G156&amp;","&amp;H156</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>44009</v>
       </c>
@@ -29103,13 +28869,12 @@
       <c r="F157" s="57"/>
       <c r="G157" s="57"/>
       <c r="H157" s="57"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>27/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I157" s="65" t="e">
+        <f>TEXT(A157,"jj/mm/aaaa")&amp;","&amp;B157&amp;","&amp;C157&amp;","&amp;D157&amp;","&amp;E157&amp;","&amp;F157&amp;","&amp;#REF!&amp;","&amp;G157&amp;","&amp;H157</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>44010</v>
       </c>
@@ -29120,13 +28885,12 @@
       <c r="F158" s="57"/>
       <c r="G158" s="57"/>
       <c r="H158" s="57"/>
-      <c r="I158" s="57"/>
-      <c r="J158" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>28/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I158" s="65" t="e">
+        <f>TEXT(A158,"jj/mm/aaaa")&amp;","&amp;B158&amp;","&amp;C158&amp;","&amp;D158&amp;","&amp;E158&amp;","&amp;F158&amp;","&amp;#REF!&amp;","&amp;G158&amp;","&amp;H158</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>44011</v>
       </c>
@@ -29137,13 +28901,12 @@
       <c r="F159" s="57"/>
       <c r="G159" s="57"/>
       <c r="H159" s="57"/>
-      <c r="I159" s="57"/>
-      <c r="J159" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>29/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I159" s="65" t="e">
+        <f>TEXT(A159,"jj/mm/aaaa")&amp;","&amp;B159&amp;","&amp;C159&amp;","&amp;D159&amp;","&amp;E159&amp;","&amp;F159&amp;","&amp;#REF!&amp;","&amp;G159&amp;","&amp;H159</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>44012</v>
       </c>
@@ -29154,10 +28917,9 @@
       <c r="F160" s="57"/>
       <c r="G160" s="57"/>
       <c r="H160" s="57"/>
-      <c r="I160" s="57"/>
-      <c r="J160" s="66" t="str">
-        <f t="shared" si="3"/>
-        <v>30/06/2020,,,,,,,,</v>
+      <c r="I160" s="65" t="e">
+        <f>TEXT(A160,"jj/mm/aaaa")&amp;","&amp;B160&amp;","&amp;C160&amp;","&amp;D160&amp;","&amp;E160&amp;","&amp;F160&amp;","&amp;#REF!&amp;","&amp;G160&amp;","&amp;H160</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -29168,10 +28930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K133" sqref="K1:K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -29184,13 +28946,12 @@
     <col min="6" max="6" width="10.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.09765625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
@@ -29198,38 +28959,35 @@
         <v>108</v>
       </c>
       <c r="C1" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>117</v>
-      </c>
       <c r="H1" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="55" t="s">
         <v>109</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="10" t="str">
-        <f>TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1&amp;","&amp;J1&amp;","&amp;K1</f>
-        <v>Date,Cas confirmés,Hospitalisations,Nvx hospitalisés,Guérisons,En réanimation,Nvx en réanimation,Décès en hopital,Cas totaux EHPAD et EMS,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="K1" s="10" t="str">
+        <f>TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1&amp;","&amp;J1</f>
+        <v>Date,Cas confirmés,Hospitalisations,Nvx hospitalisés,Guérisons,En réanimation,Nvx en réanimation,Décès en hopital,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>43854</v>
       </c>
@@ -29244,13 +29002,12 @@
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="10" t="str">
-        <f t="shared" ref="L2:L64" si="0">TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2</f>
-        <v>24/01/2020,3,,,,,,,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="10" t="str">
+        <f t="shared" ref="K2:K65" si="0">TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2</f>
+        <v>24/01/2020,3,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>43855</v>
       </c>
@@ -29284,16 +29041,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H3),"",IF(ISBLANK('Totaux nationaux bruts'!H2),"",'Totaux nationaux bruts'!H3-'Totaux nationaux bruts'!H2))</f>
         <v/>
       </c>
-      <c r="K3" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I3),"",IF(ISBLANK('Totaux nationaux bruts'!I2),"",'Totaux nationaux bruts'!I3-'Totaux nationaux bruts'!I2))</f>
-        <v/>
-      </c>
-      <c r="L3" s="10" t="str">
+      <c r="K3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>25/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25/01/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43856</v>
       </c>
@@ -29327,16 +29080,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H4),"",IF(ISBLANK('Totaux nationaux bruts'!H3),"",'Totaux nationaux bruts'!H4-'Totaux nationaux bruts'!H3))</f>
         <v/>
       </c>
-      <c r="K4" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I4),"",IF(ISBLANK('Totaux nationaux bruts'!I3),"",'Totaux nationaux bruts'!I4-'Totaux nationaux bruts'!I3))</f>
-        <v/>
-      </c>
-      <c r="L4" s="10" t="str">
+      <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>26/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26/01/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43857</v>
       </c>
@@ -29370,16 +29119,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H5),"",IF(ISBLANK('Totaux nationaux bruts'!H4),"",'Totaux nationaux bruts'!H5-'Totaux nationaux bruts'!H4))</f>
         <v/>
       </c>
-      <c r="K5" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I5),"",IF(ISBLANK('Totaux nationaux bruts'!I4),"",'Totaux nationaux bruts'!I5-'Totaux nationaux bruts'!I4))</f>
-        <v/>
-      </c>
-      <c r="L5" s="10" t="str">
+      <c r="K5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>27/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27/01/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43858</v>
       </c>
@@ -29413,16 +29158,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H6),"",IF(ISBLANK('Totaux nationaux bruts'!H5),"",'Totaux nationaux bruts'!H6-'Totaux nationaux bruts'!H5))</f>
         <v/>
       </c>
-      <c r="K6" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I6),"",IF(ISBLANK('Totaux nationaux bruts'!I5),"",'Totaux nationaux bruts'!I6-'Totaux nationaux bruts'!I5))</f>
-        <v/>
-      </c>
-      <c r="L6" s="10" t="str">
+      <c r="K6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>28/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28/01/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43859</v>
       </c>
@@ -29456,16 +29197,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H7),"",IF(ISBLANK('Totaux nationaux bruts'!H6),"",'Totaux nationaux bruts'!H7-'Totaux nationaux bruts'!H6))</f>
         <v/>
       </c>
-      <c r="K7" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I7),"",IF(ISBLANK('Totaux nationaux bruts'!I6),"",'Totaux nationaux bruts'!I7-'Totaux nationaux bruts'!I6))</f>
-        <v/>
-      </c>
-      <c r="L7" s="10" t="str">
+      <c r="K7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>29/01/2020,1,,,1,,,,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29/01/2020,1,,,,1,,,,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43860</v>
       </c>
@@ -29499,16 +29236,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H8),"",IF(ISBLANK('Totaux nationaux bruts'!H7),"",'Totaux nationaux bruts'!H8-'Totaux nationaux bruts'!H7))</f>
         <v/>
       </c>
-      <c r="K8" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I8),"",IF(ISBLANK('Totaux nationaux bruts'!I7),"",'Totaux nationaux bruts'!I8-'Totaux nationaux bruts'!I7))</f>
-        <v/>
-      </c>
-      <c r="L8" s="10" t="str">
+      <c r="K8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>30/01/2020,1,,,,,,,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>30/01/2020,1,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43861</v>
       </c>
@@ -29542,16 +29275,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H9),"",IF(ISBLANK('Totaux nationaux bruts'!H8),"",'Totaux nationaux bruts'!H9-'Totaux nationaux bruts'!H8))</f>
         <v/>
       </c>
-      <c r="K9" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I9),"",IF(ISBLANK('Totaux nationaux bruts'!I8),"",'Totaux nationaux bruts'!I9-'Totaux nationaux bruts'!I8))</f>
-        <v/>
-      </c>
-      <c r="L9" s="10" t="str">
+      <c r="K9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>31/01/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>31/01/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43862</v>
       </c>
@@ -29585,16 +29314,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H10),"",IF(ISBLANK('Totaux nationaux bruts'!H9),"",'Totaux nationaux bruts'!H10-'Totaux nationaux bruts'!H9))</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I10),"",IF(ISBLANK('Totaux nationaux bruts'!I9),"",'Totaux nationaux bruts'!I10-'Totaux nationaux bruts'!I9))</f>
-        <v/>
-      </c>
-      <c r="L10" s="10" t="str">
+      <c r="K10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>01/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>01/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43863</v>
       </c>
@@ -29628,16 +29353,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H11),"",IF(ISBLANK('Totaux nationaux bruts'!H10),"",'Totaux nationaux bruts'!H11-'Totaux nationaux bruts'!H10))</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I11),"",IF(ISBLANK('Totaux nationaux bruts'!I10),"",'Totaux nationaux bruts'!I11-'Totaux nationaux bruts'!I10))</f>
-        <v/>
-      </c>
-      <c r="L11" s="10" t="str">
+      <c r="K11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>02/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>02/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43864</v>
       </c>
@@ -29671,16 +29392,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H12),"",IF(ISBLANK('Totaux nationaux bruts'!H11),"",'Totaux nationaux bruts'!H12-'Totaux nationaux bruts'!H11))</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I12),"",IF(ISBLANK('Totaux nationaux bruts'!I11),"",'Totaux nationaux bruts'!I12-'Totaux nationaux bruts'!I11))</f>
-        <v/>
-      </c>
-      <c r="L12" s="10" t="str">
+      <c r="K12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>03/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>03/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43865</v>
       </c>
@@ -29714,16 +29431,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H13),"",IF(ISBLANK('Totaux nationaux bruts'!H12),"",'Totaux nationaux bruts'!H13-'Totaux nationaux bruts'!H12))</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I13),"",IF(ISBLANK('Totaux nationaux bruts'!I12),"",'Totaux nationaux bruts'!I13-'Totaux nationaux bruts'!I12))</f>
-        <v/>
-      </c>
-      <c r="L13" s="10" t="str">
+      <c r="K13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>04/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>04/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43866</v>
       </c>
@@ -29757,16 +29470,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H14),"",IF(ISBLANK('Totaux nationaux bruts'!H13),"",'Totaux nationaux bruts'!H14-'Totaux nationaux bruts'!H13))</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I14),"",IF(ISBLANK('Totaux nationaux bruts'!I13),"",'Totaux nationaux bruts'!I14-'Totaux nationaux bruts'!I13))</f>
-        <v/>
-      </c>
-      <c r="L14" s="10" t="str">
+      <c r="K14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>05/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>05/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43867</v>
       </c>
@@ -29800,16 +29509,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H15),"",IF(ISBLANK('Totaux nationaux bruts'!H14),"",'Totaux nationaux bruts'!H15-'Totaux nationaux bruts'!H14))</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I15),"",IF(ISBLANK('Totaux nationaux bruts'!I14),"",'Totaux nationaux bruts'!I15-'Totaux nationaux bruts'!I14))</f>
-        <v/>
-      </c>
-      <c r="L15" s="10" t="str">
+      <c r="K15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>06/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>06/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43868</v>
       </c>
@@ -29843,16 +29548,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H16),"",IF(ISBLANK('Totaux nationaux bruts'!H15),"",'Totaux nationaux bruts'!H16-'Totaux nationaux bruts'!H15))</f>
         <v/>
       </c>
-      <c r="K16" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I16),"",IF(ISBLANK('Totaux nationaux bruts'!I15),"",'Totaux nationaux bruts'!I16-'Totaux nationaux bruts'!I15))</f>
-        <v/>
-      </c>
-      <c r="L16" s="10" t="str">
+      <c r="K16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>07/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>07/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43869</v>
       </c>
@@ -29886,16 +29587,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H17),"",IF(ISBLANK('Totaux nationaux bruts'!H16),"",'Totaux nationaux bruts'!H17-'Totaux nationaux bruts'!H16))</f>
         <v/>
       </c>
-      <c r="K17" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I17),"",IF(ISBLANK('Totaux nationaux bruts'!I16),"",'Totaux nationaux bruts'!I17-'Totaux nationaux bruts'!I16))</f>
-        <v/>
-      </c>
-      <c r="L17" s="10" t="str">
+      <c r="K17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>08/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>08/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43870</v>
       </c>
@@ -29929,16 +29626,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H18),"",IF(ISBLANK('Totaux nationaux bruts'!H17),"",'Totaux nationaux bruts'!H18-'Totaux nationaux bruts'!H17))</f>
         <v/>
       </c>
-      <c r="K18" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I18),"",IF(ISBLANK('Totaux nationaux bruts'!I17),"",'Totaux nationaux bruts'!I18-'Totaux nationaux bruts'!I17))</f>
-        <v/>
-      </c>
-      <c r="L18" s="10" t="str">
+      <c r="K18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>09/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>09/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43871</v>
       </c>
@@ -29972,16 +29665,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H19),"",IF(ISBLANK('Totaux nationaux bruts'!H18),"",'Totaux nationaux bruts'!H19-'Totaux nationaux bruts'!H18))</f>
         <v/>
       </c>
-      <c r="K19" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I19),"",IF(ISBLANK('Totaux nationaux bruts'!I18),"",'Totaux nationaux bruts'!I19-'Totaux nationaux bruts'!I18))</f>
-        <v/>
-      </c>
-      <c r="L19" s="10" t="str">
+      <c r="K19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>10/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43872</v>
       </c>
@@ -30015,16 +29704,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H20),"",IF(ISBLANK('Totaux nationaux bruts'!H19),"",'Totaux nationaux bruts'!H20-'Totaux nationaux bruts'!H19))</f>
         <v/>
       </c>
-      <c r="K20" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I20),"",IF(ISBLANK('Totaux nationaux bruts'!I19),"",'Totaux nationaux bruts'!I20-'Totaux nationaux bruts'!I19))</f>
-        <v/>
-      </c>
-      <c r="L20" s="10" t="str">
+      <c r="K20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>11/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43873</v>
       </c>
@@ -30058,16 +29743,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H21),"",IF(ISBLANK('Totaux nationaux bruts'!H20),"",'Totaux nationaux bruts'!H21-'Totaux nationaux bruts'!H20))</f>
         <v/>
       </c>
-      <c r="K21" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I21),"",IF(ISBLANK('Totaux nationaux bruts'!I20),"",'Totaux nationaux bruts'!I21-'Totaux nationaux bruts'!I20))</f>
-        <v/>
-      </c>
-      <c r="L21" s="10" t="str">
+      <c r="K21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>12/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43874</v>
       </c>
@@ -30101,16 +29782,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H22),"",IF(ISBLANK('Totaux nationaux bruts'!H21),"",'Totaux nationaux bruts'!H22-'Totaux nationaux bruts'!H21))</f>
         <v/>
       </c>
-      <c r="K22" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I22),"",IF(ISBLANK('Totaux nationaux bruts'!I21),"",'Totaux nationaux bruts'!I22-'Totaux nationaux bruts'!I21))</f>
-        <v/>
-      </c>
-      <c r="L22" s="10" t="str">
+      <c r="K22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>13/02/2020,,,1,,,,,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13/02/2020,,,,1,,,,,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43875</v>
       </c>
@@ -30144,16 +29821,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H23),"",IF(ISBLANK('Totaux nationaux bruts'!H22),"",'Totaux nationaux bruts'!H23-'Totaux nationaux bruts'!H22))</f>
         <v/>
       </c>
-      <c r="K23" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I23),"",IF(ISBLANK('Totaux nationaux bruts'!I22),"",'Totaux nationaux bruts'!I23-'Totaux nationaux bruts'!I22))</f>
-        <v/>
-      </c>
-      <c r="L23" s="10" t="str">
+      <c r="K23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>14/02/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14/02/2020,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43876</v>
       </c>
@@ -30187,16 +29860,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H24),"",IF(ISBLANK('Totaux nationaux bruts'!H23),"",'Totaux nationaux bruts'!H24-'Totaux nationaux bruts'!H23))</f>
         <v/>
       </c>
-      <c r="K24" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I24),"",IF(ISBLANK('Totaux nationaux bruts'!I23),"",'Totaux nationaux bruts'!I24-'Totaux nationaux bruts'!I23))</f>
-        <v/>
-      </c>
-      <c r="L24" s="10" t="str">
+      <c r="K24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>15/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43877</v>
       </c>
@@ -30230,16 +29899,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H25),"",IF(ISBLANK('Totaux nationaux bruts'!H24),"",'Totaux nationaux bruts'!H25-'Totaux nationaux bruts'!H24))</f>
         <v/>
       </c>
-      <c r="K25" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I25),"",IF(ISBLANK('Totaux nationaux bruts'!I24),"",'Totaux nationaux bruts'!I25-'Totaux nationaux bruts'!I24))</f>
-        <v/>
-      </c>
-      <c r="L25" s="10" t="str">
+      <c r="K25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>16/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43878</v>
       </c>
@@ -30273,16 +29938,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H26),"",IF(ISBLANK('Totaux nationaux bruts'!H25),"",'Totaux nationaux bruts'!H26-'Totaux nationaux bruts'!H25))</f>
         <v/>
       </c>
-      <c r="K26" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I26),"",IF(ISBLANK('Totaux nationaux bruts'!I25),"",'Totaux nationaux bruts'!I26-'Totaux nationaux bruts'!I25))</f>
-        <v/>
-      </c>
-      <c r="L26" s="10" t="str">
+      <c r="K26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>17/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>17/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43879</v>
       </c>
@@ -30316,16 +29977,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H27),"",IF(ISBLANK('Totaux nationaux bruts'!H26),"",'Totaux nationaux bruts'!H27-'Totaux nationaux bruts'!H26))</f>
         <v/>
       </c>
-      <c r="K27" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I27),"",IF(ISBLANK('Totaux nationaux bruts'!I26),"",'Totaux nationaux bruts'!I27-'Totaux nationaux bruts'!I26))</f>
-        <v/>
-      </c>
-      <c r="L27" s="10" t="str">
+      <c r="K27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>18/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43880</v>
       </c>
@@ -30359,16 +30016,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H28),"",IF(ISBLANK('Totaux nationaux bruts'!H27),"",'Totaux nationaux bruts'!H28-'Totaux nationaux bruts'!H27))</f>
         <v/>
       </c>
-      <c r="K28" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I28),"",IF(ISBLANK('Totaux nationaux bruts'!I27),"",'Totaux nationaux bruts'!I28-'Totaux nationaux bruts'!I27))</f>
-        <v/>
-      </c>
-      <c r="L28" s="10" t="str">
+      <c r="K28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>19/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43881</v>
       </c>
@@ -30402,16 +30055,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H29),"",IF(ISBLANK('Totaux nationaux bruts'!H28),"",'Totaux nationaux bruts'!H29-'Totaux nationaux bruts'!H28))</f>
         <v/>
       </c>
-      <c r="K29" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I29),"",IF(ISBLANK('Totaux nationaux bruts'!I28),"",'Totaux nationaux bruts'!I29-'Totaux nationaux bruts'!I28))</f>
-        <v/>
-      </c>
-      <c r="L29" s="10" t="str">
+      <c r="K29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20/02/2020,,7,,,0,,,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20/02/2020,,7,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43882</v>
       </c>
@@ -30445,16 +30094,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H30),"",IF(ISBLANK('Totaux nationaux bruts'!H29),"",'Totaux nationaux bruts'!H30-'Totaux nationaux bruts'!H29))</f>
         <v/>
       </c>
-      <c r="K30" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I30),"",IF(ISBLANK('Totaux nationaux bruts'!I29),"",'Totaux nationaux bruts'!I30-'Totaux nationaux bruts'!I29))</f>
-        <v/>
-      </c>
-      <c r="L30" s="10" t="str">
+      <c r="K30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>21/02/2020,,-10,,,0,,,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>21/02/2020,,-10,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43883</v>
       </c>
@@ -30488,16 +30133,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H31),"",IF(ISBLANK('Totaux nationaux bruts'!H30),"",'Totaux nationaux bruts'!H31-'Totaux nationaux bruts'!H30))</f>
         <v/>
       </c>
-      <c r="K31" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I31),"",IF(ISBLANK('Totaux nationaux bruts'!I30),"",'Totaux nationaux bruts'!I31-'Totaux nationaux bruts'!I30))</f>
-        <v/>
-      </c>
-      <c r="L31" s="10" t="str">
+      <c r="K31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>22/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43884</v>
       </c>
@@ -30531,16 +30172,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H32),"",IF(ISBLANK('Totaux nationaux bruts'!H31),"",'Totaux nationaux bruts'!H32-'Totaux nationaux bruts'!H31))</f>
         <v/>
       </c>
-      <c r="K32" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I32),"",IF(ISBLANK('Totaux nationaux bruts'!I31),"",'Totaux nationaux bruts'!I32-'Totaux nationaux bruts'!I31))</f>
-        <v/>
-      </c>
-      <c r="L32" s="10" t="str">
+      <c r="K32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>23/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43885</v>
       </c>
@@ -30574,16 +30211,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H33),"",IF(ISBLANK('Totaux nationaux bruts'!H32),"",'Totaux nationaux bruts'!H33-'Totaux nationaux bruts'!H32))</f>
         <v/>
       </c>
-      <c r="K33" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I33),"",IF(ISBLANK('Totaux nationaux bruts'!I32),"",'Totaux nationaux bruts'!I33-'Totaux nationaux bruts'!I32))</f>
-        <v/>
-      </c>
-      <c r="L33" s="10" t="str">
+      <c r="K33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>24/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43886</v>
       </c>
@@ -30617,16 +30250,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H34),"",IF(ISBLANK('Totaux nationaux bruts'!H33),"",'Totaux nationaux bruts'!H34-'Totaux nationaux bruts'!H33))</f>
         <v/>
       </c>
-      <c r="K34" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I34),"",IF(ISBLANK('Totaux nationaux bruts'!I33),"",'Totaux nationaux bruts'!I34-'Totaux nationaux bruts'!I33))</f>
-        <v/>
-      </c>
-      <c r="L34" s="10" t="str">
+      <c r="K34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>25/02/2020,,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25/02/2020,,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43887</v>
       </c>
@@ -30660,16 +30289,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H35),"",IF(ISBLANK('Totaux nationaux bruts'!H34),"",'Totaux nationaux bruts'!H35-'Totaux nationaux bruts'!H34))</f>
         <v/>
       </c>
-      <c r="K35" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I35),"",IF(ISBLANK('Totaux nationaux bruts'!I34),"",'Totaux nationaux bruts'!I35-'Totaux nationaux bruts'!I34))</f>
-        <v/>
-      </c>
-      <c r="L35" s="10" t="str">
+      <c r="K35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>26/02/2020,4,2,,,1,,,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26/02/2020,4,2,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>43888</v>
       </c>
@@ -30703,16 +30328,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H36),"",IF(ISBLANK('Totaux nationaux bruts'!H35),"",'Totaux nationaux bruts'!H36-'Totaux nationaux bruts'!H35))</f>
         <v/>
       </c>
-      <c r="K36" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I36),"",IF(ISBLANK('Totaux nationaux bruts'!I35),"",'Totaux nationaux bruts'!I36-'Totaux nationaux bruts'!I35))</f>
-        <v/>
-      </c>
-      <c r="L36" s="10" t="str">
+      <c r="K36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>27/02/2020,20,20,,,0,,,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27/02/2020,20,20,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>43889</v>
       </c>
@@ -30746,16 +30367,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H37),"",IF(ISBLANK('Totaux nationaux bruts'!H36),"",'Totaux nationaux bruts'!H37-'Totaux nationaux bruts'!H36))</f>
         <v/>
       </c>
-      <c r="K37" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I37),"",IF(ISBLANK('Totaux nationaux bruts'!I36),"",'Totaux nationaux bruts'!I37-'Totaux nationaux bruts'!I36))</f>
-        <v/>
-      </c>
-      <c r="L37" s="10" t="str">
+      <c r="K37" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>28/02/2020,19,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28/02/2020,19,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>43890</v>
       </c>
@@ -30789,16 +30406,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H38),"",IF(ISBLANK('Totaux nationaux bruts'!H37),"",'Totaux nationaux bruts'!H38-'Totaux nationaux bruts'!H37))</f>
         <v/>
       </c>
-      <c r="K38" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I38),"",IF(ISBLANK('Totaux nationaux bruts'!I37),"",'Totaux nationaux bruts'!I38-'Totaux nationaux bruts'!I37))</f>
-        <v/>
-      </c>
-      <c r="L38" s="10" t="str">
+      <c r="K38" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>29/02/2020,43,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29/02/2020,43,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>43891</v>
       </c>
@@ -30832,16 +30445,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H39),"",IF(ISBLANK('Totaux nationaux bruts'!H38),"",'Totaux nationaux bruts'!H39-'Totaux nationaux bruts'!H38))</f>
         <v/>
       </c>
-      <c r="K39" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I39),"",IF(ISBLANK('Totaux nationaux bruts'!I38),"",'Totaux nationaux bruts'!I39-'Totaux nationaux bruts'!I38))</f>
-        <v/>
-      </c>
-      <c r="L39" s="10" t="str">
+      <c r="K39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>01/03/2020,30,30,,,0,,,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>01/03/2020,30,30,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>43892</v>
       </c>
@@ -30875,16 +30484,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H40),"",IF(ISBLANK('Totaux nationaux bruts'!H39),"",'Totaux nationaux bruts'!H40-'Totaux nationaux bruts'!H39))</f>
         <v/>
       </c>
-      <c r="K40" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I40),"",IF(ISBLANK('Totaux nationaux bruts'!I39),"",'Totaux nationaux bruts'!I40-'Totaux nationaux bruts'!I39))</f>
-        <v/>
-      </c>
-      <c r="L40" s="10" t="str">
+      <c r="K40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>02/03/2020,61,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>02/03/2020,61,,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>43893</v>
       </c>
@@ -30918,16 +30523,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H41),"",IF(ISBLANK('Totaux nationaux bruts'!H40),"",'Totaux nationaux bruts'!H41-'Totaux nationaux bruts'!H40))</f>
         <v/>
       </c>
-      <c r="K41" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I41),"",IF(ISBLANK('Totaux nationaux bruts'!I40),"",'Totaux nationaux bruts'!I41-'Totaux nationaux bruts'!I40))</f>
-        <v/>
-      </c>
-      <c r="L41" s="10" t="str">
+      <c r="K41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>03/03/2020,21,,,,1,,,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>03/03/2020,21,,,,,,1,,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>43894</v>
       </c>
@@ -30961,16 +30562,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H42),"",IF(ISBLANK('Totaux nationaux bruts'!H41),"",'Totaux nationaux bruts'!H42-'Totaux nationaux bruts'!H41))</f>
         <v/>
       </c>
-      <c r="K42" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I42),"",IF(ISBLANK('Totaux nationaux bruts'!I41),"",'Totaux nationaux bruts'!I42-'Totaux nationaux bruts'!I41))</f>
-        <v/>
-      </c>
-      <c r="L42" s="10" t="str">
+      <c r="K42" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>04/03/2020,73,,,,0,,,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>04/03/2020,73,,,,,,0,,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>43895</v>
       </c>
@@ -31004,16 +30601,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H43),"",IF(ISBLANK('Totaux nationaux bruts'!H42),"",'Totaux nationaux bruts'!H43-'Totaux nationaux bruts'!H42))</f>
         <v/>
       </c>
-      <c r="K43" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I43),"",IF(ISBLANK('Totaux nationaux bruts'!I42),"",'Totaux nationaux bruts'!I43-'Totaux nationaux bruts'!I42))</f>
-        <v/>
-      </c>
-      <c r="L43" s="10" t="str">
+      <c r="K43" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>05/03/2020,138,,,8,3,,,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>05/03/2020,138,,,,8,,3,,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>43896</v>
       </c>
@@ -31047,16 +30640,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H44),"",IF(ISBLANK('Totaux nationaux bruts'!H43),"",'Totaux nationaux bruts'!H44-'Totaux nationaux bruts'!H43))</f>
         <v/>
       </c>
-      <c r="K44" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I44),"",IF(ISBLANK('Totaux nationaux bruts'!I43),"",'Totaux nationaux bruts'!I44-'Totaux nationaux bruts'!I43))</f>
-        <v/>
-      </c>
-      <c r="L44" s="10" t="str">
+      <c r="K44" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>06/03/2020,190,,,16,2,,,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>06/03/2020,190,,,,16,,2,,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>43897</v>
       </c>
@@ -31090,16 +30679,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H45),"",IF(ISBLANK('Totaux nationaux bruts'!H44),"",'Totaux nationaux bruts'!H45-'Totaux nationaux bruts'!H44))</f>
         <v/>
       </c>
-      <c r="K45" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I45),"",IF(ISBLANK('Totaux nationaux bruts'!I44),"",'Totaux nationaux bruts'!I45-'Totaux nationaux bruts'!I44))</f>
-        <v/>
-      </c>
-      <c r="L45" s="10" t="str">
+      <c r="K45" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>07/03/2020,336,,,6,7,,,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>07/03/2020,336,,,,6,,7,,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>43898</v>
       </c>
@@ -31133,16 +30718,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H46),"",IF(ISBLANK('Totaux nationaux bruts'!H45),"",'Totaux nationaux bruts'!H46-'Totaux nationaux bruts'!H45))</f>
         <v/>
       </c>
-      <c r="K46" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I46),"",IF(ISBLANK('Totaux nationaux bruts'!I45),"",'Totaux nationaux bruts'!I46-'Totaux nationaux bruts'!I45))</f>
-        <v/>
-      </c>
-      <c r="L46" s="10" t="str">
+      <c r="K46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>08/03/2020,177,,,,3,,,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>08/03/2020,177,,,,,,3,,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>43899</v>
       </c>
@@ -31176,16 +30757,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H47),"",IF(ISBLANK('Totaux nationaux bruts'!H46),"",'Totaux nationaux bruts'!H47-'Totaux nationaux bruts'!H46))</f>
         <v/>
       </c>
-      <c r="K47" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I47),"",IF(ISBLANK('Totaux nationaux bruts'!I46),"",'Totaux nationaux bruts'!I47-'Totaux nationaux bruts'!I46))</f>
-        <v/>
-      </c>
-      <c r="L47" s="10" t="str">
+      <c r="K47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>09/03/2020,286,,,,6,,,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>09/03/2020,286,,,,,,6,,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>43900</v>
       </c>
@@ -31219,16 +30796,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H48),"",IF(ISBLANK('Totaux nationaux bruts'!H47),"",'Totaux nationaux bruts'!H48-'Totaux nationaux bruts'!H47))</f>
         <v/>
       </c>
-      <c r="K48" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I48),"",IF(ISBLANK('Totaux nationaux bruts'!I47),"",'Totaux nationaux bruts'!I48-'Totaux nationaux bruts'!I47))</f>
-        <v/>
-      </c>
-      <c r="L48" s="10" t="str">
+      <c r="K48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>10/03/2020,372,,,20,8,,,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10/03/2020,372,,,,20,,8,,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>43901</v>
       </c>
@@ -31262,16 +30835,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H49),"",IF(ISBLANK('Totaux nationaux bruts'!H48),"",'Totaux nationaux bruts'!H49-'Totaux nationaux bruts'!H48))</f>
         <v/>
       </c>
-      <c r="K49" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I49),"",IF(ISBLANK('Totaux nationaux bruts'!I48),"",'Totaux nationaux bruts'!I49-'Totaux nationaux bruts'!I48))</f>
-        <v/>
-      </c>
-      <c r="L49" s="10" t="str">
+      <c r="K49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>11/03/2020,497,,,19,15,,,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11/03/2020,497,,,,19,,15,,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>43902</v>
       </c>
@@ -31305,16 +30874,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H50),"",IF(ISBLANK('Totaux nationaux bruts'!H49),"",'Totaux nationaux bruts'!H50-'Totaux nationaux bruts'!H49))</f>
         <v/>
       </c>
-      <c r="K50" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I50),"",IF(ISBLANK('Totaux nationaux bruts'!I49),"",'Totaux nationaux bruts'!I50-'Totaux nationaux bruts'!I49))</f>
-        <v/>
-      </c>
-      <c r="L50" s="10" t="str">
+      <c r="K50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>12/03/2020,595,,,24,13,,,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12/03/2020,595,,,,24,,13,,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>43903</v>
       </c>
@@ -31348,16 +30913,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H51),"",IF(ISBLANK('Totaux nationaux bruts'!H50),"",'Totaux nationaux bruts'!H51-'Totaux nationaux bruts'!H50))</f>
         <v/>
       </c>
-      <c r="K51" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I51),"",IF(ISBLANK('Totaux nationaux bruts'!I50),"",'Totaux nationaux bruts'!I51-'Totaux nationaux bruts'!I50))</f>
-        <v/>
-      </c>
-      <c r="L51" s="10" t="str">
+      <c r="K51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>13/03/2020,785,,,25,18,,,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13/03/2020,785,,,,25,,18,,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>43904</v>
       </c>
@@ -31391,16 +30952,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H52),"",IF(ISBLANK('Totaux nationaux bruts'!H51),"",'Totaux nationaux bruts'!H52-'Totaux nationaux bruts'!H51))</f>
         <v/>
       </c>
-      <c r="K52" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I52),"",IF(ISBLANK('Totaux nationaux bruts'!I51),"",'Totaux nationaux bruts'!I52-'Totaux nationaux bruts'!I51))</f>
-        <v/>
-      </c>
-      <c r="L52" s="10" t="str">
+      <c r="K52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>14/03/2020,839,,,146,12,,,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14/03/2020,839,,,,146,,12,,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>43905</v>
       </c>
@@ -31434,16 +30991,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H53),"",IF(ISBLANK('Totaux nationaux bruts'!H52),"",'Totaux nationaux bruts'!H53-'Totaux nationaux bruts'!H52))</f>
         <v/>
       </c>
-      <c r="K53" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I53),"",IF(ISBLANK('Totaux nationaux bruts'!I52),"",'Totaux nationaux bruts'!I53-'Totaux nationaux bruts'!I52))</f>
-        <v/>
-      </c>
-      <c r="L53" s="10" t="str">
+      <c r="K53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>15/03/2020,1878,,,,70,,,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15/03/2020,1878,,,,,,70,,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>43906</v>
       </c>
@@ -31477,16 +31030,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H54),"",IF(ISBLANK('Totaux nationaux bruts'!H53),"",'Totaux nationaux bruts'!H54-'Totaux nationaux bruts'!H53))</f>
         <v/>
       </c>
-      <c r="K54" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I54),"",IF(ISBLANK('Totaux nationaux bruts'!I53),"",'Totaux nationaux bruts'!I54-'Totaux nationaux bruts'!I53))</f>
-        <v/>
-      </c>
-      <c r="L54" s="10" t="str">
+      <c r="K54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>16/03/2020,255,,,,-13,,,</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16/03/2020,255,,,,,,-13,,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>43907</v>
       </c>
@@ -31520,16 +31069,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H55),"",IF(ISBLANK('Totaux nationaux bruts'!H54),"",'Totaux nationaux bruts'!H55-'Totaux nationaux bruts'!H54))</f>
         <v/>
       </c>
-      <c r="K55" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I55),"",IF(ISBLANK('Totaux nationaux bruts'!I54),"",'Totaux nationaux bruts'!I55-'Totaux nationaux bruts'!I54))</f>
-        <v/>
-      </c>
-      <c r="L55" s="10" t="str">
+      <c r="K55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>17/03/2020,1097,,,,27,,,</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>17/03/2020,1097,,,,,,27,,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>43908</v>
       </c>
@@ -31563,16 +31108,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H56),"",IF(ISBLANK('Totaux nationaux bruts'!H55),"",'Totaux nationaux bruts'!H56-'Totaux nationaux bruts'!H55))</f>
         <v/>
       </c>
-      <c r="K56" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I56),"",IF(ISBLANK('Totaux nationaux bruts'!I55),"",'Totaux nationaux bruts'!I56-'Totaux nationaux bruts'!I55))</f>
-        <v/>
-      </c>
-      <c r="L56" s="10" t="str">
+      <c r="K56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>18/03/2020,1404,1047,398,232,89,,,</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18/03/2020,1404,1047,,398,232,,89,,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>43909</v>
       </c>
@@ -31610,16 +31151,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H57),"",IF(ISBLANK('Totaux nationaux bruts'!H56),"",'Totaux nationaux bruts'!H57-'Totaux nationaux bruts'!H56))</f>
         <v/>
       </c>
-      <c r="K57" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I57),"",IF(ISBLANK('Totaux nationaux bruts'!I56),"",'Totaux nationaux bruts'!I57-'Totaux nationaux bruts'!I56))</f>
-        <v/>
-      </c>
-      <c r="L57" s="10" t="str">
+      <c r="K57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>19/03/2020,1861,835,300,191,108,,,</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19/03/2020,1861,835,2229,300,191,438,108,,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>43910</v>
       </c>
@@ -31657,16 +31194,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H58),"",IF(ISBLANK('Totaux nationaux bruts'!H57),"",'Totaux nationaux bruts'!H58-'Totaux nationaux bruts'!H57))</f>
         <v/>
       </c>
-      <c r="K58" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I58),"",IF(ISBLANK('Totaux nationaux bruts'!I57),"",'Totaux nationaux bruts'!I58-'Totaux nationaux bruts'!I57))</f>
-        <v/>
-      </c>
-      <c r="L58" s="10" t="str">
+      <c r="K58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>20/03/2020,1617,765,287,175,78,,,</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20/03/2020,1617,765,1256,287,175,242,78,,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>43911</v>
       </c>
@@ -31704,16 +31237,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H59),"",IF(ISBLANK('Totaux nationaux bruts'!H58),"",'Totaux nationaux bruts'!H59-'Totaux nationaux bruts'!H58))</f>
         <v/>
       </c>
-      <c r="K59" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I59),"",IF(ISBLANK('Totaux nationaux bruts'!I58),"",'Totaux nationaux bruts'!I59-'Totaux nationaux bruts'!I58))</f>
-        <v/>
-      </c>
-      <c r="L59" s="10" t="str">
+      <c r="K59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>21/03/2020,1847,946,224,228,112,,,</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>21/03/2020,1847,946,1540,224,228,298,112,,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>43912</v>
       </c>
@@ -31751,16 +31280,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H60),"",IF(ISBLANK('Totaux nationaux bruts'!H59),"",'Totaux nationaux bruts'!H60-'Totaux nationaux bruts'!H59))</f>
         <v/>
       </c>
-      <c r="K60" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I60),"",IF(ISBLANK('Totaux nationaux bruts'!I59),"",'Totaux nationaux bruts'!I60-'Totaux nationaux bruts'!I59))</f>
-        <v/>
-      </c>
-      <c r="L60" s="10" t="str">
+      <c r="K60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>22/03/2020,2230,1068,389,221,112,,,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22/03/2020,2230,1068,1534,389,221,309,112,,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>43913</v>
       </c>
@@ -31798,16 +31323,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H61),"",IF(ISBLANK('Totaux nationaux bruts'!H60),"",'Totaux nationaux bruts'!H61-'Totaux nationaux bruts'!H60))</f>
         <v/>
       </c>
-      <c r="K61" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I61),"",IF(ISBLANK('Totaux nationaux bruts'!I60),"",'Totaux nationaux bruts'!I61-'Totaux nationaux bruts'!I60))</f>
-        <v/>
-      </c>
-      <c r="L61" s="10" t="str">
+      <c r="K61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>23/03/2020,3167,1435,367,336,186,,,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23/03/2020,3167,1435,2053,367,336,448,186,,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>43914</v>
       </c>
@@ -31845,16 +31366,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H62),"",IF(ISBLANK('Totaux nationaux bruts'!H61),"",'Totaux nationaux bruts'!H62-'Totaux nationaux bruts'!H61))</f>
         <v/>
       </c>
-      <c r="K62" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I62),"",IF(ISBLANK('Totaux nationaux bruts'!I61),"",'Totaux nationaux bruts'!I62-'Totaux nationaux bruts'!I61))</f>
-        <v/>
-      </c>
-      <c r="L62" s="10" t="str">
+      <c r="K62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>24/03/2020,2446,1501,714,434,240,,,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24/03/2020,2446,1501,2618,714,434,571,240,,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>43915</v>
       </c>
@@ -31892,16 +31409,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H63),"",IF(ISBLANK('Totaux nationaux bruts'!H62),"",'Totaux nationaux bruts'!H63-'Totaux nationaux bruts'!H62))</f>
         <v/>
       </c>
-      <c r="K63" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I63),"",IF(ISBLANK('Totaux nationaux bruts'!I62),"",'Totaux nationaux bruts'!I63-'Totaux nationaux bruts'!I62))</f>
-        <v/>
-      </c>
-      <c r="L63" s="10" t="str">
+      <c r="K63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>25/03/2020,2931,1363,619,311,231,,,</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25/03/2020,2931,1363,3166,619,311,607,231,,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>43916</v>
       </c>
@@ -31939,16 +31452,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H64),"",IF(ISBLANK('Totaux nationaux bruts'!H63),"",'Totaux nationaux bruts'!H64-'Totaux nationaux bruts'!H63))</f>
         <v/>
       </c>
-      <c r="K64" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I64),"",IF(ISBLANK('Totaux nationaux bruts'!I63),"",'Totaux nationaux bruts'!I64-'Totaux nationaux bruts'!I63))</f>
-        <v/>
-      </c>
-      <c r="L64" s="10" t="str">
+      <c r="K64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>26/03/2020,3922,2365,1048,548,365,,,</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26/03/2020,3922,2365,3097,1048,548,612,365,,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>43917</v>
       </c>
@@ -31986,16 +31495,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H65),"",IF(ISBLANK('Totaux nationaux bruts'!H64),"",'Totaux nationaux bruts'!H65-'Totaux nationaux bruts'!H64))</f>
         <v/>
       </c>
-      <c r="K65" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I65),"",IF(ISBLANK('Totaux nationaux bruts'!I64),"",'Totaux nationaux bruts'!I65-'Totaux nationaux bruts'!I64))</f>
-        <v/>
-      </c>
-      <c r="L65" s="10" t="str">
-        <f t="shared" ref="L65:L115" si="1">TEXT(A65,"jj/mm/aaaa")&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65</f>
-        <v>27/03/2020,3809,1828,750,412,299,,,</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>27/03/2020,3809,1828,3059,750,412,608,299,,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>43918</v>
       </c>
@@ -32033,16 +31538,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H66),"",IF(ISBLANK('Totaux nationaux bruts'!H65),"",'Totaux nationaux bruts'!H66-'Totaux nationaux bruts'!H65))</f>
         <v/>
       </c>
-      <c r="K66" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I66),"",IF(ISBLANK('Totaux nationaux bruts'!I65),"",'Totaux nationaux bruts'!I66-'Totaux nationaux bruts'!I65))</f>
-        <v/>
-      </c>
-      <c r="L66" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>28/03/2020,4611,1888,926,486,319,,,</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K66" s="10" t="str">
+        <f t="shared" ref="K66:K129" si="1">TEXT(A66,"jj/mm/aaaa")&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66&amp;","&amp;F66&amp;","&amp;G66&amp;","&amp;H66&amp;","&amp;I66&amp;","&amp;J66</f>
+        <v>28/03/2020,4611,1888,3353,926,486,695,319,,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>43919</v>
       </c>
@@ -32080,16 +31581,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H67),"",IF(ISBLANK('Totaux nationaux bruts'!H66),"",'Totaux nationaux bruts'!H67-'Totaux nationaux bruts'!H66))</f>
         <v/>
       </c>
-      <c r="K67" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I67),"",IF(ISBLANK('Totaux nationaux bruts'!I66),"",'Totaux nationaux bruts'!I67-'Totaux nationaux bruts'!I66))</f>
-        <v/>
-      </c>
-      <c r="L67" s="10" t="str">
+      <c r="K67" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>29/03/2020,2599,1734,507,359,292,,,</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29/03/2020,2599,1734,2685,507,359,543,292,,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>43920</v>
       </c>
@@ -32127,16 +31624,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H68),"",IF(ISBLANK('Totaux nationaux bruts'!H67),"",'Totaux nationaux bruts'!H68-'Totaux nationaux bruts'!H67))</f>
         <v/>
       </c>
-      <c r="K68" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I68),"",IF(ISBLANK('Totaux nationaux bruts'!I67),"",'Totaux nationaux bruts'!I68-'Totaux nationaux bruts'!I67))</f>
-        <v/>
-      </c>
-      <c r="L68" s="10" t="str">
+      <c r="K68" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>30/03/2020,4376,1654,793,475,418,,,</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>30/03/2020,4376,1654,3108,793,475,694,418,,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>43921</v>
       </c>
@@ -32174,16 +31667,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H69),"",IF(ISBLANK('Totaux nationaux bruts'!H68),"",'Totaux nationaux bruts'!H69-'Totaux nationaux bruts'!H68))</f>
         <v/>
       </c>
-      <c r="K69" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I69),"",IF(ISBLANK('Totaux nationaux bruts'!I68),"",'Totaux nationaux bruts'!I69-'Totaux nationaux bruts'!I68))</f>
-        <v/>
-      </c>
-      <c r="L69" s="10" t="str">
+      <c r="K69" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>31/03/2020,7578,1749,1520,458,499,,,</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>31/03/2020,7578,1749,4145,1520,458,767,499,,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>43922</v>
       </c>
@@ -32221,16 +31710,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H70),"",IF(ISBLANK('Totaux nationaux bruts'!H69),"",'Totaux nationaux bruts'!H70-'Totaux nationaux bruts'!H69))</f>
         <v/>
       </c>
-      <c r="K70" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I70),"",IF(ISBLANK('Totaux nationaux bruts'!I69),"",'Totaux nationaux bruts'!I70-'Totaux nationaux bruts'!I69))</f>
-        <v/>
-      </c>
-      <c r="L70" s="10" t="str">
+      <c r="K70" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>01/04/2020,4861,1882,1491,452,509,,,</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>01/04/2020,4861,1882,4281,1491,452,771,509,,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>43923</v>
       </c>
@@ -32264,20 +31749,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G71),"",IF(ISBLANK('Totaux nationaux bruts'!G70),"",'Totaux nationaux bruts'!G71-'Totaux nationaux bruts'!G70))</f>
         <v/>
       </c>
-      <c r="J71" s="52" t="str">
+      <c r="J71" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H71),"",IF(ISBLANK('Totaux nationaux bruts'!H70),"",'Totaux nationaux bruts'!H71-'Totaux nationaux bruts'!H70))</f>
-        <v/>
-      </c>
-      <c r="K71" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I71),"",IF(ISBLANK('Totaux nationaux bruts'!I70),"",'Totaux nationaux bruts'!I71-'Totaux nationaux bruts'!I70))</f>
         <v>513</v>
       </c>
-      <c r="L71" s="10" t="str">
+      <c r="K71" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>02/04/2020,2116,1607,1493,382,471,,,513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>02/04/2020,2116,1607,3845,1493,382,728,471,,513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>43924</v>
       </c>
@@ -32311,20 +31792,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G72),"",IF(ISBLANK('Totaux nationaux bruts'!G71),"",'Totaux nationaux bruts'!G72-'Totaux nationaux bruts'!G71))</f>
         <v/>
       </c>
-      <c r="J72" s="52" t="str">
+      <c r="J72" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H72),"",IF(ISBLANK('Totaux nationaux bruts'!H71),"",'Totaux nationaux bruts'!H72-'Totaux nationaux bruts'!H71))</f>
-        <v/>
-      </c>
-      <c r="K72" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I72),"",IF(ISBLANK('Totaux nationaux bruts'!I71),"",'Totaux nationaux bruts'!I72-'Totaux nationaux bruts'!I71))</f>
         <v>532</v>
       </c>
-      <c r="L72" s="10" t="str">
+      <c r="K72" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>03/04/2020,5233,1186,1580,263,588,,,532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>03/04/2020,5233,1186,3627,1580,263,640,588,,532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>43925</v>
       </c>
@@ -32358,20 +31835,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G73),"",IF(ISBLANK('Totaux nationaux bruts'!G72),"",'Totaux nationaux bruts'!G73-'Totaux nationaux bruts'!G72))</f>
         <v/>
       </c>
-      <c r="J73" s="52" t="str">
+      <c r="J73" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H73),"",IF(ISBLANK('Totaux nationaux bruts'!H72),"",'Totaux nationaux bruts'!H73-'Totaux nationaux bruts'!H72))</f>
-        <v/>
-      </c>
-      <c r="K73" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I73),"",IF(ISBLANK('Totaux nationaux bruts'!I72),"",'Totaux nationaux bruts'!I73-'Totaux nationaux bruts'!I72))</f>
         <v>612</v>
       </c>
-      <c r="L73" s="10" t="str">
+      <c r="K73" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>04/04/2020,4267,711,1430,176,441,,,612</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>04/04/2020,4267,711,2822,1430,176,502,441,,612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>43926</v>
       </c>
@@ -32405,20 +31878,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G74),"",IF(ISBLANK('Totaux nationaux bruts'!G73),"",'Totaux nationaux bruts'!G74-'Totaux nationaux bruts'!G73))</f>
         <v/>
       </c>
-      <c r="J74" s="52" t="str">
+      <c r="J74" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H74),"",IF(ISBLANK('Totaux nationaux bruts'!H73),"",'Totaux nationaux bruts'!H74-'Totaux nationaux bruts'!H73))</f>
-        <v/>
-      </c>
-      <c r="K74" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I74),"",IF(ISBLANK('Totaux nationaux bruts'!I73),"",'Totaux nationaux bruts'!I74-'Totaux nationaux bruts'!I73))</f>
         <v>161</v>
       </c>
-      <c r="L74" s="10" t="str">
+      <c r="K74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>05/04/2020,1873,748,745,140,357,,,161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>05/04/2020,1873,748,1931,745,140,390,357,,161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>43927</v>
       </c>
@@ -32452,20 +31921,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G75),"",IF(ISBLANK('Totaux nationaux bruts'!G74),"",'Totaux nationaux bruts'!G75-'Totaux nationaux bruts'!G74))</f>
         <v/>
       </c>
-      <c r="J75" s="52" t="str">
+      <c r="J75" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H75),"",IF(ISBLANK('Totaux nationaux bruts'!H74),"",'Totaux nationaux bruts'!H75-'Totaux nationaux bruts'!H74))</f>
-        <v/>
-      </c>
-      <c r="K75" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I75),"",IF(ISBLANK('Totaux nationaux bruts'!I74),"",'Totaux nationaux bruts'!I75-'Totaux nationaux bruts'!I74))</f>
         <v>228</v>
       </c>
-      <c r="L75" s="10" t="str">
+      <c r="K75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>06/04/2020,3912,831,1067,94,605,,,228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>06/04/2020,3912,831,2754,1067,94,478,605,,228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>43928</v>
       </c>
@@ -32499,20 +31964,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G76),"",IF(ISBLANK('Totaux nationaux bruts'!G75),"",'Totaux nationaux bruts'!G76-'Totaux nationaux bruts'!G75))</f>
         <v/>
       </c>
-      <c r="J76" s="52" t="str">
+      <c r="J76" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H76),"",IF(ISBLANK('Totaux nationaux bruts'!H75),"",'Totaux nationaux bruts'!H76-'Totaux nationaux bruts'!H75))</f>
-        <v/>
-      </c>
-      <c r="K76" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I76),"",IF(ISBLANK('Totaux nationaux bruts'!I75),"",'Totaux nationaux bruts'!I76-'Totaux nationaux bruts'!I75))</f>
         <v>820</v>
       </c>
-      <c r="L76" s="10" t="str">
+      <c r="K76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>07/04/2020,3777,305,2087,59,597,,,820</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>07/04/2020,3777,305,3277,2087,59,518,597,,820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>43929</v>
       </c>
@@ -32546,20 +32007,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G77),"",IF(ISBLANK('Totaux nationaux bruts'!G76),"",'Totaux nationaux bruts'!G77-'Totaux nationaux bruts'!G76))</f>
         <v/>
       </c>
-      <c r="J77" s="52" t="str">
+      <c r="J77" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H77),"",IF(ISBLANK('Totaux nationaux bruts'!H76),"",'Totaux nationaux bruts'!H77-'Totaux nationaux bruts'!H76))</f>
-        <v/>
-      </c>
-      <c r="K77" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I77),"",IF(ISBLANK('Totaux nationaux bruts'!I76),"",'Totaux nationaux bruts'!I77-'Totaux nationaux bruts'!I76))</f>
         <v>0</v>
       </c>
-      <c r="L77" s="10" t="str">
+      <c r="K77" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>08/04/2020,3881,348,1917,17,541,,,0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>08/04/2020,3881,348,3139,1917,17,482,541,,0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>43930</v>
       </c>
@@ -32593,20 +32050,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G78),"",IF(ISBLANK('Totaux nationaux bruts'!G77),"",'Totaux nationaux bruts'!G78-'Totaux nationaux bruts'!G77))</f>
         <v/>
       </c>
-      <c r="J78" s="52" t="str">
+      <c r="J78" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H78),"",IF(ISBLANK('Totaux nationaux bruts'!H77),"",'Totaux nationaux bruts'!H78-'Totaux nationaux bruts'!H77))</f>
-        <v/>
-      </c>
-      <c r="K78" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I78),"",IF(ISBLANK('Totaux nationaux bruts'!I77),"",'Totaux nationaux bruts'!I78-'Totaux nationaux bruts'!I77))</f>
         <v>929</v>
       </c>
-      <c r="L78" s="10" t="str">
+      <c r="K78" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>09/04/2020,4286,392,1952,-82,412,,,929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>09/04/2020,4286,392,2990,1952,-82,369,412,,929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>43931</v>
       </c>
@@ -32640,20 +32093,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G79),"",IF(ISBLANK('Totaux nationaux bruts'!G78),"",'Totaux nationaux bruts'!G79-'Totaux nationaux bruts'!G78))</f>
         <v/>
       </c>
-      <c r="J79" s="52" t="str">
+      <c r="J79" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H79),"",IF(ISBLANK('Totaux nationaux bruts'!H78),"",'Totaux nationaux bruts'!H79-'Totaux nationaux bruts'!H78))</f>
-        <v/>
-      </c>
-      <c r="K79" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I79),"",IF(ISBLANK('Totaux nationaux bruts'!I78),"",'Totaux nationaux bruts'!I79-'Totaux nationaux bruts'!I78))</f>
         <v>433</v>
       </c>
-      <c r="L79" s="10" t="str">
+      <c r="K79" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>10/04/2020,4342,500,1726,-62,554,,,433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10/04/2020,4342,500,3161,1726,-62,431,554,,433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>43932</v>
       </c>
@@ -32687,20 +32136,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G80),"",IF(ISBLANK('Totaux nationaux bruts'!G79),"",'Totaux nationaux bruts'!G80-'Totaux nationaux bruts'!G79))</f>
         <v/>
       </c>
-      <c r="J80" s="52" t="str">
+      <c r="J80" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H80),"",IF(ISBLANK('Totaux nationaux bruts'!H79),"",'Totaux nationaux bruts'!H80-'Totaux nationaux bruts'!H79))</f>
-        <v/>
-      </c>
-      <c r="K80" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I80),"",IF(ISBLANK('Totaux nationaux bruts'!I79),"",'Totaux nationaux bruts'!I80-'Totaux nationaux bruts'!I79))</f>
         <v>290</v>
       </c>
-      <c r="L80" s="10" t="str">
+      <c r="K80" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>11/04/2020,3114,53,1999,-121,345,,,290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11/04/2020,3114,53,2044,1999,-121,255,345,,290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>43933</v>
       </c>
@@ -32734,20 +32179,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G81),"",IF(ISBLANK('Totaux nationaux bruts'!G80),"",'Totaux nationaux bruts'!G81-'Totaux nationaux bruts'!G80))</f>
         <v/>
       </c>
-      <c r="J81" s="52" t="str">
+      <c r="J81" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H81),"",IF(ISBLANK('Totaux nationaux bruts'!H80),"",'Totaux nationaux bruts'!H81-'Totaux nationaux bruts'!H80))</f>
-        <v/>
-      </c>
-      <c r="K81" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I81),"",IF(ISBLANK('Totaux nationaux bruts'!I80),"",'Totaux nationaux bruts'!I81-'Totaux nationaux bruts'!I80))</f>
         <v>251</v>
       </c>
-      <c r="L81" s="10" t="str">
+      <c r="K81" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>12/04/2020,1613,506,255,-38,310,,,251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12/04/2020,1613,506,1688,255,-38,220,310,,251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>43934</v>
       </c>
@@ -32779,22 +32220,18 @@
       </c>
       <c r="I82" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G82),"",IF(ISBLANK('Totaux nationaux bruts'!G81),"",'Totaux nationaux bruts'!G82-'Totaux nationaux bruts'!G81))</f>
-        <v>1515</v>
+        <v>523</v>
       </c>
       <c r="J82" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H82),"",IF(ISBLANK('Totaux nationaux bruts'!H81),"",'Totaux nationaux bruts'!H82-'Totaux nationaux bruts'!H81))</f>
-        <v>523</v>
-      </c>
-      <c r="K82" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I82),"",IF(ISBLANK('Totaux nationaux bruts'!I81),"",'Totaux nationaux bruts'!I82-'Totaux nationaux bruts'!I81))</f>
         <v>239</v>
       </c>
-      <c r="L82" s="10" t="str">
+      <c r="K82" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>13/04/2020,2673,287,532,-24,335,1515,523,239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13/04/2020,2673,287,1257,532,-24,227,335,523,239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>43935</v>
       </c>
@@ -32826,22 +32263,18 @@
       </c>
       <c r="I83" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G83),"",IF(ISBLANK('Totaux nationaux bruts'!G82),"",'Totaux nationaux bruts'!G83-'Totaux nationaux bruts'!G82))</f>
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="J83" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H83),"",IF(ISBLANK('Totaux nationaux bruts'!H82),"",'Totaux nationaux bruts'!H83-'Totaux nationaux bruts'!H82))</f>
-        <v>569</v>
-      </c>
-      <c r="K83" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I83),"",IF(ISBLANK('Totaux nationaux bruts'!I82),"",'Totaux nationaux bruts'!I83-'Totaux nationaux bruts'!I82))</f>
         <v>221</v>
       </c>
-      <c r="L83" s="10" t="str">
+      <c r="K83" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>14/04/2020,5497,179,1087,-91,541,1027,569,221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14/04/2020,5497,179,1965,1087,-91,275,541,569,221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>43936</v>
       </c>
@@ -32873,22 +32306,18 @@
       </c>
       <c r="I84" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G84),"",IF(ISBLANK('Totaux nationaux bruts'!G83),"",'Totaux nationaux bruts'!G84-'Totaux nationaux bruts'!G83))</f>
-        <v>1927</v>
+        <v>1343</v>
       </c>
       <c r="J84" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H84),"",IF(ISBLANK('Totaux nationaux bruts'!H83),"",'Totaux nationaux bruts'!H84-'Totaux nationaux bruts'!H83))</f>
-        <v>1343</v>
-      </c>
-      <c r="K84" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I84),"",IF(ISBLANK('Totaux nationaux bruts'!I83),"",'Totaux nationaux bruts'!I84-'Totaux nationaux bruts'!I83))</f>
         <v>924</v>
       </c>
-      <c r="L84" s="10" t="str">
+      <c r="K84" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>15/04/2020,2633,-513,2190,-273,514,1927,1343,924</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15/04/2020,2633,-513,2415,2190,-273,284,514,1343,924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>43937</v>
       </c>
@@ -32920,22 +32349,18 @@
       </c>
       <c r="I85" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G85),"",IF(ISBLANK('Totaux nationaux bruts'!G84),"",'Totaux nationaux bruts'!G85-'Totaux nationaux bruts'!G84))</f>
-        <v>14523</v>
+        <v>4574</v>
       </c>
       <c r="J85" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H85),"",IF(ISBLANK('Totaux nationaux bruts'!H84),"",'Totaux nationaux bruts'!H85-'Totaux nationaux bruts'!H84))</f>
-        <v>4574</v>
-      </c>
-      <c r="K85" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I85),"",IF(ISBLANK('Totaux nationaux bruts'!I84),"",'Totaux nationaux bruts'!I85-'Totaux nationaux bruts'!I84))</f>
         <v>336</v>
       </c>
-      <c r="L85" s="10" t="str">
+      <c r="K85" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>16/04/2020,2641,-474,1817,-209,417,14523,4574,336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16/04/2020,2641,-474,2084,1817,-209,270,417,4574,336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>43938</v>
       </c>
@@ -32967,22 +32392,18 @@
       </c>
       <c r="I86" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G86),"",IF(ISBLANK('Totaux nationaux bruts'!G85),"",'Totaux nationaux bruts'!G86-'Totaux nationaux bruts'!G85))</f>
-        <v>2809</v>
+        <v>1305</v>
       </c>
       <c r="J86" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H86),"",IF(ISBLANK('Totaux nationaux bruts'!H85),"",'Totaux nationaux bruts'!H86-'Totaux nationaux bruts'!H85))</f>
-        <v>1305</v>
-      </c>
-      <c r="K86" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I86),"",IF(ISBLANK('Totaux nationaux bruts'!I85),"",'Totaux nationaux bruts'!I86-'Totaux nationaux bruts'!I85))</f>
         <v>343</v>
       </c>
-      <c r="L86" s="10" t="str">
+      <c r="K86" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>17/04/2020,405,-115,1608,-221,418,2809,1305,343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>17/04/2020,405,-115,2166,1608,-221,242,418,1305,343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>43939</v>
       </c>
@@ -33014,22 +32435,18 @@
       </c>
       <c r="I87" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G87),"",IF(ISBLANK('Totaux nationaux bruts'!G86),"",'Totaux nationaux bruts'!G87-'Totaux nationaux bruts'!G86))</f>
-        <v>3146</v>
+        <v>1891</v>
       </c>
       <c r="J87" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H87),"",IF(ISBLANK('Totaux nationaux bruts'!H86),"",'Totaux nationaux bruts'!H87-'Totaux nationaux bruts'!H86))</f>
-        <v>1891</v>
-      </c>
-      <c r="K87" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I87),"",IF(ISBLANK('Totaux nationaux bruts'!I86),"",'Totaux nationaux bruts'!I87-'Totaux nationaux bruts'!I86))</f>
         <v>278</v>
       </c>
-      <c r="L87" s="10" t="str">
+      <c r="K87" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>18/04/2020,2569,-551,1563,-194,364,3146,1891,278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>18/04/2020,2569,-551,1565,1563,-194,206,364,1891,278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>43940</v>
       </c>
@@ -33061,22 +32478,18 @@
       </c>
       <c r="I88" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G88),"",IF(ISBLANK('Totaux nationaux bruts'!G87),"",'Totaux nationaux bruts'!G88-'Totaux nationaux bruts'!G87))</f>
-        <v>1201</v>
+        <v>885</v>
       </c>
       <c r="J88" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H88),"",IF(ISBLANK('Totaux nationaux bruts'!H87),"",'Totaux nationaux bruts'!H88-'Totaux nationaux bruts'!H87))</f>
-        <v>885</v>
-      </c>
-      <c r="K88" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I88),"",IF(ISBLANK('Totaux nationaux bruts'!I87),"",'Totaux nationaux bruts'!I88-'Totaux nationaux bruts'!I87))</f>
         <v>168</v>
       </c>
-      <c r="L88" s="10" t="str">
+      <c r="K88" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>19/04/2020,785,-29,595,-89,227,1201,885,168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19/04/2020,785,-29,890,595,-89,137,227,885,168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>43941</v>
       </c>
@@ -33108,22 +32521,18 @@
       </c>
       <c r="I89" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G89),"",IF(ISBLANK('Totaux nationaux bruts'!G88),"",'Totaux nationaux bruts'!G89-'Totaux nationaux bruts'!G88))</f>
-        <v>781</v>
+        <v>620</v>
       </c>
       <c r="J89" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H89),"",IF(ISBLANK('Totaux nationaux bruts'!H88),"",'Totaux nationaux bruts'!H89-'Totaux nationaux bruts'!H88))</f>
-        <v>620</v>
-      </c>
-      <c r="K89" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I89),"",IF(ISBLANK('Totaux nationaux bruts'!I88),"",'Totaux nationaux bruts'!I89-'Totaux nationaux bruts'!I88))</f>
         <v>103</v>
       </c>
-      <c r="L89" s="10" t="str">
+      <c r="K89" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>20/04/2020,2051,-26,831,-61,444,781,620,103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20/04/2020,2051,-26,1464,831,-61,208,444,620,103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>43942</v>
       </c>
@@ -33157,20 +32566,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G90),"",IF(ISBLANK('Totaux nationaux bruts'!G89),"",'Totaux nationaux bruts'!G90-'Totaux nationaux bruts'!G89))</f>
         <v/>
       </c>
-      <c r="J90" s="52" t="str">
+      <c r="J90" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H90),"",IF(ISBLANK('Totaux nationaux bruts'!H89),"",'Totaux nationaux bruts'!H90-'Totaux nationaux bruts'!H89))</f>
-        <v/>
-      </c>
-      <c r="K90" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I90),"",IF(ISBLANK('Totaux nationaux bruts'!I89),"",'Totaux nationaux bruts'!I90-'Totaux nationaux bruts'!I89))</f>
         <v>144</v>
       </c>
-      <c r="L90" s="10" t="str">
+      <c r="K90" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>21/04/2020,2667,-478,1772,-250,387,,,144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>21/04/2020,2667,-478,1885,1772,-250,190,387,,144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>43943</v>
       </c>
@@ -33204,20 +32609,16 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!G91),"",IF(ISBLANK('Totaux nationaux bruts'!G90),"",'Totaux nationaux bruts'!G91-'Totaux nationaux bruts'!G90))</f>
         <v/>
       </c>
-      <c r="J91" s="52" t="str">
+      <c r="J91" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H91),"",IF(ISBLANK('Totaux nationaux bruts'!H90),"",'Totaux nationaux bruts'!H91-'Totaux nationaux bruts'!H90))</f>
-        <v/>
-      </c>
-      <c r="K91" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I91),"",IF(ISBLANK('Totaux nationaux bruts'!I90),"",'Totaux nationaux bruts'!I91-'Totaux nationaux bruts'!I90))</f>
         <v>208</v>
       </c>
-      <c r="L91" s="10" t="str">
+      <c r="K91" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>22/04/2020,1827,-365,1476,-215,336,,,208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22/04/2020,1827,-365,1619,1476,-215,183,336,,208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>43944</v>
       </c>
@@ -33247,24 +32648,20 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!F92),"",IF(ISBLANK('Totaux nationaux bruts'!F91),"",'Totaux nationaux bruts'!F92-'Totaux nationaux bruts'!F91))</f>
         <v>311</v>
       </c>
-      <c r="I92" s="52" t="str">
+      <c r="I92" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G92),"",IF(ISBLANK('Totaux nationaux bruts'!G91),"",'Totaux nationaux bruts'!G92-'Totaux nationaux bruts'!G91))</f>
-        <v/>
+        <v>1327</v>
       </c>
       <c r="J92" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H92),"",IF(ISBLANK('Totaux nationaux bruts'!H91),"",'Totaux nationaux bruts'!H92-'Totaux nationaux bruts'!H91))</f>
-        <v>1327</v>
-      </c>
-      <c r="K92" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I92),"",IF(ISBLANK('Totaux nationaux bruts'!I91),"",'Totaux nationaux bruts'!I92-'Totaux nationaux bruts'!I91))</f>
         <v>205</v>
       </c>
-      <c r="L92" s="10" t="str">
+      <c r="K92" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>23/04/2020,1653,-522,1431,-165,311,,1327,205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23/04/2020,1653,-522,1410,1431,-165,178,311,1327,205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>43945</v>
       </c>
@@ -33296,22 +32693,18 @@
       </c>
       <c r="I93" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G93),"",IF(ISBLANK('Totaux nationaux bruts'!G92),"",'Totaux nationaux bruts'!G93-'Totaux nationaux bruts'!G92))</f>
-        <v>912</v>
+        <v>1040</v>
       </c>
       <c r="J93" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H93),"",IF(ISBLANK('Totaux nationaux bruts'!H92),"",'Totaux nationaux bruts'!H93-'Totaux nationaux bruts'!H92))</f>
-        <v>1040</v>
-      </c>
-      <c r="K93" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I93),"",IF(ISBLANK('Totaux nationaux bruts'!I92),"",'Totaux nationaux bruts'!I93-'Totaux nationaux bruts'!I92))</f>
         <v>84</v>
       </c>
-      <c r="L93" s="10" t="str">
+      <c r="K93" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>24/04/2020,1773,-561,1405,-183,305,912,1040,84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24/04/2020,1773,-561,1346,1405,-183,155,305,1040,84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>43946</v>
       </c>
@@ -33343,22 +32736,18 @@
       </c>
       <c r="I94" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G94),"",IF(ISBLANK('Totaux nationaux bruts'!G93),"",'Totaux nationaux bruts'!G94-'Totaux nationaux bruts'!G93))</f>
-        <v>1369</v>
+        <v>1246</v>
       </c>
       <c r="J94" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H94),"",IF(ISBLANK('Totaux nationaux bruts'!H93),"",'Totaux nationaux bruts'!H94-'Totaux nationaux bruts'!H93))</f>
-        <v>1246</v>
-      </c>
-      <c r="K94" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I94),"",IF(ISBLANK('Totaux nationaux bruts'!I93),"",'Totaux nationaux bruts'!I94-'Totaux nationaux bruts'!I93))</f>
         <v>171</v>
       </c>
-      <c r="L94" s="10" t="str">
+      <c r="K94" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>25/04/2020,1537,-436,1101,-145,198,1369,1246,171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25/04/2020,1537,-436,999,1101,-145,124,198,1246,171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>43947</v>
       </c>
@@ -33390,22 +32779,18 @@
       </c>
       <c r="I95" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G95),"",IF(ISBLANK('Totaux nationaux bruts'!G94),"",'Totaux nationaux bruts'!G95-'Totaux nationaux bruts'!G94))</f>
-        <v>668</v>
+        <v>517</v>
       </c>
       <c r="J95" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H95),"",IF(ISBLANK('Totaux nationaux bruts'!H94),"",'Totaux nationaux bruts'!H95-'Totaux nationaux bruts'!H94))</f>
-        <v>517</v>
-      </c>
-      <c r="K95" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I95),"",IF(ISBLANK('Totaux nationaux bruts'!I94),"",'Totaux nationaux bruts'!I95-'Totaux nationaux bruts'!I94))</f>
         <v>90</v>
       </c>
-      <c r="L95" s="10" t="str">
+      <c r="K95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>26/04/2020,461,-5,309,-43,152,668,517,90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>26/04/2020,461,-5,481,309,-43,79,152,517,90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>43948</v>
       </c>
@@ -33437,22 +32822,18 @@
       </c>
       <c r="I96" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G96),"",IF(ISBLANK('Totaux nationaux bruts'!G95),"",'Totaux nationaux bruts'!G96-'Totaux nationaux bruts'!G95))</f>
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="J96" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H96),"",IF(ISBLANK('Totaux nationaux bruts'!H95),"",'Totaux nationaux bruts'!H96-'Totaux nationaux bruts'!H95))</f>
-        <v>584</v>
-      </c>
-      <c r="K96" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I96),"",IF(ISBLANK('Totaux nationaux bruts'!I95),"",'Totaux nationaux bruts'!I96-'Totaux nationaux bruts'!I95))</f>
         <v>142</v>
       </c>
-      <c r="L96" s="10" t="str">
+      <c r="K96" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>27/04/2020,3764,-162,610,-74,295,562,584,142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27/04/2020,3764,-162,964,610,-74,125,295,584,142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>43949</v>
       </c>
@@ -33484,22 +32865,18 @@
       </c>
       <c r="I97" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G97),"",IF(ISBLANK('Totaux nationaux bruts'!G96),"",'Totaux nationaux bruts'!G97-'Totaux nationaux bruts'!G96))</f>
-        <v>2163</v>
+        <v>590</v>
       </c>
       <c r="J97" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H97),"",IF(ISBLANK('Totaux nationaux bruts'!H96),"",'Totaux nationaux bruts'!H97-'Totaux nationaux bruts'!H96))</f>
-        <v>590</v>
-      </c>
-      <c r="K97" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I97),"",IF(ISBLANK('Totaux nationaux bruts'!I96),"",'Totaux nationaux bruts'!I97-'Totaux nationaux bruts'!I96))</f>
         <v>54</v>
       </c>
-      <c r="L97" s="10" t="str">
+      <c r="K97" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>28/04/2020,1520,-571,1373,-221,313,2163,590,54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28/04/2020,1520,-571,1321,1373,-221,153,313,590,54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>43950</v>
       </c>
@@ -33531,22 +32908,18 @@
       </c>
       <c r="I98" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G98),"",IF(ISBLANK('Totaux nationaux bruts'!G97),"",'Totaux nationaux bruts'!G98-'Totaux nationaux bruts'!G97))</f>
-        <v>-120</v>
+        <v>978</v>
       </c>
       <c r="J98" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H98),"",IF(ISBLANK('Totaux nationaux bruts'!H97),"",'Totaux nationaux bruts'!H98-'Totaux nationaux bruts'!H97))</f>
-        <v>978</v>
-      </c>
-      <c r="K98" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I98),"",IF(ISBLANK('Totaux nationaux bruts'!I97),"",'Totaux nationaux bruts'!I98-'Totaux nationaux bruts'!I97))</f>
         <v>184</v>
       </c>
-      <c r="L98" s="10" t="str">
+      <c r="K98" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>29/04/2020,-1417,-650,1342,-180,243,-120,978,184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29/04/2020,-1417,-650,1070,1342,-180,110,243,978,184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>43951</v>
       </c>
@@ -33578,22 +32951,18 @@
       </c>
       <c r="I99" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G99),"",IF(ISBLANK('Totaux nationaux bruts'!G98),"",'Totaux nationaux bruts'!G99-'Totaux nationaux bruts'!G98))</f>
-        <v>179</v>
+        <v>560</v>
       </c>
       <c r="J99" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H99),"",IF(ISBLANK('Totaux nationaux bruts'!H98),"",'Totaux nationaux bruts'!H99-'Totaux nationaux bruts'!H98))</f>
-        <v>560</v>
-      </c>
-      <c r="K99" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I99),"",IF(ISBLANK('Totaux nationaux bruts'!I98),"",'Totaux nationaux bruts'!I99-'Totaux nationaux bruts'!I98))</f>
         <v>98</v>
       </c>
-      <c r="L99" s="10" t="str">
+      <c r="K99" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>30/04/2020,1139,-551,1248,-188,191,179,560,98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>30/04/2020,1139,-551,1048,1248,-188,121,191,560,98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>43952</v>
       </c>
@@ -33625,22 +32994,18 @@
       </c>
       <c r="I100" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G100),"",IF(ISBLANK('Totaux nationaux bruts'!G99),"",'Totaux nationaux bruts'!G100-'Totaux nationaux bruts'!G99))</f>
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="J100" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H100),"",IF(ISBLANK('Totaux nationaux bruts'!H99),"",'Totaux nationaux bruts'!H100-'Totaux nationaux bruts'!H99))</f>
-        <v>436</v>
-      </c>
-      <c r="K100" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I100),"",IF(ISBLANK('Totaux nationaux bruts'!I99),"",'Totaux nationaux bruts'!I100-'Totaux nationaux bruts'!I99))</f>
         <v>93</v>
       </c>
-      <c r="L100" s="10" t="str">
+      <c r="K100" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>01/05/2020,604,-396,736,-141,125,0,436,93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>01/05/2020,604,-396,668,736,-141,73,125,436,93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>43953</v>
       </c>
@@ -33672,22 +33037,18 @@
       </c>
       <c r="I101" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G101),"",IF(ISBLANK('Totaux nationaux bruts'!G100),"",'Totaux nationaux bruts'!G101-'Totaux nationaux bruts'!G100))</f>
-        <v>736</v>
+        <v>480</v>
       </c>
       <c r="J101" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H101),"",IF(ISBLANK('Totaux nationaux bruts'!H100),"",'Totaux nationaux bruts'!H101-'Totaux nationaux bruts'!H100))</f>
-        <v>480</v>
-      </c>
-      <c r="K101" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I101),"",IF(ISBLANK('Totaux nationaux bruts'!I100),"",'Totaux nationaux bruts'!I101-'Totaux nationaux bruts'!I100))</f>
         <v>48</v>
       </c>
-      <c r="L101" s="10" t="str">
+      <c r="K101" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>02/05/2020,794,-60,350,-51,118,736,480,48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>02/05/2020,794,-60,453,350,-51,64,118,480,48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>43954</v>
       </c>
@@ -33719,22 +33080,18 @@
       </c>
       <c r="I102" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G102),"",IF(ISBLANK('Totaux nationaux bruts'!G101),"",'Totaux nationaux bruts'!G102-'Totaux nationaux bruts'!G101))</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J102" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H102),"",IF(ISBLANK('Totaux nationaux bruts'!H101),"",'Totaux nationaux bruts'!H102-'Totaux nationaux bruts'!H101))</f>
-        <v>90</v>
-      </c>
-      <c r="K102" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I102),"",IF(ISBLANK('Totaux nationaux bruts'!I101),"",'Totaux nationaux bruts'!I102-'Totaux nationaux bruts'!I101))</f>
         <v>39</v>
       </c>
-      <c r="L102" s="10" t="str">
+      <c r="K102" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>03/05/2020,308,-12,222,-8,96,79,90,39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>03/05/2020,308,-12,345,222,-8,80,96,90,39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>43955</v>
       </c>
@@ -33766,22 +33123,18 @@
       </c>
       <c r="I103" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G103),"",IF(ISBLANK('Totaux nationaux bruts'!G102),"",'Totaux nationaux bruts'!G103-'Totaux nationaux bruts'!G102))</f>
-        <v>623</v>
+        <v>430</v>
       </c>
       <c r="J103" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H103),"",IF(ISBLANK('Totaux nationaux bruts'!H102),"",'Totaux nationaux bruts'!H103-'Totaux nationaux bruts'!H102))</f>
-        <v>430</v>
-      </c>
-      <c r="K103" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I103),"",IF(ISBLANK('Totaux nationaux bruts'!I102),"",'Totaux nationaux bruts'!I103-'Totaux nationaux bruts'!I102))</f>
         <v>63</v>
       </c>
-      <c r="L103" s="10" t="str">
+      <c r="K103" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>04/05/2020,576,-267,587,-123,243,623,430,63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>04/05/2020,576,-267,689,587,-123,84,243,430,63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>43956</v>
       </c>
@@ -33813,22 +33166,18 @@
       </c>
       <c r="I104" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G104),"",IF(ISBLANK('Totaux nationaux bruts'!G103),"",'Totaux nationaux bruts'!G104-'Totaux nationaux bruts'!G103))</f>
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="J104" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H104),"",IF(ISBLANK('Totaux nationaux bruts'!H103),"",'Totaux nationaux bruts'!H104-'Totaux nationaux bruts'!H103))</f>
-        <v>317</v>
-      </c>
-      <c r="K104" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I104),"",IF(ISBLANK('Totaux nationaux bruts'!I103),"",'Totaux nationaux bruts'!I104-'Totaux nationaux bruts'!I103))</f>
         <v>96</v>
       </c>
-      <c r="L104" s="10" t="str">
+      <c r="K104" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>05/05/2020,1104,-773,1365,-266,234,302,317,96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>05/05/2020,1104,-773,987,1365,-266,111,234,317,96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>43957</v>
       </c>
@@ -33860,22 +33209,18 @@
       </c>
       <c r="I105" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G105),"",IF(ISBLANK('Totaux nationaux bruts'!G104),"",'Totaux nationaux bruts'!G105-'Totaux nationaux bruts'!G104))</f>
-        <v>-144</v>
+        <v>399</v>
       </c>
       <c r="J105" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H105),"",IF(ISBLANK('Totaux nationaux bruts'!H104),"",'Totaux nationaux bruts'!H105-'Totaux nationaux bruts'!H104))</f>
-        <v>399</v>
-      </c>
-      <c r="K105" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I105),"",IF(ISBLANK('Totaux nationaux bruts'!I104),"",'Totaux nationaux bruts'!I105-'Totaux nationaux bruts'!I104))</f>
         <v>101</v>
       </c>
-      <c r="L105" s="10" t="str">
+      <c r="K105" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>06/05/2020,4183,-792,1236,-283,177,-144,399,101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>06/05/2020,4183,-792,833,1236,-283,69,177,399,101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>43958</v>
       </c>
@@ -33907,22 +33252,18 @@
       </c>
       <c r="I106" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G106),"",IF(ISBLANK('Totaux nationaux bruts'!G105),"",'Totaux nationaux bruts'!G106-'Totaux nationaux bruts'!G105))</f>
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="J106" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H106),"",IF(ISBLANK('Totaux nationaux bruts'!H105),"",'Totaux nationaux bruts'!H106-'Totaux nationaux bruts'!H105))</f>
-        <v>146</v>
-      </c>
-      <c r="K106" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I106),"",IF(ISBLANK('Totaux nationaux bruts'!I105),"",'Totaux nationaux bruts'!I106-'Totaux nationaux bruts'!I105))</f>
         <v>29</v>
       </c>
-      <c r="L106" s="10" t="str">
+      <c r="K106" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>07/05/2020,629,-775,1055,-186,149,117,146,29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>07/05/2020,629,-775,728,1055,-186,99,149,146,29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>43959</v>
       </c>
@@ -33954,22 +33295,18 @@
       </c>
       <c r="I107" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G107),"",IF(ISBLANK('Totaux nationaux bruts'!G106),"",'Totaux nationaux bruts'!G107-'Totaux nationaux bruts'!G106))</f>
-        <v>883</v>
+        <v>237</v>
       </c>
       <c r="J107" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H107),"",IF(ISBLANK('Totaux nationaux bruts'!H106),"",'Totaux nationaux bruts'!H107-'Totaux nationaux bruts'!H106))</f>
-        <v>237</v>
-      </c>
-      <c r="K107" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I107),"",IF(ISBLANK('Totaux nationaux bruts'!I106),"",'Totaux nationaux bruts'!I107-'Totaux nationaux bruts'!I106))</f>
         <v>132</v>
       </c>
-      <c r="L107" s="10" t="str">
+      <c r="K107" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>08/05/2020,642,-484,755,-93,111,883,237,132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>08/05/2020,642,-484,510,755,-93,89,111,237,132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>43960</v>
       </c>
@@ -34001,22 +33338,18 @@
       </c>
       <c r="I108" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G108),"",IF(ISBLANK('Totaux nationaux bruts'!G107),"",'Totaux nationaux bruts'!G108-'Totaux nationaux bruts'!G107))</f>
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="J108" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H108),"",IF(ISBLANK('Totaux nationaux bruts'!H107),"",'Totaux nationaux bruts'!H108-'Totaux nationaux bruts'!H107))</f>
-        <v>156</v>
-      </c>
-      <c r="K108" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I108),"",IF(ISBLANK('Totaux nationaux bruts'!I107),"",'Totaux nationaux bruts'!I108-'Totaux nationaux bruts'!I107))</f>
         <v>4</v>
       </c>
-      <c r="L108" s="10" t="str">
+      <c r="K108" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>09/05/2020,433,-110,256,-56,76,302,156,4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>09/05/2020,433,-110,265,256,-56,38,76,156,4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>43961</v>
       </c>
@@ -34048,22 +33381,18 @@
       </c>
       <c r="I109" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G109),"",IF(ISBLANK('Totaux nationaux bruts'!G108),"",'Totaux nationaux bruts'!G109-'Totaux nationaux bruts'!G108))</f>
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="J109" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H109),"",IF(ISBLANK('Totaux nationaux bruts'!H108),"",'Totaux nationaux bruts'!H109-'Totaux nationaux bruts'!H108))</f>
-        <v>190</v>
-      </c>
-      <c r="K109" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I109),"",IF(ISBLANK('Totaux nationaux bruts'!I108),"",'Totaux nationaux bruts'!I109-'Totaux nationaux bruts'!I108))</f>
         <v>1</v>
       </c>
-      <c r="L109" s="10" t="str">
+      <c r="K109" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>10/05/2020,209,-45,179,-36,69,293,190,1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10/05/2020,209,-45,253,179,-36,38,69,190,1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>43962</v>
       </c>
@@ -34095,22 +33424,18 @@
       </c>
       <c r="I110" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G110),"",IF(ISBLANK('Totaux nationaux bruts'!G109),"",'Totaux nationaux bruts'!G110-'Totaux nationaux bruts'!G109))</f>
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="J110" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H110),"",IF(ISBLANK('Totaux nationaux bruts'!H109),"",'Totaux nationaux bruts'!H110-'Totaux nationaux bruts'!H109))</f>
-        <v>-41</v>
-      </c>
-      <c r="K110" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I110),"",IF(ISBLANK('Totaux nationaux bruts'!I109),"",'Totaux nationaux bruts'!I110-'Totaux nationaux bruts'!I109))</f>
         <v>85</v>
       </c>
-      <c r="L110" s="10" t="str">
+      <c r="K110" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>11/05/2020,456,-285,507,-64,178,-44,-41,85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11/05/2020,456,-285,523,507,-64,82,178,-41,85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>43963</v>
       </c>
@@ -34142,22 +33467,18 @@
       </c>
       <c r="I111" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G111),"",IF(ISBLANK('Totaux nationaux bruts'!G110),"",'Totaux nationaux bruts'!G111-'Totaux nationaux bruts'!G110))</f>
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="J111" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H111),"",IF(ISBLANK('Totaux nationaux bruts'!H110),"",'Totaux nationaux bruts'!H111-'Totaux nationaux bruts'!H110))</f>
-        <v>242</v>
-      </c>
-      <c r="K111" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I111),"",IF(ISBLANK('Totaux nationaux bruts'!I110),"",'Totaux nationaux bruts'!I111-'Totaux nationaux bruts'!I110))</f>
         <v>165</v>
       </c>
-      <c r="L111" s="10" t="str">
+      <c r="K111" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>12/05/2020,708,-689,1061,-170,183,336,242,165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12/05/2020,708,-689,670,1061,-170,92,183,242,165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>43964</v>
       </c>
@@ -34189,22 +33510,18 @@
       </c>
       <c r="I112" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G112),"",IF(ISBLANK('Totaux nationaux bruts'!G111),"",'Totaux nationaux bruts'!G112-'Totaux nationaux bruts'!G111))</f>
-        <v>-505</v>
+        <v>167</v>
       </c>
       <c r="J112" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H112),"",IF(ISBLANK('Totaux nationaux bruts'!H111),"",'Totaux nationaux bruts'!H112-'Totaux nationaux bruts'!H111))</f>
-        <v>167</v>
-      </c>
-      <c r="K112" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I112),"",IF(ISBLANK('Totaux nationaux bruts'!I111),"",'Totaux nationaux bruts'!I112-'Totaux nationaux bruts'!I111))</f>
         <v>-15</v>
       </c>
-      <c r="L112" s="10" t="str">
+      <c r="K112" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>13/05/2020,507,-524,888,-114,98,-505,167,-15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13/05/2020,507,-524,543,888,-114,69,98,167,-15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>43965</v>
       </c>
@@ -34236,22 +33553,18 @@
       </c>
       <c r="I113" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G113),"",IF(ISBLANK('Totaux nationaux bruts'!G112),"",'Totaux nationaux bruts'!G113-'Totaux nationaux bruts'!G112))</f>
-        <v>404</v>
+        <v>216</v>
       </c>
       <c r="J113" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H113),"",IF(ISBLANK('Totaux nationaux bruts'!H112),"",'Totaux nationaux bruts'!H113-'Totaux nationaux bruts'!H112))</f>
-        <v>216</v>
-      </c>
-      <c r="K113" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I113),"",IF(ISBLANK('Totaux nationaux bruts'!I112),"",'Totaux nationaux bruts'!I113-'Totaux nationaux bruts'!I112))</f>
         <v>228</v>
       </c>
-      <c r="L113" s="10" t="str">
+      <c r="K113" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>14/05/2020,622,-608,932,-129,123,404,216,228</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14/05/2020,622,-608,542,932,-129,52,123,216,228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>43966</v>
       </c>
@@ -34283,22 +33596,18 @@
       </c>
       <c r="I114" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G114),"",IF(ISBLANK('Totaux nationaux bruts'!G113),"",'Totaux nationaux bruts'!G114-'Totaux nationaux bruts'!G113))</f>
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="J114" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H114),"",IF(ISBLANK('Totaux nationaux bruts'!H113),"",'Totaux nationaux bruts'!H114-'Totaux nationaux bruts'!H113))</f>
-        <v>306</v>
-      </c>
-      <c r="K114" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I114),"",IF(ISBLANK('Totaux nationaux bruts'!I113),"",'Totaux nationaux bruts'!I114-'Totaux nationaux bruts'!I113))</f>
         <v>-14</v>
       </c>
-      <c r="L114" s="10" t="str">
+      <c r="K114" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>15/05/2020,563,-602,843,-96,118,379,306,-14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15/05/2020,563,-602,438,843,-96,64,118,306,-14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>43967</v>
       </c>
@@ -34330,22 +33639,18 @@
       </c>
       <c r="I115" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G115),"",IF(ISBLANK('Totaux nationaux bruts'!G114),"",'Totaux nationaux bruts'!G115-'Totaux nationaux bruts'!G114))</f>
-        <v>-464</v>
+        <v>49</v>
       </c>
       <c r="J115" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H115),"",IF(ISBLANK('Totaux nationaux bruts'!H114),"",'Totaux nationaux bruts'!H115-'Totaux nationaux bruts'!H114))</f>
-        <v>49</v>
-      </c>
-      <c r="K115" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I115),"",IF(ISBLANK('Totaux nationaux bruts'!I114),"",'Totaux nationaux bruts'!I115-'Totaux nationaux bruts'!I114))</f>
         <v>26</v>
       </c>
-      <c r="L115" s="10" t="str">
+      <c r="K115" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>16/05/2020,372,-429,618,-71,70,-464,49,26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16/05/2020,372,-429,350,618,-71,46,70,49,26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>43968</v>
       </c>
@@ -34377,22 +33682,18 @@
       </c>
       <c r="I116" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G116),"",IF(ISBLANK('Totaux nationaux bruts'!G115),"",'Totaux nationaux bruts'!G116-'Totaux nationaux bruts'!G115))</f>
-        <v>370</v>
+        <v>286</v>
       </c>
       <c r="J116" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H116),"",IF(ISBLANK('Totaux nationaux bruts'!H115),"",'Totaux nationaux bruts'!H116-'Totaux nationaux bruts'!H115))</f>
-        <v>286</v>
-      </c>
-      <c r="K116" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I116),"",IF(ISBLANK('Totaux nationaux bruts'!I115),"",'Totaux nationaux bruts'!I116-'Totaux nationaux bruts'!I115))</f>
         <v>429</v>
       </c>
-      <c r="L116" t="str">
-        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;H116&amp;","&amp;I116&amp;","&amp;J116&amp;","&amp;K116</f>
-        <v>17/05/2020,120,-71,147,-45,54,370,286,429</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K116" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>17/05/2020,120,-71,152,147,-45,24,54,286,429</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>43969</v>
       </c>
@@ -34424,22 +33725,18 @@
       </c>
       <c r="I117" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G117),"",IF(ISBLANK('Totaux nationaux bruts'!G116),"",'Totaux nationaux bruts'!G117-'Totaux nationaux bruts'!G116))</f>
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="J117" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H117),"",IF(ISBLANK('Totaux nationaux bruts'!H116),"",'Totaux nationaux bruts'!H117-'Totaux nationaux bruts'!H116))</f>
-        <v>138</v>
-      </c>
-      <c r="K117" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I117),"",IF(ISBLANK('Totaux nationaux bruts'!I116),"",'Totaux nationaux bruts'!I117-'Totaux nationaux bruts'!I116))</f>
         <v>8</v>
       </c>
-      <c r="L117" s="10" t="str">
-        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;H117&amp;","&amp;I117&amp;","&amp;J117&amp;","&amp;K117</f>
-        <v>18/05/2020,492,-346,515,-89,123,4,138,8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K117" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>18/05/2020,492,-346,375,515,-89,38,123,138,8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>43970</v>
       </c>
@@ -34471,22 +33768,18 @@
       </c>
       <c r="I118" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G118),"",IF(ISBLANK('Totaux nationaux bruts'!G117),"",'Totaux nationaux bruts'!G118-'Totaux nationaux bruts'!G117))</f>
-        <v>289</v>
+        <v>-69</v>
       </c>
       <c r="J118" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H118),"",IF(ISBLANK('Totaux nationaux bruts'!H117),"",'Totaux nationaux bruts'!H118-'Totaux nationaux bruts'!H117))</f>
-        <v>-69</v>
-      </c>
-      <c r="K118" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I118),"",IF(ISBLANK('Totaux nationaux bruts'!I117),"",'Totaux nationaux bruts'!I118-'Totaux nationaux bruts'!I117))</f>
         <v>-342</v>
       </c>
-      <c r="L118" s="10" t="str">
-        <f>TEXT(A118,"jj/mm/aaaa")&amp;","&amp;B118&amp;","&amp;C118&amp;","&amp;E118&amp;","&amp;F118&amp;","&amp;H118&amp;","&amp;I118&amp;","&amp;J118&amp;","&amp;K118</f>
-        <v>19/05/2020,524,-547,835,-104,125,289,-69,-342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K118" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>19/05/2020,524,-547,506,835,-104,69,125,-69,-342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>43971</v>
       </c>
@@ -34518,22 +33811,18 @@
       </c>
       <c r="I119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G119),"",IF(ISBLANK('Totaux nationaux bruts'!G118),"",'Totaux nationaux bruts'!G119-'Totaux nationaux bruts'!G118))</f>
-        <v>569</v>
+        <v>221</v>
       </c>
       <c r="J119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H119),"",IF(ISBLANK('Totaux nationaux bruts'!H118),"",'Totaux nationaux bruts'!H119-'Totaux nationaux bruts'!H118))</f>
-        <v>221</v>
-      </c>
-      <c r="K119" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I119),"",IF(ISBLANK('Totaux nationaux bruts'!I118),"",'Totaux nationaux bruts'!I119-'Totaux nationaux bruts'!I118))</f>
         <v>12</v>
       </c>
-      <c r="L119" s="10" t="str">
-        <f t="shared" ref="L119:L160" si="2">TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119</f>
-        <v>20/05/2020,418,-527,791,-100,98,569,221,12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K119" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>20/05/2020,418,-527,432,791,-100,43,98,221,12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>43972</v>
       </c>
@@ -34565,22 +33854,18 @@
       </c>
       <c r="I120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G120),"",IF(ISBLANK('Totaux nationaux bruts'!G119),"",'Totaux nationaux bruts'!G120-'Totaux nationaux bruts'!G119))</f>
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H120),"",IF(ISBLANK('Totaux nationaux bruts'!H119),"",'Totaux nationaux bruts'!H120-'Totaux nationaux bruts'!H119))</f>
-        <v>102</v>
-      </c>
-      <c r="K120" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I120),"",IF(ISBLANK('Totaux nationaux bruts'!I119),"",'Totaux nationaux bruts'!I120-'Totaux nationaux bruts'!I119))</f>
         <v>25</v>
       </c>
-      <c r="L120" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>21/05/2020,318,-358,504,-49,58,35,102,25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K120" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>21/05/2020,318,-358,271,504,-49,28,58,102,25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>43973</v>
       </c>
@@ -34618,16 +33903,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H121),"",IF(ISBLANK('Totaux nationaux bruts'!H120),"",'Totaux nationaux bruts'!H121-'Totaux nationaux bruts'!H120))</f>
         <v>0</v>
       </c>
-      <c r="K121" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I121),"",IF(ISBLANK('Totaux nationaux bruts'!I120),"",'Totaux nationaux bruts'!I121-'Totaux nationaux bruts'!I120))</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>22/05/2020,393,-200,351,-44,74,0,0,0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K121" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>22/05/2020,393,-200,263,351,-44,36,74,0,0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>43974</v>
       </c>
@@ -34665,16 +33946,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H122),"",IF(ISBLANK('Totaux nationaux bruts'!H121),"",'Totaux nationaux bruts'!H122-'Totaux nationaux bruts'!H121))</f>
         <v>0</v>
       </c>
-      <c r="K122" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I122),"",IF(ISBLANK('Totaux nationaux bruts'!I121),"",'Totaux nationaux bruts'!I122-'Totaux nationaux bruts'!I121))</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>23/05/2020,250,-205,338,-36,43,0,0,0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K122" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>23/05/2020,250,-205,233,338,-36,30,43,0,0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>43975</v>
       </c>
@@ -34712,16 +33989,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H123),"",IF(ISBLANK('Totaux nationaux bruts'!H122),"",'Totaux nationaux bruts'!H123-'Totaux nationaux bruts'!H122))</f>
         <v>0</v>
       </c>
-      <c r="K123" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I123),"",IF(ISBLANK('Totaux nationaux bruts'!I122),"",'Totaux nationaux bruts'!I123-'Totaux nationaux bruts'!I122))</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>24/05/2020,115,7,70,-10,35,0,0,0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K123" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>24/05/2020,115,7,121,70,-10,24,35,0,0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>43976</v>
       </c>
@@ -34759,16 +34032,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H124),"",IF(ISBLANK('Totaux nationaux bruts'!H123),"",'Totaux nationaux bruts'!H124-'Totaux nationaux bruts'!H123))</f>
         <v>0</v>
       </c>
-      <c r="K124" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I124),"",IF(ISBLANK('Totaux nationaux bruts'!I123),"",'Totaux nationaux bruts'!I124-'Totaux nationaux bruts'!I123))</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>25/05/2020,358,-387,582,-46,90,0,0,0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K124" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>25/05/2020,358,-387,342,582,-46,45,90,0,0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>43977</v>
       </c>
@@ -34800,22 +34069,18 @@
       </c>
       <c r="I125" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G125),"",IF(ISBLANK('Totaux nationaux bruts'!G124),"",'Totaux nationaux bruts'!G125-'Totaux nationaux bruts'!G124))</f>
-        <v>-114</v>
+        <v>382</v>
       </c>
       <c r="J125" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H125),"",IF(ISBLANK('Totaux nationaux bruts'!H124),"",'Totaux nationaux bruts'!H125-'Totaux nationaux bruts'!H124))</f>
-        <v>382</v>
-      </c>
-      <c r="K125" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I125),"",IF(ISBLANK('Totaux nationaux bruts'!I124),"",'Totaux nationaux bruts'!I125-'Totaux nationaux bruts'!I124))</f>
         <v>-10</v>
       </c>
-      <c r="L125" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>26/05/2020,276,-534,680,-54,83,-114,382,-10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K125" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>26/05/2020,276,-534,318,680,-54,37,83,382,-10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>43978</v>
       </c>
@@ -34851,18 +34116,14 @@
       </c>
       <c r="J126" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H126),"",IF(ISBLANK('Totaux nationaux bruts'!H125),"",'Totaux nationaux bruts'!H126-'Totaux nationaux bruts'!H125))</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I126),"",IF(ISBLANK('Totaux nationaux bruts'!I125),"",'Totaux nationaux bruts'!I126-'Totaux nationaux bruts'!I125))</f>
         <v>1</v>
       </c>
-      <c r="L126" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>27/05/2020,191,-584,705,-54,65,0,0,1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K126" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>27/05/2020,191,-584,271,705,-54,32,65,0,1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>43979</v>
       </c>
@@ -34900,16 +34161,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H127),"",IF(ISBLANK('Totaux nationaux bruts'!H126),"",'Totaux nationaux bruts'!H127-'Totaux nationaux bruts'!H126))</f>
         <v>0</v>
       </c>
-      <c r="K127" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I127),"",IF(ISBLANK('Totaux nationaux bruts'!I126),"",'Totaux nationaux bruts'!I127-'Totaux nationaux bruts'!I126))</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>28/05/2020,3325,-372,607,-72,66,0,0,0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K127" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>28/05/2020,3325,-372,253,607,-72,36,66,0,0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>43980</v>
       </c>
@@ -34941,22 +34198,18 @@
       </c>
       <c r="I128" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G128),"",IF(ISBLANK('Totaux nationaux bruts'!G127),"",'Totaux nationaux bruts'!G128-'Totaux nationaux bruts'!G127))</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J128" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H128),"",IF(ISBLANK('Totaux nationaux bruts'!H127),"",'Totaux nationaux bruts'!H128-'Totaux nationaux bruts'!H127))</f>
-        <v>38</v>
-      </c>
-      <c r="K128" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I128),"",IF(ISBLANK('Totaux nationaux bruts'!I127),"",'Totaux nationaux bruts'!I128-'Totaux nationaux bruts'!I127))</f>
         <v>-9</v>
       </c>
-      <c r="L128" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>29/05/2020,597,-613,612,-68,61,0,38,-9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K128" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>29/05/2020,597,-613,255,612,-68,29,61,38,-9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>43981</v>
       </c>
@@ -34994,16 +34247,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H129),"",IF(ISBLANK('Totaux nationaux bruts'!H128),"",'Totaux nationaux bruts'!H129-'Totaux nationaux bruts'!H128))</f>
         <v>0</v>
       </c>
-      <c r="K129" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I129),"",IF(ISBLANK('Totaux nationaux bruts'!I128),"",'Totaux nationaux bruts'!I129-'Totaux nationaux bruts'!I128))</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>30/05/2020,1828,-315,465,-36,57,0,0,0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K129" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>30/05/2020,1828,-315,227,465,-36,29,57,0,0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>43982</v>
       </c>
@@ -35041,16 +34290,12 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H130),"",IF(ISBLANK('Totaux nationaux bruts'!H129),"",'Totaux nationaux bruts'!H130-'Totaux nationaux bruts'!H129))</f>
         <v>0</v>
       </c>
-      <c r="K130" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I130),"",IF(ISBLANK('Totaux nationaux bruts'!I129),"",'Totaux nationaux bruts'!I130-'Totaux nationaux bruts'!I129))</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>31/05/2020,257,-58,87,-6,31,0,0,0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K130" s="10" t="str">
+        <f t="shared" ref="K130:K133" si="2">TEXT(A130,"jj/mm/aaaa")&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130&amp;","&amp;F130&amp;","&amp;G130&amp;","&amp;H130&amp;","&amp;I130&amp;","&amp;J130</f>
+        <v>31/05/2020,257,-58,72,87,-6,18,31,0,0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>43983</v>
       </c>
@@ -35088,564 +34333,1148 @@
         <f>IF(ISBLANK('Totaux nationaux bruts'!H131),"",IF(ISBLANK('Totaux nationaux bruts'!H130),"",'Totaux nationaux bruts'!H131-'Totaux nationaux bruts'!H130))</f>
         <v>0</v>
       </c>
-      <c r="K131" s="52">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!I131),"",IF(ISBLANK('Totaux nationaux bruts'!I130),"",'Totaux nationaux bruts'!I131-'Totaux nationaux bruts'!I130))</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="10" t="str">
+      <c r="K131" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>01/06/2020,338,-34,85,-17,31,0,0,0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>01/06/2020,338,-34,89,85,-17,9,31,0,0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>43984</v>
       </c>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="70"/>
-      <c r="F132" s="70"/>
-      <c r="G132" s="70"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="70"/>
-      <c r="J132" s="70"/>
-      <c r="K132" s="70"/>
-      <c r="L132" s="10" t="str">
+      <c r="B132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B132),"",IF(ISBLANK('Totaux nationaux bruts'!B131),"",'Totaux nationaux bruts'!B132-'Totaux nationaux bruts'!B131))</f>
+        <v>-766</v>
+      </c>
+      <c r="C132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C132),"",IF(ISBLANK('Totaux nationaux bruts'!C131),"",'Totaux nationaux bruts'!C132-'Totaux nationaux bruts'!C131))</f>
+        <v>-260</v>
+      </c>
+      <c r="D132" s="52">
+        <v>229</v>
+      </c>
+      <c r="E132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D132),"",IF(ISBLANK('Totaux nationaux bruts'!D131),"",'Totaux nationaux bruts'!D132-'Totaux nationaux bruts'!D131))</f>
+        <v>372</v>
+      </c>
+      <c r="F132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E132),"",IF(ISBLANK('Totaux nationaux bruts'!E131),"",'Totaux nationaux bruts'!E132-'Totaux nationaux bruts'!E131))</f>
+        <v>-49</v>
+      </c>
+      <c r="G132" s="52">
+        <v>33</v>
+      </c>
+      <c r="H132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F132),"",IF(ISBLANK('Totaux nationaux bruts'!F131),"",'Totaux nationaux bruts'!F132-'Totaux nationaux bruts'!F131))</f>
+        <v>84</v>
+      </c>
+      <c r="I132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G132),"",IF(ISBLANK('Totaux nationaux bruts'!G131),"",'Totaux nationaux bruts'!G132-'Totaux nationaux bruts'!G131))</f>
+        <v>132</v>
+      </c>
+      <c r="J132" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H132),"",IF(ISBLANK('Totaux nationaux bruts'!H131),"",'Totaux nationaux bruts'!H132-'Totaux nationaux bruts'!H131))</f>
+        <v>23</v>
+      </c>
+      <c r="K132" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>02/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>02/06/2020,-766,-260,229,372,-49,33,84,132,23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>43985</v>
       </c>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="70"/>
-      <c r="H133" s="70"/>
-      <c r="I133" s="70"/>
-      <c r="J133" s="70"/>
-      <c r="K133" s="70"/>
-      <c r="L133" s="10" t="str">
+      <c r="B133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B133),"",IF(ISBLANK('Totaux nationaux bruts'!B132),"",'Totaux nationaux bruts'!B133-'Totaux nationaux bruts'!B132))</f>
+        <v>352</v>
+      </c>
+      <c r="C133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C133),"",IF(ISBLANK('Totaux nationaux bruts'!C132),"",'Totaux nationaux bruts'!C133-'Totaux nationaux bruts'!C132))</f>
+        <v>-514</v>
+      </c>
+      <c r="D133" s="52">
+        <v>250</v>
+      </c>
+      <c r="E133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D133),"",IF(ISBLANK('Totaux nationaux bruts'!D132),"",'Totaux nationaux bruts'!D133-'Totaux nationaux bruts'!D132))</f>
+        <v>643</v>
+      </c>
+      <c r="F133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E133),"",IF(ISBLANK('Totaux nationaux bruts'!E132),"",'Totaux nationaux bruts'!E133-'Totaux nationaux bruts'!E132))</f>
+        <v>-43</v>
+      </c>
+      <c r="G133" s="52">
+        <v>26</v>
+      </c>
+      <c r="H133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F133),"",IF(ISBLANK('Totaux nationaux bruts'!F132),"",'Totaux nationaux bruts'!F133-'Totaux nationaux bruts'!F132))</f>
+        <v>81</v>
+      </c>
+      <c r="I133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G133),"",IF(ISBLANK('Totaux nationaux bruts'!G132),"",'Totaux nationaux bruts'!G133-'Totaux nationaux bruts'!G132))</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="52">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H133),"",IF(ISBLANK('Totaux nationaux bruts'!H132),"",'Totaux nationaux bruts'!H133-'Totaux nationaux bruts'!H132))</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>03/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>03/06/2020,352,-514,250,643,-43,26,81,0,0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>43986</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>04/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B134),"",IF(ISBLANK('Totaux nationaux bruts'!B133),"",'Totaux nationaux bruts'!B134-'Totaux nationaux bruts'!B133))</f>
+        <v/>
+      </c>
+      <c r="C134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C134),"",IF(ISBLANK('Totaux nationaux bruts'!C133),"",'Totaux nationaux bruts'!C134-'Totaux nationaux bruts'!C133))</f>
+        <v/>
+      </c>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D134),"",IF(ISBLANK('Totaux nationaux bruts'!D133),"",'Totaux nationaux bruts'!D134-'Totaux nationaux bruts'!D133))</f>
+        <v/>
+      </c>
+      <c r="F134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E134),"",IF(ISBLANK('Totaux nationaux bruts'!E133),"",'Totaux nationaux bruts'!E134-'Totaux nationaux bruts'!E133))</f>
+        <v/>
+      </c>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F134),"",IF(ISBLANK('Totaux nationaux bruts'!F133),"",'Totaux nationaux bruts'!F134-'Totaux nationaux bruts'!F133))</f>
+        <v/>
+      </c>
+      <c r="I134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G134),"",IF(ISBLANK('Totaux nationaux bruts'!G133),"",'Totaux nationaux bruts'!G134-'Totaux nationaux bruts'!G133))</f>
+        <v/>
+      </c>
+      <c r="J134" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H134),"",IF(ISBLANK('Totaux nationaux bruts'!H133),"",'Totaux nationaux bruts'!H134-'Totaux nationaux bruts'!H133))</f>
+        <v/>
+      </c>
+      <c r="K134" s="10" t="e">
+        <f>TEXT(A134,"jj/mm/aaaa")&amp;","&amp;B134&amp;","&amp;C134&amp;","&amp;E134&amp;","&amp;F134&amp;","&amp;H134&amp;","&amp;#REF!&amp;","&amp;I134&amp;","&amp;J134</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>43987</v>
       </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="70"/>
-      <c r="I135" s="70"/>
-      <c r="J135" s="70"/>
-      <c r="K135" s="70"/>
-      <c r="L135" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>05/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B135),"",IF(ISBLANK('Totaux nationaux bruts'!B134),"",'Totaux nationaux bruts'!B135-'Totaux nationaux bruts'!B134))</f>
+        <v/>
+      </c>
+      <c r="C135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C135),"",IF(ISBLANK('Totaux nationaux bruts'!C134),"",'Totaux nationaux bruts'!C135-'Totaux nationaux bruts'!C134))</f>
+        <v/>
+      </c>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D135),"",IF(ISBLANK('Totaux nationaux bruts'!D134),"",'Totaux nationaux bruts'!D135-'Totaux nationaux bruts'!D134))</f>
+        <v/>
+      </c>
+      <c r="F135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E135),"",IF(ISBLANK('Totaux nationaux bruts'!E134),"",'Totaux nationaux bruts'!E135-'Totaux nationaux bruts'!E134))</f>
+        <v/>
+      </c>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F135),"",IF(ISBLANK('Totaux nationaux bruts'!F134),"",'Totaux nationaux bruts'!F135-'Totaux nationaux bruts'!F134))</f>
+        <v/>
+      </c>
+      <c r="I135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G135),"",IF(ISBLANK('Totaux nationaux bruts'!G134),"",'Totaux nationaux bruts'!G135-'Totaux nationaux bruts'!G134))</f>
+        <v/>
+      </c>
+      <c r="J135" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H135),"",IF(ISBLANK('Totaux nationaux bruts'!H134),"",'Totaux nationaux bruts'!H135-'Totaux nationaux bruts'!H134))</f>
+        <v/>
+      </c>
+      <c r="K135" s="10" t="e">
+        <f>TEXT(A135,"jj/mm/aaaa")&amp;","&amp;B135&amp;","&amp;C135&amp;","&amp;E135&amp;","&amp;F135&amp;","&amp;H135&amp;","&amp;#REF!&amp;","&amp;I135&amp;","&amp;J135</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>43988</v>
       </c>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="70"/>
-      <c r="H136" s="70"/>
-      <c r="I136" s="70"/>
-      <c r="J136" s="70"/>
-      <c r="K136" s="70"/>
-      <c r="L136" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>06/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B136),"",IF(ISBLANK('Totaux nationaux bruts'!B135),"",'Totaux nationaux bruts'!B136-'Totaux nationaux bruts'!B135))</f>
+        <v/>
+      </c>
+      <c r="C136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C136),"",IF(ISBLANK('Totaux nationaux bruts'!C135),"",'Totaux nationaux bruts'!C136-'Totaux nationaux bruts'!C135))</f>
+        <v/>
+      </c>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D136),"",IF(ISBLANK('Totaux nationaux bruts'!D135),"",'Totaux nationaux bruts'!D136-'Totaux nationaux bruts'!D135))</f>
+        <v/>
+      </c>
+      <c r="F136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E136),"",IF(ISBLANK('Totaux nationaux bruts'!E135),"",'Totaux nationaux bruts'!E136-'Totaux nationaux bruts'!E135))</f>
+        <v/>
+      </c>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F136),"",IF(ISBLANK('Totaux nationaux bruts'!F135),"",'Totaux nationaux bruts'!F136-'Totaux nationaux bruts'!F135))</f>
+        <v/>
+      </c>
+      <c r="I136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G136),"",IF(ISBLANK('Totaux nationaux bruts'!G135),"",'Totaux nationaux bruts'!G136-'Totaux nationaux bruts'!G135))</f>
+        <v/>
+      </c>
+      <c r="J136" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H136),"",IF(ISBLANK('Totaux nationaux bruts'!H135),"",'Totaux nationaux bruts'!H136-'Totaux nationaux bruts'!H135))</f>
+        <v/>
+      </c>
+      <c r="K136" s="10" t="e">
+        <f>TEXT(A136,"jj/mm/aaaa")&amp;","&amp;B136&amp;","&amp;C136&amp;","&amp;E136&amp;","&amp;F136&amp;","&amp;H136&amp;","&amp;#REF!&amp;","&amp;I136&amp;","&amp;J136</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>43989</v>
       </c>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70"/>
-      <c r="H137" s="70"/>
-      <c r="I137" s="70"/>
-      <c r="J137" s="70"/>
-      <c r="K137" s="70"/>
-      <c r="L137" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>07/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B137),"",IF(ISBLANK('Totaux nationaux bruts'!B136),"",'Totaux nationaux bruts'!B137-'Totaux nationaux bruts'!B136))</f>
+        <v/>
+      </c>
+      <c r="C137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C137),"",IF(ISBLANK('Totaux nationaux bruts'!C136),"",'Totaux nationaux bruts'!C137-'Totaux nationaux bruts'!C136))</f>
+        <v/>
+      </c>
+      <c r="D137" s="52"/>
+      <c r="E137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D137),"",IF(ISBLANK('Totaux nationaux bruts'!D136),"",'Totaux nationaux bruts'!D137-'Totaux nationaux bruts'!D136))</f>
+        <v/>
+      </c>
+      <c r="F137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E137),"",IF(ISBLANK('Totaux nationaux bruts'!E136),"",'Totaux nationaux bruts'!E137-'Totaux nationaux bruts'!E136))</f>
+        <v/>
+      </c>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F137),"",IF(ISBLANK('Totaux nationaux bruts'!F136),"",'Totaux nationaux bruts'!F137-'Totaux nationaux bruts'!F136))</f>
+        <v/>
+      </c>
+      <c r="I137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G137),"",IF(ISBLANK('Totaux nationaux bruts'!G136),"",'Totaux nationaux bruts'!G137-'Totaux nationaux bruts'!G136))</f>
+        <v/>
+      </c>
+      <c r="J137" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H137),"",IF(ISBLANK('Totaux nationaux bruts'!H136),"",'Totaux nationaux bruts'!H137-'Totaux nationaux bruts'!H136))</f>
+        <v/>
+      </c>
+      <c r="K137" s="10" t="e">
+        <f>TEXT(A137,"jj/mm/aaaa")&amp;","&amp;B137&amp;","&amp;C137&amp;","&amp;E137&amp;","&amp;F137&amp;","&amp;H137&amp;","&amp;#REF!&amp;","&amp;I137&amp;","&amp;J137</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>43990</v>
       </c>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="70"/>
-      <c r="G138" s="70"/>
-      <c r="H138" s="70"/>
-      <c r="I138" s="70"/>
-      <c r="J138" s="70"/>
-      <c r="K138" s="70"/>
-      <c r="L138" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>08/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B138),"",IF(ISBLANK('Totaux nationaux bruts'!B137),"",'Totaux nationaux bruts'!B138-'Totaux nationaux bruts'!B137))</f>
+        <v/>
+      </c>
+      <c r="C138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C138),"",IF(ISBLANK('Totaux nationaux bruts'!C137),"",'Totaux nationaux bruts'!C138-'Totaux nationaux bruts'!C137))</f>
+        <v/>
+      </c>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D138),"",IF(ISBLANK('Totaux nationaux bruts'!D137),"",'Totaux nationaux bruts'!D138-'Totaux nationaux bruts'!D137))</f>
+        <v/>
+      </c>
+      <c r="F138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E138),"",IF(ISBLANK('Totaux nationaux bruts'!E137),"",'Totaux nationaux bruts'!E138-'Totaux nationaux bruts'!E137))</f>
+        <v/>
+      </c>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F138),"",IF(ISBLANK('Totaux nationaux bruts'!F137),"",'Totaux nationaux bruts'!F138-'Totaux nationaux bruts'!F137))</f>
+        <v/>
+      </c>
+      <c r="I138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G138),"",IF(ISBLANK('Totaux nationaux bruts'!G137),"",'Totaux nationaux bruts'!G138-'Totaux nationaux bruts'!G137))</f>
+        <v/>
+      </c>
+      <c r="J138" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H138),"",IF(ISBLANK('Totaux nationaux bruts'!H137),"",'Totaux nationaux bruts'!H138-'Totaux nationaux bruts'!H137))</f>
+        <v/>
+      </c>
+      <c r="K138" s="10" t="e">
+        <f>TEXT(A138,"jj/mm/aaaa")&amp;","&amp;B138&amp;","&amp;C138&amp;","&amp;E138&amp;","&amp;F138&amp;","&amp;H138&amp;","&amp;#REF!&amp;","&amp;I138&amp;","&amp;J138</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>43991</v>
       </c>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="70"/>
-      <c r="J139" s="70"/>
-      <c r="K139" s="70"/>
-      <c r="L139" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>09/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B139),"",IF(ISBLANK('Totaux nationaux bruts'!B138),"",'Totaux nationaux bruts'!B139-'Totaux nationaux bruts'!B138))</f>
+        <v/>
+      </c>
+      <c r="C139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C139),"",IF(ISBLANK('Totaux nationaux bruts'!C138),"",'Totaux nationaux bruts'!C139-'Totaux nationaux bruts'!C138))</f>
+        <v/>
+      </c>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D139),"",IF(ISBLANK('Totaux nationaux bruts'!D138),"",'Totaux nationaux bruts'!D139-'Totaux nationaux bruts'!D138))</f>
+        <v/>
+      </c>
+      <c r="F139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E139),"",IF(ISBLANK('Totaux nationaux bruts'!E138),"",'Totaux nationaux bruts'!E139-'Totaux nationaux bruts'!E138))</f>
+        <v/>
+      </c>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F139),"",IF(ISBLANK('Totaux nationaux bruts'!F138),"",'Totaux nationaux bruts'!F139-'Totaux nationaux bruts'!F138))</f>
+        <v/>
+      </c>
+      <c r="I139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G139),"",IF(ISBLANK('Totaux nationaux bruts'!G138),"",'Totaux nationaux bruts'!G139-'Totaux nationaux bruts'!G138))</f>
+        <v/>
+      </c>
+      <c r="J139" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H139),"",IF(ISBLANK('Totaux nationaux bruts'!H138),"",'Totaux nationaux bruts'!H139-'Totaux nationaux bruts'!H138))</f>
+        <v/>
+      </c>
+      <c r="K139" s="10" t="e">
+        <f>TEXT(A139,"jj/mm/aaaa")&amp;","&amp;B139&amp;","&amp;C139&amp;","&amp;E139&amp;","&amp;F139&amp;","&amp;H139&amp;","&amp;#REF!&amp;","&amp;I139&amp;","&amp;J139</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>43992</v>
       </c>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="70"/>
-      <c r="F140" s="70"/>
-      <c r="G140" s="70"/>
-      <c r="H140" s="70"/>
-      <c r="I140" s="70"/>
-      <c r="J140" s="70"/>
-      <c r="K140" s="70"/>
-      <c r="L140" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>10/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B140),"",IF(ISBLANK('Totaux nationaux bruts'!B139),"",'Totaux nationaux bruts'!B140-'Totaux nationaux bruts'!B139))</f>
+        <v/>
+      </c>
+      <c r="C140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C140),"",IF(ISBLANK('Totaux nationaux bruts'!C139),"",'Totaux nationaux bruts'!C140-'Totaux nationaux bruts'!C139))</f>
+        <v/>
+      </c>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D140),"",IF(ISBLANK('Totaux nationaux bruts'!D139),"",'Totaux nationaux bruts'!D140-'Totaux nationaux bruts'!D139))</f>
+        <v/>
+      </c>
+      <c r="F140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E140),"",IF(ISBLANK('Totaux nationaux bruts'!E139),"",'Totaux nationaux bruts'!E140-'Totaux nationaux bruts'!E139))</f>
+        <v/>
+      </c>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F140),"",IF(ISBLANK('Totaux nationaux bruts'!F139),"",'Totaux nationaux bruts'!F140-'Totaux nationaux bruts'!F139))</f>
+        <v/>
+      </c>
+      <c r="I140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G140),"",IF(ISBLANK('Totaux nationaux bruts'!G139),"",'Totaux nationaux bruts'!G140-'Totaux nationaux bruts'!G139))</f>
+        <v/>
+      </c>
+      <c r="J140" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H140),"",IF(ISBLANK('Totaux nationaux bruts'!H139),"",'Totaux nationaux bruts'!H140-'Totaux nationaux bruts'!H139))</f>
+        <v/>
+      </c>
+      <c r="K140" s="10" t="e">
+        <f>TEXT(A140,"jj/mm/aaaa")&amp;","&amp;B140&amp;","&amp;C140&amp;","&amp;E140&amp;","&amp;F140&amp;","&amp;H140&amp;","&amp;#REF!&amp;","&amp;I140&amp;","&amp;J140</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>43993</v>
       </c>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>11/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B141),"",IF(ISBLANK('Totaux nationaux bruts'!B140),"",'Totaux nationaux bruts'!B141-'Totaux nationaux bruts'!B140))</f>
+        <v/>
+      </c>
+      <c r="C141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C141),"",IF(ISBLANK('Totaux nationaux bruts'!C140),"",'Totaux nationaux bruts'!C141-'Totaux nationaux bruts'!C140))</f>
+        <v/>
+      </c>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D141),"",IF(ISBLANK('Totaux nationaux bruts'!D140),"",'Totaux nationaux bruts'!D141-'Totaux nationaux bruts'!D140))</f>
+        <v/>
+      </c>
+      <c r="F141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E141),"",IF(ISBLANK('Totaux nationaux bruts'!E140),"",'Totaux nationaux bruts'!E141-'Totaux nationaux bruts'!E140))</f>
+        <v/>
+      </c>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F141),"",IF(ISBLANK('Totaux nationaux bruts'!F140),"",'Totaux nationaux bruts'!F141-'Totaux nationaux bruts'!F140))</f>
+        <v/>
+      </c>
+      <c r="I141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G141),"",IF(ISBLANK('Totaux nationaux bruts'!G140),"",'Totaux nationaux bruts'!G141-'Totaux nationaux bruts'!G140))</f>
+        <v/>
+      </c>
+      <c r="J141" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H141),"",IF(ISBLANK('Totaux nationaux bruts'!H140),"",'Totaux nationaux bruts'!H141-'Totaux nationaux bruts'!H140))</f>
+        <v/>
+      </c>
+      <c r="K141" s="10" t="e">
+        <f>TEXT(A141,"jj/mm/aaaa")&amp;","&amp;B141&amp;","&amp;C141&amp;","&amp;E141&amp;","&amp;F141&amp;","&amp;H141&amp;","&amp;#REF!&amp;","&amp;I141&amp;","&amp;J141</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>43994</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="70"/>
-      <c r="H142" s="70"/>
-      <c r="I142" s="70"/>
-      <c r="J142" s="70"/>
-      <c r="K142" s="70"/>
-      <c r="L142" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>12/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B142),"",IF(ISBLANK('Totaux nationaux bruts'!B141),"",'Totaux nationaux bruts'!B142-'Totaux nationaux bruts'!B141))</f>
+        <v/>
+      </c>
+      <c r="C142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C142),"",IF(ISBLANK('Totaux nationaux bruts'!C141),"",'Totaux nationaux bruts'!C142-'Totaux nationaux bruts'!C141))</f>
+        <v/>
+      </c>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D142),"",IF(ISBLANK('Totaux nationaux bruts'!D141),"",'Totaux nationaux bruts'!D142-'Totaux nationaux bruts'!D141))</f>
+        <v/>
+      </c>
+      <c r="F142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E142),"",IF(ISBLANK('Totaux nationaux bruts'!E141),"",'Totaux nationaux bruts'!E142-'Totaux nationaux bruts'!E141))</f>
+        <v/>
+      </c>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F142),"",IF(ISBLANK('Totaux nationaux bruts'!F141),"",'Totaux nationaux bruts'!F142-'Totaux nationaux bruts'!F141))</f>
+        <v/>
+      </c>
+      <c r="I142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G142),"",IF(ISBLANK('Totaux nationaux bruts'!G141),"",'Totaux nationaux bruts'!G142-'Totaux nationaux bruts'!G141))</f>
+        <v/>
+      </c>
+      <c r="J142" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H142),"",IF(ISBLANK('Totaux nationaux bruts'!H141),"",'Totaux nationaux bruts'!H142-'Totaux nationaux bruts'!H141))</f>
+        <v/>
+      </c>
+      <c r="K142" s="10" t="e">
+        <f>TEXT(A142,"jj/mm/aaaa")&amp;","&amp;B142&amp;","&amp;C142&amp;","&amp;E142&amp;","&amp;F142&amp;","&amp;H142&amp;","&amp;#REF!&amp;","&amp;I142&amp;","&amp;J142</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>43995</v>
       </c>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="70"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="70"/>
-      <c r="I143" s="70"/>
-      <c r="J143" s="70"/>
-      <c r="K143" s="70"/>
-      <c r="L143" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>13/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B143),"",IF(ISBLANK('Totaux nationaux bruts'!B142),"",'Totaux nationaux bruts'!B143-'Totaux nationaux bruts'!B142))</f>
+        <v/>
+      </c>
+      <c r="C143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C143),"",IF(ISBLANK('Totaux nationaux bruts'!C142),"",'Totaux nationaux bruts'!C143-'Totaux nationaux bruts'!C142))</f>
+        <v/>
+      </c>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D143),"",IF(ISBLANK('Totaux nationaux bruts'!D142),"",'Totaux nationaux bruts'!D143-'Totaux nationaux bruts'!D142))</f>
+        <v/>
+      </c>
+      <c r="F143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E143),"",IF(ISBLANK('Totaux nationaux bruts'!E142),"",'Totaux nationaux bruts'!E143-'Totaux nationaux bruts'!E142))</f>
+        <v/>
+      </c>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F143),"",IF(ISBLANK('Totaux nationaux bruts'!F142),"",'Totaux nationaux bruts'!F143-'Totaux nationaux bruts'!F142))</f>
+        <v/>
+      </c>
+      <c r="I143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G143),"",IF(ISBLANK('Totaux nationaux bruts'!G142),"",'Totaux nationaux bruts'!G143-'Totaux nationaux bruts'!G142))</f>
+        <v/>
+      </c>
+      <c r="J143" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H143),"",IF(ISBLANK('Totaux nationaux bruts'!H142),"",'Totaux nationaux bruts'!H143-'Totaux nationaux bruts'!H142))</f>
+        <v/>
+      </c>
+      <c r="K143" s="10" t="e">
+        <f>TEXT(A143,"jj/mm/aaaa")&amp;","&amp;B143&amp;","&amp;C143&amp;","&amp;E143&amp;","&amp;F143&amp;","&amp;H143&amp;","&amp;#REF!&amp;","&amp;I143&amp;","&amp;J143</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>43996</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="70"/>
-      <c r="K144" s="70"/>
-      <c r="L144" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>14/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B144),"",IF(ISBLANK('Totaux nationaux bruts'!B143),"",'Totaux nationaux bruts'!B144-'Totaux nationaux bruts'!B143))</f>
+        <v/>
+      </c>
+      <c r="C144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C144),"",IF(ISBLANK('Totaux nationaux bruts'!C143),"",'Totaux nationaux bruts'!C144-'Totaux nationaux bruts'!C143))</f>
+        <v/>
+      </c>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D144),"",IF(ISBLANK('Totaux nationaux bruts'!D143),"",'Totaux nationaux bruts'!D144-'Totaux nationaux bruts'!D143))</f>
+        <v/>
+      </c>
+      <c r="F144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E144),"",IF(ISBLANK('Totaux nationaux bruts'!E143),"",'Totaux nationaux bruts'!E144-'Totaux nationaux bruts'!E143))</f>
+        <v/>
+      </c>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F144),"",IF(ISBLANK('Totaux nationaux bruts'!F143),"",'Totaux nationaux bruts'!F144-'Totaux nationaux bruts'!F143))</f>
+        <v/>
+      </c>
+      <c r="I144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G144),"",IF(ISBLANK('Totaux nationaux bruts'!G143),"",'Totaux nationaux bruts'!G144-'Totaux nationaux bruts'!G143))</f>
+        <v/>
+      </c>
+      <c r="J144" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H144),"",IF(ISBLANK('Totaux nationaux bruts'!H143),"",'Totaux nationaux bruts'!H144-'Totaux nationaux bruts'!H143))</f>
+        <v/>
+      </c>
+      <c r="K144" s="10" t="e">
+        <f>TEXT(A144,"jj/mm/aaaa")&amp;","&amp;B144&amp;","&amp;C144&amp;","&amp;E144&amp;","&amp;F144&amp;","&amp;H144&amp;","&amp;#REF!&amp;","&amp;I144&amp;","&amp;J144</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>43997</v>
       </c>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="70"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="70"/>
-      <c r="J145" s="70"/>
-      <c r="K145" s="70"/>
-      <c r="L145" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>15/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B145),"",IF(ISBLANK('Totaux nationaux bruts'!B144),"",'Totaux nationaux bruts'!B145-'Totaux nationaux bruts'!B144))</f>
+        <v/>
+      </c>
+      <c r="C145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C145),"",IF(ISBLANK('Totaux nationaux bruts'!C144),"",'Totaux nationaux bruts'!C145-'Totaux nationaux bruts'!C144))</f>
+        <v/>
+      </c>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D145),"",IF(ISBLANK('Totaux nationaux bruts'!D144),"",'Totaux nationaux bruts'!D145-'Totaux nationaux bruts'!D144))</f>
+        <v/>
+      </c>
+      <c r="F145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E145),"",IF(ISBLANK('Totaux nationaux bruts'!E144),"",'Totaux nationaux bruts'!E145-'Totaux nationaux bruts'!E144))</f>
+        <v/>
+      </c>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F145),"",IF(ISBLANK('Totaux nationaux bruts'!F144),"",'Totaux nationaux bruts'!F145-'Totaux nationaux bruts'!F144))</f>
+        <v/>
+      </c>
+      <c r="I145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G145),"",IF(ISBLANK('Totaux nationaux bruts'!G144),"",'Totaux nationaux bruts'!G145-'Totaux nationaux bruts'!G144))</f>
+        <v/>
+      </c>
+      <c r="J145" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H145),"",IF(ISBLANK('Totaux nationaux bruts'!H144),"",'Totaux nationaux bruts'!H145-'Totaux nationaux bruts'!H144))</f>
+        <v/>
+      </c>
+      <c r="K145" s="10" t="e">
+        <f>TEXT(A145,"jj/mm/aaaa")&amp;","&amp;B145&amp;","&amp;C145&amp;","&amp;E145&amp;","&amp;F145&amp;","&amp;H145&amp;","&amp;#REF!&amp;","&amp;I145&amp;","&amp;J145</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>43998</v>
       </c>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="70"/>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="70"/>
-      <c r="J146" s="70"/>
-      <c r="K146" s="70"/>
-      <c r="L146" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>16/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B146),"",IF(ISBLANK('Totaux nationaux bruts'!B145),"",'Totaux nationaux bruts'!B146-'Totaux nationaux bruts'!B145))</f>
+        <v/>
+      </c>
+      <c r="C146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C146),"",IF(ISBLANK('Totaux nationaux bruts'!C145),"",'Totaux nationaux bruts'!C146-'Totaux nationaux bruts'!C145))</f>
+        <v/>
+      </c>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D146),"",IF(ISBLANK('Totaux nationaux bruts'!D145),"",'Totaux nationaux bruts'!D146-'Totaux nationaux bruts'!D145))</f>
+        <v/>
+      </c>
+      <c r="F146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E146),"",IF(ISBLANK('Totaux nationaux bruts'!E145),"",'Totaux nationaux bruts'!E146-'Totaux nationaux bruts'!E145))</f>
+        <v/>
+      </c>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F146),"",IF(ISBLANK('Totaux nationaux bruts'!F145),"",'Totaux nationaux bruts'!F146-'Totaux nationaux bruts'!F145))</f>
+        <v/>
+      </c>
+      <c r="I146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G146),"",IF(ISBLANK('Totaux nationaux bruts'!G145),"",'Totaux nationaux bruts'!G146-'Totaux nationaux bruts'!G145))</f>
+        <v/>
+      </c>
+      <c r="J146" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H146),"",IF(ISBLANK('Totaux nationaux bruts'!H145),"",'Totaux nationaux bruts'!H146-'Totaux nationaux bruts'!H145))</f>
+        <v/>
+      </c>
+      <c r="K146" s="10" t="e">
+        <f>TEXT(A146,"jj/mm/aaaa")&amp;","&amp;B146&amp;","&amp;C146&amp;","&amp;E146&amp;","&amp;F146&amp;","&amp;H146&amp;","&amp;#REF!&amp;","&amp;I146&amp;","&amp;J146</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>43999</v>
       </c>
-      <c r="B147" s="70"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="70"/>
-      <c r="J147" s="70"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>17/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B147),"",IF(ISBLANK('Totaux nationaux bruts'!B146),"",'Totaux nationaux bruts'!B147-'Totaux nationaux bruts'!B146))</f>
+        <v/>
+      </c>
+      <c r="C147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C147),"",IF(ISBLANK('Totaux nationaux bruts'!C146),"",'Totaux nationaux bruts'!C147-'Totaux nationaux bruts'!C146))</f>
+        <v/>
+      </c>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D147),"",IF(ISBLANK('Totaux nationaux bruts'!D146),"",'Totaux nationaux bruts'!D147-'Totaux nationaux bruts'!D146))</f>
+        <v/>
+      </c>
+      <c r="F147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E147),"",IF(ISBLANK('Totaux nationaux bruts'!E146),"",'Totaux nationaux bruts'!E147-'Totaux nationaux bruts'!E146))</f>
+        <v/>
+      </c>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F147),"",IF(ISBLANK('Totaux nationaux bruts'!F146),"",'Totaux nationaux bruts'!F147-'Totaux nationaux bruts'!F146))</f>
+        <v/>
+      </c>
+      <c r="I147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G147),"",IF(ISBLANK('Totaux nationaux bruts'!G146),"",'Totaux nationaux bruts'!G147-'Totaux nationaux bruts'!G146))</f>
+        <v/>
+      </c>
+      <c r="J147" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H147),"",IF(ISBLANK('Totaux nationaux bruts'!H146),"",'Totaux nationaux bruts'!H147-'Totaux nationaux bruts'!H146))</f>
+        <v/>
+      </c>
+      <c r="K147" s="10" t="e">
+        <f>TEXT(A147,"jj/mm/aaaa")&amp;","&amp;B147&amp;","&amp;C147&amp;","&amp;E147&amp;","&amp;F147&amp;","&amp;H147&amp;","&amp;#REF!&amp;","&amp;I147&amp;","&amp;J147</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>44000</v>
       </c>
-      <c r="B148" s="70"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="70"/>
-      <c r="J148" s="70"/>
-      <c r="K148" s="70"/>
-      <c r="L148" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>18/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B148),"",IF(ISBLANK('Totaux nationaux bruts'!B147),"",'Totaux nationaux bruts'!B148-'Totaux nationaux bruts'!B147))</f>
+        <v/>
+      </c>
+      <c r="C148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C148),"",IF(ISBLANK('Totaux nationaux bruts'!C147),"",'Totaux nationaux bruts'!C148-'Totaux nationaux bruts'!C147))</f>
+        <v/>
+      </c>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D148),"",IF(ISBLANK('Totaux nationaux bruts'!D147),"",'Totaux nationaux bruts'!D148-'Totaux nationaux bruts'!D147))</f>
+        <v/>
+      </c>
+      <c r="F148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E148),"",IF(ISBLANK('Totaux nationaux bruts'!E147),"",'Totaux nationaux bruts'!E148-'Totaux nationaux bruts'!E147))</f>
+        <v/>
+      </c>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F148),"",IF(ISBLANK('Totaux nationaux bruts'!F147),"",'Totaux nationaux bruts'!F148-'Totaux nationaux bruts'!F147))</f>
+        <v/>
+      </c>
+      <c r="I148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G148),"",IF(ISBLANK('Totaux nationaux bruts'!G147),"",'Totaux nationaux bruts'!G148-'Totaux nationaux bruts'!G147))</f>
+        <v/>
+      </c>
+      <c r="J148" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H148),"",IF(ISBLANK('Totaux nationaux bruts'!H147),"",'Totaux nationaux bruts'!H148-'Totaux nationaux bruts'!H147))</f>
+        <v/>
+      </c>
+      <c r="K148" s="10" t="e">
+        <f>TEXT(A148,"jj/mm/aaaa")&amp;","&amp;B148&amp;","&amp;C148&amp;","&amp;E148&amp;","&amp;F148&amp;","&amp;H148&amp;","&amp;#REF!&amp;","&amp;I148&amp;","&amp;J148</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>44001</v>
       </c>
-      <c r="B149" s="70"/>
-      <c r="C149" s="70"/>
-      <c r="D149" s="70"/>
-      <c r="E149" s="70"/>
-      <c r="F149" s="70"/>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
-      <c r="I149" s="70"/>
-      <c r="J149" s="70"/>
-      <c r="K149" s="70"/>
-      <c r="L149" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>19/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B149),"",IF(ISBLANK('Totaux nationaux bruts'!B148),"",'Totaux nationaux bruts'!B149-'Totaux nationaux bruts'!B148))</f>
+        <v/>
+      </c>
+      <c r="C149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C149),"",IF(ISBLANK('Totaux nationaux bruts'!C148),"",'Totaux nationaux bruts'!C149-'Totaux nationaux bruts'!C148))</f>
+        <v/>
+      </c>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D149),"",IF(ISBLANK('Totaux nationaux bruts'!D148),"",'Totaux nationaux bruts'!D149-'Totaux nationaux bruts'!D148))</f>
+        <v/>
+      </c>
+      <c r="F149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E149),"",IF(ISBLANK('Totaux nationaux bruts'!E148),"",'Totaux nationaux bruts'!E149-'Totaux nationaux bruts'!E148))</f>
+        <v/>
+      </c>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F149),"",IF(ISBLANK('Totaux nationaux bruts'!F148),"",'Totaux nationaux bruts'!F149-'Totaux nationaux bruts'!F148))</f>
+        <v/>
+      </c>
+      <c r="I149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G149),"",IF(ISBLANK('Totaux nationaux bruts'!G148),"",'Totaux nationaux bruts'!G149-'Totaux nationaux bruts'!G148))</f>
+        <v/>
+      </c>
+      <c r="J149" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H149),"",IF(ISBLANK('Totaux nationaux bruts'!H148),"",'Totaux nationaux bruts'!H149-'Totaux nationaux bruts'!H148))</f>
+        <v/>
+      </c>
+      <c r="K149" s="10" t="e">
+        <f>TEXT(A149,"jj/mm/aaaa")&amp;","&amp;B149&amp;","&amp;C149&amp;","&amp;E149&amp;","&amp;F149&amp;","&amp;H149&amp;","&amp;#REF!&amp;","&amp;I149&amp;","&amp;J149</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>44002</v>
       </c>
-      <c r="B150" s="70"/>
-      <c r="C150" s="70"/>
-      <c r="D150" s="70"/>
-      <c r="E150" s="70"/>
-      <c r="F150" s="70"/>
-      <c r="G150" s="70"/>
-      <c r="H150" s="70"/>
-      <c r="I150" s="70"/>
-      <c r="J150" s="70"/>
-      <c r="K150" s="70"/>
-      <c r="L150" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>20/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B150),"",IF(ISBLANK('Totaux nationaux bruts'!B149),"",'Totaux nationaux bruts'!B150-'Totaux nationaux bruts'!B149))</f>
+        <v/>
+      </c>
+      <c r="C150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C150),"",IF(ISBLANK('Totaux nationaux bruts'!C149),"",'Totaux nationaux bruts'!C150-'Totaux nationaux bruts'!C149))</f>
+        <v/>
+      </c>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D150),"",IF(ISBLANK('Totaux nationaux bruts'!D149),"",'Totaux nationaux bruts'!D150-'Totaux nationaux bruts'!D149))</f>
+        <v/>
+      </c>
+      <c r="F150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E150),"",IF(ISBLANK('Totaux nationaux bruts'!E149),"",'Totaux nationaux bruts'!E150-'Totaux nationaux bruts'!E149))</f>
+        <v/>
+      </c>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F150),"",IF(ISBLANK('Totaux nationaux bruts'!F149),"",'Totaux nationaux bruts'!F150-'Totaux nationaux bruts'!F149))</f>
+        <v/>
+      </c>
+      <c r="I150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G150),"",IF(ISBLANK('Totaux nationaux bruts'!G149),"",'Totaux nationaux bruts'!G150-'Totaux nationaux bruts'!G149))</f>
+        <v/>
+      </c>
+      <c r="J150" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H150),"",IF(ISBLANK('Totaux nationaux bruts'!H149),"",'Totaux nationaux bruts'!H150-'Totaux nationaux bruts'!H149))</f>
+        <v/>
+      </c>
+      <c r="K150" s="10" t="e">
+        <f>TEXT(A150,"jj/mm/aaaa")&amp;","&amp;B150&amp;","&amp;C150&amp;","&amp;E150&amp;","&amp;F150&amp;","&amp;H150&amp;","&amp;#REF!&amp;","&amp;I150&amp;","&amp;J150</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>44003</v>
       </c>
-      <c r="B151" s="70"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="70"/>
-      <c r="H151" s="70"/>
-      <c r="I151" s="70"/>
-      <c r="J151" s="70"/>
-      <c r="K151" s="70"/>
-      <c r="L151" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>21/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B151),"",IF(ISBLANK('Totaux nationaux bruts'!B150),"",'Totaux nationaux bruts'!B151-'Totaux nationaux bruts'!B150))</f>
+        <v/>
+      </c>
+      <c r="C151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C151),"",IF(ISBLANK('Totaux nationaux bruts'!C150),"",'Totaux nationaux bruts'!C151-'Totaux nationaux bruts'!C150))</f>
+        <v/>
+      </c>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D151),"",IF(ISBLANK('Totaux nationaux bruts'!D150),"",'Totaux nationaux bruts'!D151-'Totaux nationaux bruts'!D150))</f>
+        <v/>
+      </c>
+      <c r="F151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E151),"",IF(ISBLANK('Totaux nationaux bruts'!E150),"",'Totaux nationaux bruts'!E151-'Totaux nationaux bruts'!E150))</f>
+        <v/>
+      </c>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F151),"",IF(ISBLANK('Totaux nationaux bruts'!F150),"",'Totaux nationaux bruts'!F151-'Totaux nationaux bruts'!F150))</f>
+        <v/>
+      </c>
+      <c r="I151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G151),"",IF(ISBLANK('Totaux nationaux bruts'!G150),"",'Totaux nationaux bruts'!G151-'Totaux nationaux bruts'!G150))</f>
+        <v/>
+      </c>
+      <c r="J151" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H151),"",IF(ISBLANK('Totaux nationaux bruts'!H150),"",'Totaux nationaux bruts'!H151-'Totaux nationaux bruts'!H150))</f>
+        <v/>
+      </c>
+      <c r="K151" s="10" t="e">
+        <f>TEXT(A151,"jj/mm/aaaa")&amp;","&amp;B151&amp;","&amp;C151&amp;","&amp;E151&amp;","&amp;F151&amp;","&amp;H151&amp;","&amp;#REF!&amp;","&amp;I151&amp;","&amp;J151</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>44004</v>
       </c>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="70"/>
-      <c r="F152" s="70"/>
-      <c r="G152" s="70"/>
-      <c r="H152" s="70"/>
-      <c r="I152" s="70"/>
-      <c r="J152" s="70"/>
-      <c r="K152" s="70"/>
-      <c r="L152" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>22/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B152),"",IF(ISBLANK('Totaux nationaux bruts'!B151),"",'Totaux nationaux bruts'!B152-'Totaux nationaux bruts'!B151))</f>
+        <v/>
+      </c>
+      <c r="C152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C152),"",IF(ISBLANK('Totaux nationaux bruts'!C151),"",'Totaux nationaux bruts'!C152-'Totaux nationaux bruts'!C151))</f>
+        <v/>
+      </c>
+      <c r="D152" s="52"/>
+      <c r="E152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D152),"",IF(ISBLANK('Totaux nationaux bruts'!D151),"",'Totaux nationaux bruts'!D152-'Totaux nationaux bruts'!D151))</f>
+        <v/>
+      </c>
+      <c r="F152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E152),"",IF(ISBLANK('Totaux nationaux bruts'!E151),"",'Totaux nationaux bruts'!E152-'Totaux nationaux bruts'!E151))</f>
+        <v/>
+      </c>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F152),"",IF(ISBLANK('Totaux nationaux bruts'!F151),"",'Totaux nationaux bruts'!F152-'Totaux nationaux bruts'!F151))</f>
+        <v/>
+      </c>
+      <c r="I152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G152),"",IF(ISBLANK('Totaux nationaux bruts'!G151),"",'Totaux nationaux bruts'!G152-'Totaux nationaux bruts'!G151))</f>
+        <v/>
+      </c>
+      <c r="J152" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H152),"",IF(ISBLANK('Totaux nationaux bruts'!H151),"",'Totaux nationaux bruts'!H152-'Totaux nationaux bruts'!H151))</f>
+        <v/>
+      </c>
+      <c r="K152" s="10" t="e">
+        <f>TEXT(A152,"jj/mm/aaaa")&amp;","&amp;B152&amp;","&amp;C152&amp;","&amp;E152&amp;","&amp;F152&amp;","&amp;H152&amp;","&amp;#REF!&amp;","&amp;I152&amp;","&amp;J152</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>44005</v>
       </c>
-      <c r="B153" s="70"/>
-      <c r="C153" s="70"/>
-      <c r="D153" s="70"/>
-      <c r="E153" s="70"/>
-      <c r="F153" s="70"/>
-      <c r="G153" s="70"/>
-      <c r="H153" s="70"/>
-      <c r="I153" s="70"/>
-      <c r="J153" s="70"/>
-      <c r="K153" s="70"/>
-      <c r="L153" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>23/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B153),"",IF(ISBLANK('Totaux nationaux bruts'!B152),"",'Totaux nationaux bruts'!B153-'Totaux nationaux bruts'!B152))</f>
+        <v/>
+      </c>
+      <c r="C153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C153),"",IF(ISBLANK('Totaux nationaux bruts'!C152),"",'Totaux nationaux bruts'!C153-'Totaux nationaux bruts'!C152))</f>
+        <v/>
+      </c>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D153),"",IF(ISBLANK('Totaux nationaux bruts'!D152),"",'Totaux nationaux bruts'!D153-'Totaux nationaux bruts'!D152))</f>
+        <v/>
+      </c>
+      <c r="F153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E153),"",IF(ISBLANK('Totaux nationaux bruts'!E152),"",'Totaux nationaux bruts'!E153-'Totaux nationaux bruts'!E152))</f>
+        <v/>
+      </c>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F153),"",IF(ISBLANK('Totaux nationaux bruts'!F152),"",'Totaux nationaux bruts'!F153-'Totaux nationaux bruts'!F152))</f>
+        <v/>
+      </c>
+      <c r="I153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G153),"",IF(ISBLANK('Totaux nationaux bruts'!G152),"",'Totaux nationaux bruts'!G153-'Totaux nationaux bruts'!G152))</f>
+        <v/>
+      </c>
+      <c r="J153" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H153),"",IF(ISBLANK('Totaux nationaux bruts'!H152),"",'Totaux nationaux bruts'!H153-'Totaux nationaux bruts'!H152))</f>
+        <v/>
+      </c>
+      <c r="K153" s="10" t="e">
+        <f>TEXT(A153,"jj/mm/aaaa")&amp;","&amp;B153&amp;","&amp;C153&amp;","&amp;E153&amp;","&amp;F153&amp;","&amp;H153&amp;","&amp;#REF!&amp;","&amp;I153&amp;","&amp;J153</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>44006</v>
       </c>
-      <c r="B154" s="70"/>
-      <c r="C154" s="70"/>
-      <c r="D154" s="70"/>
-      <c r="E154" s="70"/>
-      <c r="F154" s="70"/>
-      <c r="G154" s="70"/>
-      <c r="H154" s="70"/>
-      <c r="I154" s="70"/>
-      <c r="J154" s="70"/>
-      <c r="K154" s="70"/>
-      <c r="L154" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>24/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B154),"",IF(ISBLANK('Totaux nationaux bruts'!B153),"",'Totaux nationaux bruts'!B154-'Totaux nationaux bruts'!B153))</f>
+        <v/>
+      </c>
+      <c r="C154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C154),"",IF(ISBLANK('Totaux nationaux bruts'!C153),"",'Totaux nationaux bruts'!C154-'Totaux nationaux bruts'!C153))</f>
+        <v/>
+      </c>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D154),"",IF(ISBLANK('Totaux nationaux bruts'!D153),"",'Totaux nationaux bruts'!D154-'Totaux nationaux bruts'!D153))</f>
+        <v/>
+      </c>
+      <c r="F154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E154),"",IF(ISBLANK('Totaux nationaux bruts'!E153),"",'Totaux nationaux bruts'!E154-'Totaux nationaux bruts'!E153))</f>
+        <v/>
+      </c>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F154),"",IF(ISBLANK('Totaux nationaux bruts'!F153),"",'Totaux nationaux bruts'!F154-'Totaux nationaux bruts'!F153))</f>
+        <v/>
+      </c>
+      <c r="I154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G154),"",IF(ISBLANK('Totaux nationaux bruts'!G153),"",'Totaux nationaux bruts'!G154-'Totaux nationaux bruts'!G153))</f>
+        <v/>
+      </c>
+      <c r="J154" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H154),"",IF(ISBLANK('Totaux nationaux bruts'!H153),"",'Totaux nationaux bruts'!H154-'Totaux nationaux bruts'!H153))</f>
+        <v/>
+      </c>
+      <c r="K154" s="10" t="e">
+        <f>TEXT(A154,"jj/mm/aaaa")&amp;","&amp;B154&amp;","&amp;C154&amp;","&amp;E154&amp;","&amp;F154&amp;","&amp;H154&amp;","&amp;#REF!&amp;","&amp;I154&amp;","&amp;J154</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>44007</v>
       </c>
-      <c r="B155" s="70"/>
-      <c r="C155" s="70"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="70"/>
-      <c r="G155" s="70"/>
-      <c r="H155" s="70"/>
-      <c r="I155" s="70"/>
-      <c r="J155" s="70"/>
-      <c r="K155" s="70"/>
-      <c r="L155" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>25/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B155),"",IF(ISBLANK('Totaux nationaux bruts'!B154),"",'Totaux nationaux bruts'!B155-'Totaux nationaux bruts'!B154))</f>
+        <v/>
+      </c>
+      <c r="C155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C155),"",IF(ISBLANK('Totaux nationaux bruts'!C154),"",'Totaux nationaux bruts'!C155-'Totaux nationaux bruts'!C154))</f>
+        <v/>
+      </c>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D155),"",IF(ISBLANK('Totaux nationaux bruts'!D154),"",'Totaux nationaux bruts'!D155-'Totaux nationaux bruts'!D154))</f>
+        <v/>
+      </c>
+      <c r="F155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E155),"",IF(ISBLANK('Totaux nationaux bruts'!E154),"",'Totaux nationaux bruts'!E155-'Totaux nationaux bruts'!E154))</f>
+        <v/>
+      </c>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F155),"",IF(ISBLANK('Totaux nationaux bruts'!F154),"",'Totaux nationaux bruts'!F155-'Totaux nationaux bruts'!F154))</f>
+        <v/>
+      </c>
+      <c r="I155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G155),"",IF(ISBLANK('Totaux nationaux bruts'!G154),"",'Totaux nationaux bruts'!G155-'Totaux nationaux bruts'!G154))</f>
+        <v/>
+      </c>
+      <c r="J155" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H155),"",IF(ISBLANK('Totaux nationaux bruts'!H154),"",'Totaux nationaux bruts'!H155-'Totaux nationaux bruts'!H154))</f>
+        <v/>
+      </c>
+      <c r="K155" s="10" t="e">
+        <f>TEXT(A155,"jj/mm/aaaa")&amp;","&amp;B155&amp;","&amp;C155&amp;","&amp;E155&amp;","&amp;F155&amp;","&amp;H155&amp;","&amp;#REF!&amp;","&amp;I155&amp;","&amp;J155</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>44008</v>
       </c>
-      <c r="B156" s="70"/>
-      <c r="C156" s="70"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="H156" s="70"/>
-      <c r="I156" s="70"/>
-      <c r="J156" s="70"/>
-      <c r="K156" s="70"/>
-      <c r="L156" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>26/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B156),"",IF(ISBLANK('Totaux nationaux bruts'!B155),"",'Totaux nationaux bruts'!B156-'Totaux nationaux bruts'!B155))</f>
+        <v/>
+      </c>
+      <c r="C156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C156),"",IF(ISBLANK('Totaux nationaux bruts'!C155),"",'Totaux nationaux bruts'!C156-'Totaux nationaux bruts'!C155))</f>
+        <v/>
+      </c>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D156),"",IF(ISBLANK('Totaux nationaux bruts'!D155),"",'Totaux nationaux bruts'!D156-'Totaux nationaux bruts'!D155))</f>
+        <v/>
+      </c>
+      <c r="F156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E156),"",IF(ISBLANK('Totaux nationaux bruts'!E155),"",'Totaux nationaux bruts'!E156-'Totaux nationaux bruts'!E155))</f>
+        <v/>
+      </c>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F156),"",IF(ISBLANK('Totaux nationaux bruts'!F155),"",'Totaux nationaux bruts'!F156-'Totaux nationaux bruts'!F155))</f>
+        <v/>
+      </c>
+      <c r="I156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G156),"",IF(ISBLANK('Totaux nationaux bruts'!G155),"",'Totaux nationaux bruts'!G156-'Totaux nationaux bruts'!G155))</f>
+        <v/>
+      </c>
+      <c r="J156" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H156),"",IF(ISBLANK('Totaux nationaux bruts'!H155),"",'Totaux nationaux bruts'!H156-'Totaux nationaux bruts'!H155))</f>
+        <v/>
+      </c>
+      <c r="K156" s="10" t="e">
+        <f>TEXT(A156,"jj/mm/aaaa")&amp;","&amp;B156&amp;","&amp;C156&amp;","&amp;E156&amp;","&amp;F156&amp;","&amp;H156&amp;","&amp;#REF!&amp;","&amp;I156&amp;","&amp;J156</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>44009</v>
       </c>
-      <c r="B157" s="70"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="70"/>
-      <c r="J157" s="70"/>
-      <c r="K157" s="70"/>
-      <c r="L157" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>27/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B157),"",IF(ISBLANK('Totaux nationaux bruts'!B156),"",'Totaux nationaux bruts'!B157-'Totaux nationaux bruts'!B156))</f>
+        <v/>
+      </c>
+      <c r="C157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C157),"",IF(ISBLANK('Totaux nationaux bruts'!C156),"",'Totaux nationaux bruts'!C157-'Totaux nationaux bruts'!C156))</f>
+        <v/>
+      </c>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D157),"",IF(ISBLANK('Totaux nationaux bruts'!D156),"",'Totaux nationaux bruts'!D157-'Totaux nationaux bruts'!D156))</f>
+        <v/>
+      </c>
+      <c r="F157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E157),"",IF(ISBLANK('Totaux nationaux bruts'!E156),"",'Totaux nationaux bruts'!E157-'Totaux nationaux bruts'!E156))</f>
+        <v/>
+      </c>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F157),"",IF(ISBLANK('Totaux nationaux bruts'!F156),"",'Totaux nationaux bruts'!F157-'Totaux nationaux bruts'!F156))</f>
+        <v/>
+      </c>
+      <c r="I157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G157),"",IF(ISBLANK('Totaux nationaux bruts'!G156),"",'Totaux nationaux bruts'!G157-'Totaux nationaux bruts'!G156))</f>
+        <v/>
+      </c>
+      <c r="J157" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H157),"",IF(ISBLANK('Totaux nationaux bruts'!H156),"",'Totaux nationaux bruts'!H157-'Totaux nationaux bruts'!H156))</f>
+        <v/>
+      </c>
+      <c r="K157" s="10" t="e">
+        <f>TEXT(A157,"jj/mm/aaaa")&amp;","&amp;B157&amp;","&amp;C157&amp;","&amp;E157&amp;","&amp;F157&amp;","&amp;H157&amp;","&amp;#REF!&amp;","&amp;I157&amp;","&amp;J157</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>44010</v>
       </c>
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
-      <c r="F158" s="70"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="70"/>
-      <c r="J158" s="70"/>
-      <c r="K158" s="70"/>
-      <c r="L158" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>28/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B158),"",IF(ISBLANK('Totaux nationaux bruts'!B157),"",'Totaux nationaux bruts'!B158-'Totaux nationaux bruts'!B157))</f>
+        <v/>
+      </c>
+      <c r="C158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C158),"",IF(ISBLANK('Totaux nationaux bruts'!C157),"",'Totaux nationaux bruts'!C158-'Totaux nationaux bruts'!C157))</f>
+        <v/>
+      </c>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D158),"",IF(ISBLANK('Totaux nationaux bruts'!D157),"",'Totaux nationaux bruts'!D158-'Totaux nationaux bruts'!D157))</f>
+        <v/>
+      </c>
+      <c r="F158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E158),"",IF(ISBLANK('Totaux nationaux bruts'!E157),"",'Totaux nationaux bruts'!E158-'Totaux nationaux bruts'!E157))</f>
+        <v/>
+      </c>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F158),"",IF(ISBLANK('Totaux nationaux bruts'!F157),"",'Totaux nationaux bruts'!F158-'Totaux nationaux bruts'!F157))</f>
+        <v/>
+      </c>
+      <c r="I158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G158),"",IF(ISBLANK('Totaux nationaux bruts'!G157),"",'Totaux nationaux bruts'!G158-'Totaux nationaux bruts'!G157))</f>
+        <v/>
+      </c>
+      <c r="J158" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H158),"",IF(ISBLANK('Totaux nationaux bruts'!H157),"",'Totaux nationaux bruts'!H158-'Totaux nationaux bruts'!H157))</f>
+        <v/>
+      </c>
+      <c r="K158" s="10" t="e">
+        <f>TEXT(A158,"jj/mm/aaaa")&amp;","&amp;B158&amp;","&amp;C158&amp;","&amp;E158&amp;","&amp;F158&amp;","&amp;H158&amp;","&amp;#REF!&amp;","&amp;I158&amp;","&amp;J158</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>44011</v>
       </c>
-      <c r="B159" s="70"/>
-      <c r="C159" s="70"/>
-      <c r="D159" s="70"/>
-      <c r="E159" s="70"/>
-      <c r="F159" s="70"/>
-      <c r="G159" s="70"/>
-      <c r="H159" s="70"/>
-      <c r="I159" s="70"/>
-      <c r="J159" s="70"/>
-      <c r="K159" s="70"/>
-      <c r="L159" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>29/06/2020,,,,,,,,</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B159),"",IF(ISBLANK('Totaux nationaux bruts'!B158),"",'Totaux nationaux bruts'!B159-'Totaux nationaux bruts'!B158))</f>
+        <v/>
+      </c>
+      <c r="C159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C159),"",IF(ISBLANK('Totaux nationaux bruts'!C158),"",'Totaux nationaux bruts'!C159-'Totaux nationaux bruts'!C158))</f>
+        <v/>
+      </c>
+      <c r="D159" s="52"/>
+      <c r="E159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D159),"",IF(ISBLANK('Totaux nationaux bruts'!D158),"",'Totaux nationaux bruts'!D159-'Totaux nationaux bruts'!D158))</f>
+        <v/>
+      </c>
+      <c r="F159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E159),"",IF(ISBLANK('Totaux nationaux bruts'!E158),"",'Totaux nationaux bruts'!E159-'Totaux nationaux bruts'!E158))</f>
+        <v/>
+      </c>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F159),"",IF(ISBLANK('Totaux nationaux bruts'!F158),"",'Totaux nationaux bruts'!F159-'Totaux nationaux bruts'!F158))</f>
+        <v/>
+      </c>
+      <c r="I159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G159),"",IF(ISBLANK('Totaux nationaux bruts'!G158),"",'Totaux nationaux bruts'!G159-'Totaux nationaux bruts'!G158))</f>
+        <v/>
+      </c>
+      <c r="J159" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H159),"",IF(ISBLANK('Totaux nationaux bruts'!H158),"",'Totaux nationaux bruts'!H159-'Totaux nationaux bruts'!H158))</f>
+        <v/>
+      </c>
+      <c r="K159" s="10" t="e">
+        <f>TEXT(A159,"jj/mm/aaaa")&amp;","&amp;B159&amp;","&amp;C159&amp;","&amp;E159&amp;","&amp;F159&amp;","&amp;H159&amp;","&amp;#REF!&amp;","&amp;I159&amp;","&amp;J159</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>44012</v>
       </c>
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="70"/>
-      <c r="G160" s="70"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="70"/>
-      <c r="J160" s="70"/>
-      <c r="K160" s="70"/>
-      <c r="L160" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>30/06/2020,,,,,,,,</v>
+      <c r="B160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!B160),"",IF(ISBLANK('Totaux nationaux bruts'!B159),"",'Totaux nationaux bruts'!B160-'Totaux nationaux bruts'!B159))</f>
+        <v/>
+      </c>
+      <c r="C160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!C160),"",IF(ISBLANK('Totaux nationaux bruts'!C159),"",'Totaux nationaux bruts'!C160-'Totaux nationaux bruts'!C159))</f>
+        <v/>
+      </c>
+      <c r="D160" s="52"/>
+      <c r="E160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!D160),"",IF(ISBLANK('Totaux nationaux bruts'!D159),"",'Totaux nationaux bruts'!D160-'Totaux nationaux bruts'!D159))</f>
+        <v/>
+      </c>
+      <c r="F160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!E160),"",IF(ISBLANK('Totaux nationaux bruts'!E159),"",'Totaux nationaux bruts'!E160-'Totaux nationaux bruts'!E159))</f>
+        <v/>
+      </c>
+      <c r="G160" s="52"/>
+      <c r="H160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!F160),"",IF(ISBLANK('Totaux nationaux bruts'!F159),"",'Totaux nationaux bruts'!F160-'Totaux nationaux bruts'!F159))</f>
+        <v/>
+      </c>
+      <c r="I160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G160),"",IF(ISBLANK('Totaux nationaux bruts'!G159),"",'Totaux nationaux bruts'!G160-'Totaux nationaux bruts'!G159))</f>
+        <v/>
+      </c>
+      <c r="J160" s="52" t="str">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!H160),"",IF(ISBLANK('Totaux nationaux bruts'!H159),"",'Totaux nationaux bruts'!H160-'Totaux nationaux bruts'!H159))</f>
+        <v/>
+      </c>
+      <c r="K160" s="10" t="e">
+        <f>TEXT(A160,"jj/mm/aaaa")&amp;","&amp;B160&amp;","&amp;C160&amp;","&amp;E160&amp;","&amp;F160&amp;","&amp;H160&amp;","&amp;#REF!&amp;","&amp;I160&amp;","&amp;J160</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -35658,7 +35487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
@@ -35856,30 +35685,30 @@
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA395C8-8A50-412E-A571-53243AF80CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A06446A-FC87-4BF1-BC60-0CE919A89DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7368" yWindow="228" windowWidth="15204" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="8004" yWindow="1428" windowWidth="15204" windowHeight="10068" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1963,6 +1963,21 @@
                 <c:pt idx="135">
                   <c:v>153977</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>154188</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>154591</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>155136</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>155561</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>156287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2960,6 +2975,21 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,6 +4021,21 @@
                 <c:pt idx="135">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4925,19 +4970,19 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
@@ -6045,6 +6090,21 @@
                 <c:pt idx="135">
                   <c:v>37</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6815,6 +6875,21 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8047,19 +8122,19 @@
                   <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
@@ -9177,6 +9252,21 @@
                 <c:pt idx="135">
                   <c:v>12461</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>12315</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11961</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11678</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11465</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10212,6 +10302,21 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>70842</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>71062</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>71506</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>71832</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>72149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>72572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11405,19 +11510,19 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
@@ -12550,6 +12655,21 @@
                 <c:pt idx="135">
                   <c:v>1053</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>879</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13660,6 +13780,21 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>18805</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18859</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18912</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18935</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18962</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14853,19 +14988,19 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>0</c:v>
@@ -15932,6 +16067,21 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23519,9 +23669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138:I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27012,80 +27162,150 @@
       <c r="A138" s="12">
         <v>43990</v>
       </c>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
+      <c r="B138" s="57">
+        <v>154188</v>
+      </c>
+      <c r="C138" s="57">
+        <v>12315</v>
+      </c>
+      <c r="D138" s="57">
+        <v>71062</v>
+      </c>
+      <c r="E138" s="57">
+        <v>1024</v>
+      </c>
+      <c r="F138" s="57">
+        <v>18859</v>
+      </c>
+      <c r="G138" s="57">
+        <v>37405</v>
+      </c>
+      <c r="H138" s="57">
+        <v>10350</v>
+      </c>
       <c r="I138" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>08/06/2020,,,,,,,</v>
+        <v>08/06/2020,154188,12315,71062,1024,18859,37405,10350</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>43991</v>
       </c>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
+      <c r="B139" s="57">
+        <v>154591</v>
+      </c>
+      <c r="C139" s="57">
+        <v>11961</v>
+      </c>
+      <c r="D139" s="57">
+        <v>71506</v>
+      </c>
+      <c r="E139" s="57">
+        <v>955</v>
+      </c>
+      <c r="F139" s="57">
+        <v>18912</v>
+      </c>
+      <c r="G139" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H139" s="57">
+        <v>10384</v>
+      </c>
       <c r="I139" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>09/06/2020,,,,,,,</v>
+        <v>09/06/2020,154591,11961,71506,955,18912,37599,10384</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>43992</v>
       </c>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="57"/>
+      <c r="B140" s="57">
+        <v>155136</v>
+      </c>
+      <c r="C140" s="57">
+        <v>11678</v>
+      </c>
+      <c r="D140" s="57">
+        <v>71832</v>
+      </c>
+      <c r="E140" s="57">
+        <v>933</v>
+      </c>
+      <c r="F140" s="57">
+        <v>18935</v>
+      </c>
+      <c r="G140" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H140" s="57">
+        <v>10384</v>
+      </c>
       <c r="I140" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>10/06/2020,,,,,,,</v>
+        <v>10/06/2020,155136,11678,71832,933,18935,37599,10384</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>43993</v>
       </c>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="57"/>
+      <c r="B141" s="57">
+        <v>155561</v>
+      </c>
+      <c r="C141" s="57">
+        <v>11465</v>
+      </c>
+      <c r="D141" s="57">
+        <v>72149</v>
+      </c>
+      <c r="E141" s="57">
+        <v>903</v>
+      </c>
+      <c r="F141" s="57">
+        <v>18962</v>
+      </c>
+      <c r="G141" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H141" s="57">
+        <v>10384</v>
+      </c>
       <c r="I141" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>11/06/2020,,,,,,,</v>
+        <v>11/06/2020,155561,11465,72149,903,18962,37599,10384</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>43994</v>
       </c>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57"/>
-      <c r="H142" s="57"/>
+      <c r="B142" s="57">
+        <v>156287</v>
+      </c>
+      <c r="C142" s="57">
+        <v>11124</v>
+      </c>
+      <c r="D142" s="57">
+        <v>72572</v>
+      </c>
+      <c r="E142" s="57">
+        <v>879</v>
+      </c>
+      <c r="F142" s="57">
+        <v>18990</v>
+      </c>
+      <c r="G142" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H142" s="57">
+        <v>10384</v>
+      </c>
       <c r="I142" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>12/06/2020,,,,,,,</v>
+        <v>12/06/2020,156287,11124,72572,879,18990,37599,10384</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -27386,8 +27606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="E128" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134:K137"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33054,195 +33274,215 @@
       <c r="A138" s="12">
         <v>43990</v>
       </c>
-      <c r="B138" s="52" t="str">
+      <c r="B138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B138),"",IF(ISBLANK('Totaux nationaux bruts'!B137),"",'Totaux nationaux bruts'!B138-'Totaux nationaux bruts'!B137))</f>
-        <v/>
-      </c>
-      <c r="C138" s="52" t="str">
+        <v>211</v>
+      </c>
+      <c r="C138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C138),"",IF(ISBLANK('Totaux nationaux bruts'!C137),"",'Totaux nationaux bruts'!C138-'Totaux nationaux bruts'!C137))</f>
-        <v/>
-      </c>
-      <c r="D138" s="52"/>
-      <c r="E138" s="52" t="str">
+        <v>-146</v>
+      </c>
+      <c r="D138" s="52">
+        <v>145</v>
+      </c>
+      <c r="E138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D138),"",IF(ISBLANK('Totaux nationaux bruts'!D137),"",'Totaux nationaux bruts'!D138-'Totaux nationaux bruts'!D137))</f>
-        <v/>
-      </c>
-      <c r="F138" s="52" t="str">
+        <v>220</v>
+      </c>
+      <c r="F138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E138),"",IF(ISBLANK('Totaux nationaux bruts'!E137),"",'Totaux nationaux bruts'!E138-'Totaux nationaux bruts'!E137))</f>
-        <v/>
-      </c>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52" t="str">
+        <v>-29</v>
+      </c>
+      <c r="G138" s="52">
+        <v>23</v>
+      </c>
+      <c r="H138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F138),"",IF(ISBLANK('Totaux nationaux bruts'!F137),"",'Totaux nationaux bruts'!F138-'Totaux nationaux bruts'!F137))</f>
-        <v/>
-      </c>
-      <c r="I138" s="52" t="str">
+        <v>54</v>
+      </c>
+      <c r="I138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G138),"",IF(ISBLANK('Totaux nationaux bruts'!G137),"",'Totaux nationaux bruts'!G138-'Totaux nationaux bruts'!G137))</f>
-        <v/>
-      </c>
-      <c r="J138" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H138),"",IF(ISBLANK('Totaux nationaux bruts'!H137),"",'Totaux nationaux bruts'!H138-'Totaux nationaux bruts'!H137))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K138" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>08/06/2020,,,,,,,,,</v>
+        <v>08/06/2020,211,-146,145,220,-29,23,54,0,0</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>43991</v>
       </c>
-      <c r="B139" s="52" t="str">
+      <c r="B139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B139),"",IF(ISBLANK('Totaux nationaux bruts'!B138),"",'Totaux nationaux bruts'!B139-'Totaux nationaux bruts'!B138))</f>
-        <v/>
-      </c>
-      <c r="C139" s="52" t="str">
+        <v>403</v>
+      </c>
+      <c r="C139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C139),"",IF(ISBLANK('Totaux nationaux bruts'!C138),"",'Totaux nationaux bruts'!C139-'Totaux nationaux bruts'!C138))</f>
-        <v/>
-      </c>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52" t="str">
+        <v>-354</v>
+      </c>
+      <c r="D139" s="52">
+        <v>169</v>
+      </c>
+      <c r="E139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D139),"",IF(ISBLANK('Totaux nationaux bruts'!D138),"",'Totaux nationaux bruts'!D139-'Totaux nationaux bruts'!D138))</f>
-        <v/>
-      </c>
-      <c r="F139" s="52" t="str">
+        <v>444</v>
+      </c>
+      <c r="F139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E139),"",IF(ISBLANK('Totaux nationaux bruts'!E138),"",'Totaux nationaux bruts'!E139-'Totaux nationaux bruts'!E138))</f>
-        <v/>
-      </c>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52" t="str">
+        <v>-69</v>
+      </c>
+      <c r="G139" s="52">
+        <v>15</v>
+      </c>
+      <c r="H139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F139),"",IF(ISBLANK('Totaux nationaux bruts'!F138),"",'Totaux nationaux bruts'!F139-'Totaux nationaux bruts'!F138))</f>
-        <v/>
-      </c>
-      <c r="I139" s="52" t="str">
+        <v>53</v>
+      </c>
+      <c r="I139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G139),"",IF(ISBLANK('Totaux nationaux bruts'!G138),"",'Totaux nationaux bruts'!G139-'Totaux nationaux bruts'!G138))</f>
-        <v/>
-      </c>
-      <c r="J139" s="52" t="str">
+        <v>194</v>
+      </c>
+      <c r="J139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H139),"",IF(ISBLANK('Totaux nationaux bruts'!H138),"",'Totaux nationaux bruts'!H139-'Totaux nationaux bruts'!H138))</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="K139" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>09/06/2020,,,,,,,,,</v>
+        <v>09/06/2020,403,-354,169,444,-69,15,53,194,34</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>43992</v>
       </c>
-      <c r="B140" s="52" t="str">
+      <c r="B140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B140),"",IF(ISBLANK('Totaux nationaux bruts'!B139),"",'Totaux nationaux bruts'!B140-'Totaux nationaux bruts'!B139))</f>
-        <v/>
-      </c>
-      <c r="C140" s="52" t="str">
+        <v>545</v>
+      </c>
+      <c r="C140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C140),"",IF(ISBLANK('Totaux nationaux bruts'!C139),"",'Totaux nationaux bruts'!C140-'Totaux nationaux bruts'!C139))</f>
-        <v/>
-      </c>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52" t="str">
+        <v>-283</v>
+      </c>
+      <c r="D140" s="52">
+        <v>130</v>
+      </c>
+      <c r="E140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D140),"",IF(ISBLANK('Totaux nationaux bruts'!D139),"",'Totaux nationaux bruts'!D140-'Totaux nationaux bruts'!D139))</f>
-        <v/>
-      </c>
-      <c r="F140" s="52" t="str">
+        <v>326</v>
+      </c>
+      <c r="F140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E140),"",IF(ISBLANK('Totaux nationaux bruts'!E139),"",'Totaux nationaux bruts'!E140-'Totaux nationaux bruts'!E139))</f>
-        <v/>
-      </c>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52" t="str">
+        <v>-22</v>
+      </c>
+      <c r="G140" s="52">
+        <v>23</v>
+      </c>
+      <c r="H140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F140),"",IF(ISBLANK('Totaux nationaux bruts'!F139),"",'Totaux nationaux bruts'!F140-'Totaux nationaux bruts'!F139))</f>
-        <v/>
-      </c>
-      <c r="I140" s="52" t="str">
+        <v>23</v>
+      </c>
+      <c r="I140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G140),"",IF(ISBLANK('Totaux nationaux bruts'!G139),"",'Totaux nationaux bruts'!G140-'Totaux nationaux bruts'!G139))</f>
-        <v/>
-      </c>
-      <c r="J140" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H140),"",IF(ISBLANK('Totaux nationaux bruts'!H139),"",'Totaux nationaux bruts'!H140-'Totaux nationaux bruts'!H139))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K140" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>10/06/2020,,,,,,,,,</v>
+        <v>10/06/2020,545,-283,130,326,-22,23,23,0,0</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>43993</v>
       </c>
-      <c r="B141" s="52" t="str">
+      <c r="B141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B141),"",IF(ISBLANK('Totaux nationaux bruts'!B140),"",'Totaux nationaux bruts'!B141-'Totaux nationaux bruts'!B140))</f>
-        <v/>
-      </c>
-      <c r="C141" s="52" t="str">
+        <v>425</v>
+      </c>
+      <c r="C141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C141),"",IF(ISBLANK('Totaux nationaux bruts'!C140),"",'Totaux nationaux bruts'!C141-'Totaux nationaux bruts'!C140))</f>
-        <v/>
-      </c>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52" t="str">
+        <v>-213</v>
+      </c>
+      <c r="D141" s="52">
+        <v>143</v>
+      </c>
+      <c r="E141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D141),"",IF(ISBLANK('Totaux nationaux bruts'!D140),"",'Totaux nationaux bruts'!D141-'Totaux nationaux bruts'!D140))</f>
-        <v/>
-      </c>
-      <c r="F141" s="52" t="str">
+        <v>317</v>
+      </c>
+      <c r="F141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E141),"",IF(ISBLANK('Totaux nationaux bruts'!E140),"",'Totaux nationaux bruts'!E141-'Totaux nationaux bruts'!E140))</f>
-        <v/>
-      </c>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52" t="str">
+        <v>-30</v>
+      </c>
+      <c r="G141" s="52">
+        <v>26</v>
+      </c>
+      <c r="H141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F141),"",IF(ISBLANK('Totaux nationaux bruts'!F140),"",'Totaux nationaux bruts'!F141-'Totaux nationaux bruts'!F140))</f>
-        <v/>
-      </c>
-      <c r="I141" s="52" t="str">
+        <v>27</v>
+      </c>
+      <c r="I141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G141),"",IF(ISBLANK('Totaux nationaux bruts'!G140),"",'Totaux nationaux bruts'!G141-'Totaux nationaux bruts'!G140))</f>
-        <v/>
-      </c>
-      <c r="J141" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H141),"",IF(ISBLANK('Totaux nationaux bruts'!H140),"",'Totaux nationaux bruts'!H141-'Totaux nationaux bruts'!H140))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K141" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>11/06/2020,,,,,,,,,</v>
+        <v>11/06/2020,425,-213,143,317,-30,26,27,0,0</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>43994</v>
       </c>
-      <c r="B142" s="52" t="str">
+      <c r="B142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B142),"",IF(ISBLANK('Totaux nationaux bruts'!B141),"",'Totaux nationaux bruts'!B142-'Totaux nationaux bruts'!B141))</f>
-        <v/>
-      </c>
-      <c r="C142" s="52" t="str">
+        <v>726</v>
+      </c>
+      <c r="C142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C142),"",IF(ISBLANK('Totaux nationaux bruts'!C141),"",'Totaux nationaux bruts'!C142-'Totaux nationaux bruts'!C141))</f>
-        <v/>
-      </c>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52" t="str">
+        <v>-341</v>
+      </c>
+      <c r="D142" s="52">
+        <v>136</v>
+      </c>
+      <c r="E142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D142),"",IF(ISBLANK('Totaux nationaux bruts'!D141),"",'Totaux nationaux bruts'!D142-'Totaux nationaux bruts'!D141))</f>
-        <v/>
-      </c>
-      <c r="F142" s="52" t="str">
+        <v>423</v>
+      </c>
+      <c r="F142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E142),"",IF(ISBLANK('Totaux nationaux bruts'!E141),"",'Totaux nationaux bruts'!E142-'Totaux nationaux bruts'!E141))</f>
-        <v/>
-      </c>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52" t="str">
+        <v>-24</v>
+      </c>
+      <c r="G142" s="52">
+        <v>18</v>
+      </c>
+      <c r="H142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F142),"",IF(ISBLANK('Totaux nationaux bruts'!F141),"",'Totaux nationaux bruts'!F142-'Totaux nationaux bruts'!F141))</f>
-        <v/>
-      </c>
-      <c r="I142" s="52" t="str">
+        <v>28</v>
+      </c>
+      <c r="I142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G142),"",IF(ISBLANK('Totaux nationaux bruts'!G141),"",'Totaux nationaux bruts'!G142-'Totaux nationaux bruts'!G141))</f>
-        <v/>
-      </c>
-      <c r="J142" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H142),"",IF(ISBLANK('Totaux nationaux bruts'!H141),"",'Totaux nationaux bruts'!H142-'Totaux nationaux bruts'!H141))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K142" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>12/06/2020,,,,,,,,,</v>
+        <v>12/06/2020,726,-341,136,423,-24,18,28,0,0</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -33957,7 +34197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A06446A-FC87-4BF1-BC60-0CE919A89DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4A055-E9AD-44DB-AD38-928763305F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8004" yWindow="1428" windowWidth="15204" windowHeight="10068" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="8532" yWindow="384" windowWidth="12216" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1978,6 +1978,27 @@
                 <c:pt idx="140">
                   <c:v>156287</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>156813</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>157220</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>157372</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>157716</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>158174</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>158641</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>159452</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2990,6 +3011,27 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,6 +4078,27 @@
                 <c:pt idx="140">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4985,25 +5048,25 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>0</c:v>
@@ -6105,6 +6168,27 @@
                 <c:pt idx="140">
                   <c:v>136</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>116</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6890,6 +6974,27 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,25 +8242,25 @@
                   <c:v>726</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>0</c:v>
@@ -9267,6 +9372,27 @@
                 <c:pt idx="140">
                   <c:v>11124</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>10909</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10881</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10752</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10535</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10267</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9970</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10317,6 +10443,27 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>72572</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>72808</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>72859</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>73044</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73335</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73667</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73887</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11525,25 +11672,25 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>0</c:v>
@@ -12670,6 +12817,27 @@
                 <c:pt idx="140">
                   <c:v>879</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13795,6 +13963,27 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>18990</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>19014</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19023</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19052</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19090</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>19118</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>19146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>19160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15003,25 +15192,25 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>0</c:v>
@@ -16082,6 +16271,27 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23669,9 +23879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138:I142"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I143" sqref="I143:I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27312,112 +27522,210 @@
       <c r="A143" s="12">
         <v>43995</v>
       </c>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
+      <c r="B143" s="57">
+        <v>156813</v>
+      </c>
+      <c r="C143" s="57">
+        <v>10909</v>
+      </c>
+      <c r="D143" s="57">
+        <v>72808</v>
+      </c>
+      <c r="E143" s="57">
+        <v>871</v>
+      </c>
+      <c r="F143" s="57">
+        <v>19014</v>
+      </c>
+      <c r="G143" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H143" s="57">
+        <v>10384</v>
+      </c>
       <c r="I143" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>13/06/2020,,,,,,,</v>
+        <v>13/06/2020,156813,10909,72808,871,19014,37599,10384</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>43996</v>
       </c>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
+      <c r="B144" s="57">
+        <v>157220</v>
+      </c>
+      <c r="C144" s="57">
+        <v>10881</v>
+      </c>
+      <c r="D144" s="57">
+        <v>72859</v>
+      </c>
+      <c r="E144" s="57">
+        <v>869</v>
+      </c>
+      <c r="F144" s="57">
+        <v>19023</v>
+      </c>
+      <c r="G144" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H144" s="57">
+        <v>10384</v>
+      </c>
       <c r="I144" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>14/06/2020,,,,,,,</v>
+        <v>14/06/2020,157220,10881,72859,869,19023,37599,10384</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>43997</v>
       </c>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="57"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
+      <c r="B145" s="57">
+        <v>157372</v>
+      </c>
+      <c r="C145" s="57">
+        <v>10752</v>
+      </c>
+      <c r="D145" s="57">
+        <v>73044</v>
+      </c>
+      <c r="E145" s="57">
+        <v>846</v>
+      </c>
+      <c r="F145" s="57">
+        <v>19052</v>
+      </c>
+      <c r="G145" s="57">
+        <v>37599</v>
+      </c>
+      <c r="H145" s="57">
+        <v>10384</v>
+      </c>
       <c r="I145" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>15/06/2020,,,,,,,</v>
+        <v>15/06/2020,157372,10752,73044,846,19052,37599,10384</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>43998</v>
       </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
+      <c r="B146" s="57">
+        <v>157716</v>
+      </c>
+      <c r="C146" s="57">
+        <v>10535</v>
+      </c>
+      <c r="D146" s="57">
+        <v>73335</v>
+      </c>
+      <c r="E146" s="57">
+        <v>820</v>
+      </c>
+      <c r="F146" s="57">
+        <v>19090</v>
+      </c>
+      <c r="G146" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H146" s="57">
+        <v>10457</v>
+      </c>
       <c r="I146" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>16/06/2020,,,,,,,</v>
+        <v>16/06/2020,157716,10535,73335,820,19090,37901,10457</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>43999</v>
       </c>
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="57"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="57"/>
+      <c r="B147" s="57">
+        <v>158174</v>
+      </c>
+      <c r="C147" s="57">
+        <v>10267</v>
+      </c>
+      <c r="D147" s="57">
+        <v>73667</v>
+      </c>
+      <c r="E147" s="57">
+        <v>772</v>
+      </c>
+      <c r="F147" s="57">
+        <v>19118</v>
+      </c>
+      <c r="G147" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H147" s="57">
+        <v>10457</v>
+      </c>
       <c r="I147" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>17/06/2020,,,,,,,</v>
+        <v>17/06/2020,158174,10267,73667,772,19118,37901,10457</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>44000</v>
       </c>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="57"/>
+      <c r="B148" s="57">
+        <v>158641</v>
+      </c>
+      <c r="C148" s="57">
+        <v>10125</v>
+      </c>
+      <c r="D148" s="57">
+        <v>73887</v>
+      </c>
+      <c r="E148" s="57">
+        <v>752</v>
+      </c>
+      <c r="F148" s="57">
+        <v>19146</v>
+      </c>
+      <c r="G148" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H148" s="57">
+        <v>10457</v>
+      </c>
       <c r="I148" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>18/06/2020,,,,,,,</v>
+        <v>18/06/2020,158641,10125,73887,752,19146,37901,10457</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>44001</v>
       </c>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="57"/>
+      <c r="B149" s="57">
+        <v>159452</v>
+      </c>
+      <c r="C149" s="57">
+        <v>9970</v>
+      </c>
+      <c r="D149" s="57">
+        <v>74117</v>
+      </c>
+      <c r="E149" s="57">
+        <v>727</v>
+      </c>
+      <c r="F149" s="57">
+        <v>19160</v>
+      </c>
+      <c r="G149" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H149" s="57">
+        <v>10457</v>
+      </c>
       <c r="I149" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>19/06/2020,,,,,,,</v>
+        <v>19/06/2020,159452,9970,74117,727,19160,37901,10457</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -27606,8 +27914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="E137" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143:K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33489,273 +33797,301 @@
       <c r="A143" s="12">
         <v>43995</v>
       </c>
-      <c r="B143" s="52" t="str">
+      <c r="B143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B143),"",IF(ISBLANK('Totaux nationaux bruts'!B142),"",'Totaux nationaux bruts'!B143-'Totaux nationaux bruts'!B142))</f>
-        <v/>
-      </c>
-      <c r="C143" s="52" t="str">
+        <v>526</v>
+      </c>
+      <c r="C143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C143),"",IF(ISBLANK('Totaux nationaux bruts'!C142),"",'Totaux nationaux bruts'!C143-'Totaux nationaux bruts'!C142))</f>
-        <v/>
-      </c>
-      <c r="D143" s="52"/>
-      <c r="E143" s="52" t="str">
+        <v>-215</v>
+      </c>
+      <c r="D143" s="52">
+        <v>68</v>
+      </c>
+      <c r="E143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D143),"",IF(ISBLANK('Totaux nationaux bruts'!D142),"",'Totaux nationaux bruts'!D143-'Totaux nationaux bruts'!D142))</f>
-        <v/>
-      </c>
-      <c r="F143" s="52" t="str">
+        <v>236</v>
+      </c>
+      <c r="F143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E143),"",IF(ISBLANK('Totaux nationaux bruts'!E142),"",'Totaux nationaux bruts'!E143-'Totaux nationaux bruts'!E142))</f>
-        <v/>
-      </c>
-      <c r="G143" s="52"/>
-      <c r="H143" s="52" t="str">
+        <v>-8</v>
+      </c>
+      <c r="G143" s="52">
+        <v>14</v>
+      </c>
+      <c r="H143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F143),"",IF(ISBLANK('Totaux nationaux bruts'!F142),"",'Totaux nationaux bruts'!F143-'Totaux nationaux bruts'!F142))</f>
-        <v/>
-      </c>
-      <c r="I143" s="52" t="str">
+        <v>24</v>
+      </c>
+      <c r="I143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G143),"",IF(ISBLANK('Totaux nationaux bruts'!G142),"",'Totaux nationaux bruts'!G143-'Totaux nationaux bruts'!G142))</f>
-        <v/>
-      </c>
-      <c r="J143" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H143),"",IF(ISBLANK('Totaux nationaux bruts'!H142),"",'Totaux nationaux bruts'!H143-'Totaux nationaux bruts'!H142))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K143" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>13/06/2020,,,,,,,,,</v>
+        <v>13/06/2020,526,-215,68,236,-8,14,24,0,0</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>43996</v>
       </c>
-      <c r="B144" s="52" t="str">
+      <c r="B144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B144),"",IF(ISBLANK('Totaux nationaux bruts'!B143),"",'Totaux nationaux bruts'!B144-'Totaux nationaux bruts'!B143))</f>
-        <v/>
-      </c>
-      <c r="C144" s="52" t="str">
+        <v>407</v>
+      </c>
+      <c r="C144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C144),"",IF(ISBLANK('Totaux nationaux bruts'!C143),"",'Totaux nationaux bruts'!C144-'Totaux nationaux bruts'!C143))</f>
-        <v/>
-      </c>
-      <c r="D144" s="52"/>
-      <c r="E144" s="52" t="str">
+        <v>-28</v>
+      </c>
+      <c r="D144" s="52">
+        <v>33</v>
+      </c>
+      <c r="E144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D144),"",IF(ISBLANK('Totaux nationaux bruts'!D143),"",'Totaux nationaux bruts'!D144-'Totaux nationaux bruts'!D143))</f>
-        <v/>
-      </c>
-      <c r="F144" s="52" t="str">
+        <v>51</v>
+      </c>
+      <c r="F144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E144),"",IF(ISBLANK('Totaux nationaux bruts'!E143),"",'Totaux nationaux bruts'!E144-'Totaux nationaux bruts'!E143))</f>
-        <v/>
-      </c>
-      <c r="G144" s="52"/>
-      <c r="H144" s="52" t="str">
+        <v>-2</v>
+      </c>
+      <c r="G144" s="52">
+        <v>6</v>
+      </c>
+      <c r="H144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F144),"",IF(ISBLANK('Totaux nationaux bruts'!F143),"",'Totaux nationaux bruts'!F144-'Totaux nationaux bruts'!F143))</f>
-        <v/>
-      </c>
-      <c r="I144" s="52" t="str">
+        <v>9</v>
+      </c>
+      <c r="I144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G144),"",IF(ISBLANK('Totaux nationaux bruts'!G143),"",'Totaux nationaux bruts'!G144-'Totaux nationaux bruts'!G143))</f>
-        <v/>
-      </c>
-      <c r="J144" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H144),"",IF(ISBLANK('Totaux nationaux bruts'!H143),"",'Totaux nationaux bruts'!H144-'Totaux nationaux bruts'!H143))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K144" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>14/06/2020,,,,,,,,,</v>
+        <v>14/06/2020,407,-28,33,51,-2,6,9,0,0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>43997</v>
       </c>
-      <c r="B145" s="52" t="str">
+      <c r="B145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B145),"",IF(ISBLANK('Totaux nationaux bruts'!B144),"",'Totaux nationaux bruts'!B145-'Totaux nationaux bruts'!B144))</f>
-        <v/>
-      </c>
-      <c r="C145" s="52" t="str">
+        <v>152</v>
+      </c>
+      <c r="C145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C145),"",IF(ISBLANK('Totaux nationaux bruts'!C144),"",'Totaux nationaux bruts'!C145-'Totaux nationaux bruts'!C144))</f>
-        <v/>
-      </c>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52" t="str">
+        <v>-129</v>
+      </c>
+      <c r="D145" s="52">
+        <v>114</v>
+      </c>
+      <c r="E145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D145),"",IF(ISBLANK('Totaux nationaux bruts'!D144),"",'Totaux nationaux bruts'!D145-'Totaux nationaux bruts'!D144))</f>
-        <v/>
-      </c>
-      <c r="F145" s="52" t="str">
+        <v>185</v>
+      </c>
+      <c r="F145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E145),"",IF(ISBLANK('Totaux nationaux bruts'!E144),"",'Totaux nationaux bruts'!E145-'Totaux nationaux bruts'!E144))</f>
-        <v/>
-      </c>
-      <c r="G145" s="52"/>
-      <c r="H145" s="52" t="str">
+        <v>-23</v>
+      </c>
+      <c r="G145" s="52">
+        <v>12</v>
+      </c>
+      <c r="H145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F145),"",IF(ISBLANK('Totaux nationaux bruts'!F144),"",'Totaux nationaux bruts'!F145-'Totaux nationaux bruts'!F144))</f>
-        <v/>
-      </c>
-      <c r="I145" s="52" t="str">
+        <v>29</v>
+      </c>
+      <c r="I145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G145),"",IF(ISBLANK('Totaux nationaux bruts'!G144),"",'Totaux nationaux bruts'!G145-'Totaux nationaux bruts'!G144))</f>
-        <v/>
-      </c>
-      <c r="J145" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H145),"",IF(ISBLANK('Totaux nationaux bruts'!H144),"",'Totaux nationaux bruts'!H145-'Totaux nationaux bruts'!H144))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K145" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>15/06/2020,,,,,,,,,</v>
+        <v>15/06/2020,152,-129,114,185,-23,12,29,0,0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>43998</v>
       </c>
-      <c r="B146" s="52" t="str">
+      <c r="B146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B146),"",IF(ISBLANK('Totaux nationaux bruts'!B145),"",'Totaux nationaux bruts'!B146-'Totaux nationaux bruts'!B145))</f>
-        <v/>
-      </c>
-      <c r="C146" s="52" t="str">
+        <v>344</v>
+      </c>
+      <c r="C146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C146),"",IF(ISBLANK('Totaux nationaux bruts'!C145),"",'Totaux nationaux bruts'!C146-'Totaux nationaux bruts'!C145))</f>
-        <v/>
-      </c>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52" t="str">
+        <v>-217</v>
+      </c>
+      <c r="D146" s="52">
+        <v>143</v>
+      </c>
+      <c r="E146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D146),"",IF(ISBLANK('Totaux nationaux bruts'!D145),"",'Totaux nationaux bruts'!D146-'Totaux nationaux bruts'!D145))</f>
-        <v/>
-      </c>
-      <c r="F146" s="52" t="str">
+        <v>291</v>
+      </c>
+      <c r="F146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E146),"",IF(ISBLANK('Totaux nationaux bruts'!E145),"",'Totaux nationaux bruts'!E146-'Totaux nationaux bruts'!E145))</f>
-        <v/>
-      </c>
-      <c r="G146" s="52"/>
-      <c r="H146" s="52" t="str">
+        <v>-26</v>
+      </c>
+      <c r="G146" s="52">
+        <v>14</v>
+      </c>
+      <c r="H146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F146),"",IF(ISBLANK('Totaux nationaux bruts'!F145),"",'Totaux nationaux bruts'!F146-'Totaux nationaux bruts'!F145))</f>
-        <v/>
-      </c>
-      <c r="I146" s="52" t="str">
+        <v>38</v>
+      </c>
+      <c r="I146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G146),"",IF(ISBLANK('Totaux nationaux bruts'!G145),"",'Totaux nationaux bruts'!G146-'Totaux nationaux bruts'!G145))</f>
-        <v/>
-      </c>
-      <c r="J146" s="52" t="str">
+        <v>302</v>
+      </c>
+      <c r="J146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H146),"",IF(ISBLANK('Totaux nationaux bruts'!H145),"",'Totaux nationaux bruts'!H146-'Totaux nationaux bruts'!H145))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="K146" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>16/06/2020,,,,,,,,,</v>
+        <v>16/06/2020,344,-217,143,291,-26,14,38,302,73</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>43999</v>
       </c>
-      <c r="B147" s="52" t="str">
+      <c r="B147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B147),"",IF(ISBLANK('Totaux nationaux bruts'!B146),"",'Totaux nationaux bruts'!B147-'Totaux nationaux bruts'!B146))</f>
-        <v/>
-      </c>
-      <c r="C147" s="52" t="str">
+        <v>458</v>
+      </c>
+      <c r="C147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C147),"",IF(ISBLANK('Totaux nationaux bruts'!C146),"",'Totaux nationaux bruts'!C147-'Totaux nationaux bruts'!C146))</f>
-        <v/>
-      </c>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52" t="str">
+        <v>-268</v>
+      </c>
+      <c r="D147" s="52">
+        <v>116</v>
+      </c>
+      <c r="E147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D147),"",IF(ISBLANK('Totaux nationaux bruts'!D146),"",'Totaux nationaux bruts'!D147-'Totaux nationaux bruts'!D146))</f>
-        <v/>
-      </c>
-      <c r="F147" s="52" t="str">
+        <v>332</v>
+      </c>
+      <c r="F147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E147),"",IF(ISBLANK('Totaux nationaux bruts'!E146),"",'Totaux nationaux bruts'!E147-'Totaux nationaux bruts'!E146))</f>
-        <v/>
-      </c>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52" t="str">
+        <v>-48</v>
+      </c>
+      <c r="G147" s="52">
+        <v>14</v>
+      </c>
+      <c r="H147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F147),"",IF(ISBLANK('Totaux nationaux bruts'!F146),"",'Totaux nationaux bruts'!F147-'Totaux nationaux bruts'!F146))</f>
-        <v/>
-      </c>
-      <c r="I147" s="52" t="str">
+        <v>28</v>
+      </c>
+      <c r="I147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G147),"",IF(ISBLANK('Totaux nationaux bruts'!G146),"",'Totaux nationaux bruts'!G147-'Totaux nationaux bruts'!G146))</f>
-        <v/>
-      </c>
-      <c r="J147" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H147),"",IF(ISBLANK('Totaux nationaux bruts'!H146),"",'Totaux nationaux bruts'!H147-'Totaux nationaux bruts'!H146))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K147" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>17/06/2020,,,,,,,,,</v>
+        <v>17/06/2020,458,-268,116,332,-48,14,28,0,0</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>44000</v>
       </c>
-      <c r="B148" s="52" t="str">
+      <c r="B148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B148),"",IF(ISBLANK('Totaux nationaux bruts'!B147),"",'Totaux nationaux bruts'!B148-'Totaux nationaux bruts'!B147))</f>
-        <v/>
-      </c>
-      <c r="C148" s="52" t="str">
+        <v>467</v>
+      </c>
+      <c r="C148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C148),"",IF(ISBLANK('Totaux nationaux bruts'!C147),"",'Totaux nationaux bruts'!C148-'Totaux nationaux bruts'!C147))</f>
-        <v/>
-      </c>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52" t="str">
+        <v>-142</v>
+      </c>
+      <c r="D148" s="52">
+        <v>136</v>
+      </c>
+      <c r="E148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D148),"",IF(ISBLANK('Totaux nationaux bruts'!D147),"",'Totaux nationaux bruts'!D148-'Totaux nationaux bruts'!D147))</f>
-        <v/>
-      </c>
-      <c r="F148" s="52" t="str">
+        <v>220</v>
+      </c>
+      <c r="F148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E148),"",IF(ISBLANK('Totaux nationaux bruts'!E147),"",'Totaux nationaux bruts'!E148-'Totaux nationaux bruts'!E147))</f>
-        <v/>
-      </c>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52" t="str">
+        <v>-20</v>
+      </c>
+      <c r="G148" s="52">
+        <v>15</v>
+      </c>
+      <c r="H148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F148),"",IF(ISBLANK('Totaux nationaux bruts'!F147),"",'Totaux nationaux bruts'!F148-'Totaux nationaux bruts'!F147))</f>
-        <v/>
-      </c>
-      <c r="I148" s="52" t="str">
+        <v>28</v>
+      </c>
+      <c r="I148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G148),"",IF(ISBLANK('Totaux nationaux bruts'!G147),"",'Totaux nationaux bruts'!G148-'Totaux nationaux bruts'!G147))</f>
-        <v/>
-      </c>
-      <c r="J148" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H148),"",IF(ISBLANK('Totaux nationaux bruts'!H147),"",'Totaux nationaux bruts'!H148-'Totaux nationaux bruts'!H147))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K148" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>18/06/2020,,,,,,,,,</v>
+        <v>18/06/2020,467,-142,136,220,-20,15,28,0,0</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>44001</v>
       </c>
-      <c r="B149" s="52" t="str">
+      <c r="B149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B149),"",IF(ISBLANK('Totaux nationaux bruts'!B148),"",'Totaux nationaux bruts'!B149-'Totaux nationaux bruts'!B148))</f>
-        <v/>
-      </c>
-      <c r="C149" s="52" t="str">
+        <v>811</v>
+      </c>
+      <c r="C149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C149),"",IF(ISBLANK('Totaux nationaux bruts'!C148),"",'Totaux nationaux bruts'!C149-'Totaux nationaux bruts'!C148))</f>
-        <v/>
-      </c>
-      <c r="D149" s="52"/>
-      <c r="E149" s="52" t="str">
+        <v>-155</v>
+      </c>
+      <c r="D149" s="52">
+        <v>116</v>
+      </c>
+      <c r="E149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D149),"",IF(ISBLANK('Totaux nationaux bruts'!D148),"",'Totaux nationaux bruts'!D149-'Totaux nationaux bruts'!D148))</f>
-        <v/>
-      </c>
-      <c r="F149" s="52" t="str">
+        <v>230</v>
+      </c>
+      <c r="F149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E149),"",IF(ISBLANK('Totaux nationaux bruts'!E148),"",'Totaux nationaux bruts'!E149-'Totaux nationaux bruts'!E148))</f>
-        <v/>
-      </c>
-      <c r="G149" s="52"/>
-      <c r="H149" s="52" t="str">
+        <v>-25</v>
+      </c>
+      <c r="G149" s="52">
+        <v>10</v>
+      </c>
+      <c r="H149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F149),"",IF(ISBLANK('Totaux nationaux bruts'!F148),"",'Totaux nationaux bruts'!F149-'Totaux nationaux bruts'!F148))</f>
-        <v/>
-      </c>
-      <c r="I149" s="52" t="str">
+        <v>14</v>
+      </c>
+      <c r="I149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G149),"",IF(ISBLANK('Totaux nationaux bruts'!G148),"",'Totaux nationaux bruts'!G149-'Totaux nationaux bruts'!G148))</f>
-        <v/>
-      </c>
-      <c r="J149" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H149),"",IF(ISBLANK('Totaux nationaux bruts'!H148),"",'Totaux nationaux bruts'!H149-'Totaux nationaux bruts'!H148))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K149" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>19/06/2020,,,,,,,,,</v>
+        <v>19/06/2020,811,-155,116,230,-25,10,14,0,0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4A055-E9AD-44DB-AD38-928763305F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48EB9A-E766-4A96-B51A-FB016AA5B20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="384" windowWidth="12216" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="9036" yWindow="1020" windowWidth="13620" windowHeight="10068" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1999,6 +1999,27 @@
                 <c:pt idx="147">
                   <c:v>159452</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>160093</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>160377</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160750</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161267</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>161348</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>161348</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>162936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3032,6 +3053,27 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,6 +4141,27 @@
                 <c:pt idx="147">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5069,25 +5132,25 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
@@ -6189,6 +6252,27 @@
                 <c:pt idx="147">
                   <c:v>116</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>87</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6995,6 +7079,27 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8263,25 +8368,25 @@
                   <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>1588</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
@@ -9393,6 +9498,27 @@
                 <c:pt idx="147">
                   <c:v>9970</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>9837</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9823</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9693</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9491</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9299</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9141</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8886</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10464,6 +10590,27 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>74117</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74312</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74372</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>74612</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>74871</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75127</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>75351</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>75649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11693,25 +11840,25 @@
                   <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
@@ -12838,6 +12985,27 @@
                 <c:pt idx="147">
                   <c:v>727</c:v>
                 </c:pt>
+                <c:pt idx="148">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>634</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13984,6 +14152,27 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>19160</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>19183</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19206</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>19232</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>19243</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>19264</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>19290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15213,25 +15402,25 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>0</c:v>
@@ -16292,6 +16481,27 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23879,9 +24089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I143" sqref="I143:I149"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I150" sqref="I150:I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27732,112 +27942,210 @@
       <c r="A150" s="12">
         <v>44002</v>
       </c>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="57"/>
-      <c r="H150" s="57"/>
+      <c r="B150" s="57">
+        <v>160093</v>
+      </c>
+      <c r="C150" s="57">
+        <v>9837</v>
+      </c>
+      <c r="D150" s="57">
+        <v>74312</v>
+      </c>
+      <c r="E150" s="57">
+        <v>715</v>
+      </c>
+      <c r="F150" s="57">
+        <v>19176</v>
+      </c>
+      <c r="G150" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H150" s="57">
+        <v>10457</v>
+      </c>
       <c r="I150" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>20/06/2020,,,,,,,</v>
+        <v>20/06/2020,160093,9837,74312,715,19176,37901,10457</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>44003</v>
       </c>
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="57"/>
+      <c r="B151" s="57">
+        <v>160377</v>
+      </c>
+      <c r="C151" s="57">
+        <v>9823</v>
+      </c>
+      <c r="D151" s="57">
+        <v>74372</v>
+      </c>
+      <c r="E151" s="57">
+        <v>715</v>
+      </c>
+      <c r="F151" s="57">
+        <v>19183</v>
+      </c>
+      <c r="G151" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H151" s="57">
+        <v>10457</v>
+      </c>
       <c r="I151" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>21/06/2020,,,,,,,</v>
+        <v>21/06/2020,160377,9823,74372,715,19183,37901,10457</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>44004</v>
       </c>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="57"/>
-      <c r="H152" s="57"/>
+      <c r="B152" s="57">
+        <v>160750</v>
+      </c>
+      <c r="C152" s="57">
+        <v>9693</v>
+      </c>
+      <c r="D152" s="57">
+        <v>74612</v>
+      </c>
+      <c r="E152" s="57">
+        <v>701</v>
+      </c>
+      <c r="F152" s="57">
+        <v>19206</v>
+      </c>
+      <c r="G152" s="57">
+        <v>37901</v>
+      </c>
+      <c r="H152" s="57">
+        <v>10457</v>
+      </c>
       <c r="I152" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>22/06/2020,,,,,,,</v>
+        <v>22/06/2020,160750,9693,74612,701,19206,37901,10457</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>44005</v>
       </c>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57"/>
+      <c r="B153" s="57">
+        <v>161267</v>
+      </c>
+      <c r="C153" s="57">
+        <v>9491</v>
+      </c>
+      <c r="D153" s="57">
+        <v>74871</v>
+      </c>
+      <c r="E153" s="57">
+        <v>682</v>
+      </c>
+      <c r="F153" s="57">
+        <v>19232</v>
+      </c>
+      <c r="G153" s="57">
+        <v>37995</v>
+      </c>
+      <c r="H153" s="57">
+        <v>10488</v>
+      </c>
       <c r="I153" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>23/06/2020,,,,,,,</v>
+        <v>23/06/2020,161267,9491,74871,682,19232,37995,10488</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>44006</v>
       </c>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="57"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
+      <c r="B154" s="57">
+        <v>161348</v>
+      </c>
+      <c r="C154" s="57">
+        <v>9299</v>
+      </c>
+      <c r="D154" s="57">
+        <v>75127</v>
+      </c>
+      <c r="E154" s="57">
+        <v>658</v>
+      </c>
+      <c r="F154" s="57">
+        <v>19243</v>
+      </c>
+      <c r="G154" s="57">
+        <v>37995</v>
+      </c>
+      <c r="H154" s="57">
+        <v>10488</v>
+      </c>
       <c r="I154" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>24/06/2020,,,,,,,</v>
+        <v>24/06/2020,161348,9299,75127,658,19243,37995,10488</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>44007</v>
       </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
+      <c r="B155" s="57">
+        <v>161348</v>
+      </c>
+      <c r="C155" s="57">
+        <v>9141</v>
+      </c>
+      <c r="D155" s="57">
+        <v>75351</v>
+      </c>
+      <c r="E155" s="57">
+        <v>651</v>
+      </c>
+      <c r="F155" s="57">
+        <v>19264</v>
+      </c>
+      <c r="G155" s="57">
+        <v>37995</v>
+      </c>
+      <c r="H155" s="57">
+        <v>10488</v>
+      </c>
       <c r="I155" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>25/06/2020,,,,,,,</v>
+        <v>25/06/2020,161348,9141,75351,651,19264,37995,10488</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>44008</v>
       </c>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
+      <c r="B156" s="57">
+        <v>162936</v>
+      </c>
+      <c r="C156" s="57">
+        <v>8886</v>
+      </c>
+      <c r="D156" s="57">
+        <v>75649</v>
+      </c>
+      <c r="E156" s="57">
+        <v>634</v>
+      </c>
+      <c r="F156" s="57">
+        <v>19290</v>
+      </c>
+      <c r="G156" s="57">
+        <v>37995</v>
+      </c>
+      <c r="H156" s="57">
+        <v>10488</v>
+      </c>
       <c r="I156" s="65" t="str">
         <f t="shared" si="2"/>
-        <v>26/06/2020,,,,,,,</v>
+        <v>26/06/2020,162936,8886,75649,634,19290,37995,10488</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -27914,8 +28222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7215B-27DF-41E9-BB32-C1F320A2C3AC}">
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="E137" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143:K149"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="K149" sqref="K149:K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -34098,273 +34406,301 @@
       <c r="A150" s="12">
         <v>44002</v>
       </c>
-      <c r="B150" s="52" t="str">
+      <c r="B150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B150),"",IF(ISBLANK('Totaux nationaux bruts'!B149),"",'Totaux nationaux bruts'!B150-'Totaux nationaux bruts'!B149))</f>
-        <v/>
-      </c>
-      <c r="C150" s="52" t="str">
+        <v>641</v>
+      </c>
+      <c r="C150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C150),"",IF(ISBLANK('Totaux nationaux bruts'!C149),"",'Totaux nationaux bruts'!C150-'Totaux nationaux bruts'!C149))</f>
-        <v/>
-      </c>
-      <c r="D150" s="52"/>
-      <c r="E150" s="52" t="str">
+        <v>-133</v>
+      </c>
+      <c r="D150" s="52">
+        <v>90</v>
+      </c>
+      <c r="E150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D150),"",IF(ISBLANK('Totaux nationaux bruts'!D149),"",'Totaux nationaux bruts'!D150-'Totaux nationaux bruts'!D149))</f>
-        <v/>
-      </c>
-      <c r="F150" s="52" t="str">
+        <v>195</v>
+      </c>
+      <c r="F150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E150),"",IF(ISBLANK('Totaux nationaux bruts'!E149),"",'Totaux nationaux bruts'!E150-'Totaux nationaux bruts'!E149))</f>
-        <v/>
-      </c>
-      <c r="G150" s="52"/>
-      <c r="H150" s="52" t="str">
+        <v>-12</v>
+      </c>
+      <c r="G150" s="52">
+        <v>7</v>
+      </c>
+      <c r="H150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F150),"",IF(ISBLANK('Totaux nationaux bruts'!F149),"",'Totaux nationaux bruts'!F150-'Totaux nationaux bruts'!F149))</f>
-        <v/>
-      </c>
-      <c r="I150" s="52" t="str">
+        <v>16</v>
+      </c>
+      <c r="I150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G150),"",IF(ISBLANK('Totaux nationaux bruts'!G149),"",'Totaux nationaux bruts'!G150-'Totaux nationaux bruts'!G149))</f>
-        <v/>
-      </c>
-      <c r="J150" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H150),"",IF(ISBLANK('Totaux nationaux bruts'!H149),"",'Totaux nationaux bruts'!H150-'Totaux nationaux bruts'!H149))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K150" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>20/06/2020,,,,,,,,,</v>
+        <v>20/06/2020,641,-133,90,195,-12,7,16,0,0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>44003</v>
       </c>
-      <c r="B151" s="52" t="str">
+      <c r="B151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B151),"",IF(ISBLANK('Totaux nationaux bruts'!B150),"",'Totaux nationaux bruts'!B151-'Totaux nationaux bruts'!B150))</f>
-        <v/>
-      </c>
-      <c r="C151" s="52" t="str">
+        <v>284</v>
+      </c>
+      <c r="C151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C151),"",IF(ISBLANK('Totaux nationaux bruts'!C150),"",'Totaux nationaux bruts'!C151-'Totaux nationaux bruts'!C150))</f>
-        <v/>
-      </c>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52" t="str">
+        <v>-14</v>
+      </c>
+      <c r="D151" s="52">
+        <v>48</v>
+      </c>
+      <c r="E151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D151),"",IF(ISBLANK('Totaux nationaux bruts'!D150),"",'Totaux nationaux bruts'!D151-'Totaux nationaux bruts'!D150))</f>
-        <v/>
-      </c>
-      <c r="F151" s="52" t="str">
+        <v>60</v>
+      </c>
+      <c r="F151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E151),"",IF(ISBLANK('Totaux nationaux bruts'!E150),"",'Totaux nationaux bruts'!E151-'Totaux nationaux bruts'!E150))</f>
-        <v/>
-      </c>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="G151" s="52">
+        <v>5</v>
+      </c>
+      <c r="H151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F151),"",IF(ISBLANK('Totaux nationaux bruts'!F150),"",'Totaux nationaux bruts'!F151-'Totaux nationaux bruts'!F150))</f>
-        <v/>
-      </c>
-      <c r="I151" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="I151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G151),"",IF(ISBLANK('Totaux nationaux bruts'!G150),"",'Totaux nationaux bruts'!G151-'Totaux nationaux bruts'!G150))</f>
-        <v/>
-      </c>
-      <c r="J151" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H151),"",IF(ISBLANK('Totaux nationaux bruts'!H150),"",'Totaux nationaux bruts'!H151-'Totaux nationaux bruts'!H150))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K151" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>21/06/2020,,,,,,,,,</v>
+        <v>21/06/2020,284,-14,48,60,0,5,7,0,0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>44004</v>
       </c>
-      <c r="B152" s="52" t="str">
+      <c r="B152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B152),"",IF(ISBLANK('Totaux nationaux bruts'!B151),"",'Totaux nationaux bruts'!B152-'Totaux nationaux bruts'!B151))</f>
-        <v/>
-      </c>
-      <c r="C152" s="52" t="str">
+        <v>373</v>
+      </c>
+      <c r="C152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C152),"",IF(ISBLANK('Totaux nationaux bruts'!C151),"",'Totaux nationaux bruts'!C152-'Totaux nationaux bruts'!C151))</f>
-        <v/>
-      </c>
-      <c r="D152" s="52"/>
-      <c r="E152" s="52" t="str">
+        <v>-130</v>
+      </c>
+      <c r="D152" s="52">
+        <v>142</v>
+      </c>
+      <c r="E152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D152),"",IF(ISBLANK('Totaux nationaux bruts'!D151),"",'Totaux nationaux bruts'!D152-'Totaux nationaux bruts'!D151))</f>
-        <v/>
-      </c>
-      <c r="F152" s="52" t="str">
+        <v>240</v>
+      </c>
+      <c r="F152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E152),"",IF(ISBLANK('Totaux nationaux bruts'!E151),"",'Totaux nationaux bruts'!E152-'Totaux nationaux bruts'!E151))</f>
-        <v/>
-      </c>
-      <c r="G152" s="52"/>
-      <c r="H152" s="52" t="str">
+        <v>-14</v>
+      </c>
+      <c r="G152" s="52">
+        <v>16</v>
+      </c>
+      <c r="H152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F152),"",IF(ISBLANK('Totaux nationaux bruts'!F151),"",'Totaux nationaux bruts'!F152-'Totaux nationaux bruts'!F151))</f>
-        <v/>
-      </c>
-      <c r="I152" s="52" t="str">
+        <v>23</v>
+      </c>
+      <c r="I152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G152),"",IF(ISBLANK('Totaux nationaux bruts'!G151),"",'Totaux nationaux bruts'!G152-'Totaux nationaux bruts'!G151))</f>
-        <v/>
-      </c>
-      <c r="J152" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H152),"",IF(ISBLANK('Totaux nationaux bruts'!H151),"",'Totaux nationaux bruts'!H152-'Totaux nationaux bruts'!H151))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K152" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>22/06/2020,,,,,,,,,</v>
+        <v>22/06/2020,373,-130,142,240,-14,16,23,0,0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>44005</v>
       </c>
-      <c r="B153" s="52" t="str">
+      <c r="B153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B153),"",IF(ISBLANK('Totaux nationaux bruts'!B152),"",'Totaux nationaux bruts'!B153-'Totaux nationaux bruts'!B152))</f>
-        <v/>
-      </c>
-      <c r="C153" s="52" t="str">
+        <v>517</v>
+      </c>
+      <c r="C153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C153),"",IF(ISBLANK('Totaux nationaux bruts'!C152),"",'Totaux nationaux bruts'!C153-'Totaux nationaux bruts'!C152))</f>
-        <v/>
-      </c>
-      <c r="D153" s="52"/>
-      <c r="E153" s="52" t="str">
+        <v>-202</v>
+      </c>
+      <c r="D153" s="52">
+        <v>117</v>
+      </c>
+      <c r="E153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D153),"",IF(ISBLANK('Totaux nationaux bruts'!D152),"",'Totaux nationaux bruts'!D153-'Totaux nationaux bruts'!D152))</f>
-        <v/>
-      </c>
-      <c r="F153" s="52" t="str">
+        <v>259</v>
+      </c>
+      <c r="F153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E153),"",IF(ISBLANK('Totaux nationaux bruts'!E152),"",'Totaux nationaux bruts'!E153-'Totaux nationaux bruts'!E152))</f>
-        <v/>
-      </c>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52" t="str">
+        <v>-19</v>
+      </c>
+      <c r="G153" s="52">
+        <v>15</v>
+      </c>
+      <c r="H153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F153),"",IF(ISBLANK('Totaux nationaux bruts'!F152),"",'Totaux nationaux bruts'!F153-'Totaux nationaux bruts'!F152))</f>
-        <v/>
-      </c>
-      <c r="I153" s="52" t="str">
+        <v>26</v>
+      </c>
+      <c r="I153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G153),"",IF(ISBLANK('Totaux nationaux bruts'!G152),"",'Totaux nationaux bruts'!G153-'Totaux nationaux bruts'!G152))</f>
-        <v/>
-      </c>
-      <c r="J153" s="52" t="str">
+        <v>94</v>
+      </c>
+      <c r="J153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H153),"",IF(ISBLANK('Totaux nationaux bruts'!H152),"",'Totaux nationaux bruts'!H153-'Totaux nationaux bruts'!H152))</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="K153" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>23/06/2020,,,,,,,,,</v>
+        <v>23/06/2020,517,-202,117,259,-19,15,26,94,31</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>44006</v>
       </c>
-      <c r="B154" s="52" t="str">
+      <c r="B154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B154),"",IF(ISBLANK('Totaux nationaux bruts'!B153),"",'Totaux nationaux bruts'!B154-'Totaux nationaux bruts'!B153))</f>
-        <v/>
-      </c>
-      <c r="C154" s="52" t="str">
+        <v>81</v>
+      </c>
+      <c r="C154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C154),"",IF(ISBLANK('Totaux nationaux bruts'!C153),"",'Totaux nationaux bruts'!C154-'Totaux nationaux bruts'!C153))</f>
-        <v/>
-      </c>
-      <c r="D154" s="52"/>
-      <c r="E154" s="52" t="str">
+        <v>-192</v>
+      </c>
+      <c r="D154" s="52">
+        <v>97</v>
+      </c>
+      <c r="E154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D154),"",IF(ISBLANK('Totaux nationaux bruts'!D153),"",'Totaux nationaux bruts'!D154-'Totaux nationaux bruts'!D153))</f>
-        <v/>
-      </c>
-      <c r="F154" s="52" t="str">
+        <v>256</v>
+      </c>
+      <c r="F154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E154),"",IF(ISBLANK('Totaux nationaux bruts'!E153),"",'Totaux nationaux bruts'!E154-'Totaux nationaux bruts'!E153))</f>
-        <v/>
-      </c>
-      <c r="G154" s="52"/>
-      <c r="H154" s="52" t="str">
+        <v>-24</v>
+      </c>
+      <c r="G154" s="52">
+        <v>8</v>
+      </c>
+      <c r="H154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F154),"",IF(ISBLANK('Totaux nationaux bruts'!F153),"",'Totaux nationaux bruts'!F154-'Totaux nationaux bruts'!F153))</f>
-        <v/>
-      </c>
-      <c r="I154" s="52" t="str">
+        <v>11</v>
+      </c>
+      <c r="I154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G154),"",IF(ISBLANK('Totaux nationaux bruts'!G153),"",'Totaux nationaux bruts'!G154-'Totaux nationaux bruts'!G153))</f>
-        <v/>
-      </c>
-      <c r="J154" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H154),"",IF(ISBLANK('Totaux nationaux bruts'!H153),"",'Totaux nationaux bruts'!H154-'Totaux nationaux bruts'!H153))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K154" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>24/06/2020,,,,,,,,,</v>
+        <v>24/06/2020,81,-192,97,256,-24,8,11,0,0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>44007</v>
       </c>
-      <c r="B155" s="52" t="str">
+      <c r="B155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B155),"",IF(ISBLANK('Totaux nationaux bruts'!B154),"",'Totaux nationaux bruts'!B155-'Totaux nationaux bruts'!B154))</f>
-        <v/>
-      </c>
-      <c r="C155" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C155),"",IF(ISBLANK('Totaux nationaux bruts'!C154),"",'Totaux nationaux bruts'!C155-'Totaux nationaux bruts'!C154))</f>
-        <v/>
-      </c>
-      <c r="D155" s="52"/>
-      <c r="E155" s="52" t="str">
+        <v>-158</v>
+      </c>
+      <c r="D155" s="52">
+        <v>124</v>
+      </c>
+      <c r="E155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D155),"",IF(ISBLANK('Totaux nationaux bruts'!D154),"",'Totaux nationaux bruts'!D155-'Totaux nationaux bruts'!D154))</f>
-        <v/>
-      </c>
-      <c r="F155" s="52" t="str">
+        <v>224</v>
+      </c>
+      <c r="F155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E155),"",IF(ISBLANK('Totaux nationaux bruts'!E154),"",'Totaux nationaux bruts'!E155-'Totaux nationaux bruts'!E154))</f>
-        <v/>
-      </c>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52" t="str">
+        <v>-7</v>
+      </c>
+      <c r="G155" s="52">
+        <v>15</v>
+      </c>
+      <c r="H155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F155),"",IF(ISBLANK('Totaux nationaux bruts'!F154),"",'Totaux nationaux bruts'!F155-'Totaux nationaux bruts'!F154))</f>
-        <v/>
-      </c>
-      <c r="I155" s="52" t="str">
+        <v>21</v>
+      </c>
+      <c r="I155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G155),"",IF(ISBLANK('Totaux nationaux bruts'!G154),"",'Totaux nationaux bruts'!G155-'Totaux nationaux bruts'!G154))</f>
-        <v/>
-      </c>
-      <c r="J155" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H155),"",IF(ISBLANK('Totaux nationaux bruts'!H154),"",'Totaux nationaux bruts'!H155-'Totaux nationaux bruts'!H154))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K155" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>25/06/2020,,,,,,,,,</v>
+        <v>25/06/2020,0,-158,124,224,-7,15,21,0,0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>44008</v>
       </c>
-      <c r="B156" s="52" t="str">
+      <c r="B156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B156),"",IF(ISBLANK('Totaux nationaux bruts'!B155),"",'Totaux nationaux bruts'!B156-'Totaux nationaux bruts'!B155))</f>
-        <v/>
-      </c>
-      <c r="C156" s="52" t="str">
+        <v>1588</v>
+      </c>
+      <c r="C156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C156),"",IF(ISBLANK('Totaux nationaux bruts'!C155),"",'Totaux nationaux bruts'!C156-'Totaux nationaux bruts'!C155))</f>
-        <v/>
-      </c>
-      <c r="D156" s="52"/>
-      <c r="E156" s="52" t="str">
+        <v>-255</v>
+      </c>
+      <c r="D156" s="52">
+        <v>87</v>
+      </c>
+      <c r="E156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D156),"",IF(ISBLANK('Totaux nationaux bruts'!D155),"",'Totaux nationaux bruts'!D156-'Totaux nationaux bruts'!D155))</f>
-        <v/>
-      </c>
-      <c r="F156" s="52" t="str">
+        <v>298</v>
+      </c>
+      <c r="F156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E156),"",IF(ISBLANK('Totaux nationaux bruts'!E155),"",'Totaux nationaux bruts'!E156-'Totaux nationaux bruts'!E155))</f>
-        <v/>
-      </c>
-      <c r="G156" s="52"/>
-      <c r="H156" s="52" t="str">
+        <v>-17</v>
+      </c>
+      <c r="G156" s="52">
+        <v>15</v>
+      </c>
+      <c r="H156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F156),"",IF(ISBLANK('Totaux nationaux bruts'!F155),"",'Totaux nationaux bruts'!F156-'Totaux nationaux bruts'!F155))</f>
-        <v/>
-      </c>
-      <c r="I156" s="52" t="str">
+        <v>26</v>
+      </c>
+      <c r="I156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G156),"",IF(ISBLANK('Totaux nationaux bruts'!G155),"",'Totaux nationaux bruts'!G156-'Totaux nationaux bruts'!G155))</f>
-        <v/>
-      </c>
-      <c r="J156" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H156),"",IF(ISBLANK('Totaux nationaux bruts'!H155),"",'Totaux nationaux bruts'!H156-'Totaux nationaux bruts'!H155))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K156" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>26/06/2020,,,,,,,,,</v>
+        <v>26/06/2020,1588,-255,87,298,-17,15,26,0,0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F562A-3D49-4CA2-A7B4-032F7FC76223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68F016-65EE-4F8D-96CA-FB67D575F15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="7272" yWindow="12" windowWidth="18696" windowHeight="12360" tabRatio="870" activeTab="2" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1030,6 +1030,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,8 +1041,6 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2683,13 +2683,13 @@
                   <c:v>6544</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>8577</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>9843</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>9406</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>0</c:v>
@@ -4655,13 +4655,13 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>0</c:v>
@@ -6572,6 +6572,15 @@
                 <c:pt idx="228">
                   <c:v>20289</c:v>
                 </c:pt>
+                <c:pt idx="229">
+                  <c:v>20319</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>20338</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>20378</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7998,6 +8007,15 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>10475</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10475</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10475</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8668,6 +8686,21 @@
                 <c:pt idx="225" formatCode="General">
                   <c:v>118097</c:v>
                 </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>46051</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>379267</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>359179</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>324158</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>277652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9057,6 +9090,21 @@
                 </c:pt>
                 <c:pt idx="225" formatCode="General">
                   <c:v>5516</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>21948</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>19439</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>17289</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>14042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10876,6 +10924,15 @@
                 <c:pt idx="228">
                   <c:v>335524</c:v>
                 </c:pt>
+                <c:pt idx="229">
+                  <c:v>344101</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>353944</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>363350</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12576,6 +12633,15 @@
                 <c:pt idx="228">
                   <c:v>4960</c:v>
                 </c:pt>
+                <c:pt idx="229">
+                  <c:v>5003</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14164,6 +14230,15 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15856,6 +15931,15 @@
                 <c:pt idx="228">
                   <c:v>88226</c:v>
                 </c:pt>
+                <c:pt idx="229">
+                  <c:v>88524</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>88742</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>89059</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17656,13 +17740,13 @@
                   <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>0</c:v>
@@ -19523,6 +19607,15 @@
                 <c:pt idx="228">
                   <c:v>574</c:v>
                 </c:pt>
+                <c:pt idx="229">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>635</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21111,6 +21204,15 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22883,6 +22985,15 @@
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>20289</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>20319</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>20338</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>20378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29934,9 +30045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D221" sqref="D221"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -29979,7 +30090,7 @@
         <v>112</v>
       </c>
       <c r="I1" s="65" t="str">
-        <f>TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1</f>
+        <f t="shared" ref="I1:I64" si="0">TEXT(A1,"jj/mm/aaaa")&amp;","&amp;B1&amp;","&amp;C1&amp;","&amp;D1&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1</f>
         <v>Date,Cas confirmés,Hospitalisations,Guérisons,En réanimation,Décès en hopital,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
       </c>
     </row>
@@ -29997,7 +30108,7 @@
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
       <c r="I2" s="65" t="str">
-        <f>TEXT(A2,"jj/mm/aaaa")&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2</f>
+        <f t="shared" si="0"/>
         <v>24/01/2020,3,,,,,,</v>
       </c>
     </row>
@@ -30013,7 +30124,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
       <c r="I3" s="65" t="str">
-        <f>TEXT(A3,"jj/mm/aaaa")&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3</f>
+        <f t="shared" si="0"/>
         <v>25/01/2020,,,,,,,</v>
       </c>
     </row>
@@ -30029,7 +30140,7 @@
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="65" t="str">
-        <f>TEXT(A4,"jj/mm/aaaa")&amp;","&amp;B4&amp;","&amp;C4&amp;","&amp;D4&amp;","&amp;E4&amp;","&amp;F4&amp;","&amp;G4&amp;","&amp;H4</f>
+        <f t="shared" si="0"/>
         <v>26/01/2020,,,,,,,</v>
       </c>
     </row>
@@ -30045,7 +30156,7 @@
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
       <c r="I5" s="65" t="str">
-        <f>TEXT(A5,"jj/mm/aaaa")&amp;","&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5&amp;","&amp;H5</f>
+        <f t="shared" si="0"/>
         <v>27/01/2020,,,,,,,</v>
       </c>
     </row>
@@ -30065,7 +30176,7 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="65" t="str">
-        <f>TEXT(A6,"jj/mm/aaaa")&amp;","&amp;B6&amp;","&amp;C6&amp;","&amp;D6&amp;","&amp;E6&amp;","&amp;F6&amp;","&amp;G6&amp;","&amp;H6</f>
+        <f t="shared" si="0"/>
         <v>28/01/2020,4,,,1,,,</v>
       </c>
     </row>
@@ -30085,7 +30196,7 @@
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
       <c r="I7" s="65" t="str">
-        <f>TEXT(A7,"jj/mm/aaaa")&amp;","&amp;B7&amp;","&amp;C7&amp;","&amp;D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <f t="shared" si="0"/>
         <v>29/01/2020,5,,,2,,,</v>
       </c>
     </row>
@@ -30103,7 +30214,7 @@
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="65" t="str">
-        <f>TEXT(A8,"jj/mm/aaaa")&amp;","&amp;B8&amp;","&amp;C8&amp;","&amp;D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8</f>
+        <f t="shared" si="0"/>
         <v>30/01/2020,6,,,,,,</v>
       </c>
     </row>
@@ -30119,7 +30230,7 @@
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
       <c r="I9" s="65" t="str">
-        <f>TEXT(A9,"jj/mm/aaaa")&amp;","&amp;B9&amp;","&amp;C9&amp;","&amp;D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9</f>
+        <f t="shared" si="0"/>
         <v>31/01/2020,,,,,,,</v>
       </c>
     </row>
@@ -30135,7 +30246,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
       <c r="I10" s="65" t="str">
-        <f>TEXT(A10,"jj/mm/aaaa")&amp;","&amp;B10&amp;","&amp;C10&amp;","&amp;D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10</f>
+        <f t="shared" si="0"/>
         <v>01/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30153,7 +30264,7 @@
       <c r="G11" s="58"/>
       <c r="H11" s="58"/>
       <c r="I11" s="65" t="str">
-        <f>TEXT(A11,"jj/mm/aaaa")&amp;","&amp;B11&amp;","&amp;C11&amp;","&amp;D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11</f>
+        <f t="shared" si="0"/>
         <v>02/02/2020,,,,1,,,</v>
       </c>
     </row>
@@ -30169,7 +30280,7 @@
       <c r="G12" s="58"/>
       <c r="H12" s="58"/>
       <c r="I12" s="65" t="str">
-        <f>TEXT(A12,"jj/mm/aaaa")&amp;","&amp;B12&amp;","&amp;C12&amp;","&amp;D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12</f>
+        <f t="shared" si="0"/>
         <v>03/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30185,7 +30296,7 @@
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="65" t="str">
-        <f>TEXT(A13,"jj/mm/aaaa")&amp;","&amp;B13&amp;","&amp;C13&amp;","&amp;D13&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13</f>
+        <f t="shared" si="0"/>
         <v>04/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30201,7 +30312,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="65" t="str">
-        <f>TEXT(A14,"jj/mm/aaaa")&amp;","&amp;B14&amp;","&amp;C14&amp;","&amp;D14&amp;","&amp;E14&amp;","&amp;F14&amp;","&amp;G14&amp;","&amp;H14</f>
+        <f t="shared" si="0"/>
         <v>05/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30217,7 +30328,7 @@
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
       <c r="I15" s="65" t="str">
-        <f>TEXT(A15,"jj/mm/aaaa")&amp;","&amp;B15&amp;","&amp;C15&amp;","&amp;D15&amp;","&amp;E15&amp;","&amp;F15&amp;","&amp;G15&amp;","&amp;H15</f>
+        <f t="shared" si="0"/>
         <v>06/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30235,7 +30346,7 @@
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
       <c r="I16" s="65" t="str">
-        <f>TEXT(A16,"jj/mm/aaaa")&amp;","&amp;B16&amp;","&amp;C16&amp;","&amp;D16&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16&amp;","&amp;H16</f>
+        <f t="shared" si="0"/>
         <v>07/02/2020,11,,,,,,</v>
       </c>
     </row>
@@ -30251,7 +30362,7 @@
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="65" t="str">
-        <f>TEXT(A17,"jj/mm/aaaa")&amp;","&amp;B17&amp;","&amp;C17&amp;","&amp;D17&amp;","&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17</f>
+        <f t="shared" si="0"/>
         <v>08/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30267,7 +30378,7 @@
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="65" t="str">
-        <f>TEXT(A18,"jj/mm/aaaa")&amp;","&amp;B18&amp;","&amp;C18&amp;","&amp;D18&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18</f>
+        <f t="shared" si="0"/>
         <v>09/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30283,7 +30394,7 @@
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
       <c r="I19" s="65" t="str">
-        <f>TEXT(A19,"jj/mm/aaaa")&amp;","&amp;B19&amp;","&amp;C19&amp;","&amp;D19&amp;","&amp;E19&amp;","&amp;F19&amp;","&amp;G19&amp;","&amp;H19</f>
+        <f t="shared" si="0"/>
         <v>10/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30299,7 +30410,7 @@
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
       <c r="I20" s="65" t="str">
-        <f>TEXT(A20,"jj/mm/aaaa")&amp;","&amp;B20&amp;","&amp;C20&amp;","&amp;D20&amp;","&amp;E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20</f>
+        <f t="shared" si="0"/>
         <v>11/02/2020,,,,,,,</v>
       </c>
     </row>
@@ -30317,7 +30428,7 @@
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
       <c r="I21" s="65" t="str">
-        <f>TEXT(A21,"jj/mm/aaaa")&amp;","&amp;B21&amp;","&amp;C21&amp;","&amp;D21&amp;","&amp;E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21</f>
+        <f t="shared" si="0"/>
         <v>12/02/2020,,,2,,,,</v>
       </c>
     </row>
@@ -30335,7 +30446,7 @@
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="65" t="str">
-        <f>TEXT(A22,"jj/mm/aaaa")&amp;","&amp;B22&amp;","&amp;C22&amp;","&amp;D22&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22&amp;","&amp;H22</f>
+        <f t="shared" si="0"/>
         <v>13/02/2020,,,3,,,,</v>
       </c>
     </row>
@@ -30355,7 +30466,7 @@
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
       <c r="I23" s="65" t="str">
-        <f>TEXT(A23,"jj/mm/aaaa")&amp;","&amp;B23&amp;","&amp;C23&amp;","&amp;D23&amp;","&amp;E23&amp;","&amp;F23&amp;","&amp;G23&amp;","&amp;H23</f>
+        <f t="shared" si="0"/>
         <v>14/02/2020,,,,1,1,,</v>
       </c>
     </row>
@@ -30379,7 +30490,7 @@
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
       <c r="I24" s="65" t="str">
-        <f>TEXT(A24,"jj/mm/aaaa")&amp;","&amp;B24&amp;","&amp;C24&amp;","&amp;D24&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24&amp;","&amp;H24</f>
+        <f t="shared" si="0"/>
         <v>15/02/2020,12,7,4,,1,,</v>
       </c>
     </row>
@@ -30397,7 +30508,7 @@
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="65" t="str">
-        <f>TEXT(A25,"jj/mm/aaaa")&amp;","&amp;B25&amp;","&amp;C25&amp;","&amp;D25&amp;","&amp;E25&amp;","&amp;F25&amp;","&amp;G25&amp;","&amp;H25</f>
+        <f t="shared" si="0"/>
         <v>16/02/2020,,,,,1,,</v>
       </c>
     </row>
@@ -30415,7 +30526,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
       <c r="I26" s="65" t="str">
-        <f>TEXT(A26,"jj/mm/aaaa")&amp;","&amp;B26&amp;","&amp;C26&amp;","&amp;D26&amp;","&amp;E26&amp;","&amp;F26&amp;","&amp;G26&amp;","&amp;H26</f>
+        <f t="shared" si="0"/>
         <v>17/02/2020,,,,,1,,</v>
       </c>
     </row>
@@ -30433,7 +30544,7 @@
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
       <c r="I27" s="65" t="str">
-        <f>TEXT(A27,"jj/mm/aaaa")&amp;","&amp;B27&amp;","&amp;C27&amp;","&amp;D27&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27&amp;","&amp;H27</f>
+        <f t="shared" si="0"/>
         <v>18/02/2020,,,,,1,,</v>
       </c>
     </row>
@@ -30455,7 +30566,7 @@
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
       <c r="I28" s="65" t="str">
-        <f>TEXT(A28,"jj/mm/aaaa")&amp;","&amp;B28&amp;","&amp;C28&amp;","&amp;D28&amp;","&amp;E28&amp;","&amp;F28&amp;","&amp;G28&amp;","&amp;H28</f>
+        <f t="shared" si="0"/>
         <v>19/02/2020,,4,7,,1,,</v>
       </c>
     </row>
@@ -30475,7 +30586,7 @@
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
       <c r="I29" s="65" t="str">
-        <f>TEXT(A29,"jj/mm/aaaa")&amp;","&amp;B29&amp;","&amp;C29&amp;","&amp;D29&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29&amp;","&amp;H29</f>
+        <f t="shared" si="0"/>
         <v>20/02/2020,,11,,,1,,</v>
       </c>
     </row>
@@ -30497,7 +30608,7 @@
       <c r="G30" s="58"/>
       <c r="H30" s="58"/>
       <c r="I30" s="65" t="str">
-        <f>TEXT(A30,"jj/mm/aaaa")&amp;","&amp;B30&amp;","&amp;C30&amp;","&amp;D30&amp;","&amp;E30&amp;","&amp;F30&amp;","&amp;G30&amp;","&amp;H30</f>
+        <f t="shared" si="0"/>
         <v>21/02/2020,,1,10,,1,,</v>
       </c>
     </row>
@@ -30515,7 +30626,7 @@
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
       <c r="I31" s="65" t="str">
-        <f>TEXT(A31,"jj/mm/aaaa")&amp;","&amp;B31&amp;","&amp;C31&amp;","&amp;D31&amp;","&amp;E31&amp;","&amp;F31&amp;","&amp;G31&amp;","&amp;H31</f>
+        <f t="shared" si="0"/>
         <v>22/02/2020,,,,,1,,</v>
       </c>
     </row>
@@ -30535,7 +30646,7 @@
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
       <c r="I32" s="65" t="str">
-        <f>TEXT(A32,"jj/mm/aaaa")&amp;","&amp;B32&amp;","&amp;C32&amp;","&amp;D32&amp;","&amp;E32&amp;","&amp;F32&amp;","&amp;G32&amp;","&amp;H32</f>
+        <f t="shared" si="0"/>
         <v>23/02/2020,,1,,,1,,</v>
       </c>
     </row>
@@ -30553,7 +30664,7 @@
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
       <c r="I33" s="65" t="str">
-        <f>TEXT(A33,"jj/mm/aaaa")&amp;","&amp;B33&amp;","&amp;C33&amp;","&amp;D33&amp;","&amp;E33&amp;","&amp;F33&amp;","&amp;G33&amp;","&amp;H33</f>
+        <f t="shared" si="0"/>
         <v>24/02/2020,,,,,1,,</v>
       </c>
     </row>
@@ -30577,7 +30688,7 @@
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
       <c r="I34" s="65" t="str">
-        <f>TEXT(A34,"jj/mm/aaaa")&amp;","&amp;B34&amp;","&amp;C34&amp;","&amp;D34&amp;","&amp;E34&amp;","&amp;F34&amp;","&amp;G34&amp;","&amp;H34</f>
+        <f t="shared" si="0"/>
         <v>25/02/2020,14,2,,2,1,,</v>
       </c>
     </row>
@@ -30601,7 +30712,7 @@
       <c r="G35" s="58"/>
       <c r="H35" s="58"/>
       <c r="I35" s="65" t="str">
-        <f>TEXT(A35,"jj/mm/aaaa")&amp;","&amp;B35&amp;","&amp;C35&amp;","&amp;D35&amp;","&amp;E35&amp;","&amp;F35&amp;","&amp;G35&amp;","&amp;H35</f>
+        <f t="shared" si="0"/>
         <v>26/02/2020,18,4,12,,2,,</v>
       </c>
     </row>
@@ -30623,7 +30734,7 @@
       <c r="G36" s="58"/>
       <c r="H36" s="58"/>
       <c r="I36" s="65" t="str">
-        <f>TEXT(A36,"jj/mm/aaaa")&amp;","&amp;B36&amp;","&amp;C36&amp;","&amp;D36&amp;","&amp;E36&amp;","&amp;F36&amp;","&amp;G36&amp;","&amp;H36</f>
+        <f t="shared" si="0"/>
         <v>27/02/2020,38,24,,,2,,</v>
       </c>
     </row>
@@ -30643,7 +30754,7 @@
       <c r="G37" s="58"/>
       <c r="H37" s="58"/>
       <c r="I37" s="65" t="str">
-        <f>TEXT(A37,"jj/mm/aaaa")&amp;","&amp;B37&amp;","&amp;C37&amp;","&amp;D37&amp;","&amp;E37&amp;","&amp;F37&amp;","&amp;G37&amp;","&amp;H37</f>
+        <f t="shared" si="0"/>
         <v>28/02/2020,57,,,,2,,</v>
       </c>
     </row>
@@ -30667,7 +30778,7 @@
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
       <c r="I38" s="65" t="str">
-        <f>TEXT(A38,"jj/mm/aaaa")&amp;","&amp;B38&amp;","&amp;C38&amp;","&amp;D38&amp;","&amp;E38&amp;","&amp;F38&amp;","&amp;G38&amp;","&amp;H38</f>
+        <f t="shared" si="0"/>
         <v>29/02/2020,100,86,,9,2,,</v>
       </c>
     </row>
@@ -30689,7 +30800,7 @@
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
       <c r="I39" s="65" t="str">
-        <f>TEXT(A39,"jj/mm/aaaa")&amp;","&amp;B39&amp;","&amp;C39&amp;","&amp;D39&amp;","&amp;E39&amp;","&amp;F39&amp;","&amp;G39&amp;","&amp;H39</f>
+        <f t="shared" si="0"/>
         <v>01/03/2020,130,116,,,2,,</v>
       </c>
     </row>
@@ -30709,7 +30820,7 @@
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
       <c r="I40" s="65" t="str">
-        <f>TEXT(A40,"jj/mm/aaaa")&amp;","&amp;B40&amp;","&amp;C40&amp;","&amp;D40&amp;","&amp;E40&amp;","&amp;F40&amp;","&amp;G40&amp;","&amp;H40</f>
+        <f t="shared" si="0"/>
         <v>02/03/2020,191,,,,3,,</v>
       </c>
     </row>
@@ -30731,7 +30842,7 @@
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="65" t="str">
-        <f>TEXT(A41,"jj/mm/aaaa")&amp;","&amp;B41&amp;","&amp;C41&amp;","&amp;D41&amp;","&amp;E41&amp;","&amp;F41&amp;","&amp;G41&amp;","&amp;H41</f>
+        <f t="shared" si="0"/>
         <v>03/03/2020,212,,12,,4,,</v>
       </c>
     </row>
@@ -30753,7 +30864,7 @@
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
       <c r="I42" s="65" t="str">
-        <f>TEXT(A42,"jj/mm/aaaa")&amp;","&amp;B42&amp;","&amp;C42&amp;","&amp;D42&amp;","&amp;E42&amp;","&amp;F42&amp;","&amp;G42&amp;","&amp;H42</f>
+        <f t="shared" si="0"/>
         <v>04/03/2020,285,,,15,4,,</v>
       </c>
     </row>
@@ -30775,7 +30886,7 @@
       <c r="G43" s="58"/>
       <c r="H43" s="58"/>
       <c r="I43" s="65" t="str">
-        <f>TEXT(A43,"jj/mm/aaaa")&amp;","&amp;B43&amp;","&amp;C43&amp;","&amp;D43&amp;","&amp;E43&amp;","&amp;F43&amp;","&amp;G43&amp;","&amp;H43</f>
+        <f t="shared" si="0"/>
         <v>05/03/2020,423,,,23,7,,</v>
       </c>
     </row>
@@ -30797,7 +30908,7 @@
       <c r="G44" s="58"/>
       <c r="H44" s="58"/>
       <c r="I44" s="65" t="str">
-        <f>TEXT(A44,"jj/mm/aaaa")&amp;","&amp;B44&amp;","&amp;C44&amp;","&amp;D44&amp;","&amp;E44&amp;","&amp;F44&amp;","&amp;G44&amp;","&amp;H44</f>
+        <f t="shared" si="0"/>
         <v>06/03/2020,613,,,39,9,,</v>
       </c>
     </row>
@@ -30819,7 +30930,7 @@
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
       <c r="I45" s="65" t="str">
-        <f>TEXT(A45,"jj/mm/aaaa")&amp;","&amp;B45&amp;","&amp;C45&amp;","&amp;D45&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45</f>
+        <f t="shared" si="0"/>
         <v>07/03/2020,949,,,45,16,,</v>
       </c>
     </row>
@@ -30839,7 +30950,7 @@
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
       <c r="I46" s="65" t="str">
-        <f>TEXT(A46,"jj/mm/aaaa")&amp;","&amp;B46&amp;","&amp;C46&amp;","&amp;D46&amp;","&amp;E46&amp;","&amp;F46&amp;","&amp;G46&amp;","&amp;H46</f>
+        <f t="shared" si="0"/>
         <v>08/03/2020,1126,,,,19,,</v>
       </c>
     </row>
@@ -30861,7 +30972,7 @@
       <c r="G47" s="58"/>
       <c r="H47" s="58"/>
       <c r="I47" s="65" t="str">
-        <f>TEXT(A47,"jj/mm/aaaa")&amp;","&amp;B47&amp;","&amp;C47&amp;","&amp;D47&amp;","&amp;E47&amp;","&amp;F47&amp;","&amp;G47&amp;","&amp;H47</f>
+        <f t="shared" si="0"/>
         <v>09/03/2020,1412,,,66,25,,</v>
       </c>
     </row>
@@ -30883,7 +30994,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
       <c r="I48" s="65" t="str">
-        <f>TEXT(A48,"jj/mm/aaaa")&amp;","&amp;B48&amp;","&amp;C48&amp;","&amp;D48&amp;","&amp;E48&amp;","&amp;F48&amp;","&amp;G48&amp;","&amp;H48</f>
+        <f t="shared" si="0"/>
         <v>10/03/2020,1784,,,86,33,,</v>
       </c>
     </row>
@@ -30905,7 +31016,7 @@
       <c r="G49" s="58"/>
       <c r="H49" s="58"/>
       <c r="I49" s="65" t="str">
-        <f>TEXT(A49,"jj/mm/aaaa")&amp;","&amp;B49&amp;","&amp;C49&amp;","&amp;D49&amp;","&amp;E49&amp;","&amp;F49&amp;","&amp;G49&amp;","&amp;H49</f>
+        <f t="shared" si="0"/>
         <v>11/03/2020,2281,,,105,48,,</v>
       </c>
     </row>
@@ -30927,7 +31038,7 @@
       <c r="G50" s="58"/>
       <c r="H50" s="58"/>
       <c r="I50" s="65" t="str">
-        <f>TEXT(A50,"jj/mm/aaaa")&amp;","&amp;B50&amp;","&amp;C50&amp;","&amp;D50&amp;","&amp;E50&amp;","&amp;F50&amp;","&amp;G50&amp;","&amp;H50</f>
+        <f t="shared" si="0"/>
         <v>12/03/2020,2876,,,129,61,,</v>
       </c>
     </row>
@@ -30949,7 +31060,7 @@
       <c r="G51" s="58"/>
       <c r="H51" s="58"/>
       <c r="I51" s="65" t="str">
-        <f>TEXT(A51,"jj/mm/aaaa")&amp;","&amp;B51&amp;","&amp;C51&amp;","&amp;D51&amp;","&amp;E51&amp;","&amp;F51&amp;","&amp;G51&amp;","&amp;H51</f>
+        <f t="shared" si="0"/>
         <v>13/03/2020,3661,,,154,79,,</v>
       </c>
     </row>
@@ -30971,7 +31082,7 @@
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
       <c r="I52" s="65" t="str">
-        <f>TEXT(A52,"jj/mm/aaaa")&amp;","&amp;B52&amp;","&amp;C52&amp;","&amp;D52&amp;","&amp;E52&amp;","&amp;F52&amp;","&amp;G52&amp;","&amp;H52</f>
+        <f t="shared" si="0"/>
         <v>14/03/2020,4500,,,300,91,,</v>
       </c>
     </row>
@@ -30993,7 +31104,7 @@
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
       <c r="I53" s="65" t="str">
-        <f>TEXT(A53,"jj/mm/aaaa")&amp;","&amp;B53&amp;","&amp;C53&amp;","&amp;D53&amp;","&amp;E53&amp;","&amp;F53&amp;","&amp;G53&amp;","&amp;H53</f>
+        <f t="shared" si="0"/>
         <v>15/03/2020,6378,285,,,161,,</v>
       </c>
     </row>
@@ -31013,7 +31124,7 @@
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
       <c r="I54" s="65" t="str">
-        <f>TEXT(A54,"jj/mm/aaaa")&amp;","&amp;B54&amp;","&amp;C54&amp;","&amp;D54&amp;","&amp;E54&amp;","&amp;F54&amp;","&amp;G54&amp;","&amp;H54</f>
+        <f t="shared" si="0"/>
         <v>16/03/2020,6633,,,,148,,</v>
       </c>
     </row>
@@ -31039,7 +31150,7 @@
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
       <c r="I55" s="65" t="str">
-        <f>TEXT(A55,"jj/mm/aaaa")&amp;","&amp;B55&amp;","&amp;C55&amp;","&amp;D55&amp;","&amp;E55&amp;","&amp;F55&amp;","&amp;G55&amp;","&amp;H55</f>
+        <f t="shared" si="0"/>
         <v>17/03/2020,7730,2579,602,699,175,,</v>
       </c>
     </row>
@@ -31065,7 +31176,7 @@
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
       <c r="I56" s="65" t="str">
-        <f>TEXT(A56,"jj/mm/aaaa")&amp;","&amp;B56&amp;","&amp;C56&amp;","&amp;D56&amp;","&amp;E56&amp;","&amp;F56&amp;","&amp;G56&amp;","&amp;H56</f>
+        <f t="shared" si="0"/>
         <v>18/03/2020,9134,3626,1000,931,264,,</v>
       </c>
     </row>
@@ -31091,7 +31202,7 @@
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
       <c r="I57" s="65" t="str">
-        <f>TEXT(A57,"jj/mm/aaaa")&amp;","&amp;B57&amp;","&amp;C57&amp;","&amp;D57&amp;","&amp;E57&amp;","&amp;F57&amp;","&amp;G57&amp;","&amp;H57</f>
+        <f t="shared" si="0"/>
         <v>19/03/2020,10995,4461,1300,1122,372,,</v>
       </c>
     </row>
@@ -31117,7 +31228,7 @@
       <c r="G58" s="58"/>
       <c r="H58" s="58"/>
       <c r="I58" s="65" t="str">
-        <f>TEXT(A58,"jj/mm/aaaa")&amp;","&amp;B58&amp;","&amp;C58&amp;","&amp;D58&amp;","&amp;E58&amp;","&amp;F58&amp;","&amp;G58&amp;","&amp;H58</f>
+        <f t="shared" si="0"/>
         <v>20/03/2020,12612,5226,1587,1297,450,,</v>
       </c>
     </row>
@@ -31143,7 +31254,7 @@
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
       <c r="I59" s="65" t="str">
-        <f>TEXT(A59,"jj/mm/aaaa")&amp;","&amp;B59&amp;","&amp;C59&amp;","&amp;D59&amp;","&amp;E59&amp;","&amp;F59&amp;","&amp;G59&amp;","&amp;H59</f>
+        <f t="shared" si="0"/>
         <v>21/03/2020,14459,6172,1811,1525,562,,</v>
       </c>
     </row>
@@ -31169,7 +31280,7 @@
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
       <c r="I60" s="65" t="str">
-        <f>TEXT(A60,"jj/mm/aaaa")&amp;","&amp;B60&amp;","&amp;C60&amp;","&amp;D60&amp;","&amp;E60&amp;","&amp;F60&amp;","&amp;G60&amp;","&amp;H60</f>
+        <f t="shared" si="0"/>
         <v>22/03/2020,16689,7240,2200,1746,674,,</v>
       </c>
     </row>
@@ -31195,7 +31306,7 @@
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
       <c r="I61" s="65" t="str">
-        <f>TEXT(A61,"jj/mm/aaaa")&amp;","&amp;B61&amp;","&amp;C61&amp;","&amp;D61&amp;","&amp;E61&amp;","&amp;F61&amp;","&amp;G61&amp;","&amp;H61</f>
+        <f t="shared" si="0"/>
         <v>23/03/2020,19856,8675,2567,2082,860,,</v>
       </c>
     </row>
@@ -31221,7 +31332,7 @@
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
       <c r="I62" s="65" t="str">
-        <f>TEXT(A62,"jj/mm/aaaa")&amp;","&amp;B62&amp;","&amp;C62&amp;","&amp;D62&amp;","&amp;E62&amp;","&amp;F62&amp;","&amp;G62&amp;","&amp;H62</f>
+        <f t="shared" si="0"/>
         <v>24/03/2020,22302,10176,3281,2516,1100,,</v>
       </c>
     </row>
@@ -31247,7 +31358,7 @@
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
       <c r="I63" s="65" t="str">
-        <f>TEXT(A63,"jj/mm/aaaa")&amp;","&amp;B63&amp;","&amp;C63&amp;","&amp;D63&amp;","&amp;E63&amp;","&amp;F63&amp;","&amp;G63&amp;","&amp;H63</f>
+        <f t="shared" si="0"/>
         <v>25/03/2020,25233,11539,3900,2827,1331,,</v>
       </c>
     </row>
@@ -31273,7 +31384,7 @@
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
       <c r="I64" s="65" t="str">
-        <f>TEXT(A64,"jj/mm/aaaa")&amp;","&amp;B64&amp;","&amp;C64&amp;","&amp;D64&amp;","&amp;E64&amp;","&amp;F64&amp;","&amp;G64&amp;","&amp;H64</f>
+        <f t="shared" si="0"/>
         <v>26/03/2020,29155,13904,4948,3375,1696,,</v>
       </c>
     </row>
@@ -31299,7 +31410,7 @@
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
       <c r="I65" s="65" t="str">
-        <f>TEXT(A65,"jj/mm/aaaa")&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65</f>
+        <f t="shared" ref="I65:I128" si="1">TEXT(A65,"jj/mm/aaaa")&amp;","&amp;B65&amp;","&amp;C65&amp;","&amp;D65&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65</f>
         <v>27/03/2020,32964,15732,5698,3787,1995,,</v>
       </c>
     </row>
@@ -31325,7 +31436,7 @@
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
       <c r="I66" s="65" t="str">
-        <f>TEXT(A66,"jj/mm/aaaa")&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66&amp;","&amp;F66&amp;","&amp;G66&amp;","&amp;H66</f>
+        <f t="shared" si="1"/>
         <v>28/03/2020,37575,17620,6624,4273,2314,,</v>
       </c>
     </row>
@@ -31351,7 +31462,7 @@
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
       <c r="I67" s="65" t="str">
-        <f>TEXT(A67,"jj/mm/aaaa")&amp;","&amp;B67&amp;","&amp;C67&amp;","&amp;D67&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67</f>
+        <f t="shared" si="1"/>
         <v>29/03/2020,40174,19354,7131,4632,2606,,</v>
       </c>
     </row>
@@ -31377,7 +31488,7 @@
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
       <c r="I68" s="65" t="str">
-        <f>TEXT(A68,"jj/mm/aaaa")&amp;","&amp;B68&amp;","&amp;C68&amp;","&amp;D68&amp;","&amp;E68&amp;","&amp;F68&amp;","&amp;G68&amp;","&amp;H68</f>
+        <f t="shared" si="1"/>
         <v>30/03/2020,44550,21008,7924,5107,3024,,</v>
       </c>
     </row>
@@ -31403,7 +31514,7 @@
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
       <c r="I69" s="65" t="str">
-        <f>TEXT(A69,"jj/mm/aaaa")&amp;","&amp;B69&amp;","&amp;C69&amp;","&amp;D69&amp;","&amp;E69&amp;","&amp;F69&amp;","&amp;G69&amp;","&amp;H69</f>
+        <f t="shared" si="1"/>
         <v>31/03/2020,52128,22757,9444,5565,3523,,</v>
       </c>
     </row>
@@ -31431,7 +31542,7 @@
         <v>371</v>
       </c>
       <c r="I70" s="65" t="str">
-        <f>TEXT(A70,"jj/mm/aaaa")&amp;","&amp;B70&amp;","&amp;C70&amp;","&amp;D70&amp;","&amp;E70&amp;","&amp;F70&amp;","&amp;G70&amp;","&amp;H70</f>
+        <f t="shared" si="1"/>
         <v>01/04/2020,56989,24639,10935,6017,4032,,371</v>
       </c>
     </row>
@@ -31459,7 +31570,7 @@
         <v>884</v>
       </c>
       <c r="I71" s="65" t="str">
-        <f>TEXT(A71,"jj/mm/aaaa")&amp;","&amp;B71&amp;","&amp;C71&amp;","&amp;D71&amp;","&amp;E71&amp;","&amp;F71&amp;","&amp;G71&amp;","&amp;H71</f>
+        <f t="shared" si="1"/>
         <v>02/04/2020,59105,26246,12428,6399,4503,,884</v>
       </c>
     </row>
@@ -31487,7 +31598,7 @@
         <v>1416</v>
       </c>
       <c r="I72" s="65" t="str">
-        <f>TEXT(A72,"jj/mm/aaaa")&amp;","&amp;B72&amp;","&amp;C72&amp;","&amp;D72&amp;","&amp;E72&amp;","&amp;F72&amp;","&amp;G72&amp;","&amp;H72</f>
+        <f t="shared" si="1"/>
         <v>03/04/2020,64338,27432,14008,6662,5091,,1416</v>
       </c>
     </row>
@@ -31515,7 +31626,7 @@
         <v>2028</v>
       </c>
       <c r="I73" s="65" t="str">
-        <f>TEXT(A73,"jj/mm/aaaa")&amp;","&amp;B73&amp;","&amp;C73&amp;","&amp;D73&amp;","&amp;E73&amp;","&amp;F73&amp;","&amp;G73&amp;","&amp;H73</f>
+        <f t="shared" si="1"/>
         <v>04/04/2020,68605,28143,15438,6838,5532,,2028</v>
       </c>
     </row>
@@ -31543,7 +31654,7 @@
         <v>2189</v>
       </c>
       <c r="I74" s="65" t="str">
-        <f>TEXT(A74,"jj/mm/aaaa")&amp;","&amp;B74&amp;","&amp;C74&amp;","&amp;D74&amp;","&amp;E74&amp;","&amp;F74&amp;","&amp;G74&amp;","&amp;H74</f>
+        <f t="shared" si="1"/>
         <v>05/04/2020,70478,28891,16183,6978,5889,,2189</v>
       </c>
     </row>
@@ -31571,7 +31682,7 @@
         <v>2417</v>
       </c>
       <c r="I75" s="65" t="str">
-        <f>TEXT(A75,"jj/mm/aaaa")&amp;","&amp;B75&amp;","&amp;C75&amp;","&amp;D75&amp;","&amp;E75&amp;","&amp;F75&amp;","&amp;G75&amp;","&amp;H75</f>
+        <f t="shared" si="1"/>
         <v>06/04/2020,74390,29722,17250,7072,6494,,2417</v>
       </c>
     </row>
@@ -31599,7 +31710,7 @@
         <v>3237</v>
       </c>
       <c r="I76" s="65" t="str">
-        <f>TEXT(A76,"jj/mm/aaaa")&amp;","&amp;B76&amp;","&amp;C76&amp;","&amp;D76&amp;","&amp;E76&amp;","&amp;F76&amp;","&amp;G76&amp;","&amp;H76</f>
+        <f t="shared" si="1"/>
         <v>07/04/2020,78167,30027,19337,7131,7091,,3237</v>
       </c>
     </row>
@@ -31627,7 +31738,7 @@
         <v>3237</v>
       </c>
       <c r="I77" s="65" t="str">
-        <f>TEXT(A77,"jj/mm/aaaa")&amp;","&amp;B77&amp;","&amp;C77&amp;","&amp;D77&amp;","&amp;E77&amp;","&amp;F77&amp;","&amp;G77&amp;","&amp;H77</f>
+        <f t="shared" si="1"/>
         <v>08/04/2020,82048,30375,21254,7148,7632,,3237</v>
       </c>
     </row>
@@ -31655,7 +31766,7 @@
         <v>4166</v>
       </c>
       <c r="I78" s="65" t="str">
-        <f>TEXT(A78,"jj/mm/aaaa")&amp;","&amp;B78&amp;","&amp;C78&amp;","&amp;D78&amp;","&amp;E78&amp;","&amp;F78&amp;","&amp;G78&amp;","&amp;H78</f>
+        <f t="shared" si="1"/>
         <v>09/04/2020,86334,30767,23206,7066,8044,,4166</v>
       </c>
     </row>
@@ -31683,7 +31794,7 @@
         <v>4599</v>
       </c>
       <c r="I79" s="65" t="str">
-        <f>TEXT(A79,"jj/mm/aaaa")&amp;","&amp;B79&amp;","&amp;C79&amp;","&amp;D79&amp;","&amp;E79&amp;","&amp;F79&amp;","&amp;G79&amp;","&amp;H79</f>
+        <f t="shared" si="1"/>
         <v>10/04/2020,90676,31267,24932,7004,8598,,4599</v>
       </c>
     </row>
@@ -31711,7 +31822,7 @@
         <v>4889</v>
       </c>
       <c r="I80" s="65" t="str">
-        <f>TEXT(A80,"jj/mm/aaaa")&amp;","&amp;B80&amp;","&amp;C80&amp;","&amp;D80&amp;","&amp;E80&amp;","&amp;F80&amp;","&amp;G80&amp;","&amp;H80</f>
+        <f t="shared" si="1"/>
         <v>11/04/2020,93790,31320,26931,6883,8943,,4889</v>
       </c>
     </row>
@@ -31741,7 +31852,7 @@
         <v>5140</v>
       </c>
       <c r="I81" s="65" t="str">
-        <f>TEXT(A81,"jj/mm/aaaa")&amp;","&amp;B81&amp;","&amp;C81&amp;","&amp;D81&amp;","&amp;E81&amp;","&amp;F81&amp;","&amp;G81&amp;","&amp;H81</f>
+        <f t="shared" si="1"/>
         <v>12/04/2020,95403,31826,27186,6845,9253,11958,5140</v>
       </c>
     </row>
@@ -31771,7 +31882,7 @@
         <v>5379</v>
       </c>
       <c r="I82" s="65" t="str">
-        <f>TEXT(A82,"jj/mm/aaaa")&amp;","&amp;B82&amp;","&amp;C82&amp;","&amp;D82&amp;","&amp;E82&amp;","&amp;F82&amp;","&amp;G82&amp;","&amp;H82</f>
+        <f t="shared" si="1"/>
         <v>13/04/2020,98076,32113,27718,6821,9588,12481,5379</v>
       </c>
     </row>
@@ -31801,7 +31912,7 @@
         <v>5600</v>
       </c>
       <c r="I83" s="65" t="str">
-        <f>TEXT(A83,"jj/mm/aaaa")&amp;","&amp;B83&amp;","&amp;C83&amp;","&amp;D83&amp;","&amp;E83&amp;","&amp;F83&amp;","&amp;G83&amp;","&amp;H83</f>
+        <f t="shared" si="1"/>
         <v>14/04/2020,103573,32292,28805,6730,10129,13050,5600</v>
       </c>
     </row>
@@ -31831,7 +31942,7 @@
         <v>6524</v>
       </c>
       <c r="I84" s="65" t="str">
-        <f>TEXT(A84,"jj/mm/aaaa")&amp;","&amp;B84&amp;","&amp;C84&amp;","&amp;D84&amp;","&amp;E84&amp;","&amp;F84&amp;","&amp;G84&amp;","&amp;H84</f>
+        <f t="shared" si="1"/>
         <v>15/04/2020,106206,31779,30995,6457,10643,14393,6524</v>
       </c>
     </row>
@@ -31861,7 +31972,7 @@
         <v>6860</v>
       </c>
       <c r="I85" s="65" t="str">
-        <f>TEXT(A85,"jj/mm/aaaa")&amp;","&amp;B85&amp;","&amp;C85&amp;","&amp;D85&amp;","&amp;E85&amp;","&amp;F85&amp;","&amp;G85&amp;","&amp;H85</f>
+        <f t="shared" si="1"/>
         <v>16/04/2020,108847,31305,32812,6248,11060,18967,6860</v>
       </c>
     </row>
@@ -31891,7 +32002,7 @@
         <v>7203</v>
       </c>
       <c r="I86" s="65" t="str">
-        <f>TEXT(A86,"jj/mm/aaaa")&amp;","&amp;B86&amp;","&amp;C86&amp;","&amp;D86&amp;","&amp;E86&amp;","&amp;F86&amp;","&amp;G86&amp;","&amp;H86</f>
+        <f t="shared" si="1"/>
         <v>17/04/2020,109252,31190,34420,6027,11478,20272,7203</v>
       </c>
     </row>
@@ -31921,7 +32032,7 @@
         <v>7481</v>
       </c>
       <c r="I87" s="65" t="str">
-        <f>TEXT(A87,"jj/mm/aaaa")&amp;","&amp;B87&amp;","&amp;C87&amp;","&amp;D87&amp;","&amp;E87&amp;","&amp;F87&amp;","&amp;G87&amp;","&amp;H87</f>
+        <f t="shared" si="1"/>
         <v>18/04/2020,111821,30639,35983,5833,11842,22163,7481</v>
       </c>
     </row>
@@ -31951,7 +32062,7 @@
         <v>7649</v>
       </c>
       <c r="I88" s="65" t="str">
-        <f>TEXT(A88,"jj/mm/aaaa")&amp;","&amp;B88&amp;","&amp;C88&amp;","&amp;D88&amp;","&amp;E88&amp;","&amp;F88&amp;","&amp;G88&amp;","&amp;H88</f>
+        <f t="shared" si="1"/>
         <v>19/04/2020,112606,30610,36578,5744,12069,23048,7649</v>
       </c>
     </row>
@@ -31981,7 +32092,7 @@
         <v>7752</v>
       </c>
       <c r="I89" s="65" t="str">
-        <f>TEXT(A89,"jj/mm/aaaa")&amp;","&amp;B89&amp;","&amp;C89&amp;","&amp;D89&amp;","&amp;E89&amp;","&amp;F89&amp;","&amp;G89&amp;","&amp;H89</f>
+        <f t="shared" si="1"/>
         <v>20/04/2020,114657,30584,37409,5683,12513,23668,7752</v>
       </c>
     </row>
@@ -32009,7 +32120,7 @@
         <v>7896</v>
       </c>
       <c r="I90" s="65" t="str">
-        <f>TEXT(A90,"jj/mm/aaaa")&amp;","&amp;B90&amp;","&amp;C90&amp;","&amp;D90&amp;","&amp;E90&amp;","&amp;F90&amp;","&amp;G90&amp;","&amp;H90</f>
+        <f t="shared" si="1"/>
         <v>21/04/2020,117324,30106,39181,5433,12900,,7896</v>
       </c>
     </row>
@@ -32039,7 +32150,7 @@
         <v>8104</v>
       </c>
       <c r="I91" s="65" t="str">
-        <f>TEXT(A91,"jj/mm/aaaa")&amp;","&amp;B91&amp;","&amp;C91&amp;","&amp;D91&amp;","&amp;E91&amp;","&amp;F91&amp;","&amp;G91&amp;","&amp;H91</f>
+        <f t="shared" si="1"/>
         <v>22/04/2020,119151,29741,40657,5218,13236,25513,8104</v>
       </c>
     </row>
@@ -32069,7 +32180,7 @@
         <v>8309</v>
       </c>
       <c r="I92" s="65" t="str">
-        <f>TEXT(A92,"jj/mm/aaaa")&amp;","&amp;B92&amp;","&amp;C92&amp;","&amp;D92&amp;","&amp;E92&amp;","&amp;F92&amp;","&amp;G92&amp;","&amp;H92</f>
+        <f t="shared" si="1"/>
         <v>23/04/2020,120804,29219,42088,5053,13547,26840,8309</v>
       </c>
     </row>
@@ -32099,7 +32210,7 @@
         <v>8393</v>
       </c>
       <c r="I93" s="65" t="str">
-        <f>TEXT(A93,"jj/mm/aaaa")&amp;","&amp;B93&amp;","&amp;C93&amp;","&amp;D93&amp;","&amp;E93&amp;","&amp;F93&amp;","&amp;G93&amp;","&amp;H93</f>
+        <f t="shared" si="1"/>
         <v>24/04/2020,122577,28658,43493,4870,13852,27880,8393</v>
       </c>
     </row>
@@ -32129,7 +32240,7 @@
         <v>8564</v>
       </c>
       <c r="I94" s="65" t="str">
-        <f>TEXT(A94,"jj/mm/aaaa")&amp;","&amp;B94&amp;","&amp;C94&amp;","&amp;D94&amp;","&amp;E94&amp;","&amp;F94&amp;","&amp;G94&amp;","&amp;H94</f>
+        <f t="shared" si="1"/>
         <v>25/04/2020,124114,28222,44594,4725,14050,29126,8564</v>
       </c>
     </row>
@@ -32159,7 +32270,7 @@
         <v>8654</v>
       </c>
       <c r="I95" s="65" t="str">
-        <f>TEXT(A95,"jj/mm/aaaa")&amp;","&amp;B95&amp;","&amp;C95&amp;","&amp;D95&amp;","&amp;E95&amp;","&amp;F95&amp;","&amp;G95&amp;","&amp;H95</f>
+        <f t="shared" si="1"/>
         <v>26/04/2020,124575,28217,44903,4682,14202,29643,8654</v>
       </c>
     </row>
@@ -32189,7 +32300,7 @@
         <v>8796</v>
       </c>
       <c r="I96" s="65" t="str">
-        <f>TEXT(A96,"jj/mm/aaaa")&amp;","&amp;B96&amp;","&amp;C96&amp;","&amp;D96&amp;","&amp;E96&amp;","&amp;F96&amp;","&amp;G96&amp;","&amp;H96</f>
+        <f t="shared" si="1"/>
         <v>27/04/2020,128339,28055,45513,4608,14497,30227,8796</v>
       </c>
     </row>
@@ -32219,7 +32330,7 @@
         <v>8850</v>
       </c>
       <c r="I97" s="65" t="str">
-        <f>TEXT(A97,"jj/mm/aaaa")&amp;","&amp;B97&amp;","&amp;C97&amp;","&amp;D97&amp;","&amp;E97&amp;","&amp;F97&amp;","&amp;G97&amp;","&amp;H97</f>
+        <f t="shared" si="1"/>
         <v>28/04/2020,129859,27484,46886,4387,14810,30817,8850</v>
       </c>
     </row>
@@ -32249,7 +32360,7 @@
         <v>9034</v>
       </c>
       <c r="I98" s="65" t="str">
-        <f>TEXT(A98,"jj/mm/aaaa")&amp;","&amp;B98&amp;","&amp;C98&amp;","&amp;D98&amp;","&amp;E98&amp;","&amp;F98&amp;","&amp;G98&amp;","&amp;H98</f>
+        <f t="shared" si="1"/>
         <v>29/04/2020,128442,26834,48228,4207,15053,31795,9034</v>
       </c>
     </row>
@@ -32279,7 +32390,7 @@
         <v>9132</v>
       </c>
       <c r="I99" s="65" t="str">
-        <f>TEXT(A99,"jj/mm/aaaa")&amp;","&amp;B99&amp;","&amp;C99&amp;","&amp;D99&amp;","&amp;E99&amp;","&amp;F99&amp;","&amp;G99&amp;","&amp;H99</f>
+        <f t="shared" si="1"/>
         <v>30/04/2020,129581,26283,49476,4019,15244,32355,9132</v>
       </c>
     </row>
@@ -32309,7 +32420,7 @@
         <v>9225</v>
       </c>
       <c r="I100" s="65" t="str">
-        <f>TEXT(A100,"jj/mm/aaaa")&amp;","&amp;B100&amp;","&amp;C100&amp;","&amp;D100&amp;","&amp;E100&amp;","&amp;F100&amp;","&amp;G100&amp;","&amp;H100</f>
+        <f t="shared" si="1"/>
         <v>01/05/2020,130185,25887,50212,3878,15369,32791,9225</v>
       </c>
     </row>
@@ -32339,7 +32450,7 @@
         <v>9273</v>
       </c>
       <c r="I101" s="65" t="str">
-        <f>TEXT(A101,"jj/mm/aaaa")&amp;","&amp;B101&amp;","&amp;C101&amp;","&amp;D101&amp;","&amp;E101&amp;","&amp;F101&amp;","&amp;G101&amp;","&amp;H101</f>
+        <f t="shared" si="1"/>
         <v>02/05/2020,130979,25827,50562,3827,15487,33271,9273</v>
       </c>
     </row>
@@ -32369,7 +32480,7 @@
         <v>9312</v>
       </c>
       <c r="I102" s="65" t="str">
-        <f>TEXT(A102,"jj/mm/aaaa")&amp;","&amp;B102&amp;","&amp;C102&amp;","&amp;D102&amp;","&amp;E102&amp;","&amp;F102&amp;","&amp;G102&amp;","&amp;H102</f>
+        <f t="shared" si="1"/>
         <v>03/05/2020,131287,25815,50784,3819,15583,33361,9312</v>
       </c>
     </row>
@@ -32399,7 +32510,7 @@
         <v>9375</v>
       </c>
       <c r="I103" s="65" t="str">
-        <f>TEXT(A103,"jj/mm/aaaa")&amp;","&amp;B103&amp;","&amp;C103&amp;","&amp;D103&amp;","&amp;E103&amp;","&amp;F103&amp;","&amp;G103&amp;","&amp;H103</f>
+        <f t="shared" si="1"/>
         <v>04/05/2020,131863,25548,51371,3696,15826,33791,9375</v>
       </c>
     </row>
@@ -32429,7 +32540,7 @@
         <v>9471</v>
       </c>
       <c r="I104" s="65" t="str">
-        <f>TEXT(A104,"jj/mm/aaaa")&amp;","&amp;B104&amp;","&amp;C104&amp;","&amp;D104&amp;","&amp;E104&amp;","&amp;F104&amp;","&amp;G104&amp;","&amp;H104</f>
+        <f t="shared" si="1"/>
         <v>05/05/2020,132967,24775,52736,3430,16060,34108,9471</v>
       </c>
     </row>
@@ -32459,7 +32570,7 @@
         <v>9572</v>
       </c>
       <c r="I105" s="65" t="str">
-        <f>TEXT(A105,"jj/mm/aaaa")&amp;","&amp;B105&amp;","&amp;C105&amp;","&amp;D105&amp;","&amp;E105&amp;","&amp;F105&amp;","&amp;G105&amp;","&amp;H105</f>
+        <f t="shared" si="1"/>
         <v>06/05/2020,137150,23983,53972,3147,16237,34507,9572</v>
       </c>
     </row>
@@ -32489,7 +32600,7 @@
         <v>9601</v>
       </c>
       <c r="I106" s="65" t="str">
-        <f>TEXT(A106,"jj/mm/aaaa")&amp;","&amp;B106&amp;","&amp;C106&amp;","&amp;D106&amp;","&amp;E106&amp;","&amp;F106&amp;","&amp;G106&amp;","&amp;H106</f>
+        <f t="shared" si="1"/>
         <v>07/05/2020,137779,23208,55027,2961,16386,34653,9601</v>
       </c>
     </row>
@@ -32519,7 +32630,7 @@
         <v>9733</v>
       </c>
       <c r="I107" s="65" t="str">
-        <f>TEXT(A107,"jj/mm/aaaa")&amp;","&amp;B107&amp;","&amp;C107&amp;","&amp;D107&amp;","&amp;E107&amp;","&amp;F107&amp;","&amp;G107&amp;","&amp;H107</f>
+        <f t="shared" si="1"/>
         <v>08/05/2020,138421,22724,55782,2868,16497,34890,9733</v>
       </c>
     </row>
@@ -32549,7 +32660,7 @@
         <v>9737</v>
       </c>
       <c r="I108" s="65" t="str">
-        <f>TEXT(A108,"jj/mm/aaaa")&amp;","&amp;B108&amp;","&amp;C108&amp;","&amp;D108&amp;","&amp;E108&amp;","&amp;F108&amp;","&amp;G108&amp;","&amp;H108</f>
+        <f t="shared" si="1"/>
         <v>09/05/2020,138854,22614,56038,2812,16573,35046,9737</v>
       </c>
     </row>
@@ -32579,7 +32690,7 @@
         <v>9738</v>
       </c>
       <c r="I109" s="65" t="str">
-        <f>TEXT(A109,"jj/mm/aaaa")&amp;","&amp;B109&amp;","&amp;C109&amp;","&amp;D109&amp;","&amp;E109&amp;","&amp;F109&amp;","&amp;G109&amp;","&amp;H109</f>
+        <f t="shared" si="1"/>
         <v>10/05/2020,139063,22569,56217,2776,16642,35236,9738</v>
       </c>
     </row>
@@ -32609,7 +32720,7 @@
         <v>9823</v>
       </c>
       <c r="I110" s="65" t="str">
-        <f>TEXT(A110,"jj/mm/aaaa")&amp;","&amp;B110&amp;","&amp;C110&amp;","&amp;D110&amp;","&amp;E110&amp;","&amp;F110&amp;","&amp;G110&amp;","&amp;H110</f>
+        <f t="shared" si="1"/>
         <v>11/05/2020,139519,22284,56724,2712,16820,35195,9823</v>
       </c>
     </row>
@@ -32639,7 +32750,7 @@
         <v>9988</v>
       </c>
       <c r="I111" s="65" t="str">
-        <f>TEXT(A111,"jj/mm/aaaa")&amp;","&amp;B111&amp;","&amp;C111&amp;","&amp;D111&amp;","&amp;E111&amp;","&amp;F111&amp;","&amp;G111&amp;","&amp;H111</f>
+        <f t="shared" si="1"/>
         <v>12/05/2020,140227,21595,57785,2542,17003,35437,9988</v>
       </c>
     </row>
@@ -32669,7 +32780,7 @@
         <v>9973</v>
       </c>
       <c r="I112" s="65" t="str">
-        <f>TEXT(A112,"jj/mm/aaaa")&amp;","&amp;B112&amp;","&amp;C112&amp;","&amp;D112&amp;","&amp;E112&amp;","&amp;F112&amp;","&amp;G112&amp;","&amp;H112</f>
+        <f t="shared" si="1"/>
         <v>13/05/2020,140734,21071,58673,2428,17101,35604,9973</v>
       </c>
     </row>
@@ -32699,7 +32810,7 @@
         <v>10201</v>
       </c>
       <c r="I113" s="65" t="str">
-        <f>TEXT(A113,"jj/mm/aaaa")&amp;","&amp;B113&amp;","&amp;C113&amp;","&amp;D113&amp;","&amp;E113&amp;","&amp;F113&amp;","&amp;G113&amp;","&amp;H113</f>
+        <f t="shared" si="1"/>
         <v>14/05/2020,141356,20463,59605,2299,17224,35820,10201</v>
       </c>
     </row>
@@ -32729,7 +32840,7 @@
         <v>10187</v>
       </c>
       <c r="I114" s="65" t="str">
-        <f>TEXT(A114,"jj/mm/aaaa")&amp;","&amp;B114&amp;","&amp;C114&amp;","&amp;D114&amp;","&amp;E114&amp;","&amp;F114&amp;","&amp;G114&amp;","&amp;H114</f>
+        <f t="shared" si="1"/>
         <v>15/05/2020,141919,19861,60448,2203,17342,36126,10187</v>
       </c>
     </row>
@@ -32759,7 +32870,7 @@
         <v>10213</v>
       </c>
       <c r="I115" s="65" t="str">
-        <f>TEXT(A115,"jj/mm/aaaa")&amp;","&amp;B115&amp;","&amp;C115&amp;","&amp;D115&amp;","&amp;E115&amp;","&amp;F115&amp;","&amp;G115&amp;","&amp;H115</f>
+        <f t="shared" si="1"/>
         <v>16/05/2020,142291,19432,61066,2132,17412,36175,10213</v>
       </c>
     </row>
@@ -32789,7 +32900,7 @@
         <v>10642</v>
       </c>
       <c r="I116" s="65" t="str">
-        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;B116&amp;","&amp;C116&amp;","&amp;D116&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116</f>
+        <f t="shared" si="1"/>
         <v>17/05/2020,142411,19361,61213,2087,17466,36461,10642</v>
       </c>
     </row>
@@ -32819,7 +32930,7 @@
         <v>10650</v>
       </c>
       <c r="I117" s="65" t="str">
-        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;B117&amp;","&amp;C117&amp;","&amp;D117&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;G117&amp;","&amp;H117</f>
+        <f t="shared" si="1"/>
         <v>18/05/2020,142903,19015,61728,1998,17589,36599,10650</v>
       </c>
     </row>
@@ -32849,7 +32960,7 @@
         <v>10308</v>
       </c>
       <c r="I118" s="65" t="str">
-        <f>TEXT(A118,"jj/mm/aaaa")&amp;","&amp;B118&amp;","&amp;C118&amp;","&amp;D118&amp;","&amp;E118&amp;","&amp;F118&amp;","&amp;G118&amp;","&amp;H118</f>
+        <f t="shared" si="1"/>
         <v>19/05/2020,143427,18468,62563,1894,17714,36530,10308</v>
       </c>
     </row>
@@ -32879,7 +32990,7 @@
         <v>10320</v>
       </c>
       <c r="I119" s="65" t="str">
-        <f>TEXT(A119,"jj/mm/aaaa")&amp;","&amp;B119&amp;","&amp;C119&amp;","&amp;D119&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119</f>
+        <f t="shared" si="1"/>
         <v>20/05/2020,143845,17941,63354,1794,17812,36751,10320</v>
       </c>
     </row>
@@ -32909,7 +33020,7 @@
         <v>10345</v>
       </c>
       <c r="I120" s="65" t="str">
-        <f>TEXT(A120,"jj/mm/aaaa")&amp;","&amp;B120&amp;","&amp;C120&amp;","&amp;D120&amp;","&amp;E120&amp;","&amp;F120&amp;","&amp;G120&amp;","&amp;H120</f>
+        <f t="shared" si="1"/>
         <v>21/05/2020,144163,17583,63858,1745,17870,36853,10345</v>
       </c>
     </row>
@@ -32939,7 +33050,7 @@
         <v>10345</v>
       </c>
       <c r="I121" s="65" t="str">
-        <f>TEXT(A121,"jj/mm/aaaa")&amp;","&amp;B121&amp;","&amp;C121&amp;","&amp;D121&amp;","&amp;E121&amp;","&amp;F121&amp;","&amp;G121&amp;","&amp;H121</f>
+        <f t="shared" si="1"/>
         <v>22/05/2020,144556,17383,64209,1701,17944,36853,10345</v>
       </c>
     </row>
@@ -32969,7 +33080,7 @@
         <v>10345</v>
       </c>
       <c r="I122" s="65" t="str">
-        <f>TEXT(A122,"jj/mm/aaaa")&amp;","&amp;B122&amp;","&amp;C122&amp;","&amp;D122&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122</f>
+        <f t="shared" si="1"/>
         <v>23/05/2020,144806,17178,64547,1665,17987,36853,10345</v>
       </c>
     </row>
@@ -32999,7 +33110,7 @@
         <v>10345</v>
       </c>
       <c r="I123" s="65" t="str">
-        <f>TEXT(A123,"jj/mm/aaaa")&amp;","&amp;B123&amp;","&amp;C123&amp;","&amp;D123&amp;","&amp;E123&amp;","&amp;F123&amp;","&amp;G123&amp;","&amp;H123</f>
+        <f t="shared" si="1"/>
         <v>24/05/2020,144921,17185,64617,1655,18022,36853,10345</v>
       </c>
     </row>
@@ -33029,7 +33140,7 @@
         <v>10345</v>
       </c>
       <c r="I124" s="65" t="str">
-        <f>TEXT(A124,"jj/mm/aaaa")&amp;","&amp;B124&amp;","&amp;C124&amp;","&amp;D124&amp;","&amp;E124&amp;","&amp;F124&amp;","&amp;G124&amp;","&amp;H124</f>
+        <f t="shared" si="1"/>
         <v>25/05/2020,145279,16798,65199,1609,18112,36853,10345</v>
       </c>
     </row>
@@ -33059,7 +33170,7 @@
         <v>10335</v>
       </c>
       <c r="I125" s="65" t="str">
-        <f>TEXT(A125,"jj/mm/aaaa")&amp;","&amp;B125&amp;","&amp;C125&amp;","&amp;D125&amp;","&amp;E125&amp;","&amp;F125&amp;","&amp;G125&amp;","&amp;H125</f>
+        <f t="shared" si="1"/>
         <v>26/05/2020,145555,16264,65879,1555,18195,37235,10335</v>
       </c>
     </row>
@@ -33089,7 +33200,7 @@
         <v>10336</v>
       </c>
       <c r="I126" s="65" t="str">
-        <f>TEXT(A126,"jj/mm/aaaa")&amp;","&amp;B126&amp;","&amp;C126&amp;","&amp;D126&amp;","&amp;E126&amp;","&amp;F126&amp;","&amp;G126&amp;","&amp;H126</f>
+        <f t="shared" si="1"/>
         <v>27/05/2020,145746,15680,66584,1501,18260,37235,10336</v>
       </c>
     </row>
@@ -33119,7 +33230,7 @@
         <v>10336</v>
       </c>
       <c r="I127" s="65" t="str">
-        <f>TEXT(A127,"jj/mm/aaaa")&amp;","&amp;B127&amp;","&amp;C127&amp;","&amp;D127&amp;","&amp;E127&amp;","&amp;F127&amp;","&amp;G127&amp;","&amp;H127</f>
+        <f t="shared" si="1"/>
         <v>28/05/2020,149071,15308,67191,1429,18326,37235,10336</v>
       </c>
     </row>
@@ -33149,7 +33260,7 @@
         <v>10327</v>
       </c>
       <c r="I128" s="65" t="str">
-        <f>TEXT(A128,"jj/mm/aaaa")&amp;","&amp;B128&amp;","&amp;C128&amp;","&amp;D128&amp;","&amp;E128&amp;","&amp;F128&amp;","&amp;G128&amp;","&amp;H128</f>
+        <f t="shared" si="1"/>
         <v>29/05/2020,149668,14695,67803,1361,18387,37273,10327</v>
       </c>
     </row>
@@ -33179,7 +33290,7 @@
         <v>10327</v>
       </c>
       <c r="I129" s="65" t="str">
-        <f>TEXT(A129,"jj/mm/aaaa")&amp;","&amp;B129&amp;","&amp;C129&amp;","&amp;D129&amp;","&amp;E129&amp;","&amp;F129&amp;","&amp;G129&amp;","&amp;H129</f>
+        <f t="shared" ref="I129:I192" si="2">TEXT(A129,"jj/mm/aaaa")&amp;","&amp;B129&amp;","&amp;C129&amp;","&amp;D129&amp;","&amp;E129&amp;","&amp;F129&amp;","&amp;G129&amp;","&amp;H129</f>
         <v>30/05/2020,151496,14380,68268,1325,18444,37273,10327</v>
       </c>
     </row>
@@ -33209,7 +33320,7 @@
         <v>10327</v>
       </c>
       <c r="I130" s="65" t="str">
-        <f>TEXT(A130,"jj/mm/aaaa")&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130&amp;","&amp;F130&amp;","&amp;G130&amp;","&amp;H130</f>
+        <f t="shared" si="2"/>
         <v>31/05/2020,151753,14322,68355,1319,18475,37273,10327</v>
       </c>
     </row>
@@ -33239,7 +33350,7 @@
         <v>10327</v>
       </c>
       <c r="I131" s="65" t="str">
-        <f>TEXT(A131,"jj/mm/aaaa")&amp;","&amp;B131&amp;","&amp;C131&amp;","&amp;D131&amp;","&amp;E131&amp;","&amp;F131&amp;","&amp;G131&amp;","&amp;H131</f>
+        <f t="shared" si="2"/>
         <v>01/06/2020,152091,14288,68440,1302,18506,37273,10327</v>
       </c>
     </row>
@@ -33269,7 +33380,7 @@
         <v>10350</v>
       </c>
       <c r="I132" s="65" t="str">
-        <f>TEXT(A132,"jj/mm/aaaa")&amp;","&amp;B132&amp;","&amp;C132&amp;","&amp;D132&amp;","&amp;E132&amp;","&amp;F132&amp;","&amp;G132&amp;","&amp;H132</f>
+        <f t="shared" si="2"/>
         <v>02/06/2020,151325,14028,68812,1253,18590,37405,10350</v>
       </c>
     </row>
@@ -33299,7 +33410,7 @@
         <v>10350</v>
       </c>
       <c r="I133" s="65" t="str">
-        <f>TEXT(A133,"jj/mm/aaaa")&amp;","&amp;B133&amp;","&amp;C133&amp;","&amp;D133&amp;","&amp;E133&amp;","&amp;F133&amp;","&amp;G133&amp;","&amp;H133</f>
+        <f t="shared" si="2"/>
         <v>03/06/2020,151677,13514,69455,1210,18671,37405,10350</v>
       </c>
     </row>
@@ -33329,7 +33440,7 @@
         <v>10350</v>
       </c>
       <c r="I134" s="65" t="str">
-        <f>TEXT(A134,"jj/mm/aaaa")&amp;","&amp;B134&amp;","&amp;C134&amp;","&amp;D134&amp;","&amp;E134&amp;","&amp;F134&amp;","&amp;G134&amp;","&amp;H134</f>
+        <f t="shared" si="2"/>
         <v>04/06/2020,152444,13101,69976,1163,18715,37405,10350</v>
       </c>
     </row>
@@ -33359,7 +33470,7 @@
         <v>10350</v>
       </c>
       <c r="I135" s="65" t="str">
-        <f>TEXT(A135,"jj/mm/aaaa")&amp;","&amp;B135&amp;","&amp;C135&amp;","&amp;D135&amp;","&amp;E135&amp;","&amp;F135&amp;","&amp;G135&amp;","&amp;H135</f>
+        <f t="shared" si="2"/>
         <v>05/06/2020,153055,12696,70504,1094,18761,37405,10350</v>
       </c>
     </row>
@@ -33389,7 +33500,7 @@
         <v>10350</v>
       </c>
       <c r="I136" s="65" t="str">
-        <f>TEXT(A136,"jj/mm/aaaa")&amp;","&amp;B136&amp;","&amp;C136&amp;","&amp;D136&amp;","&amp;E136&amp;","&amp;F136&amp;","&amp;G136&amp;","&amp;H136</f>
+        <f t="shared" si="2"/>
         <v>06/06/2020,153634,12479,70806,1059,18792,37405,10350</v>
       </c>
     </row>
@@ -33419,7 +33530,7 @@
         <v>10350</v>
       </c>
       <c r="I137" s="65" t="str">
-        <f>TEXT(A137,"jj/mm/aaaa")&amp;","&amp;B137&amp;","&amp;C137&amp;","&amp;D137&amp;","&amp;E137&amp;","&amp;F137&amp;","&amp;G137&amp;","&amp;H137</f>
+        <f t="shared" si="2"/>
         <v>07/06/2020,153977,12461,70842,1053,18805,37405,10350</v>
       </c>
     </row>
@@ -33449,7 +33560,7 @@
         <v>10350</v>
       </c>
       <c r="I138" s="65" t="str">
-        <f>TEXT(A138,"jj/mm/aaaa")&amp;","&amp;B138&amp;","&amp;C138&amp;","&amp;D138&amp;","&amp;E138&amp;","&amp;F138&amp;","&amp;G138&amp;","&amp;H138</f>
+        <f t="shared" si="2"/>
         <v>08/06/2020,154188,12315,71062,1024,18859,37405,10350</v>
       </c>
     </row>
@@ -33479,7 +33590,7 @@
         <v>10384</v>
       </c>
       <c r="I139" s="65" t="str">
-        <f>TEXT(A139,"jj/mm/aaaa")&amp;","&amp;B139&amp;","&amp;C139&amp;","&amp;D139&amp;","&amp;E139&amp;","&amp;F139&amp;","&amp;G139&amp;","&amp;H139</f>
+        <f t="shared" si="2"/>
         <v>09/06/2020,154591,11961,71506,955,18912,37599,10384</v>
       </c>
     </row>
@@ -33509,7 +33620,7 @@
         <v>10384</v>
       </c>
       <c r="I140" s="65" t="str">
-        <f>TEXT(A140,"jj/mm/aaaa")&amp;","&amp;B140&amp;","&amp;C140&amp;","&amp;D140&amp;","&amp;E140&amp;","&amp;F140&amp;","&amp;G140&amp;","&amp;H140</f>
+        <f t="shared" si="2"/>
         <v>10/06/2020,155136,11678,71832,933,18935,37599,10384</v>
       </c>
     </row>
@@ -33539,7 +33650,7 @@
         <v>10384</v>
       </c>
       <c r="I141" s="65" t="str">
-        <f>TEXT(A141,"jj/mm/aaaa")&amp;","&amp;B141&amp;","&amp;C141&amp;","&amp;D141&amp;","&amp;E141&amp;","&amp;F141&amp;","&amp;G141&amp;","&amp;H141</f>
+        <f t="shared" si="2"/>
         <v>11/06/2020,155561,11465,72149,903,18962,37599,10384</v>
       </c>
     </row>
@@ -33569,7 +33680,7 @@
         <v>10384</v>
       </c>
       <c r="I142" s="65" t="str">
-        <f>TEXT(A142,"jj/mm/aaaa")&amp;","&amp;B142&amp;","&amp;C142&amp;","&amp;D142&amp;","&amp;E142&amp;","&amp;F142&amp;","&amp;G142&amp;","&amp;H142</f>
+        <f t="shared" si="2"/>
         <v>12/06/2020,156287,11124,72572,879,18990,37599,10384</v>
       </c>
     </row>
@@ -33599,7 +33710,7 @@
         <v>10384</v>
       </c>
       <c r="I143" s="65" t="str">
-        <f>TEXT(A143,"jj/mm/aaaa")&amp;","&amp;B143&amp;","&amp;C143&amp;","&amp;D143&amp;","&amp;E143&amp;","&amp;F143&amp;","&amp;G143&amp;","&amp;H143</f>
+        <f t="shared" si="2"/>
         <v>13/06/2020,156813,10909,72808,871,19014,37599,10384</v>
       </c>
     </row>
@@ -33629,7 +33740,7 @@
         <v>10384</v>
       </c>
       <c r="I144" s="65" t="str">
-        <f>TEXT(A144,"jj/mm/aaaa")&amp;","&amp;B144&amp;","&amp;C144&amp;","&amp;D144&amp;","&amp;E144&amp;","&amp;F144&amp;","&amp;G144&amp;","&amp;H144</f>
+        <f t="shared" si="2"/>
         <v>14/06/2020,157220,10881,72859,869,19023,37599,10384</v>
       </c>
     </row>
@@ -33659,7 +33770,7 @@
         <v>10384</v>
       </c>
       <c r="I145" s="65" t="str">
-        <f>TEXT(A145,"jj/mm/aaaa")&amp;","&amp;B145&amp;","&amp;C145&amp;","&amp;D145&amp;","&amp;E145&amp;","&amp;F145&amp;","&amp;G145&amp;","&amp;H145</f>
+        <f t="shared" si="2"/>
         <v>15/06/2020,157372,10752,73044,846,19052,37599,10384</v>
       </c>
     </row>
@@ -33689,7 +33800,7 @@
         <v>10457</v>
       </c>
       <c r="I146" s="65" t="str">
-        <f>TEXT(A146,"jj/mm/aaaa")&amp;","&amp;B146&amp;","&amp;C146&amp;","&amp;D146&amp;","&amp;E146&amp;","&amp;F146&amp;","&amp;G146&amp;","&amp;H146</f>
+        <f t="shared" si="2"/>
         <v>16/06/2020,157716,10535,73335,820,19090,37901,10457</v>
       </c>
     </row>
@@ -33719,7 +33830,7 @@
         <v>10457</v>
       </c>
       <c r="I147" s="65" t="str">
-        <f>TEXT(A147,"jj/mm/aaaa")&amp;","&amp;B147&amp;","&amp;C147&amp;","&amp;D147&amp;","&amp;E147&amp;","&amp;F147&amp;","&amp;G147&amp;","&amp;H147</f>
+        <f t="shared" si="2"/>
         <v>17/06/2020,158174,10267,73667,772,19118,37901,10457</v>
       </c>
     </row>
@@ -33749,7 +33860,7 @@
         <v>10457</v>
       </c>
       <c r="I148" s="65" t="str">
-        <f>TEXT(A148,"jj/mm/aaaa")&amp;","&amp;B148&amp;","&amp;C148&amp;","&amp;D148&amp;","&amp;E148&amp;","&amp;F148&amp;","&amp;G148&amp;","&amp;H148</f>
+        <f t="shared" si="2"/>
         <v>18/06/2020,158641,10125,73887,752,19146,37901,10457</v>
       </c>
     </row>
@@ -33779,7 +33890,7 @@
         <v>10457</v>
       </c>
       <c r="I149" s="65" t="str">
-        <f>TEXT(A149,"jj/mm/aaaa")&amp;","&amp;B149&amp;","&amp;C149&amp;","&amp;D149&amp;","&amp;E149&amp;","&amp;F149&amp;","&amp;G149&amp;","&amp;H149</f>
+        <f t="shared" si="2"/>
         <v>19/06/2020,159452,9970,74117,727,19160,37901,10457</v>
       </c>
     </row>
@@ -33809,7 +33920,7 @@
         <v>10457</v>
       </c>
       <c r="I150" s="65" t="str">
-        <f>TEXT(A150,"jj/mm/aaaa")&amp;","&amp;B150&amp;","&amp;C150&amp;","&amp;D150&amp;","&amp;E150&amp;","&amp;F150&amp;","&amp;G150&amp;","&amp;H150</f>
+        <f t="shared" si="2"/>
         <v>20/06/2020,160093,9837,74312,715,19176,37901,10457</v>
       </c>
     </row>
@@ -33839,7 +33950,7 @@
         <v>10457</v>
       </c>
       <c r="I151" s="65" t="str">
-        <f>TEXT(A151,"jj/mm/aaaa")&amp;","&amp;B151&amp;","&amp;C151&amp;","&amp;D151&amp;","&amp;E151&amp;","&amp;F151&amp;","&amp;G151&amp;","&amp;H151</f>
+        <f t="shared" si="2"/>
         <v>21/06/2020,160377,9823,74372,715,19183,37901,10457</v>
       </c>
     </row>
@@ -33869,7 +33980,7 @@
         <v>10457</v>
       </c>
       <c r="I152" s="65" t="str">
-        <f>TEXT(A152,"jj/mm/aaaa")&amp;","&amp;B152&amp;","&amp;C152&amp;","&amp;D152&amp;","&amp;E152&amp;","&amp;F152&amp;","&amp;G152&amp;","&amp;H152</f>
+        <f t="shared" si="2"/>
         <v>22/06/2020,160750,9693,74612,701,19206,37901,10457</v>
       </c>
     </row>
@@ -33899,7 +34010,7 @@
         <v>10488</v>
       </c>
       <c r="I153" s="65" t="str">
-        <f>TEXT(A153,"jj/mm/aaaa")&amp;","&amp;B153&amp;","&amp;C153&amp;","&amp;D153&amp;","&amp;E153&amp;","&amp;F153&amp;","&amp;G153&amp;","&amp;H153</f>
+        <f t="shared" si="2"/>
         <v>23/06/2020,161267,9491,74871,682,19232,37995,10488</v>
       </c>
     </row>
@@ -33929,7 +34040,7 @@
         <v>10488</v>
       </c>
       <c r="I154" s="65" t="str">
-        <f>TEXT(A154,"jj/mm/aaaa")&amp;","&amp;B154&amp;","&amp;C154&amp;","&amp;D154&amp;","&amp;E154&amp;","&amp;F154&amp;","&amp;G154&amp;","&amp;H154</f>
+        <f t="shared" si="2"/>
         <v>24/06/2020,161348,9299,75127,658,19243,37995,10488</v>
       </c>
     </row>
@@ -33959,7 +34070,7 @@
         <v>10488</v>
       </c>
       <c r="I155" s="65" t="str">
-        <f>TEXT(A155,"jj/mm/aaaa")&amp;","&amp;B155&amp;","&amp;C155&amp;","&amp;D155&amp;","&amp;E155&amp;","&amp;F155&amp;","&amp;G155&amp;","&amp;H155</f>
+        <f t="shared" si="2"/>
         <v>25/06/2020,161348,9141,75351,651,19264,37995,10488</v>
       </c>
     </row>
@@ -33989,7 +34100,7 @@
         <v>10488</v>
       </c>
       <c r="I156" s="65" t="str">
-        <f>TEXT(A156,"jj/mm/aaaa")&amp;","&amp;B156&amp;","&amp;C156&amp;","&amp;D156&amp;","&amp;E156&amp;","&amp;F156&amp;","&amp;G156&amp;","&amp;H156</f>
+        <f t="shared" si="2"/>
         <v>26/06/2020,162936,8886,75649,634,19290,37995,10488</v>
       </c>
     </row>
@@ -34020,7 +34131,7 @@
         <v>10488</v>
       </c>
       <c r="I157" s="65" t="str">
-        <f>TEXT(A157,"jj/mm/aaaa")&amp;","&amp;B157&amp;","&amp;C157&amp;","&amp;D157&amp;","&amp;E157&amp;","&amp;F157&amp;","&amp;G157&amp;","&amp;H157</f>
+        <f t="shared" si="2"/>
         <v>27/06/2020,163454,8886,75649,634,19290,37995,10488</v>
       </c>
     </row>
@@ -34051,7 +34162,7 @@
         <v>10488</v>
       </c>
       <c r="I158" s="65" t="str">
-        <f>TEXT(A158,"jj/mm/aaaa")&amp;","&amp;B158&amp;","&amp;C158&amp;","&amp;D158&amp;","&amp;E158&amp;","&amp;F158&amp;","&amp;G158&amp;","&amp;H158</f>
+        <f t="shared" si="2"/>
         <v>28/06/2020,163980,8886,75649,634,19290,37995,10488</v>
       </c>
     </row>
@@ -34082,7 +34193,7 @@
         <v>10488</v>
       </c>
       <c r="I159" s="65" t="str">
-        <f>TEXT(A159,"jj/mm/aaaa")&amp;","&amp;B159&amp;","&amp;C159&amp;","&amp;D159&amp;","&amp;E159&amp;","&amp;F159&amp;","&amp;G159&amp;","&amp;H159</f>
+        <f t="shared" si="2"/>
         <v>29/06/2020,164260,8688,75999,619,19325,37995,10488</v>
       </c>
     </row>
@@ -34112,7 +34223,7 @@
         <v>10497</v>
       </c>
       <c r="I160" s="65" t="str">
-        <f>TEXT(A160,"jj/mm/aaaa")&amp;","&amp;B160&amp;","&amp;C160&amp;","&amp;D160&amp;","&amp;E160&amp;","&amp;F160&amp;","&amp;G160&amp;","&amp;H160</f>
+        <f t="shared" si="2"/>
         <v>30/06/2020,164801,8536,76274,602,19346,38107,10497</v>
       </c>
     </row>
@@ -34142,7 +34253,7 @@
         <v>10497</v>
       </c>
       <c r="I161" s="65" t="str">
-        <f>TEXT(A161,"jj/mm/aaaa")&amp;","&amp;B161&amp;","&amp;C161&amp;","&amp;D161&amp;","&amp;E161&amp;","&amp;F161&amp;","&amp;G161&amp;","&amp;H161</f>
+        <f t="shared" si="2"/>
         <v>01/07/2020,165719,8336,76549,582,19364,38107,10497</v>
       </c>
     </row>
@@ -34172,7 +34283,7 @@
         <v>10497</v>
       </c>
       <c r="I162" s="65" t="str">
-        <f>TEXT(A162,"jj/mm/aaaa")&amp;","&amp;B162&amp;","&amp;C162&amp;","&amp;D162&amp;","&amp;E162&amp;","&amp;F162&amp;","&amp;G162&amp;","&amp;H162</f>
+        <f t="shared" si="2"/>
         <v>02/07/2020,166378,8148,76802,573,19378,38107,10497</v>
       </c>
     </row>
@@ -34202,7 +34313,7 @@
         <v>10497</v>
       </c>
       <c r="I163" s="65" t="str">
-        <f>TEXT(A163,"jj/mm/aaaa")&amp;","&amp;B163&amp;","&amp;C163&amp;","&amp;D163&amp;","&amp;E163&amp;","&amp;F163&amp;","&amp;G163&amp;","&amp;H163</f>
+        <f t="shared" si="2"/>
         <v>03/07/2020,166960,7990,77060,560,19396,38107,10497</v>
       </c>
     </row>
@@ -34220,7 +34331,7 @@
       <c r="G164" s="57"/>
       <c r="H164" s="57"/>
       <c r="I164" s="65" t="str">
-        <f>TEXT(A164,"jj/mm/aaaa")&amp;","&amp;B164&amp;","&amp;C164&amp;","&amp;D164&amp;","&amp;E164&amp;","&amp;F164&amp;","&amp;G164&amp;","&amp;H164</f>
+        <f t="shared" si="2"/>
         <v>04/07/2020,167711,,,,,,</v>
       </c>
     </row>
@@ -34238,7 +34349,7 @@
       <c r="G165" s="57"/>
       <c r="H165" s="57"/>
       <c r="I165" s="65" t="str">
-        <f>TEXT(A165,"jj/mm/aaaa")&amp;","&amp;B165&amp;","&amp;C165&amp;","&amp;D165&amp;","&amp;E165&amp;","&amp;F165&amp;","&amp;G165&amp;","&amp;H165</f>
+        <f t="shared" si="2"/>
         <v>05/07/2020,168159,,,,,,</v>
       </c>
     </row>
@@ -34268,7 +34379,7 @@
         <v>10497</v>
       </c>
       <c r="I166" s="65" t="str">
-        <f>TEXT(A166,"jj/mm/aaaa")&amp;","&amp;B166&amp;","&amp;C166&amp;","&amp;D166&amp;","&amp;E166&amp;","&amp;F166&amp;","&amp;G166&amp;","&amp;H166</f>
+        <f t="shared" si="2"/>
         <v>06/07/2020,168335,7850,77319,548,19423,38107,10497</v>
       </c>
     </row>
@@ -34298,7 +34409,7 @@
         <v>10476</v>
       </c>
       <c r="I167" s="65" t="str">
-        <f>TEXT(A167,"jj/mm/aaaa")&amp;","&amp;B167&amp;","&amp;C167&amp;","&amp;D167&amp;","&amp;E167&amp;","&amp;F167&amp;","&amp;G167&amp;","&amp;H167</f>
+        <f t="shared" si="2"/>
         <v>07/07/2020,168810,7594,77655,538,19457,39256,10476</v>
       </c>
     </row>
@@ -34328,7 +34439,7 @@
         <v>10476</v>
       </c>
       <c r="I168" s="65" t="str">
-        <f>TEXT(A168,"jj/mm/aaaa")&amp;","&amp;B168&amp;","&amp;C168&amp;","&amp;D168&amp;","&amp;E168&amp;","&amp;F168&amp;","&amp;G168&amp;","&amp;H168</f>
+        <f t="shared" si="2"/>
         <v>08/07/2020,169473,7297,77996,529,19489,39256,10476</v>
       </c>
     </row>
@@ -34358,7 +34469,7 @@
         <v>10476</v>
       </c>
       <c r="I169" s="65" t="str">
-        <f>TEXT(A169,"jj/mm/aaaa")&amp;","&amp;B169&amp;","&amp;C169&amp;","&amp;D169&amp;","&amp;E169&amp;","&amp;F169&amp;","&amp;G169&amp;","&amp;H169</f>
+        <f t="shared" si="2"/>
         <v>09/07/2020,170094,7177,78170,512,19503,39256,10476</v>
       </c>
     </row>
@@ -34388,7 +34499,7 @@
         <v>10476</v>
       </c>
       <c r="I170" s="65" t="str">
-        <f>TEXT(A170,"jj/mm/aaaa")&amp;","&amp;B170&amp;","&amp;C170&amp;","&amp;D170&amp;","&amp;E170&amp;","&amp;F170&amp;","&amp;G170&amp;","&amp;H170</f>
+        <f t="shared" si="2"/>
         <v>10/07/2020,170752,7062,78388,496,19528,39256,10476</v>
       </c>
     </row>
@@ -34410,7 +34521,7 @@
         <v>10476</v>
       </c>
       <c r="I171" s="65" t="str">
-        <f>TEXT(A171,"jj/mm/aaaa")&amp;","&amp;B171&amp;","&amp;C171&amp;","&amp;D171&amp;","&amp;E171&amp;","&amp;F171&amp;","&amp;G171&amp;","&amp;H171</f>
+        <f t="shared" si="2"/>
         <v>11/07/2020,171504,,,,,39256,10476</v>
       </c>
     </row>
@@ -34432,7 +34543,7 @@
         <v>10476</v>
       </c>
       <c r="I172" s="65" t="str">
-        <f>TEXT(A172,"jj/mm/aaaa")&amp;","&amp;B172&amp;","&amp;C172&amp;","&amp;D172&amp;","&amp;E172&amp;","&amp;F172&amp;","&amp;G172&amp;","&amp;H172</f>
+        <f t="shared" si="2"/>
         <v>12/07/2020,172089,,,,,39256,10476</v>
       </c>
     </row>
@@ -34462,7 +34573,7 @@
         <v>10476</v>
       </c>
       <c r="I173" s="65" t="str">
-        <f>TEXT(A173,"jj/mm/aaaa")&amp;","&amp;B173&amp;","&amp;C173&amp;","&amp;D173&amp;","&amp;E173&amp;","&amp;F173&amp;","&amp;G173&amp;","&amp;H173</f>
+        <f t="shared" si="2"/>
         <v>13/07/2020,172377,6983,78597,492,19553,39256,10476</v>
       </c>
     </row>
@@ -34484,7 +34595,7 @@
         <v>10476</v>
       </c>
       <c r="I174" s="65" t="str">
-        <f>TEXT(A174,"jj/mm/aaaa")&amp;","&amp;B174&amp;","&amp;C174&amp;","&amp;D174&amp;","&amp;E174&amp;","&amp;F174&amp;","&amp;G174&amp;","&amp;H174</f>
+        <f t="shared" si="2"/>
         <v>14/07/2020,172888,,,,,39256,10476</v>
       </c>
     </row>
@@ -34514,7 +34625,7 @@
         <v>10541</v>
       </c>
       <c r="I175" s="65" t="str">
-        <f>TEXT(A175,"jj/mm/aaaa")&amp;","&amp;B175&amp;","&amp;C175&amp;","&amp;D175&amp;","&amp;E175&amp;","&amp;F175&amp;","&amp;G175&amp;","&amp;H175</f>
+        <f t="shared" si="2"/>
         <v>15/07/2020,173304,6915,78820,482,19579,39464,10541</v>
       </c>
     </row>
@@ -34544,7 +34655,7 @@
         <v>10541</v>
       </c>
       <c r="I176" s="65" t="str">
-        <f>TEXT(A176,"jj/mm/aaaa")&amp;","&amp;B176&amp;","&amp;C176&amp;","&amp;D176&amp;","&amp;E176&amp;","&amp;F176&amp;","&amp;G176&amp;","&amp;H176</f>
+        <f t="shared" si="2"/>
         <v>16/07/2020,173838,6796,79036,481,19597,39464,10541</v>
       </c>
     </row>
@@ -34574,7 +34685,7 @@
         <v>10541</v>
       </c>
       <c r="I177" s="65" t="str">
-        <f>TEXT(A177,"jj/mm/aaaa")&amp;","&amp;B177&amp;","&amp;C177&amp;","&amp;D177&amp;","&amp;E177&amp;","&amp;F177&amp;","&amp;G177&amp;","&amp;H177</f>
+        <f t="shared" si="2"/>
         <v>17/07/2020,174674,6688,79244,477,19611,39464,10541</v>
       </c>
     </row>
@@ -34596,7 +34707,7 @@
         <v>10541</v>
       </c>
       <c r="I178" s="65" t="str">
-        <f>TEXT(A178,"jj/mm/aaaa")&amp;","&amp;B178&amp;","&amp;C178&amp;","&amp;D178&amp;","&amp;E178&amp;","&amp;F178&amp;","&amp;G178&amp;","&amp;H178</f>
+        <f t="shared" si="2"/>
         <v>18/07/2020,175639,,,,,39464,10541</v>
       </c>
     </row>
@@ -34618,7 +34729,7 @@
         <v>10541</v>
       </c>
       <c r="I179" s="65" t="str">
-        <f>TEXT(A179,"jj/mm/aaaa")&amp;","&amp;B179&amp;","&amp;C179&amp;","&amp;D179&amp;","&amp;E179&amp;","&amp;F179&amp;","&amp;G179&amp;","&amp;H179</f>
+        <f t="shared" si="2"/>
         <v>19/07/2020,176404,,,,,39464,10541</v>
       </c>
     </row>
@@ -34648,7 +34759,7 @@
         <v>10541</v>
       </c>
       <c r="I180" s="65" t="str">
-        <f>TEXT(A180,"jj/mm/aaaa")&amp;","&amp;B180&amp;","&amp;C180&amp;","&amp;D180&amp;","&amp;E180&amp;","&amp;F180&amp;","&amp;G180&amp;","&amp;H180</f>
+        <f t="shared" si="2"/>
         <v>20/07/2020,176754,6589,79541,467,19636,39464,10541</v>
       </c>
     </row>
@@ -34678,7 +34789,7 @@
         <v>10516</v>
       </c>
       <c r="I181" s="65" t="str">
-        <f>TEXT(A181,"jj/mm/aaaa")&amp;","&amp;B181&amp;","&amp;C181&amp;","&amp;D181&amp;","&amp;E181&amp;","&amp;F181&amp;","&amp;G181&amp;","&amp;H181</f>
+        <f t="shared" si="2"/>
         <v>21/07/2020,177338,6482,79734,455,19649,39554,10516</v>
       </c>
     </row>
@@ -34708,7 +34819,7 @@
         <v>10516</v>
       </c>
       <c r="I182" s="65" t="str">
-        <f>TEXT(A182,"jj/mm/aaaa")&amp;","&amp;B182&amp;","&amp;C182&amp;","&amp;D182&amp;","&amp;E182&amp;","&amp;F182&amp;","&amp;G182&amp;","&amp;H182</f>
+        <f t="shared" si="2"/>
         <v>22/07/2020,178336,6366,79957,445,19656,39554,10516</v>
       </c>
     </row>
@@ -34738,7 +34849,7 @@
         <v>10516</v>
       </c>
       <c r="I183" s="65" t="str">
-        <f>TEXT(A183,"jj/mm/aaaa")&amp;","&amp;B183&amp;","&amp;C183&amp;","&amp;D183&amp;","&amp;E183&amp;","&amp;F183&amp;","&amp;G183&amp;","&amp;H183</f>
+        <f t="shared" si="2"/>
         <v>23/07/2020,179398,5957,80472,436,19666,39554,10516</v>
       </c>
     </row>
@@ -34768,7 +34879,7 @@
         <v>10516</v>
       </c>
       <c r="I184" s="65" t="str">
-        <f>TEXT(A184,"jj/mm/aaaa")&amp;","&amp;B184&amp;","&amp;C184&amp;","&amp;D184&amp;","&amp;E184&amp;","&amp;F184&amp;","&amp;G184&amp;","&amp;H184</f>
+        <f t="shared" si="2"/>
         <v>24/07/2020,180528,5720,80815,410,19676,39554,10516</v>
       </c>
     </row>
@@ -34788,7 +34899,7 @@
         <v>10516</v>
       </c>
       <c r="I185" s="65" t="str">
-        <f>TEXT(A185,"jj/mm/aaaa")&amp;","&amp;B185&amp;","&amp;C185&amp;","&amp;D185&amp;","&amp;E185&amp;","&amp;F185&amp;","&amp;G185&amp;","&amp;H185</f>
+        <f t="shared" si="2"/>
         <v>25/07/2020,,,,,,39554,10516</v>
       </c>
     </row>
@@ -34808,7 +34919,7 @@
         <v>10516</v>
       </c>
       <c r="I186" s="65" t="str">
-        <f>TEXT(A186,"jj/mm/aaaa")&amp;","&amp;B186&amp;","&amp;C186&amp;","&amp;D186&amp;","&amp;E186&amp;","&amp;F186&amp;","&amp;G186&amp;","&amp;H186</f>
+        <f t="shared" si="2"/>
         <v>26/07/2020,,,,,,39554,10516</v>
       </c>
     </row>
@@ -34838,7 +34949,7 @@
         <v>10516</v>
       </c>
       <c r="I187" s="65" t="str">
-        <f>TEXT(A187,"jj/mm/aaaa")&amp;","&amp;B187&amp;","&amp;C187&amp;","&amp;D187&amp;","&amp;E187&amp;","&amp;F187&amp;","&amp;G187&amp;","&amp;H187</f>
+        <f t="shared" si="2"/>
         <v>27/07/2020,183079,5655,81082,398,19693,39554,10516</v>
       </c>
     </row>
@@ -34868,7 +34979,7 @@
         <v>10515</v>
       </c>
       <c r="I188" s="65" t="str">
-        <f>TEXT(A188,"jj/mm/aaaa")&amp;","&amp;B188&amp;","&amp;C188&amp;","&amp;D188&amp;","&amp;E188&amp;","&amp;F188&amp;","&amp;G188&amp;","&amp;H188</f>
+        <f t="shared" si="2"/>
         <v>28/07/2020,183804,5551,81311,385,19708,39638,10515</v>
       </c>
     </row>
@@ -34898,7 +35009,7 @@
         <v>10515</v>
       </c>
       <c r="I189" s="65" t="str">
-        <f>TEXT(A189,"jj/mm/aaaa")&amp;","&amp;B189&amp;","&amp;C189&amp;","&amp;D189&amp;","&amp;E189&amp;","&amp;F189&amp;","&amp;G189&amp;","&amp;H189</f>
+        <f t="shared" si="2"/>
         <v>29/07/2020,185196,5450,81500,380,19723,39638,10515</v>
       </c>
     </row>
@@ -34928,7 +35039,7 @@
         <v>10515</v>
       </c>
       <c r="I190" s="65" t="str">
-        <f>TEXT(A190,"jj/mm/aaaa")&amp;","&amp;B190&amp;","&amp;C190&amp;","&amp;D190&amp;","&amp;E190&amp;","&amp;F190&amp;","&amp;G190&amp;","&amp;H190</f>
+        <f t="shared" si="2"/>
         <v>30/07/2020,186573,5375,81667,381,19739,39638,10515</v>
       </c>
     </row>
@@ -34958,7 +35069,7 @@
         <v>10515</v>
       </c>
       <c r="I191" s="65" t="str">
-        <f>TEXT(A191,"jj/mm/aaaa")&amp;","&amp;B191&amp;","&amp;C191&amp;","&amp;D191&amp;","&amp;E191&amp;","&amp;F191&amp;","&amp;G191&amp;","&amp;H191</f>
+        <f t="shared" si="2"/>
         <v>31/07/2020,187919,5298,81881,371,19750,39638,10515</v>
       </c>
     </row>
@@ -34976,7 +35087,7 @@
       <c r="G192" s="57"/>
       <c r="H192" s="57"/>
       <c r="I192" s="65" t="str">
-        <f>TEXT(A192,"jj/mm/aaaa")&amp;","&amp;B192&amp;","&amp;C192&amp;","&amp;D192&amp;","&amp;E192&amp;","&amp;F192&amp;","&amp;G192&amp;","&amp;H192</f>
+        <f t="shared" si="2"/>
         <v>01/08/2020,189547,,,,,,</v>
       </c>
     </row>
@@ -34994,7 +35105,7 @@
       <c r="G193" s="57"/>
       <c r="H193" s="57"/>
       <c r="I193" s="65" t="str">
-        <f>TEXT(A193,"jj/mm/aaaa")&amp;","&amp;B193&amp;","&amp;C193&amp;","&amp;D193&amp;","&amp;E193&amp;","&amp;F193&amp;","&amp;G193&amp;","&amp;H193</f>
+        <f t="shared" ref="I193:I256" si="3">TEXT(A193,"jj/mm/aaaa")&amp;","&amp;B193&amp;","&amp;C193&amp;","&amp;D193&amp;","&amp;E193&amp;","&amp;F193&amp;","&amp;G193&amp;","&amp;H193</f>
         <v>02/08/2020,190739,,,,,,</v>
       </c>
     </row>
@@ -35024,7 +35135,7 @@
         <v>10515</v>
       </c>
       <c r="I194" s="65" t="str">
-        <f>TEXT(A194,"jj/mm/aaaa")&amp;","&amp;B194&amp;","&amp;C194&amp;","&amp;D194&amp;","&amp;E194&amp;","&amp;F194&amp;","&amp;G194&amp;","&amp;H194</f>
+        <f t="shared" si="3"/>
         <v>03/08/2020,191295,5198,82166,384,19779,39638,10515</v>
       </c>
     </row>
@@ -35054,7 +35165,7 @@
         <v>10506</v>
       </c>
       <c r="I195" s="65" t="str">
-        <f>TEXT(A195,"jj/mm/aaaa")&amp;","&amp;B195&amp;","&amp;C195&amp;","&amp;D195&amp;","&amp;E195&amp;","&amp;F195&amp;","&amp;G195&amp;","&amp;H195</f>
+        <f t="shared" si="3"/>
         <v>04/08/2020,192334,5162,82318,388,19790,39645,10506</v>
       </c>
     </row>
@@ -35084,7 +35195,7 @@
         <v>10506</v>
       </c>
       <c r="I196" s="65" t="str">
-        <f>TEXT(A196,"jj/mm/aaaa")&amp;","&amp;B196&amp;","&amp;C196&amp;","&amp;D196&amp;","&amp;E196&amp;","&amp;F196&amp;","&amp;G196&amp;","&amp;H196</f>
+        <f t="shared" si="3"/>
         <v>05/08/2020,194029,5148,82460,384,19799,39645,10506</v>
       </c>
     </row>
@@ -35114,7 +35225,7 @@
         <v>10506</v>
       </c>
       <c r="I197" s="65" t="str">
-        <f>TEXT(A197,"jj/mm/aaaa")&amp;","&amp;B197&amp;","&amp;C197&amp;","&amp;D197&amp;","&amp;E197&amp;","&amp;F197&amp;","&amp;G197&amp;","&amp;H197</f>
+        <f t="shared" si="3"/>
         <v>06/08/2020,195633,5060,82670,390,19806,39645,10506</v>
       </c>
     </row>
@@ -35144,7 +35255,7 @@
         <v>10506</v>
       </c>
       <c r="I198" s="65" t="str">
-        <f>TEXT(A198,"jj/mm/aaaa")&amp;","&amp;B198&amp;","&amp;C198&amp;","&amp;D198&amp;","&amp;E198&amp;","&amp;F198&amp;","&amp;G198&amp;","&amp;H198</f>
+        <f t="shared" si="3"/>
         <v>07/08/2020,197921,5011,82836,383,19818,39645,10506</v>
       </c>
     </row>
@@ -35166,7 +35277,7 @@
         <v>10506</v>
       </c>
       <c r="I199" s="65" t="str">
-        <f>TEXT(A199,"jj/mm/aaaa")&amp;","&amp;B199&amp;","&amp;C199&amp;","&amp;D199&amp;","&amp;E199&amp;","&amp;F199&amp;","&amp;G199&amp;","&amp;H199</f>
+        <f t="shared" si="3"/>
         <v>08/08/2020,200105,,,,,39645,10506</v>
       </c>
     </row>
@@ -35188,7 +35299,7 @@
         <v>10506</v>
       </c>
       <c r="I200" s="65" t="str">
-        <f>TEXT(A200,"jj/mm/aaaa")&amp;","&amp;B200&amp;","&amp;C200&amp;","&amp;D200&amp;","&amp;E200&amp;","&amp;F200&amp;","&amp;G200&amp;","&amp;H200</f>
+        <f t="shared" si="3"/>
         <v>09/08/2020,201990,,,,,39645,10506</v>
       </c>
     </row>
@@ -35218,7 +35329,7 @@
         <v>10506</v>
       </c>
       <c r="I201" s="65" t="str">
-        <f>TEXT(A201,"jj/mm/aaaa")&amp;","&amp;B201&amp;","&amp;C201&amp;","&amp;D201&amp;","&amp;E201&amp;","&amp;F201&amp;","&amp;G201&amp;","&amp;H201</f>
+        <f t="shared" si="3"/>
         <v>10/08/2020,202775,5045,83047,396,19834,39645,10506</v>
       </c>
     </row>
@@ -35248,7 +35359,7 @@
         <v>10505</v>
       </c>
       <c r="I202" s="65" t="str">
-        <f>TEXT(A202,"jj/mm/aaaa")&amp;","&amp;B202&amp;","&amp;C202&amp;","&amp;D202&amp;","&amp;E202&amp;","&amp;F202&amp;","&amp;G202&amp;","&amp;H202</f>
+        <f t="shared" si="3"/>
         <v>11/08/2020,204172,5012,83237,391,19849,39744,10505</v>
       </c>
     </row>
@@ -35278,7 +35389,7 @@
         <v>10505</v>
       </c>
       <c r="I203" s="65" t="str">
-        <f>TEXT(A203,"jj/mm/aaaa")&amp;","&amp;B203&amp;","&amp;C203&amp;","&amp;D203&amp;","&amp;E203&amp;","&amp;F203&amp;","&amp;G203&amp;","&amp;H203</f>
+        <f t="shared" si="3"/>
         <v>12/08/2020,206696,4891,83472,379,19866,39744,10505</v>
       </c>
     </row>
@@ -35308,7 +35419,7 @@
         <v>10505</v>
       </c>
       <c r="I204" s="65" t="str">
-        <f>TEXT(A204,"jj/mm/aaaa")&amp;","&amp;B204&amp;","&amp;C204&amp;","&amp;D204&amp;","&amp;E204&amp;","&amp;F204&amp;","&amp;G204&amp;","&amp;H204</f>
+        <f t="shared" si="3"/>
         <v>13/08/2020,209365,4864,83663,374,19883,39744,10505</v>
       </c>
     </row>
@@ -35338,7 +35449,7 @@
         <v>10505</v>
       </c>
       <c r="I205" s="65" t="str">
-        <f>TEXT(A205,"jj/mm/aaaa")&amp;","&amp;B205&amp;","&amp;C205&amp;","&amp;D205&amp;","&amp;E205&amp;","&amp;F205&amp;","&amp;G205&amp;","&amp;H205</f>
+        <f t="shared" si="3"/>
         <v>14/08/2020,212211,4828,83848,367,19901,39744,10505</v>
       </c>
     </row>
@@ -35362,7 +35473,7 @@
         <v>10505</v>
       </c>
       <c r="I206" s="65" t="str">
-        <f>TEXT(A206,"jj/mm/aaaa")&amp;","&amp;B206&amp;","&amp;C206&amp;","&amp;D206&amp;","&amp;E206&amp;","&amp;F206&amp;","&amp;G206&amp;","&amp;H206</f>
+        <f t="shared" si="3"/>
         <v>15/08/2020,215521,,,,19904,39744,10505</v>
       </c>
     </row>
@@ -35386,7 +35497,7 @@
         <v>10505</v>
       </c>
       <c r="I207" s="65" t="str">
-        <f>TEXT(A207,"jj/mm/aaaa")&amp;","&amp;B207&amp;","&amp;C207&amp;","&amp;D207&amp;","&amp;E207&amp;","&amp;F207&amp;","&amp;G207&amp;","&amp;H207</f>
+        <f t="shared" si="3"/>
         <v>16/08/2020,218536,,,,19905,39744,10505</v>
       </c>
     </row>
@@ -35416,7 +35527,7 @@
         <v>10505</v>
       </c>
       <c r="I208" s="65" t="str">
-        <f>TEXT(A208,"jj/mm/aaaa")&amp;","&amp;B208&amp;","&amp;C208&amp;","&amp;D208&amp;","&amp;E208&amp;","&amp;F208&amp;","&amp;G208&amp;","&amp;H208</f>
+        <f t="shared" si="3"/>
         <v>17/08/2020,219029,4925,84065,384,19924,39744,10505</v>
       </c>
     </row>
@@ -35446,7 +35557,7 @@
         <v>10511</v>
       </c>
       <c r="I209" s="65" t="str">
-        <f>TEXT(A209,"jj/mm/aaaa")&amp;","&amp;B209&amp;","&amp;C209&amp;","&amp;D209&amp;","&amp;E209&amp;","&amp;F209&amp;","&amp;G209&amp;","&amp;H209</f>
+        <f t="shared" si="3"/>
         <v>18/08/2020,221267,4823,84309,380,19940,39930,10511</v>
       </c>
     </row>
@@ -35476,7 +35587,7 @@
         <v>10511</v>
       </c>
       <c r="I210" s="65" t="str">
-        <f>TEXT(A210,"jj/mm/aaaa")&amp;","&amp;B210&amp;","&amp;C210&amp;","&amp;D210&amp;","&amp;E210&amp;","&amp;F210&amp;","&amp;G210&amp;","&amp;H210</f>
+        <f t="shared" si="3"/>
         <v>19/08/2020,225043,4806,84467,374,19957,39930,10511</v>
       </c>
     </row>
@@ -35506,7 +35617,7 @@
         <v>10511</v>
       </c>
       <c r="I211" s="65" t="str">
-        <f>TEXT(A211,"jj/mm/aaaa")&amp;","&amp;B211&amp;","&amp;C211&amp;","&amp;D211&amp;","&amp;E211&amp;","&amp;F211&amp;","&amp;G211&amp;","&amp;H211</f>
+        <f t="shared" si="3"/>
         <v>20/08/2020,229814,4748,84642,380,19969,39930,10511</v>
       </c>
     </row>
@@ -35536,7 +35647,7 @@
         <v>10511</v>
       </c>
       <c r="I212" s="65" t="str">
-        <f>TEXT(A212,"jj/mm/aaaa")&amp;","&amp;B212&amp;","&amp;C212&amp;","&amp;D212&amp;","&amp;E212&amp;","&amp;F212&amp;","&amp;G212&amp;","&amp;H212</f>
+        <f t="shared" si="3"/>
         <v>21/08/2020,234400,4745,84829,379,19992,39930,10511</v>
       </c>
     </row>
@@ -35566,7 +35677,7 @@
         <v>10511</v>
       </c>
       <c r="I213" s="65" t="str">
-        <f>TEXT(A213,"jj/mm/aaaa")&amp;","&amp;B213&amp;","&amp;C213&amp;","&amp;D213&amp;","&amp;E213&amp;","&amp;F213&amp;","&amp;G213&amp;","&amp;H213</f>
+        <f t="shared" si="3"/>
         <v>22/08/2020,238002,4711,84950,380,20001,39930,10511</v>
       </c>
     </row>
@@ -35596,7 +35707,7 @@
         <v>10511</v>
       </c>
       <c r="I214" s="65" t="str">
-        <f>TEXT(A214,"jj/mm/aaaa")&amp;","&amp;B214&amp;","&amp;C214&amp;","&amp;D214&amp;","&amp;E214&amp;","&amp;F214&amp;","&amp;G214&amp;","&amp;H214</f>
+        <f t="shared" si="3"/>
         <v>23/08/2020,242899,4709,84973,383,20002,39930,10511</v>
       </c>
     </row>
@@ -35626,7 +35737,7 @@
         <v>10511</v>
       </c>
       <c r="I215" s="65" t="str">
-        <f>TEXT(A215,"jj/mm/aaaa")&amp;","&amp;B215&amp;","&amp;C215&amp;","&amp;D215&amp;","&amp;E215&amp;","&amp;F215&amp;","&amp;G215&amp;","&amp;H215</f>
+        <f t="shared" si="3"/>
         <v>24/08/2020,244854,4690,85199,399,20017,39930,10511</v>
       </c>
     </row>
@@ -35656,7 +35767,7 @@
         <v>10506</v>
       </c>
       <c r="I216" s="65" t="str">
-        <f>TEXT(A216,"jj/mm/aaaa")&amp;","&amp;B216&amp;","&amp;C216&amp;","&amp;D216&amp;","&amp;E216&amp;","&amp;F216&amp;","&amp;G216&amp;","&amp;H216</f>
+        <f t="shared" si="3"/>
         <v>25/08/2020,248158,4600,85524,410,20038,40043,10506</v>
       </c>
     </row>
@@ -35678,7 +35789,7 @@
         <v>10506</v>
       </c>
       <c r="I217" s="65" t="str">
-        <f>TEXT(A217,"jj/mm/aaaa")&amp;","&amp;B217&amp;","&amp;C217&amp;","&amp;D217&amp;","&amp;E217&amp;","&amp;F217&amp;","&amp;G217&amp;","&amp;H217</f>
+        <f t="shared" si="3"/>
         <v>26/08/2020,253587,,,,,40043,10506</v>
       </c>
     </row>
@@ -35708,7 +35819,7 @@
         <v>10506</v>
       </c>
       <c r="I218" s="65" t="str">
-        <f>TEXT(A218,"jj/mm/aaaa")&amp;","&amp;B218&amp;","&amp;C218&amp;","&amp;D218&amp;","&amp;E218&amp;","&amp;F218&amp;","&amp;G218&amp;","&amp;H218</f>
+        <f t="shared" si="3"/>
         <v>27/08/2020,259698,4535,85984,381,20070,40043,10506</v>
       </c>
     </row>
@@ -35738,7 +35849,7 @@
         <v>10507</v>
       </c>
       <c r="I219" s="65" t="str">
-        <f>TEXT(A219,"jj/mm/aaaa")&amp;","&amp;B219&amp;","&amp;C219&amp;","&amp;D219&amp;","&amp;E219&amp;","&amp;F219&amp;","&amp;G219&amp;","&amp;H219</f>
+        <f t="shared" si="3"/>
         <v>28/08/2020,267077,4535,86177,387,20089,40083,10507</v>
       </c>
     </row>
@@ -35768,7 +35879,7 @@
         <v>10507</v>
       </c>
       <c r="I220" s="65" t="str">
-        <f>TEXT(A220,"jj/mm/aaaa")&amp;","&amp;B220&amp;","&amp;C220&amp;","&amp;D220&amp;","&amp;E220&amp;","&amp;F220&amp;","&amp;G220&amp;","&amp;H220</f>
+        <f t="shared" si="3"/>
         <v>29/08/2020,272530,4530,86298,400,20095,40083,10507</v>
       </c>
     </row>
@@ -35798,7 +35909,7 @@
         <v>10507</v>
       </c>
       <c r="I221" s="65" t="str">
-        <f>TEXT(A221,"jj/mm/aaaa")&amp;","&amp;B221&amp;","&amp;C221&amp;","&amp;D221&amp;","&amp;E221&amp;","&amp;F221&amp;","&amp;G221&amp;","&amp;H221</f>
+        <f t="shared" si="3"/>
         <v>30/08/2020,277943,4535,86310,402,20099,40083,10507</v>
       </c>
     </row>
@@ -35828,7 +35939,7 @@
         <v>10507</v>
       </c>
       <c r="I222" s="65" t="str">
-        <f>TEXT(A222,"jj/mm/aaaa")&amp;","&amp;B222&amp;","&amp;C222&amp;","&amp;D222&amp;","&amp;E222&amp;","&amp;F222&amp;","&amp;G222&amp;","&amp;H222</f>
+        <f t="shared" si="3"/>
         <v>31/08/2020,281025,4582,86469,409,20128,40083,10507</v>
       </c>
     </row>
@@ -35858,7 +35969,7 @@
         <v>10514</v>
       </c>
       <c r="I223" s="65" t="str">
-        <f>TEXT(A223,"jj/mm/aaaa")&amp;","&amp;B223&amp;","&amp;C223&amp;","&amp;D223&amp;","&amp;E223&amp;","&amp;F223&amp;","&amp;G223&amp;","&amp;H223</f>
+        <f t="shared" si="3"/>
         <v>01/09/2020,286007,4604,86712,424,20147,40300,10514</v>
       </c>
     </row>
@@ -35888,7 +35999,7 @@
         <v>10514</v>
       </c>
       <c r="I224" s="65" t="str">
-        <f>TEXT(A224,"jj/mm/aaaa")&amp;","&amp;B224&amp;","&amp;C224&amp;","&amp;D224&amp;","&amp;E224&amp;","&amp;F224&amp;","&amp;G224&amp;","&amp;H224</f>
+        <f t="shared" si="3"/>
         <v>02/09/2020,293024,4632,86963,446,20172,40300,10514</v>
       </c>
     </row>
@@ -35918,7 +36029,7 @@
         <v>10514</v>
       </c>
       <c r="I225" s="65" t="str">
-        <f>TEXT(A225,"jj/mm/aaaa")&amp;","&amp;B225&amp;","&amp;C225&amp;","&amp;D225&amp;","&amp;E225&amp;","&amp;F225&amp;","&amp;G225&amp;","&amp;H225</f>
+        <f t="shared" si="3"/>
         <v>03/09/2020,300181,4643,87206,464,20192,40300,10514</v>
       </c>
     </row>
@@ -35948,7 +36059,7 @@
         <v>10476</v>
       </c>
       <c r="I226" s="65" t="str">
-        <f>TEXT(A226,"jj/mm/aaaa")&amp;","&amp;B226&amp;","&amp;C226&amp;","&amp;D226&amp;","&amp;E226&amp;","&amp;F226&amp;","&amp;G226&amp;","&amp;H226</f>
+        <f t="shared" si="3"/>
         <v>04/09/2020,309156,4671,87447,473,20210,40300,10476</v>
       </c>
     </row>
@@ -35978,7 +36089,7 @@
         <v>10476</v>
       </c>
       <c r="I227" s="65" t="str">
-        <f>TEXT(A227,"jj/mm/aaaa")&amp;","&amp;B227&amp;","&amp;C227&amp;","&amp;D227&amp;","&amp;E227&amp;","&amp;F227&amp;","&amp;G227&amp;","&amp;H227</f>
+        <f t="shared" si="3"/>
         <v>05/09/2020,317706,4839,87579,482,20222,40300,10476</v>
       </c>
     </row>
@@ -36008,7 +36119,7 @@
         <v>10476</v>
       </c>
       <c r="I228" s="65" t="str">
-        <f>TEXT(A228,"jj/mm/aaaa")&amp;","&amp;B228&amp;","&amp;C228&amp;","&amp;D228&amp;","&amp;E228&amp;","&amp;F228&amp;","&amp;G228&amp;","&amp;H228</f>
+        <f t="shared" si="3"/>
         <v>06/09/2020,324777,4905,87608,486,20225,40300,10476</v>
       </c>
     </row>
@@ -36038,7 +36149,7 @@
         <v>10476</v>
       </c>
       <c r="I229" s="65" t="str">
-        <f>TEXT(A229,"jj/mm/aaaa")&amp;","&amp;B229&amp;","&amp;C229&amp;","&amp;D229&amp;","&amp;E229&amp;","&amp;F229&amp;","&amp;G229&amp;","&amp;H229</f>
+        <f t="shared" si="3"/>
         <v>07/09/2020,328980,4907,87836,537,20250,40300,10476</v>
       </c>
     </row>
@@ -36068,7 +36179,7 @@
         <v>10475</v>
       </c>
       <c r="I230" s="65" t="str">
-        <f>TEXT(A230,"jj/mm/aaaa")&amp;","&amp;B230&amp;","&amp;C230&amp;","&amp;D230&amp;","&amp;E230&amp;","&amp;F230&amp;","&amp;G230&amp;","&amp;H230</f>
+        <f t="shared" si="3"/>
         <v>08/09/2020,335524,4960,88226,574,20289,40876,10475</v>
       </c>
     </row>
@@ -36076,48 +36187,90 @@
       <c r="A231" s="12">
         <v>44083</v>
       </c>
-      <c r="B231" s="57"/>
-      <c r="C231" s="57"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="57"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57"/>
-      <c r="H231" s="57"/>
+      <c r="B231" s="57">
+        <v>344101</v>
+      </c>
+      <c r="C231" s="57">
+        <v>5003</v>
+      </c>
+      <c r="D231" s="57">
+        <v>88524</v>
+      </c>
+      <c r="E231" s="57">
+        <v>599</v>
+      </c>
+      <c r="F231" s="57">
+        <v>20319</v>
+      </c>
+      <c r="G231" s="57">
+        <v>40876</v>
+      </c>
+      <c r="H231" s="57">
+        <v>10475</v>
+      </c>
       <c r="I231" s="65" t="str">
-        <f>TEXT(A231,"jj/mm/aaaa")&amp;","&amp;B231&amp;","&amp;C231&amp;","&amp;D231&amp;","&amp;E231&amp;","&amp;F231&amp;","&amp;G231&amp;","&amp;H231</f>
-        <v>09/09/2020,,,,,,,</v>
+        <f t="shared" si="3"/>
+        <v>09/09/2020,344101,5003,88524,599,20319,40876,10475</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>44084</v>
       </c>
-      <c r="B232" s="57"/>
-      <c r="C232" s="57"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="57"/>
-      <c r="H232" s="57"/>
+      <c r="B232" s="57">
+        <v>353944</v>
+      </c>
+      <c r="C232" s="57">
+        <v>5096</v>
+      </c>
+      <c r="D232" s="57">
+        <v>88742</v>
+      </c>
+      <c r="E232" s="57">
+        <v>615</v>
+      </c>
+      <c r="F232" s="57">
+        <v>20338</v>
+      </c>
+      <c r="G232" s="57">
+        <v>40876</v>
+      </c>
+      <c r="H232" s="57">
+        <v>10475</v>
+      </c>
       <c r="I232" s="65" t="str">
-        <f>TEXT(A232,"jj/mm/aaaa")&amp;","&amp;B232&amp;","&amp;C232&amp;","&amp;D232&amp;","&amp;E232&amp;","&amp;F232&amp;","&amp;G232&amp;","&amp;H232</f>
-        <v>10/09/2020,,,,,,,</v>
+        <f t="shared" si="3"/>
+        <v>10/09/2020,353944,5096,88742,615,20338,40876,10475</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>44085</v>
       </c>
-      <c r="B233" s="57"/>
-      <c r="C233" s="57"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="57"/>
-      <c r="H233" s="57"/>
+      <c r="B233" s="57">
+        <v>363350</v>
+      </c>
+      <c r="C233" s="57">
+        <v>5155</v>
+      </c>
+      <c r="D233" s="57">
+        <v>89059</v>
+      </c>
+      <c r="E233" s="57">
+        <v>635</v>
+      </c>
+      <c r="F233" s="57">
+        <v>20378</v>
+      </c>
+      <c r="G233" s="57">
+        <v>41389</v>
+      </c>
+      <c r="H233" s="57">
+        <v>10515</v>
+      </c>
       <c r="I233" s="65" t="str">
-        <f>TEXT(A233,"jj/mm/aaaa")&amp;","&amp;B233&amp;","&amp;C233&amp;","&amp;D233&amp;","&amp;E233&amp;","&amp;F233&amp;","&amp;G233&amp;","&amp;H233</f>
-        <v>11/09/2020,,,,,,,</v>
+        <f t="shared" si="3"/>
+        <v>11/09/2020,363350,5155,89059,635,20378,41389,10515</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -36132,7 +36285,7 @@
       <c r="G234" s="57"/>
       <c r="H234" s="57"/>
       <c r="I234" s="65" t="str">
-        <f>TEXT(A234,"jj/mm/aaaa")&amp;","&amp;B234&amp;","&amp;C234&amp;","&amp;D234&amp;","&amp;E234&amp;","&amp;F234&amp;","&amp;G234&amp;","&amp;H234</f>
+        <f t="shared" si="3"/>
         <v>12/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36148,7 +36301,7 @@
       <c r="G235" s="57"/>
       <c r="H235" s="57"/>
       <c r="I235" s="65" t="str">
-        <f>TEXT(A235,"jj/mm/aaaa")&amp;","&amp;B235&amp;","&amp;C235&amp;","&amp;D235&amp;","&amp;E235&amp;","&amp;F235&amp;","&amp;G235&amp;","&amp;H235</f>
+        <f t="shared" si="3"/>
         <v>13/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36164,7 +36317,7 @@
       <c r="G236" s="57"/>
       <c r="H236" s="57"/>
       <c r="I236" s="65" t="str">
-        <f>TEXT(A236,"jj/mm/aaaa")&amp;","&amp;B236&amp;","&amp;C236&amp;","&amp;D236&amp;","&amp;E236&amp;","&amp;F236&amp;","&amp;G236&amp;","&amp;H236</f>
+        <f t="shared" si="3"/>
         <v>14/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36180,7 +36333,7 @@
       <c r="G237" s="57"/>
       <c r="H237" s="57"/>
       <c r="I237" s="65" t="str">
-        <f>TEXT(A237,"jj/mm/aaaa")&amp;","&amp;B237&amp;","&amp;C237&amp;","&amp;D237&amp;","&amp;E237&amp;","&amp;F237&amp;","&amp;G237&amp;","&amp;H237</f>
+        <f t="shared" si="3"/>
         <v>15/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36196,7 +36349,7 @@
       <c r="G238" s="57"/>
       <c r="H238" s="57"/>
       <c r="I238" s="65" t="str">
-        <f>TEXT(A238,"jj/mm/aaaa")&amp;","&amp;B238&amp;","&amp;C238&amp;","&amp;D238&amp;","&amp;E238&amp;","&amp;F238&amp;","&amp;G238&amp;","&amp;H238</f>
+        <f t="shared" si="3"/>
         <v>16/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36212,7 +36365,7 @@
       <c r="G239" s="57"/>
       <c r="H239" s="57"/>
       <c r="I239" s="65" t="str">
-        <f>TEXT(A239,"jj/mm/aaaa")&amp;","&amp;B239&amp;","&amp;C239&amp;","&amp;D239&amp;","&amp;E239&amp;","&amp;F239&amp;","&amp;G239&amp;","&amp;H239</f>
+        <f t="shared" si="3"/>
         <v>17/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36228,7 +36381,7 @@
       <c r="G240" s="57"/>
       <c r="H240" s="57"/>
       <c r="I240" s="65" t="str">
-        <f>TEXT(A240,"jj/mm/aaaa")&amp;","&amp;B240&amp;","&amp;C240&amp;","&amp;D240&amp;","&amp;E240&amp;","&amp;F240&amp;","&amp;G240&amp;","&amp;H240</f>
+        <f t="shared" si="3"/>
         <v>18/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36244,7 +36397,7 @@
       <c r="G241" s="57"/>
       <c r="H241" s="57"/>
       <c r="I241" s="65" t="str">
-        <f>TEXT(A241,"jj/mm/aaaa")&amp;","&amp;B241&amp;","&amp;C241&amp;","&amp;D241&amp;","&amp;E241&amp;","&amp;F241&amp;","&amp;G241&amp;","&amp;H241</f>
+        <f t="shared" si="3"/>
         <v>19/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36260,7 +36413,7 @@
       <c r="G242" s="57"/>
       <c r="H242" s="57"/>
       <c r="I242" s="65" t="str">
-        <f>TEXT(A242,"jj/mm/aaaa")&amp;","&amp;B242&amp;","&amp;C242&amp;","&amp;D242&amp;","&amp;E242&amp;","&amp;F242&amp;","&amp;G242&amp;","&amp;H242</f>
+        <f t="shared" si="3"/>
         <v>20/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36276,7 +36429,7 @@
       <c r="G243" s="57"/>
       <c r="H243" s="57"/>
       <c r="I243" s="65" t="str">
-        <f>TEXT(A243,"jj/mm/aaaa")&amp;","&amp;B243&amp;","&amp;C243&amp;","&amp;D243&amp;","&amp;E243&amp;","&amp;F243&amp;","&amp;G243&amp;","&amp;H243</f>
+        <f t="shared" si="3"/>
         <v>21/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36292,7 +36445,7 @@
       <c r="G244" s="57"/>
       <c r="H244" s="57"/>
       <c r="I244" s="65" t="str">
-        <f>TEXT(A244,"jj/mm/aaaa")&amp;","&amp;B244&amp;","&amp;C244&amp;","&amp;D244&amp;","&amp;E244&amp;","&amp;F244&amp;","&amp;G244&amp;","&amp;H244</f>
+        <f t="shared" si="3"/>
         <v>22/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36308,7 +36461,7 @@
       <c r="G245" s="57"/>
       <c r="H245" s="57"/>
       <c r="I245" s="65" t="str">
-        <f>TEXT(A245,"jj/mm/aaaa")&amp;","&amp;B245&amp;","&amp;C245&amp;","&amp;D245&amp;","&amp;E245&amp;","&amp;F245&amp;","&amp;G245&amp;","&amp;H245</f>
+        <f t="shared" si="3"/>
         <v>23/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36324,7 +36477,7 @@
       <c r="G246" s="57"/>
       <c r="H246" s="57"/>
       <c r="I246" s="65" t="str">
-        <f>TEXT(A246,"jj/mm/aaaa")&amp;","&amp;B246&amp;","&amp;C246&amp;","&amp;D246&amp;","&amp;E246&amp;","&amp;F246&amp;","&amp;G246&amp;","&amp;H246</f>
+        <f t="shared" si="3"/>
         <v>24/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36340,7 +36493,7 @@
       <c r="G247" s="57"/>
       <c r="H247" s="57"/>
       <c r="I247" s="65" t="str">
-        <f>TEXT(A247,"jj/mm/aaaa")&amp;","&amp;B247&amp;","&amp;C247&amp;","&amp;D247&amp;","&amp;E247&amp;","&amp;F247&amp;","&amp;G247&amp;","&amp;H247</f>
+        <f t="shared" si="3"/>
         <v>25/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36356,7 +36509,7 @@
       <c r="G248" s="57"/>
       <c r="H248" s="57"/>
       <c r="I248" s="65" t="str">
-        <f>TEXT(A248,"jj/mm/aaaa")&amp;","&amp;B248&amp;","&amp;C248&amp;","&amp;D248&amp;","&amp;E248&amp;","&amp;F248&amp;","&amp;G248&amp;","&amp;H248</f>
+        <f t="shared" si="3"/>
         <v>26/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36372,7 +36525,7 @@
       <c r="G249" s="57"/>
       <c r="H249" s="57"/>
       <c r="I249" s="65" t="str">
-        <f>TEXT(A249,"jj/mm/aaaa")&amp;","&amp;B249&amp;","&amp;C249&amp;","&amp;D249&amp;","&amp;E249&amp;","&amp;F249&amp;","&amp;G249&amp;","&amp;H249</f>
+        <f t="shared" si="3"/>
         <v>27/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36388,7 +36541,7 @@
       <c r="G250" s="57"/>
       <c r="H250" s="57"/>
       <c r="I250" s="65" t="str">
-        <f>TEXT(A250,"jj/mm/aaaa")&amp;","&amp;B250&amp;","&amp;C250&amp;","&amp;D250&amp;","&amp;E250&amp;","&amp;F250&amp;","&amp;G250&amp;","&amp;H250</f>
+        <f t="shared" si="3"/>
         <v>28/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36404,7 +36557,7 @@
       <c r="G251" s="57"/>
       <c r="H251" s="57"/>
       <c r="I251" s="65" t="str">
-        <f>TEXT(A251,"jj/mm/aaaa")&amp;","&amp;B251&amp;","&amp;C251&amp;","&amp;D251&amp;","&amp;E251&amp;","&amp;F251&amp;","&amp;G251&amp;","&amp;H251</f>
+        <f t="shared" si="3"/>
         <v>29/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36420,7 +36573,7 @@
       <c r="G252" s="57"/>
       <c r="H252" s="57"/>
       <c r="I252" s="65" t="str">
-        <f>TEXT(A252,"jj/mm/aaaa")&amp;","&amp;B252&amp;","&amp;C252&amp;","&amp;D252&amp;","&amp;E252&amp;","&amp;F252&amp;","&amp;G252&amp;","&amp;H252</f>
+        <f t="shared" si="3"/>
         <v>30/09/2020,,,,,,,</v>
       </c>
     </row>
@@ -36436,7 +36589,7 @@
       <c r="G253" s="57"/>
       <c r="H253" s="57"/>
       <c r="I253" s="65" t="str">
-        <f>TEXT(A253,"jj/mm/aaaa")&amp;","&amp;B253&amp;","&amp;C253&amp;","&amp;D253&amp;","&amp;E253&amp;","&amp;F253&amp;","&amp;G253&amp;","&amp;H253</f>
+        <f t="shared" si="3"/>
         <v>01/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36452,7 +36605,7 @@
       <c r="G254" s="57"/>
       <c r="H254" s="57"/>
       <c r="I254" s="65" t="str">
-        <f>TEXT(A254,"jj/mm/aaaa")&amp;","&amp;B254&amp;","&amp;C254&amp;","&amp;D254&amp;","&amp;E254&amp;","&amp;F254&amp;","&amp;G254&amp;","&amp;H254</f>
+        <f t="shared" si="3"/>
         <v>02/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36468,7 +36621,7 @@
       <c r="G255" s="57"/>
       <c r="H255" s="57"/>
       <c r="I255" s="65" t="str">
-        <f>TEXT(A255,"jj/mm/aaaa")&amp;","&amp;B255&amp;","&amp;C255&amp;","&amp;D255&amp;","&amp;E255&amp;","&amp;F255&amp;","&amp;G255&amp;","&amp;H255</f>
+        <f t="shared" si="3"/>
         <v>03/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36484,7 +36637,7 @@
       <c r="G256" s="57"/>
       <c r="H256" s="57"/>
       <c r="I256" s="65" t="str">
-        <f>TEXT(A256,"jj/mm/aaaa")&amp;","&amp;B256&amp;","&amp;C256&amp;","&amp;D256&amp;","&amp;E256&amp;","&amp;F256&amp;","&amp;G256&amp;","&amp;H256</f>
+        <f t="shared" si="3"/>
         <v>04/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36500,7 +36653,7 @@
       <c r="G257" s="57"/>
       <c r="H257" s="57"/>
       <c r="I257" s="65" t="str">
-        <f>TEXT(A257,"jj/mm/aaaa")&amp;","&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257</f>
+        <f t="shared" ref="I257:I320" si="4">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257</f>
         <v>05/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36516,7 +36669,7 @@
       <c r="G258" s="57"/>
       <c r="H258" s="57"/>
       <c r="I258" s="65" t="str">
-        <f>TEXT(A258,"jj/mm/aaaa")&amp;","&amp;B258&amp;","&amp;C258&amp;","&amp;D258&amp;","&amp;E258&amp;","&amp;F258&amp;","&amp;G258&amp;","&amp;H258</f>
+        <f t="shared" si="4"/>
         <v>06/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36532,7 +36685,7 @@
       <c r="G259" s="57"/>
       <c r="H259" s="57"/>
       <c r="I259" s="65" t="str">
-        <f>TEXT(A259,"jj/mm/aaaa")&amp;","&amp;B259&amp;","&amp;C259&amp;","&amp;D259&amp;","&amp;E259&amp;","&amp;F259&amp;","&amp;G259&amp;","&amp;H259</f>
+        <f t="shared" si="4"/>
         <v>07/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36548,7 +36701,7 @@
       <c r="G260" s="57"/>
       <c r="H260" s="57"/>
       <c r="I260" s="65" t="str">
-        <f>TEXT(A260,"jj/mm/aaaa")&amp;","&amp;B260&amp;","&amp;C260&amp;","&amp;D260&amp;","&amp;E260&amp;","&amp;F260&amp;","&amp;G260&amp;","&amp;H260</f>
+        <f t="shared" si="4"/>
         <v>08/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36564,7 +36717,7 @@
       <c r="G261" s="57"/>
       <c r="H261" s="57"/>
       <c r="I261" s="65" t="str">
-        <f>TEXT(A261,"jj/mm/aaaa")&amp;","&amp;B261&amp;","&amp;C261&amp;","&amp;D261&amp;","&amp;E261&amp;","&amp;F261&amp;","&amp;G261&amp;","&amp;H261</f>
+        <f t="shared" si="4"/>
         <v>09/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36580,7 +36733,7 @@
       <c r="G262" s="57"/>
       <c r="H262" s="57"/>
       <c r="I262" s="65" t="str">
-        <f>TEXT(A262,"jj/mm/aaaa")&amp;","&amp;B262&amp;","&amp;C262&amp;","&amp;D262&amp;","&amp;E262&amp;","&amp;F262&amp;","&amp;G262&amp;","&amp;H262</f>
+        <f t="shared" si="4"/>
         <v>10/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36596,7 +36749,7 @@
       <c r="G263" s="57"/>
       <c r="H263" s="57"/>
       <c r="I263" s="65" t="str">
-        <f>TEXT(A263,"jj/mm/aaaa")&amp;","&amp;B263&amp;","&amp;C263&amp;","&amp;D263&amp;","&amp;E263&amp;","&amp;F263&amp;","&amp;G263&amp;","&amp;H263</f>
+        <f t="shared" si="4"/>
         <v>11/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36612,7 +36765,7 @@
       <c r="G264" s="57"/>
       <c r="H264" s="57"/>
       <c r="I264" s="65" t="str">
-        <f>TEXT(A264,"jj/mm/aaaa")&amp;","&amp;B264&amp;","&amp;C264&amp;","&amp;D264&amp;","&amp;E264&amp;","&amp;F264&amp;","&amp;G264&amp;","&amp;H264</f>
+        <f t="shared" si="4"/>
         <v>12/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36628,7 +36781,7 @@
       <c r="G265" s="57"/>
       <c r="H265" s="57"/>
       <c r="I265" s="65" t="str">
-        <f>TEXT(A265,"jj/mm/aaaa")&amp;","&amp;B265&amp;","&amp;C265&amp;","&amp;D265&amp;","&amp;E265&amp;","&amp;F265&amp;","&amp;G265&amp;","&amp;H265</f>
+        <f t="shared" si="4"/>
         <v>13/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36644,7 +36797,7 @@
       <c r="G266" s="57"/>
       <c r="H266" s="57"/>
       <c r="I266" s="65" t="str">
-        <f>TEXT(A266,"jj/mm/aaaa")&amp;","&amp;B266&amp;","&amp;C266&amp;","&amp;D266&amp;","&amp;E266&amp;","&amp;F266&amp;","&amp;G266&amp;","&amp;H266</f>
+        <f t="shared" si="4"/>
         <v>14/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36660,7 +36813,7 @@
       <c r="G267" s="57"/>
       <c r="H267" s="57"/>
       <c r="I267" s="65" t="str">
-        <f>TEXT(A267,"jj/mm/aaaa")&amp;","&amp;B267&amp;","&amp;C267&amp;","&amp;D267&amp;","&amp;E267&amp;","&amp;F267&amp;","&amp;G267&amp;","&amp;H267</f>
+        <f t="shared" si="4"/>
         <v>15/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36676,7 +36829,7 @@
       <c r="G268" s="57"/>
       <c r="H268" s="57"/>
       <c r="I268" s="65" t="str">
-        <f>TEXT(A268,"jj/mm/aaaa")&amp;","&amp;B268&amp;","&amp;C268&amp;","&amp;D268&amp;","&amp;E268&amp;","&amp;F268&amp;","&amp;G268&amp;","&amp;H268</f>
+        <f t="shared" si="4"/>
         <v>16/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36692,7 +36845,7 @@
       <c r="G269" s="57"/>
       <c r="H269" s="57"/>
       <c r="I269" s="65" t="str">
-        <f>TEXT(A269,"jj/mm/aaaa")&amp;","&amp;B269&amp;","&amp;C269&amp;","&amp;D269&amp;","&amp;E269&amp;","&amp;F269&amp;","&amp;G269&amp;","&amp;H269</f>
+        <f t="shared" si="4"/>
         <v>17/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36708,7 +36861,7 @@
       <c r="G270" s="57"/>
       <c r="H270" s="57"/>
       <c r="I270" s="65" t="str">
-        <f>TEXT(A270,"jj/mm/aaaa")&amp;","&amp;B270&amp;","&amp;C270&amp;","&amp;D270&amp;","&amp;E270&amp;","&amp;F270&amp;","&amp;G270&amp;","&amp;H270</f>
+        <f t="shared" si="4"/>
         <v>18/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36724,7 +36877,7 @@
       <c r="G271" s="57"/>
       <c r="H271" s="57"/>
       <c r="I271" s="65" t="str">
-        <f>TEXT(A271,"jj/mm/aaaa")&amp;","&amp;B271&amp;","&amp;C271&amp;","&amp;D271&amp;","&amp;E271&amp;","&amp;F271&amp;","&amp;G271&amp;","&amp;H271</f>
+        <f t="shared" si="4"/>
         <v>19/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36740,7 +36893,7 @@
       <c r="G272" s="57"/>
       <c r="H272" s="57"/>
       <c r="I272" s="65" t="str">
-        <f>TEXT(A272,"jj/mm/aaaa")&amp;","&amp;B272&amp;","&amp;C272&amp;","&amp;D272&amp;","&amp;E272&amp;","&amp;F272&amp;","&amp;G272&amp;","&amp;H272</f>
+        <f t="shared" si="4"/>
         <v>20/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36756,7 +36909,7 @@
       <c r="G273" s="57"/>
       <c r="H273" s="57"/>
       <c r="I273" s="65" t="str">
-        <f>TEXT(A273,"jj/mm/aaaa")&amp;","&amp;B273&amp;","&amp;C273&amp;","&amp;D273&amp;","&amp;E273&amp;","&amp;F273&amp;","&amp;G273&amp;","&amp;H273</f>
+        <f t="shared" si="4"/>
         <v>21/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36772,7 +36925,7 @@
       <c r="G274" s="57"/>
       <c r="H274" s="57"/>
       <c r="I274" s="65" t="str">
-        <f>TEXT(A274,"jj/mm/aaaa")&amp;","&amp;B274&amp;","&amp;C274&amp;","&amp;D274&amp;","&amp;E274&amp;","&amp;F274&amp;","&amp;G274&amp;","&amp;H274</f>
+        <f t="shared" si="4"/>
         <v>22/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36788,7 +36941,7 @@
       <c r="G275" s="57"/>
       <c r="H275" s="57"/>
       <c r="I275" s="65" t="str">
-        <f>TEXT(A275,"jj/mm/aaaa")&amp;","&amp;B275&amp;","&amp;C275&amp;","&amp;D275&amp;","&amp;E275&amp;","&amp;F275&amp;","&amp;G275&amp;","&amp;H275</f>
+        <f t="shared" si="4"/>
         <v>23/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36804,7 +36957,7 @@
       <c r="G276" s="57"/>
       <c r="H276" s="57"/>
       <c r="I276" s="65" t="str">
-        <f>TEXT(A276,"jj/mm/aaaa")&amp;","&amp;B276&amp;","&amp;C276&amp;","&amp;D276&amp;","&amp;E276&amp;","&amp;F276&amp;","&amp;G276&amp;","&amp;H276</f>
+        <f t="shared" si="4"/>
         <v>24/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36820,7 +36973,7 @@
       <c r="G277" s="57"/>
       <c r="H277" s="57"/>
       <c r="I277" s="65" t="str">
-        <f>TEXT(A277,"jj/mm/aaaa")&amp;","&amp;B277&amp;","&amp;C277&amp;","&amp;D277&amp;","&amp;E277&amp;","&amp;F277&amp;","&amp;G277&amp;","&amp;H277</f>
+        <f t="shared" si="4"/>
         <v>25/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36836,7 +36989,7 @@
       <c r="G278" s="57"/>
       <c r="H278" s="57"/>
       <c r="I278" s="65" t="str">
-        <f>TEXT(A278,"jj/mm/aaaa")&amp;","&amp;B278&amp;","&amp;C278&amp;","&amp;D278&amp;","&amp;E278&amp;","&amp;F278&amp;","&amp;G278&amp;","&amp;H278</f>
+        <f t="shared" si="4"/>
         <v>26/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36852,7 +37005,7 @@
       <c r="G279" s="57"/>
       <c r="H279" s="57"/>
       <c r="I279" s="65" t="str">
-        <f>TEXT(A279,"jj/mm/aaaa")&amp;","&amp;B279&amp;","&amp;C279&amp;","&amp;D279&amp;","&amp;E279&amp;","&amp;F279&amp;","&amp;G279&amp;","&amp;H279</f>
+        <f t="shared" si="4"/>
         <v>27/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36868,7 +37021,7 @@
       <c r="G280" s="57"/>
       <c r="H280" s="57"/>
       <c r="I280" s="65" t="str">
-        <f>TEXT(A280,"jj/mm/aaaa")&amp;","&amp;B280&amp;","&amp;C280&amp;","&amp;D280&amp;","&amp;E280&amp;","&amp;F280&amp;","&amp;G280&amp;","&amp;H280</f>
+        <f t="shared" si="4"/>
         <v>28/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36884,7 +37037,7 @@
       <c r="G281" s="57"/>
       <c r="H281" s="57"/>
       <c r="I281" s="65" t="str">
-        <f>TEXT(A281,"jj/mm/aaaa")&amp;","&amp;B281&amp;","&amp;C281&amp;","&amp;D281&amp;","&amp;E281&amp;","&amp;F281&amp;","&amp;G281&amp;","&amp;H281</f>
+        <f t="shared" si="4"/>
         <v>29/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36900,7 +37053,7 @@
       <c r="G282" s="57"/>
       <c r="H282" s="57"/>
       <c r="I282" s="65" t="str">
-        <f>TEXT(A282,"jj/mm/aaaa")&amp;","&amp;B282&amp;","&amp;C282&amp;","&amp;D282&amp;","&amp;E282&amp;","&amp;F282&amp;","&amp;G282&amp;","&amp;H282</f>
+        <f t="shared" si="4"/>
         <v>30/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36916,7 +37069,7 @@
       <c r="G283" s="57"/>
       <c r="H283" s="57"/>
       <c r="I283" s="65" t="str">
-        <f>TEXT(A283,"jj/mm/aaaa")&amp;","&amp;B283&amp;","&amp;C283&amp;","&amp;D283&amp;","&amp;E283&amp;","&amp;F283&amp;","&amp;G283&amp;","&amp;H283</f>
+        <f t="shared" si="4"/>
         <v>31/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -36932,7 +37085,7 @@
       <c r="G284" s="57"/>
       <c r="H284" s="57"/>
       <c r="I284" s="65" t="str">
-        <f>TEXT(A284,"jj/mm/aaaa")&amp;","&amp;B284&amp;","&amp;C284&amp;","&amp;D284&amp;","&amp;E284&amp;","&amp;F284&amp;","&amp;G284&amp;","&amp;H284</f>
+        <f t="shared" si="4"/>
         <v>01/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -36948,7 +37101,7 @@
       <c r="G285" s="57"/>
       <c r="H285" s="57"/>
       <c r="I285" s="65" t="str">
-        <f>TEXT(A285,"jj/mm/aaaa")&amp;","&amp;B285&amp;","&amp;C285&amp;","&amp;D285&amp;","&amp;E285&amp;","&amp;F285&amp;","&amp;G285&amp;","&amp;H285</f>
+        <f t="shared" si="4"/>
         <v>02/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -36964,7 +37117,7 @@
       <c r="G286" s="57"/>
       <c r="H286" s="57"/>
       <c r="I286" s="65" t="str">
-        <f>TEXT(A286,"jj/mm/aaaa")&amp;","&amp;B286&amp;","&amp;C286&amp;","&amp;D286&amp;","&amp;E286&amp;","&amp;F286&amp;","&amp;G286&amp;","&amp;H286</f>
+        <f t="shared" si="4"/>
         <v>03/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -36980,7 +37133,7 @@
       <c r="G287" s="57"/>
       <c r="H287" s="57"/>
       <c r="I287" s="65" t="str">
-        <f>TEXT(A287,"jj/mm/aaaa")&amp;","&amp;B287&amp;","&amp;C287&amp;","&amp;D287&amp;","&amp;E287&amp;","&amp;F287&amp;","&amp;G287&amp;","&amp;H287</f>
+        <f t="shared" si="4"/>
         <v>04/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -36996,7 +37149,7 @@
       <c r="G288" s="57"/>
       <c r="H288" s="57"/>
       <c r="I288" s="65" t="str">
-        <f>TEXT(A288,"jj/mm/aaaa")&amp;","&amp;B288&amp;","&amp;C288&amp;","&amp;D288&amp;","&amp;E288&amp;","&amp;F288&amp;","&amp;G288&amp;","&amp;H288</f>
+        <f t="shared" si="4"/>
         <v>05/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37012,7 +37165,7 @@
       <c r="G289" s="57"/>
       <c r="H289" s="57"/>
       <c r="I289" s="65" t="str">
-        <f>TEXT(A289,"jj/mm/aaaa")&amp;","&amp;B289&amp;","&amp;C289&amp;","&amp;D289&amp;","&amp;E289&amp;","&amp;F289&amp;","&amp;G289&amp;","&amp;H289</f>
+        <f t="shared" si="4"/>
         <v>06/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37028,7 +37181,7 @@
       <c r="G290" s="57"/>
       <c r="H290" s="57"/>
       <c r="I290" s="65" t="str">
-        <f>TEXT(A290,"jj/mm/aaaa")&amp;","&amp;B290&amp;","&amp;C290&amp;","&amp;D290&amp;","&amp;E290&amp;","&amp;F290&amp;","&amp;G290&amp;","&amp;H290</f>
+        <f t="shared" si="4"/>
         <v>07/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37044,7 +37197,7 @@
       <c r="G291" s="57"/>
       <c r="H291" s="57"/>
       <c r="I291" s="65" t="str">
-        <f>TEXT(A291,"jj/mm/aaaa")&amp;","&amp;B291&amp;","&amp;C291&amp;","&amp;D291&amp;","&amp;E291&amp;","&amp;F291&amp;","&amp;G291&amp;","&amp;H291</f>
+        <f t="shared" si="4"/>
         <v>08/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37060,7 +37213,7 @@
       <c r="G292" s="57"/>
       <c r="H292" s="57"/>
       <c r="I292" s="65" t="str">
-        <f>TEXT(A292,"jj/mm/aaaa")&amp;","&amp;B292&amp;","&amp;C292&amp;","&amp;D292&amp;","&amp;E292&amp;","&amp;F292&amp;","&amp;G292&amp;","&amp;H292</f>
+        <f t="shared" si="4"/>
         <v>09/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37076,7 +37229,7 @@
       <c r="G293" s="57"/>
       <c r="H293" s="57"/>
       <c r="I293" s="65" t="str">
-        <f>TEXT(A293,"jj/mm/aaaa")&amp;","&amp;B293&amp;","&amp;C293&amp;","&amp;D293&amp;","&amp;E293&amp;","&amp;F293&amp;","&amp;G293&amp;","&amp;H293</f>
+        <f t="shared" si="4"/>
         <v>10/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37092,7 +37245,7 @@
       <c r="G294" s="57"/>
       <c r="H294" s="57"/>
       <c r="I294" s="65" t="str">
-        <f>TEXT(A294,"jj/mm/aaaa")&amp;","&amp;B294&amp;","&amp;C294&amp;","&amp;D294&amp;","&amp;E294&amp;","&amp;F294&amp;","&amp;G294&amp;","&amp;H294</f>
+        <f t="shared" si="4"/>
         <v>11/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37108,7 +37261,7 @@
       <c r="G295" s="57"/>
       <c r="H295" s="57"/>
       <c r="I295" s="65" t="str">
-        <f>TEXT(A295,"jj/mm/aaaa")&amp;","&amp;B295&amp;","&amp;C295&amp;","&amp;D295&amp;","&amp;E295&amp;","&amp;F295&amp;","&amp;G295&amp;","&amp;H295</f>
+        <f t="shared" si="4"/>
         <v>12/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37124,7 +37277,7 @@
       <c r="G296" s="57"/>
       <c r="H296" s="57"/>
       <c r="I296" s="65" t="str">
-        <f>TEXT(A296,"jj/mm/aaaa")&amp;","&amp;B296&amp;","&amp;C296&amp;","&amp;D296&amp;","&amp;E296&amp;","&amp;F296&amp;","&amp;G296&amp;","&amp;H296</f>
+        <f t="shared" si="4"/>
         <v>13/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37140,7 +37293,7 @@
       <c r="G297" s="57"/>
       <c r="H297" s="57"/>
       <c r="I297" s="65" t="str">
-        <f>TEXT(A297,"jj/mm/aaaa")&amp;","&amp;B297&amp;","&amp;C297&amp;","&amp;D297&amp;","&amp;E297&amp;","&amp;F297&amp;","&amp;G297&amp;","&amp;H297</f>
+        <f t="shared" si="4"/>
         <v>14/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37156,7 +37309,7 @@
       <c r="G298" s="57"/>
       <c r="H298" s="57"/>
       <c r="I298" s="65" t="str">
-        <f>TEXT(A298,"jj/mm/aaaa")&amp;","&amp;B298&amp;","&amp;C298&amp;","&amp;D298&amp;","&amp;E298&amp;","&amp;F298&amp;","&amp;G298&amp;","&amp;H298</f>
+        <f t="shared" si="4"/>
         <v>15/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37172,7 +37325,7 @@
       <c r="G299" s="57"/>
       <c r="H299" s="57"/>
       <c r="I299" s="65" t="str">
-        <f>TEXT(A299,"jj/mm/aaaa")&amp;","&amp;B299&amp;","&amp;C299&amp;","&amp;D299&amp;","&amp;E299&amp;","&amp;F299&amp;","&amp;G299&amp;","&amp;H299</f>
+        <f t="shared" si="4"/>
         <v>16/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37188,7 +37341,7 @@
       <c r="G300" s="57"/>
       <c r="H300" s="57"/>
       <c r="I300" s="65" t="str">
-        <f>TEXT(A300,"jj/mm/aaaa")&amp;","&amp;B300&amp;","&amp;C300&amp;","&amp;D300&amp;","&amp;E300&amp;","&amp;F300&amp;","&amp;G300&amp;","&amp;H300</f>
+        <f t="shared" si="4"/>
         <v>17/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37204,7 +37357,7 @@
       <c r="G301" s="57"/>
       <c r="H301" s="57"/>
       <c r="I301" s="65" t="str">
-        <f>TEXT(A301,"jj/mm/aaaa")&amp;","&amp;B301&amp;","&amp;C301&amp;","&amp;D301&amp;","&amp;E301&amp;","&amp;F301&amp;","&amp;G301&amp;","&amp;H301</f>
+        <f t="shared" si="4"/>
         <v>18/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37220,7 +37373,7 @@
       <c r="G302" s="57"/>
       <c r="H302" s="57"/>
       <c r="I302" s="65" t="str">
-        <f>TEXT(A302,"jj/mm/aaaa")&amp;","&amp;B302&amp;","&amp;C302&amp;","&amp;D302&amp;","&amp;E302&amp;","&amp;F302&amp;","&amp;G302&amp;","&amp;H302</f>
+        <f t="shared" si="4"/>
         <v>19/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37236,7 +37389,7 @@
       <c r="G303" s="57"/>
       <c r="H303" s="57"/>
       <c r="I303" s="65" t="str">
-        <f>TEXT(A303,"jj/mm/aaaa")&amp;","&amp;B303&amp;","&amp;C303&amp;","&amp;D303&amp;","&amp;E303&amp;","&amp;F303&amp;","&amp;G303&amp;","&amp;H303</f>
+        <f t="shared" si="4"/>
         <v>20/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37252,7 +37405,7 @@
       <c r="G304" s="57"/>
       <c r="H304" s="57"/>
       <c r="I304" s="65" t="str">
-        <f>TEXT(A304,"jj/mm/aaaa")&amp;","&amp;B304&amp;","&amp;C304&amp;","&amp;D304&amp;","&amp;E304&amp;","&amp;F304&amp;","&amp;G304&amp;","&amp;H304</f>
+        <f t="shared" si="4"/>
         <v>21/11/2020,,,,,,,</v>
       </c>
     </row>
@@ -37267,8 +37420,8 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -37329,7 +37482,7 @@
         <v>112</v>
       </c>
       <c r="N1" s="10" t="str">
-        <f>TEXT(A1,"jj/mm/aaaa")&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1&amp;","&amp;J1&amp;","&amp;K1&amp;","&amp;L1&amp;","&amp;M1</f>
+        <f t="shared" ref="N1:N64" si="0">TEXT(A1,"jj/mm/aaaa")&amp;","&amp;E1&amp;","&amp;F1&amp;","&amp;G1&amp;","&amp;H1&amp;","&amp;I1&amp;","&amp;J1&amp;","&amp;K1&amp;","&amp;L1&amp;","&amp;M1</f>
         <v>Date,Cas confirmés,Hospitalisations,Nvx hospitalisés,Guérisons,En réanimation,Nvx en réanimation,Décès en hopital,Cas confirmés EHPAD et EMS,Décès EHPAD et EMS</v>
       </c>
     </row>
@@ -37352,7 +37505,7 @@
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
       <c r="N2" s="10" t="str">
-        <f>TEXT(A2,"jj/mm/aaaa")&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2</f>
+        <f t="shared" si="0"/>
         <v>24/01/2020,3,,,,,,,,</v>
       </c>
     </row>
@@ -37394,7 +37547,7 @@
         <v/>
       </c>
       <c r="N3" s="10" t="str">
-        <f>TEXT(A3,"jj/mm/aaaa")&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3</f>
+        <f t="shared" si="0"/>
         <v>25/01/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37436,7 +37589,7 @@
         <v/>
       </c>
       <c r="N4" s="10" t="str">
-        <f>TEXT(A4,"jj/mm/aaaa")&amp;","&amp;E4&amp;","&amp;F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4</f>
+        <f t="shared" si="0"/>
         <v>26/01/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37478,7 +37631,7 @@
         <v/>
       </c>
       <c r="N5" s="10" t="str">
-        <f>TEXT(A5,"jj/mm/aaaa")&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5&amp;","&amp;H5&amp;","&amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5</f>
+        <f t="shared" si="0"/>
         <v>27/01/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37520,7 +37673,7 @@
         <v/>
       </c>
       <c r="N6" s="10" t="str">
-        <f>TEXT(A6,"jj/mm/aaaa")&amp;","&amp;E6&amp;","&amp;F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6&amp;","&amp;J6&amp;","&amp;K6&amp;","&amp;L6&amp;","&amp;M6</f>
+        <f t="shared" si="0"/>
         <v>28/01/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37562,7 +37715,7 @@
         <v/>
       </c>
       <c r="N7" s="10" t="str">
-        <f>TEXT(A7,"jj/mm/aaaa")&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
+        <f t="shared" si="0"/>
         <v>29/01/2020,1,,,,1,,,,</v>
       </c>
     </row>
@@ -37604,7 +37757,7 @@
         <v/>
       </c>
       <c r="N8" s="10" t="str">
-        <f>TEXT(A8,"jj/mm/aaaa")&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8</f>
+        <f t="shared" si="0"/>
         <v>30/01/2020,1,,,,,,,,</v>
       </c>
     </row>
@@ -37646,7 +37799,7 @@
         <v/>
       </c>
       <c r="N9" s="10" t="str">
-        <f>TEXT(A9,"jj/mm/aaaa")&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9</f>
+        <f t="shared" si="0"/>
         <v>31/01/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37688,7 +37841,7 @@
         <v/>
       </c>
       <c r="N10" s="10" t="str">
-        <f>TEXT(A10,"jj/mm/aaaa")&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10&amp;","&amp;M10</f>
+        <f t="shared" si="0"/>
         <v>01/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37730,7 +37883,7 @@
         <v/>
       </c>
       <c r="N11" s="10" t="str">
-        <f>TEXT(A11,"jj/mm/aaaa")&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11&amp;","&amp;H11&amp;","&amp;I11&amp;","&amp;J11&amp;","&amp;K11&amp;","&amp;L11&amp;","&amp;M11</f>
+        <f t="shared" si="0"/>
         <v>02/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37772,7 +37925,7 @@
         <v/>
       </c>
       <c r="N12" s="10" t="str">
-        <f>TEXT(A12,"jj/mm/aaaa")&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12&amp;","&amp;H12&amp;","&amp;I12&amp;","&amp;J12&amp;","&amp;K12&amp;","&amp;L12&amp;","&amp;M12</f>
+        <f t="shared" si="0"/>
         <v>03/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37814,7 +37967,7 @@
         <v/>
       </c>
       <c r="N13" s="10" t="str">
-        <f>TEXT(A13,"jj/mm/aaaa")&amp;","&amp;E13&amp;","&amp;F13&amp;","&amp;G13&amp;","&amp;H13&amp;","&amp;I13&amp;","&amp;J13&amp;","&amp;K13&amp;","&amp;L13&amp;","&amp;M13</f>
+        <f t="shared" si="0"/>
         <v>04/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37856,7 +38009,7 @@
         <v/>
       </c>
       <c r="N14" s="10" t="str">
-        <f>TEXT(A14,"jj/mm/aaaa")&amp;","&amp;E14&amp;","&amp;F14&amp;","&amp;G14&amp;","&amp;H14&amp;","&amp;I14&amp;","&amp;J14&amp;","&amp;K14&amp;","&amp;L14&amp;","&amp;M14</f>
+        <f t="shared" si="0"/>
         <v>05/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37898,7 +38051,7 @@
         <v/>
       </c>
       <c r="N15" s="10" t="str">
-        <f>TEXT(A15,"jj/mm/aaaa")&amp;","&amp;E15&amp;","&amp;F15&amp;","&amp;G15&amp;","&amp;H15&amp;","&amp;I15&amp;","&amp;J15&amp;","&amp;K15&amp;","&amp;L15&amp;","&amp;M15</f>
+        <f t="shared" si="0"/>
         <v>06/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37940,7 +38093,7 @@
         <v/>
       </c>
       <c r="N16" s="10" t="str">
-        <f>TEXT(A16,"jj/mm/aaaa")&amp;","&amp;E16&amp;","&amp;F16&amp;","&amp;G16&amp;","&amp;H16&amp;","&amp;I16&amp;","&amp;J16&amp;","&amp;K16&amp;","&amp;L16&amp;","&amp;M16</f>
+        <f t="shared" si="0"/>
         <v>07/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -37982,7 +38135,7 @@
         <v/>
       </c>
       <c r="N17" s="10" t="str">
-        <f>TEXT(A17,"jj/mm/aaaa")&amp;","&amp;E17&amp;","&amp;F17&amp;","&amp;G17&amp;","&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;","&amp;L17&amp;","&amp;M17</f>
+        <f t="shared" si="0"/>
         <v>08/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38024,7 +38177,7 @@
         <v/>
       </c>
       <c r="N18" s="10" t="str">
-        <f>TEXT(A18,"jj/mm/aaaa")&amp;","&amp;E18&amp;","&amp;F18&amp;","&amp;G18&amp;","&amp;H18&amp;","&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;","&amp;L18&amp;","&amp;M18</f>
+        <f t="shared" si="0"/>
         <v>09/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38066,7 +38219,7 @@
         <v/>
       </c>
       <c r="N19" s="10" t="str">
-        <f>TEXT(A19,"jj/mm/aaaa")&amp;","&amp;E19&amp;","&amp;F19&amp;","&amp;G19&amp;","&amp;H19&amp;","&amp;I19&amp;","&amp;J19&amp;","&amp;K19&amp;","&amp;L19&amp;","&amp;M19</f>
+        <f t="shared" si="0"/>
         <v>10/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38108,7 +38261,7 @@
         <v/>
       </c>
       <c r="N20" s="10" t="str">
-        <f>TEXT(A20,"jj/mm/aaaa")&amp;","&amp;E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20&amp;","&amp;J20&amp;","&amp;K20&amp;","&amp;L20&amp;","&amp;M20</f>
+        <f t="shared" si="0"/>
         <v>11/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38150,7 +38303,7 @@
         <v/>
       </c>
       <c r="N21" s="10" t="str">
-        <f>TEXT(A21,"jj/mm/aaaa")&amp;","&amp;E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21&amp;","&amp;J21&amp;","&amp;K21&amp;","&amp;L21&amp;","&amp;M21</f>
+        <f t="shared" si="0"/>
         <v>12/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38192,7 +38345,7 @@
         <v/>
       </c>
       <c r="N22" s="10" t="str">
-        <f>TEXT(A22,"jj/mm/aaaa")&amp;","&amp;E22&amp;","&amp;F22&amp;","&amp;G22&amp;","&amp;H22&amp;","&amp;I22&amp;","&amp;J22&amp;","&amp;K22&amp;","&amp;L22&amp;","&amp;M22</f>
+        <f t="shared" si="0"/>
         <v>13/02/2020,,,,1,,,,,</v>
       </c>
     </row>
@@ -38234,7 +38387,7 @@
         <v/>
       </c>
       <c r="N23" s="10" t="str">
-        <f>TEXT(A23,"jj/mm/aaaa")&amp;","&amp;E23&amp;","&amp;F23&amp;","&amp;G23&amp;","&amp;H23&amp;","&amp;I23&amp;","&amp;J23&amp;","&amp;K23&amp;","&amp;L23&amp;","&amp;M23</f>
+        <f t="shared" si="0"/>
         <v>14/02/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -38276,7 +38429,7 @@
         <v/>
       </c>
       <c r="N24" s="10" t="str">
-        <f>TEXT(A24,"jj/mm/aaaa")&amp;","&amp;E24&amp;","&amp;F24&amp;","&amp;G24&amp;","&amp;H24&amp;","&amp;I24&amp;","&amp;J24&amp;","&amp;K24&amp;","&amp;L24&amp;","&amp;M24</f>
+        <f t="shared" si="0"/>
         <v>15/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38318,7 +38471,7 @@
         <v/>
       </c>
       <c r="N25" s="10" t="str">
-        <f>TEXT(A25,"jj/mm/aaaa")&amp;","&amp;E25&amp;","&amp;F25&amp;","&amp;G25&amp;","&amp;H25&amp;","&amp;I25&amp;","&amp;J25&amp;","&amp;K25&amp;","&amp;L25&amp;","&amp;M25</f>
+        <f t="shared" si="0"/>
         <v>16/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38360,7 +38513,7 @@
         <v/>
       </c>
       <c r="N26" s="10" t="str">
-        <f>TEXT(A26,"jj/mm/aaaa")&amp;","&amp;E26&amp;","&amp;F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26&amp;","&amp;J26&amp;","&amp;K26&amp;","&amp;L26&amp;","&amp;M26</f>
+        <f t="shared" si="0"/>
         <v>17/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38402,7 +38555,7 @@
         <v/>
       </c>
       <c r="N27" s="10" t="str">
-        <f>TEXT(A27,"jj/mm/aaaa")&amp;","&amp;E27&amp;","&amp;F27&amp;","&amp;G27&amp;","&amp;H27&amp;","&amp;I27&amp;","&amp;J27&amp;","&amp;K27&amp;","&amp;L27&amp;","&amp;M27</f>
+        <f t="shared" si="0"/>
         <v>18/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38444,7 +38597,7 @@
         <v/>
       </c>
       <c r="N28" s="10" t="str">
-        <f>TEXT(A28,"jj/mm/aaaa")&amp;","&amp;E28&amp;","&amp;F28&amp;","&amp;G28&amp;","&amp;H28&amp;","&amp;I28&amp;","&amp;J28&amp;","&amp;K28&amp;","&amp;L28&amp;","&amp;M28</f>
+        <f t="shared" si="0"/>
         <v>19/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38486,7 +38639,7 @@
         <v/>
       </c>
       <c r="N29" s="10" t="str">
-        <f>TEXT(A29,"jj/mm/aaaa")&amp;","&amp;E29&amp;","&amp;F29&amp;","&amp;G29&amp;","&amp;H29&amp;","&amp;I29&amp;","&amp;J29&amp;","&amp;K29&amp;","&amp;L29&amp;","&amp;M29</f>
+        <f t="shared" si="0"/>
         <v>20/02/2020,,7,,,,,0,,</v>
       </c>
     </row>
@@ -38528,7 +38681,7 @@
         <v/>
       </c>
       <c r="N30" s="10" t="str">
-        <f>TEXT(A30,"jj/mm/aaaa")&amp;","&amp;E30&amp;","&amp;F30&amp;","&amp;G30&amp;","&amp;H30&amp;","&amp;I30&amp;","&amp;J30&amp;","&amp;K30&amp;","&amp;L30&amp;","&amp;M30</f>
+        <f t="shared" si="0"/>
         <v>21/02/2020,,-10,,,,,0,,</v>
       </c>
     </row>
@@ -38570,7 +38723,7 @@
         <v/>
       </c>
       <c r="N31" s="10" t="str">
-        <f>TEXT(A31,"jj/mm/aaaa")&amp;","&amp;E31&amp;","&amp;F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31&amp;","&amp;L31&amp;","&amp;M31</f>
+        <f t="shared" si="0"/>
         <v>22/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38612,7 +38765,7 @@
         <v/>
       </c>
       <c r="N32" s="10" t="str">
-        <f>TEXT(A32,"jj/mm/aaaa")&amp;","&amp;E32&amp;","&amp;F32&amp;","&amp;G32&amp;","&amp;H32&amp;","&amp;I32&amp;","&amp;J32&amp;","&amp;K32&amp;","&amp;L32&amp;","&amp;M32</f>
+        <f t="shared" si="0"/>
         <v>23/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38654,7 +38807,7 @@
         <v/>
       </c>
       <c r="N33" s="10" t="str">
-        <f>TEXT(A33,"jj/mm/aaaa")&amp;","&amp;E33&amp;","&amp;F33&amp;","&amp;G33&amp;","&amp;H33&amp;","&amp;I33&amp;","&amp;J33&amp;","&amp;K33&amp;","&amp;L33&amp;","&amp;M33</f>
+        <f t="shared" si="0"/>
         <v>24/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38696,7 +38849,7 @@
         <v/>
       </c>
       <c r="N34" s="10" t="str">
-        <f>TEXT(A34,"jj/mm/aaaa")&amp;","&amp;E34&amp;","&amp;F34&amp;","&amp;G34&amp;","&amp;H34&amp;","&amp;I34&amp;","&amp;J34&amp;","&amp;K34&amp;","&amp;L34&amp;","&amp;M34</f>
+        <f t="shared" si="0"/>
         <v>25/02/2020,,,,,,,0,,</v>
       </c>
     </row>
@@ -38738,7 +38891,7 @@
         <v/>
       </c>
       <c r="N35" s="10" t="str">
-        <f>TEXT(A35,"jj/mm/aaaa")&amp;","&amp;E35&amp;","&amp;F35&amp;","&amp;G35&amp;","&amp;H35&amp;","&amp;I35&amp;","&amp;J35&amp;","&amp;K35&amp;","&amp;L35&amp;","&amp;M35</f>
+        <f t="shared" si="0"/>
         <v>26/02/2020,4,2,,,,,1,,</v>
       </c>
     </row>
@@ -38780,7 +38933,7 @@
         <v/>
       </c>
       <c r="N36" s="10" t="str">
-        <f>TEXT(A36,"jj/mm/aaaa")&amp;","&amp;E36&amp;","&amp;F36&amp;","&amp;G36&amp;","&amp;H36&amp;","&amp;I36&amp;","&amp;J36&amp;","&amp;K36&amp;","&amp;L36&amp;","&amp;M36</f>
+        <f t="shared" si="0"/>
         <v>27/02/2020,20,20,,,,,0,,</v>
       </c>
     </row>
@@ -38822,7 +38975,7 @@
         <v/>
       </c>
       <c r="N37" s="10" t="str">
-        <f>TEXT(A37,"jj/mm/aaaa")&amp;","&amp;E37&amp;","&amp;F37&amp;","&amp;G37&amp;","&amp;H37&amp;","&amp;I37&amp;","&amp;J37&amp;","&amp;K37&amp;","&amp;L37&amp;","&amp;M37</f>
+        <f t="shared" si="0"/>
         <v>28/02/2020,19,,,,,,0,,</v>
       </c>
     </row>
@@ -38864,7 +39017,7 @@
         <v/>
       </c>
       <c r="N38" s="10" t="str">
-        <f>TEXT(A38,"jj/mm/aaaa")&amp;","&amp;E38&amp;","&amp;F38&amp;","&amp;G38&amp;","&amp;H38&amp;","&amp;I38&amp;","&amp;J38&amp;","&amp;K38&amp;","&amp;L38&amp;","&amp;M38</f>
+        <f t="shared" si="0"/>
         <v>29/02/2020,43,,,,,,0,,</v>
       </c>
     </row>
@@ -38906,7 +39059,7 @@
         <v/>
       </c>
       <c r="N39" s="10" t="str">
-        <f>TEXT(A39,"jj/mm/aaaa")&amp;","&amp;E39&amp;","&amp;F39&amp;","&amp;G39&amp;","&amp;H39&amp;","&amp;I39&amp;","&amp;J39&amp;","&amp;K39&amp;","&amp;L39&amp;","&amp;M39</f>
+        <f t="shared" si="0"/>
         <v>01/03/2020,30,30,,,,,0,,</v>
       </c>
     </row>
@@ -38948,7 +39101,7 @@
         <v/>
       </c>
       <c r="N40" s="10" t="str">
-        <f>TEXT(A40,"jj/mm/aaaa")&amp;","&amp;E40&amp;","&amp;F40&amp;","&amp;G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40</f>
+        <f t="shared" si="0"/>
         <v>02/03/2020,61,,,,,,1,,</v>
       </c>
     </row>
@@ -38990,7 +39143,7 @@
         <v/>
       </c>
       <c r="N41" s="10" t="str">
-        <f>TEXT(A41,"jj/mm/aaaa")&amp;","&amp;E41&amp;","&amp;F41&amp;","&amp;G41&amp;","&amp;H41&amp;","&amp;I41&amp;","&amp;J41&amp;","&amp;K41&amp;","&amp;L41&amp;","&amp;M41</f>
+        <f t="shared" si="0"/>
         <v>03/03/2020,21,,,,,,1,,</v>
       </c>
     </row>
@@ -39032,7 +39185,7 @@
         <v/>
       </c>
       <c r="N42" s="10" t="str">
-        <f>TEXT(A42,"jj/mm/aaaa")&amp;","&amp;E42&amp;","&amp;F42&amp;","&amp;G42&amp;","&amp;H42&amp;","&amp;I42&amp;","&amp;J42&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42</f>
+        <f t="shared" si="0"/>
         <v>04/03/2020,73,,,,,,0,,</v>
       </c>
     </row>
@@ -39074,7 +39227,7 @@
         <v/>
       </c>
       <c r="N43" s="10" t="str">
-        <f>TEXT(A43,"jj/mm/aaaa")&amp;","&amp;E43&amp;","&amp;F43&amp;","&amp;G43&amp;","&amp;H43&amp;","&amp;I43&amp;","&amp;J43&amp;","&amp;K43&amp;","&amp;L43&amp;","&amp;M43</f>
+        <f t="shared" si="0"/>
         <v>05/03/2020,138,,,,8,,3,,</v>
       </c>
     </row>
@@ -39116,7 +39269,7 @@
         <v/>
       </c>
       <c r="N44" s="10" t="str">
-        <f>TEXT(A44,"jj/mm/aaaa")&amp;","&amp;E44&amp;","&amp;F44&amp;","&amp;G44&amp;","&amp;H44&amp;","&amp;I44&amp;","&amp;J44&amp;","&amp;K44&amp;","&amp;L44&amp;","&amp;M44</f>
+        <f t="shared" si="0"/>
         <v>06/03/2020,190,,,,16,,2,,</v>
       </c>
     </row>
@@ -39158,7 +39311,7 @@
         <v/>
       </c>
       <c r="N45" s="10" t="str">
-        <f>TEXT(A45,"jj/mm/aaaa")&amp;","&amp;E45&amp;","&amp;F45&amp;","&amp;G45&amp;","&amp;H45&amp;","&amp;I45&amp;","&amp;J45&amp;","&amp;K45&amp;","&amp;L45&amp;","&amp;M45</f>
+        <f t="shared" si="0"/>
         <v>07/03/2020,336,,,,6,,7,,</v>
       </c>
     </row>
@@ -39200,7 +39353,7 @@
         <v/>
       </c>
       <c r="N46" s="10" t="str">
-        <f>TEXT(A46,"jj/mm/aaaa")&amp;","&amp;E46&amp;","&amp;F46&amp;","&amp;G46&amp;","&amp;H46&amp;","&amp;I46&amp;","&amp;J46&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46</f>
+        <f t="shared" si="0"/>
         <v>08/03/2020,177,,,,,,3,,</v>
       </c>
     </row>
@@ -39242,7 +39395,7 @@
         <v/>
       </c>
       <c r="N47" s="10" t="str">
-        <f>TEXT(A47,"jj/mm/aaaa")&amp;","&amp;E47&amp;","&amp;F47&amp;","&amp;G47&amp;","&amp;H47&amp;","&amp;I47&amp;","&amp;J47&amp;","&amp;K47&amp;","&amp;L47&amp;","&amp;M47</f>
+        <f t="shared" si="0"/>
         <v>09/03/2020,286,,,,,,6,,</v>
       </c>
     </row>
@@ -39284,7 +39437,7 @@
         <v/>
       </c>
       <c r="N48" s="10" t="str">
-        <f>TEXT(A48,"jj/mm/aaaa")&amp;","&amp;E48&amp;","&amp;F48&amp;","&amp;G48&amp;","&amp;H48&amp;","&amp;I48&amp;","&amp;J48&amp;","&amp;K48&amp;","&amp;L48&amp;","&amp;M48</f>
+        <f t="shared" si="0"/>
         <v>10/03/2020,372,,,,20,,8,,</v>
       </c>
     </row>
@@ -39326,7 +39479,7 @@
         <v/>
       </c>
       <c r="N49" s="10" t="str">
-        <f>TEXT(A49,"jj/mm/aaaa")&amp;","&amp;E49&amp;","&amp;F49&amp;","&amp;G49&amp;","&amp;H49&amp;","&amp;I49&amp;","&amp;J49&amp;","&amp;K49&amp;","&amp;L49&amp;","&amp;M49</f>
+        <f t="shared" si="0"/>
         <v>11/03/2020,497,,,,19,,15,,</v>
       </c>
     </row>
@@ -39368,7 +39521,7 @@
         <v/>
       </c>
       <c r="N50" s="10" t="str">
-        <f>TEXT(A50,"jj/mm/aaaa")&amp;","&amp;E50&amp;","&amp;F50&amp;","&amp;G50&amp;","&amp;H50&amp;","&amp;I50&amp;","&amp;J50&amp;","&amp;K50&amp;","&amp;L50&amp;","&amp;M50</f>
+        <f t="shared" si="0"/>
         <v>12/03/2020,595,,,,24,,13,,</v>
       </c>
     </row>
@@ -39410,7 +39563,7 @@
         <v/>
       </c>
       <c r="N51" s="10" t="str">
-        <f>TEXT(A51,"jj/mm/aaaa")&amp;","&amp;E51&amp;","&amp;F51&amp;","&amp;G51&amp;","&amp;H51&amp;","&amp;I51&amp;","&amp;J51&amp;","&amp;K51&amp;","&amp;L51&amp;","&amp;M51</f>
+        <f t="shared" si="0"/>
         <v>13/03/2020,785,,,,25,,18,,</v>
       </c>
     </row>
@@ -39452,7 +39605,7 @@
         <v/>
       </c>
       <c r="N52" s="10" t="str">
-        <f>TEXT(A52,"jj/mm/aaaa")&amp;","&amp;E52&amp;","&amp;F52&amp;","&amp;G52&amp;","&amp;H52&amp;","&amp;I52&amp;","&amp;J52&amp;","&amp;K52&amp;","&amp;L52&amp;","&amp;M52</f>
+        <f t="shared" si="0"/>
         <v>14/03/2020,839,,,,146,,12,,</v>
       </c>
     </row>
@@ -39494,7 +39647,7 @@
         <v/>
       </c>
       <c r="N53" s="10" t="str">
-        <f>TEXT(A53,"jj/mm/aaaa")&amp;","&amp;E53&amp;","&amp;F53&amp;","&amp;G53&amp;","&amp;H53&amp;","&amp;I53&amp;","&amp;J53&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53</f>
+        <f t="shared" si="0"/>
         <v>15/03/2020,1878,,,,,,70,,</v>
       </c>
     </row>
@@ -39536,7 +39689,7 @@
         <v/>
       </c>
       <c r="N54" s="10" t="str">
-        <f>TEXT(A54,"jj/mm/aaaa")&amp;","&amp;E54&amp;","&amp;F54&amp;","&amp;G54&amp;","&amp;H54&amp;","&amp;I54&amp;","&amp;J54&amp;","&amp;K54&amp;","&amp;L54&amp;","&amp;M54</f>
+        <f t="shared" si="0"/>
         <v>16/03/2020,255,,,,,,-13,,</v>
       </c>
     </row>
@@ -39578,7 +39731,7 @@
         <v/>
       </c>
       <c r="N55" s="10" t="str">
-        <f>TEXT(A55,"jj/mm/aaaa")&amp;","&amp;E55&amp;","&amp;F55&amp;","&amp;G55&amp;","&amp;H55&amp;","&amp;I55&amp;","&amp;J55&amp;","&amp;K55&amp;","&amp;L55&amp;","&amp;M55</f>
+        <f t="shared" si="0"/>
         <v>17/03/2020,1097,,,,,,27,,</v>
       </c>
     </row>
@@ -39620,7 +39773,7 @@
         <v/>
       </c>
       <c r="N56" s="10" t="str">
-        <f>TEXT(A56,"jj/mm/aaaa")&amp;","&amp;E56&amp;","&amp;F56&amp;","&amp;G56&amp;","&amp;H56&amp;","&amp;I56&amp;","&amp;J56&amp;","&amp;K56&amp;","&amp;L56&amp;","&amp;M56</f>
+        <f t="shared" si="0"/>
         <v>18/03/2020,1404,1047,,398,232,,89,,</v>
       </c>
     </row>
@@ -39666,7 +39819,7 @@
         <v/>
       </c>
       <c r="N57" s="10" t="str">
-        <f>TEXT(A57,"jj/mm/aaaa")&amp;","&amp;E57&amp;","&amp;F57&amp;","&amp;G57&amp;","&amp;H57&amp;","&amp;I57&amp;","&amp;J57&amp;","&amp;K57&amp;","&amp;L57&amp;","&amp;M57</f>
+        <f t="shared" si="0"/>
         <v>19/03/2020,1861,835,2229,300,191,438,108,,</v>
       </c>
     </row>
@@ -39712,7 +39865,7 @@
         <v/>
       </c>
       <c r="N58" s="10" t="str">
-        <f>TEXT(A58,"jj/mm/aaaa")&amp;","&amp;E58&amp;","&amp;F58&amp;","&amp;G58&amp;","&amp;H58&amp;","&amp;I58&amp;","&amp;J58&amp;","&amp;K58&amp;","&amp;L58&amp;","&amp;M58</f>
+        <f t="shared" si="0"/>
         <v>20/03/2020,1617,765,1256,287,175,242,78,,</v>
       </c>
     </row>
@@ -39758,7 +39911,7 @@
         <v/>
       </c>
       <c r="N59" s="10" t="str">
-        <f>TEXT(A59,"jj/mm/aaaa")&amp;","&amp;E59&amp;","&amp;F59&amp;","&amp;G59&amp;","&amp;H59&amp;","&amp;I59&amp;","&amp;J59&amp;","&amp;K59&amp;","&amp;L59&amp;","&amp;M59</f>
+        <f t="shared" si="0"/>
         <v>21/03/2020,1847,946,1540,224,228,298,112,,</v>
       </c>
     </row>
@@ -39804,7 +39957,7 @@
         <v/>
       </c>
       <c r="N60" s="10" t="str">
-        <f>TEXT(A60,"jj/mm/aaaa")&amp;","&amp;E60&amp;","&amp;F60&amp;","&amp;G60&amp;","&amp;H60&amp;","&amp;I60&amp;","&amp;J60&amp;","&amp;K60&amp;","&amp;L60&amp;","&amp;M60</f>
+        <f t="shared" si="0"/>
         <v>22/03/2020,2230,1068,1534,389,221,309,112,,</v>
       </c>
     </row>
@@ -39850,7 +40003,7 @@
         <v/>
       </c>
       <c r="N61" s="10" t="str">
-        <f>TEXT(A61,"jj/mm/aaaa")&amp;","&amp;E61&amp;","&amp;F61&amp;","&amp;G61&amp;","&amp;H61&amp;","&amp;I61&amp;","&amp;J61&amp;","&amp;K61&amp;","&amp;L61&amp;","&amp;M61</f>
+        <f t="shared" si="0"/>
         <v>23/03/2020,3167,1435,2053,367,336,448,186,,</v>
       </c>
     </row>
@@ -39896,7 +40049,7 @@
         <v/>
       </c>
       <c r="N62" s="10" t="str">
-        <f>TEXT(A62,"jj/mm/aaaa")&amp;","&amp;E62&amp;","&amp;F62&amp;","&amp;G62&amp;","&amp;H62&amp;","&amp;I62&amp;","&amp;J62&amp;","&amp;K62&amp;","&amp;L62&amp;","&amp;M62</f>
+        <f t="shared" si="0"/>
         <v>24/03/2020,2446,1501,2618,714,434,571,240,,</v>
       </c>
     </row>
@@ -39942,7 +40095,7 @@
         <v/>
       </c>
       <c r="N63" s="10" t="str">
-        <f>TEXT(A63,"jj/mm/aaaa")&amp;","&amp;E63&amp;","&amp;F63&amp;","&amp;G63&amp;","&amp;H63&amp;","&amp;I63&amp;","&amp;J63&amp;","&amp;K63&amp;","&amp;L63&amp;","&amp;M63</f>
+        <f t="shared" si="0"/>
         <v>25/03/2020,2931,1363,3166,619,311,607,231,,</v>
       </c>
     </row>
@@ -39988,7 +40141,7 @@
         <v/>
       </c>
       <c r="N64" s="10" t="str">
-        <f>TEXT(A64,"jj/mm/aaaa")&amp;","&amp;E64&amp;","&amp;F64&amp;","&amp;G64&amp;","&amp;H64&amp;","&amp;I64&amp;","&amp;J64&amp;","&amp;K64&amp;","&amp;L64&amp;","&amp;M64</f>
+        <f t="shared" si="0"/>
         <v>26/03/2020,3922,2365,3097,1048,548,612,365,,</v>
       </c>
     </row>
@@ -40034,7 +40187,7 @@
         <v/>
       </c>
       <c r="N65" s="10" t="str">
-        <f>TEXT(A65,"jj/mm/aaaa")&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
+        <f t="shared" ref="N65:N128" si="1">TEXT(A65,"jj/mm/aaaa")&amp;","&amp;E65&amp;","&amp;F65&amp;","&amp;G65&amp;","&amp;H65&amp;","&amp;I65&amp;","&amp;J65&amp;","&amp;K65&amp;","&amp;L65&amp;","&amp;M65</f>
         <v>27/03/2020,3809,1828,3059,750,412,608,299,,</v>
       </c>
     </row>
@@ -40080,7 +40233,7 @@
         <v/>
       </c>
       <c r="N66" s="10" t="str">
-        <f>TEXT(A66,"jj/mm/aaaa")&amp;","&amp;E66&amp;","&amp;F66&amp;","&amp;G66&amp;","&amp;H66&amp;","&amp;I66&amp;","&amp;J66&amp;","&amp;K66&amp;","&amp;L66&amp;","&amp;M66</f>
+        <f t="shared" si="1"/>
         <v>28/03/2020,4611,1888,3353,926,486,695,319,,</v>
       </c>
     </row>
@@ -40126,7 +40279,7 @@
         <v/>
       </c>
       <c r="N67" s="10" t="str">
-        <f>TEXT(A67,"jj/mm/aaaa")&amp;","&amp;E67&amp;","&amp;F67&amp;","&amp;G67&amp;","&amp;H67&amp;","&amp;I67&amp;","&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;","&amp;M67</f>
+        <f t="shared" si="1"/>
         <v>29/03/2020,2599,1734,2685,507,359,543,292,,</v>
       </c>
     </row>
@@ -40172,7 +40325,7 @@
         <v/>
       </c>
       <c r="N68" s="10" t="str">
-        <f>TEXT(A68,"jj/mm/aaaa")&amp;","&amp;E68&amp;","&amp;F68&amp;","&amp;G68&amp;","&amp;H68&amp;","&amp;I68&amp;","&amp;J68&amp;","&amp;K68&amp;","&amp;L68&amp;","&amp;M68</f>
+        <f t="shared" si="1"/>
         <v>30/03/2020,4376,1654,3108,793,475,694,418,,</v>
       </c>
     </row>
@@ -40218,7 +40371,7 @@
         <v/>
       </c>
       <c r="N69" s="10" t="str">
-        <f>TEXT(A69,"jj/mm/aaaa")&amp;","&amp;E69&amp;","&amp;F69&amp;","&amp;G69&amp;","&amp;H69&amp;","&amp;I69&amp;","&amp;J69&amp;","&amp;K69&amp;","&amp;L69&amp;","&amp;M69</f>
+        <f t="shared" si="1"/>
         <v>31/03/2020,7578,1749,4145,1520,458,767,499,,</v>
       </c>
     </row>
@@ -40264,7 +40417,7 @@
         <v/>
       </c>
       <c r="N70" s="10" t="str">
-        <f>TEXT(A70,"jj/mm/aaaa")&amp;","&amp;E70&amp;","&amp;F70&amp;","&amp;G70&amp;","&amp;H70&amp;","&amp;I70&amp;","&amp;J70&amp;","&amp;K70&amp;","&amp;L70&amp;","&amp;M70</f>
+        <f t="shared" si="1"/>
         <v>01/04/2020,4861,1882,4281,1491,452,771,509,,</v>
       </c>
     </row>
@@ -40310,7 +40463,7 @@
         <v>513</v>
       </c>
       <c r="N71" s="10" t="str">
-        <f>TEXT(A71,"jj/mm/aaaa")&amp;","&amp;E71&amp;","&amp;F71&amp;","&amp;G71&amp;","&amp;H71&amp;","&amp;I71&amp;","&amp;J71&amp;","&amp;K71&amp;","&amp;L71&amp;","&amp;M71</f>
+        <f t="shared" si="1"/>
         <v>02/04/2020,2116,1607,3845,1493,382,728,471,,513</v>
       </c>
     </row>
@@ -40356,7 +40509,7 @@
         <v>532</v>
       </c>
       <c r="N72" s="10" t="str">
-        <f>TEXT(A72,"jj/mm/aaaa")&amp;","&amp;E72&amp;","&amp;F72&amp;","&amp;G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72&amp;","&amp;L72&amp;","&amp;M72</f>
+        <f t="shared" si="1"/>
         <v>03/04/2020,5233,1186,3627,1580,263,640,588,,532</v>
       </c>
     </row>
@@ -40402,7 +40555,7 @@
         <v>612</v>
       </c>
       <c r="N73" s="10" t="str">
-        <f>TEXT(A73,"jj/mm/aaaa")&amp;","&amp;E73&amp;","&amp;F73&amp;","&amp;G73&amp;","&amp;H73&amp;","&amp;I73&amp;","&amp;J73&amp;","&amp;K73&amp;","&amp;L73&amp;","&amp;M73</f>
+        <f t="shared" si="1"/>
         <v>04/04/2020,4267,711,2822,1430,176,502,441,,612</v>
       </c>
     </row>
@@ -40448,7 +40601,7 @@
         <v>161</v>
       </c>
       <c r="N74" s="10" t="str">
-        <f>TEXT(A74,"jj/mm/aaaa")&amp;","&amp;E74&amp;","&amp;F74&amp;","&amp;G74&amp;","&amp;H74&amp;","&amp;I74&amp;","&amp;J74&amp;","&amp;K74&amp;","&amp;L74&amp;","&amp;M74</f>
+        <f t="shared" si="1"/>
         <v>05/04/2020,1873,748,1931,745,140,390,357,,161</v>
       </c>
     </row>
@@ -40494,7 +40647,7 @@
         <v>228</v>
       </c>
       <c r="N75" s="10" t="str">
-        <f>TEXT(A75,"jj/mm/aaaa")&amp;","&amp;E75&amp;","&amp;F75&amp;","&amp;G75&amp;","&amp;H75&amp;","&amp;I75&amp;","&amp;J75&amp;","&amp;K75&amp;","&amp;L75&amp;","&amp;M75</f>
+        <f t="shared" si="1"/>
         <v>06/04/2020,3912,831,2754,1067,94,478,605,,228</v>
       </c>
     </row>
@@ -40540,7 +40693,7 @@
         <v>820</v>
       </c>
       <c r="N76" s="10" t="str">
-        <f>TEXT(A76,"jj/mm/aaaa")&amp;","&amp;E76&amp;","&amp;F76&amp;","&amp;G76&amp;","&amp;H76&amp;","&amp;I76&amp;","&amp;J76&amp;","&amp;K76&amp;","&amp;L76&amp;","&amp;M76</f>
+        <f t="shared" si="1"/>
         <v>07/04/2020,3777,305,3277,2087,59,518,597,,820</v>
       </c>
     </row>
@@ -40586,7 +40739,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="10" t="str">
-        <f>TEXT(A77,"jj/mm/aaaa")&amp;","&amp;E77&amp;","&amp;F77&amp;","&amp;G77&amp;","&amp;H77&amp;","&amp;I77&amp;","&amp;J77&amp;","&amp;K77&amp;","&amp;L77&amp;","&amp;M77</f>
+        <f t="shared" si="1"/>
         <v>08/04/2020,3881,348,3139,1917,17,482,541,,0</v>
       </c>
     </row>
@@ -40632,7 +40785,7 @@
         <v>929</v>
       </c>
       <c r="N78" s="10" t="str">
-        <f>TEXT(A78,"jj/mm/aaaa")&amp;","&amp;E78&amp;","&amp;F78&amp;","&amp;G78&amp;","&amp;H78&amp;","&amp;I78&amp;","&amp;J78&amp;","&amp;K78&amp;","&amp;L78&amp;","&amp;M78</f>
+        <f t="shared" si="1"/>
         <v>09/04/2020,4286,392,2990,1952,-82,369,412,,929</v>
       </c>
     </row>
@@ -40678,7 +40831,7 @@
         <v>433</v>
       </c>
       <c r="N79" s="10" t="str">
-        <f>TEXT(A79,"jj/mm/aaaa")&amp;","&amp;E79&amp;","&amp;F79&amp;","&amp;G79&amp;","&amp;H79&amp;","&amp;I79&amp;","&amp;J79&amp;","&amp;K79&amp;","&amp;L79&amp;","&amp;M79</f>
+        <f t="shared" si="1"/>
         <v>10/04/2020,4342,500,3161,1726,-62,431,554,,433</v>
       </c>
     </row>
@@ -40724,7 +40877,7 @@
         <v>290</v>
       </c>
       <c r="N80" s="10" t="str">
-        <f>TEXT(A80,"jj/mm/aaaa")&amp;","&amp;E80&amp;","&amp;F80&amp;","&amp;G80&amp;","&amp;H80&amp;","&amp;I80&amp;","&amp;J80&amp;","&amp;K80&amp;","&amp;L80&amp;","&amp;M80</f>
+        <f t="shared" si="1"/>
         <v>11/04/2020,3114,53,2044,1999,-121,255,345,,290</v>
       </c>
     </row>
@@ -40770,7 +40923,7 @@
         <v>251</v>
       </c>
       <c r="N81" s="10" t="str">
-        <f>TEXT(A81,"jj/mm/aaaa")&amp;","&amp;E81&amp;","&amp;F81&amp;","&amp;G81&amp;","&amp;H81&amp;","&amp;I81&amp;","&amp;J81&amp;","&amp;K81&amp;","&amp;L81&amp;","&amp;M81</f>
+        <f t="shared" si="1"/>
         <v>12/04/2020,1613,506,1688,255,-38,220,310,,251</v>
       </c>
     </row>
@@ -40816,7 +40969,7 @@
         <v>239</v>
       </c>
       <c r="N82" s="10" t="str">
-        <f>TEXT(A82,"jj/mm/aaaa")&amp;","&amp;E82&amp;","&amp;F82&amp;","&amp;G82&amp;","&amp;H82&amp;","&amp;I82&amp;","&amp;J82&amp;","&amp;K82&amp;","&amp;L82&amp;","&amp;M82</f>
+        <f t="shared" si="1"/>
         <v>13/04/2020,2673,287,1257,532,-24,227,335,523,239</v>
       </c>
     </row>
@@ -40862,7 +41015,7 @@
         <v>221</v>
       </c>
       <c r="N83" s="10" t="str">
-        <f>TEXT(A83,"jj/mm/aaaa")&amp;","&amp;E83&amp;","&amp;F83&amp;","&amp;G83&amp;","&amp;H83&amp;","&amp;I83&amp;","&amp;J83&amp;","&amp;K83&amp;","&amp;L83&amp;","&amp;M83</f>
+        <f t="shared" si="1"/>
         <v>14/04/2020,5497,179,1965,1087,-91,275,541,569,221</v>
       </c>
     </row>
@@ -40908,7 +41061,7 @@
         <v>924</v>
       </c>
       <c r="N84" s="10" t="str">
-        <f>TEXT(A84,"jj/mm/aaaa")&amp;","&amp;E84&amp;","&amp;F84&amp;","&amp;G84&amp;","&amp;H84&amp;","&amp;I84&amp;","&amp;J84&amp;","&amp;K84&amp;","&amp;L84&amp;","&amp;M84</f>
+        <f t="shared" si="1"/>
         <v>15/04/2020,2633,-513,2415,2190,-273,284,514,1343,924</v>
       </c>
     </row>
@@ -40954,7 +41107,7 @@
         <v>336</v>
       </c>
       <c r="N85" s="10" t="str">
-        <f>TEXT(A85,"jj/mm/aaaa")&amp;","&amp;E85&amp;","&amp;F85&amp;","&amp;G85&amp;","&amp;H85&amp;","&amp;I85&amp;","&amp;J85&amp;","&amp;K85&amp;","&amp;L85&amp;","&amp;M85</f>
+        <f t="shared" si="1"/>
         <v>16/04/2020,2641,-474,2084,1817,-209,270,417,4574,336</v>
       </c>
     </row>
@@ -41000,7 +41153,7 @@
         <v>343</v>
       </c>
       <c r="N86" s="10" t="str">
-        <f>TEXT(A86,"jj/mm/aaaa")&amp;","&amp;E86&amp;","&amp;F86&amp;","&amp;G86&amp;","&amp;H86&amp;","&amp;I86&amp;","&amp;J86&amp;","&amp;K86&amp;","&amp;L86&amp;","&amp;M86</f>
+        <f t="shared" si="1"/>
         <v>17/04/2020,405,-115,2166,1608,-221,242,418,1305,343</v>
       </c>
     </row>
@@ -41046,7 +41199,7 @@
         <v>278</v>
       </c>
       <c r="N87" s="10" t="str">
-        <f>TEXT(A87,"jj/mm/aaaa")&amp;","&amp;E87&amp;","&amp;F87&amp;","&amp;G87&amp;","&amp;H87&amp;","&amp;I87&amp;","&amp;J87&amp;","&amp;K87&amp;","&amp;L87&amp;","&amp;M87</f>
+        <f t="shared" si="1"/>
         <v>18/04/2020,2569,-551,1565,1563,-194,206,364,1891,278</v>
       </c>
     </row>
@@ -41092,7 +41245,7 @@
         <v>168</v>
       </c>
       <c r="N88" s="10" t="str">
-        <f>TEXT(A88,"jj/mm/aaaa")&amp;","&amp;E88&amp;","&amp;F88&amp;","&amp;G88&amp;","&amp;H88&amp;","&amp;I88&amp;","&amp;J88&amp;","&amp;K88&amp;","&amp;L88&amp;","&amp;M88</f>
+        <f t="shared" si="1"/>
         <v>19/04/2020,785,-29,890,595,-89,137,227,885,168</v>
       </c>
     </row>
@@ -41138,7 +41291,7 @@
         <v>103</v>
       </c>
       <c r="N89" s="10" t="str">
-        <f>TEXT(A89,"jj/mm/aaaa")&amp;","&amp;E89&amp;","&amp;F89&amp;","&amp;G89&amp;","&amp;H89&amp;","&amp;I89&amp;","&amp;J89&amp;","&amp;K89&amp;","&amp;L89&amp;","&amp;M89</f>
+        <f t="shared" si="1"/>
         <v>20/04/2020,2051,-26,1464,831,-61,208,444,620,103</v>
       </c>
     </row>
@@ -41184,7 +41337,7 @@
         <v>144</v>
       </c>
       <c r="N90" s="10" t="str">
-        <f>TEXT(A90,"jj/mm/aaaa")&amp;","&amp;E90&amp;","&amp;F90&amp;","&amp;G90&amp;","&amp;H90&amp;","&amp;I90&amp;","&amp;J90&amp;","&amp;K90&amp;","&amp;L90&amp;","&amp;M90</f>
+        <f t="shared" si="1"/>
         <v>21/04/2020,2667,-478,1885,1772,-250,190,387,,144</v>
       </c>
     </row>
@@ -41230,7 +41383,7 @@
         <v>208</v>
       </c>
       <c r="N91" s="10" t="str">
-        <f>TEXT(A91,"jj/mm/aaaa")&amp;","&amp;E91&amp;","&amp;F91&amp;","&amp;G91&amp;","&amp;H91&amp;","&amp;I91&amp;","&amp;J91&amp;","&amp;K91&amp;","&amp;L91&amp;","&amp;M91</f>
+        <f t="shared" si="1"/>
         <v>22/04/2020,1827,-365,1619,1476,-215,183,336,,208</v>
       </c>
     </row>
@@ -41276,7 +41429,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="10" t="str">
-        <f>TEXT(A92,"jj/mm/aaaa")&amp;","&amp;E92&amp;","&amp;F92&amp;","&amp;G92&amp;","&amp;H92&amp;","&amp;I92&amp;","&amp;J92&amp;","&amp;K92&amp;","&amp;L92&amp;","&amp;M92</f>
+        <f t="shared" si="1"/>
         <v>23/04/2020,1653,-522,1410,1431,-165,178,311,1327,205</v>
       </c>
     </row>
@@ -41322,7 +41475,7 @@
         <v>84</v>
       </c>
       <c r="N93" s="10" t="str">
-        <f>TEXT(A93,"jj/mm/aaaa")&amp;","&amp;E93&amp;","&amp;F93&amp;","&amp;G93&amp;","&amp;H93&amp;","&amp;I93&amp;","&amp;J93&amp;","&amp;K93&amp;","&amp;L93&amp;","&amp;M93</f>
+        <f t="shared" si="1"/>
         <v>24/04/2020,1773,-561,1346,1405,-183,155,305,1040,84</v>
       </c>
     </row>
@@ -41368,7 +41521,7 @@
         <v>171</v>
       </c>
       <c r="N94" s="10" t="str">
-        <f>TEXT(A94,"jj/mm/aaaa")&amp;","&amp;E94&amp;","&amp;F94&amp;","&amp;G94&amp;","&amp;H94&amp;","&amp;I94&amp;","&amp;J94&amp;","&amp;K94&amp;","&amp;L94&amp;","&amp;M94</f>
+        <f t="shared" si="1"/>
         <v>25/04/2020,1537,-436,999,1101,-145,124,198,1246,171</v>
       </c>
     </row>
@@ -41414,7 +41567,7 @@
         <v>90</v>
       </c>
       <c r="N95" s="10" t="str">
-        <f>TEXT(A95,"jj/mm/aaaa")&amp;","&amp;E95&amp;","&amp;F95&amp;","&amp;G95&amp;","&amp;H95&amp;","&amp;I95&amp;","&amp;J95&amp;","&amp;K95&amp;","&amp;L95&amp;","&amp;M95</f>
+        <f t="shared" si="1"/>
         <v>26/04/2020,461,-5,481,309,-43,79,152,517,90</v>
       </c>
     </row>
@@ -41460,7 +41613,7 @@
         <v>142</v>
       </c>
       <c r="N96" s="10" t="str">
-        <f>TEXT(A96,"jj/mm/aaaa")&amp;","&amp;E96&amp;","&amp;F96&amp;","&amp;G96&amp;","&amp;H96&amp;","&amp;I96&amp;","&amp;J96&amp;","&amp;K96&amp;","&amp;L96&amp;","&amp;M96</f>
+        <f t="shared" si="1"/>
         <v>27/04/2020,3764,-162,964,610,-74,125,295,584,142</v>
       </c>
     </row>
@@ -41506,7 +41659,7 @@
         <v>54</v>
       </c>
       <c r="N97" s="10" t="str">
-        <f>TEXT(A97,"jj/mm/aaaa")&amp;","&amp;E97&amp;","&amp;F97&amp;","&amp;G97&amp;","&amp;H97&amp;","&amp;I97&amp;","&amp;J97&amp;","&amp;K97&amp;","&amp;L97&amp;","&amp;M97</f>
+        <f t="shared" si="1"/>
         <v>28/04/2020,1520,-571,1321,1373,-221,153,313,590,54</v>
       </c>
     </row>
@@ -41552,7 +41705,7 @@
         <v>184</v>
       </c>
       <c r="N98" s="10" t="str">
-        <f>TEXT(A98,"jj/mm/aaaa")&amp;","&amp;E98&amp;","&amp;F98&amp;","&amp;G98&amp;","&amp;H98&amp;","&amp;I98&amp;","&amp;J98&amp;","&amp;K98&amp;","&amp;L98&amp;","&amp;M98</f>
+        <f t="shared" si="1"/>
         <v>29/04/2020,-1417,-650,1070,1342,-180,110,243,978,184</v>
       </c>
     </row>
@@ -41598,7 +41751,7 @@
         <v>98</v>
       </c>
       <c r="N99" s="10" t="str">
-        <f>TEXT(A99,"jj/mm/aaaa")&amp;","&amp;E99&amp;","&amp;F99&amp;","&amp;G99&amp;","&amp;H99&amp;","&amp;I99&amp;","&amp;J99&amp;","&amp;K99&amp;","&amp;L99&amp;","&amp;M99</f>
+        <f t="shared" si="1"/>
         <v>30/04/2020,1139,-551,1048,1248,-188,121,191,560,98</v>
       </c>
     </row>
@@ -41644,7 +41797,7 @@
         <v>93</v>
       </c>
       <c r="N100" s="10" t="str">
-        <f>TEXT(A100,"jj/mm/aaaa")&amp;","&amp;E100&amp;","&amp;F100&amp;","&amp;G100&amp;","&amp;H100&amp;","&amp;I100&amp;","&amp;J100&amp;","&amp;K100&amp;","&amp;L100&amp;","&amp;M100</f>
+        <f t="shared" si="1"/>
         <v>01/05/2020,604,-396,668,736,-141,73,125,436,93</v>
       </c>
     </row>
@@ -41690,7 +41843,7 @@
         <v>48</v>
       </c>
       <c r="N101" s="10" t="str">
-        <f>TEXT(A101,"jj/mm/aaaa")&amp;","&amp;E101&amp;","&amp;F101&amp;","&amp;G101&amp;","&amp;H101&amp;","&amp;I101&amp;","&amp;J101&amp;","&amp;K101&amp;","&amp;L101&amp;","&amp;M101</f>
+        <f t="shared" si="1"/>
         <v>02/05/2020,794,-60,453,350,-51,64,118,480,48</v>
       </c>
     </row>
@@ -41736,7 +41889,7 @@
         <v>39</v>
       </c>
       <c r="N102" s="10" t="str">
-        <f>TEXT(A102,"jj/mm/aaaa")&amp;","&amp;E102&amp;","&amp;F102&amp;","&amp;G102&amp;","&amp;H102&amp;","&amp;I102&amp;","&amp;J102&amp;","&amp;K102&amp;","&amp;L102&amp;","&amp;M102</f>
+        <f t="shared" si="1"/>
         <v>03/05/2020,308,-12,345,222,-8,80,96,90,39</v>
       </c>
     </row>
@@ -41782,7 +41935,7 @@
         <v>63</v>
       </c>
       <c r="N103" s="10" t="str">
-        <f>TEXT(A103,"jj/mm/aaaa")&amp;","&amp;E103&amp;","&amp;F103&amp;","&amp;G103&amp;","&amp;H103&amp;","&amp;I103&amp;","&amp;J103&amp;","&amp;K103&amp;","&amp;L103&amp;","&amp;M103</f>
+        <f t="shared" si="1"/>
         <v>04/05/2020,576,-267,689,587,-123,84,243,430,63</v>
       </c>
     </row>
@@ -41828,7 +41981,7 @@
         <v>96</v>
       </c>
       <c r="N104" s="10" t="str">
-        <f>TEXT(A104,"jj/mm/aaaa")&amp;","&amp;E104&amp;","&amp;F104&amp;","&amp;G104&amp;","&amp;H104&amp;","&amp;I104&amp;","&amp;J104&amp;","&amp;K104&amp;","&amp;L104&amp;","&amp;M104</f>
+        <f t="shared" si="1"/>
         <v>05/05/2020,1104,-773,987,1365,-266,111,234,317,96</v>
       </c>
     </row>
@@ -41874,7 +42027,7 @@
         <v>101</v>
       </c>
       <c r="N105" s="10" t="str">
-        <f>TEXT(A105,"jj/mm/aaaa")&amp;","&amp;E105&amp;","&amp;F105&amp;","&amp;G105&amp;","&amp;H105&amp;","&amp;I105&amp;","&amp;J105&amp;","&amp;K105&amp;","&amp;L105&amp;","&amp;M105</f>
+        <f t="shared" si="1"/>
         <v>06/05/2020,4183,-792,833,1236,-283,69,177,399,101</v>
       </c>
     </row>
@@ -41920,7 +42073,7 @@
         <v>29</v>
       </c>
       <c r="N106" s="10" t="str">
-        <f>TEXT(A106,"jj/mm/aaaa")&amp;","&amp;E106&amp;","&amp;F106&amp;","&amp;G106&amp;","&amp;H106&amp;","&amp;I106&amp;","&amp;J106&amp;","&amp;K106&amp;","&amp;L106&amp;","&amp;M106</f>
+        <f t="shared" si="1"/>
         <v>07/05/2020,629,-775,728,1055,-186,99,149,146,29</v>
       </c>
     </row>
@@ -41966,7 +42119,7 @@
         <v>132</v>
       </c>
       <c r="N107" s="10" t="str">
-        <f>TEXT(A107,"jj/mm/aaaa")&amp;","&amp;E107&amp;","&amp;F107&amp;","&amp;G107&amp;","&amp;H107&amp;","&amp;I107&amp;","&amp;J107&amp;","&amp;K107&amp;","&amp;L107&amp;","&amp;M107</f>
+        <f t="shared" si="1"/>
         <v>08/05/2020,642,-484,510,755,-93,89,111,237,132</v>
       </c>
     </row>
@@ -42012,7 +42165,7 @@
         <v>4</v>
       </c>
       <c r="N108" s="10" t="str">
-        <f>TEXT(A108,"jj/mm/aaaa")&amp;","&amp;E108&amp;","&amp;F108&amp;","&amp;G108&amp;","&amp;H108&amp;","&amp;I108&amp;","&amp;J108&amp;","&amp;K108&amp;","&amp;L108&amp;","&amp;M108</f>
+        <f t="shared" si="1"/>
         <v>09/05/2020,433,-110,265,256,-56,38,76,156,4</v>
       </c>
     </row>
@@ -42058,7 +42211,7 @@
         <v>1</v>
       </c>
       <c r="N109" s="10" t="str">
-        <f>TEXT(A109,"jj/mm/aaaa")&amp;","&amp;E109&amp;","&amp;F109&amp;","&amp;G109&amp;","&amp;H109&amp;","&amp;I109&amp;","&amp;J109&amp;","&amp;K109&amp;","&amp;L109&amp;","&amp;M109</f>
+        <f t="shared" si="1"/>
         <v>10/05/2020,209,-45,253,179,-36,38,69,190,1</v>
       </c>
     </row>
@@ -42104,7 +42257,7 @@
         <v>85</v>
       </c>
       <c r="N110" s="10" t="str">
-        <f>TEXT(A110,"jj/mm/aaaa")&amp;","&amp;E110&amp;","&amp;F110&amp;","&amp;G110&amp;","&amp;H110&amp;","&amp;I110&amp;","&amp;J110&amp;","&amp;K110&amp;","&amp;L110&amp;","&amp;M110</f>
+        <f t="shared" si="1"/>
         <v>11/05/2020,456,-285,523,507,-64,82,178,-41,85</v>
       </c>
     </row>
@@ -42150,7 +42303,7 @@
         <v>165</v>
       </c>
       <c r="N111" s="10" t="str">
-        <f>TEXT(A111,"jj/mm/aaaa")&amp;","&amp;E111&amp;","&amp;F111&amp;","&amp;G111&amp;","&amp;H111&amp;","&amp;I111&amp;","&amp;J111&amp;","&amp;K111&amp;","&amp;L111&amp;","&amp;M111</f>
+        <f t="shared" si="1"/>
         <v>12/05/2020,708,-689,670,1061,-170,92,183,242,165</v>
       </c>
     </row>
@@ -42164,7 +42317,7 @@
       <c r="C112" s="11">
         <v>1794</v>
       </c>
-      <c r="D112" s="70">
+      <c r="D112" s="67">
         <f>C112/B112</f>
         <v>2.2670693642348957E-2</v>
       </c>
@@ -42203,7 +42356,7 @@
         <v>-15</v>
       </c>
       <c r="N112" s="10" t="str">
-        <f>TEXT(A112,"jj/mm/aaaa")&amp;","&amp;E112&amp;","&amp;F112&amp;","&amp;G112&amp;","&amp;H112&amp;","&amp;I112&amp;","&amp;J112&amp;","&amp;K112&amp;","&amp;L112&amp;","&amp;M112</f>
+        <f t="shared" si="1"/>
         <v>13/05/2020,507,-524,543,888,-114,69,98,167,-15</v>
       </c>
     </row>
@@ -42217,8 +42370,8 @@
       <c r="C113" s="11">
         <v>2006</v>
       </c>
-      <c r="D113" s="70">
-        <f t="shared" ref="D113:D176" si="0">C113/B113</f>
+      <c r="D113" s="67">
+        <f t="shared" ref="D113:D176" si="2">C113/B113</f>
         <v>2.358889934148636E-2</v>
       </c>
       <c r="E113" s="52">
@@ -42256,7 +42409,7 @@
         <v>228</v>
       </c>
       <c r="N113" s="10" t="str">
-        <f>TEXT(A113,"jj/mm/aaaa")&amp;","&amp;E113&amp;","&amp;F113&amp;","&amp;G113&amp;","&amp;H113&amp;","&amp;I113&amp;","&amp;J113&amp;","&amp;K113&amp;","&amp;L113&amp;","&amp;M113</f>
+        <f t="shared" si="1"/>
         <v>14/05/2020,622,-608,542,932,-129,52,123,216,228</v>
       </c>
     </row>
@@ -42270,8 +42423,8 @@
       <c r="C114" s="11">
         <v>2112</v>
       </c>
-      <c r="D114" s="70">
-        <f t="shared" si="0"/>
+      <c r="D114" s="67">
+        <f t="shared" si="2"/>
         <v>2.2097366521234188E-2</v>
       </c>
       <c r="E114" s="52">
@@ -42309,7 +42462,7 @@
         <v>-14</v>
       </c>
       <c r="N114" s="10" t="str">
-        <f>TEXT(A114,"jj/mm/aaaa")&amp;","&amp;E114&amp;","&amp;F114&amp;","&amp;G114&amp;","&amp;H114&amp;","&amp;I114&amp;","&amp;J114&amp;","&amp;K114&amp;","&amp;L114&amp;","&amp;M114</f>
+        <f t="shared" si="1"/>
         <v>15/05/2020,563,-602,438,843,-96,64,118,306,-14</v>
       </c>
     </row>
@@ -42323,8 +42476,8 @@
       <c r="C115" s="11">
         <v>584</v>
       </c>
-      <c r="D115" s="70">
-        <f t="shared" si="0"/>
+      <c r="D115" s="67">
+        <f t="shared" si="2"/>
         <v>1.7913560933713688E-2</v>
       </c>
       <c r="E115" s="52">
@@ -42362,7 +42515,7 @@
         <v>26</v>
       </c>
       <c r="N115" s="10" t="str">
-        <f>TEXT(A115,"jj/mm/aaaa")&amp;","&amp;E115&amp;","&amp;F115&amp;","&amp;G115&amp;","&amp;H115&amp;","&amp;I115&amp;","&amp;J115&amp;","&amp;K115&amp;","&amp;L115&amp;","&amp;M115</f>
+        <f t="shared" si="1"/>
         <v>16/05/2020,372,-429,350,618,-71,46,70,49,26</v>
       </c>
     </row>
@@ -42376,8 +42529,8 @@
       <c r="C116" s="11">
         <v>280</v>
       </c>
-      <c r="D116" s="70">
-        <f t="shared" si="0"/>
+      <c r="D116" s="67">
+        <f t="shared" si="2"/>
         <v>2.2188762976464063E-2</v>
       </c>
       <c r="E116" s="52">
@@ -42415,7 +42568,7 @@
         <v>429</v>
       </c>
       <c r="N116" s="10" t="str">
-        <f>TEXT(A116,"jj/mm/aaaa")&amp;","&amp;E116&amp;","&amp;F116&amp;","&amp;G116&amp;","&amp;H116&amp;","&amp;I116&amp;","&amp;J116&amp;","&amp;K116&amp;","&amp;L116&amp;","&amp;M116</f>
+        <f t="shared" si="1"/>
         <v>17/05/2020,120,-71,152,147,-45,24,54,286,429</v>
       </c>
     </row>
@@ -42429,8 +42582,8 @@
       <c r="C117" s="11">
         <v>2245</v>
       </c>
-      <c r="D117" s="70">
-        <f t="shared" si="0"/>
+      <c r="D117" s="67">
+        <f t="shared" si="2"/>
         <v>2.2142004714422386E-2</v>
       </c>
       <c r="E117" s="52">
@@ -42468,7 +42621,7 @@
         <v>8</v>
       </c>
       <c r="N117" s="10" t="str">
-        <f>TEXT(A117,"jj/mm/aaaa")&amp;","&amp;E117&amp;","&amp;F117&amp;","&amp;G117&amp;","&amp;H117&amp;","&amp;I117&amp;","&amp;J117&amp;","&amp;K117&amp;","&amp;L117&amp;","&amp;M117</f>
+        <f t="shared" si="1"/>
         <v>18/05/2020,492,-346,375,515,-89,38,123,138,8</v>
       </c>
     </row>
@@ -42482,8 +42635,8 @@
       <c r="C118" s="11">
         <v>2102</v>
       </c>
-      <c r="D118" s="70">
-        <f t="shared" si="0"/>
+      <c r="D118" s="67">
+        <f t="shared" si="2"/>
         <v>2.0071807799549292E-2</v>
       </c>
       <c r="E118" s="52">
@@ -42521,7 +42674,7 @@
         <v>-342</v>
       </c>
       <c r="N118" s="10" t="str">
-        <f>TEXT(A118,"jj/mm/aaaa")&amp;","&amp;E118&amp;","&amp;F118&amp;","&amp;G118&amp;","&amp;H118&amp;","&amp;I118&amp;","&amp;J118&amp;","&amp;K118&amp;","&amp;L118&amp;","&amp;M118</f>
+        <f t="shared" si="1"/>
         <v>19/05/2020,524,-547,506,835,-104,69,125,-69,-342</v>
       </c>
     </row>
@@ -42535,8 +42688,8 @@
       <c r="C119" s="11">
         <v>2117</v>
       </c>
-      <c r="D119" s="70">
-        <f t="shared" si="0"/>
+      <c r="D119" s="67">
+        <f t="shared" si="2"/>
         <v>2.0292550132280204E-2</v>
       </c>
       <c r="E119" s="52">
@@ -42574,7 +42727,7 @@
         <v>12</v>
       </c>
       <c r="N119" s="10" t="str">
-        <f>TEXT(A119,"jj/mm/aaaa")&amp;","&amp;E119&amp;","&amp;F119&amp;","&amp;G119&amp;","&amp;H119&amp;","&amp;I119&amp;","&amp;J119&amp;","&amp;K119&amp;","&amp;L119&amp;","&amp;M119</f>
+        <f t="shared" si="1"/>
         <v>20/05/2020,418,-527,432,791,-100,43,98,221,12</v>
       </c>
     </row>
@@ -42588,8 +42741,8 @@
       <c r="C120" s="11">
         <v>364</v>
       </c>
-      <c r="D120" s="70">
-        <f t="shared" si="0"/>
+      <c r="D120" s="67">
+        <f t="shared" si="2"/>
         <v>2.0103832983541368E-2</v>
       </c>
       <c r="E120" s="52">
@@ -42627,7 +42780,7 @@
         <v>25</v>
       </c>
       <c r="N120" s="10" t="str">
-        <f>TEXT(A120,"jj/mm/aaaa")&amp;","&amp;E120&amp;","&amp;F120&amp;","&amp;G120&amp;","&amp;H120&amp;","&amp;I120&amp;","&amp;J120&amp;","&amp;K120&amp;","&amp;L120&amp;","&amp;M120</f>
+        <f t="shared" si="1"/>
         <v>21/05/2020,318,-358,271,504,-49,28,58,102,25</v>
       </c>
     </row>
@@ -42641,8 +42794,8 @@
       <c r="C121" s="11">
         <v>1622</v>
       </c>
-      <c r="D121" s="70">
-        <f t="shared" si="0"/>
+      <c r="D121" s="67">
+        <f t="shared" si="2"/>
         <v>1.6612894965944591E-2</v>
       </c>
       <c r="E121" s="52">
@@ -42680,7 +42833,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="10" t="str">
-        <f>TEXT(A121,"jj/mm/aaaa")&amp;","&amp;E121&amp;","&amp;F121&amp;","&amp;G121&amp;","&amp;H121&amp;","&amp;I121&amp;","&amp;J121&amp;","&amp;K121&amp;","&amp;L121&amp;","&amp;M121</f>
+        <f t="shared" si="1"/>
         <v>22/05/2020,393,-200,263,351,-44,36,74,0,0</v>
       </c>
     </row>
@@ -42694,8 +42847,8 @@
       <c r="C122" s="11">
         <v>496</v>
       </c>
-      <c r="D122" s="70">
-        <f t="shared" si="0"/>
+      <c r="D122" s="67">
+        <f t="shared" si="2"/>
         <v>1.3658267933360869E-2</v>
       </c>
       <c r="E122" s="52">
@@ -42733,7 +42886,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="10" t="str">
-        <f>TEXT(A122,"jj/mm/aaaa")&amp;","&amp;E122&amp;","&amp;F122&amp;","&amp;G122&amp;","&amp;H122&amp;","&amp;I122&amp;","&amp;J122&amp;","&amp;K122&amp;","&amp;L122&amp;","&amp;M122</f>
+        <f t="shared" si="1"/>
         <v>23/05/2020,250,-205,233,338,-36,30,43,0,0</v>
       </c>
     </row>
@@ -42747,8 +42900,8 @@
       <c r="C123" s="11">
         <v>226</v>
       </c>
-      <c r="D123" s="70">
-        <f t="shared" si="0"/>
+      <c r="D123" s="67">
+        <f t="shared" si="2"/>
         <v>1.7458478176902281E-2</v>
       </c>
       <c r="E123" s="52">
@@ -42786,7 +42939,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="10" t="str">
-        <f>TEXT(A123,"jj/mm/aaaa")&amp;","&amp;E123&amp;","&amp;F123&amp;","&amp;G123&amp;","&amp;H123&amp;","&amp;I123&amp;","&amp;J123&amp;","&amp;K123&amp;","&amp;L123&amp;","&amp;M123</f>
+        <f t="shared" si="1"/>
         <v>24/05/2020,115,7,121,70,-10,24,35,0,0</v>
       </c>
     </row>
@@ -42800,8 +42953,8 @@
       <c r="C124" s="11">
         <v>1406</v>
       </c>
-      <c r="D124" s="70">
-        <f t="shared" si="0"/>
+      <c r="D124" s="67">
+        <f t="shared" si="2"/>
         <v>1.428847267812319E-2</v>
       </c>
       <c r="E124" s="52">
@@ -42839,7 +42992,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="10" t="str">
-        <f>TEXT(A124,"jj/mm/aaaa")&amp;","&amp;E124&amp;","&amp;F124&amp;","&amp;G124&amp;","&amp;H124&amp;","&amp;I124&amp;","&amp;J124&amp;","&amp;K124&amp;","&amp;L124&amp;","&amp;M124</f>
+        <f t="shared" si="1"/>
         <v>25/05/2020,358,-387,342,582,-46,45,90,0,0</v>
       </c>
     </row>
@@ -42853,8 +43006,8 @@
       <c r="C125" s="11">
         <v>1518</v>
       </c>
-      <c r="D125" s="70">
-        <f t="shared" si="0"/>
+      <c r="D125" s="67">
+        <f t="shared" si="2"/>
         <v>1.4742444254525679E-2</v>
       </c>
       <c r="E125" s="52">
@@ -42892,7 +43045,7 @@
         <v>-10</v>
       </c>
       <c r="N125" s="10" t="str">
-        <f>TEXT(A125,"jj/mm/aaaa")&amp;","&amp;E125&amp;","&amp;F125&amp;","&amp;G125&amp;","&amp;H125&amp;","&amp;I125&amp;","&amp;J125&amp;","&amp;K125&amp;","&amp;L125&amp;","&amp;M125</f>
+        <f t="shared" si="1"/>
         <v>26/05/2020,276,-534,318,680,-54,37,83,382,-10</v>
       </c>
     </row>
@@ -42906,8 +43059,8 @@
       <c r="C126" s="11">
         <v>1454</v>
       </c>
-      <c r="D126" s="70">
-        <f t="shared" si="0"/>
+      <c r="D126" s="67">
+        <f t="shared" si="2"/>
         <v>1.6569611742316328E-2</v>
       </c>
       <c r="E126" s="52">
@@ -42945,7 +43098,7 @@
         <v>1</v>
       </c>
       <c r="N126" s="10" t="str">
-        <f>TEXT(A126,"jj/mm/aaaa")&amp;","&amp;E126&amp;","&amp;F126&amp;","&amp;G126&amp;","&amp;H126&amp;","&amp;I126&amp;","&amp;J126&amp;","&amp;K126&amp;","&amp;L126&amp;","&amp;M126</f>
+        <f t="shared" si="1"/>
         <v>27/05/2020,191,-584,271,705,-54,32,65,0,1</v>
       </c>
     </row>
@@ -42959,8 +43112,8 @@
       <c r="C127" s="11">
         <v>1270</v>
       </c>
-      <c r="D127" s="70">
-        <f t="shared" si="0"/>
+      <c r="D127" s="67">
+        <f t="shared" si="2"/>
         <v>1.5053457553990944E-2</v>
       </c>
       <c r="E127" s="52">
@@ -42998,7 +43151,7 @@
         <v>0</v>
       </c>
       <c r="N127" s="10" t="str">
-        <f>TEXT(A127,"jj/mm/aaaa")&amp;","&amp;E127&amp;","&amp;F127&amp;","&amp;G127&amp;","&amp;H127&amp;","&amp;I127&amp;","&amp;J127&amp;","&amp;K127&amp;","&amp;L127&amp;","&amp;M127</f>
+        <f t="shared" si="1"/>
         <v>28/05/2020,3325,-372,253,607,-72,36,66,0,0</v>
       </c>
     </row>
@@ -43012,8 +43165,8 @@
       <c r="C128" s="11">
         <v>1136</v>
       </c>
-      <c r="D128" s="70">
-        <f t="shared" si="0"/>
+      <c r="D128" s="67">
+        <f t="shared" si="2"/>
         <v>1.212108278827584E-2</v>
       </c>
       <c r="E128" s="52">
@@ -43051,7 +43204,7 @@
         <v>-9</v>
       </c>
       <c r="N128" s="10" t="str">
-        <f>TEXT(A128,"jj/mm/aaaa")&amp;","&amp;E128&amp;","&amp;F128&amp;","&amp;G128&amp;","&amp;H128&amp;","&amp;I128&amp;","&amp;J128&amp;","&amp;K128&amp;","&amp;L128&amp;","&amp;M128</f>
+        <f t="shared" si="1"/>
         <v>29/05/2020,597,-613,255,612,-68,29,61,38,-9</v>
       </c>
     </row>
@@ -43065,8 +43218,8 @@
       <c r="C129" s="11">
         <v>680</v>
       </c>
-      <c r="D129" s="70">
-        <f t="shared" si="0"/>
+      <c r="D129" s="67">
+        <f t="shared" si="2"/>
         <v>1.7780566886308965E-2</v>
       </c>
       <c r="E129" s="52">
@@ -43104,7 +43257,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="10" t="str">
-        <f>TEXT(A129,"jj/mm/aaaa")&amp;","&amp;E129&amp;","&amp;F129&amp;","&amp;G129&amp;","&amp;H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129</f>
+        <f t="shared" ref="N129:N192" si="3">TEXT(A129,"jj/mm/aaaa")&amp;","&amp;E129&amp;","&amp;F129&amp;","&amp;G129&amp;","&amp;H129&amp;","&amp;I129&amp;","&amp;J129&amp;","&amp;K129&amp;","&amp;L129&amp;","&amp;M129</f>
         <v>30/05/2020,1828,-315,227,465,-36,29,57,0,0</v>
       </c>
     </row>
@@ -43118,8 +43271,8 @@
       <c r="C130" s="11">
         <v>342</v>
       </c>
-      <c r="D130" s="70">
-        <f t="shared" si="0"/>
+      <c r="D130" s="67">
+        <f t="shared" si="2"/>
         <v>2.1786214804433685E-2</v>
       </c>
       <c r="E130" s="52">
@@ -43157,7 +43310,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="10" t="str">
-        <f>TEXT(A130,"jj/mm/aaaa")&amp;","&amp;E130&amp;","&amp;F130&amp;","&amp;G130&amp;","&amp;H130&amp;","&amp;I130&amp;","&amp;J130&amp;","&amp;K130&amp;","&amp;L130&amp;","&amp;M130</f>
+        <f t="shared" si="3"/>
         <v>31/05/2020,257,-58,72,87,-6,18,31,0,0</v>
       </c>
     </row>
@@ -43171,8 +43324,8 @@
       <c r="C131" s="11">
         <v>312</v>
       </c>
-      <c r="D131" s="70">
-        <f t="shared" si="0"/>
+      <c r="D131" s="67">
+        <f t="shared" si="2"/>
         <v>1.7199558985667034E-2</v>
       </c>
       <c r="E131" s="52">
@@ -43210,7 +43363,7 @@
         <v>0</v>
       </c>
       <c r="N131" s="10" t="str">
-        <f>TEXT(A131,"jj/mm/aaaa")&amp;","&amp;E131&amp;","&amp;F131&amp;","&amp;G131&amp;","&amp;H131&amp;","&amp;I131&amp;","&amp;J131&amp;","&amp;K131&amp;","&amp;L131&amp;","&amp;M131</f>
+        <f t="shared" si="3"/>
         <v>01/06/2020,338,-34,89,85,-17,9,31,0,0</v>
       </c>
     </row>
@@ -43224,8 +43377,8 @@
       <c r="C132" s="11">
         <v>1449</v>
       </c>
-      <c r="D132" s="70">
-        <f t="shared" si="0"/>
+      <c r="D132" s="67">
+        <f t="shared" si="2"/>
         <v>1.5704593241280644E-2</v>
       </c>
       <c r="E132" s="52">
@@ -43263,7 +43416,7 @@
         <v>23</v>
       </c>
       <c r="N132" s="10" t="str">
-        <f>TEXT(A132,"jj/mm/aaaa")&amp;","&amp;E132&amp;","&amp;F132&amp;","&amp;G132&amp;","&amp;H132&amp;","&amp;I132&amp;","&amp;J132&amp;","&amp;K132&amp;","&amp;L132&amp;","&amp;M132</f>
+        <f t="shared" si="3"/>
         <v>02/06/2020,-766,-260,229,372,-49,33,84,132,23</v>
       </c>
     </row>
@@ -43277,8 +43430,8 @@
       <c r="C133" s="11">
         <v>1304</v>
       </c>
-      <c r="D133" s="70">
-        <f t="shared" si="0"/>
+      <c r="D133" s="67">
+        <f t="shared" si="2"/>
         <v>1.5290806754221389E-2</v>
       </c>
       <c r="E133" s="52">
@@ -43316,7 +43469,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="10" t="str">
-        <f>TEXT(A133,"jj/mm/aaaa")&amp;","&amp;E133&amp;","&amp;F133&amp;","&amp;G133&amp;","&amp;H133&amp;","&amp;I133&amp;","&amp;J133&amp;","&amp;K133&amp;","&amp;L133&amp;","&amp;M133</f>
+        <f t="shared" si="3"/>
         <v>03/06/2020,352,-514,250,643,-43,26,81,0,0</v>
       </c>
     </row>
@@ -43330,8 +43483,8 @@
       <c r="C134" s="11">
         <v>1225</v>
       </c>
-      <c r="D134" s="70">
-        <f t="shared" si="0"/>
+      <c r="D134" s="67">
+        <f t="shared" si="2"/>
         <v>1.551418439716312E-2</v>
       </c>
       <c r="E134" s="52">
@@ -43369,7 +43522,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="10" t="str">
-        <f>TEXT(A134,"jj/mm/aaaa")&amp;","&amp;E134&amp;","&amp;F134&amp;","&amp;G134&amp;","&amp;H134&amp;","&amp;I134&amp;","&amp;J134&amp;","&amp;K134&amp;","&amp;L134&amp;","&amp;M134</f>
+        <f t="shared" si="3"/>
         <v>04/06/2020,767,-413,195,521,-47,23,44,0,0</v>
       </c>
     </row>
@@ -43383,8 +43536,8 @@
       <c r="C135" s="11">
         <v>1100</v>
       </c>
-      <c r="D135" s="70">
-        <f t="shared" si="0"/>
+      <c r="D135" s="67">
+        <f t="shared" si="2"/>
         <v>1.2385434728758979E-2</v>
       </c>
       <c r="E135" s="52">
@@ -43422,7 +43575,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="10" t="str">
-        <f>TEXT(A135,"jj/mm/aaaa")&amp;","&amp;E135&amp;","&amp;F135&amp;","&amp;G135&amp;","&amp;H135&amp;","&amp;I135&amp;","&amp;J135&amp;","&amp;K135&amp;","&amp;L135&amp;","&amp;M135</f>
+        <f t="shared" si="3"/>
         <v>05/06/2020,611,-405,213,528,-69,19,46,0,0</v>
       </c>
     </row>
@@ -43436,8 +43589,8 @@
       <c r="C136" s="11">
         <v>519</v>
       </c>
-      <c r="D136" s="70">
-        <f t="shared" si="0"/>
+      <c r="D136" s="67">
+        <f t="shared" si="2"/>
         <v>1.3973023180680074E-2</v>
       </c>
       <c r="E136" s="52">
@@ -43475,7 +43628,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="10" t="str">
-        <f>TEXT(A136,"jj/mm/aaaa")&amp;","&amp;E136&amp;","&amp;F136&amp;","&amp;G136&amp;","&amp;H136&amp;","&amp;I136&amp;","&amp;J136&amp;","&amp;K136&amp;","&amp;L136&amp;","&amp;M136</f>
+        <f t="shared" si="3"/>
         <v>06/06/2020,579,-217,143,302,-35,15,31,0,0</v>
       </c>
     </row>
@@ -43489,8 +43642,8 @@
       <c r="C137" s="11">
         <v>198</v>
       </c>
-      <c r="D137" s="70">
-        <f t="shared" si="0"/>
+      <c r="D137" s="67">
+        <f t="shared" si="2"/>
         <v>1.4596387762624402E-2</v>
       </c>
       <c r="E137" s="52">
@@ -43528,7 +43681,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="10" t="str">
-        <f>TEXT(A137,"jj/mm/aaaa")&amp;","&amp;E137&amp;","&amp;F137&amp;","&amp;G137&amp;","&amp;H137&amp;","&amp;I137&amp;","&amp;J137&amp;","&amp;K137&amp;","&amp;L137&amp;","&amp;M137</f>
+        <f t="shared" si="3"/>
         <v>07/06/2020,343,-18,37,36,-6,4,13,0,0</v>
       </c>
     </row>
@@ -43542,8 +43695,8 @@
       <c r="C138" s="11">
         <v>1086</v>
       </c>
-      <c r="D138" s="70">
-        <f t="shared" si="0"/>
+      <c r="D138" s="67">
+        <f t="shared" si="2"/>
         <v>1.2868060904081996E-2</v>
       </c>
       <c r="E138" s="52">
@@ -43581,7 +43734,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="10" t="str">
-        <f>TEXT(A138,"jj/mm/aaaa")&amp;","&amp;E138&amp;","&amp;F138&amp;","&amp;G138&amp;","&amp;H138&amp;","&amp;I138&amp;","&amp;J138&amp;","&amp;K138&amp;","&amp;L138&amp;","&amp;M138</f>
+        <f t="shared" si="3"/>
         <v>08/06/2020,211,-146,145,220,-29,23,54,0,0</v>
       </c>
     </row>
@@ -43595,8 +43748,8 @@
       <c r="C139" s="11">
         <v>1092</v>
       </c>
-      <c r="D139" s="70">
-        <f t="shared" si="0"/>
+      <c r="D139" s="67">
+        <f t="shared" si="2"/>
         <v>1.3378745926343388E-2</v>
       </c>
       <c r="E139" s="52">
@@ -43634,7 +43787,7 @@
         <v>34</v>
       </c>
       <c r="N139" s="10" t="str">
-        <f>TEXT(A139,"jj/mm/aaaa")&amp;","&amp;E139&amp;","&amp;F139&amp;","&amp;G139&amp;","&amp;H139&amp;","&amp;I139&amp;","&amp;J139&amp;","&amp;K139&amp;","&amp;L139&amp;","&amp;M139</f>
+        <f t="shared" si="3"/>
         <v>09/06/2020,403,-354,169,444,-69,15,53,194,34</v>
       </c>
     </row>
@@ -43648,8 +43801,8 @@
       <c r="C140" s="11">
         <v>1062</v>
       </c>
-      <c r="D140" s="70">
-        <f t="shared" si="0"/>
+      <c r="D140" s="67">
+        <f t="shared" si="2"/>
         <v>1.3905801940527164E-2</v>
       </c>
       <c r="E140" s="52">
@@ -43687,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="10" t="str">
-        <f>TEXT(A140,"jj/mm/aaaa")&amp;","&amp;E140&amp;","&amp;F140&amp;","&amp;G140&amp;","&amp;H140&amp;","&amp;I140&amp;","&amp;J140&amp;","&amp;K140&amp;","&amp;L140&amp;","&amp;M140</f>
+        <f t="shared" si="3"/>
         <v>10/06/2020,545,-283,130,326,-22,23,23,0,0</v>
       </c>
     </row>
@@ -43701,8 +43854,8 @@
       <c r="C141" s="11">
         <v>1056</v>
       </c>
-      <c r="D141" s="70">
-        <f t="shared" si="0"/>
+      <c r="D141" s="67">
+        <f t="shared" si="2"/>
         <v>1.4586642723945024E-2</v>
       </c>
       <c r="E141" s="52">
@@ -43740,7 +43893,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="10" t="str">
-        <f>TEXT(A141,"jj/mm/aaaa")&amp;","&amp;E141&amp;","&amp;F141&amp;","&amp;G141&amp;","&amp;H141&amp;","&amp;I141&amp;","&amp;J141&amp;","&amp;K141&amp;","&amp;L141&amp;","&amp;M141</f>
+        <f t="shared" si="3"/>
         <v>11/06/2020,425,-213,143,317,-30,26,27,0,0</v>
       </c>
     </row>
@@ -43754,8 +43907,8 @@
       <c r="C142" s="11">
         <v>1125</v>
       </c>
-      <c r="D142" s="70">
-        <f t="shared" si="0"/>
+      <c r="D142" s="67">
+        <f t="shared" si="2"/>
         <v>1.3578101238322832E-2</v>
       </c>
       <c r="E142" s="52">
@@ -43793,7 +43946,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="10" t="str">
-        <f>TEXT(A142,"jj/mm/aaaa")&amp;","&amp;E142&amp;","&amp;F142&amp;","&amp;G142&amp;","&amp;H142&amp;","&amp;I142&amp;","&amp;J142&amp;","&amp;K142&amp;","&amp;L142&amp;","&amp;M142</f>
+        <f t="shared" si="3"/>
         <v>12/06/2020,726,-341,136,423,-24,18,28,0,0</v>
       </c>
     </row>
@@ -43807,8 +43960,8 @@
       <c r="C143" s="11">
         <v>372</v>
       </c>
-      <c r="D143" s="70">
-        <f t="shared" si="0"/>
+      <c r="D143" s="67">
+        <f t="shared" si="2"/>
         <v>1.0459427543159197E-2</v>
       </c>
       <c r="E143" s="52">
@@ -43846,7 +43999,7 @@
         <v>0</v>
       </c>
       <c r="N143" s="10" t="str">
-        <f>TEXT(A143,"jj/mm/aaaa")&amp;","&amp;E143&amp;","&amp;F143&amp;","&amp;G143&amp;","&amp;H143&amp;","&amp;I143&amp;","&amp;J143&amp;","&amp;K143&amp;","&amp;L143&amp;","&amp;M143</f>
+        <f t="shared" si="3"/>
         <v>13/06/2020,526,-215,68,236,-8,14,24,0,0</v>
       </c>
     </row>
@@ -43860,8 +44013,8 @@
       <c r="C144" s="11">
         <v>172</v>
       </c>
-      <c r="D144" s="70">
-        <f t="shared" si="0"/>
+      <c r="D144" s="67">
+        <f t="shared" si="2"/>
         <v>1.4765215898360374E-2</v>
       </c>
       <c r="E144" s="52">
@@ -43899,7 +44052,7 @@
         <v>0</v>
       </c>
       <c r="N144" s="10" t="str">
-        <f>TEXT(A144,"jj/mm/aaaa")&amp;","&amp;E144&amp;","&amp;F144&amp;","&amp;G144&amp;","&amp;H144&amp;","&amp;I144&amp;","&amp;J144&amp;","&amp;K144&amp;","&amp;L144&amp;","&amp;M144</f>
+        <f t="shared" si="3"/>
         <v>14/06/2020,407,-28,33,51,-2,6,9,0,0</v>
       </c>
     </row>
@@ -43913,8 +44066,8 @@
       <c r="C145" s="11">
         <v>974</v>
       </c>
-      <c r="D145" s="70">
-        <f t="shared" si="0"/>
+      <c r="D145" s="67">
+        <f t="shared" si="2"/>
         <v>1.204000148336774E-2</v>
       </c>
       <c r="E145" s="52">
@@ -43952,7 +44105,7 @@
         <v>0</v>
       </c>
       <c r="N145" s="10" t="str">
-        <f>TEXT(A145,"jj/mm/aaaa")&amp;","&amp;E145&amp;","&amp;F145&amp;","&amp;G145&amp;","&amp;H145&amp;","&amp;I145&amp;","&amp;J145&amp;","&amp;K145&amp;","&amp;L145&amp;","&amp;M145</f>
+        <f t="shared" si="3"/>
         <v>15/06/2020,152,-129,114,185,-23,12,29,0,0</v>
       </c>
     </row>
@@ -43966,8 +44119,8 @@
       <c r="C146" s="11">
         <v>1010</v>
       </c>
-      <c r="D146" s="70">
-        <f t="shared" si="0"/>
+      <c r="D146" s="67">
+        <f t="shared" si="2"/>
         <v>1.2802149747125855E-2</v>
       </c>
       <c r="E146" s="52">
@@ -44005,7 +44158,7 @@
         <v>73</v>
       </c>
       <c r="N146" s="10" t="str">
-        <f>TEXT(A146,"jj/mm/aaaa")&amp;","&amp;E146&amp;","&amp;F146&amp;","&amp;G146&amp;","&amp;H146&amp;","&amp;I146&amp;","&amp;J146&amp;","&amp;K146&amp;","&amp;L146&amp;","&amp;M146</f>
+        <f t="shared" si="3"/>
         <v>16/06/2020,344,-217,143,291,-26,14,38,302,73</v>
       </c>
     </row>
@@ -44019,8 +44172,8 @@
       <c r="C147" s="11">
         <v>1434</v>
       </c>
-      <c r="D147" s="70">
-        <f t="shared" si="0"/>
+      <c r="D147" s="67">
+        <f t="shared" si="2"/>
         <v>1.9278080258116555E-2</v>
       </c>
       <c r="E147" s="52">
@@ -44058,7 +44211,7 @@
         <v>0</v>
       </c>
       <c r="N147" s="10" t="str">
-        <f>TEXT(A147,"jj/mm/aaaa")&amp;","&amp;E147&amp;","&amp;F147&amp;","&amp;G147&amp;","&amp;H147&amp;","&amp;I147&amp;","&amp;J147&amp;","&amp;K147&amp;","&amp;L147&amp;","&amp;M147</f>
+        <f t="shared" si="3"/>
         <v>17/06/2020,458,-268,116,332,-48,14,28,0,0</v>
       </c>
     </row>
@@ -44072,8 +44225,8 @@
       <c r="C148" s="11">
         <v>1157</v>
       </c>
-      <c r="D148" s="70">
-        <f t="shared" si="0"/>
+      <c r="D148" s="67">
+        <f t="shared" si="2"/>
         <v>1.6409252719510985E-2</v>
       </c>
       <c r="E148" s="52">
@@ -44111,7 +44264,7 @@
         <v>0</v>
       </c>
       <c r="N148" s="10" t="str">
-        <f>TEXT(A148,"jj/mm/aaaa")&amp;","&amp;E148&amp;","&amp;F148&amp;","&amp;G148&amp;","&amp;H148&amp;","&amp;I148&amp;","&amp;J148&amp;","&amp;K148&amp;","&amp;L148&amp;","&amp;M148</f>
+        <f t="shared" si="3"/>
         <v>18/06/2020,467,-142,136,220,-20,15,28,0,0</v>
       </c>
     </row>
@@ -44125,8 +44278,8 @@
       <c r="C149" s="11">
         <v>1265</v>
       </c>
-      <c r="D149" s="70">
-        <f t="shared" si="0"/>
+      <c r="D149" s="67">
+        <f t="shared" si="2"/>
         <v>1.4870631384673257E-2</v>
       </c>
       <c r="E149" s="52">
@@ -44164,7 +44317,7 @@
         <v>0</v>
       </c>
       <c r="N149" s="10" t="str">
-        <f>TEXT(A149,"jj/mm/aaaa")&amp;","&amp;E149&amp;","&amp;F149&amp;","&amp;G149&amp;","&amp;H149&amp;","&amp;I149&amp;","&amp;J149&amp;","&amp;K149&amp;","&amp;L149&amp;","&amp;M149</f>
+        <f t="shared" si="3"/>
         <v>19/06/2020,811,-155,116,230,-25,10,14,0,0</v>
       </c>
     </row>
@@ -44178,8 +44331,8 @@
       <c r="C150" s="11">
         <v>582</v>
       </c>
-      <c r="D150" s="70">
-        <f t="shared" si="0"/>
+      <c r="D150" s="67">
+        <f t="shared" si="2"/>
         <v>1.4492392738863019E-2</v>
       </c>
       <c r="E150" s="52">
@@ -44217,7 +44370,7 @@
         <v>0</v>
       </c>
       <c r="N150" s="10" t="str">
-        <f>TEXT(A150,"jj/mm/aaaa")&amp;","&amp;E150&amp;","&amp;F150&amp;","&amp;G150&amp;","&amp;H150&amp;","&amp;I150&amp;","&amp;J150&amp;","&amp;K150&amp;","&amp;L150&amp;","&amp;M150</f>
+        <f t="shared" si="3"/>
         <v>20/06/2020,641,-133,90,195,-12,7,16,0,0</v>
       </c>
     </row>
@@ -44231,8 +44384,8 @@
       <c r="C151" s="11">
         <v>156</v>
       </c>
-      <c r="D151" s="70">
-        <f t="shared" si="0"/>
+      <c r="D151" s="67">
+        <f t="shared" si="2"/>
         <v>1.3777267508610792E-2</v>
       </c>
       <c r="E151" s="52">
@@ -44270,7 +44423,7 @@
         <v>0</v>
       </c>
       <c r="N151" s="10" t="str">
-        <f>TEXT(A151,"jj/mm/aaaa")&amp;","&amp;E151&amp;","&amp;F151&amp;","&amp;G151&amp;","&amp;H151&amp;","&amp;I151&amp;","&amp;J151&amp;","&amp;K151&amp;","&amp;L151&amp;","&amp;M151</f>
+        <f t="shared" si="3"/>
         <v>21/06/2020,284,-14,48,60,0,5,7,0,0</v>
       </c>
     </row>
@@ -44284,8 +44437,8 @@
       <c r="C152" s="11">
         <v>1142</v>
       </c>
-      <c r="D152" s="70">
-        <f t="shared" si="0"/>
+      <c r="D152" s="67">
+        <f t="shared" si="2"/>
         <v>1.2970787333605925E-2</v>
       </c>
       <c r="E152" s="52">
@@ -44323,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="N152" s="10" t="str">
-        <f>TEXT(A152,"jj/mm/aaaa")&amp;","&amp;E152&amp;","&amp;F152&amp;","&amp;G152&amp;","&amp;H152&amp;","&amp;I152&amp;","&amp;J152&amp;","&amp;K152&amp;","&amp;L152&amp;","&amp;M152</f>
+        <f t="shared" si="3"/>
         <v>22/06/2020,373,-130,142,240,-14,16,23,0,0</v>
       </c>
     </row>
@@ -44337,8 +44490,8 @@
       <c r="C153" s="11">
         <v>1314</v>
       </c>
-      <c r="D153" s="70">
-        <f t="shared" si="0"/>
+      <c r="D153" s="67">
+        <f t="shared" si="2"/>
         <v>1.4700288635804264E-2</v>
       </c>
       <c r="E153" s="52">
@@ -44376,7 +44529,7 @@
         <v>31</v>
       </c>
       <c r="N153" s="10" t="str">
-        <f>TEXT(A153,"jj/mm/aaaa")&amp;","&amp;E153&amp;","&amp;F153&amp;","&amp;G153&amp;","&amp;H153&amp;","&amp;I153&amp;","&amp;J153&amp;","&amp;K153&amp;","&amp;L153&amp;","&amp;M153</f>
+        <f t="shared" si="3"/>
         <v>23/06/2020,517,-202,117,259,-19,15,26,94,31</v>
       </c>
     </row>
@@ -44390,8 +44543,8 @@
       <c r="C154" s="11">
         <v>1339</v>
       </c>
-      <c r="D154" s="70">
-        <f t="shared" si="0"/>
+      <c r="D154" s="67">
+        <f t="shared" si="2"/>
         <v>1.5823869343764403E-2</v>
       </c>
       <c r="E154" s="52">
@@ -44429,7 +44582,7 @@
         <v>0</v>
       </c>
       <c r="N154" s="10" t="str">
-        <f>TEXT(A154,"jj/mm/aaaa")&amp;","&amp;E154&amp;","&amp;F154&amp;","&amp;G154&amp;","&amp;H154&amp;","&amp;I154&amp;","&amp;J154&amp;","&amp;K154&amp;","&amp;L154&amp;","&amp;M154</f>
+        <f t="shared" si="3"/>
         <v>24/06/2020,81,-192,97,256,-24,8,11,0,0</v>
       </c>
     </row>
@@ -44443,8 +44596,8 @@
       <c r="C155" s="11">
         <v>1020</v>
       </c>
-      <c r="D155" s="70">
-        <f t="shared" si="0"/>
+      <c r="D155" s="67">
+        <f t="shared" si="2"/>
         <v>1.3953106618149982E-2</v>
       </c>
       <c r="E155" s="52">
@@ -44482,7 +44635,7 @@
         <v>0</v>
       </c>
       <c r="N155" s="10" t="str">
-        <f>TEXT(A155,"jj/mm/aaaa")&amp;","&amp;E155&amp;","&amp;F155&amp;","&amp;G155&amp;","&amp;H155&amp;","&amp;I155&amp;","&amp;J155&amp;","&amp;K155&amp;","&amp;L155&amp;","&amp;M155</f>
+        <f t="shared" si="3"/>
         <v>25/06/2020,0,-158,124,224,-7,15,21,0,0</v>
       </c>
     </row>
@@ -44496,8 +44649,8 @@
       <c r="C156" s="11">
         <v>1149</v>
       </c>
-      <c r="D156" s="70">
-        <f t="shared" si="0"/>
+      <c r="D156" s="67">
+        <f t="shared" si="2"/>
         <v>1.2136896588148304E-2</v>
       </c>
       <c r="E156" s="52">
@@ -44535,7 +44688,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="10" t="str">
-        <f>TEXT(A156,"jj/mm/aaaa")&amp;","&amp;E156&amp;","&amp;F156&amp;","&amp;G156&amp;","&amp;H156&amp;","&amp;I156&amp;","&amp;J156&amp;","&amp;K156&amp;","&amp;L156&amp;","&amp;M156</f>
+        <f t="shared" si="3"/>
         <v>26/06/2020,1588,-255,87,298,-17,15,26,0,0</v>
       </c>
     </row>
@@ -44549,8 +44702,8 @@
       <c r="C157" s="11">
         <v>676</v>
       </c>
-      <c r="D157" s="70">
-        <f t="shared" si="0"/>
+      <c r="D157" s="67">
+        <f t="shared" si="2"/>
         <v>1.4850615114235501E-2</v>
       </c>
       <c r="E157" s="52">
@@ -44584,7 +44737,7 @@
         <v>0</v>
       </c>
       <c r="N157" s="10" t="str">
-        <f>TEXT(A157,"jj/mm/aaaa")&amp;","&amp;E157&amp;","&amp;F157&amp;","&amp;G157&amp;","&amp;H157&amp;","&amp;I157&amp;","&amp;J157&amp;","&amp;K157&amp;","&amp;L157&amp;","&amp;M157</f>
+        <f t="shared" si="3"/>
         <v>27/06/2020,518,0,,0,0,,0,0,0</v>
       </c>
     </row>
@@ -44598,8 +44751,8 @@
       <c r="C158" s="11">
         <v>430</v>
       </c>
-      <c r="D158" s="70">
-        <f t="shared" si="0"/>
+      <c r="D158" s="67">
+        <f t="shared" si="2"/>
         <v>2.9458107830376105E-2</v>
       </c>
       <c r="E158" s="52">
@@ -44633,7 +44786,7 @@
         <v>0</v>
       </c>
       <c r="N158" s="10" t="str">
-        <f>TEXT(A158,"jj/mm/aaaa")&amp;","&amp;E158&amp;","&amp;F158&amp;","&amp;G158&amp;","&amp;H158&amp;","&amp;I158&amp;","&amp;J158&amp;","&amp;K158&amp;","&amp;L158&amp;","&amp;M158</f>
+        <f t="shared" si="3"/>
         <v>28/06/2020,526,0,,0,0,,0,0,0</v>
       </c>
     </row>
@@ -44647,8 +44800,8 @@
       <c r="C159" s="11">
         <v>1343</v>
       </c>
-      <c r="D159" s="70">
-        <f t="shared" si="0"/>
+      <c r="D159" s="67">
+        <f t="shared" si="2"/>
         <v>1.1918813620994152E-2</v>
       </c>
       <c r="E159" s="52">
@@ -44686,7 +44839,7 @@
         <v>0</v>
       </c>
       <c r="N159" s="10" t="str">
-        <f>TEXT(A159,"jj/mm/aaaa")&amp;","&amp;E159&amp;","&amp;F159&amp;","&amp;G159&amp;","&amp;H159&amp;","&amp;I159&amp;","&amp;J159&amp;","&amp;K159&amp;","&amp;L159&amp;","&amp;M159</f>
+        <f t="shared" si="3"/>
         <v>29/06/2020,280,-198,102,350,-15,15,35,0,0</v>
       </c>
     </row>
@@ -44700,8 +44853,8 @@
       <c r="C160" s="11">
         <v>1416</v>
       </c>
-      <c r="D160" s="70">
-        <f t="shared" si="0"/>
+      <c r="D160" s="67">
+        <f t="shared" si="2"/>
         <v>1.2955524854296092E-2</v>
       </c>
       <c r="E160" s="52">
@@ -44739,7 +44892,7 @@
         <v>9</v>
       </c>
       <c r="N160" s="10" t="str">
-        <f>TEXT(A160,"jj/mm/aaaa")&amp;","&amp;E160&amp;","&amp;F160&amp;","&amp;G160&amp;","&amp;H160&amp;","&amp;I160&amp;","&amp;J160&amp;","&amp;K160&amp;","&amp;L160&amp;","&amp;M160</f>
+        <f t="shared" si="3"/>
         <v>30/06/2020,541,-152,152,275,-17,8,21,112,9</v>
       </c>
     </row>
@@ -44753,8 +44906,8 @@
       <c r="C161" s="11">
         <v>1255</v>
       </c>
-      <c r="D161" s="70">
-        <f t="shared" si="0"/>
+      <c r="D161" s="67">
+        <f t="shared" si="2"/>
         <v>1.1904874832810025E-2</v>
       </c>
       <c r="E161" s="52">
@@ -44792,7 +44945,7 @@
         <v>0</v>
       </c>
       <c r="N161" s="10" t="str">
-        <f>TEXT(A161,"jj/mm/aaaa")&amp;","&amp;E161&amp;","&amp;F161&amp;","&amp;G161&amp;","&amp;H161&amp;","&amp;I161&amp;","&amp;J161&amp;","&amp;K161&amp;","&amp;L161&amp;","&amp;M161</f>
+        <f t="shared" si="3"/>
         <v>01/07/2020,918,-200,106,275,-20,17,18,0,0</v>
       </c>
     </row>
@@ -44806,8 +44959,8 @@
       <c r="C162" s="11">
         <v>1179</v>
       </c>
-      <c r="D162" s="70">
-        <f t="shared" si="0"/>
+      <c r="D162" s="67">
+        <f t="shared" si="2"/>
         <v>1.1589045943342442E-2</v>
       </c>
       <c r="E162" s="52">
@@ -44845,7 +44998,7 @@
         <v>0</v>
       </c>
       <c r="N162" s="10" t="str">
-        <f>TEXT(A162,"jj/mm/aaaa")&amp;","&amp;E162&amp;","&amp;F162&amp;","&amp;G162&amp;","&amp;H162&amp;","&amp;I162&amp;","&amp;J162&amp;","&amp;K162&amp;","&amp;L162&amp;","&amp;M162</f>
+        <f t="shared" si="3"/>
         <v>02/07/2020,659,-188,93,253,-9,12,14,0,0</v>
       </c>
     </row>
@@ -44859,8 +45012,8 @@
       <c r="C163" s="11">
         <v>1480</v>
       </c>
-      <c r="D163" s="70">
-        <f t="shared" si="0"/>
+      <c r="D163" s="67">
+        <f t="shared" si="2"/>
         <v>1.2441993409106194E-2</v>
       </c>
       <c r="E163" s="52">
@@ -44898,7 +45051,7 @@
         <v>0</v>
       </c>
       <c r="N163" s="10" t="str">
-        <f>TEXT(A163,"jj/mm/aaaa")&amp;","&amp;E163&amp;","&amp;F163&amp;","&amp;G163&amp;","&amp;H163&amp;","&amp;I163&amp;","&amp;J163&amp;","&amp;K163&amp;","&amp;L163&amp;","&amp;M163</f>
+        <f t="shared" si="3"/>
         <v>03/07/2020,582,-158,125,258,-13,12,18,0,0</v>
       </c>
     </row>
@@ -44912,8 +45065,8 @@
       <c r="C164" s="11">
         <v>701</v>
       </c>
-      <c r="D164" s="70">
-        <f t="shared" si="0"/>
+      <c r="D164" s="67">
+        <f t="shared" si="2"/>
         <v>1.3088858599249398E-2</v>
       </c>
       <c r="E164" s="52">
@@ -44947,7 +45100,7 @@
         <v/>
       </c>
       <c r="N164" s="10" t="str">
-        <f>TEXT(A164,"jj/mm/aaaa")&amp;","&amp;E164&amp;","&amp;F164&amp;","&amp;G164&amp;","&amp;H164&amp;","&amp;I164&amp;","&amp;J164&amp;","&amp;K164&amp;","&amp;L164&amp;","&amp;M164</f>
+        <f t="shared" si="3"/>
         <v>04/07/2020,751,,,,,,,,</v>
       </c>
     </row>
@@ -44961,8 +45114,8 @@
       <c r="C165" s="11">
         <v>206</v>
       </c>
-      <c r="D165" s="70">
-        <f t="shared" si="0"/>
+      <c r="D165" s="67">
+        <f t="shared" si="2"/>
         <v>1.3733333333333334E-2</v>
       </c>
       <c r="E165" s="52">
@@ -44996,7 +45149,7 @@
         <v/>
       </c>
       <c r="N165" s="10" t="str">
-        <f>TEXT(A165,"jj/mm/aaaa")&amp;","&amp;E165&amp;","&amp;F165&amp;","&amp;G165&amp;","&amp;H165&amp;","&amp;I165&amp;","&amp;J165&amp;","&amp;K165&amp;","&amp;L165&amp;","&amp;M165</f>
+        <f t="shared" si="3"/>
         <v>05/07/2020,448,,,,,,,,</v>
       </c>
     </row>
@@ -45010,8 +45163,8 @@
       <c r="C166" s="11">
         <v>1348</v>
       </c>
-      <c r="D166" s="70">
-        <f t="shared" si="0"/>
+      <c r="D166" s="67">
+        <f t="shared" si="2"/>
         <v>1.1087988286872907E-2</v>
       </c>
       <c r="E166" s="52">
@@ -45049,7 +45202,7 @@
         <v/>
       </c>
       <c r="N166" s="10" t="str">
-        <f>TEXT(A166,"jj/mm/aaaa")&amp;","&amp;E166&amp;","&amp;F166&amp;","&amp;G166&amp;","&amp;H166&amp;","&amp;I166&amp;","&amp;J166&amp;","&amp;K166&amp;","&amp;L166&amp;","&amp;M166</f>
+        <f t="shared" si="3"/>
         <v>06/07/2020,176,,98,,,10,,,</v>
       </c>
     </row>
@@ -45063,8 +45216,8 @@
       <c r="C167" s="11">
         <v>1134</v>
       </c>
-      <c r="D167" s="70">
-        <f t="shared" si="0"/>
+      <c r="D167" s="67">
+        <f t="shared" si="2"/>
         <v>9.3918488028291499E-3</v>
       </c>
       <c r="E167" s="52">
@@ -45102,7 +45255,7 @@
         <v>-21</v>
       </c>
       <c r="N167" s="10" t="str">
-        <f>TEXT(A167,"jj/mm/aaaa")&amp;","&amp;E167&amp;","&amp;F167&amp;","&amp;G167&amp;","&amp;H167&amp;","&amp;I167&amp;","&amp;J167&amp;","&amp;K167&amp;","&amp;L167&amp;","&amp;M167</f>
+        <f t="shared" si="3"/>
         <v>07/07/2020,475,-256,127,336,-10,21,34,1149,-21</v>
       </c>
     </row>
@@ -45116,8 +45269,8 @@
       <c r="C168" s="11">
         <v>1396</v>
       </c>
-      <c r="D168" s="70">
-        <f t="shared" si="0"/>
+      <c r="D168" s="67">
+        <f t="shared" si="2"/>
         <v>1.1689834198626696E-2</v>
       </c>
       <c r="E168" s="52">
@@ -45155,7 +45308,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="10" t="str">
-        <f>TEXT(A168,"jj/mm/aaaa")&amp;","&amp;E168&amp;","&amp;F168&amp;","&amp;G168&amp;","&amp;H168&amp;","&amp;I168&amp;","&amp;J168&amp;","&amp;K168&amp;","&amp;L168&amp;","&amp;M168</f>
+        <f t="shared" si="3"/>
         <v>08/07/2020,663,-297,83,341,-9,18,32,0,0</v>
       </c>
     </row>
@@ -45169,8 +45322,8 @@
       <c r="C169" s="11">
         <v>1404</v>
       </c>
-      <c r="D169" s="70">
-        <f t="shared" si="0"/>
+      <c r="D169" s="67">
+        <f t="shared" si="2"/>
         <v>1.1103993166773437E-2</v>
       </c>
       <c r="E169" s="52">
@@ -45208,7 +45361,7 @@
         <v>0</v>
       </c>
       <c r="N169" s="10" t="str">
-        <f>TEXT(A169,"jj/mm/aaaa")&amp;","&amp;E169&amp;","&amp;F169&amp;","&amp;G169&amp;","&amp;H169&amp;","&amp;I169&amp;","&amp;J169&amp;","&amp;K169&amp;","&amp;L169&amp;","&amp;M169</f>
+        <f t="shared" si="3"/>
         <v>09/07/2020,621,-120,79,174,-17,8,14,0,0</v>
       </c>
     </row>
@@ -45222,8 +45375,8 @@
       <c r="C170" s="11">
         <v>1688</v>
       </c>
-      <c r="D170" s="70">
-        <f t="shared" si="0"/>
+      <c r="D170" s="67">
+        <f t="shared" si="2"/>
         <v>1.1949004367615933E-2</v>
       </c>
       <c r="E170" s="52">
@@ -45261,7 +45414,7 @@
         <v>0</v>
       </c>
       <c r="N170" s="10" t="str">
-        <f>TEXT(A170,"jj/mm/aaaa")&amp;","&amp;E170&amp;","&amp;F170&amp;","&amp;G170&amp;","&amp;H170&amp;","&amp;I170&amp;","&amp;J170&amp;","&amp;K170&amp;","&amp;L170&amp;","&amp;M170</f>
+        <f t="shared" si="3"/>
         <v>10/07/2020,658,-115,136,218,-16,9,25,0,0</v>
       </c>
     </row>
@@ -45275,8 +45428,8 @@
       <c r="C171" s="11">
         <v>696</v>
       </c>
-      <c r="D171" s="70">
-        <f t="shared" si="0"/>
+      <c r="D171" s="67">
+        <f t="shared" si="2"/>
         <v>1.1653021246672359E-2</v>
       </c>
       <c r="E171" s="52">
@@ -45310,7 +45463,7 @@
         <v>0</v>
       </c>
       <c r="N171" s="10" t="str">
-        <f>TEXT(A171,"jj/mm/aaaa")&amp;","&amp;E171&amp;","&amp;F171&amp;","&amp;G171&amp;","&amp;H171&amp;","&amp;I171&amp;","&amp;J171&amp;","&amp;K171&amp;","&amp;L171&amp;","&amp;M171</f>
+        <f t="shared" si="3"/>
         <v>11/07/2020,752,,,,,,,0,0</v>
       </c>
     </row>
@@ -45324,8 +45477,8 @@
       <c r="C172" s="11">
         <v>222</v>
       </c>
-      <c r="D172" s="70">
-        <f t="shared" si="0"/>
+      <c r="D172" s="67">
+        <f t="shared" si="2"/>
         <v>1.4752791068580542E-2</v>
       </c>
       <c r="E172" s="52">
@@ -45359,7 +45512,7 @@
         <v>0</v>
       </c>
       <c r="N172" s="10" t="str">
-        <f>TEXT(A172,"jj/mm/aaaa")&amp;","&amp;E172&amp;","&amp;F172&amp;","&amp;G172&amp;","&amp;H172&amp;","&amp;I172&amp;","&amp;J172&amp;","&amp;K172&amp;","&amp;L172&amp;","&amp;M172</f>
+        <f t="shared" si="3"/>
         <v>12/07/2020,585,,,,,,,0,0</v>
       </c>
     </row>
@@ -45373,8 +45526,8 @@
       <c r="C173" s="11">
         <v>1732</v>
       </c>
-      <c r="D173" s="70">
-        <f t="shared" si="0"/>
+      <c r="D173" s="67">
+        <f t="shared" si="2"/>
         <v>1.2031537633288181E-2</v>
       </c>
       <c r="E173" s="52">
@@ -45412,7 +45565,7 @@
         <v>0</v>
       </c>
       <c r="N173" s="10" t="str">
-        <f>TEXT(A173,"jj/mm/aaaa")&amp;","&amp;E173&amp;","&amp;F173&amp;","&amp;G173&amp;","&amp;H173&amp;","&amp;I173&amp;","&amp;J173&amp;","&amp;K173&amp;","&amp;L173&amp;","&amp;M173</f>
+        <f t="shared" si="3"/>
         <v>13/07/2020,288,,68,,,10,,0,0</v>
       </c>
     </row>
@@ -45426,8 +45579,8 @@
       <c r="C174" s="11">
         <v>362</v>
       </c>
-      <c r="D174" s="70">
-        <f t="shared" si="0"/>
+      <c r="D174" s="67">
+        <f t="shared" si="2"/>
         <v>1.6854455722134277E-2</v>
       </c>
       <c r="E174" s="52">
@@ -45461,7 +45614,7 @@
         <v>0</v>
       </c>
       <c r="N174" s="10" t="str">
-        <f>TEXT(A174,"jj/mm/aaaa")&amp;","&amp;E174&amp;","&amp;F174&amp;","&amp;G174&amp;","&amp;H174&amp;","&amp;I174&amp;","&amp;J174&amp;","&amp;K174&amp;","&amp;L174&amp;","&amp;M174</f>
+        <f t="shared" si="3"/>
         <v>14/07/2020,511,,,,,,,0,0</v>
       </c>
     </row>
@@ -45475,8 +45628,8 @@
       <c r="C175" s="11">
         <v>1693</v>
       </c>
-      <c r="D175" s="70">
-        <f t="shared" si="0"/>
+      <c r="D175" s="67">
+        <f t="shared" si="2"/>
         <v>1.1703789732741577E-2</v>
       </c>
       <c r="E175" s="52">
@@ -45514,7 +45667,7 @@
         <v>65</v>
       </c>
       <c r="N175" s="10" t="str">
-        <f>TEXT(A175,"jj/mm/aaaa")&amp;","&amp;E175&amp;","&amp;F175&amp;","&amp;G175&amp;","&amp;H175&amp;","&amp;I175&amp;","&amp;J175&amp;","&amp;K175&amp;","&amp;L175&amp;","&amp;M175</f>
+        <f t="shared" si="3"/>
         <v>15/07/2020,416,,133,,,16,,208,65</v>
       </c>
     </row>
@@ -45528,8 +45681,8 @@
       <c r="C176" s="11">
         <v>1938</v>
       </c>
-      <c r="D176" s="70">
-        <f t="shared" si="0"/>
+      <c r="D176" s="67">
+        <f t="shared" si="2"/>
         <v>1.2647984023599129E-2</v>
       </c>
       <c r="E176" s="52">
@@ -45567,7 +45720,7 @@
         <v>0</v>
       </c>
       <c r="N176" s="10" t="str">
-        <f>TEXT(A176,"jj/mm/aaaa")&amp;","&amp;E176&amp;","&amp;F176&amp;","&amp;G176&amp;","&amp;H176&amp;","&amp;I176&amp;","&amp;J176&amp;","&amp;K176&amp;","&amp;L176&amp;","&amp;M176</f>
+        <f t="shared" si="3"/>
         <v>16/07/2020,534,-119,119,216,-1,23,18,0,0</v>
       </c>
     </row>
@@ -45581,8 +45734,8 @@
       <c r="C177" s="11">
         <v>1901</v>
       </c>
-      <c r="D177" s="70">
-        <f t="shared" ref="D177:D230" si="1">C177/B177</f>
+      <c r="D177" s="67">
+        <f t="shared" ref="D177:D232" si="4">C177/B177</f>
         <v>1.1107086098906236E-2</v>
       </c>
       <c r="E177" s="52">
@@ -45620,7 +45773,7 @@
         <v>0</v>
       </c>
       <c r="N177" s="10" t="str">
-        <f>TEXT(A177,"jj/mm/aaaa")&amp;","&amp;E177&amp;","&amp;F177&amp;","&amp;G177&amp;","&amp;H177&amp;","&amp;I177&amp;","&amp;J177&amp;","&amp;K177&amp;","&amp;L177&amp;","&amp;M177</f>
+        <f t="shared" si="3"/>
         <v>17/07/2020,836,-108,119,208,-4,17,14,0,0</v>
       </c>
     </row>
@@ -45634,8 +45787,8 @@
       <c r="C178" s="11">
         <v>889</v>
       </c>
-      <c r="D178" s="70">
-        <f t="shared" si="1"/>
+      <c r="D178" s="67">
+        <f t="shared" si="4"/>
         <v>1.2057343586822368E-2</v>
       </c>
       <c r="E178" s="52">
@@ -45669,7 +45822,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="10" t="str">
-        <f>TEXT(A178,"jj/mm/aaaa")&amp;","&amp;E178&amp;","&amp;F178&amp;","&amp;G178&amp;","&amp;H178&amp;","&amp;I178&amp;","&amp;J178&amp;","&amp;K178&amp;","&amp;L178&amp;","&amp;M178</f>
+        <f t="shared" si="3"/>
         <v>18/07/2020,965,,,,,,,0,0</v>
       </c>
     </row>
@@ -45683,8 +45836,8 @@
       <c r="C179" s="11">
         <v>374</v>
       </c>
-      <c r="D179" s="70">
-        <f t="shared" si="1"/>
+      <c r="D179" s="67">
+        <f t="shared" si="4"/>
         <v>1.7624051646953489E-2</v>
       </c>
       <c r="E179" s="52">
@@ -45718,7 +45871,7 @@
         <v>0</v>
       </c>
       <c r="N179" s="10" t="str">
-        <f>TEXT(A179,"jj/mm/aaaa")&amp;","&amp;E179&amp;","&amp;F179&amp;","&amp;G179&amp;","&amp;H179&amp;","&amp;I179&amp;","&amp;J179&amp;","&amp;K179&amp;","&amp;L179&amp;","&amp;M179</f>
+        <f t="shared" si="3"/>
         <v>19/07/2020,765,,,,,,,0,0</v>
       </c>
     </row>
@@ -45732,8 +45885,8 @@
       <c r="C180" s="11">
         <v>2056</v>
       </c>
-      <c r="D180" s="70">
-        <f t="shared" si="1"/>
+      <c r="D180" s="67">
+        <f t="shared" si="4"/>
         <v>1.230084418731266E-2</v>
       </c>
       <c r="E180" s="52">
@@ -45767,7 +45920,7 @@
         <v>0</v>
       </c>
       <c r="N180" s="10" t="str">
-        <f>TEXT(A180,"jj/mm/aaaa")&amp;","&amp;E180&amp;","&amp;F180&amp;","&amp;G180&amp;","&amp;H180&amp;","&amp;I180&amp;","&amp;J180&amp;","&amp;K180&amp;","&amp;L180&amp;","&amp;M180</f>
+        <f t="shared" si="3"/>
         <v>20/07/2020,350,,,,,,,0,0</v>
       </c>
     </row>
@@ -45781,8 +45934,8 @@
       <c r="C181" s="11">
         <v>2173</v>
       </c>
-      <c r="D181" s="70">
-        <f t="shared" si="1"/>
+      <c r="D181" s="67">
+        <f t="shared" si="4"/>
         <v>1.3409358782111804E-2</v>
       </c>
       <c r="E181" s="52">
@@ -45820,7 +45973,7 @@
         <v>-25</v>
       </c>
       <c r="N181" s="10" t="str">
-        <f>TEXT(A181,"jj/mm/aaaa")&amp;","&amp;E181&amp;","&amp;F181&amp;","&amp;G181&amp;","&amp;H181&amp;","&amp;I181&amp;","&amp;J181&amp;","&amp;K181&amp;","&amp;L181&amp;","&amp;M181</f>
+        <f t="shared" si="3"/>
         <v>21/07/2020,584,-107,109,193,-12,12,13,90,-25</v>
       </c>
     </row>
@@ -45834,8 +45987,8 @@
       <c r="C182" s="11">
         <v>2320</v>
       </c>
-      <c r="D182" s="70">
-        <f t="shared" si="1"/>
+      <c r="D182" s="67">
+        <f t="shared" si="4"/>
         <v>1.441038541569614E-2</v>
       </c>
       <c r="E182" s="52">
@@ -45873,7 +46026,7 @@
         <v>0</v>
       </c>
       <c r="N182" s="10" t="str">
-        <f>TEXT(A182,"jj/mm/aaaa")&amp;","&amp;E182&amp;","&amp;F182&amp;","&amp;G182&amp;","&amp;H182&amp;","&amp;I182&amp;","&amp;J182&amp;","&amp;K182&amp;","&amp;L182&amp;","&amp;M182</f>
+        <f t="shared" si="3"/>
         <v>22/07/2020,998,-116,132,223,-10,17,7,0,0</v>
       </c>
     </row>
@@ -45887,8 +46040,8 @@
       <c r="C183" s="11">
         <v>2265</v>
       </c>
-      <c r="D183" s="70">
-        <f t="shared" si="1"/>
+      <c r="D183" s="67">
+        <f t="shared" si="4"/>
         <v>1.424573099783012E-2</v>
       </c>
       <c r="E183" s="52">
@@ -45926,7 +46079,7 @@
         <v>0</v>
       </c>
       <c r="N183" s="10" t="str">
-        <f>TEXT(A183,"jj/mm/aaaa")&amp;","&amp;E183&amp;","&amp;F183&amp;","&amp;G183&amp;","&amp;H183&amp;","&amp;I183&amp;","&amp;J183&amp;","&amp;K183&amp;","&amp;L183&amp;","&amp;M183</f>
+        <f t="shared" si="3"/>
         <v>23/07/2020,1062,-409,123,515,-9,13,10,0,0</v>
       </c>
     </row>
@@ -45940,8 +46093,8 @@
       <c r="C184" s="11">
         <v>2527</v>
       </c>
-      <c r="D184" s="70">
-        <f t="shared" si="1"/>
+      <c r="D184" s="67">
+        <f t="shared" si="4"/>
         <v>1.4611243777067228E-2</v>
       </c>
       <c r="E184" s="52">
@@ -45979,7 +46132,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="10" t="str">
-        <f>TEXT(A184,"jj/mm/aaaa")&amp;","&amp;E184&amp;","&amp;F184&amp;","&amp;G184&amp;","&amp;H184&amp;","&amp;I184&amp;","&amp;J184&amp;","&amp;K184&amp;","&amp;L184&amp;","&amp;M184</f>
+        <f t="shared" si="3"/>
         <v>24/07/2020,1130,-237,126,343,-26,16,10,0,0</v>
       </c>
     </row>
@@ -45993,8 +46146,8 @@
       <c r="C185" s="11">
         <v>1238</v>
       </c>
-      <c r="D185" s="70">
-        <f t="shared" si="1"/>
+      <c r="D185" s="67">
+        <f t="shared" si="4"/>
         <v>1.585939201393782E-2</v>
       </c>
       <c r="E185" s="52" t="str">
@@ -46028,7 +46181,7 @@
         <v>0</v>
       </c>
       <c r="N185" s="10" t="str">
-        <f>TEXT(A185,"jj/mm/aaaa")&amp;","&amp;E185&amp;","&amp;F185&amp;","&amp;G185&amp;","&amp;H185&amp;","&amp;I185&amp;","&amp;J185&amp;","&amp;K185&amp;","&amp;L185&amp;","&amp;M185</f>
+        <f t="shared" si="3"/>
         <v>25/07/2020,,,,,,,,0,0</v>
       </c>
     </row>
@@ -46042,8 +46195,8 @@
       <c r="C186" s="11">
         <v>518</v>
       </c>
-      <c r="D186" s="70">
-        <f t="shared" si="1"/>
+      <c r="D186" s="67">
+        <f t="shared" si="4"/>
         <v>1.9662921348314606E-2</v>
       </c>
       <c r="E186" s="52" t="str">
@@ -46077,7 +46230,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="10" t="str">
-        <f>TEXT(A186,"jj/mm/aaaa")&amp;","&amp;E186&amp;","&amp;F186&amp;","&amp;G186&amp;","&amp;H186&amp;","&amp;I186&amp;","&amp;J186&amp;","&amp;K186&amp;","&amp;L186&amp;","&amp;M186</f>
+        <f t="shared" si="3"/>
         <v>26/07/2020,,,,,,,,0,0</v>
       </c>
     </row>
@@ -46091,8 +46244,8 @@
       <c r="C187" s="11">
         <v>2823</v>
       </c>
-      <c r="D187" s="70">
-        <f t="shared" si="1"/>
+      <c r="D187" s="67">
+        <f t="shared" si="4"/>
         <v>1.5349732480751664E-2</v>
       </c>
       <c r="E187" s="52" t="str">
@@ -46130,7 +46283,7 @@
         <v>0</v>
       </c>
       <c r="N187" s="10" t="str">
-        <f>TEXT(A187,"jj/mm/aaaa")&amp;","&amp;E187&amp;","&amp;F187&amp;","&amp;G187&amp;","&amp;H187&amp;","&amp;I187&amp;","&amp;J187&amp;","&amp;K187&amp;","&amp;L187&amp;","&amp;M187</f>
+        <f t="shared" si="3"/>
         <v>27/07/2020,,,118,,,25,,0,0</v>
       </c>
     </row>
@@ -46144,8 +46297,8 @@
       <c r="C188" s="11">
         <v>2697</v>
       </c>
-      <c r="D188" s="70">
-        <f t="shared" si="1"/>
+      <c r="D188" s="67">
+        <f t="shared" si="4"/>
         <v>1.4330271037124807E-2</v>
       </c>
       <c r="E188" s="52">
@@ -46183,7 +46336,7 @@
         <v>-1</v>
       </c>
       <c r="N188" s="10" t="str">
-        <f>TEXT(A188,"jj/mm/aaaa")&amp;","&amp;E188&amp;","&amp;F188&amp;","&amp;G188&amp;","&amp;H188&amp;","&amp;I188&amp;","&amp;J188&amp;","&amp;K188&amp;","&amp;L188&amp;","&amp;M188</f>
+        <f t="shared" si="3"/>
         <v>28/07/2020,725,-104,172,229,-13,22,15,84,-1</v>
       </c>
     </row>
@@ -46197,8 +46350,8 @@
       <c r="C189" s="11">
         <v>2914</v>
       </c>
-      <c r="D189" s="70">
-        <f t="shared" si="1"/>
+      <c r="D189" s="67">
+        <f t="shared" si="4"/>
         <v>1.4945199226583376E-2</v>
       </c>
       <c r="E189" s="52">
@@ -46236,7 +46389,7 @@
         <v>0</v>
       </c>
       <c r="N189" s="10" t="str">
-        <f>TEXT(A189,"jj/mm/aaaa")&amp;","&amp;E189&amp;","&amp;F189&amp;","&amp;G189&amp;","&amp;H189&amp;","&amp;I189&amp;","&amp;J189&amp;","&amp;K189&amp;","&amp;L189&amp;","&amp;M189</f>
+        <f t="shared" si="3"/>
         <v>29/07/2020,1392,-101,118,189,-5,14,15,0,0</v>
       </c>
     </row>
@@ -46250,8 +46403,8 @@
       <c r="C190" s="11">
         <v>3072</v>
       </c>
-      <c r="D190" s="70">
-        <f t="shared" si="1"/>
+      <c r="D190" s="67">
+        <f t="shared" si="4"/>
         <v>1.6318204997450281E-2</v>
       </c>
       <c r="E190" s="52">
@@ -46289,7 +46442,7 @@
         <v>0</v>
       </c>
       <c r="N190" s="10" t="str">
-        <f>TEXT(A190,"jj/mm/aaaa")&amp;","&amp;E190&amp;","&amp;F190&amp;","&amp;G190&amp;","&amp;H190&amp;","&amp;I190&amp;","&amp;J190&amp;","&amp;K190&amp;","&amp;L190&amp;","&amp;M190</f>
+        <f t="shared" si="3"/>
         <v>30/07/2020,1377,-75,116,167,1,14,16,0,0</v>
       </c>
     </row>
@@ -46303,8 +46456,8 @@
       <c r="C191" s="11">
         <v>3230</v>
       </c>
-      <c r="D191" s="70">
-        <f t="shared" si="1"/>
+      <c r="D191" s="67">
+        <f t="shared" si="4"/>
         <v>1.6497773056020921E-2</v>
       </c>
       <c r="E191" s="52">
@@ -46342,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="N191" s="10" t="str">
-        <f>TEXT(A191,"jj/mm/aaaa")&amp;","&amp;E191&amp;","&amp;F191&amp;","&amp;G191&amp;","&amp;H191&amp;","&amp;I191&amp;","&amp;J191&amp;","&amp;K191&amp;","&amp;L191&amp;","&amp;M191</f>
+        <f t="shared" si="3"/>
         <v>31/07/2020,1346,-77,152,214,-10,16,11,0,0</v>
       </c>
     </row>
@@ -46356,8 +46509,8 @@
       <c r="C192" s="11">
         <v>1569</v>
       </c>
-      <c r="D192" s="70">
-        <f t="shared" si="1"/>
+      <c r="D192" s="67">
+        <f t="shared" si="4"/>
         <v>1.8431718061674009E-2</v>
       </c>
       <c r="E192" s="52">
@@ -46391,7 +46544,7 @@
         <v/>
       </c>
       <c r="N192" s="10" t="str">
-        <f>TEXT(A192,"jj/mm/aaaa")&amp;","&amp;E192&amp;","&amp;F192&amp;","&amp;G192&amp;","&amp;H192&amp;","&amp;I192&amp;","&amp;J192&amp;","&amp;K192&amp;","&amp;L192&amp;","&amp;M192</f>
+        <f t="shared" si="3"/>
         <v>01/08/2020,1628,,,,,,,,</v>
       </c>
     </row>
@@ -46405,8 +46558,8 @@
       <c r="C193" s="11">
         <v>485</v>
       </c>
-      <c r="D193" s="70">
-        <f t="shared" si="1"/>
+      <c r="D193" s="67">
+        <f t="shared" si="4"/>
         <v>1.6944415330328758E-2</v>
       </c>
       <c r="E193" s="52">
@@ -46440,7 +46593,7 @@
         <v/>
       </c>
       <c r="N193" s="10" t="str">
-        <f>TEXT(A193,"jj/mm/aaaa")&amp;","&amp;E193&amp;","&amp;F193&amp;","&amp;G193&amp;","&amp;H193&amp;","&amp;I193&amp;","&amp;J193&amp;","&amp;K193&amp;","&amp;L193&amp;","&amp;M193</f>
+        <f t="shared" ref="N193:N256" si="5">TEXT(A193,"jj/mm/aaaa")&amp;","&amp;E193&amp;","&amp;F193&amp;","&amp;G193&amp;","&amp;H193&amp;","&amp;I193&amp;","&amp;J193&amp;","&amp;K193&amp;","&amp;L193&amp;","&amp;M193</f>
         <v>02/08/2020,1192,,,,,,,,</v>
       </c>
     </row>
@@ -46454,8 +46607,8 @@
       <c r="C194" s="11">
         <v>4009</v>
       </c>
-      <c r="D194" s="70">
-        <f t="shared" si="1"/>
+      <c r="D194" s="67">
+        <f t="shared" si="4"/>
         <v>2.0104307707737825E-2</v>
       </c>
       <c r="E194" s="52">
@@ -46493,7 +46646,7 @@
         <v/>
       </c>
       <c r="N194" s="10" t="str">
-        <f>TEXT(A194,"jj/mm/aaaa")&amp;","&amp;E194&amp;","&amp;F194&amp;","&amp;G194&amp;","&amp;H194&amp;","&amp;I194&amp;","&amp;J194&amp;","&amp;K194&amp;","&amp;L194&amp;","&amp;M194</f>
+        <f t="shared" si="5"/>
         <v>03/08/2020,556,,142,,,29,,,</v>
       </c>
     </row>
@@ -46507,8 +46660,8 @@
       <c r="C195" s="11">
         <v>3989</v>
       </c>
-      <c r="D195" s="70">
-        <f t="shared" si="1"/>
+      <c r="D195" s="67">
+        <f t="shared" si="4"/>
         <v>2.1028714818153542E-2</v>
       </c>
       <c r="E195" s="52">
@@ -46546,7 +46699,7 @@
         <v>-9</v>
       </c>
       <c r="N195" s="10" t="str">
-        <f>TEXT(A195,"jj/mm/aaaa")&amp;","&amp;E195&amp;","&amp;F195&amp;","&amp;G195&amp;","&amp;H195&amp;","&amp;I195&amp;","&amp;J195&amp;","&amp;K195&amp;","&amp;L195&amp;","&amp;M195</f>
+        <f t="shared" si="5"/>
         <v>04/08/2020,1039,-36,139,152,4,21,11,7,-9</v>
       </c>
     </row>
@@ -46560,8 +46713,8 @@
       <c r="C196" s="11">
         <v>3888</v>
       </c>
-      <c r="D196" s="70">
-        <f t="shared" si="1"/>
+      <c r="D196" s="67">
+        <f t="shared" si="4"/>
         <v>2.0469729755342506E-2</v>
       </c>
       <c r="E196" s="52">
@@ -46599,7 +46752,7 @@
         <v>0</v>
       </c>
       <c r="N196" s="10" t="str">
-        <f>TEXT(A196,"jj/mm/aaaa")&amp;","&amp;E196&amp;","&amp;F196&amp;","&amp;G196&amp;","&amp;H196&amp;","&amp;I196&amp;","&amp;J196&amp;","&amp;K196&amp;","&amp;L196&amp;","&amp;M196</f>
+        <f t="shared" si="5"/>
         <v>05/08/2020,1695,-14,137,142,-4,15,9,0,0</v>
       </c>
     </row>
@@ -46613,8 +46766,8 @@
       <c r="C197" s="11">
         <v>4289</v>
       </c>
-      <c r="D197" s="70">
-        <f t="shared" si="1"/>
+      <c r="D197" s="67">
+        <f t="shared" si="4"/>
         <v>2.2000625804697638E-2</v>
       </c>
       <c r="E197" s="52">
@@ -46652,7 +46805,7 @@
         <v>0</v>
       </c>
       <c r="N197" s="10" t="str">
-        <f>TEXT(A197,"jj/mm/aaaa")&amp;","&amp;E197&amp;","&amp;F197&amp;","&amp;G197&amp;","&amp;H197&amp;","&amp;I197&amp;","&amp;J197&amp;","&amp;K197&amp;","&amp;L197&amp;","&amp;M197</f>
+        <f t="shared" si="5"/>
         <v>06/08/2020,1604,-88,141,210,6,21,7,0,0</v>
       </c>
     </row>
@@ -46666,8 +46819,8 @@
       <c r="C198" s="11">
         <v>4540</v>
       </c>
-      <c r="D198" s="70">
-        <f t="shared" si="1"/>
+      <c r="D198" s="67">
+        <f t="shared" si="4"/>
         <v>2.2892410712034652E-2</v>
       </c>
       <c r="E198" s="52">
@@ -46705,7 +46858,7 @@
         <v>0</v>
       </c>
       <c r="N198" s="10" t="str">
-        <f>TEXT(A198,"jj/mm/aaaa")&amp;","&amp;E198&amp;","&amp;F198&amp;","&amp;G198&amp;","&amp;H198&amp;","&amp;I198&amp;","&amp;J198&amp;","&amp;K198&amp;","&amp;L198&amp;","&amp;M198</f>
+        <f t="shared" si="5"/>
         <v>07/08/2020,2288,-49,136,166,-7,20,12,0,0</v>
       </c>
     </row>
@@ -46719,8 +46872,8 @@
       <c r="C199" s="11">
         <v>1984</v>
       </c>
-      <c r="D199" s="70">
-        <f t="shared" si="1"/>
+      <c r="D199" s="67">
+        <f t="shared" si="4"/>
         <v>2.2537515193511378E-2</v>
       </c>
       <c r="E199" s="52">
@@ -46754,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="N199" s="10" t="str">
-        <f>TEXT(A199,"jj/mm/aaaa")&amp;","&amp;E199&amp;","&amp;F199&amp;","&amp;G199&amp;","&amp;H199&amp;","&amp;I199&amp;","&amp;J199&amp;","&amp;K199&amp;","&amp;L199&amp;","&amp;M199</f>
+        <f t="shared" si="5"/>
         <v>08/08/2020,2184,,,,,,,0,0</v>
       </c>
     </row>
@@ -46768,8 +46921,8 @@
       <c r="C200" s="11">
         <v>874</v>
       </c>
-      <c r="D200" s="70">
-        <f t="shared" si="1"/>
+      <c r="D200" s="67">
+        <f t="shared" si="4"/>
         <v>2.9553985053934331E-2</v>
       </c>
       <c r="E200" s="52">
@@ -46803,7 +46956,7 @@
         <v>0</v>
       </c>
       <c r="N200" s="10" t="str">
-        <f>TEXT(A200,"jj/mm/aaaa")&amp;","&amp;E200&amp;","&amp;F200&amp;","&amp;G200&amp;","&amp;H200&amp;","&amp;I200&amp;","&amp;J200&amp;","&amp;K200&amp;","&amp;L200&amp;","&amp;M200</f>
+        <f t="shared" si="5"/>
         <v>09/08/2020,1885,,,,,,,0,0</v>
       </c>
     </row>
@@ -46817,8 +46970,8 @@
       <c r="C201" s="11">
         <v>5597</v>
       </c>
-      <c r="D201" s="70">
-        <f t="shared" si="1"/>
+      <c r="D201" s="67">
+        <f t="shared" si="4"/>
         <v>2.7596578162364716E-2</v>
       </c>
       <c r="E201" s="52">
@@ -46856,7 +47009,7 @@
         <v>0</v>
       </c>
       <c r="N201" s="10" t="str">
-        <f>TEXT(A201,"jj/mm/aaaa")&amp;","&amp;E201&amp;","&amp;F201&amp;","&amp;G201&amp;","&amp;H201&amp;","&amp;I201&amp;","&amp;J201&amp;","&amp;K201&amp;","&amp;L201&amp;","&amp;M201</f>
+        <f t="shared" si="5"/>
         <v>10/08/2020,785,,180,,,28,,0,0</v>
       </c>
     </row>
@@ -46870,8 +47023,8 @@
       <c r="C202" s="11">
         <v>5338</v>
       </c>
-      <c r="D202" s="70">
-        <f t="shared" si="1"/>
+      <c r="D202" s="67">
+        <f t="shared" si="4"/>
         <v>2.8799102253537844E-2</v>
       </c>
       <c r="E202" s="52">
@@ -46909,7 +47062,7 @@
         <v>-1</v>
       </c>
       <c r="N202" s="10" t="str">
-        <f>TEXT(A202,"jj/mm/aaaa")&amp;","&amp;E202&amp;","&amp;F202&amp;","&amp;G202&amp;","&amp;H202&amp;","&amp;I202&amp;","&amp;J202&amp;","&amp;K202&amp;","&amp;L202&amp;","&amp;M202</f>
+        <f t="shared" si="5"/>
         <v>11/08/2020,1397,-33,191,190,-5,21,15,99,-1</v>
       </c>
     </row>
@@ -46923,8 +47076,8 @@
       <c r="C203" s="11">
         <v>5748</v>
       </c>
-      <c r="D203" s="70">
-        <f t="shared" si="1"/>
+      <c r="D203" s="67">
+        <f t="shared" si="4"/>
         <v>2.9750166917690168E-2</v>
       </c>
       <c r="E203" s="52">
@@ -46962,7 +47115,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="10" t="str">
-        <f>TEXT(A203,"jj/mm/aaaa")&amp;","&amp;E203&amp;","&amp;F203&amp;","&amp;G203&amp;","&amp;H203&amp;","&amp;I203&amp;","&amp;J203&amp;","&amp;K203&amp;","&amp;L203&amp;","&amp;M203</f>
+        <f t="shared" si="5"/>
         <v>12/08/2020,2524,-121,143,235,-12,17,17,0,0</v>
       </c>
     </row>
@@ -46976,8 +47129,8 @@
       <c r="C204" s="11">
         <v>7058</v>
       </c>
-      <c r="D204" s="70">
-        <f t="shared" si="1"/>
+      <c r="D204" s="67">
+        <f t="shared" si="4"/>
         <v>3.3408753112249244E-2</v>
       </c>
       <c r="E204" s="52">
@@ -47015,7 +47168,7 @@
         <v>0</v>
       </c>
       <c r="N204" s="10" t="str">
-        <f>TEXT(A204,"jj/mm/aaaa")&amp;","&amp;E204&amp;","&amp;F204&amp;","&amp;G204&amp;","&amp;H204&amp;","&amp;I204&amp;","&amp;J204&amp;","&amp;K204&amp;","&amp;L204&amp;","&amp;M204</f>
+        <f t="shared" si="5"/>
         <v>13/08/2020,2669,-27,201,191,-5,25,17,0,0</v>
       </c>
     </row>
@@ -47029,8 +47182,8 @@
       <c r="C205" s="11">
         <v>7714</v>
       </c>
-      <c r="D205" s="70">
-        <f t="shared" si="1"/>
+      <c r="D205" s="67">
+        <f t="shared" si="4"/>
         <v>3.3241116598150496E-2</v>
       </c>
       <c r="E205" s="52">
@@ -47068,7 +47221,7 @@
         <v>0</v>
       </c>
       <c r="N205" s="10" t="str">
-        <f>TEXT(A205,"jj/mm/aaaa")&amp;","&amp;E205&amp;","&amp;F205&amp;","&amp;G205&amp;","&amp;H205&amp;","&amp;I205&amp;","&amp;J205&amp;","&amp;K205&amp;","&amp;L205&amp;","&amp;M205</f>
+        <f t="shared" si="5"/>
         <v>14/08/2020,2846,-36,173,185,-7,20,18,0,0</v>
       </c>
     </row>
@@ -47082,8 +47235,8 @@
       <c r="C206" s="11">
         <v>1518</v>
       </c>
-      <c r="D206" s="70">
-        <f t="shared" si="1"/>
+      <c r="D206" s="67">
+        <f t="shared" si="4"/>
         <v>3.2673970597731333E-2</v>
       </c>
       <c r="E206" s="52">
@@ -47121,7 +47274,7 @@
         <v>0</v>
       </c>
       <c r="N206" s="10" t="str">
-        <f>TEXT(A206,"jj/mm/aaaa")&amp;","&amp;E206&amp;","&amp;F206&amp;","&amp;G206&amp;","&amp;H206&amp;","&amp;I206&amp;","&amp;J206&amp;","&amp;K206&amp;","&amp;L206&amp;","&amp;M206</f>
+        <f t="shared" si="5"/>
         <v>15/08/2020,3310,,87,,,15,3,0,0</v>
       </c>
     </row>
@@ -47135,8 +47288,8 @@
       <c r="C207" s="11">
         <v>1374</v>
       </c>
-      <c r="D207" s="70">
-        <f t="shared" si="1"/>
+      <c r="D207" s="67">
+        <f t="shared" si="4"/>
         <v>3.6087618847507483E-2</v>
       </c>
       <c r="E207" s="52">
@@ -47174,7 +47327,7 @@
         <v>0</v>
       </c>
       <c r="N207" s="10" t="str">
-        <f>TEXT(A207,"jj/mm/aaaa")&amp;","&amp;E207&amp;","&amp;F207&amp;","&amp;G207&amp;","&amp;H207&amp;","&amp;I207&amp;","&amp;J207&amp;","&amp;K207&amp;","&amp;L207&amp;","&amp;M207</f>
+        <f t="shared" si="5"/>
         <v>16/08/2020,3015,,33,,,2,1,0,0</v>
       </c>
     </row>
@@ -47188,8 +47341,8 @@
       <c r="C208" s="11">
         <v>9980</v>
       </c>
-      <c r="D208" s="70">
-        <f t="shared" si="1"/>
+      <c r="D208" s="67">
+        <f t="shared" si="4"/>
         <v>3.7549146866828455E-2</v>
       </c>
       <c r="E208" s="52">
@@ -47227,7 +47380,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="10" t="str">
-        <f>TEXT(A208,"jj/mm/aaaa")&amp;","&amp;E208&amp;","&amp;F208&amp;","&amp;G208&amp;","&amp;H208&amp;","&amp;I208&amp;","&amp;J208&amp;","&amp;K208&amp;","&amp;L208&amp;","&amp;M208</f>
+        <f t="shared" si="5"/>
         <v>17/08/2020,493,,234,,,34,19,0,0</v>
       </c>
     </row>
@@ -47241,8 +47394,8 @@
       <c r="C209" s="11">
         <v>9378</v>
       </c>
-      <c r="D209" s="70">
-        <f t="shared" si="1"/>
+      <c r="D209" s="67">
+        <f t="shared" si="4"/>
         <v>3.7055915788475446E-2</v>
       </c>
       <c r="E209" s="52">
@@ -47280,7 +47433,7 @@
         <v>6</v>
       </c>
       <c r="N209" s="10" t="str">
-        <f>TEXT(A209,"jj/mm/aaaa")&amp;","&amp;E209&amp;","&amp;F209&amp;","&amp;G209&amp;","&amp;H209&amp;","&amp;I209&amp;","&amp;J209&amp;","&amp;K209&amp;","&amp;L209&amp;","&amp;M209</f>
+        <f t="shared" si="5"/>
         <v>18/08/2020,2238,-102,185,244,-4,28,16,186,6</v>
       </c>
     </row>
@@ -47294,8 +47447,8 @@
       <c r="C210" s="11">
         <v>9633</v>
       </c>
-      <c r="D210" s="70">
-        <f t="shared" si="1"/>
+      <c r="D210" s="67">
+        <f t="shared" si="4"/>
         <v>3.8576749028873494E-2</v>
       </c>
       <c r="E210" s="52">
@@ -47333,7 +47486,7 @@
         <v>0</v>
       </c>
       <c r="N210" s="10" t="str">
-        <f>TEXT(A210,"jj/mm/aaaa")&amp;","&amp;E210&amp;","&amp;F210&amp;","&amp;G210&amp;","&amp;H210&amp;","&amp;I210&amp;","&amp;J210&amp;","&amp;K210&amp;","&amp;L210&amp;","&amp;M210</f>
+        <f t="shared" si="5"/>
         <v>19/08/2020,3776,-17,162,158,-6,31,17,0,0</v>
       </c>
     </row>
@@ -47347,8 +47500,8 @@
       <c r="C211" s="11">
         <v>10182</v>
       </c>
-      <c r="D211" s="70">
-        <f t="shared" si="1"/>
+      <c r="D211" s="67">
+        <f t="shared" si="4"/>
         <v>3.8409306957584537E-2</v>
       </c>
       <c r="E211" s="52">
@@ -47386,7 +47539,7 @@
         <v>0</v>
       </c>
       <c r="N211" s="10" t="str">
-        <f>TEXT(A211,"jj/mm/aaaa")&amp;","&amp;E211&amp;","&amp;F211&amp;","&amp;G211&amp;","&amp;H211&amp;","&amp;I211&amp;","&amp;J211&amp;","&amp;K211&amp;","&amp;L211&amp;","&amp;M211</f>
+        <f t="shared" si="5"/>
         <v>20/08/2020,4771,-58,149,175,6,28,12,0,0</v>
       </c>
     </row>
@@ -47400,8 +47553,8 @@
       <c r="C212" s="11">
         <v>10169</v>
       </c>
-      <c r="D212" s="70">
-        <f t="shared" si="1"/>
+      <c r="D212" s="67">
+        <f t="shared" si="4"/>
         <v>3.5519927346397008E-2</v>
       </c>
       <c r="E212" s="52">
@@ -47439,7 +47592,7 @@
         <v>0</v>
       </c>
       <c r="N212" s="10" t="str">
-        <f>TEXT(A212,"jj/mm/aaaa")&amp;","&amp;E212&amp;","&amp;F212&amp;","&amp;G212&amp;","&amp;H212&amp;","&amp;I212&amp;","&amp;J212&amp;","&amp;K212&amp;","&amp;L212&amp;","&amp;M212</f>
+        <f t="shared" si="5"/>
         <v>21/08/2020,4586,-3,210,187,-1,37,23,0,0</v>
       </c>
     </row>
@@ -47453,8 +47606,8 @@
       <c r="C213" s="11">
         <v>4438</v>
       </c>
-      <c r="D213" s="70">
-        <f t="shared" si="1"/>
+      <c r="D213" s="67">
+        <f t="shared" si="4"/>
         <v>3.6615349075128291E-2</v>
       </c>
       <c r="E213" s="52">
@@ -47492,7 +47645,7 @@
         <v>0</v>
       </c>
       <c r="N213" s="10" t="str">
-        <f>TEXT(A213,"jj/mm/aaaa")&amp;","&amp;E213&amp;","&amp;F213&amp;","&amp;G213&amp;","&amp;H213&amp;","&amp;I213&amp;","&amp;J213&amp;","&amp;K213&amp;","&amp;L213&amp;","&amp;M213</f>
+        <f t="shared" si="5"/>
         <v>22/08/2020,3602,-34,115,121,1,10,9,0,0</v>
       </c>
     </row>
@@ -47506,8 +47659,8 @@
       <c r="C214" s="11">
         <v>1994</v>
       </c>
-      <c r="D214" s="70">
-        <f t="shared" si="1"/>
+      <c r="D214" s="67">
+        <f t="shared" si="4"/>
         <v>4.9634091701100211E-2</v>
       </c>
       <c r="E214" s="52">
@@ -47545,7 +47698,7 @@
         <v>0</v>
       </c>
       <c r="N214" s="10" t="str">
-        <f>TEXT(A214,"jj/mm/aaaa")&amp;","&amp;E214&amp;","&amp;F214&amp;","&amp;G214&amp;","&amp;H214&amp;","&amp;I214&amp;","&amp;J214&amp;","&amp;K214&amp;","&amp;L214&amp;","&amp;M214</f>
+        <f t="shared" si="5"/>
         <v>23/08/2020,4897,-2,29,23,3,6,1,0,0</v>
       </c>
     </row>
@@ -47559,8 +47712,8 @@
       <c r="C215" s="11">
         <v>13851</v>
       </c>
-      <c r="D215" s="70">
-        <f t="shared" si="1"/>
+      <c r="D215" s="67">
+        <f t="shared" si="4"/>
         <v>4.3489454961050708E-2</v>
       </c>
       <c r="E215" s="52">
@@ -47598,7 +47751,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="10" t="str">
-        <f>TEXT(A215,"jj/mm/aaaa")&amp;","&amp;E215&amp;","&amp;F215&amp;","&amp;G215&amp;","&amp;H215&amp;","&amp;I215&amp;","&amp;J215&amp;","&amp;K215&amp;","&amp;L215&amp;","&amp;M215</f>
+        <f t="shared" si="5"/>
         <v>24/08/2020,1955,-19,233,226,16,43,15,0,0</v>
       </c>
     </row>
@@ -47612,8 +47765,8 @@
       <c r="C216" s="11">
         <v>13392</v>
       </c>
-      <c r="D216" s="70">
-        <f t="shared" si="1"/>
+      <c r="D216" s="67">
+        <f t="shared" si="4"/>
         <v>4.4030616270811965E-2</v>
       </c>
       <c r="E216" s="52">
@@ -47651,7 +47804,7 @@
         <v>-5</v>
       </c>
       <c r="N216" s="10" t="str">
-        <f>TEXT(A216,"jj/mm/aaaa")&amp;","&amp;E216&amp;","&amp;F216&amp;","&amp;G216&amp;","&amp;H216&amp;","&amp;I216&amp;","&amp;J216&amp;","&amp;K216&amp;","&amp;L216&amp;","&amp;M216</f>
+        <f t="shared" si="5"/>
         <v>25/08/2020,3304,-90,265,325,11,49,21,113,-5</v>
       </c>
     </row>
@@ -47665,8 +47818,8 @@
       <c r="C217" s="11">
         <v>13168</v>
       </c>
-      <c r="D217" s="70">
-        <f t="shared" si="1"/>
+      <c r="D217" s="67">
+        <f t="shared" si="4"/>
         <v>4.2503058296456252E-2</v>
       </c>
       <c r="E217" s="52">
@@ -47704,7 +47857,7 @@
         <v>0</v>
       </c>
       <c r="N217" s="10" t="str">
-        <f>TEXT(A217,"jj/mm/aaaa")&amp;","&amp;E217&amp;","&amp;F217&amp;","&amp;G217&amp;","&amp;H217&amp;","&amp;I217&amp;","&amp;J217&amp;","&amp;K217&amp;","&amp;L217&amp;","&amp;M217</f>
+        <f t="shared" si="5"/>
         <v>26/08/2020,5429,,215,,,21,,0,0</v>
       </c>
     </row>
@@ -47718,8 +47871,8 @@
       <c r="C218" s="11">
         <v>14654</v>
       </c>
-      <c r="D218" s="70">
-        <f t="shared" si="1"/>
+      <c r="D218" s="67">
+        <f t="shared" si="4"/>
         <v>4.3997285823230231E-2</v>
       </c>
       <c r="E218" s="52">
@@ -47757,7 +47910,7 @@
         <v>0</v>
       </c>
       <c r="N218" s="10" t="str">
-        <f>TEXT(A218,"jj/mm/aaaa")&amp;","&amp;E218&amp;","&amp;F218&amp;","&amp;G218&amp;","&amp;H218&amp;","&amp;I218&amp;","&amp;J218&amp;","&amp;K218&amp;","&amp;L218&amp;","&amp;M218</f>
+        <f t="shared" si="5"/>
         <v>27/08/2020,6111,,225,,,32,,0,0</v>
       </c>
     </row>
@@ -47771,8 +47924,8 @@
       <c r="C219" s="11">
         <v>15048</v>
       </c>
-      <c r="D219" s="70">
-        <f t="shared" si="1"/>
+      <c r="D219" s="67">
+        <f t="shared" si="4"/>
         <v>4.3567635801432567E-2</v>
       </c>
       <c r="E219" s="52">
@@ -47810,7 +47963,7 @@
         <v>1</v>
       </c>
       <c r="N219" s="10" t="str">
-        <f>TEXT(A219,"jj/mm/aaaa")&amp;","&amp;E219&amp;","&amp;F219&amp;","&amp;G219&amp;","&amp;H219&amp;","&amp;I219&amp;","&amp;J219&amp;","&amp;K219&amp;","&amp;L219&amp;","&amp;M219</f>
+        <f t="shared" si="5"/>
         <v>28/08/2020,7379,0,241,193,6,32,19,40,1</v>
       </c>
     </row>
@@ -47824,8 +47977,8 @@
       <c r="C220" s="11">
         <v>5944</v>
       </c>
-      <c r="D220" s="70">
-        <f t="shared" si="1"/>
+      <c r="D220" s="67">
+        <f t="shared" si="4"/>
         <v>4.0563411038925586E-2</v>
       </c>
       <c r="E220" s="52">
@@ -47863,7 +48016,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="10" t="str">
-        <f>TEXT(A220,"jj/mm/aaaa")&amp;","&amp;E220&amp;","&amp;F220&amp;","&amp;G220&amp;","&amp;H220&amp;","&amp;I220&amp;","&amp;J220&amp;","&amp;K220&amp;","&amp;L220&amp;","&amp;M220</f>
+        <f t="shared" si="5"/>
         <v>29/08/2020,5453,-5,135,121,13,28,6,0,0</v>
       </c>
     </row>
@@ -47877,8 +48030,8 @@
       <c r="C221" s="11">
         <v>2601</v>
       </c>
-      <c r="D221" s="70">
-        <f t="shared" si="1"/>
+      <c r="D221" s="67">
+        <f t="shared" si="4"/>
         <v>5.524052245938197E-2</v>
       </c>
       <c r="E221" s="52">
@@ -47916,7 +48069,7 @@
         <v>0</v>
       </c>
       <c r="N221" s="10" t="str">
-        <f>TEXT(A221,"jj/mm/aaaa")&amp;","&amp;E221&amp;","&amp;F221&amp;","&amp;G221&amp;","&amp;H221&amp;","&amp;I221&amp;","&amp;J221&amp;","&amp;K221&amp;","&amp;L221&amp;","&amp;M221</f>
+        <f t="shared" si="5"/>
         <v>30/08/2020,5413,5,23,12,2,5,4,0,0</v>
       </c>
     </row>
@@ -47930,8 +48083,8 @@
       <c r="C222" s="11">
         <v>18340</v>
       </c>
-      <c r="D222" s="70">
-        <f t="shared" si="1"/>
+      <c r="D222" s="67">
+        <f t="shared" si="4"/>
         <v>5.0494482500385456E-2</v>
       </c>
       <c r="E222" s="52">
@@ -47969,7 +48122,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="10" t="str">
-        <f>TEXT(A222,"jj/mm/aaaa")&amp;","&amp;E222&amp;","&amp;F222&amp;","&amp;G222&amp;","&amp;H222&amp;","&amp;I222&amp;","&amp;J222&amp;","&amp;K222&amp;","&amp;L222&amp;","&amp;M222</f>
+        <f t="shared" si="5"/>
         <v>31/08/2020,3082,47,254,159,7,45,29,0,0</v>
       </c>
     </row>
@@ -47983,8 +48136,8 @@
       <c r="C223" s="11">
         <v>16381</v>
       </c>
-      <c r="D223" s="70">
-        <f t="shared" si="1"/>
+      <c r="D223" s="67">
+        <f t="shared" si="4"/>
         <v>5.2076743335823621E-2</v>
       </c>
       <c r="E223" s="52">
@@ -48022,7 +48175,7 @@
         <v>7</v>
       </c>
       <c r="N223" s="10" t="str">
-        <f>TEXT(A223,"jj/mm/aaaa")&amp;","&amp;E223&amp;","&amp;F223&amp;","&amp;G223&amp;","&amp;H223&amp;","&amp;I223&amp;","&amp;J223&amp;","&amp;K223&amp;","&amp;L223&amp;","&amp;M223</f>
+        <f t="shared" si="5"/>
         <v>01/09/2020,4982,22,300,243,15,54,19,217,7</v>
       </c>
     </row>
@@ -48036,8 +48189,8 @@
       <c r="C224" s="11">
         <v>16031</v>
       </c>
-      <c r="D224" s="70">
-        <f t="shared" si="1"/>
+      <c r="D224" s="67">
+        <f t="shared" si="4"/>
         <v>5.3430789279845882E-2</v>
       </c>
       <c r="E224" s="52">
@@ -48075,7 +48228,7 @@
         <v>0</v>
       </c>
       <c r="N224" s="10" t="str">
-        <f>TEXT(A224,"jj/mm/aaaa")&amp;","&amp;E224&amp;","&amp;F224&amp;","&amp;G224&amp;","&amp;H224&amp;","&amp;I224&amp;","&amp;J224&amp;","&amp;K224&amp;","&amp;L224&amp;","&amp;M224</f>
+        <f t="shared" si="5"/>
         <v>02/09/2020,7017,28,317,251,22,57,25,0,0</v>
       </c>
     </row>
@@ -48089,8 +48242,8 @@
       <c r="C225" s="11">
         <v>16260</v>
       </c>
-      <c r="D225" s="70">
-        <f t="shared" si="1"/>
+      <c r="D225" s="67">
+        <f t="shared" si="4"/>
         <v>5.3990337522620488E-2</v>
       </c>
       <c r="E225" s="52">
@@ -48128,7 +48281,7 @@
         <v>0</v>
       </c>
       <c r="N225" s="10" t="str">
-        <f>TEXT(A225,"jj/mm/aaaa")&amp;","&amp;E225&amp;","&amp;F225&amp;","&amp;G225&amp;","&amp;H225&amp;","&amp;I225&amp;","&amp;J225&amp;","&amp;K225&amp;","&amp;L225&amp;","&amp;M225</f>
+        <f t="shared" si="5"/>
         <v>03/09/2020,7157,11,307,243,18,55,20,0,0</v>
       </c>
     </row>
@@ -48142,8 +48295,8 @@
       <c r="C226" s="11">
         <v>15733</v>
       </c>
-      <c r="D226" s="70">
-        <f t="shared" si="1"/>
+      <c r="D226" s="67">
+        <f t="shared" si="4"/>
         <v>5.1418897498831613E-2</v>
       </c>
       <c r="E226" s="52">
@@ -48181,7 +48334,7 @@
         <v>-38</v>
       </c>
       <c r="N226" s="10" t="str">
-        <f>TEXT(A226,"jj/mm/aaaa")&amp;","&amp;E226&amp;","&amp;F226&amp;","&amp;G226&amp;","&amp;H226&amp;","&amp;I226&amp;","&amp;J226&amp;","&amp;K226&amp;","&amp;L226&amp;","&amp;M226</f>
+        <f t="shared" si="5"/>
         <v>04/09/2020,8975,28,292,241,9,46,18,0,-38</v>
       </c>
     </row>
@@ -48195,8 +48348,8 @@
       <c r="C227" s="11">
         <v>5516</v>
       </c>
-      <c r="D227" s="70">
-        <f t="shared" si="1"/>
+      <c r="D227" s="67">
+        <f t="shared" si="4"/>
         <v>4.6707367672337144E-2</v>
       </c>
       <c r="E227" s="52">
@@ -48234,7 +48387,7 @@
         <v>0</v>
       </c>
       <c r="N227" s="10" t="str">
-        <f>TEXT(A227,"jj/mm/aaaa")&amp;","&amp;E227&amp;","&amp;F227&amp;","&amp;G227&amp;","&amp;H227&amp;","&amp;I227&amp;","&amp;J227&amp;","&amp;K227&amp;","&amp;L227&amp;","&amp;M227</f>
+        <f t="shared" si="5"/>
         <v>05/09/2020,8550,168,168,132,9,23,12,0,0</v>
       </c>
     </row>
@@ -48242,9 +48395,16 @@
       <c r="A228" s="12">
         <v>44080</v>
       </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="70"/>
+      <c r="B228" s="11">
+        <v>46051</v>
+      </c>
+      <c r="C228" s="11">
+        <v>2892</v>
+      </c>
+      <c r="D228" s="67">
+        <f t="shared" si="4"/>
+        <v>6.2799939197845864E-2</v>
+      </c>
       <c r="E228" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B228),"",IF(ISBLANK('Totaux nationaux bruts'!B227),"",'Totaux nationaux bruts'!B228-'Totaux nationaux bruts'!B227))</f>
         <v>7071</v>
@@ -48280,7 +48440,7 @@
         <v>0</v>
       </c>
       <c r="N228" s="10" t="str">
-        <f>TEXT(A228,"jj/mm/aaaa")&amp;","&amp;E228&amp;","&amp;F228&amp;","&amp;G228&amp;","&amp;H228&amp;","&amp;I228&amp;","&amp;J228&amp;","&amp;K228&amp;","&amp;L228&amp;","&amp;M228</f>
+        <f t="shared" si="5"/>
         <v>06/09/2020,7071,66,66,29,4,8,3,0,0</v>
       </c>
     </row>
@@ -48288,9 +48448,16 @@
       <c r="A229" s="12">
         <v>44081</v>
       </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="70"/>
+      <c r="B229" s="11">
+        <v>379267</v>
+      </c>
+      <c r="C229" s="11">
+        <v>21948</v>
+      </c>
+      <c r="D229" s="67">
+        <f t="shared" si="4"/>
+        <v>5.7869521999013886E-2</v>
+      </c>
       <c r="E229" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B229),"",IF(ISBLANK('Totaux nationaux bruts'!B228),"",'Totaux nationaux bruts'!B229-'Totaux nationaux bruts'!B228))</f>
         <v>4203</v>
@@ -48326,7 +48493,7 @@
         <v>0</v>
       </c>
       <c r="N229" s="10" t="str">
-        <f>TEXT(A229,"jj/mm/aaaa")&amp;","&amp;E229&amp;","&amp;F229&amp;","&amp;G229&amp;","&amp;H229&amp;","&amp;I229&amp;","&amp;J229&amp;","&amp;K229&amp;","&amp;L229&amp;","&amp;M229</f>
+        <f t="shared" si="5"/>
         <v>07/09/2020,4203,2,448,228,51,83,25,0,0</v>
       </c>
     </row>
@@ -48334,9 +48501,16 @@
       <c r="A230" s="12">
         <v>44082</v>
       </c>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="70"/>
+      <c r="B230" s="11">
+        <v>359179</v>
+      </c>
+      <c r="C230" s="11">
+        <v>19439</v>
+      </c>
+      <c r="D230" s="67">
+        <f t="shared" si="4"/>
+        <v>5.4120647365241289E-2</v>
+      </c>
       <c r="E230" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B230),"",IF(ISBLANK('Totaux nationaux bruts'!B229),"",'Totaux nationaux bruts'!B230-'Totaux nationaux bruts'!B229))</f>
         <v>6544</v>
@@ -48372,7 +48546,7 @@
         <v>-1</v>
       </c>
       <c r="N230" s="10" t="str">
-        <f>TEXT(A230,"jj/mm/aaaa")&amp;","&amp;E230&amp;","&amp;F230&amp;","&amp;G230&amp;","&amp;H230&amp;","&amp;I230&amp;","&amp;J230&amp;","&amp;K230&amp;","&amp;L230&amp;","&amp;M230</f>
+        <f t="shared" si="5"/>
         <v>08/09/2020,6544,53,490,390,37,86,39,576,-1</v>
       </c>
     </row>
@@ -48380,84 +48554,106 @@
       <c r="A231" s="12">
         <v>44083</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="52" t="str">
+      <c r="B231" s="11">
+        <v>324158</v>
+      </c>
+      <c r="C231" s="11">
+        <v>17289</v>
+      </c>
+      <c r="D231" s="67">
+        <f t="shared" si="4"/>
+        <v>5.3335102018151642E-2</v>
+      </c>
+      <c r="E231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B231),"",IF(ISBLANK('Totaux nationaux bruts'!B230),"",'Totaux nationaux bruts'!B231-'Totaux nationaux bruts'!B230))</f>
-        <v/>
-      </c>
-      <c r="F231" s="52" t="str">
+        <v>8577</v>
+      </c>
+      <c r="F231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C231),"",IF(ISBLANK('Totaux nationaux bruts'!C230),"",'Totaux nationaux bruts'!C231-'Totaux nationaux bruts'!C230))</f>
-        <v/>
-      </c>
-      <c r="G231" s="52"/>
-      <c r="H231" s="52" t="str">
+        <v>43</v>
+      </c>
+      <c r="G231" s="52">
+        <v>386</v>
+      </c>
+      <c r="H231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D231),"",IF(ISBLANK('Totaux nationaux bruts'!D230),"",'Totaux nationaux bruts'!D231-'Totaux nationaux bruts'!D230))</f>
-        <v/>
-      </c>
-      <c r="I231" s="52" t="str">
+        <v>298</v>
+      </c>
+      <c r="I231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E231),"",IF(ISBLANK('Totaux nationaux bruts'!E230),"",'Totaux nationaux bruts'!E231-'Totaux nationaux bruts'!E230))</f>
-        <v/>
-      </c>
-      <c r="J231" s="52"/>
-      <c r="K231" s="52" t="str">
+        <v>25</v>
+      </c>
+      <c r="J231" s="52">
+        <v>71</v>
+      </c>
+      <c r="K231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F231),"",IF(ISBLANK('Totaux nationaux bruts'!F230),"",'Totaux nationaux bruts'!F231-'Totaux nationaux bruts'!F230))</f>
-        <v/>
-      </c>
-      <c r="L231" s="52" t="str">
+        <v>30</v>
+      </c>
+      <c r="L231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G231),"",IF(ISBLANK('Totaux nationaux bruts'!G230),"",'Totaux nationaux bruts'!G231-'Totaux nationaux bruts'!G230))</f>
-        <v/>
-      </c>
-      <c r="M231" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H231),"",IF(ISBLANK('Totaux nationaux bruts'!H230),"",'Totaux nationaux bruts'!H231-'Totaux nationaux bruts'!H230))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N231" s="10" t="str">
-        <f>TEXT(A231,"jj/mm/aaaa")&amp;","&amp;E231&amp;","&amp;F231&amp;","&amp;G231&amp;","&amp;H231&amp;","&amp;I231&amp;","&amp;J231&amp;","&amp;K231&amp;","&amp;L231&amp;","&amp;M231</f>
-        <v>09/09/2020,,,,,,,,,</v>
+        <f t="shared" si="5"/>
+        <v>09/09/2020,8577,43,386,298,25,71,30,0,0</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>44084</v>
       </c>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="52" t="str">
+      <c r="B232" s="11">
+        <v>277652</v>
+      </c>
+      <c r="C232" s="11">
+        <v>14042</v>
+      </c>
+      <c r="D232" s="67">
+        <f t="shared" si="4"/>
+        <v>5.0574099952458471E-2</v>
+      </c>
+      <c r="E232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B232),"",IF(ISBLANK('Totaux nationaux bruts'!B231),"",'Totaux nationaux bruts'!B232-'Totaux nationaux bruts'!B231))</f>
-        <v/>
-      </c>
-      <c r="F232" s="52" t="str">
+        <v>9843</v>
+      </c>
+      <c r="F232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C232),"",IF(ISBLANK('Totaux nationaux bruts'!C231),"",'Totaux nationaux bruts'!C232-'Totaux nationaux bruts'!C231))</f>
-        <v/>
-      </c>
-      <c r="G232" s="52"/>
-      <c r="H232" s="52" t="str">
+        <v>93</v>
+      </c>
+      <c r="G232" s="52">
+        <v>352</v>
+      </c>
+      <c r="H232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D232),"",IF(ISBLANK('Totaux nationaux bruts'!D231),"",'Totaux nationaux bruts'!D232-'Totaux nationaux bruts'!D231))</f>
-        <v/>
-      </c>
-      <c r="I232" s="52" t="str">
+        <v>218</v>
+      </c>
+      <c r="I232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E232),"",IF(ISBLANK('Totaux nationaux bruts'!E231),"",'Totaux nationaux bruts'!E232-'Totaux nationaux bruts'!E231))</f>
-        <v/>
-      </c>
-      <c r="J232" s="52"/>
-      <c r="K232" s="52" t="str">
+        <v>16</v>
+      </c>
+      <c r="J232" s="52">
+        <v>54</v>
+      </c>
+      <c r="K232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F232),"",IF(ISBLANK('Totaux nationaux bruts'!F231),"",'Totaux nationaux bruts'!F232-'Totaux nationaux bruts'!F231))</f>
-        <v/>
-      </c>
-      <c r="L232" s="52" t="str">
+        <v>19</v>
+      </c>
+      <c r="L232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G232),"",IF(ISBLANK('Totaux nationaux bruts'!G231),"",'Totaux nationaux bruts'!G232-'Totaux nationaux bruts'!G231))</f>
-        <v/>
-      </c>
-      <c r="M232" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H232),"",IF(ISBLANK('Totaux nationaux bruts'!H231),"",'Totaux nationaux bruts'!H232-'Totaux nationaux bruts'!H231))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N232" s="10" t="str">
-        <f>TEXT(A232,"jj/mm/aaaa")&amp;","&amp;E232&amp;","&amp;F232&amp;","&amp;G232&amp;","&amp;H232&amp;","&amp;I232&amp;","&amp;J232&amp;","&amp;K232&amp;","&amp;L232&amp;","&amp;M232</f>
-        <v>10/09/2020,,,,,,,,,</v>
+        <f t="shared" si="5"/>
+        <v>10/09/2020,9843,93,352,218,16,54,19,0,0</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -48467,39 +48663,43 @@
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
-      <c r="E233" s="52" t="str">
+      <c r="E233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B233),"",IF(ISBLANK('Totaux nationaux bruts'!B232),"",'Totaux nationaux bruts'!B233-'Totaux nationaux bruts'!B232))</f>
-        <v/>
-      </c>
-      <c r="F233" s="52" t="str">
+        <v>9406</v>
+      </c>
+      <c r="F233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C233),"",IF(ISBLANK('Totaux nationaux bruts'!C232),"",'Totaux nationaux bruts'!C233-'Totaux nationaux bruts'!C232))</f>
-        <v/>
-      </c>
-      <c r="G233" s="52"/>
-      <c r="H233" s="52" t="str">
+        <v>59</v>
+      </c>
+      <c r="G233" s="52">
+        <v>447</v>
+      </c>
+      <c r="H233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D233),"",IF(ISBLANK('Totaux nationaux bruts'!D232),"",'Totaux nationaux bruts'!D233-'Totaux nationaux bruts'!D232))</f>
-        <v/>
-      </c>
-      <c r="I233" s="52" t="str">
+        <v>317</v>
+      </c>
+      <c r="I233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E233),"",IF(ISBLANK('Totaux nationaux bruts'!E232),"",'Totaux nationaux bruts'!E233-'Totaux nationaux bruts'!E232))</f>
-        <v/>
-      </c>
-      <c r="J233" s="52"/>
-      <c r="K233" s="52" t="str">
+        <v>20</v>
+      </c>
+      <c r="J233" s="52">
+        <v>64</v>
+      </c>
+      <c r="K233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F233),"",IF(ISBLANK('Totaux nationaux bruts'!F232),"",'Totaux nationaux bruts'!F233-'Totaux nationaux bruts'!F232))</f>
-        <v/>
-      </c>
-      <c r="L233" s="52" t="str">
+        <v>40</v>
+      </c>
+      <c r="L233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G233),"",IF(ISBLANK('Totaux nationaux bruts'!G232),"",'Totaux nationaux bruts'!G233-'Totaux nationaux bruts'!G232))</f>
-        <v/>
-      </c>
-      <c r="M233" s="52" t="str">
+        <v>513</v>
+      </c>
+      <c r="M233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H233),"",IF(ISBLANK('Totaux nationaux bruts'!H232),"",'Totaux nationaux bruts'!H233-'Totaux nationaux bruts'!H232))</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="N233" s="10" t="str">
-        <f>TEXT(A233,"jj/mm/aaaa")&amp;","&amp;E233&amp;","&amp;F233&amp;","&amp;G233&amp;","&amp;H233&amp;","&amp;I233&amp;","&amp;J233&amp;","&amp;K233&amp;","&amp;L233&amp;","&amp;M233</f>
-        <v>11/09/2020,,,,,,,,,</v>
+        <f t="shared" si="5"/>
+        <v>11/09/2020,9406,59,447,317,20,64,40,513,40</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -48540,7 +48740,7 @@
         <v/>
       </c>
       <c r="N234" s="10" t="str">
-        <f>TEXT(A234,"jj/mm/aaaa")&amp;","&amp;E234&amp;","&amp;F234&amp;","&amp;G234&amp;","&amp;H234&amp;","&amp;I234&amp;","&amp;J234&amp;","&amp;K234&amp;","&amp;L234&amp;","&amp;M234</f>
+        <f t="shared" si="5"/>
         <v>12/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48582,7 +48782,7 @@
         <v/>
       </c>
       <c r="N235" s="10" t="str">
-        <f>TEXT(A235,"jj/mm/aaaa")&amp;","&amp;E235&amp;","&amp;F235&amp;","&amp;G235&amp;","&amp;H235&amp;","&amp;I235&amp;","&amp;J235&amp;","&amp;K235&amp;","&amp;L235&amp;","&amp;M235</f>
+        <f t="shared" si="5"/>
         <v>13/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48624,7 +48824,7 @@
         <v/>
       </c>
       <c r="N236" s="10" t="str">
-        <f>TEXT(A236,"jj/mm/aaaa")&amp;","&amp;E236&amp;","&amp;F236&amp;","&amp;G236&amp;","&amp;H236&amp;","&amp;I236&amp;","&amp;J236&amp;","&amp;K236&amp;","&amp;L236&amp;","&amp;M236</f>
+        <f t="shared" si="5"/>
         <v>14/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48666,7 +48866,7 @@
         <v/>
       </c>
       <c r="N237" s="10" t="str">
-        <f>TEXT(A237,"jj/mm/aaaa")&amp;","&amp;E237&amp;","&amp;F237&amp;","&amp;G237&amp;","&amp;H237&amp;","&amp;I237&amp;","&amp;J237&amp;","&amp;K237&amp;","&amp;L237&amp;","&amp;M237</f>
+        <f t="shared" si="5"/>
         <v>15/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48708,7 +48908,7 @@
         <v/>
       </c>
       <c r="N238" s="10" t="str">
-        <f>TEXT(A238,"jj/mm/aaaa")&amp;","&amp;E238&amp;","&amp;F238&amp;","&amp;G238&amp;","&amp;H238&amp;","&amp;I238&amp;","&amp;J238&amp;","&amp;K238&amp;","&amp;L238&amp;","&amp;M238</f>
+        <f t="shared" si="5"/>
         <v>16/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48750,7 +48950,7 @@
         <v/>
       </c>
       <c r="N239" s="10" t="str">
-        <f>TEXT(A239,"jj/mm/aaaa")&amp;","&amp;E239&amp;","&amp;F239&amp;","&amp;G239&amp;","&amp;H239&amp;","&amp;I239&amp;","&amp;J239&amp;","&amp;K239&amp;","&amp;L239&amp;","&amp;M239</f>
+        <f t="shared" si="5"/>
         <v>17/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48792,7 +48992,7 @@
         <v/>
       </c>
       <c r="N240" s="10" t="str">
-        <f>TEXT(A240,"jj/mm/aaaa")&amp;","&amp;E240&amp;","&amp;F240&amp;","&amp;G240&amp;","&amp;H240&amp;","&amp;I240&amp;","&amp;J240&amp;","&amp;K240&amp;","&amp;L240&amp;","&amp;M240</f>
+        <f t="shared" si="5"/>
         <v>18/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48834,7 +49034,7 @@
         <v/>
       </c>
       <c r="N241" s="10" t="str">
-        <f>TEXT(A241,"jj/mm/aaaa")&amp;","&amp;E241&amp;","&amp;F241&amp;","&amp;G241&amp;","&amp;H241&amp;","&amp;I241&amp;","&amp;J241&amp;","&amp;K241&amp;","&amp;L241&amp;","&amp;M241</f>
+        <f t="shared" si="5"/>
         <v>19/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48876,7 +49076,7 @@
         <v/>
       </c>
       <c r="N242" s="10" t="str">
-        <f>TEXT(A242,"jj/mm/aaaa")&amp;","&amp;E242&amp;","&amp;F242&amp;","&amp;G242&amp;","&amp;H242&amp;","&amp;I242&amp;","&amp;J242&amp;","&amp;K242&amp;","&amp;L242&amp;","&amp;M242</f>
+        <f t="shared" si="5"/>
         <v>20/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48918,7 +49118,7 @@
         <v/>
       </c>
       <c r="N243" s="10" t="str">
-        <f>TEXT(A243,"jj/mm/aaaa")&amp;","&amp;E243&amp;","&amp;F243&amp;","&amp;G243&amp;","&amp;H243&amp;","&amp;I243&amp;","&amp;J243&amp;","&amp;K243&amp;","&amp;L243&amp;","&amp;M243</f>
+        <f t="shared" si="5"/>
         <v>21/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -48960,7 +49160,7 @@
         <v/>
       </c>
       <c r="N244" s="10" t="str">
-        <f>TEXT(A244,"jj/mm/aaaa")&amp;","&amp;E244&amp;","&amp;F244&amp;","&amp;G244&amp;","&amp;H244&amp;","&amp;I244&amp;","&amp;J244&amp;","&amp;K244&amp;","&amp;L244&amp;","&amp;M244</f>
+        <f t="shared" si="5"/>
         <v>22/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49002,7 +49202,7 @@
         <v/>
       </c>
       <c r="N245" s="10" t="str">
-        <f>TEXT(A245,"jj/mm/aaaa")&amp;","&amp;E245&amp;","&amp;F245&amp;","&amp;G245&amp;","&amp;H245&amp;","&amp;I245&amp;","&amp;J245&amp;","&amp;K245&amp;","&amp;L245&amp;","&amp;M245</f>
+        <f t="shared" si="5"/>
         <v>23/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49044,7 +49244,7 @@
         <v/>
       </c>
       <c r="N246" s="10" t="str">
-        <f>TEXT(A246,"jj/mm/aaaa")&amp;","&amp;E246&amp;","&amp;F246&amp;","&amp;G246&amp;","&amp;H246&amp;","&amp;I246&amp;","&amp;J246&amp;","&amp;K246&amp;","&amp;L246&amp;","&amp;M246</f>
+        <f t="shared" si="5"/>
         <v>24/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49086,7 +49286,7 @@
         <v/>
       </c>
       <c r="N247" s="10" t="str">
-        <f>TEXT(A247,"jj/mm/aaaa")&amp;","&amp;E247&amp;","&amp;F247&amp;","&amp;G247&amp;","&amp;H247&amp;","&amp;I247&amp;","&amp;J247&amp;","&amp;K247&amp;","&amp;L247&amp;","&amp;M247</f>
+        <f t="shared" si="5"/>
         <v>25/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49128,7 +49328,7 @@
         <v/>
       </c>
       <c r="N248" s="10" t="str">
-        <f>TEXT(A248,"jj/mm/aaaa")&amp;","&amp;E248&amp;","&amp;F248&amp;","&amp;G248&amp;","&amp;H248&amp;","&amp;I248&amp;","&amp;J248&amp;","&amp;K248&amp;","&amp;L248&amp;","&amp;M248</f>
+        <f t="shared" si="5"/>
         <v>26/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49170,7 +49370,7 @@
         <v/>
       </c>
       <c r="N249" s="10" t="str">
-        <f>TEXT(A249,"jj/mm/aaaa")&amp;","&amp;E249&amp;","&amp;F249&amp;","&amp;G249&amp;","&amp;H249&amp;","&amp;I249&amp;","&amp;J249&amp;","&amp;K249&amp;","&amp;L249&amp;","&amp;M249</f>
+        <f t="shared" si="5"/>
         <v>27/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49212,7 +49412,7 @@
         <v/>
       </c>
       <c r="N250" s="10" t="str">
-        <f>TEXT(A250,"jj/mm/aaaa")&amp;","&amp;E250&amp;","&amp;F250&amp;","&amp;G250&amp;","&amp;H250&amp;","&amp;I250&amp;","&amp;J250&amp;","&amp;K250&amp;","&amp;L250&amp;","&amp;M250</f>
+        <f t="shared" si="5"/>
         <v>28/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49254,7 +49454,7 @@
         <v/>
       </c>
       <c r="N251" s="10" t="str">
-        <f>TEXT(A251,"jj/mm/aaaa")&amp;","&amp;E251&amp;","&amp;F251&amp;","&amp;G251&amp;","&amp;H251&amp;","&amp;I251&amp;","&amp;J251&amp;","&amp;K251&amp;","&amp;L251&amp;","&amp;M251</f>
+        <f t="shared" si="5"/>
         <v>29/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49296,7 +49496,7 @@
         <v/>
       </c>
       <c r="N252" s="10" t="str">
-        <f>TEXT(A252,"jj/mm/aaaa")&amp;","&amp;E252&amp;","&amp;F252&amp;","&amp;G252&amp;","&amp;H252&amp;","&amp;I252&amp;","&amp;J252&amp;","&amp;K252&amp;","&amp;L252&amp;","&amp;M252</f>
+        <f t="shared" si="5"/>
         <v>30/09/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49338,7 +49538,7 @@
         <v/>
       </c>
       <c r="N253" s="10" t="str">
-        <f>TEXT(A253,"jj/mm/aaaa")&amp;","&amp;E253&amp;","&amp;F253&amp;","&amp;G253&amp;","&amp;H253&amp;","&amp;I253&amp;","&amp;J253&amp;","&amp;K253&amp;","&amp;L253&amp;","&amp;M253</f>
+        <f t="shared" si="5"/>
         <v>01/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49380,7 +49580,7 @@
         <v/>
       </c>
       <c r="N254" s="10" t="str">
-        <f>TEXT(A254,"jj/mm/aaaa")&amp;","&amp;E254&amp;","&amp;F254&amp;","&amp;G254&amp;","&amp;H254&amp;","&amp;I254&amp;","&amp;J254&amp;","&amp;K254&amp;","&amp;L254&amp;","&amp;M254</f>
+        <f t="shared" si="5"/>
         <v>02/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49422,7 +49622,7 @@
         <v/>
       </c>
       <c r="N255" s="10" t="str">
-        <f>TEXT(A255,"jj/mm/aaaa")&amp;","&amp;E255&amp;","&amp;F255&amp;","&amp;G255&amp;","&amp;H255&amp;","&amp;I255&amp;","&amp;J255&amp;","&amp;K255&amp;","&amp;L255&amp;","&amp;M255</f>
+        <f t="shared" si="5"/>
         <v>03/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49464,7 +49664,7 @@
         <v/>
       </c>
       <c r="N256" s="10" t="str">
-        <f>TEXT(A256,"jj/mm/aaaa")&amp;","&amp;E256&amp;","&amp;F256&amp;","&amp;G256&amp;","&amp;H256&amp;","&amp;I256&amp;","&amp;J256&amp;","&amp;K256&amp;","&amp;L256&amp;","&amp;M256</f>
+        <f t="shared" si="5"/>
         <v>04/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49506,7 +49706,7 @@
         <v/>
       </c>
       <c r="N257" s="10" t="str">
-        <f>TEXT(A257,"jj/mm/aaaa")&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257&amp;","&amp;I257&amp;","&amp;J257&amp;","&amp;K257&amp;","&amp;L257&amp;","&amp;M257</f>
+        <f t="shared" ref="N257:N320" si="6">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257&amp;","&amp;I257&amp;","&amp;J257&amp;","&amp;K257&amp;","&amp;L257&amp;","&amp;M257</f>
         <v>05/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49548,7 +49748,7 @@
         <v/>
       </c>
       <c r="N258" s="10" t="str">
-        <f>TEXT(A258,"jj/mm/aaaa")&amp;","&amp;E258&amp;","&amp;F258&amp;","&amp;G258&amp;","&amp;H258&amp;","&amp;I258&amp;","&amp;J258&amp;","&amp;K258&amp;","&amp;L258&amp;","&amp;M258</f>
+        <f t="shared" si="6"/>
         <v>06/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49590,7 +49790,7 @@
         <v/>
       </c>
       <c r="N259" s="10" t="str">
-        <f>TEXT(A259,"jj/mm/aaaa")&amp;","&amp;E259&amp;","&amp;F259&amp;","&amp;G259&amp;","&amp;H259&amp;","&amp;I259&amp;","&amp;J259&amp;","&amp;K259&amp;","&amp;L259&amp;","&amp;M259</f>
+        <f t="shared" si="6"/>
         <v>07/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49632,7 +49832,7 @@
         <v/>
       </c>
       <c r="N260" s="10" t="str">
-        <f>TEXT(A260,"jj/mm/aaaa")&amp;","&amp;E260&amp;","&amp;F260&amp;","&amp;G260&amp;","&amp;H260&amp;","&amp;I260&amp;","&amp;J260&amp;","&amp;K260&amp;","&amp;L260&amp;","&amp;M260</f>
+        <f t="shared" si="6"/>
         <v>08/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49674,7 +49874,7 @@
         <v/>
       </c>
       <c r="N261" s="10" t="str">
-        <f>TEXT(A261,"jj/mm/aaaa")&amp;","&amp;E261&amp;","&amp;F261&amp;","&amp;G261&amp;","&amp;H261&amp;","&amp;I261&amp;","&amp;J261&amp;","&amp;K261&amp;","&amp;L261&amp;","&amp;M261</f>
+        <f t="shared" si="6"/>
         <v>09/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49716,7 +49916,7 @@
         <v/>
       </c>
       <c r="N262" s="10" t="str">
-        <f>TEXT(A262,"jj/mm/aaaa")&amp;","&amp;E262&amp;","&amp;F262&amp;","&amp;G262&amp;","&amp;H262&amp;","&amp;I262&amp;","&amp;J262&amp;","&amp;K262&amp;","&amp;L262&amp;","&amp;M262</f>
+        <f t="shared" si="6"/>
         <v>10/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49758,7 +49958,7 @@
         <v/>
       </c>
       <c r="N263" s="10" t="str">
-        <f>TEXT(A263,"jj/mm/aaaa")&amp;","&amp;E263&amp;","&amp;F263&amp;","&amp;G263&amp;","&amp;H263&amp;","&amp;I263&amp;","&amp;J263&amp;","&amp;K263&amp;","&amp;L263&amp;","&amp;M263</f>
+        <f t="shared" si="6"/>
         <v>11/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49800,7 +50000,7 @@
         <v/>
       </c>
       <c r="N264" s="10" t="str">
-        <f>TEXT(A264,"jj/mm/aaaa")&amp;","&amp;E264&amp;","&amp;F264&amp;","&amp;G264&amp;","&amp;H264&amp;","&amp;I264&amp;","&amp;J264&amp;","&amp;K264&amp;","&amp;L264&amp;","&amp;M264</f>
+        <f t="shared" si="6"/>
         <v>12/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49842,7 +50042,7 @@
         <v/>
       </c>
       <c r="N265" s="10" t="str">
-        <f>TEXT(A265,"jj/mm/aaaa")&amp;","&amp;E265&amp;","&amp;F265&amp;","&amp;G265&amp;","&amp;H265&amp;","&amp;I265&amp;","&amp;J265&amp;","&amp;K265&amp;","&amp;L265&amp;","&amp;M265</f>
+        <f t="shared" si="6"/>
         <v>13/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49884,7 +50084,7 @@
         <v/>
       </c>
       <c r="N266" s="10" t="str">
-        <f>TEXT(A266,"jj/mm/aaaa")&amp;","&amp;E266&amp;","&amp;F266&amp;","&amp;G266&amp;","&amp;H266&amp;","&amp;I266&amp;","&amp;J266&amp;","&amp;K266&amp;","&amp;L266&amp;","&amp;M266</f>
+        <f t="shared" si="6"/>
         <v>14/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49926,7 +50126,7 @@
         <v/>
       </c>
       <c r="N267" s="10" t="str">
-        <f>TEXT(A267,"jj/mm/aaaa")&amp;","&amp;E267&amp;","&amp;F267&amp;","&amp;G267&amp;","&amp;H267&amp;","&amp;I267&amp;","&amp;J267&amp;","&amp;K267&amp;","&amp;L267&amp;","&amp;M267</f>
+        <f t="shared" si="6"/>
         <v>15/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -49968,7 +50168,7 @@
         <v/>
       </c>
       <c r="N268" s="10" t="str">
-        <f>TEXT(A268,"jj/mm/aaaa")&amp;","&amp;E268&amp;","&amp;F268&amp;","&amp;G268&amp;","&amp;H268&amp;","&amp;I268&amp;","&amp;J268&amp;","&amp;K268&amp;","&amp;L268&amp;","&amp;M268</f>
+        <f t="shared" si="6"/>
         <v>16/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50010,7 +50210,7 @@
         <v/>
       </c>
       <c r="N269" s="10" t="str">
-        <f>TEXT(A269,"jj/mm/aaaa")&amp;","&amp;E269&amp;","&amp;F269&amp;","&amp;G269&amp;","&amp;H269&amp;","&amp;I269&amp;","&amp;J269&amp;","&amp;K269&amp;","&amp;L269&amp;","&amp;M269</f>
+        <f t="shared" si="6"/>
         <v>17/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50052,7 +50252,7 @@
         <v/>
       </c>
       <c r="N270" s="10" t="str">
-        <f>TEXT(A270,"jj/mm/aaaa")&amp;","&amp;E270&amp;","&amp;F270&amp;","&amp;G270&amp;","&amp;H270&amp;","&amp;I270&amp;","&amp;J270&amp;","&amp;K270&amp;","&amp;L270&amp;","&amp;M270</f>
+        <f t="shared" si="6"/>
         <v>18/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50094,7 +50294,7 @@
         <v/>
       </c>
       <c r="N271" s="10" t="str">
-        <f>TEXT(A271,"jj/mm/aaaa")&amp;","&amp;E271&amp;","&amp;F271&amp;","&amp;G271&amp;","&amp;H271&amp;","&amp;I271&amp;","&amp;J271&amp;","&amp;K271&amp;","&amp;L271&amp;","&amp;M271</f>
+        <f t="shared" si="6"/>
         <v>19/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50136,7 +50336,7 @@
         <v/>
       </c>
       <c r="N272" s="10" t="str">
-        <f>TEXT(A272,"jj/mm/aaaa")&amp;","&amp;E272&amp;","&amp;F272&amp;","&amp;G272&amp;","&amp;H272&amp;","&amp;I272&amp;","&amp;J272&amp;","&amp;K272&amp;","&amp;L272&amp;","&amp;M272</f>
+        <f t="shared" si="6"/>
         <v>20/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50178,7 +50378,7 @@
         <v/>
       </c>
       <c r="N273" s="10" t="str">
-        <f>TEXT(A273,"jj/mm/aaaa")&amp;","&amp;E273&amp;","&amp;F273&amp;","&amp;G273&amp;","&amp;H273&amp;","&amp;I273&amp;","&amp;J273&amp;","&amp;K273&amp;","&amp;L273&amp;","&amp;M273</f>
+        <f t="shared" si="6"/>
         <v>21/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50220,7 +50420,7 @@
         <v/>
       </c>
       <c r="N274" s="10" t="str">
-        <f>TEXT(A274,"jj/mm/aaaa")&amp;","&amp;E274&amp;","&amp;F274&amp;","&amp;G274&amp;","&amp;H274&amp;","&amp;I274&amp;","&amp;J274&amp;","&amp;K274&amp;","&amp;L274&amp;","&amp;M274</f>
+        <f t="shared" si="6"/>
         <v>22/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50262,7 +50462,7 @@
         <v/>
       </c>
       <c r="N275" s="10" t="str">
-        <f>TEXT(A275,"jj/mm/aaaa")&amp;","&amp;E275&amp;","&amp;F275&amp;","&amp;G275&amp;","&amp;H275&amp;","&amp;I275&amp;","&amp;J275&amp;","&amp;K275&amp;","&amp;L275&amp;","&amp;M275</f>
+        <f t="shared" si="6"/>
         <v>23/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50304,7 +50504,7 @@
         <v/>
       </c>
       <c r="N276" s="10" t="str">
-        <f>TEXT(A276,"jj/mm/aaaa")&amp;","&amp;E276&amp;","&amp;F276&amp;","&amp;G276&amp;","&amp;H276&amp;","&amp;I276&amp;","&amp;J276&amp;","&amp;K276&amp;","&amp;L276&amp;","&amp;M276</f>
+        <f t="shared" si="6"/>
         <v>24/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50346,7 +50546,7 @@
         <v/>
       </c>
       <c r="N277" s="10" t="str">
-        <f>TEXT(A277,"jj/mm/aaaa")&amp;","&amp;E277&amp;","&amp;F277&amp;","&amp;G277&amp;","&amp;H277&amp;","&amp;I277&amp;","&amp;J277&amp;","&amp;K277&amp;","&amp;L277&amp;","&amp;M277</f>
+        <f t="shared" si="6"/>
         <v>25/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50388,7 +50588,7 @@
         <v/>
       </c>
       <c r="N278" s="10" t="str">
-        <f>TEXT(A278,"jj/mm/aaaa")&amp;","&amp;E278&amp;","&amp;F278&amp;","&amp;G278&amp;","&amp;H278&amp;","&amp;I278&amp;","&amp;J278&amp;","&amp;K278&amp;","&amp;L278&amp;","&amp;M278</f>
+        <f t="shared" si="6"/>
         <v>26/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50430,7 +50630,7 @@
         <v/>
       </c>
       <c r="N279" s="10" t="str">
-        <f>TEXT(A279,"jj/mm/aaaa")&amp;","&amp;E279&amp;","&amp;F279&amp;","&amp;G279&amp;","&amp;H279&amp;","&amp;I279&amp;","&amp;J279&amp;","&amp;K279&amp;","&amp;L279&amp;","&amp;M279</f>
+        <f t="shared" si="6"/>
         <v>27/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50472,129 +50672,129 @@
         <v/>
       </c>
       <c r="N280" s="10" t="str">
-        <f>TEXT(A280,"jj/mm/aaaa")&amp;","&amp;E280&amp;","&amp;F280&amp;","&amp;G280&amp;","&amp;H280&amp;","&amp;I280&amp;","&amp;J280&amp;","&amp;K280&amp;","&amp;L280&amp;","&amp;M280</f>
+        <f t="shared" si="6"/>
         <v>28/10/2020,,,,,,,,,</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
-      <c r="D281" s="69"/>
+      <c r="D281" s="66"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
-      <c r="D282" s="69"/>
+      <c r="D282" s="66"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
-      <c r="D283" s="69"/>
+      <c r="D283" s="66"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
-      <c r="D284" s="69"/>
+      <c r="D284" s="66"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
-      <c r="D285" s="69"/>
+      <c r="D285" s="66"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
-      <c r="D286" s="69"/>
+      <c r="D286" s="66"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
-      <c r="D287" s="69"/>
+      <c r="D287" s="66"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
-      <c r="D288" s="69"/>
+      <c r="D288" s="66"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
-      <c r="D289" s="69"/>
+      <c r="D289" s="66"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
-      <c r="D290" s="69"/>
+      <c r="D290" s="66"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
-      <c r="D291" s="69"/>
+      <c r="D291" s="66"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
-      <c r="D292" s="69"/>
+      <c r="D292" s="66"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
-      <c r="D293" s="69"/>
+      <c r="D293" s="66"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
-      <c r="D294" s="69"/>
+      <c r="D294" s="66"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
-      <c r="D295" s="69"/>
+      <c r="D295" s="66"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
-      <c r="D296" s="69"/>
+      <c r="D296" s="66"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
-      <c r="D297" s="69"/>
+      <c r="D297" s="66"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
-      <c r="D298" s="69"/>
+      <c r="D298" s="66"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
-      <c r="D299" s="69"/>
+      <c r="D299" s="66"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
-      <c r="D300" s="69"/>
+      <c r="D300" s="66"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
-      <c r="D301" s="69"/>
+      <c r="D301" s="66"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
-      <c r="D302" s="69"/>
+      <c r="D302" s="66"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
-      <c r="D303" s="69"/>
+      <c r="D303" s="66"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
-      <c r="D304" s="69"/>
+      <c r="D304" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50606,7 +50806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
@@ -50804,30 +51004,30 @@
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68F016-65EE-4F8D-96CA-FB67D575F15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B343AC-D15E-458D-8DBA-E4C33DCB2305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7272" yWindow="12" windowWidth="18696" windowHeight="12360" tabRatio="870" activeTab="2" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="2400" yWindow="720" windowWidth="18696" windowHeight="12360" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -2692,25 +2692,25 @@
                   <c:v>9406</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>10561</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>7183</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>6158</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>7852</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>9784</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>10593</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>13215</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>0</c:v>
@@ -4664,25 +4664,25 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>0</c:v>
@@ -6581,6 +6581,27 @@
                 <c:pt idx="231">
                   <c:v>20378</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>20395</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>20401</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>20435</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>20471</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>20517</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>20567</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>20689</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8016,6 +8037,27 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>10515</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10515</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>10515</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10515</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>10528</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10528</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>10528</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>10560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8339,367 +8381,388 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="303"/>
                 <c:pt idx="110" formatCode="General">
-                  <c:v>79133</c:v>
+                  <c:v>79097</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="General">
-                  <c:v>85040</c:v>
+                  <c:v>85005</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="General">
-                  <c:v>95577</c:v>
+                  <c:v>95533</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="General">
-                  <c:v>32601</c:v>
+                  <c:v>32605</c:v>
                 </c:pt>
                 <c:pt idx="114" formatCode="General">
-                  <c:v>12619</c:v>
+                  <c:v>12629</c:v>
                 </c:pt>
                 <c:pt idx="115" formatCode="General">
-                  <c:v>101391</c:v>
+                  <c:v>101315</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="General">
-                  <c:v>104724</c:v>
+                  <c:v>104606</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="General">
-                  <c:v>104324</c:v>
+                  <c:v>104258</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="General">
-                  <c:v>18106</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="General">
-                  <c:v>97635</c:v>
+                  <c:v>97541</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="General">
-                  <c:v>36315</c:v>
+                  <c:v>36257</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="General">
-                  <c:v>12945</c:v>
+                  <c:v>12935</c:v>
                 </c:pt>
                 <c:pt idx="122" formatCode="General">
-                  <c:v>98401</c:v>
+                  <c:v>98313</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="General">
-                  <c:v>102968</c:v>
+                  <c:v>102910</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="General">
-                  <c:v>87751</c:v>
+                  <c:v>87677</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="General">
-                  <c:v>84366</c:v>
+                  <c:v>84300</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="General">
-                  <c:v>93721</c:v>
+                  <c:v>93645</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="General">
-                  <c:v>38244</c:v>
+                  <c:v>38222</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="General">
-                  <c:v>15698</c:v>
+                  <c:v>15680</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>18140</c:v>
+                  <c:v>18118</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
-                  <c:v>92266</c:v>
+                  <c:v>92148</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="General">
-                  <c:v>85280</c:v>
+                  <c:v>85160</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="General">
-                  <c:v>78960</c:v>
+                  <c:v>78860</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="General">
-                  <c:v>88814</c:v>
+                  <c:v>88702</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="General">
-                  <c:v>37143</c:v>
+                  <c:v>37097</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="General">
-                  <c:v>13565</c:v>
+                  <c:v>13555</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="General">
-                  <c:v>84395</c:v>
+                  <c:v>84277</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="General">
-                  <c:v>81622</c:v>
+                  <c:v>81528</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="General">
-                  <c:v>76371</c:v>
+                  <c:v>76305</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="General">
-                  <c:v>72395</c:v>
+                  <c:v>72319</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="General">
-                  <c:v>82854</c:v>
+                  <c:v>82772</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>35566</c:v>
+                  <c:v>35544</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
-                  <c:v>11649</c:v>
+                  <c:v>11671</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="General">
-                  <c:v>80897</c:v>
+                  <c:v>80810</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="General">
-                  <c:v>78893</c:v>
+                  <c:v>78855</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>74385</c:v>
+                  <c:v>74323</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>70509</c:v>
+                  <c:v>70477</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>85067</c:v>
+                  <c:v>84991</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
-                  <c:v>40159</c:v>
+                  <c:v>40117</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="General">
-                  <c:v>11323</c:v>
+                  <c:v>11309</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="General">
-                  <c:v>88044</c:v>
+                  <c:v>87930</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="General">
-                  <c:v>89386</c:v>
+                  <c:v>89226</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="General">
-                  <c:v>84619</c:v>
+                  <c:v>84501</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="General">
-                  <c:v>73102</c:v>
+                  <c:v>73014</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="General">
-                  <c:v>94670</c:v>
+                  <c:v>94562</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="General">
-                  <c:v>45520</c:v>
+                  <c:v>45456</c:v>
                 </c:pt>
                 <c:pt idx="156" formatCode="General">
-                  <c:v>14597</c:v>
+                  <c:v>14587</c:v>
                 </c:pt>
                 <c:pt idx="157" formatCode="General">
-                  <c:v>112679</c:v>
+                  <c:v>112527</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
-                  <c:v>109297</c:v>
+                  <c:v>109163</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="General">
-                  <c:v>105419</c:v>
+                  <c:v>105459</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="General">
-                  <c:v>101734</c:v>
+                  <c:v>101574</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="General">
-                  <c:v>118952</c:v>
+                  <c:v>118776</c:v>
                 </c:pt>
                 <c:pt idx="162" formatCode="General">
-                  <c:v>53557</c:v>
+                  <c:v>53467</c:v>
                 </c:pt>
                 <c:pt idx="163" formatCode="General">
-                  <c:v>15000</c:v>
+                  <c:v>14986</c:v>
                 </c:pt>
                 <c:pt idx="164" formatCode="General">
-                  <c:v>121573</c:v>
+                  <c:v>121397</c:v>
                 </c:pt>
                 <c:pt idx="165" formatCode="General">
-                  <c:v>120743</c:v>
+                  <c:v>120578</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>119420</c:v>
+                  <c:v>119226</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
-                  <c:v>126441</c:v>
+                  <c:v>126241</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>141267</c:v>
+                  <c:v>141061</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>59727</c:v>
+                  <c:v>59653</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>15048</c:v>
+                  <c:v>15040</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>143955</c:v>
+                  <c:v>143777</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>21478</c:v>
+                  <c:v>21448</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>144654</c:v>
+                  <c:v>144424</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="General">
-                  <c:v>153226</c:v>
+                  <c:v>152930</c:v>
                 </c:pt>
                 <c:pt idx="175" formatCode="General">
-                  <c:v>171152</c:v>
+                  <c:v>170884</c:v>
                 </c:pt>
                 <c:pt idx="176" formatCode="General">
-                  <c:v>73731</c:v>
+                  <c:v>73639</c:v>
                 </c:pt>
                 <c:pt idx="177" formatCode="General">
-                  <c:v>21221</c:v>
+                  <c:v>21197</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>167143</c:v>
+                  <c:v>166853</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
-                  <c:v>162051</c:v>
+                  <c:v>161787</c:v>
                 </c:pt>
                 <c:pt idx="180" formatCode="General">
-                  <c:v>160995</c:v>
+                  <c:v>160727</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>158995</c:v>
+                  <c:v>158717</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>172949</c:v>
+                  <c:v>172707</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
-                  <c:v>78061</c:v>
+                  <c:v>77943</c:v>
                 </c:pt>
                 <c:pt idx="184" formatCode="General">
-                  <c:v>26344</c:v>
+                  <c:v>26316</c:v>
                 </c:pt>
                 <c:pt idx="185" formatCode="General">
-                  <c:v>183912</c:v>
+                  <c:v>183614</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="General">
-                  <c:v>188203</c:v>
+                  <c:v>187851</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="General">
-                  <c:v>194979</c:v>
+                  <c:v>195267</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="General">
-                  <c:v>188256</c:v>
+                  <c:v>188900</c:v>
                 </c:pt>
                 <c:pt idx="189" formatCode="General">
-                  <c:v>195784</c:v>
+                  <c:v>196194</c:v>
                 </c:pt>
                 <c:pt idx="190" formatCode="General">
-                  <c:v>85125</c:v>
+                  <c:v>85581</c:v>
                 </c:pt>
                 <c:pt idx="191" formatCode="General">
-                  <c:v>28623</c:v>
+                  <c:v>28717</c:v>
                 </c:pt>
                 <c:pt idx="192" formatCode="General">
-                  <c:v>199410</c:v>
+                  <c:v>199304</c:v>
                 </c:pt>
                 <c:pt idx="193" formatCode="General">
-                  <c:v>189693</c:v>
+                  <c:v>189403</c:v>
                 </c:pt>
                 <c:pt idx="194" formatCode="General">
-                  <c:v>189939</c:v>
+                  <c:v>189711</c:v>
                 </c:pt>
                 <c:pt idx="195" formatCode="General">
-                  <c:v>194949</c:v>
+                  <c:v>194531</c:v>
                 </c:pt>
                 <c:pt idx="196" formatCode="General">
-                  <c:v>198319</c:v>
+                  <c:v>198043</c:v>
                 </c:pt>
                 <c:pt idx="197" formatCode="General">
-                  <c:v>88031</c:v>
+                  <c:v>88009</c:v>
                 </c:pt>
                 <c:pt idx="198" formatCode="General">
-                  <c:v>29573</c:v>
+                  <c:v>29641</c:v>
                 </c:pt>
                 <c:pt idx="199" formatCode="General">
-                  <c:v>202815</c:v>
+                  <c:v>202459</c:v>
                 </c:pt>
                 <c:pt idx="200" formatCode="General">
-                  <c:v>185353</c:v>
+                  <c:v>185027</c:v>
                 </c:pt>
                 <c:pt idx="201" formatCode="General">
-                  <c:v>193209</c:v>
+                  <c:v>192895</c:v>
                 </c:pt>
                 <c:pt idx="202" formatCode="General">
-                  <c:v>211262</c:v>
+                  <c:v>210822</c:v>
                 </c:pt>
                 <c:pt idx="203" formatCode="General">
-                  <c:v>232062</c:v>
+                  <c:v>231730</c:v>
                 </c:pt>
                 <c:pt idx="204" formatCode="General">
-                  <c:v>46459</c:v>
+                  <c:v>46443</c:v>
                 </c:pt>
                 <c:pt idx="205" formatCode="General">
-                  <c:v>38074</c:v>
+                  <c:v>38060</c:v>
                 </c:pt>
                 <c:pt idx="206" formatCode="General">
-                  <c:v>265785</c:v>
+                  <c:v>265304</c:v>
                 </c:pt>
                 <c:pt idx="207" formatCode="General">
-                  <c:v>253077</c:v>
+                  <c:v>252670</c:v>
                 </c:pt>
                 <c:pt idx="208" formatCode="General">
-                  <c:v>249710</c:v>
+                  <c:v>249309</c:v>
                 </c:pt>
                 <c:pt idx="209" formatCode="General">
-                  <c:v>265092</c:v>
+                  <c:v>264538</c:v>
                 </c:pt>
                 <c:pt idx="210" formatCode="General">
-                  <c:v>286290</c:v>
+                  <c:v>285879</c:v>
                 </c:pt>
                 <c:pt idx="211" formatCode="General">
-                  <c:v>121206</c:v>
+                  <c:v>121048</c:v>
                 </c:pt>
                 <c:pt idx="212" formatCode="General">
-                  <c:v>40174</c:v>
+                  <c:v>40164</c:v>
                 </c:pt>
                 <c:pt idx="213" formatCode="General">
-                  <c:v>318491</c:v>
+                  <c:v>317967</c:v>
                 </c:pt>
                 <c:pt idx="214" formatCode="General">
-                  <c:v>304152</c:v>
+                  <c:v>304028</c:v>
                 </c:pt>
                 <c:pt idx="215" formatCode="General">
-                  <c:v>309813</c:v>
+                  <c:v>309647</c:v>
                 </c:pt>
                 <c:pt idx="216" formatCode="General">
-                  <c:v>333066</c:v>
+                  <c:v>332996</c:v>
                 </c:pt>
                 <c:pt idx="217" formatCode="General">
-                  <c:v>345394</c:v>
+                  <c:v>345542</c:v>
                 </c:pt>
                 <c:pt idx="218" formatCode="General">
-                  <c:v>146536</c:v>
+                  <c:v>146776</c:v>
                 </c:pt>
                 <c:pt idx="219" formatCode="General">
-                  <c:v>47085</c:v>
+                  <c:v>47251</c:v>
                 </c:pt>
                 <c:pt idx="220" formatCode="General">
-                  <c:v>363208</c:v>
+                  <c:v>369086</c:v>
                 </c:pt>
                 <c:pt idx="221" formatCode="General">
-                  <c:v>314555</c:v>
+                  <c:v>331148</c:v>
                 </c:pt>
                 <c:pt idx="222" formatCode="General">
-                  <c:v>300033</c:v>
+                  <c:v>328944</c:v>
                 </c:pt>
                 <c:pt idx="223" formatCode="General">
-                  <c:v>301165</c:v>
+                  <c:v>341739</c:v>
                 </c:pt>
                 <c:pt idx="224" formatCode="General">
-                  <c:v>305977</c:v>
+                  <c:v>367045</c:v>
                 </c:pt>
                 <c:pt idx="225" formatCode="General">
-                  <c:v>118097</c:v>
+                  <c:v>158686</c:v>
                 </c:pt>
                 <c:pt idx="226" formatCode="General">
-                  <c:v>46051</c:v>
+                  <c:v>46763</c:v>
                 </c:pt>
                 <c:pt idx="227" formatCode="General">
-                  <c:v>379267</c:v>
+                  <c:v>403197</c:v>
                 </c:pt>
                 <c:pt idx="228" formatCode="General">
-                  <c:v>359179</c:v>
+                  <c:v>400921</c:v>
                 </c:pt>
                 <c:pt idx="229" formatCode="General">
-                  <c:v>324158</c:v>
+                  <c:v>387042</c:v>
                 </c:pt>
                 <c:pt idx="230" formatCode="General">
-                  <c:v>277652</c:v>
+                  <c:v>404147</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>417466</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>165240</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>46089</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>420742</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>391203</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>339856</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>291106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8747,10 +8810,10 @@
                   <c:v>1794</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="General">
-                  <c:v>2006</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="General">
-                  <c:v>2112</c:v>
+                  <c:v>2114</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="General">
                   <c:v>584</c:v>
@@ -8765,7 +8828,7 @@
                   <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="General">
-                  <c:v>2117</c:v>
+                  <c:v>2119</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="General">
                   <c:v>364</c:v>
@@ -8801,7 +8864,7 @@
                   <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>312</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
                   <c:v>1449</c:v>
@@ -8837,7 +8900,7 @@
                   <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>372</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
                   <c:v>172</c:v>
@@ -8849,13 +8912,13 @@
                   <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>1434</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>1157</c:v>
+                  <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>1265</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
                   <c:v>582</c:v>
@@ -8912,7 +8975,7 @@
                   <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>1396</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
                   <c:v>1404</c:v>
@@ -8927,10 +8990,10 @@
                   <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>1732</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>362</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
                   <c:v>1693</c:v>
@@ -8948,7 +9011,7 @@
                   <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>2056</c:v>
+                  <c:v>2058</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
                   <c:v>2173</c:v>
@@ -8957,10 +9020,10 @@
                   <c:v>2320</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>2265</c:v>
+                  <c:v>2267</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>2527</c:v>
+                  <c:v>2525</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
                   <c:v>1238</c:v>
@@ -8978,73 +9041,73 @@
                   <c:v>2914</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="General">
-                  <c:v>3072</c:v>
+                  <c:v>3074</c:v>
                 </c:pt>
                 <c:pt idx="189" formatCode="General">
-                  <c:v>3230</c:v>
+                  <c:v>3236</c:v>
                 </c:pt>
                 <c:pt idx="190" formatCode="General">
-                  <c:v>1569</c:v>
+                  <c:v>1571</c:v>
                 </c:pt>
                 <c:pt idx="191" formatCode="General">
-                  <c:v>485</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="192" formatCode="General">
-                  <c:v>4009</c:v>
+                  <c:v>4011</c:v>
                 </c:pt>
                 <c:pt idx="193" formatCode="General">
-                  <c:v>3989</c:v>
+                  <c:v>3993</c:v>
                 </c:pt>
                 <c:pt idx="194" formatCode="General">
-                  <c:v>3888</c:v>
+                  <c:v>3892</c:v>
                 </c:pt>
                 <c:pt idx="195" formatCode="General">
                   <c:v>4289</c:v>
                 </c:pt>
                 <c:pt idx="196" formatCode="General">
-                  <c:v>4540</c:v>
+                  <c:v>4546</c:v>
                 </c:pt>
                 <c:pt idx="197" formatCode="General">
-                  <c:v>1984</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="198" formatCode="General">
-                  <c:v>874</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="199" formatCode="General">
-                  <c:v>5597</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
                 <c:pt idx="200" formatCode="General">
-                  <c:v>5338</c:v>
+                  <c:v>5342</c:v>
                 </c:pt>
                 <c:pt idx="201" formatCode="General">
-                  <c:v>5748</c:v>
+                  <c:v>5756</c:v>
                 </c:pt>
                 <c:pt idx="202" formatCode="General">
-                  <c:v>7058</c:v>
+                  <c:v>7056</c:v>
                 </c:pt>
                 <c:pt idx="203" formatCode="General">
-                  <c:v>7714</c:v>
+                  <c:v>7720</c:v>
                 </c:pt>
                 <c:pt idx="204" formatCode="General">
-                  <c:v>1518</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="205" formatCode="General">
-                  <c:v>1374</c:v>
+                  <c:v>1376</c:v>
                 </c:pt>
                 <c:pt idx="206" formatCode="General">
-                  <c:v>9980</c:v>
+                  <c:v>9986</c:v>
                 </c:pt>
                 <c:pt idx="207" formatCode="General">
-                  <c:v>9378</c:v>
+                  <c:v>9388</c:v>
                 </c:pt>
                 <c:pt idx="208" formatCode="General">
-                  <c:v>9633</c:v>
+                  <c:v>9635</c:v>
                 </c:pt>
                 <c:pt idx="209" formatCode="General">
-                  <c:v>10182</c:v>
+                  <c:v>10190</c:v>
                 </c:pt>
                 <c:pt idx="210" formatCode="General">
-                  <c:v>10169</c:v>
+                  <c:v>10177</c:v>
                 </c:pt>
                 <c:pt idx="211" formatCode="General">
                   <c:v>4438</c:v>
@@ -9053,58 +9116,79 @@
                   <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="213" formatCode="General">
-                  <c:v>13851</c:v>
+                  <c:v>13869</c:v>
                 </c:pt>
                 <c:pt idx="214" formatCode="General">
-                  <c:v>13392</c:v>
+                  <c:v>13456</c:v>
                 </c:pt>
                 <c:pt idx="215" formatCode="General">
-                  <c:v>13168</c:v>
+                  <c:v>13209</c:v>
                 </c:pt>
                 <c:pt idx="216" formatCode="General">
-                  <c:v>14654</c:v>
+                  <c:v>14696</c:v>
                 </c:pt>
                 <c:pt idx="217" formatCode="General">
-                  <c:v>15048</c:v>
+                  <c:v>15079</c:v>
                 </c:pt>
                 <c:pt idx="218" formatCode="General">
-                  <c:v>5944</c:v>
+                  <c:v>5980</c:v>
                 </c:pt>
                 <c:pt idx="219" formatCode="General">
-                  <c:v>2601</c:v>
+                  <c:v>2627</c:v>
                 </c:pt>
                 <c:pt idx="220" formatCode="General">
-                  <c:v>18340</c:v>
+                  <c:v>18830</c:v>
                 </c:pt>
                 <c:pt idx="221" formatCode="General">
-                  <c:v>16381</c:v>
+                  <c:v>17538</c:v>
                 </c:pt>
                 <c:pt idx="222" formatCode="General">
-                  <c:v>16031</c:v>
+                  <c:v>17954</c:v>
                 </c:pt>
                 <c:pt idx="223" formatCode="General">
-                  <c:v>16260</c:v>
+                  <c:v>19346</c:v>
                 </c:pt>
                 <c:pt idx="224" formatCode="General">
-                  <c:v>15733</c:v>
+                  <c:v>19848</c:v>
                 </c:pt>
                 <c:pt idx="225" formatCode="General">
-                  <c:v>5516</c:v>
+                  <c:v>7980</c:v>
                 </c:pt>
                 <c:pt idx="226" formatCode="General">
-                  <c:v>2892</c:v>
+                  <c:v>2918</c:v>
                 </c:pt>
                 <c:pt idx="227" formatCode="General">
-                  <c:v>21948</c:v>
+                  <c:v>23866</c:v>
                 </c:pt>
                 <c:pt idx="228" formatCode="General">
-                  <c:v>19439</c:v>
+                  <c:v>22511</c:v>
                 </c:pt>
                 <c:pt idx="229" formatCode="General">
-                  <c:v>17289</c:v>
+                  <c:v>21351</c:v>
                 </c:pt>
                 <c:pt idx="230" formatCode="General">
-                  <c:v>14042</c:v>
+                  <c:v>22120</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>20569</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>8251</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>25691</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>22372</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>20921</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>17736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10933,6 +11017,27 @@
                 <c:pt idx="231">
                   <c:v>363350</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>373911</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>381094</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>387252</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>395104</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>404888</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>415481</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>428696</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12642,6 +12747,27 @@
                 <c:pt idx="231">
                   <c:v>5155</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>5195</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5247</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5498</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5679</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5819</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5844</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5819</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14239,6 +14365,27 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15940,6 +16087,27 @@
                 <c:pt idx="231">
                   <c:v>89059</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>89231</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>89270</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>89507</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>89891</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>90335</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>90840</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>91574</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17749,25 +17917,25 @@
                   <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>0</c:v>
@@ -19616,6 +19784,27 @@
                 <c:pt idx="231">
                   <c:v>635</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21213,6 +21402,27 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22994,6 +23204,27 @@
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>20378</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20395</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>20401</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>20435</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>20471</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>20517</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>20567</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>20689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30045,9 +30276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36277,112 +36508,210 @@
       <c r="A234" s="12">
         <v>44086</v>
       </c>
-      <c r="B234" s="57"/>
-      <c r="C234" s="57"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
+      <c r="B234" s="57">
+        <v>373911</v>
+      </c>
+      <c r="C234" s="57">
+        <v>5195</v>
+      </c>
+      <c r="D234" s="57">
+        <v>89231</v>
+      </c>
+      <c r="E234" s="57">
+        <v>662</v>
+      </c>
+      <c r="F234" s="57">
+        <v>20395</v>
+      </c>
+      <c r="G234" s="57">
+        <v>41389</v>
+      </c>
+      <c r="H234" s="57">
+        <v>10515</v>
+      </c>
       <c r="I234" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>12/09/2020,,,,,,,</v>
+        <v>12/09/2020,373911,5195,89231,662,20395,41389,10515</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>44087</v>
       </c>
-      <c r="B235" s="57"/>
-      <c r="C235" s="57"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="57"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="57"/>
-      <c r="H235" s="57"/>
+      <c r="B235" s="57">
+        <v>381094</v>
+      </c>
+      <c r="C235" s="57">
+        <v>5247</v>
+      </c>
+      <c r="D235" s="57">
+        <v>89270</v>
+      </c>
+      <c r="E235" s="57">
+        <v>669</v>
+      </c>
+      <c r="F235" s="57">
+        <v>20401</v>
+      </c>
+      <c r="G235" s="57">
+        <v>41389</v>
+      </c>
+      <c r="H235" s="57">
+        <v>10515</v>
+      </c>
       <c r="I235" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>13/09/2020,,,,,,,</v>
+        <v>13/09/2020,381094,5247,89270,669,20401,41389,10515</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>44088</v>
       </c>
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="57"/>
-      <c r="E236" s="57"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="57"/>
-      <c r="H236" s="57"/>
+      <c r="B236" s="57">
+        <v>387252</v>
+      </c>
+      <c r="C236" s="57">
+        <v>5498</v>
+      </c>
+      <c r="D236" s="57">
+        <v>89507</v>
+      </c>
+      <c r="E236" s="57">
+        <v>712</v>
+      </c>
+      <c r="F236" s="57">
+        <v>20435</v>
+      </c>
+      <c r="G236" s="57">
+        <v>41389</v>
+      </c>
+      <c r="H236" s="57">
+        <v>10515</v>
+      </c>
       <c r="I236" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>14/09/2020,,,,,,,</v>
+        <v>14/09/2020,387252,5498,89507,712,20435,41389,10515</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>44089</v>
       </c>
-      <c r="B237" s="57"/>
-      <c r="C237" s="57"/>
-      <c r="D237" s="57"/>
-      <c r="E237" s="57"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="57"/>
-      <c r="H237" s="57"/>
+      <c r="B237" s="57">
+        <v>395104</v>
+      </c>
+      <c r="C237" s="57">
+        <v>5679</v>
+      </c>
+      <c r="D237" s="60">
+        <v>89891</v>
+      </c>
+      <c r="E237" s="57">
+        <v>759</v>
+      </c>
+      <c r="F237" s="57">
+        <v>20471</v>
+      </c>
+      <c r="G237" s="57">
+        <v>42047</v>
+      </c>
+      <c r="H237" s="57">
+        <v>10528</v>
+      </c>
       <c r="I237" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>15/09/2020,,,,,,,</v>
+        <v>15/09/2020,395104,5679,89891,759,20471,42047,10528</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>44090</v>
       </c>
-      <c r="B238" s="57"/>
-      <c r="C238" s="57"/>
-      <c r="D238" s="57"/>
-      <c r="E238" s="57"/>
-      <c r="F238" s="57"/>
-      <c r="G238" s="57"/>
-      <c r="H238" s="57"/>
+      <c r="B238" s="57">
+        <v>404888</v>
+      </c>
+      <c r="C238" s="57">
+        <v>5819</v>
+      </c>
+      <c r="D238" s="57">
+        <v>90335</v>
+      </c>
+      <c r="E238" s="57">
+        <v>803</v>
+      </c>
+      <c r="F238" s="57">
+        <v>20517</v>
+      </c>
+      <c r="G238" s="57">
+        <v>42047</v>
+      </c>
+      <c r="H238" s="57">
+        <v>10528</v>
+      </c>
       <c r="I238" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>16/09/2020,,,,,,,</v>
+        <v>16/09/2020,404888,5819,90335,803,20517,42047,10528</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>44091</v>
       </c>
-      <c r="B239" s="57"/>
-      <c r="C239" s="57"/>
-      <c r="D239" s="57"/>
-      <c r="E239" s="57"/>
-      <c r="F239" s="57"/>
-      <c r="G239" s="57"/>
-      <c r="H239" s="57"/>
+      <c r="B239" s="57">
+        <v>415481</v>
+      </c>
+      <c r="C239" s="57">
+        <v>5844</v>
+      </c>
+      <c r="D239" s="57">
+        <v>90840</v>
+      </c>
+      <c r="E239" s="57">
+        <v>800</v>
+      </c>
+      <c r="F239" s="57">
+        <v>20567</v>
+      </c>
+      <c r="G239" s="57">
+        <v>42047</v>
+      </c>
+      <c r="H239" s="57">
+        <v>10528</v>
+      </c>
       <c r="I239" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>17/09/2020,,,,,,,</v>
+        <v>17/09/2020,415481,5844,90840,800,20567,42047,10528</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>44092</v>
       </c>
-      <c r="B240" s="57"/>
-      <c r="C240" s="57"/>
-      <c r="D240" s="57"/>
-      <c r="E240" s="57"/>
-      <c r="F240" s="57"/>
-      <c r="G240" s="57"/>
-      <c r="H240" s="57"/>
+      <c r="B240" s="57">
+        <v>428696</v>
+      </c>
+      <c r="C240" s="57">
+        <v>5819</v>
+      </c>
+      <c r="D240" s="57">
+        <v>91574</v>
+      </c>
+      <c r="E240" s="57">
+        <v>827</v>
+      </c>
+      <c r="F240" s="57">
+        <v>20689</v>
+      </c>
+      <c r="G240" s="57">
+        <v>42699</v>
+      </c>
+      <c r="H240" s="57">
+        <v>10560</v>
+      </c>
       <c r="I240" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>18/09/2020,,,,,,,</v>
+        <v>18/09/2020,428696,5819,91574,827,20689,42699,10560</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -36653,7 +36982,7 @@
       <c r="G257" s="57"/>
       <c r="H257" s="57"/>
       <c r="I257" s="65" t="str">
-        <f t="shared" ref="I257:I320" si="4">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257</f>
+        <f t="shared" ref="I257:I304" si="4">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;B257&amp;","&amp;C257&amp;","&amp;D257&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257</f>
         <v>05/10/2020,,,,,,,</v>
       </c>
     </row>
@@ -37420,8 +37749,8 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H236" sqref="H236:H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -42312,14 +42641,14 @@
         <v>43964</v>
       </c>
       <c r="B112" s="11">
-        <v>79133</v>
+        <v>79097</v>
       </c>
       <c r="C112" s="11">
         <v>1794</v>
       </c>
       <c r="D112" s="67">
         <f>C112/B112</f>
-        <v>2.2670693642348957E-2</v>
+        <v>2.2681011922070369E-2</v>
       </c>
       <c r="E112" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B112),"",IF(ISBLANK('Totaux nationaux bruts'!B111),"",'Totaux nationaux bruts'!B112-'Totaux nationaux bruts'!B111))</f>
@@ -42365,14 +42694,14 @@
         <v>43965</v>
       </c>
       <c r="B113" s="11">
-        <v>85040</v>
+        <v>85005</v>
       </c>
       <c r="C113" s="11">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D113" s="67">
         <f t="shared" ref="D113:D176" si="2">C113/B113</f>
-        <v>2.358889934148636E-2</v>
+        <v>2.362213987412505E-2</v>
       </c>
       <c r="E113" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B113),"",IF(ISBLANK('Totaux nationaux bruts'!B112),"",'Totaux nationaux bruts'!B113-'Totaux nationaux bruts'!B112))</f>
@@ -42418,14 +42747,14 @@
         <v>43966</v>
       </c>
       <c r="B114" s="11">
-        <v>95577</v>
+        <v>95533</v>
       </c>
       <c r="C114" s="11">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="D114" s="67">
         <f t="shared" si="2"/>
-        <v>2.2097366521234188E-2</v>
+        <v>2.2128479164267845E-2</v>
       </c>
       <c r="E114" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B114),"",IF(ISBLANK('Totaux nationaux bruts'!B113),"",'Totaux nationaux bruts'!B114-'Totaux nationaux bruts'!B113))</f>
@@ -42471,14 +42800,14 @@
         <v>43967</v>
       </c>
       <c r="B115" s="11">
-        <v>32601</v>
+        <v>32605</v>
       </c>
       <c r="C115" s="11">
         <v>584</v>
       </c>
       <c r="D115" s="67">
         <f t="shared" si="2"/>
-        <v>1.7913560933713688E-2</v>
+        <v>1.7911363287839287E-2</v>
       </c>
       <c r="E115" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B115),"",IF(ISBLANK('Totaux nationaux bruts'!B114),"",'Totaux nationaux bruts'!B115-'Totaux nationaux bruts'!B114))</f>
@@ -42524,14 +42853,14 @@
         <v>43968</v>
       </c>
       <c r="B116" s="11">
-        <v>12619</v>
+        <v>12629</v>
       </c>
       <c r="C116" s="11">
         <v>280</v>
       </c>
       <c r="D116" s="67">
         <f t="shared" si="2"/>
-        <v>2.2188762976464063E-2</v>
+        <v>2.2171193285295748E-2</v>
       </c>
       <c r="E116" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B116),"",IF(ISBLANK('Totaux nationaux bruts'!B115),"",'Totaux nationaux bruts'!B116-'Totaux nationaux bruts'!B115))</f>
@@ -42577,14 +42906,14 @@
         <v>43969</v>
       </c>
       <c r="B117" s="11">
-        <v>101391</v>
+        <v>101315</v>
       </c>
       <c r="C117" s="11">
         <v>2245</v>
       </c>
       <c r="D117" s="67">
         <f t="shared" si="2"/>
-        <v>2.2142004714422386E-2</v>
+        <v>2.2158614222967971E-2</v>
       </c>
       <c r="E117" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B117),"",IF(ISBLANK('Totaux nationaux bruts'!B116),"",'Totaux nationaux bruts'!B117-'Totaux nationaux bruts'!B116))</f>
@@ -42630,14 +42959,14 @@
         <v>43970</v>
       </c>
       <c r="B118" s="11">
-        <v>104724</v>
+        <v>104606</v>
       </c>
       <c r="C118" s="11">
         <v>2102</v>
       </c>
       <c r="D118" s="67">
         <f t="shared" si="2"/>
-        <v>2.0071807799549292E-2</v>
+        <v>2.0094449649159705E-2</v>
       </c>
       <c r="E118" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B118),"",IF(ISBLANK('Totaux nationaux bruts'!B117),"",'Totaux nationaux bruts'!B118-'Totaux nationaux bruts'!B117))</f>
@@ -42683,14 +43012,14 @@
         <v>43971</v>
       </c>
       <c r="B119" s="11">
-        <v>104324</v>
+        <v>104258</v>
       </c>
       <c r="C119" s="11">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="D119" s="67">
         <f t="shared" si="2"/>
-        <v>2.0292550132280204E-2</v>
+        <v>2.0324579408774388E-2</v>
       </c>
       <c r="E119" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B119),"",IF(ISBLANK('Totaux nationaux bruts'!B118),"",'Totaux nationaux bruts'!B119-'Totaux nationaux bruts'!B118))</f>
@@ -42736,14 +43065,14 @@
         <v>43972</v>
       </c>
       <c r="B120" s="11">
-        <v>18106</v>
+        <v>18100</v>
       </c>
       <c r="C120" s="11">
         <v>364</v>
       </c>
       <c r="D120" s="67">
         <f t="shared" si="2"/>
-        <v>2.0103832983541368E-2</v>
+        <v>2.011049723756906E-2</v>
       </c>
       <c r="E120" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B120),"",IF(ISBLANK('Totaux nationaux bruts'!B119),"",'Totaux nationaux bruts'!B120-'Totaux nationaux bruts'!B119))</f>
@@ -42789,14 +43118,14 @@
         <v>43973</v>
       </c>
       <c r="B121" s="11">
-        <v>97635</v>
+        <v>97541</v>
       </c>
       <c r="C121" s="11">
         <v>1622</v>
       </c>
       <c r="D121" s="67">
         <f t="shared" si="2"/>
-        <v>1.6612894965944591E-2</v>
+        <v>1.6628904768251299E-2</v>
       </c>
       <c r="E121" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B121),"",IF(ISBLANK('Totaux nationaux bruts'!B120),"",'Totaux nationaux bruts'!B121-'Totaux nationaux bruts'!B120))</f>
@@ -42842,14 +43171,14 @@
         <v>43974</v>
       </c>
       <c r="B122" s="11">
-        <v>36315</v>
+        <v>36257</v>
       </c>
       <c r="C122" s="11">
         <v>496</v>
       </c>
       <c r="D122" s="67">
         <f t="shared" si="2"/>
-        <v>1.3658267933360869E-2</v>
+        <v>1.3680116942935158E-2</v>
       </c>
       <c r="E122" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B122),"",IF(ISBLANK('Totaux nationaux bruts'!B121),"",'Totaux nationaux bruts'!B122-'Totaux nationaux bruts'!B121))</f>
@@ -42895,14 +43224,14 @@
         <v>43975</v>
       </c>
       <c r="B123" s="11">
-        <v>12945</v>
+        <v>12935</v>
       </c>
       <c r="C123" s="11">
         <v>226</v>
       </c>
       <c r="D123" s="67">
         <f t="shared" si="2"/>
-        <v>1.7458478176902281E-2</v>
+        <v>1.7471975260919984E-2</v>
       </c>
       <c r="E123" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B123),"",IF(ISBLANK('Totaux nationaux bruts'!B122),"",'Totaux nationaux bruts'!B123-'Totaux nationaux bruts'!B122))</f>
@@ -42948,14 +43277,14 @@
         <v>43976</v>
       </c>
       <c r="B124" s="11">
-        <v>98401</v>
+        <v>98313</v>
       </c>
       <c r="C124" s="11">
         <v>1406</v>
       </c>
       <c r="D124" s="67">
         <f t="shared" si="2"/>
-        <v>1.428847267812319E-2</v>
+        <v>1.4301262294915219E-2</v>
       </c>
       <c r="E124" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B124),"",IF(ISBLANK('Totaux nationaux bruts'!B123),"",'Totaux nationaux bruts'!B124-'Totaux nationaux bruts'!B123))</f>
@@ -43001,14 +43330,14 @@
         <v>43977</v>
       </c>
       <c r="B125" s="11">
-        <v>102968</v>
+        <v>102910</v>
       </c>
       <c r="C125" s="11">
         <v>1518</v>
       </c>
       <c r="D125" s="67">
         <f t="shared" si="2"/>
-        <v>1.4742444254525679E-2</v>
+        <v>1.4750753085220095E-2</v>
       </c>
       <c r="E125" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B125),"",IF(ISBLANK('Totaux nationaux bruts'!B124),"",'Totaux nationaux bruts'!B125-'Totaux nationaux bruts'!B124))</f>
@@ -43054,14 +43383,14 @@
         <v>43978</v>
       </c>
       <c r="B126" s="11">
-        <v>87751</v>
+        <v>87677</v>
       </c>
       <c r="C126" s="11">
         <v>1454</v>
       </c>
       <c r="D126" s="67">
         <f t="shared" si="2"/>
-        <v>1.6569611742316328E-2</v>
+        <v>1.6583596610285481E-2</v>
       </c>
       <c r="E126" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B126),"",IF(ISBLANK('Totaux nationaux bruts'!B125),"",'Totaux nationaux bruts'!B126-'Totaux nationaux bruts'!B125))</f>
@@ -43107,14 +43436,14 @@
         <v>43979</v>
       </c>
       <c r="B127" s="11">
-        <v>84366</v>
+        <v>84300</v>
       </c>
       <c r="C127" s="11">
         <v>1270</v>
       </c>
       <c r="D127" s="67">
         <f t="shared" si="2"/>
-        <v>1.5053457553990944E-2</v>
+        <v>1.5065243179122183E-2</v>
       </c>
       <c r="E127" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B127),"",IF(ISBLANK('Totaux nationaux bruts'!B126),"",'Totaux nationaux bruts'!B127-'Totaux nationaux bruts'!B126))</f>
@@ -43160,14 +43489,14 @@
         <v>43980</v>
       </c>
       <c r="B128" s="11">
-        <v>93721</v>
+        <v>93645</v>
       </c>
       <c r="C128" s="11">
         <v>1136</v>
       </c>
       <c r="D128" s="67">
         <f t="shared" si="2"/>
-        <v>1.212108278827584E-2</v>
+        <v>1.2130919963692669E-2</v>
       </c>
       <c r="E128" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B128),"",IF(ISBLANK('Totaux nationaux bruts'!B127),"",'Totaux nationaux bruts'!B128-'Totaux nationaux bruts'!B127))</f>
@@ -43213,14 +43542,14 @@
         <v>43981</v>
       </c>
       <c r="B129" s="11">
-        <v>38244</v>
+        <v>38222</v>
       </c>
       <c r="C129" s="11">
         <v>680</v>
       </c>
       <c r="D129" s="67">
         <f t="shared" si="2"/>
-        <v>1.7780566886308965E-2</v>
+        <v>1.7790801109308776E-2</v>
       </c>
       <c r="E129" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B129),"",IF(ISBLANK('Totaux nationaux bruts'!B128),"",'Totaux nationaux bruts'!B129-'Totaux nationaux bruts'!B128))</f>
@@ -43266,14 +43595,14 @@
         <v>43982</v>
       </c>
       <c r="B130" s="11">
-        <v>15698</v>
+        <v>15680</v>
       </c>
       <c r="C130" s="11">
         <v>342</v>
       </c>
       <c r="D130" s="67">
         <f t="shared" si="2"/>
-        <v>2.1786214804433685E-2</v>
+        <v>2.181122448979592E-2</v>
       </c>
       <c r="E130" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B130),"",IF(ISBLANK('Totaux nationaux bruts'!B129),"",'Totaux nationaux bruts'!B130-'Totaux nationaux bruts'!B129))</f>
@@ -43319,14 +43648,14 @@
         <v>43983</v>
       </c>
       <c r="B131" s="11">
-        <v>18140</v>
+        <v>18118</v>
       </c>
       <c r="C131" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D131" s="67">
         <f t="shared" si="2"/>
-        <v>1.7199558985667034E-2</v>
+        <v>1.7330831217573683E-2</v>
       </c>
       <c r="E131" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B131),"",IF(ISBLANK('Totaux nationaux bruts'!B130),"",'Totaux nationaux bruts'!B131-'Totaux nationaux bruts'!B130))</f>
@@ -43372,14 +43701,14 @@
         <v>43984</v>
       </c>
       <c r="B132" s="11">
-        <v>92266</v>
+        <v>92148</v>
       </c>
       <c r="C132" s="11">
         <v>1449</v>
       </c>
       <c r="D132" s="67">
         <f t="shared" si="2"/>
-        <v>1.5704593241280644E-2</v>
+        <v>1.5724703737465817E-2</v>
       </c>
       <c r="E132" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B132),"",IF(ISBLANK('Totaux nationaux bruts'!B131),"",'Totaux nationaux bruts'!B132-'Totaux nationaux bruts'!B131))</f>
@@ -43425,14 +43754,14 @@
         <v>43985</v>
       </c>
       <c r="B133" s="11">
-        <v>85280</v>
+        <v>85160</v>
       </c>
       <c r="C133" s="11">
         <v>1304</v>
       </c>
       <c r="D133" s="67">
         <f t="shared" si="2"/>
-        <v>1.5290806754221389E-2</v>
+        <v>1.5312353217472992E-2</v>
       </c>
       <c r="E133" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B133),"",IF(ISBLANK('Totaux nationaux bruts'!B132),"",'Totaux nationaux bruts'!B133-'Totaux nationaux bruts'!B132))</f>
@@ -43478,14 +43807,14 @@
         <v>43986</v>
       </c>
       <c r="B134" s="11">
-        <v>78960</v>
+        <v>78860</v>
       </c>
       <c r="C134" s="11">
         <v>1225</v>
       </c>
       <c r="D134" s="67">
         <f t="shared" si="2"/>
-        <v>1.551418439716312E-2</v>
+        <v>1.5533857468932285E-2</v>
       </c>
       <c r="E134" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B134),"",IF(ISBLANK('Totaux nationaux bruts'!B133),"",'Totaux nationaux bruts'!B134-'Totaux nationaux bruts'!B133))</f>
@@ -43531,14 +43860,14 @@
         <v>43987</v>
       </c>
       <c r="B135" s="11">
-        <v>88814</v>
+        <v>88702</v>
       </c>
       <c r="C135" s="11">
         <v>1100</v>
       </c>
       <c r="D135" s="67">
         <f t="shared" si="2"/>
-        <v>1.2385434728758979E-2</v>
+        <v>1.2401073256521837E-2</v>
       </c>
       <c r="E135" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B135),"",IF(ISBLANK('Totaux nationaux bruts'!B134),"",'Totaux nationaux bruts'!B135-'Totaux nationaux bruts'!B134))</f>
@@ -43584,14 +43913,14 @@
         <v>43988</v>
       </c>
       <c r="B136" s="11">
-        <v>37143</v>
+        <v>37097</v>
       </c>
       <c r="C136" s="11">
         <v>519</v>
       </c>
       <c r="D136" s="67">
         <f t="shared" si="2"/>
-        <v>1.3973023180680074E-2</v>
+        <v>1.3990349623958811E-2</v>
       </c>
       <c r="E136" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B136),"",IF(ISBLANK('Totaux nationaux bruts'!B135),"",'Totaux nationaux bruts'!B136-'Totaux nationaux bruts'!B135))</f>
@@ -43637,14 +43966,14 @@
         <v>43989</v>
       </c>
       <c r="B137" s="11">
-        <v>13565</v>
+        <v>13555</v>
       </c>
       <c r="C137" s="11">
         <v>198</v>
       </c>
       <c r="D137" s="67">
         <f t="shared" si="2"/>
-        <v>1.4596387762624402E-2</v>
+        <v>1.4607156030984876E-2</v>
       </c>
       <c r="E137" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B137),"",IF(ISBLANK('Totaux nationaux bruts'!B136),"",'Totaux nationaux bruts'!B137-'Totaux nationaux bruts'!B136))</f>
@@ -43690,14 +44019,14 @@
         <v>43990</v>
       </c>
       <c r="B138" s="11">
-        <v>84395</v>
+        <v>84277</v>
       </c>
       <c r="C138" s="11">
         <v>1086</v>
       </c>
       <c r="D138" s="67">
         <f t="shared" si="2"/>
-        <v>1.2868060904081996E-2</v>
+        <v>1.2886078052137593E-2</v>
       </c>
       <c r="E138" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B138),"",IF(ISBLANK('Totaux nationaux bruts'!B137),"",'Totaux nationaux bruts'!B138-'Totaux nationaux bruts'!B137))</f>
@@ -43743,14 +44072,14 @@
         <v>43991</v>
       </c>
       <c r="B139" s="11">
-        <v>81622</v>
+        <v>81528</v>
       </c>
       <c r="C139" s="11">
         <v>1092</v>
       </c>
       <c r="D139" s="67">
         <f t="shared" si="2"/>
-        <v>1.3378745926343388E-2</v>
+        <v>1.3394171327642037E-2</v>
       </c>
       <c r="E139" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B139),"",IF(ISBLANK('Totaux nationaux bruts'!B138),"",'Totaux nationaux bruts'!B139-'Totaux nationaux bruts'!B138))</f>
@@ -43796,14 +44125,14 @@
         <v>43992</v>
       </c>
       <c r="B140" s="11">
-        <v>76371</v>
+        <v>76305</v>
       </c>
       <c r="C140" s="11">
         <v>1062</v>
       </c>
       <c r="D140" s="67">
         <f t="shared" si="2"/>
-        <v>1.3905801940527164E-2</v>
+        <v>1.3917829762138786E-2</v>
       </c>
       <c r="E140" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B140),"",IF(ISBLANK('Totaux nationaux bruts'!B139),"",'Totaux nationaux bruts'!B140-'Totaux nationaux bruts'!B139))</f>
@@ -43849,14 +44178,14 @@
         <v>43993</v>
       </c>
       <c r="B141" s="11">
-        <v>72395</v>
+        <v>72319</v>
       </c>
       <c r="C141" s="11">
         <v>1056</v>
       </c>
       <c r="D141" s="67">
         <f t="shared" si="2"/>
-        <v>1.4586642723945024E-2</v>
+        <v>1.4601971819300598E-2</v>
       </c>
       <c r="E141" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B141),"",IF(ISBLANK('Totaux nationaux bruts'!B140),"",'Totaux nationaux bruts'!B141-'Totaux nationaux bruts'!B140))</f>
@@ -43902,14 +44231,14 @@
         <v>43994</v>
       </c>
       <c r="B142" s="11">
-        <v>82854</v>
+        <v>82772</v>
       </c>
       <c r="C142" s="11">
         <v>1125</v>
       </c>
       <c r="D142" s="67">
         <f t="shared" si="2"/>
-        <v>1.3578101238322832E-2</v>
+        <v>1.3591552698980332E-2</v>
       </c>
       <c r="E142" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B142),"",IF(ISBLANK('Totaux nationaux bruts'!B141),"",'Totaux nationaux bruts'!B142-'Totaux nationaux bruts'!B141))</f>
@@ -43955,14 +44284,14 @@
         <v>43995</v>
       </c>
       <c r="B143" s="11">
-        <v>35566</v>
+        <v>35544</v>
       </c>
       <c r="C143" s="11">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D143" s="67">
         <f t="shared" si="2"/>
-        <v>1.0459427543159197E-2</v>
+        <v>1.0522169705154174E-2</v>
       </c>
       <c r="E143" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B143),"",IF(ISBLANK('Totaux nationaux bruts'!B142),"",'Totaux nationaux bruts'!B143-'Totaux nationaux bruts'!B142))</f>
@@ -44008,14 +44337,14 @@
         <v>43996</v>
       </c>
       <c r="B144" s="11">
-        <v>11649</v>
+        <v>11671</v>
       </c>
       <c r="C144" s="11">
         <v>172</v>
       </c>
       <c r="D144" s="67">
         <f t="shared" si="2"/>
-        <v>1.4765215898360374E-2</v>
+        <v>1.473738325764716E-2</v>
       </c>
       <c r="E144" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B144),"",IF(ISBLANK('Totaux nationaux bruts'!B143),"",'Totaux nationaux bruts'!B144-'Totaux nationaux bruts'!B143))</f>
@@ -44061,14 +44390,14 @@
         <v>43997</v>
       </c>
       <c r="B145" s="11">
-        <v>80897</v>
+        <v>80810</v>
       </c>
       <c r="C145" s="11">
         <v>974</v>
       </c>
       <c r="D145" s="67">
         <f t="shared" si="2"/>
-        <v>1.204000148336774E-2</v>
+        <v>1.2052963742111124E-2</v>
       </c>
       <c r="E145" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B145),"",IF(ISBLANK('Totaux nationaux bruts'!B144),"",'Totaux nationaux bruts'!B145-'Totaux nationaux bruts'!B144))</f>
@@ -44114,14 +44443,14 @@
         <v>43998</v>
       </c>
       <c r="B146" s="11">
-        <v>78893</v>
+        <v>78855</v>
       </c>
       <c r="C146" s="11">
         <v>1010</v>
       </c>
       <c r="D146" s="67">
         <f t="shared" si="2"/>
-        <v>1.2802149747125855E-2</v>
+        <v>1.2808319066641304E-2</v>
       </c>
       <c r="E146" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B146),"",IF(ISBLANK('Totaux nationaux bruts'!B145),"",'Totaux nationaux bruts'!B146-'Totaux nationaux bruts'!B145))</f>
@@ -44167,14 +44496,14 @@
         <v>43999</v>
       </c>
       <c r="B147" s="11">
-        <v>74385</v>
+        <v>74323</v>
       </c>
       <c r="C147" s="11">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="D147" s="67">
         <f t="shared" si="2"/>
-        <v>1.9278080258116555E-2</v>
+        <v>1.9347981109481587E-2</v>
       </c>
       <c r="E147" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B147),"",IF(ISBLANK('Totaux nationaux bruts'!B146),"",'Totaux nationaux bruts'!B147-'Totaux nationaux bruts'!B146))</f>
@@ -44220,14 +44549,14 @@
         <v>44000</v>
       </c>
       <c r="B148" s="11">
-        <v>70509</v>
+        <v>70477</v>
       </c>
       <c r="C148" s="11">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D148" s="67">
         <f t="shared" si="2"/>
-        <v>1.6409252719510985E-2</v>
+        <v>1.6445081374065296E-2</v>
       </c>
       <c r="E148" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B148),"",IF(ISBLANK('Totaux nationaux bruts'!B147),"",'Totaux nationaux bruts'!B148-'Totaux nationaux bruts'!B147))</f>
@@ -44273,14 +44602,14 @@
         <v>44001</v>
       </c>
       <c r="B149" s="11">
-        <v>85067</v>
+        <v>84991</v>
       </c>
       <c r="C149" s="11">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D149" s="67">
         <f t="shared" si="2"/>
-        <v>1.4870631384673257E-2</v>
+        <v>1.4907460789965996E-2</v>
       </c>
       <c r="E149" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B149),"",IF(ISBLANK('Totaux nationaux bruts'!B148),"",'Totaux nationaux bruts'!B149-'Totaux nationaux bruts'!B148))</f>
@@ -44326,14 +44655,14 @@
         <v>44002</v>
       </c>
       <c r="B150" s="11">
-        <v>40159</v>
+        <v>40117</v>
       </c>
       <c r="C150" s="11">
         <v>582</v>
       </c>
       <c r="D150" s="67">
         <f t="shared" si="2"/>
-        <v>1.4492392738863019E-2</v>
+        <v>1.4507565371288981E-2</v>
       </c>
       <c r="E150" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B150),"",IF(ISBLANK('Totaux nationaux bruts'!B149),"",'Totaux nationaux bruts'!B150-'Totaux nationaux bruts'!B149))</f>
@@ -44379,14 +44708,14 @@
         <v>44003</v>
       </c>
       <c r="B151" s="11">
-        <v>11323</v>
+        <v>11309</v>
       </c>
       <c r="C151" s="11">
         <v>156</v>
       </c>
       <c r="D151" s="67">
         <f t="shared" si="2"/>
-        <v>1.3777267508610792E-2</v>
+        <v>1.3794323105491202E-2</v>
       </c>
       <c r="E151" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B151),"",IF(ISBLANK('Totaux nationaux bruts'!B150),"",'Totaux nationaux bruts'!B151-'Totaux nationaux bruts'!B150))</f>
@@ -44432,14 +44761,14 @@
         <v>44004</v>
       </c>
       <c r="B152" s="11">
-        <v>88044</v>
+        <v>87930</v>
       </c>
       <c r="C152" s="11">
         <v>1142</v>
       </c>
       <c r="D152" s="67">
         <f t="shared" si="2"/>
-        <v>1.2970787333605925E-2</v>
+        <v>1.2987603775730695E-2</v>
       </c>
       <c r="E152" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B152),"",IF(ISBLANK('Totaux nationaux bruts'!B151),"",'Totaux nationaux bruts'!B152-'Totaux nationaux bruts'!B151))</f>
@@ -44485,14 +44814,14 @@
         <v>44005</v>
       </c>
       <c r="B153" s="11">
-        <v>89386</v>
+        <v>89226</v>
       </c>
       <c r="C153" s="11">
         <v>1314</v>
       </c>
       <c r="D153" s="67">
         <f t="shared" si="2"/>
-        <v>1.4700288635804264E-2</v>
+        <v>1.4726649182973573E-2</v>
       </c>
       <c r="E153" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B153),"",IF(ISBLANK('Totaux nationaux bruts'!B152),"",'Totaux nationaux bruts'!B153-'Totaux nationaux bruts'!B152))</f>
@@ -44538,14 +44867,14 @@
         <v>44006</v>
       </c>
       <c r="B154" s="11">
-        <v>84619</v>
+        <v>84501</v>
       </c>
       <c r="C154" s="11">
         <v>1339</v>
       </c>
       <c r="D154" s="67">
         <f t="shared" si="2"/>
-        <v>1.5823869343764403E-2</v>
+        <v>1.5845966319925207E-2</v>
       </c>
       <c r="E154" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B154),"",IF(ISBLANK('Totaux nationaux bruts'!B153),"",'Totaux nationaux bruts'!B154-'Totaux nationaux bruts'!B153))</f>
@@ -44591,14 +44920,14 @@
         <v>44007</v>
       </c>
       <c r="B155" s="11">
-        <v>73102</v>
+        <v>73014</v>
       </c>
       <c r="C155" s="11">
         <v>1020</v>
       </c>
       <c r="D155" s="67">
         <f t="shared" si="2"/>
-        <v>1.3953106618149982E-2</v>
+        <v>1.3969923576300435E-2</v>
       </c>
       <c r="E155" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B155),"",IF(ISBLANK('Totaux nationaux bruts'!B154),"",'Totaux nationaux bruts'!B155-'Totaux nationaux bruts'!B154))</f>
@@ -44644,14 +44973,14 @@
         <v>44008</v>
       </c>
       <c r="B156" s="11">
-        <v>94670</v>
+        <v>94562</v>
       </c>
       <c r="C156" s="11">
         <v>1149</v>
       </c>
       <c r="D156" s="67">
         <f t="shared" si="2"/>
-        <v>1.2136896588148304E-2</v>
+        <v>1.2150758232693895E-2</v>
       </c>
       <c r="E156" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B156),"",IF(ISBLANK('Totaux nationaux bruts'!B155),"",'Totaux nationaux bruts'!B156-'Totaux nationaux bruts'!B155))</f>
@@ -44697,14 +45026,14 @@
         <v>44009</v>
       </c>
       <c r="B157" s="11">
-        <v>45520</v>
+        <v>45456</v>
       </c>
       <c r="C157" s="11">
         <v>676</v>
       </c>
       <c r="D157" s="67">
         <f t="shared" si="2"/>
-        <v>1.4850615114235501E-2</v>
+        <v>1.487152411122844E-2</v>
       </c>
       <c r="E157" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B157),"",IF(ISBLANK('Totaux nationaux bruts'!B156),"",'Totaux nationaux bruts'!B157-'Totaux nationaux bruts'!B156))</f>
@@ -44746,14 +45075,14 @@
         <v>44010</v>
       </c>
       <c r="B158" s="11">
-        <v>14597</v>
+        <v>14587</v>
       </c>
       <c r="C158" s="11">
         <v>430</v>
       </c>
       <c r="D158" s="67">
         <f t="shared" si="2"/>
-        <v>2.9458107830376105E-2</v>
+        <v>2.947830259820388E-2</v>
       </c>
       <c r="E158" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B158),"",IF(ISBLANK('Totaux nationaux bruts'!B157),"",'Totaux nationaux bruts'!B158-'Totaux nationaux bruts'!B157))</f>
@@ -44795,14 +45124,14 @@
         <v>44011</v>
       </c>
       <c r="B159" s="11">
-        <v>112679</v>
+        <v>112527</v>
       </c>
       <c r="C159" s="11">
         <v>1343</v>
       </c>
       <c r="D159" s="67">
         <f t="shared" si="2"/>
-        <v>1.1918813620994152E-2</v>
+        <v>1.1934913398562123E-2</v>
       </c>
       <c r="E159" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B159),"",IF(ISBLANK('Totaux nationaux bruts'!B158),"",'Totaux nationaux bruts'!B159-'Totaux nationaux bruts'!B158))</f>
@@ -44848,14 +45177,14 @@
         <v>44012</v>
       </c>
       <c r="B160" s="11">
-        <v>109297</v>
+        <v>109163</v>
       </c>
       <c r="C160" s="11">
         <v>1416</v>
       </c>
       <c r="D160" s="67">
         <f t="shared" si="2"/>
-        <v>1.2955524854296092E-2</v>
+        <v>1.2971428047964971E-2</v>
       </c>
       <c r="E160" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B160),"",IF(ISBLANK('Totaux nationaux bruts'!B159),"",'Totaux nationaux bruts'!B160-'Totaux nationaux bruts'!B159))</f>
@@ -44901,14 +45230,14 @@
         <v>44013</v>
       </c>
       <c r="B161" s="11">
-        <v>105419</v>
+        <v>105459</v>
       </c>
       <c r="C161" s="11">
         <v>1255</v>
       </c>
       <c r="D161" s="67">
         <f t="shared" si="2"/>
-        <v>1.1904874832810025E-2</v>
+        <v>1.190035938137096E-2</v>
       </c>
       <c r="E161" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B161),"",IF(ISBLANK('Totaux nationaux bruts'!B160),"",'Totaux nationaux bruts'!B161-'Totaux nationaux bruts'!B160))</f>
@@ -44954,14 +45283,14 @@
         <v>44014</v>
       </c>
       <c r="B162" s="11">
-        <v>101734</v>
+        <v>101574</v>
       </c>
       <c r="C162" s="11">
         <v>1179</v>
       </c>
       <c r="D162" s="67">
         <f t="shared" si="2"/>
-        <v>1.1589045943342442E-2</v>
+        <v>1.1607301080985292E-2</v>
       </c>
       <c r="E162" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B162),"",IF(ISBLANK('Totaux nationaux bruts'!B161),"",'Totaux nationaux bruts'!B162-'Totaux nationaux bruts'!B161))</f>
@@ -45007,14 +45336,14 @@
         <v>44015</v>
       </c>
       <c r="B163" s="11">
-        <v>118952</v>
+        <v>118776</v>
       </c>
       <c r="C163" s="11">
         <v>1480</v>
       </c>
       <c r="D163" s="67">
         <f t="shared" si="2"/>
-        <v>1.2441993409106194E-2</v>
+        <v>1.2460429716441032E-2</v>
       </c>
       <c r="E163" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B163),"",IF(ISBLANK('Totaux nationaux bruts'!B162),"",'Totaux nationaux bruts'!B163-'Totaux nationaux bruts'!B162))</f>
@@ -45060,14 +45389,14 @@
         <v>44016</v>
       </c>
       <c r="B164" s="11">
-        <v>53557</v>
+        <v>53467</v>
       </c>
       <c r="C164" s="11">
         <v>701</v>
       </c>
       <c r="D164" s="67">
         <f t="shared" si="2"/>
-        <v>1.3088858599249398E-2</v>
+        <v>1.3110890829857669E-2</v>
       </c>
       <c r="E164" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B164),"",IF(ISBLANK('Totaux nationaux bruts'!B163),"",'Totaux nationaux bruts'!B164-'Totaux nationaux bruts'!B163))</f>
@@ -45109,14 +45438,14 @@
         <v>44017</v>
       </c>
       <c r="B165" s="11">
-        <v>15000</v>
+        <v>14986</v>
       </c>
       <c r="C165" s="11">
         <v>206</v>
       </c>
       <c r="D165" s="67">
         <f t="shared" si="2"/>
-        <v>1.3733333333333334E-2</v>
+        <v>1.374616308554651E-2</v>
       </c>
       <c r="E165" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B165),"",IF(ISBLANK('Totaux nationaux bruts'!B164),"",'Totaux nationaux bruts'!B165-'Totaux nationaux bruts'!B164))</f>
@@ -45158,14 +45487,14 @@
         <v>44018</v>
       </c>
       <c r="B166" s="11">
-        <v>121573</v>
+        <v>121397</v>
       </c>
       <c r="C166" s="11">
         <v>1348</v>
       </c>
       <c r="D166" s="67">
         <f t="shared" si="2"/>
-        <v>1.1087988286872907E-2</v>
+        <v>1.1104063527105282E-2</v>
       </c>
       <c r="E166" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B166),"",IF(ISBLANK('Totaux nationaux bruts'!B165),"",'Totaux nationaux bruts'!B166-'Totaux nationaux bruts'!B165))</f>
@@ -45211,14 +45540,14 @@
         <v>44019</v>
       </c>
       <c r="B167" s="11">
-        <v>120743</v>
+        <v>120578</v>
       </c>
       <c r="C167" s="11">
         <v>1134</v>
       </c>
       <c r="D167" s="67">
         <f t="shared" si="2"/>
-        <v>9.3918488028291499E-3</v>
+        <v>9.404700691668464E-3</v>
       </c>
       <c r="E167" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B167),"",IF(ISBLANK('Totaux nationaux bruts'!B166),"",'Totaux nationaux bruts'!B167-'Totaux nationaux bruts'!B166))</f>
@@ -45264,14 +45593,14 @@
         <v>44020</v>
       </c>
       <c r="B168" s="11">
-        <v>119420</v>
+        <v>119226</v>
       </c>
       <c r="C168" s="11">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D168" s="67">
         <f t="shared" si="2"/>
-        <v>1.1689834198626696E-2</v>
+        <v>1.1725630315535203E-2</v>
       </c>
       <c r="E168" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B168),"",IF(ISBLANK('Totaux nationaux bruts'!B167),"",'Totaux nationaux bruts'!B168-'Totaux nationaux bruts'!B167))</f>
@@ -45317,14 +45646,14 @@
         <v>44021</v>
       </c>
       <c r="B169" s="11">
-        <v>126441</v>
+        <v>126241</v>
       </c>
       <c r="C169" s="11">
         <v>1404</v>
       </c>
       <c r="D169" s="67">
         <f t="shared" si="2"/>
-        <v>1.1103993166773437E-2</v>
+        <v>1.1121584905062539E-2</v>
       </c>
       <c r="E169" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B169),"",IF(ISBLANK('Totaux nationaux bruts'!B168),"",'Totaux nationaux bruts'!B169-'Totaux nationaux bruts'!B168))</f>
@@ -45370,14 +45699,14 @@
         <v>44022</v>
       </c>
       <c r="B170" s="11">
-        <v>141267</v>
+        <v>141061</v>
       </c>
       <c r="C170" s="11">
         <v>1688</v>
       </c>
       <c r="D170" s="67">
         <f t="shared" si="2"/>
-        <v>1.1949004367615933E-2</v>
+        <v>1.1966454229021487E-2</v>
       </c>
       <c r="E170" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B170),"",IF(ISBLANK('Totaux nationaux bruts'!B169),"",'Totaux nationaux bruts'!B170-'Totaux nationaux bruts'!B169))</f>
@@ -45423,14 +45752,14 @@
         <v>44023</v>
       </c>
       <c r="B171" s="11">
-        <v>59727</v>
+        <v>59653</v>
       </c>
       <c r="C171" s="11">
         <v>696</v>
       </c>
       <c r="D171" s="67">
         <f t="shared" si="2"/>
-        <v>1.1653021246672359E-2</v>
+        <v>1.166747690811862E-2</v>
       </c>
       <c r="E171" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B171),"",IF(ISBLANK('Totaux nationaux bruts'!B170),"",'Totaux nationaux bruts'!B171-'Totaux nationaux bruts'!B170))</f>
@@ -45472,14 +45801,14 @@
         <v>44024</v>
       </c>
       <c r="B172" s="11">
-        <v>15048</v>
+        <v>15040</v>
       </c>
       <c r="C172" s="11">
         <v>222</v>
       </c>
       <c r="D172" s="67">
         <f t="shared" si="2"/>
-        <v>1.4752791068580542E-2</v>
+        <v>1.4760638297872341E-2</v>
       </c>
       <c r="E172" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B172),"",IF(ISBLANK('Totaux nationaux bruts'!B171),"",'Totaux nationaux bruts'!B172-'Totaux nationaux bruts'!B171))</f>
@@ -45521,14 +45850,14 @@
         <v>44025</v>
       </c>
       <c r="B173" s="11">
-        <v>143955</v>
+        <v>143777</v>
       </c>
       <c r="C173" s="11">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="D173" s="67">
         <f t="shared" si="2"/>
-        <v>1.2031537633288181E-2</v>
+        <v>1.2102074740744347E-2</v>
       </c>
       <c r="E173" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B173),"",IF(ISBLANK('Totaux nationaux bruts'!B172),"",'Totaux nationaux bruts'!B173-'Totaux nationaux bruts'!B172))</f>
@@ -45574,14 +45903,14 @@
         <v>44026</v>
       </c>
       <c r="B174" s="11">
-        <v>21478</v>
+        <v>21448</v>
       </c>
       <c r="C174" s="11">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D174" s="67">
         <f t="shared" si="2"/>
-        <v>1.6854455722134277E-2</v>
+        <v>1.650503543453935E-2</v>
       </c>
       <c r="E174" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B174),"",IF(ISBLANK('Totaux nationaux bruts'!B173),"",'Totaux nationaux bruts'!B174-'Totaux nationaux bruts'!B173))</f>
@@ -45623,14 +45952,14 @@
         <v>44027</v>
       </c>
       <c r="B175" s="11">
-        <v>144654</v>
+        <v>144424</v>
       </c>
       <c r="C175" s="11">
         <v>1693</v>
       </c>
       <c r="D175" s="67">
         <f t="shared" si="2"/>
-        <v>1.1703789732741577E-2</v>
+        <v>1.1722428405251204E-2</v>
       </c>
       <c r="E175" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B175),"",IF(ISBLANK('Totaux nationaux bruts'!B174),"",'Totaux nationaux bruts'!B175-'Totaux nationaux bruts'!B174))</f>
@@ -45676,14 +46005,14 @@
         <v>44028</v>
       </c>
       <c r="B176" s="11">
-        <v>153226</v>
+        <v>152930</v>
       </c>
       <c r="C176" s="11">
         <v>1938</v>
       </c>
       <c r="D176" s="67">
         <f t="shared" si="2"/>
-        <v>1.2647984023599129E-2</v>
+        <v>1.2672464526253842E-2</v>
       </c>
       <c r="E176" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B176),"",IF(ISBLANK('Totaux nationaux bruts'!B175),"",'Totaux nationaux bruts'!B176-'Totaux nationaux bruts'!B175))</f>
@@ -45729,14 +46058,14 @@
         <v>44029</v>
       </c>
       <c r="B177" s="11">
-        <v>171152</v>
+        <v>170884</v>
       </c>
       <c r="C177" s="11">
         <v>1901</v>
       </c>
       <c r="D177" s="67">
-        <f t="shared" ref="D177:D232" si="4">C177/B177</f>
-        <v>1.1107086098906236E-2</v>
+        <f t="shared" ref="D177:D239" si="4">C177/B177</f>
+        <v>1.1124505512511412E-2</v>
       </c>
       <c r="E177" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B177),"",IF(ISBLANK('Totaux nationaux bruts'!B176),"",'Totaux nationaux bruts'!B177-'Totaux nationaux bruts'!B176))</f>
@@ -45782,14 +46111,14 @@
         <v>44030</v>
       </c>
       <c r="B178" s="11">
-        <v>73731</v>
+        <v>73639</v>
       </c>
       <c r="C178" s="11">
         <v>889</v>
       </c>
       <c r="D178" s="67">
         <f t="shared" si="4"/>
-        <v>1.2057343586822368E-2</v>
+        <v>1.2072407284183653E-2</v>
       </c>
       <c r="E178" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B178),"",IF(ISBLANK('Totaux nationaux bruts'!B177),"",'Totaux nationaux bruts'!B178-'Totaux nationaux bruts'!B177))</f>
@@ -45831,14 +46160,14 @@
         <v>44031</v>
       </c>
       <c r="B179" s="11">
-        <v>21221</v>
+        <v>21197</v>
       </c>
       <c r="C179" s="11">
         <v>374</v>
       </c>
       <c r="D179" s="67">
         <f t="shared" si="4"/>
-        <v>1.7624051646953489E-2</v>
+        <v>1.7644006227296314E-2</v>
       </c>
       <c r="E179" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B179),"",IF(ISBLANK('Totaux nationaux bruts'!B178),"",'Totaux nationaux bruts'!B179-'Totaux nationaux bruts'!B178))</f>
@@ -45880,14 +46209,14 @@
         <v>44032</v>
       </c>
       <c r="B180" s="11">
-        <v>167143</v>
+        <v>166853</v>
       </c>
       <c r="C180" s="11">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D180" s="67">
         <f t="shared" si="4"/>
-        <v>1.230084418731266E-2</v>
+        <v>1.2334210352825541E-2</v>
       </c>
       <c r="E180" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B180),"",IF(ISBLANK('Totaux nationaux bruts'!B179),"",'Totaux nationaux bruts'!B180-'Totaux nationaux bruts'!B179))</f>
@@ -45929,14 +46258,14 @@
         <v>44033</v>
       </c>
       <c r="B181" s="11">
-        <v>162051</v>
+        <v>161787</v>
       </c>
       <c r="C181" s="11">
         <v>2173</v>
       </c>
       <c r="D181" s="67">
         <f t="shared" si="4"/>
-        <v>1.3409358782111804E-2</v>
+        <v>1.3431239840036592E-2</v>
       </c>
       <c r="E181" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B181),"",IF(ISBLANK('Totaux nationaux bruts'!B180),"",'Totaux nationaux bruts'!B181-'Totaux nationaux bruts'!B180))</f>
@@ -45982,14 +46311,14 @@
         <v>44034</v>
       </c>
       <c r="B182" s="11">
-        <v>160995</v>
+        <v>160727</v>
       </c>
       <c r="C182" s="11">
         <v>2320</v>
       </c>
       <c r="D182" s="67">
         <f t="shared" si="4"/>
-        <v>1.441038541569614E-2</v>
+        <v>1.4434413633054807E-2</v>
       </c>
       <c r="E182" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B182),"",IF(ISBLANK('Totaux nationaux bruts'!B181),"",'Totaux nationaux bruts'!B182-'Totaux nationaux bruts'!B181))</f>
@@ -46035,14 +46364,14 @@
         <v>44035</v>
       </c>
       <c r="B183" s="11">
-        <v>158995</v>
+        <v>158717</v>
       </c>
       <c r="C183" s="11">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="D183" s="67">
         <f t="shared" si="4"/>
-        <v>1.424573099783012E-2</v>
+        <v>1.4283284084250584E-2</v>
       </c>
       <c r="E183" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B183),"",IF(ISBLANK('Totaux nationaux bruts'!B182),"",'Totaux nationaux bruts'!B183-'Totaux nationaux bruts'!B182))</f>
@@ -46088,14 +46417,14 @@
         <v>44036</v>
       </c>
       <c r="B184" s="11">
-        <v>172949</v>
+        <v>172707</v>
       </c>
       <c r="C184" s="11">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="D184" s="67">
         <f t="shared" si="4"/>
-        <v>1.4611243777067228E-2</v>
+        <v>1.4620136995026258E-2</v>
       </c>
       <c r="E184" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B184),"",IF(ISBLANK('Totaux nationaux bruts'!B183),"",'Totaux nationaux bruts'!B184-'Totaux nationaux bruts'!B183))</f>
@@ -46141,14 +46470,14 @@
         <v>44037</v>
       </c>
       <c r="B185" s="11">
-        <v>78061</v>
+        <v>77943</v>
       </c>
       <c r="C185" s="11">
         <v>1238</v>
       </c>
       <c r="D185" s="67">
         <f t="shared" si="4"/>
-        <v>1.585939201393782E-2</v>
+        <v>1.5883401973236854E-2</v>
       </c>
       <c r="E185" s="52" t="str">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B185),"",IF(ISBLANK('Totaux nationaux bruts'!B184),"",'Totaux nationaux bruts'!B185-'Totaux nationaux bruts'!B184))</f>
@@ -46190,14 +46519,14 @@
         <v>44038</v>
       </c>
       <c r="B186" s="11">
-        <v>26344</v>
+        <v>26316</v>
       </c>
       <c r="C186" s="11">
         <v>518</v>
       </c>
       <c r="D186" s="67">
         <f t="shared" si="4"/>
-        <v>1.9662921348314606E-2</v>
+        <v>1.9683842529259764E-2</v>
       </c>
       <c r="E186" s="52" t="str">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B186),"",IF(ISBLANK('Totaux nationaux bruts'!B185),"",'Totaux nationaux bruts'!B186-'Totaux nationaux bruts'!B185))</f>
@@ -46239,14 +46568,14 @@
         <v>44039</v>
       </c>
       <c r="B187" s="11">
-        <v>183912</v>
+        <v>183614</v>
       </c>
       <c r="C187" s="11">
         <v>2823</v>
       </c>
       <c r="D187" s="67">
         <f t="shared" si="4"/>
-        <v>1.5349732480751664E-2</v>
+        <v>1.537464463494069E-2</v>
       </c>
       <c r="E187" s="52" t="str">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B187),"",IF(ISBLANK('Totaux nationaux bruts'!B186),"",'Totaux nationaux bruts'!B187-'Totaux nationaux bruts'!B186))</f>
@@ -46292,14 +46621,14 @@
         <v>44040</v>
       </c>
       <c r="B188" s="11">
-        <v>188203</v>
+        <v>187851</v>
       </c>
       <c r="C188" s="11">
         <v>2697</v>
       </c>
       <c r="D188" s="67">
         <f t="shared" si="4"/>
-        <v>1.4330271037124807E-2</v>
+        <v>1.4357123464873757E-2</v>
       </c>
       <c r="E188" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B188),"",IF(ISBLANK('Totaux nationaux bruts'!B187),"",'Totaux nationaux bruts'!B188-'Totaux nationaux bruts'!B187))</f>
@@ -46345,14 +46674,14 @@
         <v>44041</v>
       </c>
       <c r="B189" s="11">
-        <v>194979</v>
+        <v>195267</v>
       </c>
       <c r="C189" s="11">
         <v>2914</v>
       </c>
       <c r="D189" s="67">
         <f t="shared" si="4"/>
-        <v>1.4945199226583376E-2</v>
+        <v>1.49231564985379E-2</v>
       </c>
       <c r="E189" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B189),"",IF(ISBLANK('Totaux nationaux bruts'!B188),"",'Totaux nationaux bruts'!B189-'Totaux nationaux bruts'!B188))</f>
@@ -46398,14 +46727,14 @@
         <v>44042</v>
       </c>
       <c r="B190" s="11">
-        <v>188256</v>
+        <v>188900</v>
       </c>
       <c r="C190" s="11">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="D190" s="67">
         <f t="shared" si="4"/>
-        <v>1.6318204997450281E-2</v>
+        <v>1.6273160402329276E-2</v>
       </c>
       <c r="E190" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B190),"",IF(ISBLANK('Totaux nationaux bruts'!B189),"",'Totaux nationaux bruts'!B190-'Totaux nationaux bruts'!B189))</f>
@@ -46451,14 +46780,14 @@
         <v>44043</v>
       </c>
       <c r="B191" s="11">
-        <v>195784</v>
+        <v>196194</v>
       </c>
       <c r="C191" s="11">
-        <v>3230</v>
+        <v>3236</v>
       </c>
       <c r="D191" s="67">
         <f t="shared" si="4"/>
-        <v>1.6497773056020921E-2</v>
+        <v>1.6493878508007379E-2</v>
       </c>
       <c r="E191" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B191),"",IF(ISBLANK('Totaux nationaux bruts'!B190),"",'Totaux nationaux bruts'!B191-'Totaux nationaux bruts'!B190))</f>
@@ -46504,14 +46833,14 @@
         <v>44044</v>
       </c>
       <c r="B192" s="11">
-        <v>85125</v>
+        <v>85581</v>
       </c>
       <c r="C192" s="11">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D192" s="67">
         <f t="shared" si="4"/>
-        <v>1.8431718061674009E-2</v>
+        <v>1.8356878279057267E-2</v>
       </c>
       <c r="E192" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B192),"",IF(ISBLANK('Totaux nationaux bruts'!B191),"",'Totaux nationaux bruts'!B192-'Totaux nationaux bruts'!B191))</f>
@@ -46553,14 +46882,14 @@
         <v>44045</v>
       </c>
       <c r="B193" s="11">
-        <v>28623</v>
+        <v>28717</v>
       </c>
       <c r="C193" s="11">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D193" s="67">
         <f t="shared" si="4"/>
-        <v>1.6944415330328758E-2</v>
+        <v>1.7167531427377512E-2</v>
       </c>
       <c r="E193" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B193),"",IF(ISBLANK('Totaux nationaux bruts'!B192),"",'Totaux nationaux bruts'!B193-'Totaux nationaux bruts'!B192))</f>
@@ -46602,14 +46931,14 @@
         <v>44046</v>
       </c>
       <c r="B194" s="11">
-        <v>199410</v>
+        <v>199304</v>
       </c>
       <c r="C194" s="11">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="D194" s="67">
         <f t="shared" si="4"/>
-        <v>2.0104307707737825E-2</v>
+        <v>2.0125035122225344E-2</v>
       </c>
       <c r="E194" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B194),"",IF(ISBLANK('Totaux nationaux bruts'!B193),"",'Totaux nationaux bruts'!B194-'Totaux nationaux bruts'!B193))</f>
@@ -46655,14 +46984,14 @@
         <v>44047</v>
       </c>
       <c r="B195" s="11">
-        <v>189693</v>
+        <v>189403</v>
       </c>
       <c r="C195" s="11">
-        <v>3989</v>
+        <v>3993</v>
       </c>
       <c r="D195" s="67">
         <f t="shared" si="4"/>
-        <v>2.1028714818153542E-2</v>
+        <v>2.1082031435616121E-2</v>
       </c>
       <c r="E195" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B195),"",IF(ISBLANK('Totaux nationaux bruts'!B194),"",'Totaux nationaux bruts'!B195-'Totaux nationaux bruts'!B194))</f>
@@ -46708,14 +47037,14 @@
         <v>44048</v>
       </c>
       <c r="B196" s="11">
-        <v>189939</v>
+        <v>189711</v>
       </c>
       <c r="C196" s="11">
-        <v>3888</v>
+        <v>3892</v>
       </c>
       <c r="D196" s="67">
         <f t="shared" si="4"/>
-        <v>2.0469729755342506E-2</v>
+        <v>2.0515415553130814E-2</v>
       </c>
       <c r="E196" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B196),"",IF(ISBLANK('Totaux nationaux bruts'!B195),"",'Totaux nationaux bruts'!B196-'Totaux nationaux bruts'!B195))</f>
@@ -46761,14 +47090,14 @@
         <v>44049</v>
       </c>
       <c r="B197" s="11">
-        <v>194949</v>
+        <v>194531</v>
       </c>
       <c r="C197" s="11">
         <v>4289</v>
       </c>
       <c r="D197" s="67">
         <f t="shared" si="4"/>
-        <v>2.2000625804697638E-2</v>
+        <v>2.2047899820594147E-2</v>
       </c>
       <c r="E197" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B197),"",IF(ISBLANK('Totaux nationaux bruts'!B196),"",'Totaux nationaux bruts'!B197-'Totaux nationaux bruts'!B196))</f>
@@ -46814,14 +47143,14 @@
         <v>44050</v>
       </c>
       <c r="B198" s="11">
-        <v>198319</v>
+        <v>198043</v>
       </c>
       <c r="C198" s="11">
-        <v>4540</v>
+        <v>4546</v>
       </c>
       <c r="D198" s="67">
         <f t="shared" si="4"/>
-        <v>2.2892410712034652E-2</v>
+        <v>2.295461086733689E-2</v>
       </c>
       <c r="E198" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B198),"",IF(ISBLANK('Totaux nationaux bruts'!B197),"",'Totaux nationaux bruts'!B198-'Totaux nationaux bruts'!B197))</f>
@@ -46867,14 +47196,14 @@
         <v>44051</v>
       </c>
       <c r="B199" s="11">
-        <v>88031</v>
+        <v>88009</v>
       </c>
       <c r="C199" s="11">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="D199" s="67">
         <f t="shared" si="4"/>
-        <v>2.2537515193511378E-2</v>
+        <v>2.2634048790464611E-2</v>
       </c>
       <c r="E199" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B199),"",IF(ISBLANK('Totaux nationaux bruts'!B198),"",'Totaux nationaux bruts'!B199-'Totaux nationaux bruts'!B198))</f>
@@ -46916,14 +47245,14 @@
         <v>44052</v>
       </c>
       <c r="B200" s="11">
-        <v>29573</v>
+        <v>29641</v>
       </c>
       <c r="C200" s="11">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D200" s="67">
         <f t="shared" si="4"/>
-        <v>2.9553985053934331E-2</v>
+        <v>2.9688606997064878E-2</v>
       </c>
       <c r="E200" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B200),"",IF(ISBLANK('Totaux nationaux bruts'!B199),"",'Totaux nationaux bruts'!B200-'Totaux nationaux bruts'!B199))</f>
@@ -46965,14 +47294,14 @@
         <v>44053</v>
       </c>
       <c r="B201" s="11">
-        <v>202815</v>
+        <v>202459</v>
       </c>
       <c r="C201" s="11">
-        <v>5597</v>
+        <v>5605</v>
       </c>
       <c r="D201" s="67">
         <f t="shared" si="4"/>
-        <v>2.7596578162364716E-2</v>
+        <v>2.7684617626284828E-2</v>
       </c>
       <c r="E201" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B201),"",IF(ISBLANK('Totaux nationaux bruts'!B200),"",'Totaux nationaux bruts'!B201-'Totaux nationaux bruts'!B200))</f>
@@ -47018,14 +47347,14 @@
         <v>44054</v>
       </c>
       <c r="B202" s="11">
-        <v>185353</v>
+        <v>185027</v>
       </c>
       <c r="C202" s="11">
-        <v>5338</v>
+        <v>5342</v>
       </c>
       <c r="D202" s="67">
         <f t="shared" si="4"/>
-        <v>2.8799102253537844E-2</v>
+        <v>2.8871462002842827E-2</v>
       </c>
       <c r="E202" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B202),"",IF(ISBLANK('Totaux nationaux bruts'!B201),"",'Totaux nationaux bruts'!B202-'Totaux nationaux bruts'!B201))</f>
@@ -47071,14 +47400,14 @@
         <v>44055</v>
       </c>
       <c r="B203" s="11">
-        <v>193209</v>
+        <v>192895</v>
       </c>
       <c r="C203" s="11">
-        <v>5748</v>
+        <v>5756</v>
       </c>
       <c r="D203" s="67">
         <f t="shared" si="4"/>
-        <v>2.9750166917690168E-2</v>
+        <v>2.9840068431011689E-2</v>
       </c>
       <c r="E203" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B203),"",IF(ISBLANK('Totaux nationaux bruts'!B202),"",'Totaux nationaux bruts'!B203-'Totaux nationaux bruts'!B202))</f>
@@ -47124,14 +47453,14 @@
         <v>44056</v>
       </c>
       <c r="B204" s="11">
-        <v>211262</v>
+        <v>210822</v>
       </c>
       <c r="C204" s="11">
-        <v>7058</v>
+        <v>7056</v>
       </c>
       <c r="D204" s="67">
         <f t="shared" si="4"/>
-        <v>3.3408753112249244E-2</v>
+        <v>3.3468992799612941E-2</v>
       </c>
       <c r="E204" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B204),"",IF(ISBLANK('Totaux nationaux bruts'!B203),"",'Totaux nationaux bruts'!B204-'Totaux nationaux bruts'!B203))</f>
@@ -47177,14 +47506,14 @@
         <v>44057</v>
       </c>
       <c r="B205" s="11">
-        <v>232062</v>
+        <v>231730</v>
       </c>
       <c r="C205" s="11">
-        <v>7714</v>
+        <v>7720</v>
       </c>
       <c r="D205" s="67">
         <f t="shared" si="4"/>
-        <v>3.3241116598150496E-2</v>
+        <v>3.3314633409571484E-2</v>
       </c>
       <c r="E205" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B205),"",IF(ISBLANK('Totaux nationaux bruts'!B204),"",'Totaux nationaux bruts'!B205-'Totaux nationaux bruts'!B204))</f>
@@ -47230,14 +47559,14 @@
         <v>44058</v>
       </c>
       <c r="B206" s="11">
-        <v>46459</v>
+        <v>46443</v>
       </c>
       <c r="C206" s="11">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="D206" s="67">
         <f t="shared" si="4"/>
-        <v>3.2673970597731333E-2</v>
+        <v>3.2728290592769632E-2</v>
       </c>
       <c r="E206" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B206),"",IF(ISBLANK('Totaux nationaux bruts'!B205),"",'Totaux nationaux bruts'!B206-'Totaux nationaux bruts'!B205))</f>
@@ -47283,14 +47612,14 @@
         <v>44059</v>
       </c>
       <c r="B207" s="11">
-        <v>38074</v>
+        <v>38060</v>
       </c>
       <c r="C207" s="11">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D207" s="67">
         <f t="shared" si="4"/>
-        <v>3.6087618847507483E-2</v>
+        <v>3.6153441933788756E-2</v>
       </c>
       <c r="E207" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B207),"",IF(ISBLANK('Totaux nationaux bruts'!B206),"",'Totaux nationaux bruts'!B207-'Totaux nationaux bruts'!B206))</f>
@@ -47336,14 +47665,14 @@
         <v>44060</v>
       </c>
       <c r="B208" s="11">
-        <v>265785</v>
+        <v>265304</v>
       </c>
       <c r="C208" s="11">
-        <v>9980</v>
+        <v>9986</v>
       </c>
       <c r="D208" s="67">
         <f t="shared" si="4"/>
-        <v>3.7549146866828455E-2</v>
+        <v>3.7639839580255102E-2</v>
       </c>
       <c r="E208" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B208),"",IF(ISBLANK('Totaux nationaux bruts'!B207),"",'Totaux nationaux bruts'!B208-'Totaux nationaux bruts'!B207))</f>
@@ -47389,14 +47718,14 @@
         <v>44061</v>
       </c>
       <c r="B209" s="11">
-        <v>253077</v>
+        <v>252670</v>
       </c>
       <c r="C209" s="11">
-        <v>9378</v>
+        <v>9388</v>
       </c>
       <c r="D209" s="67">
         <f t="shared" si="4"/>
-        <v>3.7055915788475446E-2</v>
+        <v>3.7155182649305417E-2</v>
       </c>
       <c r="E209" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B209),"",IF(ISBLANK('Totaux nationaux bruts'!B208),"",'Totaux nationaux bruts'!B209-'Totaux nationaux bruts'!B208))</f>
@@ -47442,14 +47771,14 @@
         <v>44062</v>
       </c>
       <c r="B210" s="11">
-        <v>249710</v>
+        <v>249309</v>
       </c>
       <c r="C210" s="11">
-        <v>9633</v>
+        <v>9635</v>
       </c>
       <c r="D210" s="67">
         <f t="shared" si="4"/>
-        <v>3.8576749028873494E-2</v>
+        <v>3.8646819809954713E-2</v>
       </c>
       <c r="E210" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B210),"",IF(ISBLANK('Totaux nationaux bruts'!B209),"",'Totaux nationaux bruts'!B210-'Totaux nationaux bruts'!B209))</f>
@@ -47495,14 +47824,14 @@
         <v>44063</v>
       </c>
       <c r="B211" s="11">
-        <v>265092</v>
+        <v>264538</v>
       </c>
       <c r="C211" s="11">
-        <v>10182</v>
+        <v>10190</v>
       </c>
       <c r="D211" s="67">
         <f t="shared" si="4"/>
-        <v>3.8409306957584537E-2</v>
+        <v>3.8519985786541061E-2</v>
       </c>
       <c r="E211" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B211),"",IF(ISBLANK('Totaux nationaux bruts'!B210),"",'Totaux nationaux bruts'!B211-'Totaux nationaux bruts'!B210))</f>
@@ -47548,14 +47877,14 @@
         <v>44064</v>
       </c>
       <c r="B212" s="11">
-        <v>286290</v>
+        <v>285879</v>
       </c>
       <c r="C212" s="11">
-        <v>10169</v>
+        <v>10177</v>
       </c>
       <c r="D212" s="67">
         <f t="shared" si="4"/>
-        <v>3.5519927346397008E-2</v>
+        <v>3.5598977189650167E-2</v>
       </c>
       <c r="E212" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B212),"",IF(ISBLANK('Totaux nationaux bruts'!B211),"",'Totaux nationaux bruts'!B212-'Totaux nationaux bruts'!B211))</f>
@@ -47601,14 +47930,14 @@
         <v>44065</v>
       </c>
       <c r="B213" s="11">
-        <v>121206</v>
+        <v>121048</v>
       </c>
       <c r="C213" s="11">
         <v>4438</v>
       </c>
       <c r="D213" s="67">
         <f t="shared" si="4"/>
-        <v>3.6615349075128291E-2</v>
+        <v>3.6663141894124646E-2</v>
       </c>
       <c r="E213" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B213),"",IF(ISBLANK('Totaux nationaux bruts'!B212),"",'Totaux nationaux bruts'!B213-'Totaux nationaux bruts'!B212))</f>
@@ -47654,14 +47983,14 @@
         <v>44066</v>
       </c>
       <c r="B214" s="11">
-        <v>40174</v>
+        <v>40164</v>
       </c>
       <c r="C214" s="11">
         <v>1994</v>
       </c>
       <c r="D214" s="67">
         <f t="shared" si="4"/>
-        <v>4.9634091701100211E-2</v>
+        <v>4.9646449556817053E-2</v>
       </c>
       <c r="E214" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B214),"",IF(ISBLANK('Totaux nationaux bruts'!B213),"",'Totaux nationaux bruts'!B214-'Totaux nationaux bruts'!B213))</f>
@@ -47707,14 +48036,14 @@
         <v>44067</v>
       </c>
       <c r="B215" s="11">
-        <v>318491</v>
+        <v>317967</v>
       </c>
       <c r="C215" s="11">
-        <v>13851</v>
+        <v>13869</v>
       </c>
       <c r="D215" s="67">
         <f t="shared" si="4"/>
-        <v>4.3489454961050708E-2</v>
+        <v>4.3617733915783712E-2</v>
       </c>
       <c r="E215" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B215),"",IF(ISBLANK('Totaux nationaux bruts'!B214),"",'Totaux nationaux bruts'!B215-'Totaux nationaux bruts'!B214))</f>
@@ -47760,14 +48089,14 @@
         <v>44068</v>
       </c>
       <c r="B216" s="11">
-        <v>304152</v>
+        <v>304028</v>
       </c>
       <c r="C216" s="11">
-        <v>13392</v>
+        <v>13456</v>
       </c>
       <c r="D216" s="67">
         <f t="shared" si="4"/>
-        <v>4.4030616270811965E-2</v>
+        <v>4.4259081400397332E-2</v>
       </c>
       <c r="E216" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B216),"",IF(ISBLANK('Totaux nationaux bruts'!B215),"",'Totaux nationaux bruts'!B216-'Totaux nationaux bruts'!B215))</f>
@@ -47813,14 +48142,14 @@
         <v>44069</v>
       </c>
       <c r="B217" s="11">
-        <v>309813</v>
+        <v>309647</v>
       </c>
       <c r="C217" s="11">
-        <v>13168</v>
+        <v>13209</v>
       </c>
       <c r="D217" s="67">
         <f t="shared" si="4"/>
-        <v>4.2503058296456252E-2</v>
+        <v>4.2658252784622493E-2</v>
       </c>
       <c r="E217" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B217),"",IF(ISBLANK('Totaux nationaux bruts'!B216),"",'Totaux nationaux bruts'!B217-'Totaux nationaux bruts'!B216))</f>
@@ -47866,14 +48195,14 @@
         <v>44070</v>
       </c>
       <c r="B218" s="11">
-        <v>333066</v>
+        <v>332996</v>
       </c>
       <c r="C218" s="11">
-        <v>14654</v>
+        <v>14696</v>
       </c>
       <c r="D218" s="67">
         <f t="shared" si="4"/>
-        <v>4.3997285823230231E-2</v>
+        <v>4.4132662254201253E-2</v>
       </c>
       <c r="E218" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B218),"",IF(ISBLANK('Totaux nationaux bruts'!B217),"",'Totaux nationaux bruts'!B218-'Totaux nationaux bruts'!B217))</f>
@@ -47919,14 +48248,14 @@
         <v>44071</v>
       </c>
       <c r="B219" s="11">
-        <v>345394</v>
+        <v>345542</v>
       </c>
       <c r="C219" s="11">
-        <v>15048</v>
+        <v>15079</v>
       </c>
       <c r="D219" s="67">
         <f t="shared" si="4"/>
-        <v>4.3567635801432567E-2</v>
+        <v>4.3638689363376955E-2</v>
       </c>
       <c r="E219" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B219),"",IF(ISBLANK('Totaux nationaux bruts'!B218),"",'Totaux nationaux bruts'!B219-'Totaux nationaux bruts'!B218))</f>
@@ -47972,14 +48301,14 @@
         <v>44072</v>
       </c>
       <c r="B220" s="11">
-        <v>146536</v>
+        <v>146776</v>
       </c>
       <c r="C220" s="11">
-        <v>5944</v>
+        <v>5980</v>
       </c>
       <c r="D220" s="67">
         <f t="shared" si="4"/>
-        <v>4.0563411038925586E-2</v>
+        <v>4.0742355698479317E-2</v>
       </c>
       <c r="E220" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B220),"",IF(ISBLANK('Totaux nationaux bruts'!B219),"",'Totaux nationaux bruts'!B220-'Totaux nationaux bruts'!B219))</f>
@@ -48025,14 +48354,14 @@
         <v>44073</v>
       </c>
       <c r="B221" s="11">
-        <v>47085</v>
+        <v>47251</v>
       </c>
       <c r="C221" s="11">
-        <v>2601</v>
+        <v>2627</v>
       </c>
       <c r="D221" s="67">
         <f t="shared" si="4"/>
-        <v>5.524052245938197E-2</v>
+        <v>5.5596706948001104E-2</v>
       </c>
       <c r="E221" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B221),"",IF(ISBLANK('Totaux nationaux bruts'!B220),"",'Totaux nationaux bruts'!B221-'Totaux nationaux bruts'!B220))</f>
@@ -48078,14 +48407,14 @@
         <v>44074</v>
       </c>
       <c r="B222" s="11">
-        <v>363208</v>
+        <v>369086</v>
       </c>
       <c r="C222" s="11">
-        <v>18340</v>
+        <v>18830</v>
       </c>
       <c r="D222" s="67">
         <f t="shared" si="4"/>
-        <v>5.0494482500385456E-2</v>
+        <v>5.1017919942777566E-2</v>
       </c>
       <c r="E222" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B222),"",IF(ISBLANK('Totaux nationaux bruts'!B221),"",'Totaux nationaux bruts'!B222-'Totaux nationaux bruts'!B221))</f>
@@ -48131,14 +48460,14 @@
         <v>44075</v>
       </c>
       <c r="B223" s="11">
-        <v>314555</v>
+        <v>331148</v>
       </c>
       <c r="C223" s="11">
-        <v>16381</v>
+        <v>17538</v>
       </c>
       <c r="D223" s="67">
         <f t="shared" si="4"/>
-        <v>5.2076743335823621E-2</v>
+        <v>5.2961213717129502E-2</v>
       </c>
       <c r="E223" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B223),"",IF(ISBLANK('Totaux nationaux bruts'!B222),"",'Totaux nationaux bruts'!B223-'Totaux nationaux bruts'!B222))</f>
@@ -48184,14 +48513,14 @@
         <v>44076</v>
       </c>
       <c r="B224" s="11">
-        <v>300033</v>
+        <v>328944</v>
       </c>
       <c r="C224" s="11">
-        <v>16031</v>
+        <v>17954</v>
       </c>
       <c r="D224" s="67">
         <f t="shared" si="4"/>
-        <v>5.3430789279845882E-2</v>
+        <v>5.4580718906561604E-2</v>
       </c>
       <c r="E224" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B224),"",IF(ISBLANK('Totaux nationaux bruts'!B223),"",'Totaux nationaux bruts'!B224-'Totaux nationaux bruts'!B223))</f>
@@ -48237,14 +48566,14 @@
         <v>44077</v>
       </c>
       <c r="B225" s="11">
-        <v>301165</v>
+        <v>341739</v>
       </c>
       <c r="C225" s="11">
-        <v>16260</v>
+        <v>19346</v>
       </c>
       <c r="D225" s="67">
         <f t="shared" si="4"/>
-        <v>5.3990337522620488E-2</v>
+        <v>5.6610454177018134E-2</v>
       </c>
       <c r="E225" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B225),"",IF(ISBLANK('Totaux nationaux bruts'!B224),"",'Totaux nationaux bruts'!B225-'Totaux nationaux bruts'!B224))</f>
@@ -48290,14 +48619,14 @@
         <v>44078</v>
       </c>
       <c r="B226" s="11">
-        <v>305977</v>
+        <v>367045</v>
       </c>
       <c r="C226" s="11">
-        <v>15733</v>
+        <v>19848</v>
       </c>
       <c r="D226" s="67">
         <f t="shared" si="4"/>
-        <v>5.1418897498831613E-2</v>
+        <v>5.4075113405713193E-2</v>
       </c>
       <c r="E226" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B226),"",IF(ISBLANK('Totaux nationaux bruts'!B225),"",'Totaux nationaux bruts'!B226-'Totaux nationaux bruts'!B225))</f>
@@ -48343,14 +48672,14 @@
         <v>44079</v>
       </c>
       <c r="B227" s="11">
-        <v>118097</v>
+        <v>158686</v>
       </c>
       <c r="C227" s="11">
-        <v>5516</v>
+        <v>7980</v>
       </c>
       <c r="D227" s="67">
         <f t="shared" si="4"/>
-        <v>4.6707367672337144E-2</v>
+        <v>5.0287990118851066E-2</v>
       </c>
       <c r="E227" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B227),"",IF(ISBLANK('Totaux nationaux bruts'!B226),"",'Totaux nationaux bruts'!B227-'Totaux nationaux bruts'!B226))</f>
@@ -48396,14 +48725,14 @@
         <v>44080</v>
       </c>
       <c r="B228" s="11">
-        <v>46051</v>
+        <v>46763</v>
       </c>
       <c r="C228" s="11">
-        <v>2892</v>
+        <v>2918</v>
       </c>
       <c r="D228" s="67">
         <f t="shared" si="4"/>
-        <v>6.2799939197845864E-2</v>
+        <v>6.2399760494407971E-2</v>
       </c>
       <c r="E228" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B228),"",IF(ISBLANK('Totaux nationaux bruts'!B227),"",'Totaux nationaux bruts'!B228-'Totaux nationaux bruts'!B227))</f>
@@ -48449,14 +48778,14 @@
         <v>44081</v>
       </c>
       <c r="B229" s="11">
-        <v>379267</v>
+        <v>403197</v>
       </c>
       <c r="C229" s="11">
-        <v>21948</v>
+        <v>23866</v>
       </c>
       <c r="D229" s="67">
         <f t="shared" si="4"/>
-        <v>5.7869521999013886E-2</v>
+        <v>5.9191908669955384E-2</v>
       </c>
       <c r="E229" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B229),"",IF(ISBLANK('Totaux nationaux bruts'!B228),"",'Totaux nationaux bruts'!B229-'Totaux nationaux bruts'!B228))</f>
@@ -48502,14 +48831,14 @@
         <v>44082</v>
       </c>
       <c r="B230" s="11">
-        <v>359179</v>
+        <v>400921</v>
       </c>
       <c r="C230" s="11">
-        <v>19439</v>
+        <v>22511</v>
       </c>
       <c r="D230" s="67">
         <f t="shared" si="4"/>
-        <v>5.4120647365241289E-2</v>
+        <v>5.6148218726382502E-2</v>
       </c>
       <c r="E230" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B230),"",IF(ISBLANK('Totaux nationaux bruts'!B229),"",'Totaux nationaux bruts'!B230-'Totaux nationaux bruts'!B229))</f>
@@ -48555,14 +48884,14 @@
         <v>44083</v>
       </c>
       <c r="B231" s="11">
-        <v>324158</v>
+        <v>387042</v>
       </c>
       <c r="C231" s="11">
-        <v>17289</v>
+        <v>21351</v>
       </c>
       <c r="D231" s="67">
         <f t="shared" si="4"/>
-        <v>5.3335102018151642E-2</v>
+        <v>5.5164555784643528E-2</v>
       </c>
       <c r="E231" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B231),"",IF(ISBLANK('Totaux nationaux bruts'!B230),"",'Totaux nationaux bruts'!B231-'Totaux nationaux bruts'!B230))</f>
@@ -48608,14 +48937,14 @@
         <v>44084</v>
       </c>
       <c r="B232" s="11">
-        <v>277652</v>
+        <v>404147</v>
       </c>
       <c r="C232" s="11">
-        <v>14042</v>
+        <v>22120</v>
       </c>
       <c r="D232" s="67">
         <f t="shared" si="4"/>
-        <v>5.0574099952458471E-2</v>
+        <v>5.4732560182309903E-2</v>
       </c>
       <c r="E232" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B232),"",IF(ISBLANK('Totaux nationaux bruts'!B231),"",'Totaux nationaux bruts'!B232-'Totaux nationaux bruts'!B231))</f>
@@ -48660,9 +48989,16 @@
       <c r="A233" s="12">
         <v>44085</v>
       </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
+      <c r="B233" s="11">
+        <v>417466</v>
+      </c>
+      <c r="C233" s="11">
+        <v>20569</v>
+      </c>
+      <c r="D233" s="67">
+        <f t="shared" si="4"/>
+        <v>4.9271078363267905E-2</v>
+      </c>
       <c r="E233" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B233),"",IF(ISBLANK('Totaux nationaux bruts'!B232),"",'Totaux nationaux bruts'!B233-'Totaux nationaux bruts'!B232))</f>
         <v>9406</v>
@@ -48706,252 +49042,318 @@
       <c r="A234" s="12">
         <v>44086</v>
       </c>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="52" t="str">
+      <c r="B234" s="11">
+        <v>165240</v>
+      </c>
+      <c r="C234" s="11">
+        <v>8251</v>
+      </c>
+      <c r="D234" s="67">
+        <f t="shared" si="4"/>
+        <v>4.9933430162188333E-2</v>
+      </c>
+      <c r="E234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B234),"",IF(ISBLANK('Totaux nationaux bruts'!B233),"",'Totaux nationaux bruts'!B234-'Totaux nationaux bruts'!B233))</f>
-        <v/>
-      </c>
-      <c r="F234" s="52" t="str">
+        <v>10561</v>
+      </c>
+      <c r="F234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C234),"",IF(ISBLANK('Totaux nationaux bruts'!C233),"",'Totaux nationaux bruts'!C234-'Totaux nationaux bruts'!C233))</f>
-        <v/>
-      </c>
-      <c r="G234" s="52"/>
-      <c r="H234" s="52" t="str">
+        <v>40</v>
+      </c>
+      <c r="G234" s="52">
+        <v>243</v>
+      </c>
+      <c r="H234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D234),"",IF(ISBLANK('Totaux nationaux bruts'!D233),"",'Totaux nationaux bruts'!D234-'Totaux nationaux bruts'!D233))</f>
-        <v/>
-      </c>
-      <c r="I234" s="52" t="str">
+        <v>172</v>
+      </c>
+      <c r="I234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E234),"",IF(ISBLANK('Totaux nationaux bruts'!E233),"",'Totaux nationaux bruts'!E234-'Totaux nationaux bruts'!E233))</f>
-        <v/>
-      </c>
-      <c r="J234" s="52"/>
-      <c r="K234" s="52" t="str">
+        <v>27</v>
+      </c>
+      <c r="J234" s="52">
+        <v>51</v>
+      </c>
+      <c r="K234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F234),"",IF(ISBLANK('Totaux nationaux bruts'!F233),"",'Totaux nationaux bruts'!F234-'Totaux nationaux bruts'!F233))</f>
-        <v/>
-      </c>
-      <c r="L234" s="52" t="str">
+        <v>17</v>
+      </c>
+      <c r="L234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G234),"",IF(ISBLANK('Totaux nationaux bruts'!G233),"",'Totaux nationaux bruts'!G234-'Totaux nationaux bruts'!G233))</f>
-        <v/>
-      </c>
-      <c r="M234" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M234" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H234),"",IF(ISBLANK('Totaux nationaux bruts'!H233),"",'Totaux nationaux bruts'!H234-'Totaux nationaux bruts'!H233))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N234" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>12/09/2020,,,,,,,,,</v>
+        <v>12/09/2020,10561,40,243,172,27,51,17,0,0</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>44087</v>
       </c>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="52" t="str">
+      <c r="B235" s="11">
+        <v>46089</v>
+      </c>
+      <c r="C235" s="11">
+        <v>2939</v>
+      </c>
+      <c r="D235" s="67">
+        <f t="shared" si="4"/>
+        <v>6.3767927271149299E-2</v>
+      </c>
+      <c r="E235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B235),"",IF(ISBLANK('Totaux nationaux bruts'!B234),"",'Totaux nationaux bruts'!B235-'Totaux nationaux bruts'!B234))</f>
-        <v/>
-      </c>
-      <c r="F235" s="52" t="str">
+        <v>7183</v>
+      </c>
+      <c r="F235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C235),"",IF(ISBLANK('Totaux nationaux bruts'!C234),"",'Totaux nationaux bruts'!C235-'Totaux nationaux bruts'!C234))</f>
-        <v/>
-      </c>
-      <c r="G235" s="52"/>
-      <c r="H235" s="52" t="str">
+        <v>52</v>
+      </c>
+      <c r="G235" s="52">
+        <v>98</v>
+      </c>
+      <c r="H235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D235),"",IF(ISBLANK('Totaux nationaux bruts'!D234),"",'Totaux nationaux bruts'!D235-'Totaux nationaux bruts'!D234))</f>
-        <v/>
-      </c>
-      <c r="I235" s="52" t="str">
+        <v>39</v>
+      </c>
+      <c r="I235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E235),"",IF(ISBLANK('Totaux nationaux bruts'!E234),"",'Totaux nationaux bruts'!E235-'Totaux nationaux bruts'!E234))</f>
-        <v/>
-      </c>
-      <c r="J235" s="52"/>
-      <c r="K235" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="J235" s="52">
+        <v>18</v>
+      </c>
+      <c r="K235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F235),"",IF(ISBLANK('Totaux nationaux bruts'!F234),"",'Totaux nationaux bruts'!F235-'Totaux nationaux bruts'!F234))</f>
-        <v/>
-      </c>
-      <c r="L235" s="52" t="str">
+        <v>6</v>
+      </c>
+      <c r="L235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G235),"",IF(ISBLANK('Totaux nationaux bruts'!G234),"",'Totaux nationaux bruts'!G235-'Totaux nationaux bruts'!G234))</f>
-        <v/>
-      </c>
-      <c r="M235" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M235" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H235),"",IF(ISBLANK('Totaux nationaux bruts'!H234),"",'Totaux nationaux bruts'!H235-'Totaux nationaux bruts'!H234))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N235" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>13/09/2020,,,,,,,,,</v>
+        <v>13/09/2020,7183,52,98,39,7,18,6,0,0</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>44088</v>
       </c>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="52" t="str">
+      <c r="B236" s="11">
+        <v>420742</v>
+      </c>
+      <c r="C236" s="11">
+        <v>25691</v>
+      </c>
+      <c r="D236" s="67">
+        <f t="shared" si="4"/>
+        <v>6.1061172880292433E-2</v>
+      </c>
+      <c r="E236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B236),"",IF(ISBLANK('Totaux nationaux bruts'!B235),"",'Totaux nationaux bruts'!B236-'Totaux nationaux bruts'!B235))</f>
-        <v/>
-      </c>
-      <c r="F236" s="52" t="str">
+        <v>6158</v>
+      </c>
+      <c r="F236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C236),"",IF(ISBLANK('Totaux nationaux bruts'!C235),"",'Totaux nationaux bruts'!C236-'Totaux nationaux bruts'!C235))</f>
-        <v/>
-      </c>
-      <c r="G236" s="52"/>
-      <c r="H236" s="52" t="str">
+        <v>251</v>
+      </c>
+      <c r="G236" s="52">
+        <v>545</v>
+      </c>
+      <c r="H236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D236),"",IF(ISBLANK('Totaux nationaux bruts'!D235),"",'Totaux nationaux bruts'!D236-'Totaux nationaux bruts'!D235))</f>
-        <v/>
-      </c>
-      <c r="I236" s="52" t="str">
+        <v>237</v>
+      </c>
+      <c r="I236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E236),"",IF(ISBLANK('Totaux nationaux bruts'!E235),"",'Totaux nationaux bruts'!E236-'Totaux nationaux bruts'!E235))</f>
-        <v/>
-      </c>
-      <c r="J236" s="52"/>
-      <c r="K236" s="52" t="str">
+        <v>43</v>
+      </c>
+      <c r="J236" s="52">
+        <v>104</v>
+      </c>
+      <c r="K236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F236),"",IF(ISBLANK('Totaux nationaux bruts'!F235),"",'Totaux nationaux bruts'!F236-'Totaux nationaux bruts'!F235))</f>
-        <v/>
-      </c>
-      <c r="L236" s="52" t="str">
+        <v>34</v>
+      </c>
+      <c r="L236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G236),"",IF(ISBLANK('Totaux nationaux bruts'!G235),"",'Totaux nationaux bruts'!G236-'Totaux nationaux bruts'!G235))</f>
-        <v/>
-      </c>
-      <c r="M236" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M236" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H236),"",IF(ISBLANK('Totaux nationaux bruts'!H235),"",'Totaux nationaux bruts'!H236-'Totaux nationaux bruts'!H235))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N236" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>14/09/2020,,,,,,,,,</v>
+        <v>14/09/2020,6158,251,545,237,43,104,34,0,0</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>44089</v>
       </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="52" t="str">
+      <c r="B237" s="11">
+        <v>391203</v>
+      </c>
+      <c r="C237" s="11">
+        <v>22372</v>
+      </c>
+      <c r="D237" s="67">
+        <f t="shared" si="4"/>
+        <v>5.7187700503319248E-2</v>
+      </c>
+      <c r="E237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B237),"",IF(ISBLANK('Totaux nationaux bruts'!B236),"",'Totaux nationaux bruts'!B237-'Totaux nationaux bruts'!B236))</f>
-        <v/>
-      </c>
-      <c r="F237" s="52" t="str">
+        <v>7852</v>
+      </c>
+      <c r="F237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C237),"",IF(ISBLANK('Totaux nationaux bruts'!C236),"",'Totaux nationaux bruts'!C237-'Totaux nationaux bruts'!C236))</f>
-        <v/>
-      </c>
-      <c r="G237" s="52"/>
-      <c r="H237" s="52" t="str">
+        <v>181</v>
+      </c>
+      <c r="G237" s="52">
+        <v>642</v>
+      </c>
+      <c r="H237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D237),"",IF(ISBLANK('Totaux nationaux bruts'!D236),"",'Totaux nationaux bruts'!D237-'Totaux nationaux bruts'!D236))</f>
-        <v/>
-      </c>
-      <c r="I237" s="52" t="str">
+        <v>384</v>
+      </c>
+      <c r="I237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E237),"",IF(ISBLANK('Totaux nationaux bruts'!E236),"",'Totaux nationaux bruts'!E237-'Totaux nationaux bruts'!E236))</f>
-        <v/>
-      </c>
-      <c r="J237" s="52"/>
-      <c r="K237" s="52" t="str">
+        <v>47</v>
+      </c>
+      <c r="J237" s="52">
+        <v>117</v>
+      </c>
+      <c r="K237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F237),"",IF(ISBLANK('Totaux nationaux bruts'!F236),"",'Totaux nationaux bruts'!F237-'Totaux nationaux bruts'!F236))</f>
-        <v/>
-      </c>
-      <c r="L237" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!G237),"",IF(ISBLANK('Totaux nationaux bruts'!G236),"",'Totaux nationaux bruts'!G237-'Totaux nationaux bruts'!G236))</f>
-        <v/>
-      </c>
-      <c r="M237" s="52" t="str">
+        <v>36</v>
+      </c>
+      <c r="L237" s="52" t="e">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!#REF!),"",IF(ISBLANK('Totaux nationaux bruts'!G236),"",'Totaux nationaux bruts'!#REF!-'Totaux nationaux bruts'!G236))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M237" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H237),"",IF(ISBLANK('Totaux nationaux bruts'!H236),"",'Totaux nationaux bruts'!H237-'Totaux nationaux bruts'!H236))</f>
-        <v/>
-      </c>
-      <c r="N237" s="10" t="str">
+        <v>13</v>
+      </c>
+      <c r="N237" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>15/09/2020,,,,,,,,,</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>44090</v>
       </c>
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="52" t="str">
+      <c r="B238" s="11">
+        <v>339856</v>
+      </c>
+      <c r="C238" s="11">
+        <v>20921</v>
+      </c>
+      <c r="D238" s="67">
+        <f t="shared" si="4"/>
+        <v>6.155842474459771E-2</v>
+      </c>
+      <c r="E238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B238),"",IF(ISBLANK('Totaux nationaux bruts'!B237),"",'Totaux nationaux bruts'!B238-'Totaux nationaux bruts'!B237))</f>
-        <v/>
-      </c>
-      <c r="F238" s="52" t="str">
+        <v>9784</v>
+      </c>
+      <c r="F238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C238),"",IF(ISBLANK('Totaux nationaux bruts'!C237),"",'Totaux nationaux bruts'!C238-'Totaux nationaux bruts'!C237))</f>
-        <v/>
-      </c>
-      <c r="G238" s="52"/>
-      <c r="H238" s="52" t="str">
+        <v>140</v>
+      </c>
+      <c r="G238" s="52">
+        <v>649</v>
+      </c>
+      <c r="H238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D238),"",IF(ISBLANK('Totaux nationaux bruts'!D237),"",'Totaux nationaux bruts'!D238-'Totaux nationaux bruts'!D237))</f>
-        <v/>
-      </c>
-      <c r="I238" s="52" t="str">
+        <v>444</v>
+      </c>
+      <c r="I238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E238),"",IF(ISBLANK('Totaux nationaux bruts'!E237),"",'Totaux nationaux bruts'!E238-'Totaux nationaux bruts'!E237))</f>
-        <v/>
-      </c>
-      <c r="J238" s="52"/>
-      <c r="K238" s="52" t="str">
+        <v>44</v>
+      </c>
+      <c r="J238" s="52">
+        <v>100</v>
+      </c>
+      <c r="K238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F238),"",IF(ISBLANK('Totaux nationaux bruts'!F237),"",'Totaux nationaux bruts'!F238-'Totaux nationaux bruts'!F237))</f>
-        <v/>
-      </c>
-      <c r="L238" s="52" t="str">
-        <f>IF(ISBLANK('Totaux nationaux bruts'!G238),"",IF(ISBLANK('Totaux nationaux bruts'!G237),"",'Totaux nationaux bruts'!G238-'Totaux nationaux bruts'!G237))</f>
-        <v/>
-      </c>
-      <c r="M238" s="52" t="str">
+        <v>46</v>
+      </c>
+      <c r="L238" s="52" t="e">
+        <f>IF(ISBLANK('Totaux nationaux bruts'!G238),"",IF(ISBLANK('Totaux nationaux bruts'!#REF!),"",'Totaux nationaux bruts'!G238-'Totaux nationaux bruts'!#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M238" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H238),"",IF(ISBLANK('Totaux nationaux bruts'!H237),"",'Totaux nationaux bruts'!H238-'Totaux nationaux bruts'!H237))</f>
-        <v/>
-      </c>
-      <c r="N238" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="N238" s="10" t="e">
         <f t="shared" si="5"/>
-        <v>16/09/2020,,,,,,,,,</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>44091</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="52" t="str">
+      <c r="B239" s="11">
+        <v>291106</v>
+      </c>
+      <c r="C239" s="11">
+        <v>17736</v>
+      </c>
+      <c r="D239" s="67">
+        <f t="shared" si="4"/>
+        <v>6.0926260537398746E-2</v>
+      </c>
+      <c r="E239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B239),"",IF(ISBLANK('Totaux nationaux bruts'!B238),"",'Totaux nationaux bruts'!B239-'Totaux nationaux bruts'!B238))</f>
-        <v/>
-      </c>
-      <c r="F239" s="52" t="str">
+        <v>10593</v>
+      </c>
+      <c r="F239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C239),"",IF(ISBLANK('Totaux nationaux bruts'!C238),"",'Totaux nationaux bruts'!C239-'Totaux nationaux bruts'!C238))</f>
-        <v/>
-      </c>
-      <c r="G239" s="52"/>
-      <c r="H239" s="52" t="str">
+        <v>25</v>
+      </c>
+      <c r="G239" s="52">
+        <v>599</v>
+      </c>
+      <c r="H239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D239),"",IF(ISBLANK('Totaux nationaux bruts'!D238),"",'Totaux nationaux bruts'!D239-'Totaux nationaux bruts'!D238))</f>
-        <v/>
-      </c>
-      <c r="I239" s="52" t="str">
+        <v>505</v>
+      </c>
+      <c r="I239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E239),"",IF(ISBLANK('Totaux nationaux bruts'!E238),"",'Totaux nationaux bruts'!E239-'Totaux nationaux bruts'!E238))</f>
-        <v/>
-      </c>
-      <c r="J239" s="52"/>
-      <c r="K239" s="52" t="str">
+        <v>-3</v>
+      </c>
+      <c r="J239" s="52">
+        <v>81</v>
+      </c>
+      <c r="K239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F239),"",IF(ISBLANK('Totaux nationaux bruts'!F238),"",'Totaux nationaux bruts'!F239-'Totaux nationaux bruts'!F238))</f>
-        <v/>
-      </c>
-      <c r="L239" s="52" t="str">
+        <v>50</v>
+      </c>
+      <c r="L239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G239),"",IF(ISBLANK('Totaux nationaux bruts'!G238),"",'Totaux nationaux bruts'!G239-'Totaux nationaux bruts'!G238))</f>
-        <v/>
-      </c>
-      <c r="M239" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M239" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H239),"",IF(ISBLANK('Totaux nationaux bruts'!H238),"",'Totaux nationaux bruts'!H239-'Totaux nationaux bruts'!H238))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N239" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>17/09/2020,,,,,,,,,</v>
+        <v>17/09/2020,10593,25,599,505,-3,81,50,0,0</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -48961,39 +49363,43 @@
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
-      <c r="E240" s="52" t="str">
+      <c r="E240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B240),"",IF(ISBLANK('Totaux nationaux bruts'!B239),"",'Totaux nationaux bruts'!B240-'Totaux nationaux bruts'!B239))</f>
-        <v/>
-      </c>
-      <c r="F240" s="52" t="str">
+        <v>13215</v>
+      </c>
+      <c r="F240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C240),"",IF(ISBLANK('Totaux nationaux bruts'!C239),"",'Totaux nationaux bruts'!C240-'Totaux nationaux bruts'!C239))</f>
-        <v/>
-      </c>
-      <c r="G240" s="52"/>
-      <c r="H240" s="52" t="str">
+        <v>-25</v>
+      </c>
+      <c r="G240" s="52">
+        <v>850</v>
+      </c>
+      <c r="H240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D240),"",IF(ISBLANK('Totaux nationaux bruts'!D239),"",'Totaux nationaux bruts'!D240-'Totaux nationaux bruts'!D239))</f>
-        <v/>
-      </c>
-      <c r="I240" s="52" t="str">
+        <v>734</v>
+      </c>
+      <c r="I240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E240),"",IF(ISBLANK('Totaux nationaux bruts'!E239),"",'Totaux nationaux bruts'!E240-'Totaux nationaux bruts'!E239))</f>
-        <v/>
-      </c>
-      <c r="J240" s="52"/>
-      <c r="K240" s="52" t="str">
+        <v>27</v>
+      </c>
+      <c r="J240" s="52">
+        <v>100</v>
+      </c>
+      <c r="K240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F240),"",IF(ISBLANK('Totaux nationaux bruts'!F239),"",'Totaux nationaux bruts'!F240-'Totaux nationaux bruts'!F239))</f>
-        <v/>
-      </c>
-      <c r="L240" s="52" t="str">
+        <v>122</v>
+      </c>
+      <c r="L240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G240),"",IF(ISBLANK('Totaux nationaux bruts'!G239),"",'Totaux nationaux bruts'!G240-'Totaux nationaux bruts'!G239))</f>
-        <v/>
-      </c>
-      <c r="M240" s="52" t="str">
+        <v>652</v>
+      </c>
+      <c r="M240" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H240),"",IF(ISBLANK('Totaux nationaux bruts'!H239),"",'Totaux nationaux bruts'!H240-'Totaux nationaux bruts'!H239))</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="N240" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>18/09/2020,,,,,,,,,</v>
+        <v>18/09/2020,13215,-25,850,734,27,100,122,652,32</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -49706,7 +50112,7 @@
         <v/>
       </c>
       <c r="N257" s="10" t="str">
-        <f t="shared" ref="N257:N320" si="6">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257&amp;","&amp;I257&amp;","&amp;J257&amp;","&amp;K257&amp;","&amp;L257&amp;","&amp;M257</f>
+        <f t="shared" ref="N257:N280" si="6">TEXT(A257,"jj/mm/aaaa")&amp;","&amp;E257&amp;","&amp;F257&amp;","&amp;G257&amp;","&amp;H257&amp;","&amp;I257&amp;","&amp;J257&amp;","&amp;K257&amp;","&amp;L257&amp;","&amp;M257</f>
         <v>05/10/2020,,,,,,,,,</v>
       </c>
     </row>
@@ -50806,7 +51212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>

--- a/Stats coronavirus.xlsx
+++ b/Stats coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B343AC-D15E-458D-8DBA-E4C33DCB2305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D11945-9578-43B4-92B4-6BE8ED835E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="720" windowWidth="18696" windowHeight="12360" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="10008" yWindow="480" windowWidth="12576" windowHeight="11628" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -2713,31 +2713,31 @@
                   <c:v>13215</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>13498</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>10569</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>5298</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>10008</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>13072</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>16096</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>15797</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>14412</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>11123</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>0</c:v>
@@ -4685,31 +4685,31 @@
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>0</c:v>
@@ -6602,6 +6602,33 @@
                 <c:pt idx="238">
                   <c:v>20689</c:v>
                 </c:pt>
+                <c:pt idx="239">
+                  <c:v>20714</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>20725</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>20778</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20845</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>20888</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>20940</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>20995</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>21034</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>21061</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8058,6 +8085,33 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10571</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10571</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>10571</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>10666</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>10666</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>10666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11038,6 +11092,33 @@
                 <c:pt idx="238">
                   <c:v>428696</c:v>
                 </c:pt>
+                <c:pt idx="239">
+                  <c:v>442194</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>452763</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>458061</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>468069</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>481141</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>497237</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>513034</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>527446</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>538569</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12768,6 +12849,33 @@
                 <c:pt idx="238">
                   <c:v>5819</c:v>
                 </c:pt>
+                <c:pt idx="239">
+                  <c:v>5512</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5375</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5616</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5796</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5932</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6031</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>6128</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>6253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14386,6 +14494,33 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16108,6 +16243,33 @@
                 <c:pt idx="238">
                   <c:v>91574</c:v>
                 </c:pt>
+                <c:pt idx="239">
+                  <c:v>92319</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>92582</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>93008</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>93538</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>93982</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>94413</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>94891</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>95303</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>95426</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17938,31 +18100,31 @@
                   <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>745</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>0</c:v>
@@ -19805,6 +19967,33 @@
                 <c:pt idx="238">
                   <c:v>827</c:v>
                 </c:pt>
+                <c:pt idx="239">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1118</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21423,6 +21612,33 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23225,6 +23441,33 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>20689</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>20714</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>20725</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>20778</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20845</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>20888</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>20940</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>20995</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>21034</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>21061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30277,8 +30520,8 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36718,144 +36961,270 @@
       <c r="A241" s="12">
         <v>44093</v>
       </c>
-      <c r="B241" s="57"/>
-      <c r="C241" s="57"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
-      <c r="H241" s="57"/>
+      <c r="B241" s="57">
+        <v>442194</v>
+      </c>
+      <c r="C241" s="57">
+        <v>5512</v>
+      </c>
+      <c r="D241" s="57">
+        <v>92319</v>
+      </c>
+      <c r="E241" s="57">
+        <v>834</v>
+      </c>
+      <c r="F241" s="57">
+        <v>20714</v>
+      </c>
+      <c r="G241" s="57">
+        <v>42699</v>
+      </c>
+      <c r="H241" s="57">
+        <v>10560</v>
+      </c>
       <c r="I241" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>19/09/2020,,,,,,,</v>
+        <v>19/09/2020,442194,5512,92319,834,20714,42699,10560</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>44094</v>
       </c>
-      <c r="B242" s="57"/>
-      <c r="C242" s="57"/>
-      <c r="D242" s="57"/>
-      <c r="E242" s="57"/>
-      <c r="F242" s="57"/>
-      <c r="G242" s="57"/>
-      <c r="H242" s="57"/>
+      <c r="B242" s="57">
+        <v>452763</v>
+      </c>
+      <c r="C242" s="57">
+        <v>5375</v>
+      </c>
+      <c r="D242" s="57">
+        <v>92582</v>
+      </c>
+      <c r="E242" s="57">
+        <v>841</v>
+      </c>
+      <c r="F242" s="57">
+        <v>20725</v>
+      </c>
+      <c r="G242" s="57">
+        <v>42699</v>
+      </c>
+      <c r="H242" s="57">
+        <v>10560</v>
+      </c>
       <c r="I242" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>20/09/2020,,,,,,,</v>
+        <v>20/09/2020,452763,5375,92582,841,20725,42699,10560</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>44095</v>
       </c>
-      <c r="B243" s="57"/>
-      <c r="C243" s="57"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="57"/>
-      <c r="F243" s="57"/>
-      <c r="G243" s="57"/>
-      <c r="H243" s="57"/>
+      <c r="B243" s="57">
+        <v>458061</v>
+      </c>
+      <c r="C243" s="57">
+        <v>5616</v>
+      </c>
+      <c r="D243" s="57">
+        <v>93008</v>
+      </c>
+      <c r="E243" s="57">
+        <v>919</v>
+      </c>
+      <c r="F243" s="57">
+        <v>20778</v>
+      </c>
+      <c r="G243" s="57">
+        <v>42699</v>
+      </c>
+      <c r="H243" s="57">
+        <v>10560</v>
+      </c>
       <c r="I243" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>21/09/2020,,,,,,,</v>
+        <v>21/09/2020,458061,5616,93008,919,20778,42699,10560</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>44096</v>
       </c>
-      <c r="B244" s="57"/>
-      <c r="C244" s="57"/>
-      <c r="D244" s="57"/>
-      <c r="E244" s="57"/>
-      <c r="F244" s="57"/>
-      <c r="G244" s="57"/>
-      <c r="H244" s="57"/>
+      <c r="B244" s="57">
+        <v>468069</v>
+      </c>
+      <c r="C244" s="57">
+        <v>5796</v>
+      </c>
+      <c r="D244" s="57">
+        <v>93538</v>
+      </c>
+      <c r="E244" s="57">
+        <v>951</v>
+      </c>
+      <c r="F244" s="57">
+        <v>20845</v>
+      </c>
+      <c r="G244" s="57">
+        <v>43555</v>
+      </c>
+      <c r="H244" s="57">
+        <v>10571</v>
+      </c>
       <c r="I244" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>22/09/2020,,,,,,,</v>
+        <v>22/09/2020,468069,5796,93538,951,20845,43555,10571</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>44097</v>
       </c>
-      <c r="B245" s="57"/>
-      <c r="C245" s="57"/>
-      <c r="D245" s="57"/>
-      <c r="E245" s="57"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
-      <c r="H245" s="57"/>
+      <c r="B245" s="57">
+        <v>481141</v>
+      </c>
+      <c r="C245" s="57">
+        <v>5932</v>
+      </c>
+      <c r="D245" s="57">
+        <v>93982</v>
+      </c>
+      <c r="E245" s="57">
+        <v>1002</v>
+      </c>
+      <c r="F245" s="57">
+        <v>20888</v>
+      </c>
+      <c r="G245" s="57">
+        <v>43555</v>
+      </c>
+      <c r="H245" s="57">
+        <v>10571</v>
+      </c>
       <c r="I245" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>23/09/2020,,,,,,,</v>
+        <v>23/09/2020,481141,5932,93982,1002,20888,43555,10571</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>44098</v>
       </c>
-      <c r="B246" s="57"/>
-      <c r="C246" s="57"/>
-      <c r="D246" s="57"/>
-      <c r="E246" s="57"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
-      <c r="H246" s="57"/>
+      <c r="B246" s="57">
+        <v>497237</v>
+      </c>
+      <c r="C246" s="57">
+        <v>6031</v>
+      </c>
+      <c r="D246" s="57">
+        <v>94413</v>
+      </c>
+      <c r="E246" s="57">
+        <v>1048</v>
+      </c>
+      <c r="F246" s="57">
+        <v>20940</v>
+      </c>
+      <c r="G246" s="57">
+        <v>43555</v>
+      </c>
+      <c r="H246" s="57">
+        <v>10571</v>
+      </c>
       <c r="I246" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>24/09/2020,,,,,,,</v>
+        <v>24/09/2020,497237,6031,94413,1048,20940,43555,10571</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>44099</v>
       </c>
-      <c r="B247" s="57"/>
-      <c r="C247" s="57"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="57"/>
-      <c r="F247" s="57"/>
-      <c r="G247" s="57"/>
-      <c r="H247" s="57"/>
+      <c r="B247" s="57">
+        <v>513034</v>
+      </c>
+      <c r="C247" s="57">
+        <v>6128</v>
+      </c>
+      <c r="D247" s="57">
+        <v>94891</v>
+      </c>
+      <c r="E247" s="57">
+        <v>1098</v>
+      </c>
+      <c r="F247" s="57">
+        <v>20995</v>
+      </c>
+      <c r="G247" s="57">
+        <v>44471</v>
+      </c>
+      <c r="H247" s="57">
+        <v>10666</v>
+      </c>
       <c r="I247" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>25/09/2020,,,,,,,</v>
+        <v>25/09/2020,513034,6128,94891,1098,20995,44471,10666</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>44100</v>
       </c>
-      <c r="B248" s="57"/>
-      <c r="C248" s="57"/>
-      <c r="D248" s="57"/>
-      <c r="E248" s="57"/>
-      <c r="F248" s="57"/>
-      <c r="G248" s="57"/>
-      <c r="H248" s="57"/>
+      <c r="B248" s="57">
+        <v>527446</v>
+      </c>
+      <c r="C248" s="57">
+        <v>6172</v>
+      </c>
+      <c r="D248" s="57">
+        <v>95303</v>
+      </c>
+      <c r="E248" s="57">
+        <v>1111</v>
+      </c>
+      <c r="F248" s="57">
+        <v>21034</v>
+      </c>
+      <c r="G248" s="57">
+        <v>44471</v>
+      </c>
+      <c r="H248" s="57">
+        <v>10666</v>
+      </c>
       <c r="I248" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>26/09/2020,,,,,,,</v>
+        <v>26/09/2020,527446,6172,95303,1111,21034,44471,10666</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>44101</v>
       </c>
-      <c r="B249" s="57"/>
-      <c r="C249" s="57"/>
-      <c r="D249" s="57"/>
-      <c r="E249" s="57"/>
-      <c r="F249" s="57"/>
-      <c r="G249" s="57"/>
-      <c r="H249" s="57"/>
+      <c r="B249" s="57">
+        <v>538569</v>
+      </c>
+      <c r="C249" s="57">
+        <v>6253</v>
+      </c>
+      <c r="D249" s="57">
+        <v>95426</v>
+      </c>
+      <c r="E249" s="57">
+        <v>1118</v>
+      </c>
+      <c r="F249" s="57">
+        <v>21061</v>
+      </c>
+      <c r="G249" s="57">
+        <v>44471</v>
+      </c>
+      <c r="H249" s="57">
+        <v>10666</v>
+      </c>
       <c r="I249" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>27/09/2020,,,,,,,</v>
+        <v>27/09/2020,538569,6253,95426,1118,21061,44471,10666</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -37749,15 +38118,14 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H236" sqref="H236:H238"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="10"/>
-    <col min="4" max="4" width="10.59765625" style="10"/>
+    <col min="2" max="4" width="9.296875" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" style="3" customWidth="1"/>
@@ -49409,39 +49777,43 @@
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
-      <c r="E241" s="52" t="str">
+      <c r="E241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B241),"",IF(ISBLANK('Totaux nationaux bruts'!B240),"",'Totaux nationaux bruts'!B241-'Totaux nationaux bruts'!B240))</f>
-        <v/>
-      </c>
-      <c r="F241" s="52" t="str">
+        <v>13498</v>
+      </c>
+      <c r="F241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C241),"",IF(ISBLANK('Totaux nationaux bruts'!C240),"",'Totaux nationaux bruts'!C241-'Totaux nationaux bruts'!C240))</f>
-        <v/>
-      </c>
-      <c r="G241" s="52"/>
-      <c r="H241" s="52" t="str">
+        <v>-307</v>
+      </c>
+      <c r="G241" s="52">
+        <v>470</v>
+      </c>
+      <c r="H241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D241),"",IF(ISBLANK('Totaux nationaux bruts'!D240),"",'Totaux nationaux bruts'!D241-'Totaux nationaux bruts'!D240))</f>
-        <v/>
-      </c>
-      <c r="I241" s="52" t="str">
+        <v>745</v>
+      </c>
+      <c r="I241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E241),"",IF(ISBLANK('Totaux nationaux bruts'!E240),"",'Totaux nationaux bruts'!E241-'Totaux nationaux bruts'!E240))</f>
-        <v/>
-      </c>
-      <c r="J241" s="52"/>
-      <c r="K241" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="J241" s="52">
+        <v>73</v>
+      </c>
+      <c r="K241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F241),"",IF(ISBLANK('Totaux nationaux bruts'!F240),"",'Totaux nationaux bruts'!F241-'Totaux nationaux bruts'!F240))</f>
-        <v/>
-      </c>
-      <c r="L241" s="52" t="str">
+        <v>25</v>
+      </c>
+      <c r="L241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G241),"",IF(ISBLANK('Totaux nationaux bruts'!G240),"",'Totaux nationaux bruts'!G241-'Totaux nationaux bruts'!G240))</f>
-        <v/>
-      </c>
-      <c r="M241" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M241" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H241),"",IF(ISBLANK('Totaux nationaux bruts'!H240),"",'Totaux nationaux bruts'!H241-'Totaux nationaux bruts'!H240))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N241" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>19/09/2020,,,,,,,,,</v>
+        <v>19/09/2020,13498,-307,470,745,7,73,25,0,0</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -49451,39 +49823,43 @@
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
-      <c r="E242" s="52" t="str">
+      <c r="E242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B242),"",IF(ISBLANK('Totaux nationaux bruts'!B241),"",'Totaux nationaux bruts'!B242-'Totaux nationaux bruts'!B241))</f>
-        <v/>
-      </c>
-      <c r="F242" s="52" t="str">
+        <v>10569</v>
+      </c>
+      <c r="F242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C242),"",IF(ISBLANK('Totaux nationaux bruts'!C241),"",'Totaux nationaux bruts'!C242-'Totaux nationaux bruts'!C241))</f>
-        <v/>
-      </c>
-      <c r="G242" s="52"/>
-      <c r="H242" s="52" t="str">
+        <v>-137</v>
+      </c>
+      <c r="G242" s="52">
+        <v>139</v>
+      </c>
+      <c r="H242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D242),"",IF(ISBLANK('Totaux nationaux bruts'!D241),"",'Totaux nationaux bruts'!D242-'Totaux nationaux bruts'!D241))</f>
-        <v/>
-      </c>
-      <c r="I242" s="52" t="str">
+        <v>263</v>
+      </c>
+      <c r="I242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E242),"",IF(ISBLANK('Totaux nationaux bruts'!E241),"",'Totaux nationaux bruts'!E242-'Totaux nationaux bruts'!E241))</f>
-        <v/>
-      </c>
-      <c r="J242" s="52"/>
-      <c r="K242" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="J242" s="52">
+        <v>24</v>
+      </c>
+      <c r="K242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F242),"",IF(ISBLANK('Totaux nationaux bruts'!F241),"",'Totaux nationaux bruts'!F242-'Totaux nationaux bruts'!F241))</f>
-        <v/>
-      </c>
-      <c r="L242" s="52" t="str">
+        <v>11</v>
+      </c>
+      <c r="L242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G242),"",IF(ISBLANK('Totaux nationaux bruts'!G241),"",'Totaux nationaux bruts'!G242-'Totaux nationaux bruts'!G241))</f>
-        <v/>
-      </c>
-      <c r="M242" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M242" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H242),"",IF(ISBLANK('Totaux nationaux bruts'!H241),"",'Totaux nationaux bruts'!H242-'Totaux nationaux bruts'!H241))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N242" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>20/09/2020,,,,,,,,,</v>
+        <v>20/09/2020,10569,-137,139,263,7,24,11,0,0</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -49493,39 +49869,43 @@
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
-      <c r="E243" s="52" t="str">
+      <c r="E243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B243),"",IF(ISBLANK('Totaux nationaux bruts'!B242),"",'Totaux nationaux bruts'!B243-'Totaux nationaux bruts'!B242))</f>
-        <v/>
-      </c>
-      <c r="F243" s="52" t="str">
+        <v>5298</v>
+      </c>
+      <c r="F243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C243),"",IF(ISBLANK('Totaux nationaux bruts'!C242),"",'Totaux nationaux bruts'!C243-'Totaux nationaux bruts'!C242))</f>
-        <v/>
-      </c>
-      <c r="G243" s="52"/>
-      <c r="H243" s="52" t="str">
+        <v>241</v>
+      </c>
+      <c r="G243" s="52">
+        <v>754</v>
+      </c>
+      <c r="H243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D243),"",IF(ISBLANK('Totaux nationaux bruts'!D242),"",'Totaux nationaux bruts'!D243-'Totaux nationaux bruts'!D242))</f>
-        <v/>
-      </c>
-      <c r="I243" s="52" t="str">
+        <v>426</v>
+      </c>
+      <c r="I243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E243),"",IF(ISBLANK('Totaux nationaux bruts'!E242),"",'Totaux nationaux bruts'!E243-'Totaux nationaux bruts'!E242))</f>
-        <v/>
-      </c>
-      <c r="J243" s="52"/>
-      <c r="K243" s="52" t="str">
+        <v>78</v>
+      </c>
+      <c r="J243" s="52">
+        <v>143</v>
+      </c>
+      <c r="K243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F243),"",IF(ISBLANK('Totaux nationaux bruts'!F242),"",'Totaux nationaux bruts'!F243-'Totaux nationaux bruts'!F242))</f>
-        <v/>
-      </c>
-      <c r="L243" s="52" t="str">
+        <v>53</v>
+      </c>
+      <c r="L243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G243),"",IF(ISBLANK('Totaux nationaux bruts'!G242),"",'Totaux nationaux bruts'!G243-'Totaux nationaux bruts'!G242))</f>
-        <v/>
-      </c>
-      <c r="M243" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M243" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H243),"",IF(ISBLANK('Totaux nationaux bruts'!H242),"",'Totaux nationaux bruts'!H243-'Totaux nationaux bruts'!H242))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N243" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>21/09/2020,,,,,,,,,</v>
+        <v>21/09/2020,5298,241,754,426,78,143,53,0,0</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -49535,39 +49915,43 @@
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
-      <c r="E244" s="52" t="str">
+      <c r="E244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B244),"",IF(ISBLANK('Totaux nationaux bruts'!B243),"",'Totaux nationaux bruts'!B244-'Totaux nationaux bruts'!B243))</f>
-        <v/>
-      </c>
-      <c r="F244" s="52" t="str">
+        <v>10008</v>
+      </c>
+      <c r="F244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C244),"",IF(ISBLANK('Totaux nationaux bruts'!C243),"",'Totaux nationaux bruts'!C244-'Totaux nationaux bruts'!C243))</f>
-        <v/>
-      </c>
-      <c r="G244" s="52"/>
-      <c r="H244" s="52" t="str">
+        <v>180</v>
+      </c>
+      <c r="G244" s="52">
+        <v>783</v>
+      </c>
+      <c r="H244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D244),"",IF(ISBLANK('Totaux nationaux bruts'!D243),"",'Totaux nationaux bruts'!D244-'Totaux nationaux bruts'!D243))</f>
-        <v/>
-      </c>
-      <c r="I244" s="52" t="str">
+        <v>530</v>
+      </c>
+      <c r="I244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E244),"",IF(ISBLANK('Totaux nationaux bruts'!E243),"",'Totaux nationaux bruts'!E244-'Totaux nationaux bruts'!E243))</f>
-        <v/>
-      </c>
-      <c r="J244" s="52"/>
-      <c r="K244" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="J244" s="52">
+        <v>130</v>
+      </c>
+      <c r="K244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F244),"",IF(ISBLANK('Totaux nationaux bruts'!F243),"",'Totaux nationaux bruts'!F244-'Totaux nationaux bruts'!F243))</f>
-        <v/>
-      </c>
-      <c r="L244" s="52" t="str">
+        <v>67</v>
+      </c>
+      <c r="L244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G244),"",IF(ISBLANK('Totaux nationaux bruts'!G243),"",'Totaux nationaux bruts'!G244-'Totaux nationaux bruts'!G243))</f>
-        <v/>
-      </c>
-      <c r="M244" s="52" t="str">
+        <v>856</v>
+      </c>
+      <c r="M244" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H244),"",IF(ISBLANK('Totaux nationaux bruts'!H243),"",'Totaux nationaux bruts'!H244-'Totaux nationaux bruts'!H243))</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="N244" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>22/09/2020,,,,,,,,,</v>
+        <v>22/09/2020,10008,180,783,530,32,130,67,856,11</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -49577,39 +49961,43 @@
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
-      <c r="E245" s="52" t="str">
+      <c r="E245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B245),"",IF(ISBLANK('Totaux nationaux bruts'!B244),"",'Totaux nationaux bruts'!B245-'Totaux nationaux bruts'!B244))</f>
-        <v/>
-      </c>
-      <c r="F245" s="52" t="str">
+        <v>13072</v>
+      </c>
+      <c r="F245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C245),"",IF(ISBLANK('Totaux nationaux bruts'!C244),"",'Totaux nationaux bruts'!C245-'Totaux nationaux bruts'!C244))</f>
-        <v/>
-      </c>
-      <c r="G245" s="52"/>
-      <c r="H245" s="52" t="str">
+        <v>136</v>
+      </c>
+      <c r="G245" s="52">
+        <v>649</v>
+      </c>
+      <c r="H245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D245),"",IF(ISBLANK('Totaux nationaux bruts'!D244),"",'Totaux nationaux bruts'!D245-'Totaux nationaux bruts'!D244))</f>
-        <v/>
-      </c>
-      <c r="I245" s="52" t="str">
+        <v>444</v>
+      </c>
+      <c r="I245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E245),"",IF(ISBLANK('Totaux nationaux bruts'!E244),"",'Totaux nationaux bruts'!E245-'Totaux nationaux bruts'!E244))</f>
-        <v/>
-      </c>
-      <c r="J245" s="52"/>
-      <c r="K245" s="52" t="str">
+        <v>51</v>
+      </c>
+      <c r="J245" s="52">
+        <v>124</v>
+      </c>
+      <c r="K245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F245),"",IF(ISBLANK('Totaux nationaux bruts'!F244),"",'Totaux nationaux bruts'!F245-'Totaux nationaux bruts'!F244))</f>
-        <v/>
-      </c>
-      <c r="L245" s="52" t="str">
+        <v>43</v>
+      </c>
+      <c r="L245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G245),"",IF(ISBLANK('Totaux nationaux bruts'!G244),"",'Totaux nationaux bruts'!G245-'Totaux nationaux bruts'!G244))</f>
-        <v/>
-      </c>
-      <c r="M245" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M245" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H245),"",IF(ISBLANK('Totaux nationaux bruts'!H244),"",'Totaux nationaux bruts'!H245-'Totaux nationaux bruts'!H244))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N245" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>23/09/2020,,,,,,,,,</v>
+        <v>23/09/2020,13072,136,649,444,51,124,43,0,0</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -49619,39 +50007,43 @@
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
-      <c r="E246" s="52" t="str">
+      <c r="E246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B246),"",IF(ISBLANK('Totaux nationaux bruts'!B245),"",'Totaux nationaux bruts'!B246-'Totaux nationaux bruts'!B245))</f>
-        <v/>
-      </c>
-      <c r="F246" s="52" t="str">
+        <v>16096</v>
+      </c>
+      <c r="F246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C246),"",IF(ISBLANK('Totaux nationaux bruts'!C245),"",'Totaux nationaux bruts'!C246-'Totaux nationaux bruts'!C245))</f>
-        <v/>
-      </c>
-      <c r="G246" s="52"/>
-      <c r="H246" s="52" t="str">
+        <v>99</v>
+      </c>
+      <c r="G246" s="52">
+        <v>613</v>
+      </c>
+      <c r="H246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D246),"",IF(ISBLANK('Totaux nationaux bruts'!D245),"",'Totaux nationaux bruts'!D246-'Totaux nationaux bruts'!D245))</f>
-        <v/>
-      </c>
-      <c r="I246" s="52" t="str">
+        <v>431</v>
+      </c>
+      <c r="I246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E246),"",IF(ISBLANK('Totaux nationaux bruts'!E245),"",'Totaux nationaux bruts'!E246-'Totaux nationaux bruts'!E245))</f>
-        <v/>
-      </c>
-      <c r="J246" s="52"/>
-      <c r="K246" s="52" t="str">
+        <v>46</v>
+      </c>
+      <c r="J246" s="52">
+        <v>124</v>
+      </c>
+      <c r="K246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F246),"",IF(ISBLANK('Totaux nationaux bruts'!F245),"",'Totaux nationaux bruts'!F246-'Totaux nationaux bruts'!F245))</f>
-        <v/>
-      </c>
-      <c r="L246" s="52" t="str">
+        <v>52</v>
+      </c>
+      <c r="L246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G246),"",IF(ISBLANK('Totaux nationaux bruts'!G245),"",'Totaux nationaux bruts'!G246-'Totaux nationaux bruts'!G245))</f>
-        <v/>
-      </c>
-      <c r="M246" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M246" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H246),"",IF(ISBLANK('Totaux nationaux bruts'!H245),"",'Totaux nationaux bruts'!H246-'Totaux nationaux bruts'!H245))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N246" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>24/09/2020,,,,,,,,,</v>
+        <v>24/09/2020,16096,99,613,431,46,124,52,0,0</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -49661,39 +50053,43 @@
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
-      <c r="E247" s="52" t="str">
+      <c r="E247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B247),"",IF(ISBLANK('Totaux nationaux bruts'!B246),"",'Totaux nationaux bruts'!B247-'Totaux nationaux bruts'!B246))</f>
-        <v/>
-      </c>
-      <c r="F247" s="52" t="str">
+        <v>15797</v>
+      </c>
+      <c r="F247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C247),"",IF(ISBLANK('Totaux nationaux bruts'!C246),"",'Totaux nationaux bruts'!C247-'Totaux nationaux bruts'!C246))</f>
-        <v/>
-      </c>
-      <c r="G247" s="52"/>
-      <c r="H247" s="52" t="str">
+        <v>97</v>
+      </c>
+      <c r="G247" s="52">
+        <v>661</v>
+      </c>
+      <c r="H247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D247),"",IF(ISBLANK('Totaux nationaux bruts'!D246),"",'Totaux nationaux bruts'!D247-'Totaux nationaux bruts'!D246))</f>
-        <v/>
-      </c>
-      <c r="I247" s="52" t="str">
+        <v>478</v>
+      </c>
+      <c r="I247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E247),"",IF(ISBLANK('Totaux nationaux bruts'!E246),"",'Totaux nationaux bruts'!E247-'Totaux nationaux bruts'!E246))</f>
-        <v/>
-      </c>
-      <c r="J247" s="52"/>
-      <c r="K247" s="52" t="str">
+        <v>50</v>
+      </c>
+      <c r="J247" s="52">
+        <v>129</v>
+      </c>
+      <c r="K247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F247),"",IF(ISBLANK('Totaux nationaux bruts'!F246),"",'Totaux nationaux bruts'!F247-'Totaux nationaux bruts'!F246))</f>
-        <v/>
-      </c>
-      <c r="L247" s="52" t="str">
+        <v>55</v>
+      </c>
+      <c r="L247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G247),"",IF(ISBLANK('Totaux nationaux bruts'!G246),"",'Totaux nationaux bruts'!G247-'Totaux nationaux bruts'!G246))</f>
-        <v/>
-      </c>
-      <c r="M247" s="52" t="str">
+        <v>916</v>
+      </c>
+      <c r="M247" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H247),"",IF(ISBLANK('Totaux nationaux bruts'!H246),"",'Totaux nationaux bruts'!H247-'Totaux nationaux bruts'!H246))</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="N247" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>25/09/2020,,,,,,,,,</v>
+        <v>25/09/2020,15797,97,661,478,50,129,55,916,95</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -49703,39 +50099,43 @@
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
-      <c r="E248" s="52" t="str">
+      <c r="E248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B248),"",IF(ISBLANK('Totaux nationaux bruts'!B247),"",'Totaux nationaux bruts'!B248-'Totaux nationaux bruts'!B247))</f>
-        <v/>
-      </c>
-      <c r="F248" s="52" t="str">
+        <v>14412</v>
+      </c>
+      <c r="F248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C248),"",IF(ISBLANK('Totaux nationaux bruts'!C247),"",'Totaux nationaux bruts'!C248-'Totaux nationaux bruts'!C247))</f>
-        <v/>
-      </c>
-      <c r="G248" s="52"/>
-      <c r="H248" s="52" t="str">
+        <v>44</v>
+      </c>
+      <c r="G248" s="52">
+        <v>503</v>
+      </c>
+      <c r="H248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D248),"",IF(ISBLANK('Totaux nationaux bruts'!D247),"",'Totaux nationaux bruts'!D248-'Totaux nationaux bruts'!D247))</f>
-        <v/>
-      </c>
-      <c r="I248" s="52" t="str">
+        <v>412</v>
+      </c>
+      <c r="I248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E248),"",IF(ISBLANK('Totaux nationaux bruts'!E247),"",'Totaux nationaux bruts'!E248-'Totaux nationaux bruts'!E247))</f>
-        <v/>
-      </c>
-      <c r="J248" s="52"/>
-      <c r="K248" s="52" t="str">
+        <v>13</v>
+      </c>
+      <c r="J248" s="52">
+        <v>89</v>
+      </c>
+      <c r="K248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F248),"",IF(ISBLANK('Totaux nationaux bruts'!F247),"",'Totaux nationaux bruts'!F248-'Totaux nationaux bruts'!F247))</f>
-        <v/>
-      </c>
-      <c r="L248" s="52" t="str">
+        <v>39</v>
+      </c>
+      <c r="L248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G248),"",IF(ISBLANK('Totaux nationaux bruts'!G247),"",'Totaux nationaux bruts'!G248-'Totaux nationaux bruts'!G247))</f>
-        <v/>
-      </c>
-      <c r="M248" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M248" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H248),"",IF(ISBLANK('Totaux nationaux bruts'!H247),"",'Totaux nationaux bruts'!H248-'Totaux nationaux bruts'!H247))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N248" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>26/09/2020,,,,,,,,,</v>
+        <v>26/09/2020,14412,44,503,412,13,89,39,0,0</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -49745,39 +50145,43 @@
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
-      <c r="E249" s="52" t="str">
+      <c r="E249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!B249),"",IF(ISBLANK('Totaux nationaux bruts'!B248),"",'Totaux nationaux bruts'!B249-'Totaux nationaux bruts'!B248))</f>
-        <v/>
-      </c>
-      <c r="F249" s="52" t="str">
+        <v>11123</v>
+      </c>
+      <c r="F249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!C249),"",IF(ISBLANK('Totaux nationaux bruts'!C248),"",'Totaux nationaux bruts'!C249-'Totaux nationaux bruts'!C248))</f>
-        <v/>
-      </c>
-      <c r="G249" s="52"/>
-      <c r="H249" s="52" t="str">
+        <v>81</v>
+      </c>
+      <c r="G249" s="52">
+        <v>241</v>
+      </c>
+      <c r="H249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!D249),"",IF(ISBLANK('Totaux nationaux bruts'!D248),"",'Totaux nationaux bruts'!D249-'Totaux nationaux bruts'!D248))</f>
-        <v/>
-      </c>
-      <c r="I249" s="52" t="str">
+        <v>123</v>
+      </c>
+      <c r="I249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!E249),"",IF(ISBLANK('Totaux nationaux bruts'!E248),"",'Totaux nationaux bruts'!E249-'Totaux nationaux bruts'!E248))</f>
-        <v/>
-      </c>
-      <c r="J249" s="52"/>
-      <c r="K249" s="52" t="str">
+        <v>7</v>
+      </c>
+      <c r="J249" s="52">
+        <v>47</v>
+      </c>
+      <c r="K249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!F249),"",IF(ISBLANK('Totaux nationaux bruts'!F248),"",'Totaux nationaux bruts'!F249-'Totaux nationaux bruts'!F248))</f>
-        <v/>
-      </c>
-      <c r="L249" s="52" t="str">
+        <v>27</v>
+      </c>
+      <c r="L249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!G249),"",IF(ISBLANK('Totaux nationaux bruts'!G248),"",'Totaux nationaux bruts'!G249-'Totaux nationaux bruts'!G248))</f>
-        <v/>
-      </c>
-      <c r="M249" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="M249" s="52">
         <f>IF(ISBLANK('Totaux nationaux bruts'!H249),"",IF(ISBLANK('Totaux nationaux bruts'!H248),"",'Totaux nationaux bruts'!H249-'Totaux nationaux bruts'!H248))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N249" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>27/09/2020,,,,,,,,,</v>
+        <v>27/09/2020,11123,81,241,123,7,47,27,0,0</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -51212,7 +51616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FA425-12BF-4CA1-9977-988BBFAB953C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
